--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175935</v>
+        <v>0.390598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187315</v>
+        <v>0.391838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196941</v>
+        <v>0.381916</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176336</v>
+        <v>0.381104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188204</v>
+        <v>0.384279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197467</v>
+        <v>0.374985</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177096</v>
+        <v>0.373773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189133</v>
+        <v>0.377648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198874</v>
+        <v>0.369305</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177694</v>
+        <v>0.367573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190699</v>
+        <v>0.372181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200555</v>
+        <v>0.364746</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178658</v>
+        <v>0.361369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192582</v>
+        <v>0.368035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202669</v>
+        <v>0.361455</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18033</v>
+        <v>0.35695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194705</v>
+        <v>0.36463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205602</v>
+        <v>0.359377</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182513</v>
+        <v>0.353834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19773</v>
+        <v>0.362779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210269</v>
+        <v>0.359505</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186249</v>
+        <v>0.352256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201556</v>
+        <v>0.362667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193903</v>
+        <v>0.469557</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181953</v>
+        <v>0.465987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187053</v>
+        <v>0.484106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194048</v>
+        <v>0.463844</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181962</v>
+        <v>0.454668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186987</v>
+        <v>0.471688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195364</v>
+        <v>0.452686</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183004</v>
+        <v>0.444121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18723</v>
+        <v>0.461116</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194471</v>
+        <v>0.442743</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182161</v>
+        <v>0.433987</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187639</v>
+        <v>0.450536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194808</v>
+        <v>0.432509</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182448</v>
+        <v>0.424306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188167</v>
+        <v>0.440365</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196542</v>
+        <v>0.423319</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183536</v>
+        <v>0.415078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.189124</v>
+        <v>0.430978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196089</v>
+        <v>0.415246</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182816</v>
+        <v>0.406454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189355</v>
+        <v>0.421931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19657</v>
+        <v>0.406734</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183237</v>
+        <v>0.398045</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191028</v>
+        <v>0.413974</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197463</v>
+        <v>0.399965</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183647</v>
+        <v>0.390602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19203</v>
+        <v>0.406658</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198421</v>
+        <v>0.392807</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18518</v>
+        <v>0.383637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192799</v>
+        <v>0.399495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200139</v>
+        <v>0.387179</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18578</v>
+        <v>0.377291</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193825</v>
+        <v>0.393467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20223</v>
+        <v>0.382059</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188324</v>
+        <v>0.372144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195908</v>
+        <v>0.389003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204776</v>
+        <v>0.3789</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.190098</v>
+        <v>0.36804</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198684</v>
+        <v>0.384316</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208967</v>
+        <v>0.376322</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193806</v>
+        <v>0.36599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202211</v>
+        <v>0.383284</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201092</v>
+        <v>0.492339</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204996</v>
+        <v>0.48154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193559</v>
+        <v>0.454932</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201336</v>
+        <v>0.439652</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.205232</v>
+        <v>0.470635</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193824</v>
+        <v>0.445437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203833</v>
+        <v>0.430722</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206411</v>
+        <v>0.459778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19489</v>
+        <v>0.436793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204019</v>
+        <v>0.423005</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206022</v>
+        <v>0.449396</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195741</v>
+        <v>0.428574</v>
       </c>
       <c r="D27" t="n">
-        <v>0.204671</v>
+        <v>0.41422</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206339</v>
+        <v>0.439722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19586</v>
+        <v>0.421483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20564</v>
+        <v>0.407055</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20621</v>
+        <v>0.430228</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196876</v>
+        <v>0.414393</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207272</v>
+        <v>0.398596</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20644</v>
+        <v>0.42147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.197171</v>
+        <v>0.405221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.207667</v>
+        <v>0.392823</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206569</v>
+        <v>0.413041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197203</v>
+        <v>0.399301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207786</v>
+        <v>0.387497</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206899</v>
+        <v>0.405469</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19908</v>
+        <v>0.392247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209029</v>
+        <v>0.382447</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206623</v>
+        <v>0.398071</v>
       </c>
       <c r="C33" t="n">
-        <v>0.200407</v>
+        <v>0.387416</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210402</v>
+        <v>0.376472</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20787</v>
+        <v>0.391588</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201144</v>
+        <v>0.381539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212115</v>
+        <v>0.371855</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.211553</v>
+        <v>0.386182</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203806</v>
+        <v>0.376954</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214785</v>
+        <v>0.368828</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211147</v>
+        <v>0.381951</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207186</v>
+        <v>0.374599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219084</v>
+        <v>0.36768</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213507</v>
+        <v>0.379427</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210717</v>
+        <v>0.373648</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218513</v>
+        <v>0.510122</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232133</v>
+        <v>0.49564</v>
       </c>
       <c r="C38" t="n">
-        <v>0.210558</v>
+        <v>0.470941</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220758</v>
+        <v>0.453577</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233165</v>
+        <v>0.485377</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210519</v>
+        <v>0.460709</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221022</v>
+        <v>0.445211</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232401</v>
+        <v>0.474729</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21147</v>
+        <v>0.452233</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220758</v>
+        <v>0.437182</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232563</v>
+        <v>0.464377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210817</v>
+        <v>0.444172</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221653</v>
+        <v>0.429657</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234064</v>
+        <v>0.454864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213161</v>
+        <v>0.436123</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223097</v>
+        <v>0.421964</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.235019</v>
+        <v>0.44562</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213956</v>
+        <v>0.427935</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223743</v>
+        <v>0.413898</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.235333</v>
+        <v>0.436818</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215746</v>
+        <v>0.421519</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225616</v>
+        <v>0.407271</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234311</v>
+        <v>0.428783</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215621</v>
+        <v>0.4147</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226186</v>
+        <v>0.402332</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.236535</v>
+        <v>0.421117</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21727</v>
+        <v>0.40932</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228383</v>
+        <v>0.397514</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234949</v>
+        <v>0.414225</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218983</v>
+        <v>0.403936</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229598</v>
+        <v>0.391542</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.235717</v>
+        <v>0.407597</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219335</v>
+        <v>0.40121</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231449</v>
+        <v>0.388801</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236873</v>
+        <v>0.402573</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222927</v>
+        <v>0.39671</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234798</v>
+        <v>0.385042</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240957</v>
+        <v>0.398004</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225696</v>
+        <v>0.392695</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238581</v>
+        <v>0.383689</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24354</v>
+        <v>0.394744</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230408</v>
+        <v>0.391237</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232156</v>
+        <v>0.530651</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245955</v>
+        <v>0.366171</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237328</v>
+        <v>0.390944</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23366</v>
+        <v>0.5197040000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254016</v>
+        <v>0.503107</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22592</v>
+        <v>0.481739</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23469</v>
+        <v>0.461765</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260054</v>
+        <v>0.49292</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226293</v>
+        <v>0.474355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234953</v>
+        <v>0.456295</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253524</v>
+        <v>0.482811</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226064</v>
+        <v>0.465581</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2354</v>
+        <v>0.448806</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261362</v>
+        <v>0.473547</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226662</v>
+        <v>0.456559</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235775</v>
+        <v>0.441124</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259901</v>
+        <v>0.464414</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228415</v>
+        <v>0.450507</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236802</v>
+        <v>0.435297</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261399</v>
+        <v>0.45594</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228895</v>
+        <v>0.443566</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237323</v>
+        <v>0.427664</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255449</v>
+        <v>0.447017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230177</v>
+        <v>0.437999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23856</v>
+        <v>0.422882</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254837</v>
+        <v>0.4406</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231215</v>
+        <v>0.432596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239868</v>
+        <v>0.41769</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262137</v>
+        <v>0.434002</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233571</v>
+        <v>0.425902</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242513</v>
+        <v>0.413106</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256315</v>
+        <v>0.427622</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235386</v>
+        <v>0.420371</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243949</v>
+        <v>0.408361</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263283</v>
+        <v>0.422316</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238183</v>
+        <v>0.416796</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247999</v>
+        <v>0.40576</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261632</v>
+        <v>0.41795</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241323</v>
+        <v>0.414779</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252234</v>
+        <v>0.405586</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262622</v>
+        <v>0.41434</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246602</v>
+        <v>0.413906</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259785</v>
+        <v>0.405955</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269828</v>
+        <v>0.412846</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253611</v>
+        <v>0.414413</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242087</v>
+        <v>0.5398770000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.273243</v>
+        <v>0.526357</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235993</v>
+        <v>0.502997</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242336</v>
+        <v>0.483686</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.273938</v>
+        <v>0.515536</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236934</v>
+        <v>0.493912</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242608</v>
+        <v>0.476084</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.273999</v>
+        <v>0.505605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237882</v>
+        <v>0.486152</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243535</v>
+        <v>0.468403</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274145</v>
+        <v>0.496228</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238726</v>
+        <v>0.477959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.24434</v>
+        <v>0.462048</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274656</v>
+        <v>0.490323</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240094</v>
+        <v>0.472331</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245366</v>
+        <v>0.457469</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277195</v>
+        <v>0.480856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241207</v>
+        <v>0.463424</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245603</v>
+        <v>0.448901</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274815</v>
+        <v>0.473196</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24318</v>
+        <v>0.459866</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247375</v>
+        <v>0.444235</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279051</v>
+        <v>0.465126</v>
       </c>
       <c r="C74" t="n">
-        <v>0.244584</v>
+        <v>0.451017</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249551</v>
+        <v>0.438082</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27627</v>
+        <v>0.457666</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245914</v>
+        <v>0.446777</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250375</v>
+        <v>0.434365</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276649</v>
+        <v>0.449317</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248104</v>
+        <v>0.440988</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252631</v>
+        <v>0.430019</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281529</v>
+        <v>0.442965</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250048</v>
+        <v>0.437614</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257149</v>
+        <v>0.426796</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279537</v>
+        <v>0.439619</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253836</v>
+        <v>0.43406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260874</v>
+        <v>0.424742</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.281801</v>
+        <v>0.436967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257732</v>
+        <v>0.432849</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269337</v>
+        <v>0.426526</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286399</v>
+        <v>0.434422</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26442</v>
+        <v>0.435389</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255336</v>
+        <v>0.575447</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297507</v>
+        <v>0.565968</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241843</v>
+        <v>0.5327499999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257493</v>
+        <v>0.51314</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298302</v>
+        <v>0.560478</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241534</v>
+        <v>0.528497</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252493</v>
+        <v>0.506592</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.294814</v>
+        <v>0.552724</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243107</v>
+        <v>0.51949</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255808</v>
+        <v>0.499072</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298842</v>
+        <v>0.544741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244474</v>
+        <v>0.5124339999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255841</v>
+        <v>0.492137</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298466</v>
+        <v>0.537546</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24603</v>
+        <v>0.506908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257342</v>
+        <v>0.486941</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298939</v>
+        <v>0.530534</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244635</v>
+        <v>0.496651</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258148</v>
+        <v>0.47795</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300372</v>
+        <v>0.5214490000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244563</v>
+        <v>0.489099</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257797</v>
+        <v>0.470991</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302679</v>
+        <v>0.513958</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24715</v>
+        <v>0.482817</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260893</v>
+        <v>0.466507</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.304774</v>
+        <v>0.504652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250054</v>
+        <v>0.477962</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263201</v>
+        <v>0.462838</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.304311</v>
+        <v>0.498914</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250515</v>
+        <v>0.468684</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264377</v>
+        <v>0.453128</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304276</v>
+        <v>0.48933</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253411</v>
+        <v>0.468871</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266396</v>
+        <v>0.455563</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.306166</v>
+        <v>0.48491</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253457</v>
+        <v>0.463585</v>
       </c>
       <c r="D92" t="n">
-        <v>0.27125</v>
+        <v>0.452075</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.30516</v>
+        <v>0.479149</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258593</v>
+        <v>0.462024</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278327</v>
+        <v>0.452057</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.308969</v>
+        <v>0.477014</v>
       </c>
       <c r="C94" t="n">
-        <v>0.267149</v>
+        <v>0.459445</v>
       </c>
       <c r="D94" t="n">
-        <v>0.369907</v>
+        <v>0.625212</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.459696</v>
+        <v>0.615771</v>
       </c>
       <c r="C95" t="n">
-        <v>0.384255</v>
+        <v>0.5791770000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.371329</v>
+        <v>0.580606</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.440941</v>
+        <v>0.625183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.399213</v>
+        <v>0.584118</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384034</v>
+        <v>0.573974</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46598</v>
+        <v>0.627619</v>
       </c>
       <c r="C97" t="n">
-        <v>0.375799</v>
+        <v>0.583971</v>
       </c>
       <c r="D97" t="n">
-        <v>0.373689</v>
+        <v>0.570699</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.427151</v>
+        <v>0.628699</v>
       </c>
       <c r="C98" t="n">
-        <v>0.38073</v>
+        <v>0.581881</v>
       </c>
       <c r="D98" t="n">
-        <v>0.384085</v>
+        <v>0.566167</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.433451</v>
+        <v>0.6248359999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.392098</v>
+        <v>0.582977</v>
       </c>
       <c r="D99" t="n">
-        <v>0.382523</v>
+        <v>0.5646640000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.434353</v>
+        <v>0.618434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418658</v>
+        <v>0.5866400000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406016</v>
+        <v>0.568642</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496686</v>
+        <v>0.614816</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394769</v>
+        <v>0.574329</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396841</v>
+        <v>0.555435</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.448816</v>
+        <v>0.609684</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429507</v>
+        <v>0.581054</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41858</v>
+        <v>0.561219</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491931</v>
+        <v>0.607858</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433432</v>
+        <v>0.580578</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418178</v>
+        <v>0.561532</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495656</v>
+        <v>0.601651</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405665</v>
+        <v>0.575932</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400784</v>
+        <v>0.554651</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.456956</v>
+        <v>0.594377</v>
       </c>
       <c r="C105" t="n">
-        <v>0.436166</v>
+        <v>0.575098</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417498</v>
+        <v>0.551903</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500381</v>
+        <v>0.591632</v>
       </c>
       <c r="C106" t="n">
-        <v>0.436061</v>
+        <v>0.572231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41904</v>
+        <v>0.551675</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494462</v>
+        <v>0.592825</v>
       </c>
       <c r="C107" t="n">
-        <v>0.441836</v>
+        <v>0.574908</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433298</v>
+        <v>0.555581</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492435</v>
+        <v>0.593493</v>
       </c>
       <c r="C108" t="n">
-        <v>0.443299</v>
+        <v>0.553569</v>
       </c>
       <c r="D108" t="n">
-        <v>0.687528</v>
+        <v>0.712404</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494148</v>
+        <v>0.561189</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450812</v>
+        <v>0.575809</v>
       </c>
       <c r="D109" t="n">
-        <v>0.693379</v>
+        <v>0.717092</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.821513</v>
+        <v>0.713542</v>
       </c>
       <c r="C110" t="n">
-        <v>0.702449</v>
+        <v>0.72849</v>
       </c>
       <c r="D110" t="n">
-        <v>0.707597</v>
+        <v>0.7317129999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.819484</v>
+        <v>0.712306</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68672</v>
+        <v>0.731681</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710651</v>
+        <v>0.723956</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.817094</v>
+        <v>0.721266</v>
       </c>
       <c r="C112" t="n">
-        <v>0.705192</v>
+        <v>0.736511</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7107869999999999</v>
+        <v>0.740908</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.806392</v>
+        <v>0.72642</v>
       </c>
       <c r="C113" t="n">
-        <v>0.706555</v>
+        <v>0.738642</v>
       </c>
       <c r="D113" t="n">
-        <v>0.711884</v>
+        <v>0.738827</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.807478</v>
+        <v>0.734469</v>
       </c>
       <c r="C114" t="n">
-        <v>0.707437</v>
+        <v>0.746316</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713535</v>
+        <v>0.7529670000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.822864</v>
+        <v>0.738177</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7097329999999999</v>
+        <v>0.7499440000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7038990000000001</v>
+        <v>0.7543800000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.808091</v>
+        <v>0.737669</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694043</v>
+        <v>0.75287</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7174199999999999</v>
+        <v>0.7607660000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.817838</v>
+        <v>0.747733</v>
       </c>
       <c r="C117" t="n">
-        <v>0.697434</v>
+        <v>0.760428</v>
       </c>
       <c r="D117" t="n">
-        <v>0.718681</v>
+        <v>0.747818</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.819384</v>
+        <v>0.750954</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71561</v>
+        <v>0.763644</v>
       </c>
       <c r="D118" t="n">
-        <v>0.722495</v>
+        <v>0.764697</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.806998</v>
+        <v>0.756479</v>
       </c>
       <c r="C119" t="n">
-        <v>0.719715</v>
+        <v>0.768473</v>
       </c>
       <c r="D119" t="n">
-        <v>0.725233</v>
+        <v>0.767522</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.817949</v>
+        <v>0.758042</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7238560000000001</v>
+        <v>0.7714299999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7195859999999999</v>
+        <v>0.769669</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.818558</v>
+        <v>0.76302</v>
       </c>
       <c r="C121" t="n">
-        <v>0.730129</v>
+        <v>0.777766</v>
       </c>
       <c r="D121" t="n">
-        <v>0.739083</v>
+        <v>0.771825</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.822273</v>
+        <v>0.7667040000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7382880000000001</v>
+        <v>0.773653</v>
       </c>
       <c r="D122" t="n">
-        <v>0.748327</v>
+        <v>0.776632</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.824541</v>
+        <v>0.7703140000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.747686</v>
+        <v>0.782984</v>
       </c>
       <c r="D123" t="n">
-        <v>0.830082</v>
+        <v>0.926185</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09668</v>
+        <v>0.929902</v>
       </c>
       <c r="C124" t="n">
-        <v>0.819318</v>
+        <v>0.942107</v>
       </c>
       <c r="D124" t="n">
-        <v>0.832251</v>
+        <v>0.935725</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.09485</v>
+        <v>0.9384400000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8141620000000001</v>
+        <v>0.94681</v>
       </c>
       <c r="D125" t="n">
-        <v>0.834068</v>
+        <v>0.935107</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09944</v>
+        <v>0.946881</v>
       </c>
       <c r="C126" t="n">
-        <v>0.81472</v>
+        <v>0.959792</v>
       </c>
       <c r="D126" t="n">
-        <v>0.834002</v>
+        <v>0.933244</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11869</v>
+        <v>0.9514629999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.815905</v>
+        <v>0.963234</v>
       </c>
       <c r="D127" t="n">
-        <v>0.836139</v>
+        <v>0.958448</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11229</v>
+        <v>0.954074</v>
       </c>
       <c r="C128" t="n">
-        <v>0.818392</v>
+        <v>0.972394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.838952</v>
+        <v>0.9522929999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10961</v>
+        <v>0.961182</v>
       </c>
       <c r="C129" t="n">
-        <v>0.828611</v>
+        <v>0.978176</v>
       </c>
       <c r="D129" t="n">
-        <v>0.841427</v>
+        <v>0.959046</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10147</v>
+        <v>0.9697750000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.830443</v>
+        <v>0.984114</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844567</v>
+        <v>0.97964</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10824</v>
+        <v>0.978108</v>
       </c>
       <c r="C131" t="n">
-        <v>0.833937</v>
+        <v>0.992324</v>
       </c>
       <c r="D131" t="n">
-        <v>0.84803</v>
+        <v>0.986726</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10958</v>
+        <v>0.984422</v>
       </c>
       <c r="C132" t="n">
-        <v>0.836708</v>
+        <v>0.996776</v>
       </c>
       <c r="D132" t="n">
-        <v>0.851222</v>
+        <v>0.994061</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08048</v>
+        <v>0.990686</v>
       </c>
       <c r="C133" t="n">
-        <v>0.841645</v>
+        <v>1.0071</v>
       </c>
       <c r="D133" t="n">
-        <v>0.85651</v>
+        <v>1.0007</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07817</v>
+        <v>0.988071</v>
       </c>
       <c r="C134" t="n">
-        <v>0.847514</v>
+        <v>1.01323</v>
       </c>
       <c r="D134" t="n">
-        <v>0.858604</v>
+        <v>1.00412</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10831</v>
+        <v>1.00471</v>
       </c>
       <c r="C135" t="n">
-        <v>0.854212</v>
+        <v>1.02516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.87468</v>
+        <v>1.01228</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08642</v>
+        <v>1.00814</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8660949999999999</v>
+        <v>1.03297</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8921790000000001</v>
+        <v>1.01166</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09611</v>
+        <v>1.01527</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8816079999999999</v>
+        <v>1.03436</v>
       </c>
       <c r="D137" t="n">
-        <v>0.88586</v>
+        <v>1.15916</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35234</v>
+        <v>1.16752</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87153</v>
+        <v>1.18539</v>
       </c>
       <c r="D138" t="n">
-        <v>0.883483</v>
+        <v>1.16666</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35396</v>
+        <v>1.17321</v>
       </c>
       <c r="C139" t="n">
-        <v>0.872622</v>
+        <v>1.19203</v>
       </c>
       <c r="D139" t="n">
-        <v>0.888558</v>
+        <v>1.17526</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35476</v>
+        <v>1.17953</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87454</v>
+        <v>1.20047</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887594</v>
+        <v>1.18371</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35463</v>
+        <v>1.18701</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875146</v>
+        <v>1.20575</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889257</v>
+        <v>1.19078</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34418</v>
+        <v>1.19324</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877048</v>
+        <v>1.21395</v>
       </c>
       <c r="D142" t="n">
-        <v>0.894312</v>
+        <v>1.19804</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3562</v>
+        <v>1.19787</v>
       </c>
       <c r="C143" t="n">
-        <v>0.880449</v>
+        <v>1.22161</v>
       </c>
       <c r="D143" t="n">
-        <v>0.896936</v>
+        <v>1.20537</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390598</v>
+        <v>0.391584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391838</v>
+        <v>0.392598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381916</v>
+        <v>0.382304</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381104</v>
+        <v>0.380884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384279</v>
+        <v>0.385025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.374985</v>
+        <v>0.37496</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373773</v>
+        <v>0.373494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377648</v>
+        <v>0.378247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369305</v>
+        <v>0.369567</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367573</v>
+        <v>0.36751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372181</v>
+        <v>0.372957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364746</v>
+        <v>0.364991</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361369</v>
+        <v>0.361405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368035</v>
+        <v>0.368941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361455</v>
+        <v>0.36173</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35695</v>
+        <v>0.356886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36463</v>
+        <v>0.365007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359377</v>
+        <v>0.359544</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353834</v>
+        <v>0.353743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362779</v>
+        <v>0.363047</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359505</v>
+        <v>0.359659</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352256</v>
+        <v>0.352371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362667</v>
+        <v>0.363004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469557</v>
+        <v>0.470035</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465987</v>
+        <v>0.465872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484106</v>
+        <v>0.484264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463844</v>
+        <v>0.464697</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454668</v>
+        <v>0.455071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471688</v>
+        <v>0.472942</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452686</v>
+        <v>0.453685</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444121</v>
+        <v>0.444348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461116</v>
+        <v>0.462494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.442743</v>
+        <v>0.44359</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433987</v>
+        <v>0.434172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450536</v>
+        <v>0.451761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.432509</v>
+        <v>0.433379</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424306</v>
+        <v>0.424406</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440365</v>
+        <v>0.441275</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423319</v>
+        <v>0.424468</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415078</v>
+        <v>0.415113</v>
       </c>
       <c r="C15" t="n">
-        <v>0.430978</v>
+        <v>0.431945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415246</v>
+        <v>0.415627</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406454</v>
+        <v>0.406507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.421931</v>
+        <v>0.42273</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406734</v>
+        <v>0.407305</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398045</v>
+        <v>0.398157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413974</v>
+        <v>0.414327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399965</v>
+        <v>0.40006</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390602</v>
+        <v>0.390758</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406658</v>
+        <v>0.407209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.392807</v>
+        <v>0.393364</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383637</v>
+        <v>0.383939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.399495</v>
+        <v>0.400002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387179</v>
+        <v>0.387477</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377291</v>
+        <v>0.377612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393467</v>
+        <v>0.393607</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382059</v>
+        <v>0.382041</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372144</v>
+        <v>0.371795</v>
       </c>
       <c r="C21" t="n">
-        <v>0.389003</v>
+        <v>0.388843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3789</v>
+        <v>0.378651</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.36804</v>
+        <v>0.368034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384316</v>
+        <v>0.385187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.376322</v>
+        <v>0.377098</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36599</v>
+        <v>0.366301</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383284</v>
+        <v>0.383502</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492339</v>
+        <v>0.49331</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48154</v>
+        <v>0.481522</v>
       </c>
       <c r="C24" t="n">
-        <v>0.454932</v>
+        <v>0.457058</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439652</v>
+        <v>0.441165</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470635</v>
+        <v>0.470822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.445437</v>
+        <v>0.447286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430722</v>
+        <v>0.432006</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459778</v>
+        <v>0.459991</v>
       </c>
       <c r="C26" t="n">
-        <v>0.436793</v>
+        <v>0.439512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.423005</v>
+        <v>0.42332</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449396</v>
+        <v>0.449527</v>
       </c>
       <c r="C27" t="n">
-        <v>0.428574</v>
+        <v>0.42957</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41422</v>
+        <v>0.414512</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439722</v>
+        <v>0.439763</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421483</v>
+        <v>0.425094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407055</v>
+        <v>0.410826</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430228</v>
+        <v>0.430594</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414393</v>
+        <v>0.414161</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398596</v>
+        <v>0.40113</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.42147</v>
+        <v>0.421722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405221</v>
+        <v>0.406206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392823</v>
+        <v>0.393354</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413041</v>
+        <v>0.413184</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399301</v>
+        <v>0.398999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387497</v>
+        <v>0.386791</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405469</v>
+        <v>0.405348</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392247</v>
+        <v>0.392091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382447</v>
+        <v>0.381038</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398071</v>
+        <v>0.398155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.387416</v>
+        <v>0.386303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376472</v>
+        <v>0.376766</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391588</v>
+        <v>0.391437</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381539</v>
+        <v>0.381424</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371855</v>
+        <v>0.372336</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386182</v>
+        <v>0.386062</v>
       </c>
       <c r="C35" t="n">
-        <v>0.376954</v>
+        <v>0.377301</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368828</v>
+        <v>0.370007</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381951</v>
+        <v>0.381749</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374599</v>
+        <v>0.37429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36768</v>
+        <v>0.368037</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379427</v>
+        <v>0.379384</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373648</v>
+        <v>0.373889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510122</v>
+        <v>0.510406</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.49564</v>
+        <v>0.495975</v>
       </c>
       <c r="C38" t="n">
-        <v>0.470941</v>
+        <v>0.468403</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453577</v>
+        <v>0.452655</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485377</v>
+        <v>0.485743</v>
       </c>
       <c r="C39" t="n">
-        <v>0.460709</v>
+        <v>0.459946</v>
       </c>
       <c r="D39" t="n">
-        <v>0.445211</v>
+        <v>0.446162</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474729</v>
+        <v>0.474807</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452233</v>
+        <v>0.451753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437182</v>
+        <v>0.437234</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464377</v>
+        <v>0.464423</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444172</v>
+        <v>0.442707</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429657</v>
+        <v>0.428499</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454864</v>
+        <v>0.454792</v>
       </c>
       <c r="C42" t="n">
-        <v>0.436123</v>
+        <v>0.435445</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421964</v>
+        <v>0.422189</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.44562</v>
+        <v>0.445498</v>
       </c>
       <c r="C43" t="n">
-        <v>0.427935</v>
+        <v>0.430492</v>
       </c>
       <c r="D43" t="n">
-        <v>0.413898</v>
+        <v>0.414512</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436818</v>
+        <v>0.436824</v>
       </c>
       <c r="C44" t="n">
-        <v>0.421519</v>
+        <v>0.424482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407271</v>
+        <v>0.409446</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428783</v>
+        <v>0.428911</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4147</v>
+        <v>0.413516</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402332</v>
+        <v>0.401932</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421117</v>
+        <v>0.420916</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40932</v>
+        <v>0.408942</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397514</v>
+        <v>0.397683</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414225</v>
+        <v>0.413745</v>
       </c>
       <c r="C47" t="n">
-        <v>0.403936</v>
+        <v>0.402495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391542</v>
+        <v>0.392483</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407597</v>
+        <v>0.407462</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40121</v>
+        <v>0.397736</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388801</v>
+        <v>0.388755</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402573</v>
+        <v>0.40136</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39671</v>
+        <v>0.393153</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385042</v>
+        <v>0.38465</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398004</v>
+        <v>0.397384</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392695</v>
+        <v>0.392329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.383689</v>
+        <v>0.384633</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394744</v>
+        <v>0.394353</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391237</v>
+        <v>0.389711</v>
       </c>
       <c r="D51" t="n">
-        <v>0.530651</v>
+        <v>0.52954</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366171</v>
+        <v>0.363686</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390944</v>
+        <v>0.390934</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5197040000000001</v>
+        <v>0.518898</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503107</v>
+        <v>0.5022759999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481739</v>
+        <v>0.480223</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461765</v>
+        <v>0.462446</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.49292</v>
+        <v>0.491913</v>
       </c>
       <c r="C54" t="n">
-        <v>0.474355</v>
+        <v>0.471254</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456295</v>
+        <v>0.455742</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482811</v>
+        <v>0.482372</v>
       </c>
       <c r="C55" t="n">
-        <v>0.465581</v>
+        <v>0.463343</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448806</v>
+        <v>0.447953</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473547</v>
+        <v>0.472698</v>
       </c>
       <c r="C56" t="n">
-        <v>0.456559</v>
+        <v>0.45651</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441124</v>
+        <v>0.442007</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464414</v>
+        <v>0.463186</v>
       </c>
       <c r="C57" t="n">
-        <v>0.450507</v>
+        <v>0.449876</v>
       </c>
       <c r="D57" t="n">
-        <v>0.435297</v>
+        <v>0.434427</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.45594</v>
+        <v>0.454691</v>
       </c>
       <c r="C58" t="n">
-        <v>0.443566</v>
+        <v>0.440751</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427664</v>
+        <v>0.429166</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.447017</v>
+        <v>0.446754</v>
       </c>
       <c r="C59" t="n">
-        <v>0.437999</v>
+        <v>0.434324</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422882</v>
+        <v>0.423946</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4406</v>
+        <v>0.439317</v>
       </c>
       <c r="C60" t="n">
-        <v>0.432596</v>
+        <v>0.429297</v>
       </c>
       <c r="D60" t="n">
-        <v>0.41769</v>
+        <v>0.418172</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434002</v>
+        <v>0.432718</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425902</v>
+        <v>0.422821</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413106</v>
+        <v>0.413356</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427622</v>
+        <v>0.426837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420371</v>
+        <v>0.420312</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408361</v>
+        <v>0.409785</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422316</v>
+        <v>0.421811</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416796</v>
+        <v>0.416166</v>
       </c>
       <c r="D63" t="n">
-        <v>0.40576</v>
+        <v>0.407083</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.41795</v>
+        <v>0.416367</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414779</v>
+        <v>0.412605</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405586</v>
+        <v>0.405923</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.41434</v>
+        <v>0.412286</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413906</v>
+        <v>0.413235</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405955</v>
+        <v>0.405723</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.412846</v>
+        <v>0.411761</v>
       </c>
       <c r="C66" t="n">
-        <v>0.414413</v>
+        <v>0.413192</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5398770000000001</v>
+        <v>0.539694</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.526357</v>
+        <v>0.52512</v>
       </c>
       <c r="C67" t="n">
-        <v>0.502997</v>
+        <v>0.503533</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483686</v>
+        <v>0.486152</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515536</v>
+        <v>0.514447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493912</v>
+        <v>0.495362</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476084</v>
+        <v>0.478635</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505605</v>
+        <v>0.505053</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486152</v>
+        <v>0.487117</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468403</v>
+        <v>0.470918</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496228</v>
+        <v>0.494925</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477959</v>
+        <v>0.480655</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462048</v>
+        <v>0.463964</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.490323</v>
+        <v>0.485998</v>
       </c>
       <c r="C71" t="n">
-        <v>0.472331</v>
+        <v>0.470808</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457469</v>
+        <v>0.457862</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.480856</v>
+        <v>0.477213</v>
       </c>
       <c r="C72" t="n">
-        <v>0.463424</v>
+        <v>0.464727</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448901</v>
+        <v>0.450704</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473196</v>
+        <v>0.468042</v>
       </c>
       <c r="C73" t="n">
-        <v>0.459866</v>
+        <v>0.457898</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444235</v>
+        <v>0.445806</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.465126</v>
+        <v>0.460486</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451017</v>
+        <v>0.451151</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438082</v>
+        <v>0.440065</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457666</v>
+        <v>0.453493</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446777</v>
+        <v>0.44658</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434365</v>
+        <v>0.435634</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449317</v>
+        <v>0.44746</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440988</v>
+        <v>0.443213</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430019</v>
+        <v>0.431772</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.442965</v>
+        <v>0.441656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437614</v>
+        <v>0.437782</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426796</v>
+        <v>0.427857</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439619</v>
+        <v>0.437389</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43406</v>
+        <v>0.434564</v>
       </c>
       <c r="D78" t="n">
-        <v>0.424742</v>
+        <v>0.42662</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436967</v>
+        <v>0.433723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432849</v>
+        <v>0.433215</v>
       </c>
       <c r="D79" t="n">
-        <v>0.426526</v>
+        <v>0.428247</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434422</v>
+        <v>0.432534</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435389</v>
+        <v>0.435696</v>
       </c>
       <c r="D80" t="n">
-        <v>0.575447</v>
+        <v>0.580037</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565968</v>
+        <v>0.567105</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5327499999999999</v>
+        <v>0.536287</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51314</v>
+        <v>0.5172909999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.560478</v>
+        <v>0.559455</v>
       </c>
       <c r="C82" t="n">
-        <v>0.528497</v>
+        <v>0.525465</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506592</v>
+        <v>0.506219</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552724</v>
+        <v>0.551023</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51949</v>
+        <v>0.518648</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499072</v>
+        <v>0.498405</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544741</v>
+        <v>0.5449889999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5124339999999999</v>
+        <v>0.509864</v>
       </c>
       <c r="D84" t="n">
-        <v>0.492137</v>
+        <v>0.489837</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.537546</v>
+        <v>0.540566</v>
       </c>
       <c r="C85" t="n">
-        <v>0.506908</v>
+        <v>0.505553</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486941</v>
+        <v>0.483979</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.530534</v>
+        <v>0.532727</v>
       </c>
       <c r="C86" t="n">
-        <v>0.496651</v>
+        <v>0.499929</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47795</v>
+        <v>0.481888</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5214490000000001</v>
+        <v>0.524343</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489099</v>
+        <v>0.492632</v>
       </c>
       <c r="D87" t="n">
-        <v>0.470991</v>
+        <v>0.475653</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.513958</v>
+        <v>0.516408</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482817</v>
+        <v>0.487953</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466507</v>
+        <v>0.471947</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.504652</v>
+        <v>0.507687</v>
       </c>
       <c r="C89" t="n">
-        <v>0.477962</v>
+        <v>0.478116</v>
       </c>
       <c r="D89" t="n">
-        <v>0.462838</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.498914</v>
+        <v>0.499752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.468684</v>
+        <v>0.47391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.453128</v>
+        <v>0.458671</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.48933</v>
+        <v>0.493917</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468871</v>
+        <v>0.468147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455563</v>
+        <v>0.455293</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.48491</v>
+        <v>0.486511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.463585</v>
+        <v>0.464162</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452075</v>
+        <v>0.453317</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.479149</v>
+        <v>0.482733</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462024</v>
+        <v>0.461648</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452057</v>
+        <v>0.452949</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477014</v>
+        <v>0.479703</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459445</v>
+        <v>0.462172</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625212</v>
+        <v>0.6260250000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.615771</v>
+        <v>0.621727</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5791770000000001</v>
+        <v>0.584808</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580606</v>
+        <v>0.585106</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.625183</v>
+        <v>0.632328</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584118</v>
+        <v>0.599768</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573974</v>
+        <v>0.588488</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.627619</v>
+        <v>0.636729</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583971</v>
+        <v>0.597939</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570699</v>
+        <v>0.585901</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.628699</v>
+        <v>0.636612</v>
       </c>
       <c r="C98" t="n">
-        <v>0.581881</v>
+        <v>0.598979</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566167</v>
+        <v>0.583189</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6248359999999999</v>
+        <v>0.633644</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582977</v>
+        <v>0.599606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5646640000000001</v>
+        <v>0.581291</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.618434</v>
+        <v>0.631182</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5866400000000001</v>
+        <v>0.597797</v>
       </c>
       <c r="D100" t="n">
-        <v>0.568642</v>
+        <v>0.578844</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.614816</v>
+        <v>0.627408</v>
       </c>
       <c r="C101" t="n">
-        <v>0.574329</v>
+        <v>0.593979</v>
       </c>
       <c r="D101" t="n">
-        <v>0.555435</v>
+        <v>0.575095</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.609684</v>
+        <v>0.622934</v>
       </c>
       <c r="C102" t="n">
-        <v>0.581054</v>
+        <v>0.577273</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561219</v>
+        <v>0.552843</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.607858</v>
+        <v>0.619038</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580578</v>
+        <v>0.58828</v>
       </c>
       <c r="D103" t="n">
-        <v>0.561532</v>
+        <v>0.565185</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601651</v>
+        <v>0.616439</v>
       </c>
       <c r="C104" t="n">
-        <v>0.575932</v>
+        <v>0.58916</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554651</v>
+        <v>0.568348</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.594377</v>
+        <v>0.613038</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575098</v>
+        <v>0.587967</v>
       </c>
       <c r="D105" t="n">
-        <v>0.551903</v>
+        <v>0.562822</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.591632</v>
+        <v>0.606702</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572231</v>
+        <v>0.583545</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551675</v>
+        <v>0.560603</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592825</v>
+        <v>0.603352</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574908</v>
+        <v>0.564918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555581</v>
+        <v>0.53972</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.593493</v>
+        <v>0.600754</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553569</v>
+        <v>0.562802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.712404</v>
+        <v>0.731297</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.561189</v>
+        <v>0.564624</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575809</v>
+        <v>0.586929</v>
       </c>
       <c r="D109" t="n">
-        <v>0.717092</v>
+        <v>0.744142</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713542</v>
+        <v>0.725454</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72849</v>
+        <v>0.741946</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7317129999999999</v>
+        <v>0.73527</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.712306</v>
+        <v>0.733679</v>
       </c>
       <c r="C111" t="n">
-        <v>0.731681</v>
+        <v>0.749599</v>
       </c>
       <c r="D111" t="n">
-        <v>0.723956</v>
+        <v>0.758636</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.721266</v>
+        <v>0.73794</v>
       </c>
       <c r="C112" t="n">
-        <v>0.736511</v>
+        <v>0.754528</v>
       </c>
       <c r="D112" t="n">
-        <v>0.740908</v>
+        <v>0.762229</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72642</v>
+        <v>0.743696</v>
       </c>
       <c r="C113" t="n">
-        <v>0.738642</v>
+        <v>0.758121</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738827</v>
+        <v>0.7605229999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.734469</v>
+        <v>0.754708</v>
       </c>
       <c r="C114" t="n">
-        <v>0.746316</v>
+        <v>0.766547</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7529670000000001</v>
+        <v>0.757421</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.738177</v>
+        <v>0.760181</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7499440000000001</v>
+        <v>0.767501</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7543800000000001</v>
+        <v>0.775214</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.737669</v>
+        <v>0.763304</v>
       </c>
       <c r="C116" t="n">
-        <v>0.75287</v>
+        <v>0.776329</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7607660000000001</v>
+        <v>0.777048</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.747733</v>
+        <v>0.772293</v>
       </c>
       <c r="C117" t="n">
-        <v>0.760428</v>
+        <v>0.77734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.747818</v>
+        <v>0.76245</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.750954</v>
+        <v>0.777937</v>
       </c>
       <c r="C118" t="n">
-        <v>0.763644</v>
+        <v>0.7863329999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.764697</v>
+        <v>0.785131</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756479</v>
+        <v>0.7768659999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.768473</v>
+        <v>0.792143</v>
       </c>
       <c r="D119" t="n">
-        <v>0.767522</v>
+        <v>0.788871</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758042</v>
+        <v>0.780211</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7714299999999999</v>
+        <v>0.787191</v>
       </c>
       <c r="D120" t="n">
-        <v>0.769669</v>
+        <v>0.792669</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76302</v>
+        <v>0.786552</v>
       </c>
       <c r="C121" t="n">
-        <v>0.777766</v>
+        <v>0.805071</v>
       </c>
       <c r="D121" t="n">
-        <v>0.771825</v>
+        <v>0.797892</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.792141</v>
       </c>
       <c r="C122" t="n">
-        <v>0.773653</v>
+        <v>0.810284</v>
       </c>
       <c r="D122" t="n">
-        <v>0.776632</v>
+        <v>0.802336</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7703140000000001</v>
+        <v>0.799252</v>
       </c>
       <c r="C123" t="n">
-        <v>0.782984</v>
+        <v>0.8131660000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.926185</v>
+        <v>0.9560689999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.929902</v>
+        <v>0.962443</v>
       </c>
       <c r="C124" t="n">
-        <v>0.942107</v>
+        <v>0.971047</v>
       </c>
       <c r="D124" t="n">
-        <v>0.935725</v>
+        <v>0.961714</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9384400000000001</v>
+        <v>0.975092</v>
       </c>
       <c r="C125" t="n">
-        <v>0.94681</v>
+        <v>0.979122</v>
       </c>
       <c r="D125" t="n">
-        <v>0.935107</v>
+        <v>0.95573</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.946881</v>
+        <v>0.984259</v>
       </c>
       <c r="C126" t="n">
-        <v>0.959792</v>
+        <v>0.9947279999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.933244</v>
+        <v>0.966557</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9514629999999999</v>
+        <v>0.993085</v>
       </c>
       <c r="C127" t="n">
-        <v>0.963234</v>
+        <v>1.00017</v>
       </c>
       <c r="D127" t="n">
-        <v>0.958448</v>
+        <v>0.975206</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.954074</v>
+        <v>0.9999130000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972394</v>
+        <v>1.01174</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9522929999999999</v>
+        <v>0.999387</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.961182</v>
+        <v>1.00772</v>
       </c>
       <c r="C129" t="n">
-        <v>0.978176</v>
+        <v>1.01574</v>
       </c>
       <c r="D129" t="n">
-        <v>0.959046</v>
+        <v>1.01014</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9697750000000001</v>
+        <v>1.01596</v>
       </c>
       <c r="C130" t="n">
-        <v>0.984114</v>
+        <v>1.02268</v>
       </c>
       <c r="D130" t="n">
-        <v>0.97964</v>
+        <v>1.01907</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.978108</v>
+        <v>1.0203</v>
       </c>
       <c r="C131" t="n">
-        <v>0.992324</v>
+        <v>1.0383</v>
       </c>
       <c r="D131" t="n">
-        <v>0.986726</v>
+        <v>1.01786</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.984422</v>
+        <v>1.0275</v>
       </c>
       <c r="C132" t="n">
-        <v>0.996776</v>
+        <v>1.04566</v>
       </c>
       <c r="D132" t="n">
-        <v>0.994061</v>
+        <v>1.03362</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.990686</v>
+        <v>1.03372</v>
       </c>
       <c r="C133" t="n">
-        <v>1.0071</v>
+        <v>1.05396</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0007</v>
+        <v>1.04029</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.988071</v>
+        <v>1.04223</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01323</v>
+        <v>1.06238</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00412</v>
+        <v>1.04162</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00471</v>
+        <v>1.04696</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>1.06864</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01228</v>
+        <v>1.05511</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00814</v>
+        <v>1.05794</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03297</v>
+        <v>1.08425</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01166</v>
+        <v>1.04966</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01527</v>
+        <v>1.05878</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03436</v>
+        <v>1.09007</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15916</v>
+        <v>1.20919</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16752</v>
+        <v>1.22119</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18539</v>
+        <v>1.24407</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16666</v>
+        <v>1.22687</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17321</v>
+        <v>1.22613</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19203</v>
+        <v>1.25142</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17526</v>
+        <v>1.23735</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17953</v>
+        <v>1.23216</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20047</v>
+        <v>1.26255</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18371</v>
+        <v>1.24906</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18701</v>
+        <v>1.23947</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20575</v>
+        <v>1.27007</v>
       </c>
       <c r="D141" t="n">
-        <v>1.19078</v>
+        <v>1.25754</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19324</v>
+        <v>1.25029</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21395</v>
+        <v>1.27627</v>
       </c>
       <c r="D142" t="n">
-        <v>1.19804</v>
+        <v>1.26309</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19787</v>
+        <v>1.26091</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22161</v>
+        <v>1.28698</v>
       </c>
       <c r="D143" t="n">
-        <v>1.20537</v>
+        <v>1.27478</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391584</v>
+        <v>0.390592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392598</v>
+        <v>0.391641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382304</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380884</v>
+        <v>0.381129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385025</v>
+        <v>0.384364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37496</v>
+        <v>0.375071</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373494</v>
+        <v>0.373804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378247</v>
+        <v>0.37779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369567</v>
+        <v>0.369544</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.36751</v>
+        <v>0.367531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372957</v>
+        <v>0.372201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364991</v>
+        <v>0.364925</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361405</v>
+        <v>0.361464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368941</v>
+        <v>0.368024</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36173</v>
+        <v>0.361496</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356886</v>
+        <v>0.35693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365007</v>
+        <v>0.364477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359544</v>
+        <v>0.359404</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353743</v>
+        <v>0.353808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363047</v>
+        <v>0.362565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359659</v>
+        <v>0.3595</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352371</v>
+        <v>0.352328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363004</v>
+        <v>0.362537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.470035</v>
+        <v>0.469546</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465872</v>
+        <v>0.465447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484264</v>
+        <v>0.484097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464697</v>
+        <v>0.463943</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455071</v>
+        <v>0.454263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472942</v>
+        <v>0.472202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453685</v>
+        <v>0.452954</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444348</v>
+        <v>0.443768</v>
       </c>
       <c r="C12" t="n">
-        <v>0.462494</v>
+        <v>0.460961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44359</v>
+        <v>0.443133</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434172</v>
+        <v>0.433551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451761</v>
+        <v>0.450485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433379</v>
+        <v>0.432825</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424406</v>
+        <v>0.423622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441275</v>
+        <v>0.439986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424468</v>
+        <v>0.423564</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415113</v>
+        <v>0.41465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431945</v>
+        <v>0.431283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415627</v>
+        <v>0.415364</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406507</v>
+        <v>0.405595</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42273</v>
+        <v>0.421562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407305</v>
+        <v>0.406305</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398157</v>
+        <v>0.397457</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414327</v>
+        <v>0.413424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40006</v>
+        <v>0.399628</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390758</v>
+        <v>0.389888</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407209</v>
+        <v>0.406135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393364</v>
+        <v>0.39275</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383939</v>
+        <v>0.382904</v>
       </c>
       <c r="C19" t="n">
-        <v>0.400002</v>
+        <v>0.399315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387477</v>
+        <v>0.387036</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377612</v>
+        <v>0.376646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393607</v>
+        <v>0.392893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382041</v>
+        <v>0.381627</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371795</v>
+        <v>0.371188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388843</v>
+        <v>0.388172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378651</v>
+        <v>0.378377</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.368034</v>
+        <v>0.367144</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385187</v>
+        <v>0.384609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377098</v>
+        <v>0.37636</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.366301</v>
+        <v>0.365154</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383502</v>
+        <v>0.382832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.49331</v>
+        <v>0.492884</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481522</v>
+        <v>0.481171</v>
       </c>
       <c r="C24" t="n">
-        <v>0.457058</v>
+        <v>0.456983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441165</v>
+        <v>0.441245</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470822</v>
+        <v>0.47053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.447286</v>
+        <v>0.445534</v>
       </c>
       <c r="D25" t="n">
-        <v>0.432006</v>
+        <v>0.431557</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459991</v>
+        <v>0.459737</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439512</v>
+        <v>0.438267</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42332</v>
+        <v>0.42389</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449527</v>
+        <v>0.449205</v>
       </c>
       <c r="C27" t="n">
-        <v>0.42957</v>
+        <v>0.428686</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414512</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439763</v>
+        <v>0.43951</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425094</v>
+        <v>0.420976</v>
       </c>
       <c r="D28" t="n">
-        <v>0.410826</v>
+        <v>0.407428</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430594</v>
+        <v>0.430267</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414161</v>
+        <v>0.412452</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40113</v>
+        <v>0.399459</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421722</v>
+        <v>0.421422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.406206</v>
+        <v>0.408774</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393354</v>
+        <v>0.393661</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413184</v>
+        <v>0.412927</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398999</v>
+        <v>0.398717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386791</v>
+        <v>0.387315</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405348</v>
+        <v>0.40524</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392091</v>
+        <v>0.392976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381038</v>
+        <v>0.382106</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398155</v>
+        <v>0.398045</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386303</v>
+        <v>0.386167</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376766</v>
+        <v>0.376672</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391437</v>
+        <v>0.391333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381424</v>
+        <v>0.382676</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372336</v>
+        <v>0.373553</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386062</v>
+        <v>0.385876</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377301</v>
+        <v>0.376674</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370007</v>
+        <v>0.369249</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381749</v>
+        <v>0.381531</v>
       </c>
       <c r="C36" t="n">
-        <v>0.37429</v>
+        <v>0.374447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368037</v>
+        <v>0.368505</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379384</v>
+        <v>0.379114</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373889</v>
+        <v>0.373309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510406</v>
+        <v>0.510024</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495975</v>
+        <v>0.495394</v>
       </c>
       <c r="C38" t="n">
-        <v>0.468403</v>
+        <v>0.471889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452655</v>
+        <v>0.452277</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485743</v>
+        <v>0.485165</v>
       </c>
       <c r="C39" t="n">
-        <v>0.459946</v>
+        <v>0.46046</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446162</v>
+        <v>0.444611</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474807</v>
+        <v>0.474449</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451753</v>
+        <v>0.455091</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437234</v>
+        <v>0.437983</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464423</v>
+        <v>0.464243</v>
       </c>
       <c r="C41" t="n">
-        <v>0.442707</v>
+        <v>0.444469</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428499</v>
+        <v>0.429135</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454792</v>
+        <v>0.4545</v>
       </c>
       <c r="C42" t="n">
-        <v>0.435445</v>
+        <v>0.436955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422189</v>
+        <v>0.420561</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445498</v>
+        <v>0.445232</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430492</v>
+        <v>0.428872</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414512</v>
+        <v>0.414914</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436824</v>
+        <v>0.436784</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424482</v>
+        <v>0.422995</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409446</v>
+        <v>0.408489</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428911</v>
+        <v>0.429129</v>
       </c>
       <c r="C45" t="n">
-        <v>0.413516</v>
+        <v>0.414564</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401932</v>
+        <v>0.401679</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420916</v>
+        <v>0.421369</v>
       </c>
       <c r="C46" t="n">
-        <v>0.408942</v>
+        <v>0.413872</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397683</v>
+        <v>0.398264</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413745</v>
+        <v>0.413932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402495</v>
+        <v>0.404178</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392483</v>
+        <v>0.391956</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407462</v>
+        <v>0.407745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397736</v>
+        <v>0.398649</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388755</v>
+        <v>0.388473</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.40136</v>
+        <v>0.402653</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393153</v>
+        <v>0.394952</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38465</v>
+        <v>0.384837</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397384</v>
+        <v>0.398657</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392329</v>
+        <v>0.392708</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384633</v>
+        <v>0.385004</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394353</v>
+        <v>0.395241</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389711</v>
+        <v>0.390253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.52954</v>
+        <v>0.53064</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363686</v>
+        <v>0.364358</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390934</v>
+        <v>0.391495</v>
       </c>
       <c r="D52" t="n">
-        <v>0.518898</v>
+        <v>0.519645</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5022759999999999</v>
+        <v>0.503309</v>
       </c>
       <c r="C53" t="n">
-        <v>0.480223</v>
+        <v>0.481847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462446</v>
+        <v>0.463742</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.491913</v>
+        <v>0.492803</v>
       </c>
       <c r="C54" t="n">
-        <v>0.471254</v>
+        <v>0.474748</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455742</v>
+        <v>0.456063</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482372</v>
+        <v>0.483105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.463343</v>
+        <v>0.463411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447953</v>
+        <v>0.447408</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472698</v>
+        <v>0.472994</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45651</v>
+        <v>0.45664</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442007</v>
+        <v>0.440173</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463186</v>
+        <v>0.464295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.449876</v>
+        <v>0.450309</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434427</v>
+        <v>0.433253</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454691</v>
+        <v>0.455335</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440751</v>
+        <v>0.442533</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429166</v>
+        <v>0.427323</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446754</v>
+        <v>0.447951</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434324</v>
+        <v>0.436504</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423946</v>
+        <v>0.42183</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439317</v>
+        <v>0.440648</v>
       </c>
       <c r="C60" t="n">
-        <v>0.429297</v>
+        <v>0.431016</v>
       </c>
       <c r="D60" t="n">
-        <v>0.418172</v>
+        <v>0.417856</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.432718</v>
+        <v>0.434418</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422821</v>
+        <v>0.425808</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413356</v>
+        <v>0.412397</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426837</v>
+        <v>0.427777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420312</v>
+        <v>0.420762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409785</v>
+        <v>0.409181</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.421811</v>
+        <v>0.422429</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416166</v>
+        <v>0.417099</v>
       </c>
       <c r="D63" t="n">
-        <v>0.407083</v>
+        <v>0.405177</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.416367</v>
+        <v>0.418022</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412605</v>
+        <v>0.414848</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405923</v>
+        <v>0.404582</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412286</v>
+        <v>0.414557</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413235</v>
+        <v>0.413263</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405723</v>
+        <v>0.404069</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411761</v>
+        <v>0.41306</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413192</v>
+        <v>0.41403</v>
       </c>
       <c r="D66" t="n">
-        <v>0.539694</v>
+        <v>0.539094</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.52512</v>
+        <v>0.528161</v>
       </c>
       <c r="C67" t="n">
-        <v>0.503533</v>
+        <v>0.50381</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486152</v>
+        <v>0.485695</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514447</v>
+        <v>0.516966</v>
       </c>
       <c r="C68" t="n">
-        <v>0.495362</v>
+        <v>0.493356</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478635</v>
+        <v>0.476818</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505053</v>
+        <v>0.507009</v>
       </c>
       <c r="C69" t="n">
-        <v>0.487117</v>
+        <v>0.486799</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470918</v>
+        <v>0.470869</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.494925</v>
+        <v>0.497338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480655</v>
+        <v>0.477443</v>
       </c>
       <c r="D70" t="n">
-        <v>0.463964</v>
+        <v>0.461698</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.485998</v>
+        <v>0.488224</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470808</v>
+        <v>0.471681</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457862</v>
+        <v>0.45564</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.477213</v>
+        <v>0.478957</v>
       </c>
       <c r="C72" t="n">
-        <v>0.464727</v>
+        <v>0.465545</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450704</v>
+        <v>0.449296</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.468042</v>
+        <v>0.470442</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457898</v>
+        <v>0.458318</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445806</v>
+        <v>0.443443</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.460486</v>
+        <v>0.463467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451151</v>
+        <v>0.452846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440065</v>
+        <v>0.437893</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453493</v>
+        <v>0.456434</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44658</v>
+        <v>0.447176</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435634</v>
+        <v>0.433801</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44746</v>
+        <v>0.449483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.443213</v>
+        <v>0.442282</v>
       </c>
       <c r="D76" t="n">
-        <v>0.431772</v>
+        <v>0.430267</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441656</v>
+        <v>0.443982</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437782</v>
+        <v>0.439088</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427857</v>
+        <v>0.427572</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.437389</v>
+        <v>0.439553</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434564</v>
+        <v>0.436338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42662</v>
+        <v>0.425583</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433723</v>
+        <v>0.436245</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433215</v>
+        <v>0.433131</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428247</v>
+        <v>0.425928</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.432534</v>
+        <v>0.434735</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435696</v>
+        <v>0.432874</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580037</v>
+        <v>0.580938</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.567105</v>
+        <v>0.5659690000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536287</v>
+        <v>0.532988</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172909999999999</v>
+        <v>0.51256</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.559455</v>
+        <v>0.559141</v>
       </c>
       <c r="C82" t="n">
-        <v>0.525465</v>
+        <v>0.5260860000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506219</v>
+        <v>0.505391</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.551023</v>
+        <v>0.551199</v>
       </c>
       <c r="C83" t="n">
-        <v>0.518648</v>
+        <v>0.518526</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498405</v>
+        <v>0.497445</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5449889999999999</v>
+        <v>0.546396</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509864</v>
+        <v>0.511578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.489837</v>
+        <v>0.493606</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.540566</v>
+        <v>0.538124</v>
       </c>
       <c r="C85" t="n">
-        <v>0.505553</v>
+        <v>0.507533</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483979</v>
+        <v>0.487464</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.532727</v>
+        <v>0.531732</v>
       </c>
       <c r="C86" t="n">
-        <v>0.499929</v>
+        <v>0.498348</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481888</v>
+        <v>0.481887</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524343</v>
+        <v>0.523227</v>
       </c>
       <c r="C87" t="n">
-        <v>0.492632</v>
+        <v>0.491254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475653</v>
+        <v>0.473391</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516408</v>
+        <v>0.5162949999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.487953</v>
+        <v>0.481523</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471947</v>
+        <v>0.466007</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507687</v>
+        <v>0.505091</v>
       </c>
       <c r="C89" t="n">
-        <v>0.478116</v>
+        <v>0.476945</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4637</v>
+        <v>0.461907</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.499752</v>
+        <v>0.500335</v>
       </c>
       <c r="C90" t="n">
-        <v>0.47391</v>
+        <v>0.473442</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458671</v>
+        <v>0.45952</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.493917</v>
+        <v>0.492037</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468147</v>
+        <v>0.467779</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455293</v>
+        <v>0.455247</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.486511</v>
+        <v>0.485823</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464162</v>
+        <v>0.462241</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453317</v>
+        <v>0.45159</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482733</v>
+        <v>0.478014</v>
       </c>
       <c r="C93" t="n">
-        <v>0.461648</v>
+        <v>0.460629</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452949</v>
+        <v>0.452357</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.479703</v>
+        <v>0.476817</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462172</v>
+        <v>0.460333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6260250000000001</v>
+        <v>0.6231680000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.621727</v>
+        <v>0.616911</v>
       </c>
       <c r="C95" t="n">
-        <v>0.584808</v>
+        <v>0.578667</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585106</v>
+        <v>0.579112</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.632328</v>
+        <v>0.626306</v>
       </c>
       <c r="C96" t="n">
-        <v>0.599768</v>
+        <v>0.588985</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588488</v>
+        <v>0.580539</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.636729</v>
+        <v>0.629288</v>
       </c>
       <c r="C97" t="n">
-        <v>0.597939</v>
+        <v>0.5838410000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585901</v>
+        <v>0.570147</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.636612</v>
+        <v>0.627782</v>
       </c>
       <c r="C98" t="n">
-        <v>0.598979</v>
+        <v>0.591978</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583189</v>
+        <v>0.57725</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.633644</v>
+        <v>0.625458</v>
       </c>
       <c r="C99" t="n">
-        <v>0.599606</v>
+        <v>0.59056</v>
       </c>
       <c r="D99" t="n">
-        <v>0.581291</v>
+        <v>0.573828</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.631182</v>
+        <v>0.623064</v>
       </c>
       <c r="C100" t="n">
-        <v>0.597797</v>
+        <v>0.588381</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578844</v>
+        <v>0.571125</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.627408</v>
+        <v>0.619729</v>
       </c>
       <c r="C101" t="n">
-        <v>0.593979</v>
+        <v>0.584223</v>
       </c>
       <c r="D101" t="n">
-        <v>0.575095</v>
+        <v>0.566804</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622934</v>
+        <v>0.613243</v>
       </c>
       <c r="C102" t="n">
-        <v>0.577273</v>
+        <v>0.580352</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552843</v>
+        <v>0.5614130000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.619038</v>
+        <v>0.60849</v>
       </c>
       <c r="C103" t="n">
-        <v>0.58828</v>
+        <v>0.578985</v>
       </c>
       <c r="D103" t="n">
-        <v>0.565185</v>
+        <v>0.560071</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.616439</v>
+        <v>0.605637</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58916</v>
+        <v>0.577346</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568348</v>
+        <v>0.559833</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.613038</v>
+        <v>0.600503</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587967</v>
+        <v>0.576227</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562822</v>
+        <v>0.555349</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.606702</v>
+        <v>0.597977</v>
       </c>
       <c r="C106" t="n">
-        <v>0.583545</v>
+        <v>0.555496</v>
       </c>
       <c r="D106" t="n">
-        <v>0.560603</v>
+        <v>0.535735</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.603352</v>
+        <v>0.596832</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564918</v>
+        <v>0.568485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53972</v>
+        <v>0.541834</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.600754</v>
+        <v>0.591522</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562802</v>
+        <v>0.576484</v>
       </c>
       <c r="D108" t="n">
-        <v>0.731297</v>
+        <v>0.723034</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564624</v>
+        <v>0.552696</v>
       </c>
       <c r="C109" t="n">
-        <v>0.586929</v>
+        <v>0.573</v>
       </c>
       <c r="D109" t="n">
-        <v>0.744142</v>
+        <v>0.734245</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.725454</v>
+        <v>0.722584</v>
       </c>
       <c r="C110" t="n">
-        <v>0.741946</v>
+        <v>0.734971</v>
       </c>
       <c r="D110" t="n">
-        <v>0.73527</v>
+        <v>0.729378</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.733679</v>
+        <v>0.724299</v>
       </c>
       <c r="C111" t="n">
-        <v>0.749599</v>
+        <v>0.737595</v>
       </c>
       <c r="D111" t="n">
-        <v>0.758636</v>
+        <v>0.742195</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.73794</v>
+        <v>0.732186</v>
       </c>
       <c r="C112" t="n">
-        <v>0.754528</v>
+        <v>0.742999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.762229</v>
+        <v>0.750748</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.743696</v>
+        <v>0.732695</v>
       </c>
       <c r="C113" t="n">
-        <v>0.758121</v>
+        <v>0.7471</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7605229999999999</v>
+        <v>0.7539400000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754708</v>
+        <v>0.740291</v>
       </c>
       <c r="C114" t="n">
-        <v>0.766547</v>
+        <v>0.751023</v>
       </c>
       <c r="D114" t="n">
-        <v>0.757421</v>
+        <v>0.7521099999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760181</v>
+        <v>0.746599</v>
       </c>
       <c r="C115" t="n">
-        <v>0.767501</v>
+        <v>0.752038</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775214</v>
+        <v>0.758422</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763304</v>
+        <v>0.7448399999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.776329</v>
+        <v>0.758361</v>
       </c>
       <c r="D116" t="n">
-        <v>0.777048</v>
+        <v>0.75232</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772293</v>
+        <v>0.749516</v>
       </c>
       <c r="C117" t="n">
-        <v>0.77734</v>
+        <v>0.75827</v>
       </c>
       <c r="D117" t="n">
-        <v>0.76245</v>
+        <v>0.759069</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.777937</v>
+        <v>0.749073</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7863329999999999</v>
+        <v>0.766142</v>
       </c>
       <c r="D118" t="n">
-        <v>0.785131</v>
+        <v>0.7449170000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7768659999999999</v>
+        <v>0.756467</v>
       </c>
       <c r="C119" t="n">
-        <v>0.792143</v>
+        <v>0.769031</v>
       </c>
       <c r="D119" t="n">
-        <v>0.788871</v>
+        <v>0.770688</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.780211</v>
+        <v>0.759663</v>
       </c>
       <c r="C120" t="n">
-        <v>0.787191</v>
+        <v>0.775569</v>
       </c>
       <c r="D120" t="n">
-        <v>0.792669</v>
+        <v>0.771709</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786552</v>
+        <v>0.7647929999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.805071</v>
+        <v>0.781312</v>
       </c>
       <c r="D121" t="n">
-        <v>0.797892</v>
+        <v>0.769402</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.792141</v>
+        <v>0.768853</v>
       </c>
       <c r="C122" t="n">
-        <v>0.810284</v>
+        <v>0.785253</v>
       </c>
       <c r="D122" t="n">
-        <v>0.802336</v>
+        <v>0.768557</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.799252</v>
+        <v>0.773681</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8131660000000001</v>
+        <v>0.785716</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9560689999999999</v>
+        <v>0.92045</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.962443</v>
+        <v>0.937025</v>
       </c>
       <c r="C124" t="n">
-        <v>0.971047</v>
+        <v>0.945441</v>
       </c>
       <c r="D124" t="n">
-        <v>0.961714</v>
+        <v>0.942405</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.975092</v>
+        <v>0.945022</v>
       </c>
       <c r="C125" t="n">
-        <v>0.979122</v>
+        <v>0.956029</v>
       </c>
       <c r="D125" t="n">
-        <v>0.95573</v>
+        <v>0.945951</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.984259</v>
+        <v>0.948788</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9947279999999999</v>
+        <v>0.96163</v>
       </c>
       <c r="D126" t="n">
-        <v>0.966557</v>
+        <v>0.950406</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.993085</v>
+        <v>0.957047</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00017</v>
+        <v>0.9689</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975206</v>
+        <v>0.951362</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9999130000000001</v>
+        <v>0.964136</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01174</v>
+        <v>0.9711379999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.999387</v>
+        <v>0.956326</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00772</v>
+        <v>0.972821</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01574</v>
+        <v>0.980166</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01014</v>
+        <v>0.977472</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.01596</v>
+        <v>0.979372</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02268</v>
+        <v>0.9924809999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>1.01907</v>
+        <v>0.985441</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0203</v>
+        <v>0.986152</v>
       </c>
       <c r="C131" t="n">
-        <v>1.0383</v>
+        <v>0.997564</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01786</v>
+        <v>0.991493</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0275</v>
+        <v>0.990318</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04566</v>
+        <v>1.00723</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03362</v>
+        <v>0.991783</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03372</v>
+        <v>0.996741</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05396</v>
+        <v>1.01193</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04029</v>
+        <v>1.00585</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04223</v>
+        <v>1.0032</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06238</v>
+        <v>1.02413</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04162</v>
+        <v>1.01188</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04696</v>
+        <v>1.00746</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06864</v>
+        <v>1.03034</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05511</v>
+        <v>1.01959</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05794</v>
+        <v>1.01672</v>
       </c>
       <c r="C136" t="n">
-        <v>1.08425</v>
+        <v>1.03558</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04966</v>
+        <v>1.01762</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05878</v>
+        <v>1.02572</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09007</v>
+        <v>1.04764</v>
       </c>
       <c r="D137" t="n">
-        <v>1.20919</v>
+        <v>1.17207</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22119</v>
+        <v>1.17086</v>
       </c>
       <c r="C138" t="n">
-        <v>1.24407</v>
+        <v>1.19598</v>
       </c>
       <c r="D138" t="n">
-        <v>1.22687</v>
+        <v>1.1837</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.22613</v>
+        <v>1.18045</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25142</v>
+        <v>1.20415</v>
       </c>
       <c r="D139" t="n">
-        <v>1.23735</v>
+        <v>1.19079</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23216</v>
+        <v>1.18576</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26255</v>
+        <v>1.21435</v>
       </c>
       <c r="D140" t="n">
-        <v>1.24906</v>
+        <v>1.19962</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.23947</v>
+        <v>1.18691</v>
       </c>
       <c r="C141" t="n">
-        <v>1.27007</v>
+        <v>1.21927</v>
       </c>
       <c r="D141" t="n">
-        <v>1.25754</v>
+        <v>1.20395</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25029</v>
+        <v>1.195</v>
       </c>
       <c r="C142" t="n">
-        <v>1.27627</v>
+        <v>1.2287</v>
       </c>
       <c r="D142" t="n">
-        <v>1.26309</v>
+        <v>1.21292</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26091</v>
+        <v>1.20659</v>
       </c>
       <c r="C143" t="n">
-        <v>1.28698</v>
+        <v>1.23772</v>
       </c>
       <c r="D143" t="n">
-        <v>1.27478</v>
+        <v>1.2201</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390592</v>
+        <v>0.390785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391641</v>
+        <v>0.402503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3819</v>
+        <v>0.381702</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381129</v>
+        <v>0.381513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384364</v>
+        <v>0.384102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375071</v>
+        <v>0.375236</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373804</v>
+        <v>0.373993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.37779</v>
+        <v>0.377764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369544</v>
+        <v>0.370031</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367531</v>
+        <v>0.367854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372201</v>
+        <v>0.372405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364925</v>
+        <v>0.365314</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361464</v>
+        <v>0.361633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368024</v>
+        <v>0.36846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361496</v>
+        <v>0.361972</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35693</v>
+        <v>0.357175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364477</v>
+        <v>0.364646</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359404</v>
+        <v>0.360453</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353808</v>
+        <v>0.354258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362565</v>
+        <v>0.362827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3595</v>
+        <v>0.360274</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352328</v>
+        <v>0.352676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362537</v>
+        <v>0.362576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469546</v>
+        <v>0.469989</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465447</v>
+        <v>0.466237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484097</v>
+        <v>0.48182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463943</v>
+        <v>0.464969</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454263</v>
+        <v>0.454811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472202</v>
+        <v>0.470022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452954</v>
+        <v>0.453586</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.443768</v>
+        <v>0.444191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460961</v>
+        <v>0.458864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.443133</v>
+        <v>0.443047</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433551</v>
+        <v>0.433838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450485</v>
+        <v>0.448582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.432825</v>
+        <v>0.433308</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423622</v>
+        <v>0.423794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.439986</v>
+        <v>0.438635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423564</v>
+        <v>0.424742</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.41465</v>
+        <v>0.414729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431283</v>
+        <v>0.429028</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415364</v>
+        <v>0.415606</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.405595</v>
+        <v>0.40627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.421562</v>
+        <v>0.419931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406305</v>
+        <v>0.407336</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397457</v>
+        <v>0.397644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413424</v>
+        <v>0.412144</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399628</v>
+        <v>0.400303</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.389888</v>
+        <v>0.39027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406135</v>
+        <v>0.404171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.39275</v>
+        <v>0.393094</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.382904</v>
+        <v>0.383355</v>
       </c>
       <c r="C19" t="n">
-        <v>0.399315</v>
+        <v>0.397741</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387036</v>
+        <v>0.387563</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.376646</v>
+        <v>0.377052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.392893</v>
+        <v>0.391613</v>
       </c>
       <c r="D20" t="n">
-        <v>0.381627</v>
+        <v>0.382689</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371188</v>
+        <v>0.371643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388172</v>
+        <v>0.386947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378377</v>
+        <v>0.379374</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367144</v>
+        <v>0.367477</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384609</v>
+        <v>0.38355</v>
       </c>
       <c r="D22" t="n">
-        <v>0.37636</v>
+        <v>0.377133</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365154</v>
+        <v>0.365625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382832</v>
+        <v>0.382341</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492884</v>
+        <v>0.492859</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481171</v>
+        <v>0.48166</v>
       </c>
       <c r="C24" t="n">
-        <v>0.456983</v>
+        <v>0.451301</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441245</v>
+        <v>0.44016</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.47053</v>
+        <v>0.470903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.445534</v>
+        <v>0.442461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431557</v>
+        <v>0.431042</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459737</v>
+        <v>0.459813</v>
       </c>
       <c r="C26" t="n">
-        <v>0.438267</v>
+        <v>0.433248</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42389</v>
+        <v>0.42278</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449205</v>
+        <v>0.449613</v>
       </c>
       <c r="C27" t="n">
-        <v>0.428686</v>
+        <v>0.425221</v>
       </c>
       <c r="D27" t="n">
-        <v>0.415</v>
+        <v>0.41864</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.43951</v>
+        <v>0.440156</v>
       </c>
       <c r="C28" t="n">
-        <v>0.420976</v>
+        <v>0.416891</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407428</v>
+        <v>0.407268</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430267</v>
+        <v>0.430526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.412452</v>
+        <v>0.408971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399459</v>
+        <v>0.399996</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421422</v>
+        <v>0.421737</v>
       </c>
       <c r="C30" t="n">
-        <v>0.408774</v>
+        <v>0.405731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393661</v>
+        <v>0.392745</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.412927</v>
+        <v>0.413379</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398717</v>
+        <v>0.396013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387315</v>
+        <v>0.386387</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.40524</v>
+        <v>0.405786</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392976</v>
+        <v>0.388954</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382106</v>
+        <v>0.381207</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398045</v>
+        <v>0.398061</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386167</v>
+        <v>0.383931</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376672</v>
+        <v>0.376439</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391333</v>
+        <v>0.391589</v>
       </c>
       <c r="C34" t="n">
-        <v>0.382676</v>
+        <v>0.378994</v>
       </c>
       <c r="D34" t="n">
-        <v>0.373553</v>
+        <v>0.372533</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385876</v>
+        <v>0.385974</v>
       </c>
       <c r="C35" t="n">
-        <v>0.376674</v>
+        <v>0.37492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369249</v>
+        <v>0.369278</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381531</v>
+        <v>0.3819</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374447</v>
+        <v>0.371807</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368505</v>
+        <v>0.370139</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379114</v>
+        <v>0.379587</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373309</v>
+        <v>0.371862</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510024</v>
+        <v>0.5104340000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495394</v>
+        <v>0.496034</v>
       </c>
       <c r="C38" t="n">
-        <v>0.471889</v>
+        <v>0.465798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452277</v>
+        <v>0.452981</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485165</v>
+        <v>0.485684</v>
       </c>
       <c r="C39" t="n">
-        <v>0.46046</v>
+        <v>0.455488</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444611</v>
+        <v>0.444354</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474449</v>
+        <v>0.475113</v>
       </c>
       <c r="C40" t="n">
-        <v>0.455091</v>
+        <v>0.447768</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437983</v>
+        <v>0.436081</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464243</v>
+        <v>0.464995</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444469</v>
+        <v>0.439704</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429135</v>
+        <v>0.428645</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4545</v>
+        <v>0.455215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.436955</v>
+        <v>0.431932</v>
       </c>
       <c r="D42" t="n">
-        <v>0.420561</v>
+        <v>0.42136</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445232</v>
+        <v>0.445987</v>
       </c>
       <c r="C43" t="n">
-        <v>0.428872</v>
+        <v>0.425901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414914</v>
+        <v>0.414986</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436784</v>
+        <v>0.437373</v>
       </c>
       <c r="C44" t="n">
-        <v>0.422995</v>
+        <v>0.41735</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408489</v>
+        <v>0.407945</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.429129</v>
+        <v>0.428946</v>
       </c>
       <c r="C45" t="n">
-        <v>0.414564</v>
+        <v>0.410598</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401679</v>
+        <v>0.400706</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421369</v>
+        <v>0.421314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.413872</v>
+        <v>0.406068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.398264</v>
+        <v>0.397766</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413932</v>
+        <v>0.41461</v>
       </c>
       <c r="C47" t="n">
-        <v>0.404178</v>
+        <v>0.400834</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391956</v>
+        <v>0.391973</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407745</v>
+        <v>0.408129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.398649</v>
+        <v>0.396278</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388473</v>
+        <v>0.388295</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402653</v>
+        <v>0.402436</v>
       </c>
       <c r="C49" t="n">
-        <v>0.394952</v>
+        <v>0.391601</v>
       </c>
       <c r="D49" t="n">
-        <v>0.384837</v>
+        <v>0.384029</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398657</v>
+        <v>0.398354</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392708</v>
+        <v>0.390245</v>
       </c>
       <c r="D50" t="n">
-        <v>0.385004</v>
+        <v>0.38256</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.395241</v>
+        <v>0.395222</v>
       </c>
       <c r="C51" t="n">
-        <v>0.390253</v>
+        <v>0.390374</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53064</v>
+        <v>0.529992</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.364358</v>
+        <v>0.364947</v>
       </c>
       <c r="C52" t="n">
-        <v>0.391495</v>
+        <v>0.390905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.519645</v>
+        <v>0.519279</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503309</v>
+        <v>0.502686</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481847</v>
+        <v>0.47884</v>
       </c>
       <c r="D53" t="n">
-        <v>0.463742</v>
+        <v>0.46208</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492803</v>
+        <v>0.492274</v>
       </c>
       <c r="C54" t="n">
-        <v>0.474748</v>
+        <v>0.472907</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456063</v>
+        <v>0.456682</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.483105</v>
+        <v>0.482693</v>
       </c>
       <c r="C55" t="n">
-        <v>0.463411</v>
+        <v>0.460528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447408</v>
+        <v>0.447056</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472994</v>
+        <v>0.473265</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45664</v>
+        <v>0.455874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.440173</v>
+        <v>0.441454</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464295</v>
+        <v>0.464591</v>
       </c>
       <c r="C57" t="n">
-        <v>0.450309</v>
+        <v>0.448273</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433253</v>
+        <v>0.433544</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.455335</v>
+        <v>0.456061</v>
       </c>
       <c r="C58" t="n">
-        <v>0.442533</v>
+        <v>0.438579</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427323</v>
+        <v>0.426366</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.447951</v>
+        <v>0.448466</v>
       </c>
       <c r="C59" t="n">
-        <v>0.436504</v>
+        <v>0.434054</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42183</v>
+        <v>0.422185</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.440648</v>
+        <v>0.441066</v>
       </c>
       <c r="C60" t="n">
-        <v>0.431016</v>
+        <v>0.426592</v>
       </c>
       <c r="D60" t="n">
-        <v>0.417856</v>
+        <v>0.416092</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434418</v>
+        <v>0.434137</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425808</v>
+        <v>0.422224</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412397</v>
+        <v>0.411868</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427777</v>
+        <v>0.427851</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420762</v>
+        <v>0.419684</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409181</v>
+        <v>0.409451</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422429</v>
+        <v>0.422685</v>
       </c>
       <c r="C63" t="n">
-        <v>0.417099</v>
+        <v>0.413943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.405177</v>
+        <v>0.406594</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.418022</v>
+        <v>0.418173</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414848</v>
+        <v>0.412426</v>
       </c>
       <c r="D64" t="n">
-        <v>0.404582</v>
+        <v>0.404689</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.414557</v>
+        <v>0.415416</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413263</v>
+        <v>0.410848</v>
       </c>
       <c r="D65" t="n">
-        <v>0.404069</v>
+        <v>0.40496</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.41306</v>
+        <v>0.413897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.41403</v>
+        <v>0.411298</v>
       </c>
       <c r="D66" t="n">
-        <v>0.539094</v>
+        <v>0.546828</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.528161</v>
+        <v>0.528684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.50381</v>
+        <v>0.499613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.485695</v>
+        <v>0.485027</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.516966</v>
+        <v>0.518423</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493356</v>
+        <v>0.490889</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476818</v>
+        <v>0.476267</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.507009</v>
+        <v>0.508671</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486799</v>
+        <v>0.48489</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470869</v>
+        <v>0.470057</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.497338</v>
+        <v>0.498807</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477443</v>
+        <v>0.476215</v>
       </c>
       <c r="D70" t="n">
-        <v>0.461698</v>
+        <v>0.46279</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.488224</v>
+        <v>0.489827</v>
       </c>
       <c r="C71" t="n">
-        <v>0.471681</v>
+        <v>0.467913</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45564</v>
+        <v>0.455724</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.478957</v>
+        <v>0.481323</v>
       </c>
       <c r="C72" t="n">
-        <v>0.465545</v>
+        <v>0.460327</v>
       </c>
       <c r="D72" t="n">
-        <v>0.449296</v>
+        <v>0.449518</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.470442</v>
+        <v>0.473472</v>
       </c>
       <c r="C73" t="n">
-        <v>0.458318</v>
+        <v>0.457252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.443443</v>
+        <v>0.443532</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463467</v>
+        <v>0.46607</v>
       </c>
       <c r="C74" t="n">
-        <v>0.452846</v>
+        <v>0.450037</v>
       </c>
       <c r="D74" t="n">
-        <v>0.437893</v>
+        <v>0.438696</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.456434</v>
+        <v>0.457931</v>
       </c>
       <c r="C75" t="n">
-        <v>0.447176</v>
+        <v>0.444509</v>
       </c>
       <c r="D75" t="n">
-        <v>0.433801</v>
+        <v>0.434346</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449483</v>
+        <v>0.451156</v>
       </c>
       <c r="C76" t="n">
-        <v>0.442282</v>
+        <v>0.438847</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430267</v>
+        <v>0.430332</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.443982</v>
+        <v>0.445917</v>
       </c>
       <c r="C77" t="n">
-        <v>0.439088</v>
+        <v>0.436401</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427572</v>
+        <v>0.427716</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439553</v>
+        <v>0.440946</v>
       </c>
       <c r="C78" t="n">
-        <v>0.436338</v>
+        <v>0.434424</v>
       </c>
       <c r="D78" t="n">
-        <v>0.425583</v>
+        <v>0.426501</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436245</v>
+        <v>0.437588</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433131</v>
+        <v>0.432155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.425928</v>
+        <v>0.425668</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434735</v>
+        <v>0.436185</v>
       </c>
       <c r="C80" t="n">
-        <v>0.432874</v>
+        <v>0.431896</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580938</v>
+        <v>0.584266</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5659690000000001</v>
+        <v>0.571322</v>
       </c>
       <c r="C81" t="n">
-        <v>0.532988</v>
+        <v>0.531814</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51256</v>
+        <v>0.5140439999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.559141</v>
+        <v>0.56414</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5260860000000001</v>
+        <v>0.523525</v>
       </c>
       <c r="D82" t="n">
-        <v>0.505391</v>
+        <v>0.505739</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.551199</v>
+        <v>0.557059</v>
       </c>
       <c r="C83" t="n">
-        <v>0.518526</v>
+        <v>0.516671</v>
       </c>
       <c r="D83" t="n">
-        <v>0.497445</v>
+        <v>0.49911</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546396</v>
+        <v>0.549999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.511578</v>
+        <v>0.50878</v>
       </c>
       <c r="D84" t="n">
-        <v>0.493606</v>
+        <v>0.49102</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.538124</v>
+        <v>0.542355</v>
       </c>
       <c r="C85" t="n">
-        <v>0.507533</v>
+        <v>0.501718</v>
       </c>
       <c r="D85" t="n">
-        <v>0.487464</v>
+        <v>0.485213</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.531732</v>
+        <v>0.533144</v>
       </c>
       <c r="C86" t="n">
-        <v>0.498348</v>
+        <v>0.493497</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481887</v>
+        <v>0.478735</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.523227</v>
+        <v>0.524794</v>
       </c>
       <c r="C87" t="n">
-        <v>0.491254</v>
+        <v>0.48745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.473391</v>
+        <v>0.472983</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5162949999999999</v>
+        <v>0.516111</v>
       </c>
       <c r="C88" t="n">
-        <v>0.481523</v>
+        <v>0.482546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466007</v>
+        <v>0.468789</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.505091</v>
+        <v>0.507668</v>
       </c>
       <c r="C89" t="n">
-        <v>0.476945</v>
+        <v>0.476298</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461907</v>
+        <v>0.464612</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.500335</v>
+        <v>0.500857</v>
       </c>
       <c r="C90" t="n">
-        <v>0.473442</v>
+        <v>0.469497</v>
       </c>
       <c r="D90" t="n">
-        <v>0.45952</v>
+        <v>0.45764</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.492037</v>
+        <v>0.494251</v>
       </c>
       <c r="C91" t="n">
-        <v>0.467779</v>
+        <v>0.464179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455247</v>
+        <v>0.453421</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.485823</v>
+        <v>0.488133</v>
       </c>
       <c r="C92" t="n">
-        <v>0.462241</v>
+        <v>0.461635</v>
       </c>
       <c r="D92" t="n">
-        <v>0.45159</v>
+        <v>0.451225</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.478014</v>
+        <v>0.482236</v>
       </c>
       <c r="C93" t="n">
-        <v>0.460629</v>
+        <v>0.458344</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452357</v>
+        <v>0.451193</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.476817</v>
+        <v>0.480646</v>
       </c>
       <c r="C94" t="n">
-        <v>0.460333</v>
+        <v>0.459016</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6231680000000001</v>
+        <v>0.631584</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.616911</v>
+        <v>0.620175</v>
       </c>
       <c r="C95" t="n">
-        <v>0.578667</v>
+        <v>0.576307</v>
       </c>
       <c r="D95" t="n">
-        <v>0.579112</v>
+        <v>0.580873</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.626306</v>
+        <v>0.629516</v>
       </c>
       <c r="C96" t="n">
-        <v>0.588985</v>
+        <v>0.58512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.580539</v>
+        <v>0.576927</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.629288</v>
+        <v>0.630336</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5838410000000001</v>
+        <v>0.58916</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570147</v>
+        <v>0.58165</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.627782</v>
+        <v>0.62998</v>
       </c>
       <c r="C98" t="n">
-        <v>0.591978</v>
+        <v>0.588638</v>
       </c>
       <c r="D98" t="n">
-        <v>0.57725</v>
+        <v>0.578039</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.625458</v>
+        <v>0.627775</v>
       </c>
       <c r="C99" t="n">
-        <v>0.59056</v>
+        <v>0.587213</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573828</v>
+        <v>0.573942</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.623064</v>
+        <v>0.625677</v>
       </c>
       <c r="C100" t="n">
-        <v>0.588381</v>
+        <v>0.577771</v>
       </c>
       <c r="D100" t="n">
-        <v>0.571125</v>
+        <v>0.562654</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.619729</v>
+        <v>0.621182</v>
       </c>
       <c r="C101" t="n">
-        <v>0.584223</v>
+        <v>0.5834279999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.566804</v>
+        <v>0.568837</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.613243</v>
+        <v>0.616334</v>
       </c>
       <c r="C102" t="n">
-        <v>0.580352</v>
+        <v>0.5690229999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5614130000000001</v>
+        <v>0.552388</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.60849</v>
+        <v>0.611436</v>
       </c>
       <c r="C103" t="n">
-        <v>0.578985</v>
+        <v>0.582998</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560071</v>
+        <v>0.563169</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.605637</v>
+        <v>0.608907</v>
       </c>
       <c r="C104" t="n">
-        <v>0.577346</v>
+        <v>0.578429</v>
       </c>
       <c r="D104" t="n">
-        <v>0.559833</v>
+        <v>0.560128</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.600503</v>
+        <v>0.6041609999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.576227</v>
+        <v>0.575195</v>
       </c>
       <c r="D105" t="n">
-        <v>0.555349</v>
+        <v>0.556801</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.597977</v>
+        <v>0.601705</v>
       </c>
       <c r="C106" t="n">
-        <v>0.555496</v>
+        <v>0.572263</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535735</v>
+        <v>0.552269</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.596832</v>
+        <v>0.597152</v>
       </c>
       <c r="C107" t="n">
-        <v>0.568485</v>
+        <v>0.572878</v>
       </c>
       <c r="D107" t="n">
-        <v>0.541834</v>
+        <v>0.5516990000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.591522</v>
+        <v>0.595131</v>
       </c>
       <c r="C108" t="n">
-        <v>0.576484</v>
+        <v>0.570201</v>
       </c>
       <c r="D108" t="n">
-        <v>0.723034</v>
+        <v>0.725151</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.552696</v>
+        <v>0.557207</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573</v>
+        <v>0.573196</v>
       </c>
       <c r="D109" t="n">
-        <v>0.734245</v>
+        <v>0.732233</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.722584</v>
+        <v>0.710027</v>
       </c>
       <c r="C110" t="n">
-        <v>0.734971</v>
+        <v>0.724378</v>
       </c>
       <c r="D110" t="n">
-        <v>0.729378</v>
+        <v>0.742142</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.724299</v>
+        <v>0.717701</v>
       </c>
       <c r="C111" t="n">
-        <v>0.737595</v>
+        <v>0.729812</v>
       </c>
       <c r="D111" t="n">
-        <v>0.742195</v>
+        <v>0.728098</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.732186</v>
+        <v>0.724911</v>
       </c>
       <c r="C112" t="n">
-        <v>0.742999</v>
+        <v>0.734358</v>
       </c>
       <c r="D112" t="n">
-        <v>0.750748</v>
+        <v>0.738635</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.732695</v>
+        <v>0.730487</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7471</v>
+        <v>0.740159</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7539400000000001</v>
+        <v>0.7398940000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.740291</v>
+        <v>0.732754</v>
       </c>
       <c r="C114" t="n">
-        <v>0.751023</v>
+        <v>0.743637</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7521099999999999</v>
+        <v>0.735031</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.746599</v>
+        <v>0.737574</v>
       </c>
       <c r="C115" t="n">
-        <v>0.752038</v>
+        <v>0.747233</v>
       </c>
       <c r="D115" t="n">
-        <v>0.758422</v>
+        <v>0.742024</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7448399999999999</v>
+        <v>0.742708</v>
       </c>
       <c r="C116" t="n">
-        <v>0.758361</v>
+        <v>0.748366</v>
       </c>
       <c r="D116" t="n">
-        <v>0.75232</v>
+        <v>0.759173</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.749516</v>
+        <v>0.743752</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75827</v>
+        <v>0.74802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.759069</v>
+        <v>0.761222</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.749073</v>
+        <v>0.74877</v>
       </c>
       <c r="C118" t="n">
-        <v>0.766142</v>
+        <v>0.759397</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7449170000000001</v>
+        <v>0.765192</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756467</v>
+        <v>0.754927</v>
       </c>
       <c r="C119" t="n">
-        <v>0.769031</v>
+        <v>0.766771</v>
       </c>
       <c r="D119" t="n">
-        <v>0.770688</v>
+        <v>0.768251</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.759663</v>
+        <v>0.758388</v>
       </c>
       <c r="C120" t="n">
-        <v>0.775569</v>
+        <v>0.7706190000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.771709</v>
+        <v>0.7704</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7647929999999999</v>
+        <v>0.764419</v>
       </c>
       <c r="C121" t="n">
-        <v>0.781312</v>
+        <v>0.7663219999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.769402</v>
+        <v>0.773875</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.768853</v>
+        <v>0.766005</v>
       </c>
       <c r="C122" t="n">
-        <v>0.785253</v>
+        <v>0.781789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.768557</v>
+        <v>0.778459</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.773681</v>
+        <v>0.774099</v>
       </c>
       <c r="C123" t="n">
-        <v>0.785716</v>
+        <v>0.7888269999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.92045</v>
+        <v>0.925637</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.937025</v>
+        <v>0.936409</v>
       </c>
       <c r="C124" t="n">
-        <v>0.945441</v>
+        <v>0.934563</v>
       </c>
       <c r="D124" t="n">
-        <v>0.942405</v>
+        <v>0.937499</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.945022</v>
+        <v>0.941495</v>
       </c>
       <c r="C125" t="n">
-        <v>0.956029</v>
+        <v>0.948832</v>
       </c>
       <c r="D125" t="n">
-        <v>0.945951</v>
+        <v>0.946354</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.948788</v>
+        <v>0.950489</v>
       </c>
       <c r="C126" t="n">
-        <v>0.96163</v>
+        <v>0.958161</v>
       </c>
       <c r="D126" t="n">
-        <v>0.950406</v>
+        <v>0.952915</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.957047</v>
+        <v>0.954157</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9689</v>
+        <v>0.9626670000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.951362</v>
+        <v>0.954604</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.964136</v>
+        <v>0.960032</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9711379999999999</v>
+        <v>0.968616</v>
       </c>
       <c r="D128" t="n">
-        <v>0.956326</v>
+        <v>0.96517</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.972821</v>
+        <v>0.970073</v>
       </c>
       <c r="C129" t="n">
-        <v>0.980166</v>
+        <v>0.9764389999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.977472</v>
+        <v>0.9750259999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.979372</v>
+        <v>0.976668</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9924809999999999</v>
+        <v>0.982778</v>
       </c>
       <c r="D130" t="n">
-        <v>0.985441</v>
+        <v>0.966333</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.986152</v>
+        <v>0.984606</v>
       </c>
       <c r="C131" t="n">
-        <v>0.997564</v>
+        <v>0.993874</v>
       </c>
       <c r="D131" t="n">
-        <v>0.991493</v>
+        <v>0.989195</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.990318</v>
+        <v>0.985193</v>
       </c>
       <c r="C132" t="n">
-        <v>1.00723</v>
+        <v>0.995241</v>
       </c>
       <c r="D132" t="n">
-        <v>0.991783</v>
+        <v>0.99578</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.996741</v>
+        <v>0.99698</v>
       </c>
       <c r="C133" t="n">
-        <v>1.01193</v>
+        <v>1.00806</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00585</v>
+        <v>0.988058</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0032</v>
+        <v>1.0014</v>
       </c>
       <c r="C134" t="n">
-        <v>1.02413</v>
+        <v>1.01582</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01188</v>
+        <v>1.00694</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00746</v>
+        <v>1.00883</v>
       </c>
       <c r="C135" t="n">
-        <v>1.03034</v>
+        <v>1.02516</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01959</v>
+        <v>1.01152</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.01672</v>
+        <v>1.01381</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03558</v>
+        <v>1.0283</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01762</v>
+        <v>1.01869</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.02572</v>
+        <v>1.01755</v>
       </c>
       <c r="C137" t="n">
-        <v>1.04764</v>
+        <v>1.04059</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17207</v>
+        <v>1.17012</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17086</v>
+        <v>1.16583</v>
       </c>
       <c r="C138" t="n">
-        <v>1.19598</v>
+        <v>1.18513</v>
       </c>
       <c r="D138" t="n">
-        <v>1.1837</v>
+        <v>1.17022</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.18045</v>
+        <v>1.17336</v>
       </c>
       <c r="C139" t="n">
-        <v>1.20415</v>
+        <v>1.19583</v>
       </c>
       <c r="D139" t="n">
-        <v>1.19079</v>
+        <v>1.18905</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18576</v>
+        <v>1.17576</v>
       </c>
       <c r="C140" t="n">
-        <v>1.21435</v>
+        <v>1.2023</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19962</v>
+        <v>1.19343</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18691</v>
+        <v>1.18888</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21927</v>
+        <v>1.21502</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20395</v>
+        <v>1.20358</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.195</v>
+        <v>1.19685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.2287</v>
+        <v>1.22148</v>
       </c>
       <c r="D142" t="n">
-        <v>1.21292</v>
+        <v>1.21042</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.20659</v>
+        <v>1.20494</v>
       </c>
       <c r="C143" t="n">
-        <v>1.23772</v>
+        <v>1.22983</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2201</v>
+        <v>1.21547</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390785</v>
+        <v>0.390397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.402503</v>
+        <v>0.392336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381702</v>
+        <v>0.381937</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381513</v>
+        <v>0.381191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384102</v>
+        <v>0.384817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375236</v>
+        <v>0.375362</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373993</v>
+        <v>0.373665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377764</v>
+        <v>0.378225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370031</v>
+        <v>0.370177</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367854</v>
+        <v>0.367733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372405</v>
+        <v>0.372968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365314</v>
+        <v>0.365608</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361633</v>
+        <v>0.361699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36846</v>
+        <v>0.368876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361972</v>
+        <v>0.362154</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357175</v>
+        <v>0.357224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364646</v>
+        <v>0.364992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360453</v>
+        <v>0.360553</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354258</v>
+        <v>0.354086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362827</v>
+        <v>0.363148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360274</v>
+        <v>0.361969</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352676</v>
+        <v>0.352565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362576</v>
+        <v>0.363052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469989</v>
+        <v>0.47033</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466237</v>
+        <v>0.465662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48182</v>
+        <v>0.482076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464969</v>
+        <v>0.464918</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454811</v>
+        <v>0.454626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470022</v>
+        <v>0.470092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453586</v>
+        <v>0.453853</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444191</v>
+        <v>0.443718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.458864</v>
+        <v>0.459189</v>
       </c>
       <c r="D12" t="n">
-        <v>0.443047</v>
+        <v>0.44393</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433838</v>
+        <v>0.433531</v>
       </c>
       <c r="C13" t="n">
         <v>0.448582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433308</v>
+        <v>0.433812</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423794</v>
+        <v>0.423936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438635</v>
+        <v>0.438595</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424742</v>
+        <v>0.424648</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.414729</v>
+        <v>0.414361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429028</v>
+        <v>0.429196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415606</v>
+        <v>0.416073</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.40627</v>
+        <v>0.405833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.419931</v>
+        <v>0.420093</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407336</v>
+        <v>0.407522</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397644</v>
+        <v>0.397441</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412144</v>
+        <v>0.412263</v>
       </c>
       <c r="D17" t="n">
-        <v>0.400303</v>
+        <v>0.400634</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.39027</v>
+        <v>0.390045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.404171</v>
+        <v>0.404325</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393094</v>
+        <v>0.393512</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383355</v>
+        <v>0.383135</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397741</v>
+        <v>0.397774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387563</v>
+        <v>0.387861</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377052</v>
+        <v>0.376884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391613</v>
+        <v>0.39143</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382689</v>
+        <v>0.382419</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371643</v>
+        <v>0.371475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.386947</v>
+        <v>0.386916</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379374</v>
+        <v>0.379516</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367477</v>
+        <v>0.367433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.38355</v>
+        <v>0.383361</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377133</v>
+        <v>0.377684</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365625</v>
+        <v>0.365404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382341</v>
+        <v>0.381961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492859</v>
+        <v>0.493463</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48166</v>
+        <v>0.481674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.451301</v>
+        <v>0.452448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44016</v>
+        <v>0.441068</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470903</v>
+        <v>0.470878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.442461</v>
+        <v>0.442674</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431042</v>
+        <v>0.431344</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459813</v>
+        <v>0.459925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.433248</v>
+        <v>0.434027</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42278</v>
+        <v>0.423318</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449613</v>
+        <v>0.449638</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425221</v>
+        <v>0.425085</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41864</v>
+        <v>0.415276</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.440156</v>
+        <v>0.439972</v>
       </c>
       <c r="C28" t="n">
-        <v>0.416891</v>
+        <v>0.416968</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407268</v>
+        <v>0.408126</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430526</v>
+        <v>0.429628</v>
       </c>
       <c r="C29" t="n">
-        <v>0.408971</v>
+        <v>0.409085</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399996</v>
+        <v>0.400136</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421737</v>
+        <v>0.420798</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405731</v>
+        <v>0.401546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392745</v>
+        <v>0.394119</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413379</v>
+        <v>0.412326</v>
       </c>
       <c r="C31" t="n">
-        <v>0.396013</v>
+        <v>0.394839</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386387</v>
+        <v>0.387417</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405786</v>
+        <v>0.40474</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388954</v>
+        <v>0.388973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381207</v>
+        <v>0.381887</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398061</v>
+        <v>0.397436</v>
       </c>
       <c r="C33" t="n">
-        <v>0.383931</v>
+        <v>0.383947</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376439</v>
+        <v>0.377756</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391589</v>
+        <v>0.390856</v>
       </c>
       <c r="C34" t="n">
-        <v>0.378994</v>
+        <v>0.378589</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372533</v>
+        <v>0.372323</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385974</v>
+        <v>0.385357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.37492</v>
+        <v>0.374128</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369278</v>
+        <v>0.369744</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3819</v>
+        <v>0.381288</v>
       </c>
       <c r="C36" t="n">
-        <v>0.371807</v>
+        <v>0.372052</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370139</v>
+        <v>0.369029</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379587</v>
+        <v>0.378779</v>
       </c>
       <c r="C37" t="n">
-        <v>0.371862</v>
+        <v>0.370739</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5104340000000001</v>
+        <v>0.511081</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496034</v>
+        <v>0.495894</v>
       </c>
       <c r="C38" t="n">
-        <v>0.465798</v>
+        <v>0.464901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452981</v>
+        <v>0.453838</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485684</v>
+        <v>0.485233</v>
       </c>
       <c r="C39" t="n">
-        <v>0.455488</v>
+        <v>0.456208</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444354</v>
+        <v>0.446044</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.475113</v>
+        <v>0.475003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.447768</v>
+        <v>0.448219</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436081</v>
+        <v>0.439729</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464995</v>
+        <v>0.464797</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439704</v>
+        <v>0.439986</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428645</v>
+        <v>0.429477</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.455215</v>
+        <v>0.455523</v>
       </c>
       <c r="C42" t="n">
-        <v>0.431932</v>
+        <v>0.432028</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42136</v>
+        <v>0.421193</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445987</v>
+        <v>0.446042</v>
       </c>
       <c r="C43" t="n">
-        <v>0.425901</v>
+        <v>0.425325</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414986</v>
+        <v>0.415375</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.437373</v>
+        <v>0.437262</v>
       </c>
       <c r="C44" t="n">
-        <v>0.41735</v>
+        <v>0.422433</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407945</v>
+        <v>0.409223</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428946</v>
+        <v>0.428965</v>
       </c>
       <c r="C45" t="n">
-        <v>0.410598</v>
+        <v>0.412375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400706</v>
+        <v>0.402457</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421314</v>
+        <v>0.420272</v>
       </c>
       <c r="C46" t="n">
-        <v>0.406068</v>
+        <v>0.405702</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397766</v>
+        <v>0.39623</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.41461</v>
+        <v>0.414471</v>
       </c>
       <c r="C47" t="n">
-        <v>0.400834</v>
+        <v>0.4026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391973</v>
+        <v>0.392694</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.408129</v>
+        <v>0.40804</v>
       </c>
       <c r="C48" t="n">
-        <v>0.396278</v>
+        <v>0.397325</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388295</v>
+        <v>0.388708</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402436</v>
+        <v>0.402026</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391601</v>
+        <v>0.395445</v>
       </c>
       <c r="D49" t="n">
-        <v>0.384029</v>
+        <v>0.385349</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398354</v>
+        <v>0.398128</v>
       </c>
       <c r="C50" t="n">
-        <v>0.390245</v>
+        <v>0.391536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38256</v>
+        <v>0.384031</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.395222</v>
+        <v>0.394793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.390374</v>
+        <v>0.388528</v>
       </c>
       <c r="D51" t="n">
-        <v>0.529992</v>
+        <v>0.531911</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.364947</v>
+        <v>0.370464</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390905</v>
+        <v>0.389551</v>
       </c>
       <c r="D52" t="n">
-        <v>0.519279</v>
+        <v>0.520775</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.502686</v>
+        <v>0.503259</v>
       </c>
       <c r="C53" t="n">
-        <v>0.47884</v>
+        <v>0.479818</v>
       </c>
       <c r="D53" t="n">
-        <v>0.46208</v>
+        <v>0.46516</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492274</v>
+        <v>0.492703</v>
       </c>
       <c r="C54" t="n">
-        <v>0.472907</v>
+        <v>0.468641</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456682</v>
+        <v>0.453927</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482693</v>
+        <v>0.482493</v>
       </c>
       <c r="C55" t="n">
-        <v>0.460528</v>
+        <v>0.460951</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447056</v>
+        <v>0.449003</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473265</v>
+        <v>0.47283</v>
       </c>
       <c r="C56" t="n">
-        <v>0.455874</v>
+        <v>0.453519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441454</v>
+        <v>0.440877</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464591</v>
+        <v>0.463585</v>
       </c>
       <c r="C57" t="n">
-        <v>0.448273</v>
+        <v>0.445036</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433544</v>
+        <v>0.43507</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456061</v>
+        <v>0.455168</v>
       </c>
       <c r="C58" t="n">
-        <v>0.438579</v>
+        <v>0.439516</v>
       </c>
       <c r="D58" t="n">
-        <v>0.426366</v>
+        <v>0.428851</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.448466</v>
+        <v>0.446439</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434054</v>
+        <v>0.432543</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422185</v>
+        <v>0.423729</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.441066</v>
+        <v>0.438852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.426592</v>
+        <v>0.42578</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416092</v>
+        <v>0.417839</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434137</v>
+        <v>0.431833</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422224</v>
+        <v>0.421076</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411868</v>
+        <v>0.412886</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427851</v>
+        <v>0.427395</v>
       </c>
       <c r="C62" t="n">
-        <v>0.419684</v>
+        <v>0.418952</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409451</v>
+        <v>0.409421</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422685</v>
+        <v>0.419899</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413943</v>
+        <v>0.413917</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406594</v>
+        <v>0.406947</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.418173</v>
+        <v>0.415164</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412426</v>
+        <v>0.409756</v>
       </c>
       <c r="D64" t="n">
-        <v>0.404689</v>
+        <v>0.404017</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.415416</v>
+        <v>0.414029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.410848</v>
+        <v>0.40994</v>
       </c>
       <c r="D65" t="n">
-        <v>0.40496</v>
+        <v>0.405061</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.413897</v>
+        <v>0.413795</v>
       </c>
       <c r="C66" t="n">
-        <v>0.411298</v>
+        <v>0.413662</v>
       </c>
       <c r="D66" t="n">
-        <v>0.546828</v>
+        <v>0.538946</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.528684</v>
+        <v>0.5275570000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.499613</v>
+        <v>0.501336</v>
       </c>
       <c r="D67" t="n">
-        <v>0.485027</v>
+        <v>0.486869</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.518423</v>
+        <v>0.515485</v>
       </c>
       <c r="C68" t="n">
-        <v>0.490889</v>
+        <v>0.492056</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476267</v>
+        <v>0.479175</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.508671</v>
+        <v>0.506127</v>
       </c>
       <c r="C69" t="n">
-        <v>0.48489</v>
+        <v>0.48338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470057</v>
+        <v>0.471975</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.498807</v>
+        <v>0.496474</v>
       </c>
       <c r="C70" t="n">
-        <v>0.476215</v>
+        <v>0.476207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.46279</v>
+        <v>0.462545</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.489827</v>
+        <v>0.48641</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467913</v>
+        <v>0.469396</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455724</v>
+        <v>0.457732</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.481323</v>
+        <v>0.478432</v>
       </c>
       <c r="C72" t="n">
-        <v>0.460327</v>
+        <v>0.461224</v>
       </c>
       <c r="D72" t="n">
-        <v>0.449518</v>
+        <v>0.451949</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473472</v>
+        <v>0.470121</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457252</v>
+        <v>0.456256</v>
       </c>
       <c r="D73" t="n">
-        <v>0.443532</v>
+        <v>0.445569</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.46607</v>
+        <v>0.462052</v>
       </c>
       <c r="C74" t="n">
-        <v>0.450037</v>
+        <v>0.448211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438696</v>
+        <v>0.440575</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457931</v>
+        <v>0.455013</v>
       </c>
       <c r="C75" t="n">
-        <v>0.444509</v>
+        <v>0.442891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434346</v>
+        <v>0.435151</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.451156</v>
+        <v>0.449931</v>
       </c>
       <c r="C76" t="n">
-        <v>0.438847</v>
+        <v>0.439717</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430332</v>
+        <v>0.42919</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445917</v>
+        <v>0.444413</v>
       </c>
       <c r="C77" t="n">
-        <v>0.436401</v>
+        <v>0.433525</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427716</v>
+        <v>0.429333</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.440946</v>
+        <v>0.4381</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434424</v>
+        <v>0.430265</v>
       </c>
       <c r="D78" t="n">
-        <v>0.426501</v>
+        <v>0.427237</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.437588</v>
+        <v>0.434992</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432155</v>
+        <v>0.432286</v>
       </c>
       <c r="D79" t="n">
-        <v>0.425668</v>
+        <v>0.4288</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.436185</v>
+        <v>0.43408</v>
       </c>
       <c r="C80" t="n">
-        <v>0.431896</v>
+        <v>0.433593</v>
       </c>
       <c r="D80" t="n">
-        <v>0.584266</v>
+        <v>0.5853699999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.571322</v>
+        <v>0.570257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531814</v>
+        <v>0.530735</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5140439999999999</v>
+        <v>0.5140980000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56414</v>
+        <v>0.563856</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523525</v>
+        <v>0.523021</v>
       </c>
       <c r="D82" t="n">
-        <v>0.505739</v>
+        <v>0.506591</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.557059</v>
+        <v>0.556736</v>
       </c>
       <c r="C83" t="n">
-        <v>0.516671</v>
+        <v>0.515852</v>
       </c>
       <c r="D83" t="n">
-        <v>0.49911</v>
+        <v>0.50008</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.549999</v>
+        <v>0.548993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.50878</v>
+        <v>0.507347</v>
       </c>
       <c r="D84" t="n">
-        <v>0.49102</v>
+        <v>0.490572</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.542355</v>
+        <v>0.541199</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501718</v>
+        <v>0.499454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.485213</v>
+        <v>0.483258</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.533144</v>
+        <v>0.532987</v>
       </c>
       <c r="C86" t="n">
-        <v>0.493497</v>
+        <v>0.494978</v>
       </c>
       <c r="D86" t="n">
-        <v>0.478735</v>
+        <v>0.480335</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524794</v>
+        <v>0.524992</v>
       </c>
       <c r="C87" t="n">
-        <v>0.48745</v>
+        <v>0.48869</v>
       </c>
       <c r="D87" t="n">
-        <v>0.472983</v>
+        <v>0.474409</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516111</v>
+        <v>0.516579</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482546</v>
+        <v>0.481692</v>
       </c>
       <c r="D88" t="n">
-        <v>0.468789</v>
+        <v>0.468158</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507668</v>
+        <v>0.508269</v>
       </c>
       <c r="C89" t="n">
-        <v>0.476298</v>
+        <v>0.475737</v>
       </c>
       <c r="D89" t="n">
-        <v>0.464612</v>
+        <v>0.463025</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.500857</v>
+        <v>0.5002490000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469497</v>
+        <v>0.469513</v>
       </c>
       <c r="D90" t="n">
-        <v>0.45764</v>
+        <v>0.458985</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.494251</v>
+        <v>0.493313</v>
       </c>
       <c r="C91" t="n">
-        <v>0.464179</v>
+        <v>0.465764</v>
       </c>
       <c r="D91" t="n">
-        <v>0.453421</v>
+        <v>0.456317</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.488133</v>
+        <v>0.487323</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461635</v>
+        <v>0.461533</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451225</v>
+        <v>0.453655</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482236</v>
+        <v>0.482512</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458344</v>
+        <v>0.458865</v>
       </c>
       <c r="D93" t="n">
-        <v>0.451193</v>
+        <v>0.453331</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.480646</v>
+        <v>0.47949</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459016</v>
+        <v>0.459805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.631584</v>
+        <v>0.627293</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.620175</v>
+        <v>0.619468</v>
       </c>
       <c r="C95" t="n">
-        <v>0.576307</v>
+        <v>0.575116</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580873</v>
+        <v>0.579196</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.629516</v>
+        <v>0.62981</v>
       </c>
       <c r="C96" t="n">
-        <v>0.58512</v>
+        <v>0.587197</v>
       </c>
       <c r="D96" t="n">
-        <v>0.576927</v>
+        <v>0.582126</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.630336</v>
+        <v>0.633116</v>
       </c>
       <c r="C97" t="n">
-        <v>0.58916</v>
+        <v>0.5926</v>
       </c>
       <c r="D97" t="n">
-        <v>0.58165</v>
+        <v>0.581664</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.62998</v>
+        <v>0.633811</v>
       </c>
       <c r="C98" t="n">
-        <v>0.588638</v>
+        <v>0.5928020000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578039</v>
+        <v>0.580175</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.627775</v>
+        <v>0.63129</v>
       </c>
       <c r="C99" t="n">
-        <v>0.587213</v>
+        <v>0.589705</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573942</v>
+        <v>0.576799</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.625677</v>
+        <v>0.624027</v>
       </c>
       <c r="C100" t="n">
-        <v>0.577771</v>
+        <v>0.585842</v>
       </c>
       <c r="D100" t="n">
-        <v>0.562654</v>
+        <v>0.570041</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.621182</v>
+        <v>0.621858</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5834279999999999</v>
+        <v>0.584694</v>
       </c>
       <c r="D101" t="n">
-        <v>0.568837</v>
+        <v>0.570053</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.616334</v>
+        <v>0.61753</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5690229999999999</v>
+        <v>0.571788</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552388</v>
+        <v>0.552152</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.611436</v>
+        <v>0.612163</v>
       </c>
       <c r="C103" t="n">
-        <v>0.582998</v>
+        <v>0.56686</v>
       </c>
       <c r="D103" t="n">
-        <v>0.563169</v>
+        <v>0.54855</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.608907</v>
+        <v>0.610031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578429</v>
+        <v>0.5618570000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.560128</v>
+        <v>0.545277</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6041609999999999</v>
+        <v>0.605031</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575195</v>
+        <v>0.580201</v>
       </c>
       <c r="D105" t="n">
-        <v>0.556801</v>
+        <v>0.564609</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.601705</v>
+        <v>0.60606</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572263</v>
+        <v>0.575895</v>
       </c>
       <c r="D106" t="n">
-        <v>0.552269</v>
+        <v>0.559292</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.597152</v>
+        <v>0.601102</v>
       </c>
       <c r="C107" t="n">
-        <v>0.572878</v>
+        <v>0.560833</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5516990000000001</v>
+        <v>0.544726</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.595131</v>
+        <v>0.599709</v>
       </c>
       <c r="C108" t="n">
-        <v>0.570201</v>
+        <v>0.576815</v>
       </c>
       <c r="D108" t="n">
-        <v>0.725151</v>
+        <v>0.719598</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.557207</v>
+        <v>0.5621930000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573196</v>
+        <v>0.5744899999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.732233</v>
+        <v>0.7290219999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.710027</v>
+        <v>0.715872</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724378</v>
+        <v>0.724756</v>
       </c>
       <c r="D110" t="n">
-        <v>0.742142</v>
+        <v>0.74074</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.717701</v>
+        <v>0.717119</v>
       </c>
       <c r="C111" t="n">
-        <v>0.729812</v>
+        <v>0.729409</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728098</v>
+        <v>0.7470909999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.724911</v>
+        <v>0.723907</v>
       </c>
       <c r="C112" t="n">
-        <v>0.734358</v>
+        <v>0.734627</v>
       </c>
       <c r="D112" t="n">
-        <v>0.738635</v>
+        <v>0.73831</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.730487</v>
+        <v>0.732131</v>
       </c>
       <c r="C113" t="n">
-        <v>0.740159</v>
+        <v>0.740036</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7398940000000001</v>
+        <v>0.7528899999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.732754</v>
+        <v>0.731169</v>
       </c>
       <c r="C114" t="n">
-        <v>0.743637</v>
+        <v>0.742812</v>
       </c>
       <c r="D114" t="n">
-        <v>0.735031</v>
+        <v>0.755871</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.737574</v>
+        <v>0.736965</v>
       </c>
       <c r="C115" t="n">
-        <v>0.747233</v>
+        <v>0.747367</v>
       </c>
       <c r="D115" t="n">
-        <v>0.742024</v>
+        <v>0.7416199999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.742708</v>
+        <v>0.743884</v>
       </c>
       <c r="C116" t="n">
-        <v>0.748366</v>
+        <v>0.753413</v>
       </c>
       <c r="D116" t="n">
-        <v>0.759173</v>
+        <v>0.760541</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.743752</v>
+        <v>0.746005</v>
       </c>
       <c r="C117" t="n">
-        <v>0.74802</v>
+        <v>0.75627</v>
       </c>
       <c r="D117" t="n">
-        <v>0.761222</v>
+        <v>0.763217</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.74877</v>
+        <v>0.753008</v>
       </c>
       <c r="C118" t="n">
-        <v>0.759397</v>
+        <v>0.755233</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765192</v>
+        <v>0.7668509999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.754927</v>
+        <v>0.757972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766771</v>
+        <v>0.769579</v>
       </c>
       <c r="D119" t="n">
-        <v>0.768251</v>
+        <v>0.752089</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758388</v>
+        <v>0.763877</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7706190000000001</v>
+        <v>0.774333</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7704</v>
+        <v>0.753508</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.764419</v>
+        <v>0.766261</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7663219999999999</v>
+        <v>0.766853</v>
       </c>
       <c r="D121" t="n">
-        <v>0.773875</v>
+        <v>0.774984</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.766005</v>
+        <v>0.768315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.781789</v>
+        <v>0.772024</v>
       </c>
       <c r="D122" t="n">
-        <v>0.778459</v>
+        <v>0.778783</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774099</v>
+        <v>0.774874</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7888269999999999</v>
+        <v>0.790381</v>
       </c>
       <c r="D123" t="n">
-        <v>0.925637</v>
+        <v>0.92939</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.936409</v>
+        <v>0.935894</v>
       </c>
       <c r="C124" t="n">
-        <v>0.934563</v>
+        <v>0.942094</v>
       </c>
       <c r="D124" t="n">
-        <v>0.937499</v>
+        <v>0.935283</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.941495</v>
+        <v>0.944918</v>
       </c>
       <c r="C125" t="n">
-        <v>0.948832</v>
+        <v>0.949954</v>
       </c>
       <c r="D125" t="n">
-        <v>0.946354</v>
+        <v>0.947779</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.950489</v>
+        <v>0.948387</v>
       </c>
       <c r="C126" t="n">
-        <v>0.958161</v>
+        <v>0.949634</v>
       </c>
       <c r="D126" t="n">
-        <v>0.952915</v>
+        <v>0.95262</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954157</v>
+        <v>0.955795</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9626670000000001</v>
+        <v>0.958959</v>
       </c>
       <c r="D127" t="n">
-        <v>0.954604</v>
+        <v>0.961851</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.960032</v>
+        <v>0.964303</v>
       </c>
       <c r="C128" t="n">
-        <v>0.968616</v>
+        <v>0.972342</v>
       </c>
       <c r="D128" t="n">
-        <v>0.96517</v>
+        <v>0.968415</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.970073</v>
+        <v>0.9715859999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9764389999999999</v>
+        <v>0.976677</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9750259999999999</v>
+        <v>0.976078</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.976668</v>
+        <v>0.975735</v>
       </c>
       <c r="C130" t="n">
-        <v>0.982778</v>
+        <v>0.986961</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966333</v>
+        <v>0.982811</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.984606</v>
+        <v>0.982497</v>
       </c>
       <c r="C131" t="n">
-        <v>0.993874</v>
+        <v>0.987686</v>
       </c>
       <c r="D131" t="n">
-        <v>0.989195</v>
+        <v>0.988907</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.985193</v>
+        <v>0.989799</v>
       </c>
       <c r="C132" t="n">
-        <v>0.995241</v>
+        <v>1.00263</v>
       </c>
       <c r="D132" t="n">
-        <v>0.99578</v>
+        <v>0.996394</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.99698</v>
+        <v>0.994908</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00806</v>
+        <v>1.00714</v>
       </c>
       <c r="D133" t="n">
-        <v>0.988058</v>
+        <v>0.994415</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0014</v>
+        <v>0.997759</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01582</v>
+        <v>1.01819</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00694</v>
+        <v>1.00335</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00883</v>
+        <v>1.00172</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>1.02477</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01152</v>
+        <v>1.00123</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.01381</v>
+        <v>1.00584</v>
       </c>
       <c r="C136" t="n">
-        <v>1.0283</v>
+        <v>1.02999</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01869</v>
+        <v>1.01916</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01755</v>
+        <v>1.01094</v>
       </c>
       <c r="C137" t="n">
-        <v>1.04059</v>
+        <v>1.04224</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17012</v>
+        <v>1.16945</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16583</v>
+        <v>1.17305</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18513</v>
+        <v>1.18971</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17022</v>
+        <v>1.17793</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17336</v>
+        <v>1.1761</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19583</v>
+        <v>1.19993</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18905</v>
+        <v>1.18857</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17576</v>
+        <v>1.1824</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2023</v>
+        <v>1.20661</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19343</v>
+        <v>1.19727</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18888</v>
+        <v>1.19076</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21502</v>
+        <v>1.21716</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20358</v>
+        <v>1.20568</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19685</v>
+        <v>1.19785</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22148</v>
+        <v>1.22147</v>
       </c>
       <c r="D142" t="n">
-        <v>1.21042</v>
+        <v>1.20807</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.20494</v>
+        <v>1.2033</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22983</v>
+        <v>1.23069</v>
       </c>
       <c r="D143" t="n">
-        <v>1.21547</v>
+        <v>1.22121</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390397</v>
+        <v>0.390212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392336</v>
+        <v>0.391195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381937</v>
+        <v>0.381644</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381191</v>
+        <v>0.380932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384817</v>
+        <v>0.383751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375362</v>
+        <v>0.37498</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373665</v>
+        <v>0.373327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378225</v>
+        <v>0.377557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370177</v>
+        <v>0.369794</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367733</v>
+        <v>0.367286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372968</v>
+        <v>0.37212</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365608</v>
+        <v>0.364984</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361699</v>
+        <v>0.361057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368876</v>
+        <v>0.368449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.362154</v>
+        <v>0.361962</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357224</v>
+        <v>0.356784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364992</v>
+        <v>0.364327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360553</v>
+        <v>0.360092</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354086</v>
+        <v>0.353799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363148</v>
+        <v>0.362599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.361969</v>
+        <v>0.359792</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352565</v>
+        <v>0.352238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363052</v>
+        <v>0.362375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.47033</v>
+        <v>0.46963</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465662</v>
+        <v>0.465768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.482076</v>
+        <v>0.481667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464918</v>
+        <v>0.464241</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454626</v>
+        <v>0.454796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470092</v>
+        <v>0.470434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453853</v>
+        <v>0.453493</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.443718</v>
+        <v>0.444056</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459189</v>
+        <v>0.459269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44393</v>
+        <v>0.443412</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433531</v>
+        <v>0.43382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448582</v>
+        <v>0.448319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433812</v>
+        <v>0.433345</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423936</v>
+        <v>0.423866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438595</v>
+        <v>0.438189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424648</v>
+        <v>0.424146</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.414361</v>
+        <v>0.414697</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429196</v>
+        <v>0.429156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416073</v>
+        <v>0.415369</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.405833</v>
+        <v>0.405979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420093</v>
+        <v>0.419897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407522</v>
+        <v>0.406951</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397441</v>
+        <v>0.397776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412263</v>
+        <v>0.412292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.400634</v>
+        <v>0.399808</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390045</v>
+        <v>0.390348</v>
       </c>
       <c r="C18" t="n">
-        <v>0.404325</v>
+        <v>0.404313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393512</v>
+        <v>0.392902</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383135</v>
+        <v>0.383499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397774</v>
+        <v>0.397531</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387861</v>
+        <v>0.38718</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.376884</v>
+        <v>0.377212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.39143</v>
+        <v>0.391154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382419</v>
+        <v>0.382208</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371475</v>
+        <v>0.371538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.386916</v>
+        <v>0.386673</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379516</v>
+        <v>0.378986</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367433</v>
+        <v>0.367546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383361</v>
+        <v>0.383399</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377684</v>
+        <v>0.377221</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365404</v>
+        <v>0.365653</v>
       </c>
       <c r="C23" t="n">
-        <v>0.381961</v>
+        <v>0.381767</v>
       </c>
       <c r="D23" t="n">
-        <v>0.493463</v>
+        <v>0.492562</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481674</v>
+        <v>0.481322</v>
       </c>
       <c r="C24" t="n">
-        <v>0.452448</v>
+        <v>0.450654</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441068</v>
+        <v>0.43929</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470878</v>
+        <v>0.470398</v>
       </c>
       <c r="C25" t="n">
-        <v>0.442674</v>
+        <v>0.441834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431344</v>
+        <v>0.430641</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459925</v>
+        <v>0.459843</v>
       </c>
       <c r="C26" t="n">
-        <v>0.434027</v>
+        <v>0.434411</v>
       </c>
       <c r="D26" t="n">
-        <v>0.423318</v>
+        <v>0.421969</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449638</v>
+        <v>0.449332</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425085</v>
+        <v>0.424636</v>
       </c>
       <c r="D27" t="n">
-        <v>0.415276</v>
+        <v>0.414523</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439972</v>
+        <v>0.439546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.416968</v>
+        <v>0.418981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.408126</v>
+        <v>0.407222</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.429628</v>
+        <v>0.430177</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409085</v>
+        <v>0.410122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.400136</v>
+        <v>0.399855</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.420798</v>
+        <v>0.421277</v>
       </c>
       <c r="C30" t="n">
-        <v>0.401546</v>
+        <v>0.401791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.394119</v>
+        <v>0.39301</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.412326</v>
+        <v>0.412806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.394839</v>
+        <v>0.394953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387417</v>
+        <v>0.386476</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.40474</v>
+        <v>0.405271</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388973</v>
+        <v>0.388699</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381887</v>
+        <v>0.380835</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.397436</v>
+        <v>0.397834</v>
       </c>
       <c r="C33" t="n">
-        <v>0.383947</v>
+        <v>0.38356</v>
       </c>
       <c r="D33" t="n">
-        <v>0.377756</v>
+        <v>0.376434</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.390856</v>
+        <v>0.391109</v>
       </c>
       <c r="C34" t="n">
-        <v>0.378589</v>
+        <v>0.378681</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372323</v>
+        <v>0.371578</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385357</v>
+        <v>0.385725</v>
       </c>
       <c r="C35" t="n">
-        <v>0.374128</v>
+        <v>0.374363</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369744</v>
+        <v>0.368683</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381288</v>
+        <v>0.38171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372052</v>
+        <v>0.371626</v>
       </c>
       <c r="D36" t="n">
-        <v>0.369029</v>
+        <v>0.367364</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.378779</v>
+        <v>0.379194</v>
       </c>
       <c r="C37" t="n">
-        <v>0.370739</v>
+        <v>0.370242</v>
       </c>
       <c r="D37" t="n">
-        <v>0.511081</v>
+        <v>0.5098819999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495894</v>
+        <v>0.495649</v>
       </c>
       <c r="C38" t="n">
-        <v>0.464901</v>
+        <v>0.464659</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453838</v>
+        <v>0.453625</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485233</v>
+        <v>0.485333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.456208</v>
+        <v>0.456108</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446044</v>
+        <v>0.446915</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.475003</v>
+        <v>0.474968</v>
       </c>
       <c r="C40" t="n">
-        <v>0.448219</v>
+        <v>0.448835</v>
       </c>
       <c r="D40" t="n">
-        <v>0.439729</v>
+        <v>0.435553</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464797</v>
+        <v>0.464522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439986</v>
+        <v>0.439151</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429477</v>
+        <v>0.428099</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.455523</v>
+        <v>0.454922</v>
       </c>
       <c r="C42" t="n">
-        <v>0.432028</v>
+        <v>0.432267</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421193</v>
+        <v>0.421043</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.446042</v>
+        <v>0.445389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.425325</v>
+        <v>0.42477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.415375</v>
+        <v>0.413749</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.437262</v>
+        <v>0.436857</v>
       </c>
       <c r="C44" t="n">
-        <v>0.422433</v>
+        <v>0.419291</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409223</v>
+        <v>0.407995</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428965</v>
+        <v>0.428882</v>
       </c>
       <c r="C45" t="n">
-        <v>0.412375</v>
+        <v>0.411574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402457</v>
+        <v>0.402276</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420272</v>
+        <v>0.420877</v>
       </c>
       <c r="C46" t="n">
-        <v>0.405702</v>
+        <v>0.405927</v>
       </c>
       <c r="D46" t="n">
-        <v>0.39623</v>
+        <v>0.396136</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414471</v>
+        <v>0.413836</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4026</v>
+        <v>0.400226</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392694</v>
+        <v>0.391627</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.40804</v>
+        <v>0.40755</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397325</v>
+        <v>0.395558</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388708</v>
+        <v>0.387775</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402026</v>
+        <v>0.401596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.395445</v>
+        <v>0.394299</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385349</v>
+        <v>0.386348</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398128</v>
+        <v>0.397202</v>
       </c>
       <c r="C50" t="n">
-        <v>0.391536</v>
+        <v>0.389439</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384031</v>
+        <v>0.382392</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394793</v>
+        <v>0.393834</v>
       </c>
       <c r="C51" t="n">
-        <v>0.388528</v>
+        <v>0.389253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.531911</v>
+        <v>0.529614</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.370464</v>
+        <v>0.363895</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389551</v>
+        <v>0.390232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.520775</v>
+        <v>0.519878</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503259</v>
+        <v>0.503757</v>
       </c>
       <c r="C53" t="n">
-        <v>0.479818</v>
+        <v>0.475962</v>
       </c>
       <c r="D53" t="n">
-        <v>0.46516</v>
+        <v>0.462227</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492703</v>
+        <v>0.492254</v>
       </c>
       <c r="C54" t="n">
-        <v>0.468641</v>
+        <v>0.468017</v>
       </c>
       <c r="D54" t="n">
-        <v>0.453927</v>
+        <v>0.454328</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482493</v>
+        <v>0.482178</v>
       </c>
       <c r="C55" t="n">
-        <v>0.460951</v>
+        <v>0.46085</v>
       </c>
       <c r="D55" t="n">
-        <v>0.449003</v>
+        <v>0.446814</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.47283</v>
+        <v>0.473123</v>
       </c>
       <c r="C56" t="n">
-        <v>0.453519</v>
+        <v>0.455205</v>
       </c>
       <c r="D56" t="n">
-        <v>0.440877</v>
+        <v>0.441169</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463585</v>
+        <v>0.464206</v>
       </c>
       <c r="C57" t="n">
-        <v>0.445036</v>
+        <v>0.44788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.43507</v>
+        <v>0.434024</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.455168</v>
+        <v>0.454273</v>
       </c>
       <c r="C58" t="n">
-        <v>0.439516</v>
+        <v>0.440312</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428851</v>
+        <v>0.428179</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446439</v>
+        <v>0.446795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.432543</v>
+        <v>0.433461</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423729</v>
+        <v>0.422481</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.438852</v>
+        <v>0.440643</v>
       </c>
       <c r="C60" t="n">
-        <v>0.42578</v>
+        <v>0.428615</v>
       </c>
       <c r="D60" t="n">
-        <v>0.417839</v>
+        <v>0.417144</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.431833</v>
+        <v>0.433991</v>
       </c>
       <c r="C61" t="n">
-        <v>0.421076</v>
+        <v>0.422702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412886</v>
+        <v>0.412083</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427395</v>
+        <v>0.42525</v>
       </c>
       <c r="C62" t="n">
-        <v>0.418952</v>
+        <v>0.418071</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409421</v>
+        <v>0.408171</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.419899</v>
+        <v>0.422398</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413917</v>
+        <v>0.414586</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406947</v>
+        <v>0.405562</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.415164</v>
+        <v>0.414925</v>
       </c>
       <c r="C64" t="n">
-        <v>0.409756</v>
+        <v>0.411717</v>
       </c>
       <c r="D64" t="n">
-        <v>0.404017</v>
+        <v>0.403258</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.414029</v>
+        <v>0.413983</v>
       </c>
       <c r="C65" t="n">
-        <v>0.40994</v>
+        <v>0.410353</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405061</v>
+        <v>0.404604</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.413795</v>
+        <v>0.412291</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413662</v>
+        <v>0.411409</v>
       </c>
       <c r="D66" t="n">
-        <v>0.538946</v>
+        <v>0.544548</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5275570000000001</v>
+        <v>0.529092</v>
       </c>
       <c r="C67" t="n">
-        <v>0.501336</v>
+        <v>0.501313</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486869</v>
+        <v>0.485337</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515485</v>
+        <v>0.516157</v>
       </c>
       <c r="C68" t="n">
-        <v>0.492056</v>
+        <v>0.493409</v>
       </c>
       <c r="D68" t="n">
-        <v>0.479175</v>
+        <v>0.477527</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.506127</v>
+        <v>0.505919</v>
       </c>
       <c r="C69" t="n">
-        <v>0.48338</v>
+        <v>0.484668</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471975</v>
+        <v>0.470488</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496474</v>
+        <v>0.497298</v>
       </c>
       <c r="C70" t="n">
-        <v>0.476207</v>
+        <v>0.47827</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462545</v>
+        <v>0.461928</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.48641</v>
+        <v>0.487235</v>
       </c>
       <c r="C71" t="n">
-        <v>0.469396</v>
+        <v>0.467013</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457732</v>
+        <v>0.455329</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.478432</v>
+        <v>0.479189</v>
       </c>
       <c r="C72" t="n">
-        <v>0.461224</v>
+        <v>0.463399</v>
       </c>
       <c r="D72" t="n">
-        <v>0.451949</v>
+        <v>0.449057</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.470121</v>
+        <v>0.473038</v>
       </c>
       <c r="C73" t="n">
-        <v>0.456256</v>
+        <v>0.455213</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445569</v>
+        <v>0.444016</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.462052</v>
+        <v>0.464912</v>
       </c>
       <c r="C74" t="n">
-        <v>0.448211</v>
+        <v>0.449489</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440575</v>
+        <v>0.438005</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.455013</v>
+        <v>0.45784</v>
       </c>
       <c r="C75" t="n">
-        <v>0.442891</v>
+        <v>0.445653</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435151</v>
+        <v>0.434026</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449931</v>
+        <v>0.451769</v>
       </c>
       <c r="C76" t="n">
-        <v>0.439717</v>
+        <v>0.439354</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42919</v>
+        <v>0.42966</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.444413</v>
+        <v>0.445942</v>
       </c>
       <c r="C77" t="n">
-        <v>0.433525</v>
+        <v>0.434606</v>
       </c>
       <c r="D77" t="n">
-        <v>0.429333</v>
+        <v>0.426715</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4381</v>
+        <v>0.440705</v>
       </c>
       <c r="C78" t="n">
-        <v>0.430265</v>
+        <v>0.432246</v>
       </c>
       <c r="D78" t="n">
-        <v>0.427237</v>
+        <v>0.423903</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.434992</v>
+        <v>0.436524</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432286</v>
+        <v>0.430801</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4288</v>
+        <v>0.425573</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.43408</v>
+        <v>0.434192</v>
       </c>
       <c r="C80" t="n">
-        <v>0.433593</v>
+        <v>0.431629</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5853699999999999</v>
+        <v>0.582094</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.570257</v>
+        <v>0.56918</v>
       </c>
       <c r="C81" t="n">
-        <v>0.530735</v>
+        <v>0.531036</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5140980000000001</v>
+        <v>0.515416</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.563856</v>
+        <v>0.56376</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523021</v>
+        <v>0.523899</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506591</v>
+        <v>0.507451</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.556736</v>
+        <v>0.557088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.515852</v>
+        <v>0.517015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50008</v>
+        <v>0.502111</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.548993</v>
+        <v>0.54927</v>
       </c>
       <c r="C84" t="n">
-        <v>0.507347</v>
+        <v>0.509686</v>
       </c>
       <c r="D84" t="n">
-        <v>0.490572</v>
+        <v>0.49382</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.541199</v>
+        <v>0.541709</v>
       </c>
       <c r="C85" t="n">
-        <v>0.499454</v>
+        <v>0.501454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483258</v>
+        <v>0.486772</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.532987</v>
+        <v>0.534233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.494978</v>
+        <v>0.496903</v>
       </c>
       <c r="D86" t="n">
-        <v>0.480335</v>
+        <v>0.481484</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524992</v>
+        <v>0.526346</v>
       </c>
       <c r="C87" t="n">
-        <v>0.48869</v>
+        <v>0.489651</v>
       </c>
       <c r="D87" t="n">
-        <v>0.474409</v>
+        <v>0.476253</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516579</v>
+        <v>0.517721</v>
       </c>
       <c r="C88" t="n">
-        <v>0.481692</v>
+        <v>0.484015</v>
       </c>
       <c r="D88" t="n">
-        <v>0.468158</v>
+        <v>0.470794</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.508269</v>
+        <v>0.510246</v>
       </c>
       <c r="C89" t="n">
-        <v>0.475737</v>
+        <v>0.478757</v>
       </c>
       <c r="D89" t="n">
-        <v>0.463025</v>
+        <v>0.466494</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5002490000000001</v>
+        <v>0.500988</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469513</v>
+        <v>0.469543</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458985</v>
+        <v>0.459021</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.493313</v>
+        <v>0.492725</v>
       </c>
       <c r="C91" t="n">
-        <v>0.465764</v>
+        <v>0.466423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.456317</v>
+        <v>0.455235</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.487323</v>
+        <v>0.487662</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461533</v>
+        <v>0.462484</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453655</v>
+        <v>0.452963</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482512</v>
+        <v>0.4851</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458865</v>
+        <v>0.462071</v>
       </c>
       <c r="D93" t="n">
-        <v>0.453331</v>
+        <v>0.455241</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.47949</v>
+        <v>0.480152</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459805</v>
+        <v>0.462467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.627293</v>
+        <v>0.625443</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.619468</v>
+        <v>0.618628</v>
       </c>
       <c r="C95" t="n">
-        <v>0.575116</v>
+        <v>0.572242</v>
       </c>
       <c r="D95" t="n">
-        <v>0.579196</v>
+        <v>0.578379</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.62981</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.587197</v>
+        <v>0.585052</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582126</v>
+        <v>0.577723</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.633116</v>
+        <v>0.631721</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5926</v>
+        <v>0.588676</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581664</v>
+        <v>0.578751</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.633811</v>
+        <v>0.631118</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5928020000000001</v>
+        <v>0.5890069999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580175</v>
+        <v>0.578377</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.63129</v>
+        <v>0.629454</v>
       </c>
       <c r="C99" t="n">
-        <v>0.589705</v>
+        <v>0.5858989999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.576799</v>
+        <v>0.573043</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.624027</v>
+        <v>0.625355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.585842</v>
+        <v>0.575308</v>
       </c>
       <c r="D100" t="n">
-        <v>0.570041</v>
+        <v>0.561588</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.621858</v>
+        <v>0.620715</v>
       </c>
       <c r="C101" t="n">
-        <v>0.584694</v>
+        <v>0.583448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.570053</v>
+        <v>0.567068</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.61753</v>
+        <v>0.615578</v>
       </c>
       <c r="C102" t="n">
-        <v>0.571788</v>
+        <v>0.565181</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552152</v>
+        <v>0.55227</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.612163</v>
+        <v>0.612198</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56686</v>
+        <v>0.5647180000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.54855</v>
+        <v>0.5491239999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.610031</v>
+        <v>0.606428</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5618570000000001</v>
+        <v>0.579406</v>
       </c>
       <c r="D104" t="n">
-        <v>0.545277</v>
+        <v>0.567758</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.605031</v>
+        <v>0.602868</v>
       </c>
       <c r="C105" t="n">
-        <v>0.580201</v>
+        <v>0.565292</v>
       </c>
       <c r="D105" t="n">
-        <v>0.564609</v>
+        <v>0.550489</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.60606</v>
+        <v>0.6032729999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.575895</v>
+        <v>0.558438</v>
       </c>
       <c r="D106" t="n">
-        <v>0.559292</v>
+        <v>0.539384</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.601102</v>
+        <v>0.600938</v>
       </c>
       <c r="C107" t="n">
-        <v>0.560833</v>
+        <v>0.575626</v>
       </c>
       <c r="D107" t="n">
-        <v>0.544726</v>
+        <v>0.558283</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.599709</v>
+        <v>0.595596</v>
       </c>
       <c r="C108" t="n">
-        <v>0.576815</v>
+        <v>0.5743200000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.719598</v>
+        <v>0.7264659999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5621930000000001</v>
+        <v>0.560581</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5744899999999999</v>
+        <v>0.575309</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7290219999999999</v>
+        <v>0.74202</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.715872</v>
+        <v>0.71584</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724756</v>
+        <v>0.727372</v>
       </c>
       <c r="D110" t="n">
-        <v>0.74074</v>
+        <v>0.743187</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.717119</v>
+        <v>0.7196129999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.729409</v>
+        <v>0.729761</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7470909999999999</v>
+        <v>0.748292</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.723907</v>
+        <v>0.734187</v>
       </c>
       <c r="C112" t="n">
-        <v>0.734627</v>
+        <v>0.7386</v>
       </c>
       <c r="D112" t="n">
-        <v>0.73831</v>
+        <v>0.750741</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.732131</v>
+        <v>0.736751</v>
       </c>
       <c r="C113" t="n">
-        <v>0.740036</v>
+        <v>0.74188</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7528899999999999</v>
+        <v>0.747068</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.731169</v>
+        <v>0.742734</v>
       </c>
       <c r="C114" t="n">
-        <v>0.742812</v>
+        <v>0.747445</v>
       </c>
       <c r="D114" t="n">
-        <v>0.755871</v>
+        <v>0.739792</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.736965</v>
+        <v>0.74448</v>
       </c>
       <c r="C115" t="n">
-        <v>0.747367</v>
+        <v>0.751753</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7416199999999999</v>
+        <v>0.7534650000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.743884</v>
+        <v>0.746627</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753413</v>
+        <v>0.752377</v>
       </c>
       <c r="D116" t="n">
-        <v>0.760541</v>
+        <v>0.75996</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.746005</v>
+        <v>0.749412</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75627</v>
+        <v>0.754748</v>
       </c>
       <c r="D117" t="n">
-        <v>0.763217</v>
+        <v>0.752398</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.753008</v>
+        <v>0.755698</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755233</v>
+        <v>0.762915</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7668509999999999</v>
+        <v>0.768364</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.757972</v>
+        <v>0.760103</v>
       </c>
       <c r="C119" t="n">
-        <v>0.769579</v>
+        <v>0.766223</v>
       </c>
       <c r="D119" t="n">
-        <v>0.752089</v>
+        <v>0.770435</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.763877</v>
+        <v>0.764506</v>
       </c>
       <c r="C120" t="n">
-        <v>0.774333</v>
+        <v>0.768499</v>
       </c>
       <c r="D120" t="n">
-        <v>0.753508</v>
+        <v>0.769486</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.766261</v>
+        <v>0.766718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.766853</v>
+        <v>0.778846</v>
       </c>
       <c r="D121" t="n">
-        <v>0.774984</v>
+        <v>0.778088</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.768315</v>
+        <v>0.771087</v>
       </c>
       <c r="C122" t="n">
-        <v>0.772024</v>
+        <v>0.7871590000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.778783</v>
+        <v>0.781142</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774874</v>
+        <v>0.775031</v>
       </c>
       <c r="C123" t="n">
-        <v>0.790381</v>
+        <v>0.792818</v>
       </c>
       <c r="D123" t="n">
-        <v>0.92939</v>
+        <v>0.932824</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.935894</v>
+        <v>0.935482</v>
       </c>
       <c r="C124" t="n">
-        <v>0.942094</v>
+        <v>0.935936</v>
       </c>
       <c r="D124" t="n">
-        <v>0.935283</v>
+        <v>0.936953</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.944918</v>
+        <v>0.944959</v>
       </c>
       <c r="C125" t="n">
-        <v>0.949954</v>
+        <v>0.949581</v>
       </c>
       <c r="D125" t="n">
-        <v>0.947779</v>
+        <v>0.9412740000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.948387</v>
+        <v>0.954058</v>
       </c>
       <c r="C126" t="n">
-        <v>0.949634</v>
+        <v>0.95357</v>
       </c>
       <c r="D126" t="n">
-        <v>0.95262</v>
+        <v>0.951658</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.955795</v>
+        <v>0.9615359999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.958959</v>
+        <v>0.959201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.961851</v>
+        <v>0.959807</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.964303</v>
+        <v>0.965336</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972342</v>
+        <v>0.968434</v>
       </c>
       <c r="D128" t="n">
-        <v>0.968415</v>
+        <v>0.9652500000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9715859999999999</v>
+        <v>0.970248</v>
       </c>
       <c r="C129" t="n">
-        <v>0.976677</v>
+        <v>0.974594</v>
       </c>
       <c r="D129" t="n">
-        <v>0.976078</v>
+        <v>0.970329</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.975735</v>
+        <v>0.979362</v>
       </c>
       <c r="C130" t="n">
-        <v>0.986961</v>
+        <v>0.983363</v>
       </c>
       <c r="D130" t="n">
-        <v>0.982811</v>
+        <v>0.980535</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.982497</v>
+        <v>0.985857</v>
       </c>
       <c r="C131" t="n">
-        <v>0.987686</v>
+        <v>0.99012</v>
       </c>
       <c r="D131" t="n">
-        <v>0.988907</v>
+        <v>0.985503</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.989799</v>
+        <v>0.990699</v>
       </c>
       <c r="C132" t="n">
-        <v>1.00263</v>
+        <v>1.00052</v>
       </c>
       <c r="D132" t="n">
-        <v>0.996394</v>
+        <v>0.9872919999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.994908</v>
+        <v>0.998261</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00714</v>
+        <v>1.00612</v>
       </c>
       <c r="D133" t="n">
-        <v>0.994415</v>
+        <v>0.997737</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.997759</v>
+        <v>1.00128</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01819</v>
+        <v>1.01286</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00335</v>
+        <v>1.00795</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00172</v>
+        <v>1.01297</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02477</v>
+        <v>1.02428</v>
       </c>
       <c r="D135" t="n">
-        <v>1.00123</v>
+        <v>1.01239</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00584</v>
+        <v>1.01664</v>
       </c>
       <c r="C136" t="n">
-        <v>1.02999</v>
+        <v>1.03083</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01916</v>
+        <v>1.01526</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01094</v>
+        <v>1.0132</v>
       </c>
       <c r="C137" t="n">
-        <v>1.04224</v>
+        <v>1.03964</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16945</v>
+        <v>1.16841</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17305</v>
+        <v>1.17607</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18971</v>
+        <v>1.19091</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17793</v>
+        <v>1.18135</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1761</v>
+        <v>1.1842</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19993</v>
+        <v>1.19765</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18857</v>
+        <v>1.18725</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.1824</v>
+        <v>1.18857</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20661</v>
+        <v>1.20855</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19727</v>
+        <v>1.19628</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19076</v>
+        <v>1.19826</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21716</v>
+        <v>1.21779</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20568</v>
+        <v>1.20096</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19785</v>
+        <v>1.20351</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22147</v>
+        <v>1.22121</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20807</v>
+        <v>1.20906</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2033</v>
+        <v>1.21179</v>
       </c>
       <c r="C143" t="n">
-        <v>1.23069</v>
+        <v>1.23039</v>
       </c>
       <c r="D143" t="n">
-        <v>1.22121</v>
+        <v>1.21861</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390212</v>
+        <v>0.390748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391195</v>
+        <v>0.391931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381644</v>
+        <v>0.382263</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380932</v>
+        <v>0.382166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383751</v>
+        <v>0.384753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37498</v>
+        <v>0.375783</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373327</v>
+        <v>0.374305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377557</v>
+        <v>0.378324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369794</v>
+        <v>0.370602</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367286</v>
+        <v>0.368522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37212</v>
+        <v>0.372718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364984</v>
+        <v>0.365719</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361057</v>
+        <v>0.362271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368449</v>
+        <v>0.36867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361962</v>
+        <v>0.362494</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356784</v>
+        <v>0.357606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364327</v>
+        <v>0.365055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360092</v>
+        <v>0.360728</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353799</v>
+        <v>0.354316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362599</v>
+        <v>0.3631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359792</v>
+        <v>0.360714</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352238</v>
+        <v>0.353029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362375</v>
+        <v>0.362794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.46963</v>
+        <v>0.47062</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465768</v>
+        <v>0.466439</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481667</v>
+        <v>0.481829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464241</v>
+        <v>0.464945</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454796</v>
+        <v>0.455733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470434</v>
+        <v>0.470179</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453493</v>
+        <v>0.453912</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444056</v>
+        <v>0.444873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459269</v>
+        <v>0.459476</v>
       </c>
       <c r="D12" t="n">
-        <v>0.443412</v>
+        <v>0.443906</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.43382</v>
+        <v>0.434525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448319</v>
+        <v>0.449054</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433345</v>
+        <v>0.434045</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423866</v>
+        <v>0.424812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438189</v>
+        <v>0.438894</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424146</v>
+        <v>0.424575</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.414697</v>
+        <v>0.415601</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429156</v>
+        <v>0.429534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415369</v>
+        <v>0.416153</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.405979</v>
+        <v>0.406744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.419897</v>
+        <v>0.420483</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406951</v>
+        <v>0.407607</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397776</v>
+        <v>0.398824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412292</v>
+        <v>0.413234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399808</v>
+        <v>0.401071</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390348</v>
+        <v>0.391322</v>
       </c>
       <c r="C18" t="n">
-        <v>0.404313</v>
+        <v>0.40492</v>
       </c>
       <c r="D18" t="n">
-        <v>0.392902</v>
+        <v>0.393688</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383499</v>
+        <v>0.384206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397531</v>
+        <v>0.398098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.38718</v>
+        <v>0.387939</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377212</v>
+        <v>0.37808</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391154</v>
+        <v>0.391641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382208</v>
+        <v>0.382618</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371538</v>
+        <v>0.372769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.386673</v>
+        <v>0.387407</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378986</v>
+        <v>0.379666</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367546</v>
+        <v>0.368311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383399</v>
+        <v>0.383962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377221</v>
+        <v>0.377847</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365653</v>
+        <v>0.366437</v>
       </c>
       <c r="C23" t="n">
-        <v>0.381767</v>
+        <v>0.382151</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492562</v>
+        <v>0.493119</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481322</v>
+        <v>0.481681</v>
       </c>
       <c r="C24" t="n">
-        <v>0.450654</v>
+        <v>0.452381</v>
       </c>
       <c r="D24" t="n">
-        <v>0.43929</v>
+        <v>0.440813</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470398</v>
+        <v>0.471029</v>
       </c>
       <c r="C25" t="n">
-        <v>0.441834</v>
+        <v>0.442968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430641</v>
+        <v>0.431622</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459843</v>
+        <v>0.460262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.434411</v>
+        <v>0.433361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.421969</v>
+        <v>0.422753</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449332</v>
+        <v>0.449982</v>
       </c>
       <c r="C27" t="n">
-        <v>0.424636</v>
+        <v>0.425703</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414523</v>
+        <v>0.415564</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439546</v>
+        <v>0.440446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418981</v>
+        <v>0.417272</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407222</v>
+        <v>0.407803</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430177</v>
+        <v>0.430799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410122</v>
+        <v>0.409588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399855</v>
+        <v>0.400095</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421277</v>
+        <v>0.422294</v>
       </c>
       <c r="C30" t="n">
-        <v>0.401791</v>
+        <v>0.402454</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39301</v>
+        <v>0.393738</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.412806</v>
+        <v>0.413664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.394953</v>
+        <v>0.395439</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386476</v>
+        <v>0.387574</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405271</v>
+        <v>0.405905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388699</v>
+        <v>0.388977</v>
       </c>
       <c r="D32" t="n">
-        <v>0.380835</v>
+        <v>0.381741</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.397834</v>
+        <v>0.398732</v>
       </c>
       <c r="C33" t="n">
-        <v>0.38356</v>
+        <v>0.383625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376434</v>
+        <v>0.377476</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391109</v>
+        <v>0.391989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.378681</v>
+        <v>0.378921</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371578</v>
+        <v>0.373066</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385725</v>
+        <v>0.386472</v>
       </c>
       <c r="C35" t="n">
-        <v>0.374363</v>
+        <v>0.375016</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368683</v>
+        <v>0.37042</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.38171</v>
+        <v>0.382321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.371626</v>
+        <v>0.372209</v>
       </c>
       <c r="D36" t="n">
-        <v>0.367364</v>
+        <v>0.369248</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379194</v>
+        <v>0.379927</v>
       </c>
       <c r="C37" t="n">
-        <v>0.370242</v>
+        <v>0.372753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5098819999999999</v>
+        <v>0.510791</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495649</v>
+        <v>0.495577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.464659</v>
+        <v>0.465052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453625</v>
+        <v>0.454407</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485333</v>
+        <v>0.485189</v>
       </c>
       <c r="C39" t="n">
-        <v>0.456108</v>
+        <v>0.457034</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446915</v>
+        <v>0.446391</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474968</v>
+        <v>0.474666</v>
       </c>
       <c r="C40" t="n">
-        <v>0.448835</v>
+        <v>0.446946</v>
       </c>
       <c r="D40" t="n">
-        <v>0.435553</v>
+        <v>0.437074</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464522</v>
+        <v>0.464472</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439151</v>
+        <v>0.439175</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428099</v>
+        <v>0.42942</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454922</v>
+        <v>0.454546</v>
       </c>
       <c r="C42" t="n">
-        <v>0.432267</v>
+        <v>0.434645</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421043</v>
+        <v>0.424242</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445389</v>
+        <v>0.445686</v>
       </c>
       <c r="C43" t="n">
-        <v>0.42477</v>
+        <v>0.42484</v>
       </c>
       <c r="D43" t="n">
-        <v>0.413749</v>
+        <v>0.415941</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436857</v>
+        <v>0.436905</v>
       </c>
       <c r="C44" t="n">
-        <v>0.419291</v>
+        <v>0.41852</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407995</v>
+        <v>0.410789</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428882</v>
+        <v>0.428664</v>
       </c>
       <c r="C45" t="n">
-        <v>0.411574</v>
+        <v>0.411672</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402276</v>
+        <v>0.404414</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420877</v>
+        <v>0.421348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.405927</v>
+        <v>0.40761</v>
       </c>
       <c r="D46" t="n">
-        <v>0.396136</v>
+        <v>0.398461</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413836</v>
+        <v>0.414015</v>
       </c>
       <c r="C47" t="n">
-        <v>0.400226</v>
+        <v>0.399954</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391627</v>
+        <v>0.393276</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.40755</v>
+        <v>0.407335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.395558</v>
+        <v>0.395514</v>
       </c>
       <c r="D48" t="n">
-        <v>0.387775</v>
+        <v>0.390677</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.401596</v>
+        <v>0.401626</v>
       </c>
       <c r="C49" t="n">
-        <v>0.394299</v>
+        <v>0.391122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.386348</v>
+        <v>0.386155</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397202</v>
+        <v>0.397018</v>
       </c>
       <c r="C50" t="n">
-        <v>0.389439</v>
+        <v>0.388704</v>
       </c>
       <c r="D50" t="n">
-        <v>0.382392</v>
+        <v>0.384959</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.393834</v>
+        <v>0.393774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389253</v>
+        <v>0.391131</v>
       </c>
       <c r="D51" t="n">
-        <v>0.529614</v>
+        <v>0.530298</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363895</v>
+        <v>0.36445</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390232</v>
+        <v>0.389949</v>
       </c>
       <c r="D52" t="n">
-        <v>0.519878</v>
+        <v>0.519779</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503757</v>
+        <v>0.502489</v>
       </c>
       <c r="C53" t="n">
-        <v>0.475962</v>
+        <v>0.475438</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462227</v>
+        <v>0.463734</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492254</v>
+        <v>0.492048</v>
       </c>
       <c r="C54" t="n">
-        <v>0.468017</v>
+        <v>0.469579</v>
       </c>
       <c r="D54" t="n">
-        <v>0.454328</v>
+        <v>0.456927</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482178</v>
+        <v>0.482287</v>
       </c>
       <c r="C55" t="n">
-        <v>0.46085</v>
+        <v>0.4602</v>
       </c>
       <c r="D55" t="n">
-        <v>0.446814</v>
+        <v>0.449211</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473123</v>
+        <v>0.472775</v>
       </c>
       <c r="C56" t="n">
-        <v>0.455205</v>
+        <v>0.453038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441169</v>
+        <v>0.442504</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464206</v>
+        <v>0.464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.44788</v>
+        <v>0.444785</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434024</v>
+        <v>0.435336</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454273</v>
+        <v>0.454661</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440312</v>
+        <v>0.43949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428179</v>
+        <v>0.429089</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446795</v>
+        <v>0.446934</v>
       </c>
       <c r="C59" t="n">
-        <v>0.433461</v>
+        <v>0.433229</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422481</v>
+        <v>0.423334</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.440643</v>
+        <v>0.439615</v>
       </c>
       <c r="C60" t="n">
-        <v>0.428615</v>
+        <v>0.427905</v>
       </c>
       <c r="D60" t="n">
-        <v>0.417144</v>
+        <v>0.420289</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.433991</v>
+        <v>0.432486</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422702</v>
+        <v>0.421112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412083</v>
+        <v>0.413517</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.42525</v>
+        <v>0.426298</v>
       </c>
       <c r="C62" t="n">
-        <v>0.418071</v>
+        <v>0.41938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408171</v>
+        <v>0.410358</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422398</v>
+        <v>0.420894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.414586</v>
+        <v>0.412703</v>
       </c>
       <c r="D63" t="n">
-        <v>0.405562</v>
+        <v>0.406604</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.414925</v>
+        <v>0.415787</v>
       </c>
       <c r="C64" t="n">
-        <v>0.411717</v>
+        <v>0.411573</v>
       </c>
       <c r="D64" t="n">
-        <v>0.403258</v>
+        <v>0.405735</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.413983</v>
+        <v>0.41262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.410353</v>
+        <v>0.411766</v>
       </c>
       <c r="D65" t="n">
-        <v>0.404604</v>
+        <v>0.407795</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.412291</v>
+        <v>0.411785</v>
       </c>
       <c r="C66" t="n">
-        <v>0.411409</v>
+        <v>0.410054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.544548</v>
+        <v>0.545396</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.529092</v>
+        <v>0.525695</v>
       </c>
       <c r="C67" t="n">
-        <v>0.501313</v>
+        <v>0.498798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.485337</v>
+        <v>0.48687</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.516157</v>
+        <v>0.514915</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493409</v>
+        <v>0.490923</v>
       </c>
       <c r="D68" t="n">
-        <v>0.477527</v>
+        <v>0.478498</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505919</v>
+        <v>0.506823</v>
       </c>
       <c r="C69" t="n">
-        <v>0.484668</v>
+        <v>0.482583</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470488</v>
+        <v>0.471517</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.497298</v>
+        <v>0.497358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.47827</v>
+        <v>0.474597</v>
       </c>
       <c r="D70" t="n">
-        <v>0.461928</v>
+        <v>0.463569</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.487235</v>
+        <v>0.488099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467013</v>
+        <v>0.467224</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455329</v>
+        <v>0.457174</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.479189</v>
+        <v>0.478409</v>
       </c>
       <c r="C72" t="n">
-        <v>0.463399</v>
+        <v>0.460144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.449057</v>
+        <v>0.451367</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473038</v>
+        <v>0.469967</v>
       </c>
       <c r="C73" t="n">
-        <v>0.455213</v>
+        <v>0.454061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444016</v>
+        <v>0.445075</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.464912</v>
+        <v>0.462131</v>
       </c>
       <c r="C74" t="n">
-        <v>0.449489</v>
+        <v>0.448912</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438005</v>
+        <v>0.440489</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.45784</v>
+        <v>0.455356</v>
       </c>
       <c r="C75" t="n">
-        <v>0.445653</v>
+        <v>0.44343</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434026</v>
+        <v>0.435113</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.451769</v>
+        <v>0.449523</v>
       </c>
       <c r="C76" t="n">
-        <v>0.439354</v>
+        <v>0.439156</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42966</v>
+        <v>0.431707</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445942</v>
+        <v>0.442966</v>
       </c>
       <c r="C77" t="n">
-        <v>0.434606</v>
+        <v>0.433717</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426715</v>
+        <v>0.428873</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.440705</v>
+        <v>0.437701</v>
       </c>
       <c r="C78" t="n">
-        <v>0.432246</v>
+        <v>0.431866</v>
       </c>
       <c r="D78" t="n">
-        <v>0.423903</v>
+        <v>0.427495</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436524</v>
+        <v>0.435318</v>
       </c>
       <c r="C79" t="n">
-        <v>0.430801</v>
+        <v>0.430938</v>
       </c>
       <c r="D79" t="n">
-        <v>0.425573</v>
+        <v>0.427404</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434192</v>
+        <v>0.432709</v>
       </c>
       <c r="C80" t="n">
-        <v>0.431629</v>
+        <v>0.43171</v>
       </c>
       <c r="D80" t="n">
-        <v>0.582094</v>
+        <v>0.584726</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.56918</v>
+        <v>0.573634</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531036</v>
+        <v>0.530699</v>
       </c>
       <c r="D81" t="n">
-        <v>0.515416</v>
+        <v>0.515436</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56376</v>
+        <v>0.569179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523899</v>
+        <v>0.525721</v>
       </c>
       <c r="D82" t="n">
-        <v>0.507451</v>
+        <v>0.508238</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.557088</v>
+        <v>0.560627</v>
       </c>
       <c r="C83" t="n">
-        <v>0.517015</v>
+        <v>0.517132</v>
       </c>
       <c r="D83" t="n">
-        <v>0.502111</v>
+        <v>0.50121</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.54927</v>
+        <v>0.5561430000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509686</v>
+        <v>0.509682</v>
       </c>
       <c r="D84" t="n">
-        <v>0.49382</v>
+        <v>0.494705</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.541709</v>
+        <v>0.547204</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501454</v>
+        <v>0.501194</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486772</v>
+        <v>0.485919</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.534233</v>
+        <v>0.538009</v>
       </c>
       <c r="C86" t="n">
-        <v>0.496903</v>
+        <v>0.492038</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481484</v>
+        <v>0.478599</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.526346</v>
+        <v>0.53056</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489651</v>
+        <v>0.48843</v>
       </c>
       <c r="D87" t="n">
-        <v>0.476253</v>
+        <v>0.475661</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.517721</v>
+        <v>0.522338</v>
       </c>
       <c r="C88" t="n">
-        <v>0.484015</v>
+        <v>0.479359</v>
       </c>
       <c r="D88" t="n">
-        <v>0.470794</v>
+        <v>0.465853</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.510246</v>
+        <v>0.514112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.478757</v>
+        <v>0.475929</v>
       </c>
       <c r="D89" t="n">
-        <v>0.466494</v>
+        <v>0.464197</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.500988</v>
+        <v>0.505672</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469543</v>
+        <v>0.473033</v>
       </c>
       <c r="D90" t="n">
-        <v>0.459021</v>
+        <v>0.4609</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.492725</v>
+        <v>0.498334</v>
       </c>
       <c r="C91" t="n">
-        <v>0.466423</v>
+        <v>0.468252</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455235</v>
+        <v>0.457256</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.487662</v>
+        <v>0.493687</v>
       </c>
       <c r="C92" t="n">
-        <v>0.462484</v>
+        <v>0.46508</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452963</v>
+        <v>0.456019</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4851</v>
+        <v>0.487907</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462071</v>
+        <v>0.462318</v>
       </c>
       <c r="D93" t="n">
-        <v>0.455241</v>
+        <v>0.455342</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.480152</v>
+        <v>0.484407</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462467</v>
+        <v>0.462246</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625443</v>
+        <v>0.632504</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.618628</v>
+        <v>0.625532</v>
       </c>
       <c r="C95" t="n">
-        <v>0.572242</v>
+        <v>0.578851</v>
       </c>
       <c r="D95" t="n">
-        <v>0.578379</v>
+        <v>0.585477</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6293069999999999</v>
+        <v>0.640473</v>
       </c>
       <c r="C96" t="n">
-        <v>0.585052</v>
+        <v>0.592703</v>
       </c>
       <c r="D96" t="n">
-        <v>0.577723</v>
+        <v>0.587741</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.631721</v>
+        <v>0.643973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.588676</v>
+        <v>0.596647</v>
       </c>
       <c r="D97" t="n">
-        <v>0.578751</v>
+        <v>0.5878</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.631118</v>
+        <v>0.644068</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5890069999999999</v>
+        <v>0.59675</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578377</v>
+        <v>0.585547</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.629454</v>
+        <v>0.643624</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5858989999999999</v>
+        <v>0.597552</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573043</v>
+        <v>0.583639</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.625355</v>
+        <v>0.639687</v>
       </c>
       <c r="C100" t="n">
-        <v>0.575308</v>
+        <v>0.588327</v>
       </c>
       <c r="D100" t="n">
-        <v>0.561588</v>
+        <v>0.571496</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.620715</v>
+        <v>0.637401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.583448</v>
+        <v>0.585166</v>
       </c>
       <c r="D101" t="n">
-        <v>0.567068</v>
+        <v>0.56584</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.615578</v>
+        <v>0.632332</v>
       </c>
       <c r="C102" t="n">
-        <v>0.565181</v>
+        <v>0.594252</v>
       </c>
       <c r="D102" t="n">
-        <v>0.55227</v>
+        <v>0.574277</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.612198</v>
+        <v>0.629526</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5647180000000001</v>
+        <v>0.577832</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5491239999999999</v>
+        <v>0.556261</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.606428</v>
+        <v>0.626132</v>
       </c>
       <c r="C104" t="n">
-        <v>0.579406</v>
+        <v>0.575503</v>
       </c>
       <c r="D104" t="n">
-        <v>0.567758</v>
+        <v>0.554975</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.602868</v>
+        <v>0.618326</v>
       </c>
       <c r="C105" t="n">
-        <v>0.565292</v>
+        <v>0.5903080000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.550489</v>
+        <v>0.568638</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6032729999999999</v>
+        <v>0.617424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.558438</v>
+        <v>0.586064</v>
       </c>
       <c r="D106" t="n">
-        <v>0.539384</v>
+        <v>0.566904</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.600938</v>
+        <v>0.614661</v>
       </c>
       <c r="C107" t="n">
-        <v>0.575626</v>
+        <v>0.587211</v>
       </c>
       <c r="D107" t="n">
-        <v>0.558283</v>
+        <v>0.565591</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.595596</v>
+        <v>0.612953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5743200000000001</v>
+        <v>0.588597</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.73776</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.560581</v>
+        <v>0.579573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575309</v>
+        <v>0.59115</v>
       </c>
       <c r="D109" t="n">
-        <v>0.74202</v>
+        <v>0.7540289999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.71584</v>
+        <v>0.738443</v>
       </c>
       <c r="C110" t="n">
-        <v>0.727372</v>
+        <v>0.741174</v>
       </c>
       <c r="D110" t="n">
-        <v>0.743187</v>
+        <v>0.760852</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7196129999999999</v>
+        <v>0.744398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.729761</v>
+        <v>0.753323</v>
       </c>
       <c r="D111" t="n">
-        <v>0.748292</v>
+        <v>0.755529</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.734187</v>
+        <v>0.750787</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7386</v>
+        <v>0.76148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.750741</v>
+        <v>0.774682</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.736751</v>
+        <v>0.759624</v>
       </c>
       <c r="C113" t="n">
-        <v>0.74188</v>
+        <v>0.7628200000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.747068</v>
+        <v>0.777346</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.742734</v>
+        <v>0.77079</v>
       </c>
       <c r="C114" t="n">
-        <v>0.747445</v>
+        <v>0.774284</v>
       </c>
       <c r="D114" t="n">
-        <v>0.739792</v>
+        <v>0.76463</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.74448</v>
+        <v>0.773855</v>
       </c>
       <c r="C115" t="n">
-        <v>0.751753</v>
+        <v>0.781478</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7534650000000001</v>
+        <v>0.783541</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.746627</v>
+        <v>0.778959</v>
       </c>
       <c r="C116" t="n">
-        <v>0.752377</v>
+        <v>0.787645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.75996</v>
+        <v>0.790561</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.749412</v>
+        <v>0.7866919999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.754748</v>
+        <v>0.79216</v>
       </c>
       <c r="D117" t="n">
-        <v>0.752398</v>
+        <v>0.79248</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.755698</v>
+        <v>0.787285</v>
       </c>
       <c r="C118" t="n">
-        <v>0.762915</v>
+        <v>0.7984250000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.768364</v>
+        <v>0.795229</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.760103</v>
+        <v>0.798966</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766223</v>
+        <v>0.797894</v>
       </c>
       <c r="D119" t="n">
-        <v>0.770435</v>
+        <v>0.800917</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.764506</v>
+        <v>0.803315</v>
       </c>
       <c r="C120" t="n">
-        <v>0.768499</v>
+        <v>0.809918</v>
       </c>
       <c r="D120" t="n">
-        <v>0.769486</v>
+        <v>0.806648</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.766718</v>
+        <v>0.8066</v>
       </c>
       <c r="C121" t="n">
-        <v>0.778846</v>
+        <v>0.816623</v>
       </c>
       <c r="D121" t="n">
-        <v>0.778088</v>
+        <v>0.808723</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.771087</v>
+        <v>0.809281</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7871590000000001</v>
+        <v>0.824211</v>
       </c>
       <c r="D122" t="n">
-        <v>0.781142</v>
+        <v>0.810208</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.775031</v>
+        <v>0.814499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.792818</v>
+        <v>0.828684</v>
       </c>
       <c r="D123" t="n">
-        <v>0.932824</v>
+        <v>0.97257</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.935482</v>
+        <v>0.98607</v>
       </c>
       <c r="C124" t="n">
-        <v>0.935936</v>
+        <v>0.979478</v>
       </c>
       <c r="D124" t="n">
-        <v>0.936953</v>
+        <v>0.984066</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.944959</v>
+        <v>0.996163</v>
       </c>
       <c r="C125" t="n">
-        <v>0.949581</v>
+        <v>0.994451</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9412740000000001</v>
+        <v>0.995804</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.954058</v>
+        <v>1.00559</v>
       </c>
       <c r="C126" t="n">
-        <v>0.95357</v>
+        <v>1.00669</v>
       </c>
       <c r="D126" t="n">
-        <v>0.951658</v>
+        <v>1.00286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9615359999999999</v>
+        <v>1.01313</v>
       </c>
       <c r="C127" t="n">
-        <v>0.959201</v>
+        <v>1.01497</v>
       </c>
       <c r="D127" t="n">
-        <v>0.959807</v>
+        <v>1.01011</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.965336</v>
+        <v>1.02595</v>
       </c>
       <c r="C128" t="n">
-        <v>0.968434</v>
+        <v>1.02663</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9652500000000001</v>
+        <v>1.01585</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.970248</v>
+        <v>1.02932</v>
       </c>
       <c r="C129" t="n">
-        <v>0.974594</v>
+        <v>1.03739</v>
       </c>
       <c r="D129" t="n">
-        <v>0.970329</v>
+        <v>1.03283</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.979362</v>
+        <v>1.04114</v>
       </c>
       <c r="C130" t="n">
-        <v>0.983363</v>
+        <v>1.04757</v>
       </c>
       <c r="D130" t="n">
-        <v>0.980535</v>
+        <v>1.04121</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.985857</v>
+        <v>1.04972</v>
       </c>
       <c r="C131" t="n">
-        <v>0.99012</v>
+        <v>1.05782</v>
       </c>
       <c r="D131" t="n">
-        <v>0.985503</v>
+        <v>1.04911</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.990699</v>
+        <v>1.04903</v>
       </c>
       <c r="C132" t="n">
-        <v>1.00052</v>
+        <v>1.06735</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9872919999999999</v>
+        <v>1.05399</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.998261</v>
+        <v>1.06323</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00612</v>
+        <v>1.07514</v>
       </c>
       <c r="D133" t="n">
-        <v>0.997737</v>
+        <v>1.06172</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.00128</v>
+        <v>1.07046</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01286</v>
+        <v>1.08536</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00795</v>
+        <v>1.07373</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.01297</v>
+        <v>1.0768</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02428</v>
+        <v>1.08993</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01239</v>
+        <v>1.08198</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.01664</v>
+        <v>1.08542</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03083</v>
+        <v>1.10486</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01526</v>
+        <v>1.08165</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0132</v>
+        <v>1.09252</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03964</v>
+        <v>1.11565</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16841</v>
+        <v>1.24294</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17607</v>
+        <v>1.25119</v>
       </c>
       <c r="C138" t="n">
-        <v>1.19091</v>
+        <v>1.26906</v>
       </c>
       <c r="D138" t="n">
-        <v>1.18135</v>
+        <v>1.25592</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1842</v>
+        <v>1.25892</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19765</v>
+        <v>1.27725</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18725</v>
+        <v>1.26629</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18857</v>
+        <v>1.26941</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20855</v>
+        <v>1.2878</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19628</v>
+        <v>1.27737</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19826</v>
+        <v>1.27879</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21779</v>
+        <v>1.29859</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20096</v>
+        <v>1.28409</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.20351</v>
+        <v>1.28286</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22121</v>
+        <v>1.30282</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20906</v>
+        <v>1.29605</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21179</v>
+        <v>1.29649</v>
       </c>
       <c r="C143" t="n">
-        <v>1.23039</v>
+        <v>1.31721</v>
       </c>
       <c r="D143" t="n">
-        <v>1.21861</v>
+        <v>1.30259</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390748</v>
+        <v>0.391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391931</v>
+        <v>0.391777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382263</v>
+        <v>0.381902</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.382166</v>
+        <v>0.381386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384753</v>
+        <v>0.384443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375783</v>
+        <v>0.375206</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.374305</v>
+        <v>0.374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378324</v>
+        <v>0.37812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370602</v>
+        <v>0.370049</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.368522</v>
+        <v>0.367743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372718</v>
+        <v>0.372813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365719</v>
+        <v>0.36538</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.362271</v>
+        <v>0.361704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36867</v>
+        <v>0.368927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.362494</v>
+        <v>0.362333</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357606</v>
+        <v>0.357369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365055</v>
+        <v>0.36483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360728</v>
+        <v>0.360311</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354316</v>
+        <v>0.35425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3631</v>
+        <v>0.363312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360714</v>
+        <v>0.360167</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.353029</v>
+        <v>0.352799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362794</v>
+        <v>0.36292</v>
       </c>
       <c r="D9" t="n">
-        <v>0.47062</v>
+        <v>0.470413</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466439</v>
+        <v>0.466854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481829</v>
+        <v>0.482241</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464945</v>
+        <v>0.464794</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455733</v>
+        <v>0.455417</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470179</v>
+        <v>0.470527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453912</v>
+        <v>0.453903</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444873</v>
+        <v>0.444913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459476</v>
+        <v>0.459272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.443906</v>
+        <v>0.44355</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434525</v>
+        <v>0.4346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.449054</v>
+        <v>0.448857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.434045</v>
+        <v>0.433776</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424812</v>
+        <v>0.424738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438894</v>
+        <v>0.438731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424575</v>
+        <v>0.424598</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415601</v>
+        <v>0.415349</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429534</v>
+        <v>0.428945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416153</v>
+        <v>0.416087</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406744</v>
+        <v>0.406543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420483</v>
+        <v>0.42046</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407607</v>
+        <v>0.408019</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398824</v>
+        <v>0.398483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413234</v>
+        <v>0.412315</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401071</v>
+        <v>0.400523</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.391322</v>
+        <v>0.390954</v>
       </c>
       <c r="C18" t="n">
-        <v>0.40492</v>
+        <v>0.404512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393688</v>
+        <v>0.393965</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384206</v>
+        <v>0.384276</v>
       </c>
       <c r="C19" t="n">
-        <v>0.398098</v>
+        <v>0.397738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387939</v>
+        <v>0.387921</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.37808</v>
+        <v>0.377271</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391641</v>
+        <v>0.391103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382618</v>
+        <v>0.382693</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372769</v>
+        <v>0.372156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.387407</v>
+        <v>0.386795</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379666</v>
+        <v>0.379687</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.368311</v>
+        <v>0.367861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383962</v>
+        <v>0.383306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377847</v>
+        <v>0.37785</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.366437</v>
+        <v>0.365712</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382151</v>
+        <v>0.382243</v>
       </c>
       <c r="D23" t="n">
-        <v>0.493119</v>
+        <v>0.494808</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481681</v>
+        <v>0.482393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.452381</v>
+        <v>0.456603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.440813</v>
+        <v>0.441263</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.471029</v>
+        <v>0.471349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.442968</v>
+        <v>0.443489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431622</v>
+        <v>0.431962</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.460262</v>
+        <v>0.460823</v>
       </c>
       <c r="C26" t="n">
-        <v>0.433361</v>
+        <v>0.433685</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422753</v>
+        <v>0.424051</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449982</v>
+        <v>0.4497</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425703</v>
+        <v>0.426505</v>
       </c>
       <c r="D27" t="n">
-        <v>0.415564</v>
+        <v>0.416377</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.440446</v>
+        <v>0.440487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.417272</v>
+        <v>0.418036</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407803</v>
+        <v>0.408198</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430799</v>
+        <v>0.431212</v>
       </c>
       <c r="C29" t="n">
-        <v>0.409588</v>
+        <v>0.410633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.400095</v>
+        <v>0.400954</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.422294</v>
+        <v>0.422057</v>
       </c>
       <c r="C30" t="n">
-        <v>0.402454</v>
+        <v>0.403925</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393738</v>
+        <v>0.394742</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413664</v>
+        <v>0.41383</v>
       </c>
       <c r="C31" t="n">
-        <v>0.395439</v>
+        <v>0.396246</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387574</v>
+        <v>0.38899</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405905</v>
+        <v>0.406446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388977</v>
+        <v>0.390876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381741</v>
+        <v>0.382932</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398732</v>
+        <v>0.398363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.383625</v>
+        <v>0.384376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.377476</v>
+        <v>0.377732</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391989</v>
+        <v>0.392458</v>
       </c>
       <c r="C34" t="n">
-        <v>0.378921</v>
+        <v>0.379699</v>
       </c>
       <c r="D34" t="n">
-        <v>0.373066</v>
+        <v>0.373735</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386472</v>
+        <v>0.386967</v>
       </c>
       <c r="C35" t="n">
-        <v>0.375016</v>
+        <v>0.374946</v>
       </c>
       <c r="D35" t="n">
-        <v>0.37042</v>
+        <v>0.370172</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.382321</v>
+        <v>0.382855</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372209</v>
+        <v>0.373313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.369248</v>
+        <v>0.370098</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379927</v>
+        <v>0.380414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.372753</v>
+        <v>0.372591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510791</v>
+        <v>0.511969</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495577</v>
+        <v>0.496621</v>
       </c>
       <c r="C38" t="n">
-        <v>0.465052</v>
+        <v>0.466001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.454407</v>
+        <v>0.454859</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485189</v>
+        <v>0.486208</v>
       </c>
       <c r="C39" t="n">
-        <v>0.457034</v>
+        <v>0.457042</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446391</v>
+        <v>0.445322</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474666</v>
+        <v>0.475352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.446946</v>
+        <v>0.44772</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437074</v>
+        <v>0.436245</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464472</v>
+        <v>0.464995</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439175</v>
+        <v>0.439246</v>
       </c>
       <c r="D41" t="n">
-        <v>0.42942</v>
+        <v>0.428841</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454546</v>
+        <v>0.455491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.434645</v>
+        <v>0.431842</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424242</v>
+        <v>0.421506</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445686</v>
+        <v>0.446086</v>
       </c>
       <c r="C43" t="n">
-        <v>0.42484</v>
+        <v>0.424385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.415941</v>
+        <v>0.415391</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436905</v>
+        <v>0.43757</v>
       </c>
       <c r="C44" t="n">
-        <v>0.41852</v>
+        <v>0.418708</v>
       </c>
       <c r="D44" t="n">
-        <v>0.410789</v>
+        <v>0.410043</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428664</v>
+        <v>0.429064</v>
       </c>
       <c r="C45" t="n">
-        <v>0.411672</v>
+        <v>0.412209</v>
       </c>
       <c r="D45" t="n">
-        <v>0.404414</v>
+        <v>0.402802</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421348</v>
+        <v>0.421117</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40761</v>
+        <v>0.406376</v>
       </c>
       <c r="D46" t="n">
-        <v>0.398461</v>
+        <v>0.396904</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414015</v>
+        <v>0.414648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.399954</v>
+        <v>0.399701</v>
       </c>
       <c r="D47" t="n">
-        <v>0.393276</v>
+        <v>0.391668</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407335</v>
+        <v>0.407949</v>
       </c>
       <c r="C48" t="n">
-        <v>0.395514</v>
+        <v>0.397068</v>
       </c>
       <c r="D48" t="n">
-        <v>0.390677</v>
+        <v>0.389379</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.401626</v>
+        <v>0.402781</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391122</v>
+        <v>0.393059</v>
       </c>
       <c r="D49" t="n">
-        <v>0.386155</v>
+        <v>0.385115</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397018</v>
+        <v>0.39778</v>
       </c>
       <c r="C50" t="n">
-        <v>0.388704</v>
+        <v>0.390183</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384959</v>
+        <v>0.385594</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.393774</v>
+        <v>0.395396</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391131</v>
+        <v>0.389341</v>
       </c>
       <c r="D51" t="n">
-        <v>0.530298</v>
+        <v>0.532913</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.36445</v>
+        <v>0.363975</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389949</v>
+        <v>0.389544</v>
       </c>
       <c r="D52" t="n">
-        <v>0.519779</v>
+        <v>0.522212</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.502489</v>
+        <v>0.503596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.475438</v>
+        <v>0.478033</v>
       </c>
       <c r="D53" t="n">
-        <v>0.463734</v>
+        <v>0.463427</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492048</v>
+        <v>0.492757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.469579</v>
+        <v>0.469709</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456927</v>
+        <v>0.455205</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482287</v>
+        <v>0.48214</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4602</v>
+        <v>0.461053</v>
       </c>
       <c r="D55" t="n">
-        <v>0.449211</v>
+        <v>0.447647</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472775</v>
+        <v>0.472748</v>
       </c>
       <c r="C56" t="n">
-        <v>0.453038</v>
+        <v>0.453886</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442504</v>
+        <v>0.439872</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464</v>
+        <v>0.463822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.444785</v>
+        <v>0.447613</v>
       </c>
       <c r="D57" t="n">
-        <v>0.435336</v>
+        <v>0.433845</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454661</v>
+        <v>0.455326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.43949</v>
+        <v>0.441367</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429089</v>
+        <v>0.42914</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446934</v>
+        <v>0.446501</v>
       </c>
       <c r="C59" t="n">
-        <v>0.433229</v>
+        <v>0.433615</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423334</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439615</v>
+        <v>0.439482</v>
       </c>
       <c r="C60" t="n">
-        <v>0.427905</v>
+        <v>0.427933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.420289</v>
+        <v>0.416579</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.432486</v>
+        <v>0.434367</v>
       </c>
       <c r="C61" t="n">
-        <v>0.421112</v>
+        <v>0.422154</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413517</v>
+        <v>0.412923</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426298</v>
+        <v>0.426409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.41938</v>
+        <v>0.419401</v>
       </c>
       <c r="D62" t="n">
-        <v>0.410358</v>
+        <v>0.4105</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.420894</v>
+        <v>0.420364</v>
       </c>
       <c r="C63" t="n">
-        <v>0.412703</v>
+        <v>0.414355</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406604</v>
+        <v>0.405791</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.415787</v>
+        <v>0.416452</v>
       </c>
       <c r="C64" t="n">
-        <v>0.411573</v>
+        <v>0.411181</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405735</v>
+        <v>0.40616</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.41262</v>
+        <v>0.412053</v>
       </c>
       <c r="C65" t="n">
-        <v>0.411766</v>
+        <v>0.409685</v>
       </c>
       <c r="D65" t="n">
-        <v>0.407795</v>
+        <v>0.40845</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411785</v>
+        <v>0.410487</v>
       </c>
       <c r="C66" t="n">
-        <v>0.410054</v>
+        <v>0.411</v>
       </c>
       <c r="D66" t="n">
-        <v>0.545396</v>
+        <v>0.546493</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.525695</v>
+        <v>0.5295299999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.498798</v>
+        <v>0.50176</v>
       </c>
       <c r="D67" t="n">
-        <v>0.48687</v>
+        <v>0.48755</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514915</v>
+        <v>0.518659</v>
       </c>
       <c r="C68" t="n">
-        <v>0.490923</v>
+        <v>0.493378</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478498</v>
+        <v>0.478925</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.506823</v>
+        <v>0.510058</v>
       </c>
       <c r="C69" t="n">
-        <v>0.482583</v>
+        <v>0.486199</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471517</v>
+        <v>0.471644</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.497358</v>
+        <v>0.499776</v>
       </c>
       <c r="C70" t="n">
-        <v>0.474597</v>
+        <v>0.477773</v>
       </c>
       <c r="D70" t="n">
-        <v>0.463569</v>
+        <v>0.465811</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.488099</v>
+        <v>0.489676</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467224</v>
+        <v>0.470898</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457174</v>
+        <v>0.458593</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.478409</v>
+        <v>0.481599</v>
       </c>
       <c r="C72" t="n">
-        <v>0.460144</v>
+        <v>0.46216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.451367</v>
+        <v>0.450886</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.469967</v>
+        <v>0.473487</v>
       </c>
       <c r="C73" t="n">
-        <v>0.454061</v>
+        <v>0.456915</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445075</v>
+        <v>0.444555</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.462131</v>
+        <v>0.465542</v>
       </c>
       <c r="C74" t="n">
-        <v>0.448912</v>
+        <v>0.450253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440489</v>
+        <v>0.440121</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.455356</v>
+        <v>0.457194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44343</v>
+        <v>0.44704</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435113</v>
+        <v>0.436342</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449523</v>
+        <v>0.450785</v>
       </c>
       <c r="C76" t="n">
-        <v>0.439156</v>
+        <v>0.440864</v>
       </c>
       <c r="D76" t="n">
-        <v>0.431707</v>
+        <v>0.432407</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.442966</v>
+        <v>0.444605</v>
       </c>
       <c r="C77" t="n">
-        <v>0.433717</v>
+        <v>0.436841</v>
       </c>
       <c r="D77" t="n">
-        <v>0.428873</v>
+        <v>0.429403</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.437701</v>
+        <v>0.439797</v>
       </c>
       <c r="C78" t="n">
-        <v>0.431866</v>
+        <v>0.433812</v>
       </c>
       <c r="D78" t="n">
-        <v>0.427495</v>
+        <v>0.425457</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.435318</v>
+        <v>0.436263</v>
       </c>
       <c r="C79" t="n">
-        <v>0.430938</v>
+        <v>0.431708</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427404</v>
+        <v>0.427964</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.432709</v>
+        <v>0.434063</v>
       </c>
       <c r="C80" t="n">
-        <v>0.43171</v>
+        <v>0.432978</v>
       </c>
       <c r="D80" t="n">
-        <v>0.584726</v>
+        <v>0.581971</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.573634</v>
+        <v>0.569299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.530699</v>
+        <v>0.531483</v>
       </c>
       <c r="D81" t="n">
-        <v>0.515436</v>
+        <v>0.51392</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.569179</v>
+        <v>0.565473</v>
       </c>
       <c r="C82" t="n">
-        <v>0.525721</v>
+        <v>0.5233449999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508238</v>
+        <v>0.506888</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.560627</v>
+        <v>0.557925</v>
       </c>
       <c r="C83" t="n">
-        <v>0.517132</v>
+        <v>0.516419</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50121</v>
+        <v>0.49858</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5561430000000001</v>
+        <v>0.55043</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509682</v>
+        <v>0.509286</v>
       </c>
       <c r="D84" t="n">
-        <v>0.494705</v>
+        <v>0.491766</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.547204</v>
+        <v>0.541473</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501194</v>
+        <v>0.502429</v>
       </c>
       <c r="D85" t="n">
-        <v>0.485919</v>
+        <v>0.486649</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.538009</v>
+        <v>0.533382</v>
       </c>
       <c r="C86" t="n">
-        <v>0.492038</v>
+        <v>0.492862</v>
       </c>
       <c r="D86" t="n">
-        <v>0.478599</v>
+        <v>0.478722</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.53056</v>
+        <v>0.524848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.48843</v>
+        <v>0.488436</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475661</v>
+        <v>0.473942</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.522338</v>
+        <v>0.516875</v>
       </c>
       <c r="C88" t="n">
-        <v>0.479359</v>
+        <v>0.479708</v>
       </c>
       <c r="D88" t="n">
-        <v>0.465853</v>
+        <v>0.464897</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.514112</v>
+        <v>0.507832</v>
       </c>
       <c r="C89" t="n">
-        <v>0.475929</v>
+        <v>0.477435</v>
       </c>
       <c r="D89" t="n">
-        <v>0.464197</v>
+        <v>0.463432</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.505672</v>
+        <v>0.500561</v>
       </c>
       <c r="C90" t="n">
-        <v>0.473033</v>
+        <v>0.471103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4609</v>
+        <v>0.46003</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.498334</v>
+        <v>0.494785</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468252</v>
+        <v>0.467701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.457256</v>
+        <v>0.456688</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.493687</v>
+        <v>0.488602</v>
       </c>
       <c r="C92" t="n">
-        <v>0.46508</v>
+        <v>0.463185</v>
       </c>
       <c r="D92" t="n">
-        <v>0.456019</v>
+        <v>0.454383</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.487907</v>
+        <v>0.48392</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462318</v>
+        <v>0.460586</v>
       </c>
       <c r="D93" t="n">
-        <v>0.455342</v>
+        <v>0.45476</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.484407</v>
+        <v>0.480364</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462246</v>
+        <v>0.460257</v>
       </c>
       <c r="D94" t="n">
-        <v>0.632504</v>
+        <v>0.630557</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.625532</v>
+        <v>0.618854</v>
       </c>
       <c r="C95" t="n">
-        <v>0.578851</v>
+        <v>0.574758</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585477</v>
+        <v>0.578726</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.640473</v>
+        <v>0.628365</v>
       </c>
       <c r="C96" t="n">
-        <v>0.592703</v>
+        <v>0.583585</v>
       </c>
       <c r="D96" t="n">
-        <v>0.587741</v>
+        <v>0.580769</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.643973</v>
+        <v>0.631056</v>
       </c>
       <c r="C97" t="n">
-        <v>0.596647</v>
+        <v>0.590415</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5878</v>
+        <v>0.580543</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.644068</v>
+        <v>0.629456</v>
       </c>
       <c r="C98" t="n">
-        <v>0.59675</v>
+        <v>0.590226</v>
       </c>
       <c r="D98" t="n">
-        <v>0.585547</v>
+        <v>0.579577</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.643624</v>
+        <v>0.627565</v>
       </c>
       <c r="C99" t="n">
-        <v>0.597552</v>
+        <v>0.580331</v>
       </c>
       <c r="D99" t="n">
-        <v>0.583639</v>
+        <v>0.564936</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.639687</v>
+        <v>0.624423</v>
       </c>
       <c r="C100" t="n">
-        <v>0.588327</v>
+        <v>0.585002</v>
       </c>
       <c r="D100" t="n">
-        <v>0.571496</v>
+        <v>0.5696059999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.637401</v>
+        <v>0.62149</v>
       </c>
       <c r="C101" t="n">
-        <v>0.585166</v>
+        <v>0.581448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.56584</v>
+        <v>0.566282</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.632332</v>
+        <v>0.61714</v>
       </c>
       <c r="C102" t="n">
-        <v>0.594252</v>
+        <v>0.579579</v>
       </c>
       <c r="D102" t="n">
-        <v>0.574277</v>
+        <v>0.5634169999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.629526</v>
+        <v>0.610996</v>
       </c>
       <c r="C103" t="n">
-        <v>0.577832</v>
+        <v>0.57568</v>
       </c>
       <c r="D103" t="n">
-        <v>0.556261</v>
+        <v>0.560423</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.626132</v>
+        <v>0.609038</v>
       </c>
       <c r="C104" t="n">
-        <v>0.575503</v>
+        <v>0.576611</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554975</v>
+        <v>0.557975</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.618326</v>
+        <v>0.601418</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5903080000000001</v>
+        <v>0.574137</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568638</v>
+        <v>0.5541430000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.617424</v>
+        <v>0.600992</v>
       </c>
       <c r="C106" t="n">
-        <v>0.586064</v>
+        <v>0.571298</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566904</v>
+        <v>0.551569</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.614661</v>
+        <v>0.597672</v>
       </c>
       <c r="C107" t="n">
-        <v>0.587211</v>
+        <v>0.550261</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565591</v>
+        <v>0.534497</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.612953</v>
+        <v>0.594576</v>
       </c>
       <c r="C108" t="n">
-        <v>0.588597</v>
+        <v>0.572323</v>
       </c>
       <c r="D108" t="n">
-        <v>0.73776</v>
+        <v>0.726345</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.579573</v>
+        <v>0.553135</v>
       </c>
       <c r="C109" t="n">
-        <v>0.59115</v>
+        <v>0.570628</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7540289999999999</v>
+        <v>0.739062</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.738443</v>
+        <v>0.713771</v>
       </c>
       <c r="C110" t="n">
-        <v>0.741174</v>
+        <v>0.725007</v>
       </c>
       <c r="D110" t="n">
-        <v>0.760852</v>
+        <v>0.743815</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.744398</v>
+        <v>0.722873</v>
       </c>
       <c r="C111" t="n">
-        <v>0.753323</v>
+        <v>0.728101</v>
       </c>
       <c r="D111" t="n">
-        <v>0.755529</v>
+        <v>0.74394</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.750787</v>
+        <v>0.725557</v>
       </c>
       <c r="C112" t="n">
-        <v>0.76148</v>
+        <v>0.731976</v>
       </c>
       <c r="D112" t="n">
-        <v>0.774682</v>
+        <v>0.743333</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.759624</v>
+        <v>0.726543</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7628200000000001</v>
+        <v>0.736544</v>
       </c>
       <c r="D113" t="n">
-        <v>0.777346</v>
+        <v>0.748364</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.77079</v>
+        <v>0.73105</v>
       </c>
       <c r="C114" t="n">
-        <v>0.774284</v>
+        <v>0.74002</v>
       </c>
       <c r="D114" t="n">
-        <v>0.76463</v>
+        <v>0.754448</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.773855</v>
+        <v>0.734215</v>
       </c>
       <c r="C115" t="n">
-        <v>0.781478</v>
+        <v>0.740866</v>
       </c>
       <c r="D115" t="n">
-        <v>0.783541</v>
+        <v>0.755409</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.778959</v>
+        <v>0.740941</v>
       </c>
       <c r="C116" t="n">
-        <v>0.787645</v>
+        <v>0.750325</v>
       </c>
       <c r="D116" t="n">
-        <v>0.790561</v>
+        <v>0.7466120000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7866919999999999</v>
+        <v>0.750044</v>
       </c>
       <c r="C117" t="n">
-        <v>0.79216</v>
+        <v>0.752736</v>
       </c>
       <c r="D117" t="n">
-        <v>0.79248</v>
+        <v>0.754796</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.787285</v>
+        <v>0.750412</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7984250000000001</v>
+        <v>0.757718</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795229</v>
+        <v>0.766325</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.798966</v>
+        <v>0.757778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.797894</v>
+        <v>0.765746</v>
       </c>
       <c r="D119" t="n">
-        <v>0.800917</v>
+        <v>0.752071</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.803315</v>
+        <v>0.7610170000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.809918</v>
+        <v>0.770324</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806648</v>
+        <v>0.772393</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8066</v>
+        <v>0.764178</v>
       </c>
       <c r="C121" t="n">
-        <v>0.816623</v>
+        <v>0.767669</v>
       </c>
       <c r="D121" t="n">
-        <v>0.808723</v>
+        <v>0.759697</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.809281</v>
+        <v>0.769768</v>
       </c>
       <c r="C122" t="n">
-        <v>0.824211</v>
+        <v>0.782416</v>
       </c>
       <c r="D122" t="n">
-        <v>0.810208</v>
+        <v>0.780552</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.814499</v>
+        <v>0.774852</v>
       </c>
       <c r="C123" t="n">
-        <v>0.828684</v>
+        <v>0.780666</v>
       </c>
       <c r="D123" t="n">
-        <v>0.97257</v>
+        <v>0.91378</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.98607</v>
+        <v>0.937433</v>
       </c>
       <c r="C124" t="n">
-        <v>0.979478</v>
+        <v>0.940115</v>
       </c>
       <c r="D124" t="n">
-        <v>0.984066</v>
+        <v>0.938683</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.996163</v>
+        <v>0.944119</v>
       </c>
       <c r="C125" t="n">
-        <v>0.994451</v>
+        <v>0.943261</v>
       </c>
       <c r="D125" t="n">
-        <v>0.995804</v>
+        <v>0.9370270000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.00559</v>
+        <v>0.952989</v>
       </c>
       <c r="C126" t="n">
-        <v>1.00669</v>
+        <v>0.956421</v>
       </c>
       <c r="D126" t="n">
-        <v>1.00286</v>
+        <v>0.938286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.01313</v>
+        <v>0.95716</v>
       </c>
       <c r="C127" t="n">
-        <v>1.01497</v>
+        <v>0.957778</v>
       </c>
       <c r="D127" t="n">
-        <v>1.01011</v>
+        <v>0.963378</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02595</v>
+        <v>0.966813</v>
       </c>
       <c r="C128" t="n">
-        <v>1.02663</v>
+        <v>0.972374</v>
       </c>
       <c r="D128" t="n">
-        <v>1.01585</v>
+        <v>0.966567</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02932</v>
+        <v>0.973391</v>
       </c>
       <c r="C129" t="n">
-        <v>1.03739</v>
+        <v>0.981316</v>
       </c>
       <c r="D129" t="n">
-        <v>1.03283</v>
+        <v>0.974915</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04114</v>
+        <v>0.975962</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04757</v>
+        <v>0.984349</v>
       </c>
       <c r="D130" t="n">
-        <v>1.04121</v>
+        <v>0.970939</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04972</v>
+        <v>0.983181</v>
       </c>
       <c r="C131" t="n">
-        <v>1.05782</v>
+        <v>0.991939</v>
       </c>
       <c r="D131" t="n">
-        <v>1.04911</v>
+        <v>0.988333</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04903</v>
+        <v>0.990913</v>
       </c>
       <c r="C132" t="n">
-        <v>1.06735</v>
+        <v>1.00249</v>
       </c>
       <c r="D132" t="n">
-        <v>1.05399</v>
+        <v>0.990181</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06323</v>
+        <v>0.994085</v>
       </c>
       <c r="C133" t="n">
-        <v>1.07514</v>
+        <v>1.00335</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06172</v>
+        <v>0.997017</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07046</v>
+        <v>1.00028</v>
       </c>
       <c r="C134" t="n">
-        <v>1.08536</v>
+        <v>1.01687</v>
       </c>
       <c r="D134" t="n">
-        <v>1.07373</v>
+        <v>1.00329</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0768</v>
+        <v>1.00581</v>
       </c>
       <c r="C135" t="n">
-        <v>1.08993</v>
+        <v>1.0233</v>
       </c>
       <c r="D135" t="n">
-        <v>1.08198</v>
+        <v>1.01399</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08542</v>
+        <v>1.01385</v>
       </c>
       <c r="C136" t="n">
-        <v>1.10486</v>
+        <v>1.03194</v>
       </c>
       <c r="D136" t="n">
-        <v>1.08165</v>
+        <v>1.01139</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09252</v>
+        <v>1.02044</v>
       </c>
       <c r="C137" t="n">
-        <v>1.11565</v>
+        <v>1.03714</v>
       </c>
       <c r="D137" t="n">
-        <v>1.24294</v>
+        <v>1.16648</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25119</v>
+        <v>1.17021</v>
       </c>
       <c r="C138" t="n">
-        <v>1.26906</v>
+        <v>1.1909</v>
       </c>
       <c r="D138" t="n">
-        <v>1.25592</v>
+        <v>1.17787</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25892</v>
+        <v>1.17526</v>
       </c>
       <c r="C139" t="n">
-        <v>1.27725</v>
+        <v>1.1948</v>
       </c>
       <c r="D139" t="n">
-        <v>1.26629</v>
+        <v>1.18728</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26941</v>
+        <v>1.18665</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2878</v>
+        <v>1.20684</v>
       </c>
       <c r="D140" t="n">
-        <v>1.27737</v>
+        <v>1.19671</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27879</v>
+        <v>1.18752</v>
       </c>
       <c r="C141" t="n">
-        <v>1.29859</v>
+        <v>1.21175</v>
       </c>
       <c r="D141" t="n">
-        <v>1.28409</v>
+        <v>1.20382</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28286</v>
+        <v>1.19923</v>
       </c>
       <c r="C142" t="n">
-        <v>1.30282</v>
+        <v>1.22178</v>
       </c>
       <c r="D142" t="n">
-        <v>1.29605</v>
+        <v>1.20979</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.29649</v>
+        <v>1.19914</v>
       </c>
       <c r="C143" t="n">
-        <v>1.31721</v>
+        <v>1.22963</v>
       </c>
       <c r="D143" t="n">
-        <v>1.30259</v>
+        <v>1.21467</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391</v>
+        <v>0.375618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391777</v>
+        <v>0.377854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381902</v>
+        <v>0.370445</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381386</v>
+        <v>0.366867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384443</v>
+        <v>0.370892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375206</v>
+        <v>0.363827</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.374</v>
+        <v>0.359839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.37812</v>
+        <v>0.364438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370049</v>
+        <v>0.358727</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367743</v>
+        <v>0.354451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372813</v>
+        <v>0.359575</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36538</v>
+        <v>0.354796</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361704</v>
+        <v>0.349107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368927</v>
+        <v>0.355935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.362333</v>
+        <v>0.351826</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357369</v>
+        <v>0.344769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36483</v>
+        <v>0.3526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360311</v>
+        <v>0.350172</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.35425</v>
+        <v>0.342081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363312</v>
+        <v>0.351515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360167</v>
+        <v>0.350535</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352799</v>
+        <v>0.341015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.36292</v>
+        <v>0.351395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.470413</v>
+        <v>0.438688</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466854</v>
+        <v>0.431238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.482241</v>
+        <v>0.439695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464794</v>
+        <v>0.429038</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455417</v>
+        <v>0.423061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470527</v>
+        <v>0.429783</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453903</v>
+        <v>0.419443</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444913</v>
+        <v>0.413582</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459272</v>
+        <v>0.420749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44355</v>
+        <v>0.411093</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4346</v>
+        <v>0.398319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448857</v>
+        <v>0.411924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433776</v>
+        <v>0.402812</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424738</v>
+        <v>0.395009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438731</v>
+        <v>0.403451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424598</v>
+        <v>0.394974</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415349</v>
+        <v>0.382124</v>
       </c>
       <c r="C15" t="n">
-        <v>0.428945</v>
+        <v>0.395371</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416087</v>
+        <v>0.387639</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406543</v>
+        <v>0.379308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42046</v>
+        <v>0.388095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408019</v>
+        <v>0.380724</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398483</v>
+        <v>0.372905</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412315</v>
+        <v>0.381675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.400523</v>
+        <v>0.374728</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390954</v>
+        <v>0.366479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.404512</v>
+        <v>0.375057</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393965</v>
+        <v>0.368758</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384276</v>
+        <v>0.355811</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397738</v>
+        <v>0.36967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387921</v>
+        <v>0.364054</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377271</v>
+        <v>0.350766</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391103</v>
+        <v>0.364697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382693</v>
+        <v>0.360145</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372156</v>
+        <v>0.34678</v>
       </c>
       <c r="C21" t="n">
-        <v>0.386795</v>
+        <v>0.361394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379687</v>
+        <v>0.357814</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367861</v>
+        <v>0.344451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383306</v>
+        <v>0.358732</v>
       </c>
       <c r="D22" t="n">
-        <v>0.37785</v>
+        <v>0.357027</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365712</v>
+        <v>0.346934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382243</v>
+        <v>0.358163</v>
       </c>
       <c r="D23" t="n">
-        <v>0.494808</v>
+        <v>0.447948</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.482393</v>
+        <v>0.437527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.456603</v>
+        <v>0.449661</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441263</v>
+        <v>0.439132</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.471349</v>
+        <v>0.429232</v>
       </c>
       <c r="C25" t="n">
-        <v>0.443489</v>
+        <v>0.440581</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431962</v>
+        <v>0.430277</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.460823</v>
+        <v>0.420398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.433685</v>
+        <v>0.431851</v>
       </c>
       <c r="D26" t="n">
-        <v>0.424051</v>
+        <v>0.421941</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4497</v>
+        <v>0.404694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.426505</v>
+        <v>0.42349</v>
       </c>
       <c r="D27" t="n">
-        <v>0.416377</v>
+        <v>0.414613</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.440487</v>
+        <v>0.400437</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418036</v>
+        <v>0.415585</v>
       </c>
       <c r="D28" t="n">
-        <v>0.408198</v>
+        <v>0.406313</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.431212</v>
+        <v>0.396054</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410633</v>
+        <v>0.407877</v>
       </c>
       <c r="D29" t="n">
-        <v>0.400954</v>
+        <v>0.399211</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.422057</v>
+        <v>0.38259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.403925</v>
+        <v>0.400815</v>
       </c>
       <c r="D30" t="n">
-        <v>0.394742</v>
+        <v>0.3928</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.41383</v>
+        <v>0.381544</v>
       </c>
       <c r="C31" t="n">
-        <v>0.396246</v>
+        <v>0.394217</v>
       </c>
       <c r="D31" t="n">
-        <v>0.38899</v>
+        <v>0.386415</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.406446</v>
+        <v>0.374504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.390876</v>
+        <v>0.388163</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382932</v>
+        <v>0.380878</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398363</v>
+        <v>0.365157</v>
       </c>
       <c r="C33" t="n">
-        <v>0.384376</v>
+        <v>0.382734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.377732</v>
+        <v>0.376097</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.392458</v>
+        <v>0.359243</v>
       </c>
       <c r="C34" t="n">
-        <v>0.379699</v>
+        <v>0.377732</v>
       </c>
       <c r="D34" t="n">
-        <v>0.373735</v>
+        <v>0.372313</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386967</v>
+        <v>0.355603</v>
       </c>
       <c r="C35" t="n">
-        <v>0.374946</v>
+        <v>0.373916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370172</v>
+        <v>0.368922</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.382855</v>
+        <v>0.353032</v>
       </c>
       <c r="C36" t="n">
-        <v>0.373313</v>
+        <v>0.371136</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370098</v>
+        <v>0.368146</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.380414</v>
+        <v>0.351753</v>
       </c>
       <c r="C37" t="n">
-        <v>0.372591</v>
+        <v>0.370051</v>
       </c>
       <c r="D37" t="n">
-        <v>0.511969</v>
+        <v>0.461025</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496621</v>
+        <v>0.443575</v>
       </c>
       <c r="C38" t="n">
-        <v>0.466001</v>
+        <v>0.463219</v>
       </c>
       <c r="D38" t="n">
-        <v>0.454859</v>
+        <v>0.452565</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.486208</v>
+        <v>0.435738</v>
       </c>
       <c r="C39" t="n">
-        <v>0.457042</v>
+        <v>0.455004</v>
       </c>
       <c r="D39" t="n">
-        <v>0.445322</v>
+        <v>0.44414</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.475352</v>
+        <v>0.427125</v>
       </c>
       <c r="C40" t="n">
-        <v>0.44772</v>
+        <v>0.446507</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436245</v>
+        <v>0.436038</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464995</v>
+        <v>0.419238</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439246</v>
+        <v>0.438437</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428841</v>
+        <v>0.428915</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.455491</v>
+        <v>0.40777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.431842</v>
+        <v>0.43075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421506</v>
+        <v>0.42165</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.446086</v>
+        <v>0.400947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.424385</v>
+        <v>0.423561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.415391</v>
+        <v>0.414568</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.43757</v>
+        <v>0.396712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.418708</v>
+        <v>0.417481</v>
       </c>
       <c r="D44" t="n">
-        <v>0.410043</v>
+        <v>0.408556</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.429064</v>
+        <v>0.391024</v>
       </c>
       <c r="C45" t="n">
-        <v>0.412209</v>
+        <v>0.410563</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402802</v>
+        <v>0.401775</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421117</v>
+        <v>0.382654</v>
       </c>
       <c r="C46" t="n">
-        <v>0.406376</v>
+        <v>0.4048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.396904</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414648</v>
+        <v>0.377233</v>
       </c>
       <c r="C47" t="n">
-        <v>0.399701</v>
+        <v>0.399451</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391668</v>
+        <v>0.39248</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407949</v>
+        <v>0.373309</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397068</v>
+        <v>0.394796</v>
       </c>
       <c r="D48" t="n">
-        <v>0.389379</v>
+        <v>0.38861</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402781</v>
+        <v>0.369241</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393059</v>
+        <v>0.391521</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385115</v>
+        <v>0.38597</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.39778</v>
+        <v>0.365212</v>
       </c>
       <c r="C50" t="n">
-        <v>0.390183</v>
+        <v>0.388672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.385594</v>
+        <v>0.383694</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.395396</v>
+        <v>0.363661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389341</v>
+        <v>0.386971</v>
       </c>
       <c r="D51" t="n">
-        <v>0.532913</v>
+        <v>0.478763</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363975</v>
+        <v>0.366205</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389544</v>
+        <v>0.388244</v>
       </c>
       <c r="D52" t="n">
-        <v>0.522212</v>
+        <v>0.470331</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503596</v>
+        <v>0.450738</v>
       </c>
       <c r="C53" t="n">
-        <v>0.478033</v>
+        <v>0.475414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.463427</v>
+        <v>0.462166</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492757</v>
+        <v>0.442708</v>
       </c>
       <c r="C54" t="n">
-        <v>0.469709</v>
+        <v>0.466892</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455205</v>
+        <v>0.454606</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.48214</v>
+        <v>0.434926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.461053</v>
+        <v>0.459283</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447647</v>
+        <v>0.446943</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472748</v>
+        <v>0.427341</v>
       </c>
       <c r="C56" t="n">
-        <v>0.453886</v>
+        <v>0.451531</v>
       </c>
       <c r="D56" t="n">
-        <v>0.439872</v>
+        <v>0.439825</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463822</v>
+        <v>0.420549</v>
       </c>
       <c r="C57" t="n">
-        <v>0.447613</v>
+        <v>0.444646</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433845</v>
+        <v>0.433623</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.455326</v>
+        <v>0.413837</v>
       </c>
       <c r="C58" t="n">
-        <v>0.441367</v>
+        <v>0.438254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.42914</v>
+        <v>0.427176</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446501</v>
+        <v>0.407862</v>
       </c>
       <c r="C59" t="n">
-        <v>0.433615</v>
+        <v>0.431767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4224</v>
+        <v>0.421466</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439482</v>
+        <v>0.401996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.427933</v>
+        <v>0.426079</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416579</v>
+        <v>0.416964</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434367</v>
+        <v>0.39681</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422154</v>
+        <v>0.42092</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412923</v>
+        <v>0.411626</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426409</v>
+        <v>0.392079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.419401</v>
+        <v>0.416571</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4105</v>
+        <v>0.407766</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.420364</v>
+        <v>0.388204</v>
       </c>
       <c r="C63" t="n">
-        <v>0.414355</v>
+        <v>0.412618</v>
       </c>
       <c r="D63" t="n">
-        <v>0.405791</v>
+        <v>0.40501</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.416452</v>
+        <v>0.385106</v>
       </c>
       <c r="C64" t="n">
-        <v>0.411181</v>
+        <v>0.409914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.40616</v>
+        <v>0.403605</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412053</v>
+        <v>0.383221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.409685</v>
+        <v>0.408525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.40845</v>
+        <v>0.404818</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.410487</v>
+        <v>0.383324</v>
       </c>
       <c r="C66" t="n">
-        <v>0.411</v>
+        <v>0.408874</v>
       </c>
       <c r="D66" t="n">
-        <v>0.546493</v>
+        <v>0.492891</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5295299999999999</v>
+        <v>0.472358</v>
       </c>
       <c r="C67" t="n">
-        <v>0.50176</v>
+        <v>0.50088</v>
       </c>
       <c r="D67" t="n">
-        <v>0.48755</v>
+        <v>0.484549</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.518659</v>
+        <v>0.465321</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493378</v>
+        <v>0.492083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478925</v>
+        <v>0.476663</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.510058</v>
+        <v>0.457527</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486199</v>
+        <v>0.48337</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471644</v>
+        <v>0.469016</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.499776</v>
+        <v>0.450706</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477773</v>
+        <v>0.475918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.465811</v>
+        <v>0.462336</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.489676</v>
+        <v>0.443569</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470898</v>
+        <v>0.46901</v>
       </c>
       <c r="D71" t="n">
-        <v>0.458593</v>
+        <v>0.455188</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.481599</v>
+        <v>0.436521</v>
       </c>
       <c r="C72" t="n">
-        <v>0.46216</v>
+        <v>0.462014</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450886</v>
+        <v>0.448818</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473487</v>
+        <v>0.430511</v>
       </c>
       <c r="C73" t="n">
-        <v>0.456915</v>
+        <v>0.455662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444555</v>
+        <v>0.443165</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.465542</v>
+        <v>0.424659</v>
       </c>
       <c r="C74" t="n">
-        <v>0.450253</v>
+        <v>0.448658</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440121</v>
+        <v>0.438154</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457194</v>
+        <v>0.419333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44704</v>
+        <v>0.44371</v>
       </c>
       <c r="D75" t="n">
-        <v>0.436342</v>
+        <v>0.433426</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.450785</v>
+        <v>0.414387</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440864</v>
+        <v>0.438864</v>
       </c>
       <c r="D76" t="n">
-        <v>0.432407</v>
+        <v>0.429742</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.444605</v>
+        <v>0.410202</v>
       </c>
       <c r="C77" t="n">
-        <v>0.436841</v>
+        <v>0.435302</v>
       </c>
       <c r="D77" t="n">
-        <v>0.429403</v>
+        <v>0.426585</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439797</v>
+        <v>0.406769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433812</v>
+        <v>0.432453</v>
       </c>
       <c r="D78" t="n">
-        <v>0.425457</v>
+        <v>0.425157</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436263</v>
+        <v>0.404879</v>
       </c>
       <c r="C79" t="n">
-        <v>0.431708</v>
+        <v>0.430824</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427964</v>
+        <v>0.425661</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434063</v>
+        <v>0.404483</v>
       </c>
       <c r="C80" t="n">
-        <v>0.432978</v>
+        <v>0.431773</v>
       </c>
       <c r="D80" t="n">
-        <v>0.581971</v>
+        <v>0.520706</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.569299</v>
+        <v>0.514518</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531483</v>
+        <v>0.529041</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51392</v>
+        <v>0.512998</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565473</v>
+        <v>0.51014</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5233449999999999</v>
+        <v>0.5219510000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506888</v>
+        <v>0.505494</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.557925</v>
+        <v>0.506206</v>
       </c>
       <c r="C83" t="n">
-        <v>0.516419</v>
+        <v>0.5144</v>
       </c>
       <c r="D83" t="n">
-        <v>0.49858</v>
+        <v>0.498162</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.55043</v>
+        <v>0.501779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509286</v>
+        <v>0.50708</v>
       </c>
       <c r="D84" t="n">
-        <v>0.491766</v>
+        <v>0.491152</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.541473</v>
+        <v>0.496543</v>
       </c>
       <c r="C85" t="n">
-        <v>0.502429</v>
+        <v>0.499925</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486649</v>
+        <v>0.484401</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.533382</v>
+        <v>0.490708</v>
       </c>
       <c r="C86" t="n">
-        <v>0.492862</v>
+        <v>0.493246</v>
       </c>
       <c r="D86" t="n">
-        <v>0.478722</v>
+        <v>0.47818</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524848</v>
+        <v>0.48516</v>
       </c>
       <c r="C87" t="n">
-        <v>0.488436</v>
+        <v>0.486553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.473942</v>
+        <v>0.472161</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516875</v>
+        <v>0.47903</v>
       </c>
       <c r="C88" t="n">
-        <v>0.479708</v>
+        <v>0.480349</v>
       </c>
       <c r="D88" t="n">
-        <v>0.464897</v>
+        <v>0.466547</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507832</v>
+        <v>0.472891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.477435</v>
+        <v>0.47467</v>
       </c>
       <c r="D89" t="n">
-        <v>0.463432</v>
+        <v>0.461597</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.500561</v>
+        <v>0.466789</v>
       </c>
       <c r="C90" t="n">
-        <v>0.471103</v>
+        <v>0.469408</v>
       </c>
       <c r="D90" t="n">
-        <v>0.46003</v>
+        <v>0.457368</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.494785</v>
+        <v>0.461576</v>
       </c>
       <c r="C91" t="n">
-        <v>0.467701</v>
+        <v>0.465181</v>
       </c>
       <c r="D91" t="n">
-        <v>0.456688</v>
+        <v>0.454008</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.488602</v>
+        <v>0.456506</v>
       </c>
       <c r="C92" t="n">
-        <v>0.463185</v>
+        <v>0.461607</v>
       </c>
       <c r="D92" t="n">
-        <v>0.454383</v>
+        <v>0.451913</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.48392</v>
+        <v>0.453033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.460586</v>
+        <v>0.459271</v>
       </c>
       <c r="D93" t="n">
-        <v>0.45476</v>
+        <v>0.451874</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.480364</v>
+        <v>0.450588</v>
       </c>
       <c r="C94" t="n">
-        <v>0.460257</v>
+        <v>0.459107</v>
       </c>
       <c r="D94" t="n">
-        <v>0.630557</v>
+        <v>0.5649380000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.618854</v>
+        <v>0.559037</v>
       </c>
       <c r="C95" t="n">
-        <v>0.574758</v>
+        <v>0.567709</v>
       </c>
       <c r="D95" t="n">
-        <v>0.578726</v>
+        <v>0.570975</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.628365</v>
+        <v>0.567912</v>
       </c>
       <c r="C96" t="n">
-        <v>0.583585</v>
+        <v>0.578068</v>
       </c>
       <c r="D96" t="n">
-        <v>0.580769</v>
+        <v>0.572204</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.631056</v>
+        <v>0.571497</v>
       </c>
       <c r="C97" t="n">
-        <v>0.590415</v>
+        <v>0.5809</v>
       </c>
       <c r="D97" t="n">
-        <v>0.580543</v>
+        <v>0.571845</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.629456</v>
+        <v>0.573193</v>
       </c>
       <c r="C98" t="n">
-        <v>0.590226</v>
+        <v>0.581257</v>
       </c>
       <c r="D98" t="n">
-        <v>0.579577</v>
+        <v>0.570182</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.627565</v>
+        <v>0.573031</v>
       </c>
       <c r="C99" t="n">
-        <v>0.580331</v>
+        <v>0.580206</v>
       </c>
       <c r="D99" t="n">
-        <v>0.564936</v>
+        <v>0.567908</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.624423</v>
+        <v>0.571968</v>
       </c>
       <c r="C100" t="n">
-        <v>0.585002</v>
+        <v>0.578676</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5696059999999999</v>
+        <v>0.5653319999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.62149</v>
+        <v>0.5703009999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.581448</v>
+        <v>0.576705</v>
       </c>
       <c r="D101" t="n">
-        <v>0.566282</v>
+        <v>0.562512</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.61714</v>
+        <v>0.568117</v>
       </c>
       <c r="C102" t="n">
-        <v>0.579579</v>
+        <v>0.5747100000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5634169999999999</v>
+        <v>0.559802</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.610996</v>
+        <v>0.56593</v>
       </c>
       <c r="C103" t="n">
-        <v>0.57568</v>
+        <v>0.572626</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560423</v>
+        <v>0.557088</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.609038</v>
+        <v>0.564024</v>
       </c>
       <c r="C104" t="n">
-        <v>0.576611</v>
+        <v>0.570783</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557975</v>
+        <v>0.554957</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.601418</v>
+        <v>0.562005</v>
       </c>
       <c r="C105" t="n">
-        <v>0.574137</v>
+        <v>0.569168</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5541430000000001</v>
+        <v>0.553056</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.600992</v>
+        <v>0.560097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.571298</v>
+        <v>0.5682469999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551569</v>
+        <v>0.552122</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.597672</v>
+        <v>0.559433</v>
       </c>
       <c r="C107" t="n">
-        <v>0.550261</v>
+        <v>0.5678609999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.534497</v>
+        <v>0.552546</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.594576</v>
+        <v>0.558934</v>
       </c>
       <c r="C108" t="n">
-        <v>0.572323</v>
+        <v>0.569113</v>
       </c>
       <c r="D108" t="n">
-        <v>0.726345</v>
+        <v>0.726737</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.553135</v>
+        <v>0.561692</v>
       </c>
       <c r="C109" t="n">
-        <v>0.570628</v>
+        <v>0.57038</v>
       </c>
       <c r="D109" t="n">
-        <v>0.739062</v>
+        <v>0.737554</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713771</v>
+        <v>0.711071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.725007</v>
+        <v>0.720828</v>
       </c>
       <c r="D110" t="n">
-        <v>0.743815</v>
+        <v>0.742208</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.722873</v>
+        <v>0.716482</v>
       </c>
       <c r="C111" t="n">
-        <v>0.728101</v>
+        <v>0.72499</v>
       </c>
       <c r="D111" t="n">
-        <v>0.74394</v>
+        <v>0.742928</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.725557</v>
+        <v>0.720336</v>
       </c>
       <c r="C112" t="n">
-        <v>0.731976</v>
+        <v>0.730143</v>
       </c>
       <c r="D112" t="n">
-        <v>0.743333</v>
+        <v>0.74741</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.726543</v>
+        <v>0.725247</v>
       </c>
       <c r="C113" t="n">
-        <v>0.736544</v>
+        <v>0.73432</v>
       </c>
       <c r="D113" t="n">
-        <v>0.748364</v>
+        <v>0.748638</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.73105</v>
+        <v>0.727998</v>
       </c>
       <c r="C114" t="n">
-        <v>0.74002</v>
+        <v>0.739089</v>
       </c>
       <c r="D114" t="n">
-        <v>0.754448</v>
+        <v>0.751409</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.734215</v>
+        <v>0.732894</v>
       </c>
       <c r="C115" t="n">
-        <v>0.740866</v>
+        <v>0.743455</v>
       </c>
       <c r="D115" t="n">
-        <v>0.755409</v>
+        <v>0.755235</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.740941</v>
+        <v>0.737636</v>
       </c>
       <c r="C116" t="n">
-        <v>0.750325</v>
+        <v>0.748241</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7466120000000001</v>
+        <v>0.757161</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.750044</v>
+        <v>0.740506</v>
       </c>
       <c r="C117" t="n">
-        <v>0.752736</v>
+        <v>0.750648</v>
       </c>
       <c r="D117" t="n">
-        <v>0.754796</v>
+        <v>0.759903</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.750412</v>
+        <v>0.7464229999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.757718</v>
+        <v>0.757304</v>
       </c>
       <c r="D118" t="n">
-        <v>0.766325</v>
+        <v>0.763122</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.757778</v>
+        <v>0.748802</v>
       </c>
       <c r="C119" t="n">
-        <v>0.765746</v>
+        <v>0.761215</v>
       </c>
       <c r="D119" t="n">
-        <v>0.752071</v>
+        <v>0.7646539999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7610170000000001</v>
+        <v>0.75303</v>
       </c>
       <c r="C120" t="n">
-        <v>0.770324</v>
+        <v>0.765753</v>
       </c>
       <c r="D120" t="n">
-        <v>0.772393</v>
+        <v>0.767574</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.764178</v>
+        <v>0.756204</v>
       </c>
       <c r="C121" t="n">
-        <v>0.767669</v>
+        <v>0.7703410000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.759697</v>
+        <v>0.771156</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.769768</v>
+        <v>0.761889</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782416</v>
+        <v>0.775905</v>
       </c>
       <c r="D122" t="n">
-        <v>0.780552</v>
+        <v>0.775072</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774852</v>
+        <v>0.766886</v>
       </c>
       <c r="C123" t="n">
-        <v>0.780666</v>
+        <v>0.783496</v>
       </c>
       <c r="D123" t="n">
-        <v>0.91378</v>
+        <v>0.926076</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.937433</v>
+        <v>0.93108</v>
       </c>
       <c r="C124" t="n">
-        <v>0.940115</v>
+        <v>0.934883</v>
       </c>
       <c r="D124" t="n">
-        <v>0.938683</v>
+        <v>0.933579</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.944119</v>
+        <v>0.938896</v>
       </c>
       <c r="C125" t="n">
-        <v>0.943261</v>
+        <v>0.943103</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9370270000000001</v>
+        <v>0.940795</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.952989</v>
+        <v>0.94572</v>
       </c>
       <c r="C126" t="n">
-        <v>0.956421</v>
+        <v>0.9501039999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.938286</v>
+        <v>0.947513</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.95716</v>
+        <v>0.951156</v>
       </c>
       <c r="C127" t="n">
-        <v>0.957778</v>
+        <v>0.9570109999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.963378</v>
+        <v>0.952893</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.966813</v>
+        <v>0.956402</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972374</v>
+        <v>0.9647210000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.966567</v>
+        <v>0.960569</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.973391</v>
+        <v>0.96308</v>
       </c>
       <c r="C129" t="n">
-        <v>0.981316</v>
+        <v>0.9708830000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.974915</v>
+        <v>0.96605</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.975962</v>
+        <v>0.967817</v>
       </c>
       <c r="C130" t="n">
-        <v>0.984349</v>
+        <v>0.977405</v>
       </c>
       <c r="D130" t="n">
-        <v>0.970939</v>
+        <v>0.973666</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.983181</v>
+        <v>0.974498</v>
       </c>
       <c r="C131" t="n">
-        <v>0.991939</v>
+        <v>0.984553</v>
       </c>
       <c r="D131" t="n">
-        <v>0.988333</v>
+        <v>0.980591</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.990913</v>
+        <v>0.979522</v>
       </c>
       <c r="C132" t="n">
-        <v>1.00249</v>
+        <v>0.992303</v>
       </c>
       <c r="D132" t="n">
-        <v>0.990181</v>
+        <v>0.98552</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.994085</v>
+        <v>0.9844270000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00335</v>
+        <v>0.998345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.997017</v>
+        <v>0.990882</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.00028</v>
+        <v>0.990112</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01687</v>
+        <v>1.00634</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00329</v>
+        <v>0.997738</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00581</v>
+        <v>0.99633</v>
       </c>
       <c r="C135" t="n">
-        <v>1.0233</v>
+        <v>1.0159</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01399</v>
+        <v>1.00442</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.01385</v>
+        <v>1.00229</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03194</v>
+        <v>1.02363</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01139</v>
+        <v>1.00929</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.02044</v>
+        <v>1.00832</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03714</v>
+        <v>1.03148</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16648</v>
+        <v>1.16026</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17021</v>
+        <v>1.1639</v>
       </c>
       <c r="C138" t="n">
-        <v>1.1909</v>
+        <v>1.18018</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17787</v>
+        <v>1.16853</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17526</v>
+        <v>1.17091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.1948</v>
+        <v>1.18833</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18728</v>
+        <v>1.17597</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18665</v>
+        <v>1.17622</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20684</v>
+        <v>1.19547</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19671</v>
+        <v>1.18398</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18752</v>
+        <v>1.18174</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21175</v>
+        <v>1.20361</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20382</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19923</v>
+        <v>1.18685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22178</v>
+        <v>1.21037</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20979</v>
+        <v>1.19794</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19914</v>
+        <v>1.19317</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22963</v>
+        <v>1.21747</v>
       </c>
       <c r="D143" t="n">
-        <v>1.21467</v>
+        <v>1.20616</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.375618</v>
+        <v>0.361349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.377854</v>
+        <v>0.375052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.370445</v>
+        <v>0.369152</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.366867</v>
+        <v>0.353704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.370892</v>
+        <v>0.368104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.363827</v>
+        <v>0.363055</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359839</v>
+        <v>0.347273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.364438</v>
+        <v>0.362373</v>
       </c>
       <c r="D4" t="n">
-        <v>0.358727</v>
+        <v>0.357924</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.354451</v>
+        <v>0.341307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359575</v>
+        <v>0.35725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.354796</v>
+        <v>0.35389</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.349107</v>
+        <v>0.336824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.355935</v>
+        <v>0.353703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351826</v>
+        <v>0.350639</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.344769</v>
+        <v>0.333148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3526</v>
+        <v>0.350184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350172</v>
+        <v>0.349288</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.342081</v>
+        <v>0.330714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351515</v>
+        <v>0.348727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.350535</v>
+        <v>0.349647</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.341015</v>
+        <v>0.330354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.351395</v>
+        <v>0.348741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.438688</v>
+        <v>0.438863</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.431238</v>
+        <v>0.421218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.439695</v>
+        <v>0.437104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.429038</v>
+        <v>0.429032</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.423061</v>
+        <v>0.408898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.429783</v>
+        <v>0.427402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.419443</v>
+        <v>0.419709</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.413582</v>
+        <v>0.403197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.420749</v>
+        <v>0.418192</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411093</v>
+        <v>0.410865</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398319</v>
+        <v>0.394576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.411924</v>
+        <v>0.409505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402812</v>
+        <v>0.402492</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.395009</v>
+        <v>0.385337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.403451</v>
+        <v>0.40139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.394974</v>
+        <v>0.39454</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.382124</v>
+        <v>0.379151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.395371</v>
+        <v>0.393704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387639</v>
+        <v>0.387126</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.379308</v>
+        <v>0.370845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.388095</v>
+        <v>0.386303</v>
       </c>
       <c r="D16" t="n">
-        <v>0.380724</v>
+        <v>0.380365</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.372905</v>
+        <v>0.364343</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381675</v>
+        <v>0.379888</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374728</v>
+        <v>0.374071</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.366479</v>
+        <v>0.358297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.375057</v>
+        <v>0.373541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.368758</v>
+        <v>0.36818</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.355811</v>
+        <v>0.351527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.36967</v>
+        <v>0.367983</v>
       </c>
       <c r="D19" t="n">
-        <v>0.364054</v>
+        <v>0.36357</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.350766</v>
+        <v>0.346483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.364697</v>
+        <v>0.362973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.360145</v>
+        <v>0.359605</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.34678</v>
+        <v>0.343534</v>
       </c>
       <c r="C21" t="n">
-        <v>0.361394</v>
+        <v>0.359824</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357814</v>
+        <v>0.35705</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.344451</v>
+        <v>0.338419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.358732</v>
+        <v>0.357217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.357027</v>
+        <v>0.356389</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.346934</v>
+        <v>0.340899</v>
       </c>
       <c r="C23" t="n">
-        <v>0.358163</v>
+        <v>0.356586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447948</v>
+        <v>0.448461</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.437527</v>
+        <v>0.432516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.449661</v>
+        <v>0.448268</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439132</v>
+        <v>0.439615</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.429232</v>
+        <v>0.416566</v>
       </c>
       <c r="C25" t="n">
-        <v>0.440581</v>
+        <v>0.439234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430277</v>
+        <v>0.430717</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.420398</v>
+        <v>0.408739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.431851</v>
+        <v>0.430534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.421941</v>
+        <v>0.422149</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.404694</v>
+        <v>0.406991</v>
       </c>
       <c r="C27" t="n">
-        <v>0.42349</v>
+        <v>0.422266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414613</v>
+        <v>0.414201</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.400437</v>
+        <v>0.398896</v>
       </c>
       <c r="C28" t="n">
-        <v>0.415585</v>
+        <v>0.414242</v>
       </c>
       <c r="D28" t="n">
-        <v>0.406313</v>
+        <v>0.406474</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.396054</v>
+        <v>0.391465</v>
       </c>
       <c r="C29" t="n">
-        <v>0.407877</v>
+        <v>0.406548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399211</v>
+        <v>0.399046</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.38259</v>
+        <v>0.384449</v>
       </c>
       <c r="C30" t="n">
-        <v>0.400815</v>
+        <v>0.399492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3928</v>
+        <v>0.39236</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.381544</v>
+        <v>0.377608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.394217</v>
+        <v>0.392795</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386415</v>
+        <v>0.386017</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.374504</v>
+        <v>0.371308</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388163</v>
+        <v>0.386681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.380878</v>
+        <v>0.380349</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.365157</v>
+        <v>0.365662</v>
       </c>
       <c r="C33" t="n">
-        <v>0.382734</v>
+        <v>0.381102</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376097</v>
+        <v>0.375284</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.359243</v>
+        <v>0.360497</v>
       </c>
       <c r="C34" t="n">
-        <v>0.377732</v>
+        <v>0.37605</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372313</v>
+        <v>0.371035</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.355603</v>
+        <v>0.356279</v>
       </c>
       <c r="C35" t="n">
-        <v>0.373916</v>
+        <v>0.372236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368922</v>
+        <v>0.368021</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.353032</v>
+        <v>0.353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.371136</v>
+        <v>0.36953</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368146</v>
+        <v>0.367028</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351753</v>
+        <v>0.351711</v>
       </c>
       <c r="C37" t="n">
-        <v>0.370051</v>
+        <v>0.368506</v>
       </c>
       <c r="D37" t="n">
-        <v>0.461025</v>
+        <v>0.461425</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.443575</v>
+        <v>0.441129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.463219</v>
+        <v>0.467067</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452565</v>
+        <v>0.452909</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.435738</v>
+        <v>0.432078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.455004</v>
+        <v>0.458214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.44414</v>
+        <v>0.444658</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.427125</v>
+        <v>0.424673</v>
       </c>
       <c r="C40" t="n">
-        <v>0.446507</v>
+        <v>0.450114</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436038</v>
+        <v>0.436611</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.419238</v>
+        <v>0.416662</v>
       </c>
       <c r="C41" t="n">
-        <v>0.438437</v>
+        <v>0.441786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428915</v>
+        <v>0.428871</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.40777</v>
+        <v>0.409034</v>
       </c>
       <c r="C42" t="n">
-        <v>0.43075</v>
+        <v>0.434125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42165</v>
+        <v>0.421605</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.400947</v>
+        <v>0.397555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.423561</v>
+        <v>0.427513</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414568</v>
+        <v>0.414741</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.396712</v>
+        <v>0.393668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.417481</v>
+        <v>0.419717</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408556</v>
+        <v>0.408345</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391024</v>
+        <v>0.389012</v>
       </c>
       <c r="C45" t="n">
-        <v>0.410563</v>
+        <v>0.413315</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401775</v>
+        <v>0.402402</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.382654</v>
+        <v>0.379529</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4048</v>
+        <v>0.407333</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3967</v>
+        <v>0.397148</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.377233</v>
+        <v>0.374163</v>
       </c>
       <c r="C47" t="n">
-        <v>0.399451</v>
+        <v>0.401864</v>
       </c>
       <c r="D47" t="n">
-        <v>0.39248</v>
+        <v>0.392294</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.373309</v>
+        <v>0.37221</v>
       </c>
       <c r="C48" t="n">
-        <v>0.394796</v>
+        <v>0.396839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.38861</v>
+        <v>0.388421</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.369241</v>
+        <v>0.368762</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391521</v>
+        <v>0.393114</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38597</v>
+        <v>0.385631</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365212</v>
+        <v>0.36252</v>
       </c>
       <c r="C50" t="n">
-        <v>0.388672</v>
+        <v>0.39045</v>
       </c>
       <c r="D50" t="n">
-        <v>0.383694</v>
+        <v>0.384587</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.363661</v>
+        <v>0.363981</v>
       </c>
       <c r="C51" t="n">
-        <v>0.386971</v>
+        <v>0.389176</v>
       </c>
       <c r="D51" t="n">
-        <v>0.478763</v>
+        <v>0.480803</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366205</v>
+        <v>0.364726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.388244</v>
+        <v>0.390116</v>
       </c>
       <c r="D52" t="n">
-        <v>0.470331</v>
+        <v>0.47239</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.450738</v>
+        <v>0.449003</v>
       </c>
       <c r="C53" t="n">
-        <v>0.475414</v>
+        <v>0.477796</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462166</v>
+        <v>0.464034</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442708</v>
+        <v>0.441038</v>
       </c>
       <c r="C54" t="n">
-        <v>0.466892</v>
+        <v>0.46942</v>
       </c>
       <c r="D54" t="n">
-        <v>0.454606</v>
+        <v>0.456201</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.434926</v>
+        <v>0.433672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.459283</v>
+        <v>0.460819</v>
       </c>
       <c r="D55" t="n">
-        <v>0.446943</v>
+        <v>0.448605</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.427341</v>
+        <v>0.426646</v>
       </c>
       <c r="C56" t="n">
-        <v>0.451531</v>
+        <v>0.452671</v>
       </c>
       <c r="D56" t="n">
-        <v>0.439825</v>
+        <v>0.441514</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.420549</v>
+        <v>0.419658</v>
       </c>
       <c r="C57" t="n">
-        <v>0.444646</v>
+        <v>0.445624</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433623</v>
+        <v>0.434833</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.413837</v>
+        <v>0.413378</v>
       </c>
       <c r="C58" t="n">
-        <v>0.438254</v>
+        <v>0.43938</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427176</v>
+        <v>0.428682</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407862</v>
+        <v>0.407222</v>
       </c>
       <c r="C59" t="n">
-        <v>0.431767</v>
+        <v>0.43235</v>
       </c>
       <c r="D59" t="n">
-        <v>0.421466</v>
+        <v>0.422993</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.401996</v>
+        <v>0.401769</v>
       </c>
       <c r="C60" t="n">
-        <v>0.426079</v>
+        <v>0.426176</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416964</v>
+        <v>0.41771</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.39681</v>
+        <v>0.396375</v>
       </c>
       <c r="C61" t="n">
-        <v>0.42092</v>
+        <v>0.422058</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411626</v>
+        <v>0.413092</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.392079</v>
+        <v>0.3918</v>
       </c>
       <c r="C62" t="n">
-        <v>0.416571</v>
+        <v>0.416747</v>
       </c>
       <c r="D62" t="n">
-        <v>0.407766</v>
+        <v>0.409208</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388204</v>
+        <v>0.387768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.412618</v>
+        <v>0.413412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.40501</v>
+        <v>0.406483</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.385106</v>
+        <v>0.384796</v>
       </c>
       <c r="C64" t="n">
-        <v>0.409914</v>
+        <v>0.410424</v>
       </c>
       <c r="D64" t="n">
-        <v>0.403605</v>
+        <v>0.405224</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.383221</v>
+        <v>0.383172</v>
       </c>
       <c r="C65" t="n">
-        <v>0.408525</v>
+        <v>0.410032</v>
       </c>
       <c r="D65" t="n">
-        <v>0.404818</v>
+        <v>0.405932</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.383324</v>
+        <v>0.383518</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408874</v>
+        <v>0.410567</v>
       </c>
       <c r="D66" t="n">
-        <v>0.492891</v>
+        <v>0.495954</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.472358</v>
+        <v>0.471029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.50088</v>
+        <v>0.499339</v>
       </c>
       <c r="D67" t="n">
-        <v>0.484549</v>
+        <v>0.487163</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.465321</v>
+        <v>0.462803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.492083</v>
+        <v>0.490694</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476663</v>
+        <v>0.479061</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.457527</v>
+        <v>0.455064</v>
       </c>
       <c r="C69" t="n">
-        <v>0.48337</v>
+        <v>0.482385</v>
       </c>
       <c r="D69" t="n">
-        <v>0.469016</v>
+        <v>0.471433</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.450706</v>
+        <v>0.447511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.475918</v>
+        <v>0.474302</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462336</v>
+        <v>0.464012</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.443569</v>
+        <v>0.440466</v>
       </c>
       <c r="C71" t="n">
-        <v>0.46901</v>
+        <v>0.467086</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455188</v>
+        <v>0.457146</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.436521</v>
+        <v>0.434157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.462014</v>
+        <v>0.460442</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448818</v>
+        <v>0.450851</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.430511</v>
+        <v>0.427817</v>
       </c>
       <c r="C73" t="n">
-        <v>0.455662</v>
+        <v>0.45395</v>
       </c>
       <c r="D73" t="n">
-        <v>0.443165</v>
+        <v>0.444912</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.424659</v>
+        <v>0.422191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.448658</v>
+        <v>0.447928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438154</v>
+        <v>0.439548</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.419333</v>
+        <v>0.416698</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44371</v>
+        <v>0.442569</v>
       </c>
       <c r="D75" t="n">
-        <v>0.433426</v>
+        <v>0.434823</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.414387</v>
+        <v>0.412179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.438864</v>
+        <v>0.437844</v>
       </c>
       <c r="D76" t="n">
-        <v>0.429742</v>
+        <v>0.430889</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.410202</v>
+        <v>0.408121</v>
       </c>
       <c r="C77" t="n">
-        <v>0.435302</v>
+        <v>0.433974</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426585</v>
+        <v>0.427899</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.406769</v>
+        <v>0.405018</v>
       </c>
       <c r="C78" t="n">
-        <v>0.432453</v>
+        <v>0.431289</v>
       </c>
       <c r="D78" t="n">
-        <v>0.425157</v>
+        <v>0.42654</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.404879</v>
+        <v>0.40313</v>
       </c>
       <c r="C79" t="n">
-        <v>0.430824</v>
+        <v>0.42994</v>
       </c>
       <c r="D79" t="n">
-        <v>0.425661</v>
+        <v>0.427128</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.404483</v>
+        <v>0.402788</v>
       </c>
       <c r="C80" t="n">
-        <v>0.431773</v>
+        <v>0.430771</v>
       </c>
       <c r="D80" t="n">
-        <v>0.520706</v>
+        <v>0.523822</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.514518</v>
+        <v>0.519139</v>
       </c>
       <c r="C81" t="n">
-        <v>0.529041</v>
+        <v>0.529639</v>
       </c>
       <c r="D81" t="n">
-        <v>0.512998</v>
+        <v>0.516142</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.51014</v>
+        <v>0.515647</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5219510000000001</v>
+        <v>0.523022</v>
       </c>
       <c r="D82" t="n">
-        <v>0.505494</v>
+        <v>0.508771</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.506206</v>
+        <v>0.512784</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5144</v>
+        <v>0.516106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498162</v>
+        <v>0.50157</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501779</v>
+        <v>0.50889</v>
       </c>
       <c r="C84" t="n">
-        <v>0.50708</v>
+        <v>0.509236</v>
       </c>
       <c r="D84" t="n">
-        <v>0.491152</v>
+        <v>0.494815</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.496543</v>
+        <v>0.504238</v>
       </c>
       <c r="C85" t="n">
-        <v>0.499925</v>
+        <v>0.502359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.484401</v>
+        <v>0.488074</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.490708</v>
+        <v>0.498529</v>
       </c>
       <c r="C86" t="n">
-        <v>0.493246</v>
+        <v>0.495985</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47818</v>
+        <v>0.481648</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.48516</v>
+        <v>0.492673</v>
       </c>
       <c r="C87" t="n">
-        <v>0.486553</v>
+        <v>0.488824</v>
       </c>
       <c r="D87" t="n">
-        <v>0.472161</v>
+        <v>0.475508</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.47903</v>
+        <v>0.486452</v>
       </c>
       <c r="C88" t="n">
-        <v>0.480349</v>
+        <v>0.482569</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466547</v>
+        <v>0.469904</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.472891</v>
+        <v>0.479768</v>
       </c>
       <c r="C89" t="n">
-        <v>0.47467</v>
+        <v>0.476898</v>
       </c>
       <c r="D89" t="n">
-        <v>0.461597</v>
+        <v>0.46474</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.466789</v>
+        <v>0.473632</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469408</v>
+        <v>0.47204</v>
       </c>
       <c r="D90" t="n">
-        <v>0.457368</v>
+        <v>0.460389</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461576</v>
+        <v>0.468255</v>
       </c>
       <c r="C91" t="n">
-        <v>0.465181</v>
+        <v>0.467527</v>
       </c>
       <c r="D91" t="n">
-        <v>0.454008</v>
+        <v>0.456878</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.456506</v>
+        <v>0.463018</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461607</v>
+        <v>0.464078</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451913</v>
+        <v>0.454834</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.453033</v>
+        <v>0.45918</v>
       </c>
       <c r="C93" t="n">
-        <v>0.459271</v>
+        <v>0.461846</v>
       </c>
       <c r="D93" t="n">
-        <v>0.451874</v>
+        <v>0.454651</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.450588</v>
+        <v>0.457012</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459107</v>
+        <v>0.461813</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5649380000000001</v>
+        <v>0.570797</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559037</v>
+        <v>0.568568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.567709</v>
+        <v>0.57152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.570975</v>
+        <v>0.5787679999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.567912</v>
+        <v>0.580653</v>
       </c>
       <c r="C96" t="n">
-        <v>0.578068</v>
+        <v>0.583691</v>
       </c>
       <c r="D96" t="n">
-        <v>0.572204</v>
+        <v>0.581483</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.571497</v>
+        <v>0.585964</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5809</v>
+        <v>0.588243</v>
       </c>
       <c r="D97" t="n">
-        <v>0.571845</v>
+        <v>0.581772</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.573193</v>
+        <v>0.588313</v>
       </c>
       <c r="C98" t="n">
-        <v>0.581257</v>
+        <v>0.589773</v>
       </c>
       <c r="D98" t="n">
-        <v>0.570182</v>
+        <v>0.580167</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.573031</v>
+        <v>0.589069</v>
       </c>
       <c r="C99" t="n">
-        <v>0.580206</v>
+        <v>0.589402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.567908</v>
+        <v>0.57787</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.571968</v>
+        <v>0.588338</v>
       </c>
       <c r="C100" t="n">
-        <v>0.578676</v>
+        <v>0.5882270000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5653319999999999</v>
+        <v>0.5749840000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5703009999999999</v>
+        <v>0.58696</v>
       </c>
       <c r="C101" t="n">
-        <v>0.576705</v>
+        <v>0.586908</v>
       </c>
       <c r="D101" t="n">
-        <v>0.562512</v>
+        <v>0.571852</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.568117</v>
+        <v>0.584886</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5747100000000001</v>
+        <v>0.584584</v>
       </c>
       <c r="D102" t="n">
-        <v>0.559802</v>
+        <v>0.568887</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.56593</v>
+        <v>0.58291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.572626</v>
+        <v>0.582892</v>
       </c>
       <c r="D103" t="n">
-        <v>0.557088</v>
+        <v>0.5658609999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.564024</v>
+        <v>0.5809879999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.570783</v>
+        <v>0.5815630000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554957</v>
+        <v>0.5636100000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.562005</v>
+        <v>0.578968</v>
       </c>
       <c r="C105" t="n">
-        <v>0.569168</v>
+        <v>0.580297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.553056</v>
+        <v>0.56132</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.560097</v>
+        <v>0.577702</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5682469999999999</v>
+        <v>0.579477</v>
       </c>
       <c r="D106" t="n">
-        <v>0.552122</v>
+        <v>0.5601159999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.559433</v>
+        <v>0.576477</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5678609999999999</v>
+        <v>0.579146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.552546</v>
+        <v>0.560511</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.558934</v>
+        <v>0.576105</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569113</v>
+        <v>0.580178</v>
       </c>
       <c r="D108" t="n">
-        <v>0.726737</v>
+        <v>0.7493069999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.561692</v>
+        <v>0.577636</v>
       </c>
       <c r="C109" t="n">
-        <v>0.57038</v>
+        <v>0.582364</v>
       </c>
       <c r="D109" t="n">
-        <v>0.737554</v>
+        <v>0.766517</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.711071</v>
+        <v>0.7383189999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.720828</v>
+        <v>0.740749</v>
       </c>
       <c r="D110" t="n">
-        <v>0.742208</v>
+        <v>0.769729</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.716482</v>
+        <v>0.747279</v>
       </c>
       <c r="C111" t="n">
-        <v>0.72499</v>
+        <v>0.748966</v>
       </c>
       <c r="D111" t="n">
-        <v>0.742928</v>
+        <v>0.775689</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.720336</v>
+        <v>0.7539169999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.730143</v>
+        <v>0.756317</v>
       </c>
       <c r="D112" t="n">
-        <v>0.74741</v>
+        <v>0.779493</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.725247</v>
+        <v>0.76018</v>
       </c>
       <c r="C113" t="n">
-        <v>0.73432</v>
+        <v>0.76118</v>
       </c>
       <c r="D113" t="n">
-        <v>0.748638</v>
+        <v>0.783778</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.727998</v>
+        <v>0.765123</v>
       </c>
       <c r="C114" t="n">
-        <v>0.739089</v>
+        <v>0.766242</v>
       </c>
       <c r="D114" t="n">
-        <v>0.751409</v>
+        <v>0.785436</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.732894</v>
+        <v>0.77053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.743455</v>
+        <v>0.770581</v>
       </c>
       <c r="D115" t="n">
-        <v>0.755235</v>
+        <v>0.789894</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.737636</v>
+        <v>0.774396</v>
       </c>
       <c r="C116" t="n">
-        <v>0.748241</v>
+        <v>0.776756</v>
       </c>
       <c r="D116" t="n">
-        <v>0.757161</v>
+        <v>0.793426</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.740506</v>
+        <v>0.7803020000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.750648</v>
+        <v>0.781257</v>
       </c>
       <c r="D117" t="n">
-        <v>0.759903</v>
+        <v>0.796469</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7464229999999999</v>
+        <v>0.786073</v>
       </c>
       <c r="C118" t="n">
-        <v>0.757304</v>
+        <v>0.7884949999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.763122</v>
+        <v>0.802705</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.748802</v>
+        <v>0.790328</v>
       </c>
       <c r="C119" t="n">
-        <v>0.761215</v>
+        <v>0.795414</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7646539999999999</v>
+        <v>0.804986</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.75303</v>
+        <v>0.79594</v>
       </c>
       <c r="C120" t="n">
-        <v>0.765753</v>
+        <v>0.800109</v>
       </c>
       <c r="D120" t="n">
-        <v>0.767574</v>
+        <v>0.808554</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.756204</v>
+        <v>0.79904</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7703410000000001</v>
+        <v>0.805707</v>
       </c>
       <c r="D121" t="n">
-        <v>0.771156</v>
+        <v>0.814636</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.761889</v>
+        <v>0.804446</v>
       </c>
       <c r="C122" t="n">
-        <v>0.775905</v>
+        <v>0.812155</v>
       </c>
       <c r="D122" t="n">
-        <v>0.775072</v>
+        <v>0.817644</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.766886</v>
+        <v>0.810627</v>
       </c>
       <c r="C123" t="n">
-        <v>0.783496</v>
+        <v>0.818085</v>
       </c>
       <c r="D123" t="n">
-        <v>0.926076</v>
+        <v>0.978421</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.93108</v>
+        <v>0.985957</v>
       </c>
       <c r="C124" t="n">
-        <v>0.934883</v>
+        <v>0.980464</v>
       </c>
       <c r="D124" t="n">
-        <v>0.933579</v>
+        <v>0.9875699999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.938896</v>
+        <v>0.994916</v>
       </c>
       <c r="C125" t="n">
-        <v>0.943103</v>
+        <v>0.9892069999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940795</v>
+        <v>0.995779</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.94572</v>
+        <v>1.00297</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9501039999999999</v>
+        <v>0.996871</v>
       </c>
       <c r="D126" t="n">
-        <v>0.947513</v>
+        <v>1.00559</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.951156</v>
+        <v>1.01282</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9570109999999999</v>
+        <v>1.00562</v>
       </c>
       <c r="D127" t="n">
-        <v>0.952893</v>
+        <v>1.01379</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.956402</v>
+        <v>1.01924</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9647210000000001</v>
+        <v>1.01462</v>
       </c>
       <c r="D128" t="n">
-        <v>0.960569</v>
+        <v>1.02179</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.96308</v>
+        <v>1.02712</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9708830000000001</v>
+        <v>1.02318</v>
       </c>
       <c r="D129" t="n">
-        <v>0.96605</v>
+        <v>1.03066</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.967817</v>
+        <v>1.03466</v>
       </c>
       <c r="C130" t="n">
-        <v>0.977405</v>
+        <v>1.02935</v>
       </c>
       <c r="D130" t="n">
-        <v>0.973666</v>
+        <v>1.03935</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.974498</v>
+        <v>1.04131</v>
       </c>
       <c r="C131" t="n">
-        <v>0.984553</v>
+        <v>1.03723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.980591</v>
+        <v>1.04623</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.979522</v>
+        <v>1.04845</v>
       </c>
       <c r="C132" t="n">
-        <v>0.992303</v>
+        <v>1.04473</v>
       </c>
       <c r="D132" t="n">
-        <v>0.98552</v>
+        <v>1.05443</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9844270000000001</v>
+        <v>1.05606</v>
       </c>
       <c r="C133" t="n">
-        <v>0.998345</v>
+        <v>1.05154</v>
       </c>
       <c r="D133" t="n">
-        <v>0.990882</v>
+        <v>1.06202</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.990112</v>
+        <v>1.06256</v>
       </c>
       <c r="C134" t="n">
-        <v>1.00634</v>
+        <v>1.06053</v>
       </c>
       <c r="D134" t="n">
-        <v>0.997738</v>
+        <v>1.06941</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.99633</v>
+        <v>1.06967</v>
       </c>
       <c r="C135" t="n">
-        <v>1.0159</v>
+        <v>1.06988</v>
       </c>
       <c r="D135" t="n">
-        <v>1.00442</v>
+        <v>1.0779</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00229</v>
+        <v>1.07692</v>
       </c>
       <c r="C136" t="n">
-        <v>1.02363</v>
+        <v>1.07756</v>
       </c>
       <c r="D136" t="n">
-        <v>1.00929</v>
+        <v>1.08274</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.00832</v>
+        <v>1.08349</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03148</v>
+        <v>1.08819</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16026</v>
+        <v>1.24227</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.1639</v>
+        <v>1.24708</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18018</v>
+        <v>1.24378</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16853</v>
+        <v>1.25192</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17091</v>
+        <v>1.25432</v>
       </c>
       <c r="C139" t="n">
-        <v>1.18833</v>
+        <v>1.25061</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17597</v>
+        <v>1.26048</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17622</v>
+        <v>1.26298</v>
       </c>
       <c r="C140" t="n">
-        <v>1.19547</v>
+        <v>1.25836</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18398</v>
+        <v>1.26916</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18174</v>
+        <v>1.26973</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20361</v>
+        <v>1.26678</v>
       </c>
       <c r="D141" t="n">
-        <v>1.191</v>
+        <v>1.27716</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.18685</v>
+        <v>1.27727</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21037</v>
+        <v>1.27325</v>
       </c>
       <c r="D142" t="n">
-        <v>1.19794</v>
+        <v>1.28652</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19317</v>
+        <v>1.28386</v>
       </c>
       <c r="C143" t="n">
-        <v>1.21747</v>
+        <v>1.27975</v>
       </c>
       <c r="D143" t="n">
-        <v>1.20616</v>
+        <v>1.2939</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.361349</v>
+        <v>0.362104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.375052</v>
+        <v>0.373269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.369152</v>
+        <v>0.37038</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.353704</v>
+        <v>0.353296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.368104</v>
+        <v>0.366646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.363055</v>
+        <v>0.36419</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.347273</v>
+        <v>0.34758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.362373</v>
+        <v>0.360572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.357924</v>
+        <v>0.35884</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.341307</v>
+        <v>0.342119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35725</v>
+        <v>0.355674</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35389</v>
+        <v>0.354738</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336824</v>
+        <v>0.337528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353703</v>
+        <v>0.35225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.350639</v>
+        <v>0.351995</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.333148</v>
+        <v>0.333756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.350184</v>
+        <v>0.348949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.349288</v>
+        <v>0.350542</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.330714</v>
+        <v>0.331314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348727</v>
+        <v>0.347558</v>
       </c>
       <c r="D8" t="n">
-        <v>0.349647</v>
+        <v>0.351315</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.330354</v>
+        <v>0.331022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.348741</v>
+        <v>0.347798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.438863</v>
+        <v>0.440498</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.421218</v>
+        <v>0.422576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.437104</v>
+        <v>0.435941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.429032</v>
+        <v>0.430114</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.408898</v>
+        <v>0.406687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.427402</v>
+        <v>0.425927</v>
       </c>
       <c r="D11" t="n">
-        <v>0.419709</v>
+        <v>0.420701</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.403197</v>
+        <v>0.398098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.418192</v>
+        <v>0.416579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.410865</v>
+        <v>0.411647</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.394576</v>
+        <v>0.392291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.409505</v>
+        <v>0.407689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402492</v>
+        <v>0.403081</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.385337</v>
+        <v>0.387773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.40139</v>
+        <v>0.398971</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39454</v>
+        <v>0.394754</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.379151</v>
+        <v>0.380223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.393704</v>
+        <v>0.391242</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387126</v>
+        <v>0.387432</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.370845</v>
+        <v>0.367415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.386303</v>
+        <v>0.383777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.380365</v>
+        <v>0.38029</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.364343</v>
+        <v>0.36092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.379888</v>
+        <v>0.377037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374071</v>
+        <v>0.373599</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.358297</v>
+        <v>0.354634</v>
       </c>
       <c r="C18" t="n">
-        <v>0.373541</v>
+        <v>0.37037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.36818</v>
+        <v>0.367769</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.351527</v>
+        <v>0.353706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.367983</v>
+        <v>0.364888</v>
       </c>
       <c r="D19" t="n">
-        <v>0.36357</v>
+        <v>0.362838</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.346483</v>
+        <v>0.348866</v>
       </c>
       <c r="C20" t="n">
-        <v>0.362973</v>
+        <v>0.359768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359605</v>
+        <v>0.35851</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343534</v>
+        <v>0.340412</v>
       </c>
       <c r="C21" t="n">
-        <v>0.359824</v>
+        <v>0.356425</v>
       </c>
       <c r="D21" t="n">
-        <v>0.35705</v>
+        <v>0.35661</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.338419</v>
+        <v>0.338534</v>
       </c>
       <c r="C22" t="n">
-        <v>0.357217</v>
+        <v>0.354119</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356389</v>
+        <v>0.355511</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.340899</v>
+        <v>0.341684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.356586</v>
+        <v>0.353838</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448461</v>
+        <v>0.447838</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.432516</v>
+        <v>0.433864</v>
       </c>
       <c r="C24" t="n">
-        <v>0.448268</v>
+        <v>0.4445</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439615</v>
+        <v>0.438413</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.416566</v>
+        <v>0.424307</v>
       </c>
       <c r="C25" t="n">
-        <v>0.439234</v>
+        <v>0.434909</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430717</v>
+        <v>0.42861</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.408739</v>
+        <v>0.415725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.430534</v>
+        <v>0.425731</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422149</v>
+        <v>0.419666</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.406991</v>
+        <v>0.407445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.422266</v>
+        <v>0.415758</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414201</v>
+        <v>0.410036</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.398896</v>
+        <v>0.399165</v>
       </c>
       <c r="C28" t="n">
-        <v>0.414242</v>
+        <v>0.407293</v>
       </c>
       <c r="D28" t="n">
-        <v>0.406474</v>
+        <v>0.402016</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.391465</v>
+        <v>0.391785</v>
       </c>
       <c r="C29" t="n">
-        <v>0.406548</v>
+        <v>0.399144</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399046</v>
+        <v>0.394195</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.384449</v>
+        <v>0.377472</v>
       </c>
       <c r="C30" t="n">
-        <v>0.399492</v>
+        <v>0.391647</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39236</v>
+        <v>0.388048</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.377608</v>
+        <v>0.375368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392795</v>
+        <v>0.384631</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386017</v>
+        <v>0.380387</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.371308</v>
+        <v>0.364589</v>
       </c>
       <c r="C32" t="n">
-        <v>0.386681</v>
+        <v>0.378276</v>
       </c>
       <c r="D32" t="n">
-        <v>0.380349</v>
+        <v>0.374359</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.365662</v>
+        <v>0.362577</v>
       </c>
       <c r="C33" t="n">
-        <v>0.381102</v>
+        <v>0.372786</v>
       </c>
       <c r="D33" t="n">
-        <v>0.375284</v>
+        <v>0.370186</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.360497</v>
+        <v>0.36009</v>
       </c>
       <c r="C34" t="n">
-        <v>0.37605</v>
+        <v>0.367385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371035</v>
+        <v>0.364903</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.356279</v>
+        <v>0.355383</v>
       </c>
       <c r="C35" t="n">
-        <v>0.372236</v>
+        <v>0.363431</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368021</v>
+        <v>0.361798</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.353</v>
+        <v>0.346844</v>
       </c>
       <c r="C36" t="n">
-        <v>0.36953</v>
+        <v>0.360688</v>
       </c>
       <c r="D36" t="n">
-        <v>0.367028</v>
+        <v>0.3608</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351711</v>
+        <v>0.35118</v>
       </c>
       <c r="C37" t="n">
-        <v>0.368506</v>
+        <v>0.35999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.461425</v>
+        <v>0.45558</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.441129</v>
+        <v>0.437497</v>
       </c>
       <c r="C38" t="n">
-        <v>0.467067</v>
+        <v>0.453197</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452909</v>
+        <v>0.446548</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.432078</v>
+        <v>0.428957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.458214</v>
+        <v>0.444072</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444658</v>
+        <v>0.437138</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.424673</v>
+        <v>0.421488</v>
       </c>
       <c r="C40" t="n">
-        <v>0.450114</v>
+        <v>0.435399</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436611</v>
+        <v>0.428377</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.416662</v>
+        <v>0.413713</v>
       </c>
       <c r="C41" t="n">
-        <v>0.441786</v>
+        <v>0.426227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428871</v>
+        <v>0.419575</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.409034</v>
+        <v>0.406231</v>
       </c>
       <c r="C42" t="n">
-        <v>0.434125</v>
+        <v>0.418153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421605</v>
+        <v>0.411897</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.397555</v>
+        <v>0.39463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.427513</v>
+        <v>0.410483</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414741</v>
+        <v>0.405175</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.393668</v>
+        <v>0.392299</v>
       </c>
       <c r="C44" t="n">
-        <v>0.419717</v>
+        <v>0.4034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408345</v>
+        <v>0.397873</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.389012</v>
+        <v>0.383853</v>
       </c>
       <c r="C45" t="n">
-        <v>0.413315</v>
+        <v>0.396718</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402402</v>
+        <v>0.391642</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.379529</v>
+        <v>0.380269</v>
       </c>
       <c r="C46" t="n">
-        <v>0.407333</v>
+        <v>0.390913</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397148</v>
+        <v>0.386423</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.374163</v>
+        <v>0.375032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.401864</v>
+        <v>0.385531</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392294</v>
+        <v>0.381492</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.37221</v>
+        <v>0.368823</v>
       </c>
       <c r="C48" t="n">
-        <v>0.396839</v>
+        <v>0.380692</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388421</v>
+        <v>0.377337</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.368762</v>
+        <v>0.366108</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393114</v>
+        <v>0.377099</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385631</v>
+        <v>0.374676</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.36252</v>
+        <v>0.359798</v>
       </c>
       <c r="C50" t="n">
-        <v>0.39045</v>
+        <v>0.374746</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384587</v>
+        <v>0.373864</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.363981</v>
+        <v>0.358316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389176</v>
+        <v>0.373826</v>
       </c>
       <c r="D51" t="n">
-        <v>0.480803</v>
+        <v>0.471696</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.364726</v>
+        <v>0.359007</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390116</v>
+        <v>0.375501</v>
       </c>
       <c r="D52" t="n">
-        <v>0.47239</v>
+        <v>0.462034</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.449003</v>
+        <v>0.448407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.477796</v>
+        <v>0.462538</v>
       </c>
       <c r="D53" t="n">
-        <v>0.464034</v>
+        <v>0.452232</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441038</v>
+        <v>0.440591</v>
       </c>
       <c r="C54" t="n">
-        <v>0.46942</v>
+        <v>0.453152</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456201</v>
+        <v>0.443596</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.433672</v>
+        <v>0.433201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.460819</v>
+        <v>0.44411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448605</v>
+        <v>0.435249</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.426646</v>
+        <v>0.425884</v>
       </c>
       <c r="C56" t="n">
-        <v>0.452671</v>
+        <v>0.436192</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441514</v>
+        <v>0.427474</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.419658</v>
+        <v>0.419239</v>
       </c>
       <c r="C57" t="n">
-        <v>0.445624</v>
+        <v>0.428579</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434833</v>
+        <v>0.420339</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.413378</v>
+        <v>0.412832</v>
       </c>
       <c r="C58" t="n">
-        <v>0.43938</v>
+        <v>0.421719</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428682</v>
+        <v>0.413508</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407222</v>
+        <v>0.406955</v>
       </c>
       <c r="C59" t="n">
-        <v>0.43235</v>
+        <v>0.41525</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422993</v>
+        <v>0.407378</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.401769</v>
+        <v>0.401351</v>
       </c>
       <c r="C60" t="n">
-        <v>0.426176</v>
+        <v>0.408958</v>
       </c>
       <c r="D60" t="n">
-        <v>0.41771</v>
+        <v>0.401806</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.396375</v>
+        <v>0.39626</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422058</v>
+        <v>0.403447</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413092</v>
+        <v>0.397207</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3918</v>
+        <v>0.391909</v>
       </c>
       <c r="C62" t="n">
-        <v>0.416747</v>
+        <v>0.399048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409208</v>
+        <v>0.393228</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.387768</v>
+        <v>0.388002</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413412</v>
+        <v>0.395835</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406483</v>
+        <v>0.390749</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.384796</v>
+        <v>0.385178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.410424</v>
+        <v>0.392448</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405224</v>
+        <v>0.389966</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.383172</v>
+        <v>0.383511</v>
       </c>
       <c r="C65" t="n">
-        <v>0.410032</v>
+        <v>0.392238</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405932</v>
+        <v>0.391689</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.383518</v>
+        <v>0.383715</v>
       </c>
       <c r="C66" t="n">
-        <v>0.410567</v>
+        <v>0.393088</v>
       </c>
       <c r="D66" t="n">
-        <v>0.495954</v>
+        <v>0.481914</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.471029</v>
+        <v>0.473188</v>
       </c>
       <c r="C67" t="n">
-        <v>0.499339</v>
+        <v>0.484377</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487163</v>
+        <v>0.472069</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.462803</v>
+        <v>0.465142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.490694</v>
+        <v>0.475239</v>
       </c>
       <c r="D68" t="n">
-        <v>0.479061</v>
+        <v>0.46296</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.455064</v>
+        <v>0.456654</v>
       </c>
       <c r="C69" t="n">
-        <v>0.482385</v>
+        <v>0.466022</v>
       </c>
       <c r="D69" t="n">
-        <v>0.471433</v>
+        <v>0.454249</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.447511</v>
+        <v>0.448895</v>
       </c>
       <c r="C70" t="n">
-        <v>0.474302</v>
+        <v>0.457422</v>
       </c>
       <c r="D70" t="n">
-        <v>0.464012</v>
+        <v>0.446118</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.440466</v>
+        <v>0.441862</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467086</v>
+        <v>0.449108</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457146</v>
+        <v>0.43837</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.434157</v>
+        <v>0.435278</v>
       </c>
       <c r="C72" t="n">
-        <v>0.460442</v>
+        <v>0.44175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450851</v>
+        <v>0.431352</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.427817</v>
+        <v>0.429009</v>
       </c>
       <c r="C73" t="n">
-        <v>0.45395</v>
+        <v>0.434644</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444912</v>
+        <v>0.424925</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.422191</v>
+        <v>0.423247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.447928</v>
+        <v>0.428011</v>
       </c>
       <c r="D74" t="n">
-        <v>0.439548</v>
+        <v>0.419305</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.416698</v>
+        <v>0.418133</v>
       </c>
       <c r="C75" t="n">
-        <v>0.442569</v>
+        <v>0.422381</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434823</v>
+        <v>0.413875</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412179</v>
+        <v>0.41307</v>
       </c>
       <c r="C76" t="n">
-        <v>0.437844</v>
+        <v>0.417309</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430889</v>
+        <v>0.40985</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408121</v>
+        <v>0.40899</v>
       </c>
       <c r="C77" t="n">
-        <v>0.433974</v>
+        <v>0.413049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427899</v>
+        <v>0.406908</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.405018</v>
+        <v>0.405838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.431289</v>
+        <v>0.410661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42654</v>
+        <v>0.405641</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.40313</v>
+        <v>0.403764</v>
       </c>
       <c r="C79" t="n">
-        <v>0.42994</v>
+        <v>0.409046</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427128</v>
+        <v>0.407132</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.402788</v>
+        <v>0.403338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430771</v>
+        <v>0.409976</v>
       </c>
       <c r="D80" t="n">
-        <v>0.523822</v>
+        <v>0.503017</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.519139</v>
+        <v>0.513827</v>
       </c>
       <c r="C81" t="n">
-        <v>0.529639</v>
+        <v>0.507029</v>
       </c>
       <c r="D81" t="n">
-        <v>0.516142</v>
+        <v>0.494184</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.515647</v>
+        <v>0.5102989999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523022</v>
+        <v>0.49844</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508771</v>
+        <v>0.485662</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512784</v>
+        <v>0.505997</v>
       </c>
       <c r="C83" t="n">
-        <v>0.516106</v>
+        <v>0.490234</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50157</v>
+        <v>0.477504</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.50889</v>
+        <v>0.501405</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509236</v>
+        <v>0.482191</v>
       </c>
       <c r="D84" t="n">
-        <v>0.494815</v>
+        <v>0.469684</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.504238</v>
+        <v>0.496467</v>
       </c>
       <c r="C85" t="n">
-        <v>0.502359</v>
+        <v>0.474333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.488074</v>
+        <v>0.46205</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.498529</v>
+        <v>0.490664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.495985</v>
+        <v>0.466694</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481648</v>
+        <v>0.454718</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.492673</v>
+        <v>0.484566</v>
       </c>
       <c r="C87" t="n">
-        <v>0.488824</v>
+        <v>0.459548</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475508</v>
+        <v>0.447975</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.486452</v>
+        <v>0.478742</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482569</v>
+        <v>0.452514</v>
       </c>
       <c r="D88" t="n">
-        <v>0.469904</v>
+        <v>0.441764</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.479768</v>
+        <v>0.472495</v>
       </c>
       <c r="C89" t="n">
-        <v>0.476898</v>
+        <v>0.446251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.46474</v>
+        <v>0.43632</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.473632</v>
+        <v>0.466779</v>
       </c>
       <c r="C90" t="n">
-        <v>0.47204</v>
+        <v>0.440782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.460389</v>
+        <v>0.431813</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.468255</v>
+        <v>0.461601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.467527</v>
+        <v>0.436193</v>
       </c>
       <c r="D91" t="n">
-        <v>0.456878</v>
+        <v>0.428478</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.463018</v>
+        <v>0.456898</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464078</v>
+        <v>0.432492</v>
       </c>
       <c r="D92" t="n">
-        <v>0.454834</v>
+        <v>0.426612</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.45918</v>
+        <v>0.453606</v>
       </c>
       <c r="C93" t="n">
-        <v>0.461846</v>
+        <v>0.430532</v>
       </c>
       <c r="D93" t="n">
-        <v>0.454651</v>
+        <v>0.427254</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.457012</v>
+        <v>0.451638</v>
       </c>
       <c r="C94" t="n">
-        <v>0.461813</v>
+        <v>0.430453</v>
       </c>
       <c r="D94" t="n">
-        <v>0.570797</v>
+        <v>0.54064</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.568568</v>
+        <v>0.5601969999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.57152</v>
+        <v>0.539806</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5787679999999999</v>
+        <v>0.542992</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.580653</v>
+        <v>0.569311</v>
       </c>
       <c r="C96" t="n">
-        <v>0.583691</v>
+        <v>0.54511</v>
       </c>
       <c r="D96" t="n">
-        <v>0.581483</v>
+        <v>0.542741</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.585964</v>
+        <v>0.572623</v>
       </c>
       <c r="C97" t="n">
-        <v>0.588243</v>
+        <v>0.5460970000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581772</v>
+        <v>0.541305</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.588313</v>
+        <v>0.574231</v>
       </c>
       <c r="C98" t="n">
-        <v>0.589773</v>
+        <v>0.545591</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580167</v>
+        <v>0.538731</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.589069</v>
+        <v>0.5736599999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.589402</v>
+        <v>0.543527</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57787</v>
+        <v>0.535847</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.588338</v>
+        <v>0.572178</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5882270000000001</v>
+        <v>0.540992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5749840000000001</v>
+        <v>0.5327809999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.58696</v>
+        <v>0.570482</v>
       </c>
       <c r="C101" t="n">
-        <v>0.586908</v>
+        <v>0.538645</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571852</v>
+        <v>0.529864</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.584886</v>
+        <v>0.567662</v>
       </c>
       <c r="C102" t="n">
-        <v>0.584584</v>
+        <v>0.536091</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568887</v>
+        <v>0.527217</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.58291</v>
+        <v>0.5656330000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.582892</v>
+        <v>0.533886</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5658609999999999</v>
+        <v>0.524823</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5809879999999999</v>
+        <v>0.563265</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5815630000000001</v>
+        <v>0.532081</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5636100000000001</v>
+        <v>0.523165</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.578968</v>
+        <v>0.560981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.580297</v>
+        <v>0.531156</v>
       </c>
       <c r="D105" t="n">
-        <v>0.56132</v>
+        <v>0.522332</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.577702</v>
+        <v>0.559265</v>
       </c>
       <c r="C106" t="n">
-        <v>0.579477</v>
+        <v>0.530971</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5601159999999999</v>
+        <v>0.522696</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.576477</v>
+        <v>0.558024</v>
       </c>
       <c r="C107" t="n">
-        <v>0.579146</v>
+        <v>0.532119</v>
       </c>
       <c r="D107" t="n">
-        <v>0.560511</v>
+        <v>0.524392</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.576105</v>
+        <v>0.557856</v>
       </c>
       <c r="C108" t="n">
-        <v>0.580178</v>
+        <v>0.534901</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7493069999999999</v>
+        <v>0.7011540000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.577636</v>
+        <v>0.557555</v>
       </c>
       <c r="C109" t="n">
-        <v>0.582364</v>
+        <v>0.538423</v>
       </c>
       <c r="D109" t="n">
-        <v>0.766517</v>
+        <v>0.706522</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7383189999999999</v>
+        <v>0.707809</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740749</v>
+        <v>0.682239</v>
       </c>
       <c r="D110" t="n">
-        <v>0.769729</v>
+        <v>0.7076</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.747279</v>
+        <v>0.715198</v>
       </c>
       <c r="C111" t="n">
-        <v>0.748966</v>
+        <v>0.6834170000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.775689</v>
+        <v>0.709027</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7539169999999999</v>
+        <v>0.7201419999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.756317</v>
+        <v>0.68607</v>
       </c>
       <c r="D112" t="n">
-        <v>0.779493</v>
+        <v>0.710398</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.76018</v>
+        <v>0.72455</v>
       </c>
       <c r="C113" t="n">
-        <v>0.76118</v>
+        <v>0.688658</v>
       </c>
       <c r="D113" t="n">
-        <v>0.783778</v>
+        <v>0.712409</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.765123</v>
+        <v>0.730424</v>
       </c>
       <c r="C114" t="n">
-        <v>0.766242</v>
+        <v>0.69076</v>
       </c>
       <c r="D114" t="n">
-        <v>0.785436</v>
+        <v>0.712759</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.77053</v>
+        <v>0.732914</v>
       </c>
       <c r="C115" t="n">
-        <v>0.770581</v>
+        <v>0.69275</v>
       </c>
       <c r="D115" t="n">
-        <v>0.789894</v>
+        <v>0.714405</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.774396</v>
+        <v>0.736148</v>
       </c>
       <c r="C116" t="n">
-        <v>0.776756</v>
+        <v>0.696388</v>
       </c>
       <c r="D116" t="n">
-        <v>0.793426</v>
+        <v>0.718094</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7803020000000001</v>
+        <v>0.741475</v>
       </c>
       <c r="C117" t="n">
-        <v>0.781257</v>
+        <v>0.700803</v>
       </c>
       <c r="D117" t="n">
-        <v>0.796469</v>
+        <v>0.721124</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.786073</v>
+        <v>0.743909</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7884949999999999</v>
+        <v>0.703563</v>
       </c>
       <c r="D118" t="n">
-        <v>0.802705</v>
+        <v>0.724583</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.790328</v>
+        <v>0.7472</v>
       </c>
       <c r="C119" t="n">
-        <v>0.795414</v>
+        <v>0.709564</v>
       </c>
       <c r="D119" t="n">
-        <v>0.804986</v>
+        <v>0.727067</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.79594</v>
+        <v>0.749485</v>
       </c>
       <c r="C120" t="n">
-        <v>0.800109</v>
+        <v>0.714529</v>
       </c>
       <c r="D120" t="n">
-        <v>0.808554</v>
+        <v>0.731637</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.79904</v>
+        <v>0.755452</v>
       </c>
       <c r="C121" t="n">
-        <v>0.805707</v>
+        <v>0.7202229999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.814636</v>
+        <v>0.737353</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.804446</v>
+        <v>0.759663</v>
       </c>
       <c r="C122" t="n">
-        <v>0.812155</v>
+        <v>0.729205</v>
       </c>
       <c r="D122" t="n">
-        <v>0.817644</v>
+        <v>0.7453</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.810627</v>
+        <v>0.763659</v>
       </c>
       <c r="C123" t="n">
-        <v>0.818085</v>
+        <v>0.738619</v>
       </c>
       <c r="D123" t="n">
-        <v>0.978421</v>
+        <v>0.890839</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.985957</v>
+        <v>0.9295870000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.980464</v>
+        <v>0.886228</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9875699999999999</v>
+        <v>0.890167</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.994916</v>
+        <v>0.938016</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9892069999999999</v>
+        <v>0.887828</v>
       </c>
       <c r="D125" t="n">
-        <v>0.995779</v>
+        <v>0.892024</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.00297</v>
+        <v>0.944453</v>
       </c>
       <c r="C126" t="n">
-        <v>0.996871</v>
+        <v>0.886565</v>
       </c>
       <c r="D126" t="n">
-        <v>1.00559</v>
+        <v>0.893936</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.01282</v>
+        <v>0.9499840000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00562</v>
+        <v>0.888437</v>
       </c>
       <c r="D127" t="n">
-        <v>1.01379</v>
+        <v>0.894669</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.01924</v>
+        <v>0.956086</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01462</v>
+        <v>0.889196</v>
       </c>
       <c r="D128" t="n">
-        <v>1.02179</v>
+        <v>0.897775</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02712</v>
+        <v>0.961404</v>
       </c>
       <c r="C129" t="n">
-        <v>1.02318</v>
+        <v>0.89078</v>
       </c>
       <c r="D129" t="n">
-        <v>1.03066</v>
+        <v>0.899351</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03466</v>
+        <v>0.966395</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02935</v>
+        <v>0.893316</v>
       </c>
       <c r="D130" t="n">
-        <v>1.03935</v>
+        <v>0.90306</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04131</v>
+        <v>0.972298</v>
       </c>
       <c r="C131" t="n">
-        <v>1.03723</v>
+        <v>0.897239</v>
       </c>
       <c r="D131" t="n">
-        <v>1.04623</v>
+        <v>0.907361</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04845</v>
+        <v>0.977106</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04473</v>
+        <v>0.901257</v>
       </c>
       <c r="D132" t="n">
-        <v>1.05443</v>
+        <v>0.912205</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05606</v>
+        <v>0.983466</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05154</v>
+        <v>0.907149</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06202</v>
+        <v>0.918694</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06256</v>
+        <v>0.988923</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06053</v>
+        <v>0.914064</v>
       </c>
       <c r="D134" t="n">
-        <v>1.06941</v>
+        <v>0.926738</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06967</v>
+        <v>0.994236</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06988</v>
+        <v>0.923149</v>
       </c>
       <c r="D135" t="n">
-        <v>1.0779</v>
+        <v>0.936226</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07692</v>
+        <v>1.00043</v>
       </c>
       <c r="C136" t="n">
-        <v>1.07756</v>
+        <v>0.933579</v>
       </c>
       <c r="D136" t="n">
-        <v>1.08274</v>
+        <v>0.947885</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08349</v>
+        <v>1.00646</v>
       </c>
       <c r="C137" t="n">
-        <v>1.08819</v>
+        <v>0.946373</v>
       </c>
       <c r="D137" t="n">
-        <v>1.24227</v>
+        <v>1.09574</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24708</v>
+        <v>1.16241</v>
       </c>
       <c r="C138" t="n">
-        <v>1.24378</v>
+        <v>1.09435</v>
       </c>
       <c r="D138" t="n">
-        <v>1.25192</v>
+        <v>1.0947</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25432</v>
+        <v>1.1683</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25061</v>
+        <v>1.09297</v>
       </c>
       <c r="D139" t="n">
-        <v>1.26048</v>
+        <v>1.09342</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26298</v>
+        <v>1.17527</v>
       </c>
       <c r="C140" t="n">
-        <v>1.25836</v>
+        <v>1.09055</v>
       </c>
       <c r="D140" t="n">
-        <v>1.26916</v>
+        <v>1.09246</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26973</v>
+        <v>1.18013</v>
       </c>
       <c r="C141" t="n">
-        <v>1.26678</v>
+        <v>1.08995</v>
       </c>
       <c r="D141" t="n">
-        <v>1.27716</v>
+        <v>1.09276</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27727</v>
+        <v>1.18571</v>
       </c>
       <c r="C142" t="n">
-        <v>1.27325</v>
+        <v>1.08948</v>
       </c>
       <c r="D142" t="n">
-        <v>1.28652</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.28386</v>
+        <v>1.19164</v>
       </c>
       <c r="C143" t="n">
-        <v>1.27975</v>
+        <v>1.08877</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2939</v>
+        <v>1.09459</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.362104</v>
+        <v>0.366369</v>
       </c>
       <c r="C2" t="n">
         <v>0.373269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37038</v>
+        <v>0.371159</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.353296</v>
+        <v>0.357857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366646</v>
+        <v>0.366247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36419</v>
+        <v>0.364616</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.34758</v>
+        <v>0.351791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.360572</v>
+        <v>0.360627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35884</v>
+        <v>0.359444</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.342119</v>
+        <v>0.346431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.355674</v>
+        <v>0.355481</v>
       </c>
       <c r="D5" t="n">
-        <v>0.354738</v>
+        <v>0.355359</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337528</v>
+        <v>0.341827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35225</v>
+        <v>0.351977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351995</v>
+        <v>0.352285</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.333756</v>
+        <v>0.338009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348949</v>
+        <v>0.348545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350542</v>
+        <v>0.35075</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331314</v>
+        <v>0.335565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347558</v>
+        <v>0.347371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.351315</v>
+        <v>0.351402</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.331022</v>
+        <v>0.335785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.347798</v>
+        <v>0.347607</v>
       </c>
       <c r="D9" t="n">
-        <v>0.440498</v>
+        <v>0.440517</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.422576</v>
+        <v>0.42037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.435941</v>
+        <v>0.435835</v>
       </c>
       <c r="D10" t="n">
-        <v>0.430114</v>
+        <v>0.430414</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.406687</v>
+        <v>0.411087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.425927</v>
+        <v>0.425975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.420701</v>
+        <v>0.420855</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.398098</v>
+        <v>0.402632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.416579</v>
+        <v>0.416758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411647</v>
+        <v>0.411585</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.392291</v>
+        <v>0.394162</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407689</v>
+        <v>0.40798</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403081</v>
+        <v>0.403198</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.387773</v>
+        <v>0.386147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.398971</v>
+        <v>0.399494</v>
       </c>
       <c r="D14" t="n">
-        <v>0.394754</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.380223</v>
+        <v>0.378571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391242</v>
+        <v>0.391402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387432</v>
+        <v>0.387468</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.367415</v>
+        <v>0.376689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383777</v>
+        <v>0.383812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.38029</v>
+        <v>0.380444</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.36092</v>
+        <v>0.370169</v>
       </c>
       <c r="C17" t="n">
-        <v>0.377037</v>
+        <v>0.377183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373599</v>
+        <v>0.374087</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.354634</v>
+        <v>0.363597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37037</v>
+        <v>0.370623</v>
       </c>
       <c r="D18" t="n">
-        <v>0.367769</v>
+        <v>0.368038</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.353706</v>
+        <v>0.357676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.364888</v>
+        <v>0.365103</v>
       </c>
       <c r="D19" t="n">
-        <v>0.362838</v>
+        <v>0.363368</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.348866</v>
+        <v>0.352694</v>
       </c>
       <c r="C20" t="n">
-        <v>0.359768</v>
+        <v>0.360169</v>
       </c>
       <c r="D20" t="n">
-        <v>0.35851</v>
+        <v>0.35898</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.340412</v>
+        <v>0.344592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.356425</v>
+        <v>0.356931</v>
       </c>
       <c r="D21" t="n">
-        <v>0.35661</v>
+        <v>0.356563</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.338534</v>
+        <v>0.342427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.354119</v>
+        <v>0.354353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.355511</v>
+        <v>0.355749</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.341684</v>
+        <v>0.341714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.353838</v>
+        <v>0.35391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447838</v>
+        <v>0.448195</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.433864</v>
+        <v>0.432964</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4445</v>
+        <v>0.444517</v>
       </c>
       <c r="D24" t="n">
-        <v>0.438413</v>
+        <v>0.438522</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.424307</v>
+        <v>0.427326</v>
       </c>
       <c r="C25" t="n">
-        <v>0.434909</v>
+        <v>0.434439</v>
       </c>
       <c r="D25" t="n">
-        <v>0.42861</v>
+        <v>0.429246</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.415725</v>
+        <v>0.418412</v>
       </c>
       <c r="C26" t="n">
-        <v>0.425731</v>
+        <v>0.425211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.419666</v>
+        <v>0.420254</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.407445</v>
+        <v>0.410005</v>
       </c>
       <c r="C27" t="n">
-        <v>0.415758</v>
+        <v>0.41618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.410036</v>
+        <v>0.411738</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.399165</v>
+        <v>0.401955</v>
       </c>
       <c r="C28" t="n">
-        <v>0.407293</v>
+        <v>0.40791</v>
       </c>
       <c r="D28" t="n">
-        <v>0.402016</v>
+        <v>0.403639</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.391785</v>
+        <v>0.388457</v>
       </c>
       <c r="C29" t="n">
-        <v>0.399144</v>
+        <v>0.399626</v>
       </c>
       <c r="D29" t="n">
-        <v>0.394195</v>
+        <v>0.395945</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.377472</v>
+        <v>0.387799</v>
       </c>
       <c r="C30" t="n">
-        <v>0.391647</v>
+        <v>0.392343</v>
       </c>
       <c r="D30" t="n">
-        <v>0.388048</v>
+        <v>0.388818</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.375368</v>
+        <v>0.380334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.384631</v>
+        <v>0.388009</v>
       </c>
       <c r="D31" t="n">
-        <v>0.380387</v>
+        <v>0.382296</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.364589</v>
+        <v>0.373915</v>
       </c>
       <c r="C32" t="n">
-        <v>0.378276</v>
+        <v>0.379686</v>
       </c>
       <c r="D32" t="n">
-        <v>0.374359</v>
+        <v>0.376363</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.362577</v>
+        <v>0.363458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.372786</v>
+        <v>0.373562</v>
       </c>
       <c r="D33" t="n">
-        <v>0.370186</v>
+        <v>0.371401</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.36009</v>
+        <v>0.35842</v>
       </c>
       <c r="C34" t="n">
-        <v>0.367385</v>
+        <v>0.368597</v>
       </c>
       <c r="D34" t="n">
-        <v>0.364903</v>
+        <v>0.367078</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.355383</v>
+        <v>0.354474</v>
       </c>
       <c r="C35" t="n">
-        <v>0.363431</v>
+        <v>0.364685</v>
       </c>
       <c r="D35" t="n">
-        <v>0.361798</v>
+        <v>0.364088</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.346844</v>
+        <v>0.351408</v>
       </c>
       <c r="C36" t="n">
-        <v>0.360688</v>
+        <v>0.362175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3608</v>
+        <v>0.363185</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.35118</v>
+        <v>0.350274</v>
       </c>
       <c r="C37" t="n">
-        <v>0.35999</v>
+        <v>0.361515</v>
       </c>
       <c r="D37" t="n">
-        <v>0.45558</v>
+        <v>0.457515</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.437497</v>
+        <v>0.440661</v>
       </c>
       <c r="C38" t="n">
-        <v>0.453197</v>
+        <v>0.455275</v>
       </c>
       <c r="D38" t="n">
-        <v>0.446548</v>
+        <v>0.44821</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428957</v>
+        <v>0.432043</v>
       </c>
       <c r="C39" t="n">
-        <v>0.444072</v>
+        <v>0.44605</v>
       </c>
       <c r="D39" t="n">
-        <v>0.437138</v>
+        <v>0.43898</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.421488</v>
+        <v>0.423574</v>
       </c>
       <c r="C40" t="n">
-        <v>0.435399</v>
+        <v>0.43692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.428377</v>
+        <v>0.430874</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.413713</v>
+        <v>0.418941</v>
       </c>
       <c r="C41" t="n">
-        <v>0.426227</v>
+        <v>0.428237</v>
       </c>
       <c r="D41" t="n">
-        <v>0.419575</v>
+        <v>0.421991</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.406231</v>
+        <v>0.409618</v>
       </c>
       <c r="C42" t="n">
-        <v>0.418153</v>
+        <v>0.420298</v>
       </c>
       <c r="D42" t="n">
-        <v>0.411897</v>
+        <v>0.414316</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.39463</v>
+        <v>0.401828</v>
       </c>
       <c r="C43" t="n">
-        <v>0.410483</v>
+        <v>0.412706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.405175</v>
+        <v>0.40709</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.392299</v>
+        <v>0.397062</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4034</v>
+        <v>0.405622</v>
       </c>
       <c r="D44" t="n">
-        <v>0.397873</v>
+        <v>0.400391</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.383853</v>
+        <v>0.390266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.396718</v>
+        <v>0.399273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.391642</v>
+        <v>0.394152</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.380269</v>
+        <v>0.383676</v>
       </c>
       <c r="C46" t="n">
-        <v>0.390913</v>
+        <v>0.393415</v>
       </c>
       <c r="D46" t="n">
-        <v>0.386423</v>
+        <v>0.388772</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.375032</v>
+        <v>0.377236</v>
       </c>
       <c r="C47" t="n">
-        <v>0.385531</v>
+        <v>0.388047</v>
       </c>
       <c r="D47" t="n">
-        <v>0.381492</v>
+        <v>0.383851</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.368823</v>
+        <v>0.371797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.380692</v>
+        <v>0.383568</v>
       </c>
       <c r="D48" t="n">
-        <v>0.377337</v>
+        <v>0.380058</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.366108</v>
+        <v>0.370051</v>
       </c>
       <c r="C49" t="n">
-        <v>0.377099</v>
+        <v>0.380045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.374676</v>
+        <v>0.377381</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.359798</v>
+        <v>0.365635</v>
       </c>
       <c r="C50" t="n">
-        <v>0.374746</v>
+        <v>0.377798</v>
       </c>
       <c r="D50" t="n">
-        <v>0.373864</v>
+        <v>0.376687</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.358316</v>
+        <v>0.365287</v>
       </c>
       <c r="C51" t="n">
-        <v>0.373826</v>
+        <v>0.37709</v>
       </c>
       <c r="D51" t="n">
-        <v>0.471696</v>
+        <v>0.473994</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.359007</v>
+        <v>0.363986</v>
       </c>
       <c r="C52" t="n">
-        <v>0.375501</v>
+        <v>0.379065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.462034</v>
+        <v>0.464322</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.448407</v>
+        <v>0.450016</v>
       </c>
       <c r="C53" t="n">
-        <v>0.462538</v>
+        <v>0.464788</v>
       </c>
       <c r="D53" t="n">
-        <v>0.452232</v>
+        <v>0.455035</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.440591</v>
+        <v>0.4422</v>
       </c>
       <c r="C54" t="n">
-        <v>0.453152</v>
+        <v>0.455558</v>
       </c>
       <c r="D54" t="n">
-        <v>0.443596</v>
+        <v>0.447574</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.433201</v>
+        <v>0.434428</v>
       </c>
       <c r="C55" t="n">
-        <v>0.44411</v>
+        <v>0.447118</v>
       </c>
       <c r="D55" t="n">
-        <v>0.435249</v>
+        <v>0.439232</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.425884</v>
+        <v>0.427106</v>
       </c>
       <c r="C56" t="n">
-        <v>0.436192</v>
+        <v>0.438829</v>
       </c>
       <c r="D56" t="n">
-        <v>0.427474</v>
+        <v>0.430159</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.419239</v>
+        <v>0.420234</v>
       </c>
       <c r="C57" t="n">
-        <v>0.428579</v>
+        <v>0.431032</v>
       </c>
       <c r="D57" t="n">
-        <v>0.420339</v>
+        <v>0.422855</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.412832</v>
+        <v>0.413719</v>
       </c>
       <c r="C58" t="n">
-        <v>0.421719</v>
+        <v>0.424118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.413508</v>
+        <v>0.41619</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.406955</v>
+        <v>0.408048</v>
       </c>
       <c r="C59" t="n">
-        <v>0.41525</v>
+        <v>0.417491</v>
       </c>
       <c r="D59" t="n">
-        <v>0.407378</v>
+        <v>0.410087</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.401351</v>
+        <v>0.402021</v>
       </c>
       <c r="C60" t="n">
-        <v>0.408958</v>
+        <v>0.41121</v>
       </c>
       <c r="D60" t="n">
-        <v>0.401806</v>
+        <v>0.404494</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.39626</v>
+        <v>0.396956</v>
       </c>
       <c r="C61" t="n">
-        <v>0.403447</v>
+        <v>0.405827</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397207</v>
+        <v>0.400774</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.391909</v>
+        <v>0.392286</v>
       </c>
       <c r="C62" t="n">
-        <v>0.399048</v>
+        <v>0.401447</v>
       </c>
       <c r="D62" t="n">
-        <v>0.393228</v>
+        <v>0.396552</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388002</v>
+        <v>0.388301</v>
       </c>
       <c r="C63" t="n">
-        <v>0.395835</v>
+        <v>0.398047</v>
       </c>
       <c r="D63" t="n">
-        <v>0.390749</v>
+        <v>0.394423</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.385178</v>
+        <v>0.385384</v>
       </c>
       <c r="C64" t="n">
-        <v>0.392448</v>
+        <v>0.395471</v>
       </c>
       <c r="D64" t="n">
-        <v>0.389966</v>
+        <v>0.392761</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.383511</v>
+        <v>0.383621</v>
       </c>
       <c r="C65" t="n">
-        <v>0.392238</v>
+        <v>0.394293</v>
       </c>
       <c r="D65" t="n">
-        <v>0.391689</v>
+        <v>0.394695</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.383715</v>
+        <v>0.383721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.393088</v>
+        <v>0.397257</v>
       </c>
       <c r="D66" t="n">
-        <v>0.481914</v>
+        <v>0.484033</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.473188</v>
+        <v>0.471511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.484377</v>
+        <v>0.487145</v>
       </c>
       <c r="D67" t="n">
-        <v>0.472069</v>
+        <v>0.4737</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.465142</v>
+        <v>0.46343</v>
       </c>
       <c r="C68" t="n">
-        <v>0.475239</v>
+        <v>0.47716</v>
       </c>
       <c r="D68" t="n">
-        <v>0.46296</v>
+        <v>0.464448</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.456654</v>
+        <v>0.455683</v>
       </c>
       <c r="C69" t="n">
-        <v>0.466022</v>
+        <v>0.46806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.454249</v>
+        <v>0.45587</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.448895</v>
+        <v>0.449067</v>
       </c>
       <c r="C70" t="n">
-        <v>0.457422</v>
+        <v>0.459526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.446118</v>
+        <v>0.448059</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.441862</v>
+        <v>0.442396</v>
       </c>
       <c r="C71" t="n">
-        <v>0.449108</v>
+        <v>0.451184</v>
       </c>
       <c r="D71" t="n">
-        <v>0.43837</v>
+        <v>0.44001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.435278</v>
+        <v>0.436197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.44175</v>
+        <v>0.443585</v>
       </c>
       <c r="D72" t="n">
-        <v>0.431352</v>
+        <v>0.43312</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.429009</v>
+        <v>0.430058</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434644</v>
+        <v>0.437085</v>
       </c>
       <c r="D73" t="n">
-        <v>0.424925</v>
+        <v>0.426649</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.423247</v>
+        <v>0.424198</v>
       </c>
       <c r="C74" t="n">
-        <v>0.428011</v>
+        <v>0.430025</v>
       </c>
       <c r="D74" t="n">
-        <v>0.419305</v>
+        <v>0.420716</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.418133</v>
+        <v>0.419075</v>
       </c>
       <c r="C75" t="n">
-        <v>0.422381</v>
+        <v>0.424153</v>
       </c>
       <c r="D75" t="n">
-        <v>0.413875</v>
+        <v>0.415785</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.41307</v>
+        <v>0.414169</v>
       </c>
       <c r="C76" t="n">
-        <v>0.417309</v>
+        <v>0.419459</v>
       </c>
       <c r="D76" t="n">
-        <v>0.40985</v>
+        <v>0.411804</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.40899</v>
+        <v>0.410121</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413049</v>
+        <v>0.415041</v>
       </c>
       <c r="D77" t="n">
-        <v>0.406908</v>
+        <v>0.408858</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.405838</v>
+        <v>0.406915</v>
       </c>
       <c r="C78" t="n">
-        <v>0.410661</v>
+        <v>0.412809</v>
       </c>
       <c r="D78" t="n">
-        <v>0.405641</v>
+        <v>0.407791</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.403764</v>
+        <v>0.404754</v>
       </c>
       <c r="C79" t="n">
-        <v>0.409046</v>
+        <v>0.410728</v>
       </c>
       <c r="D79" t="n">
-        <v>0.407132</v>
+        <v>0.409314</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.403338</v>
+        <v>0.404632</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409976</v>
+        <v>0.412651</v>
       </c>
       <c r="D80" t="n">
-        <v>0.503017</v>
+        <v>0.505417</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.513827</v>
+        <v>0.515846</v>
       </c>
       <c r="C81" t="n">
-        <v>0.507029</v>
+        <v>0.510045</v>
       </c>
       <c r="D81" t="n">
-        <v>0.494184</v>
+        <v>0.496243</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5102989999999999</v>
+        <v>0.512191</v>
       </c>
       <c r="C82" t="n">
-        <v>0.49844</v>
+        <v>0.501183</v>
       </c>
       <c r="D82" t="n">
-        <v>0.485662</v>
+        <v>0.487481</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.505997</v>
+        <v>0.508153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.490234</v>
+        <v>0.492564</v>
       </c>
       <c r="D83" t="n">
-        <v>0.477504</v>
+        <v>0.479189</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501405</v>
+        <v>0.50391</v>
       </c>
       <c r="C84" t="n">
-        <v>0.482191</v>
+        <v>0.48418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.469684</v>
+        <v>0.470991</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.496467</v>
+        <v>0.498678</v>
       </c>
       <c r="C85" t="n">
-        <v>0.474333</v>
+        <v>0.476149</v>
       </c>
       <c r="D85" t="n">
-        <v>0.46205</v>
+        <v>0.46322</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.490664</v>
+        <v>0.493031</v>
       </c>
       <c r="C86" t="n">
-        <v>0.466694</v>
+        <v>0.46837</v>
       </c>
       <c r="D86" t="n">
-        <v>0.454718</v>
+        <v>0.455775</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.484566</v>
+        <v>0.486993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.459548</v>
+        <v>0.461117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.447975</v>
+        <v>0.448938</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.478742</v>
+        <v>0.48079</v>
       </c>
       <c r="C88" t="n">
-        <v>0.452514</v>
+        <v>0.454355</v>
       </c>
       <c r="D88" t="n">
-        <v>0.441764</v>
+        <v>0.442597</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.472495</v>
+        <v>0.474676</v>
       </c>
       <c r="C89" t="n">
-        <v>0.446251</v>
+        <v>0.448105</v>
       </c>
       <c r="D89" t="n">
-        <v>0.43632</v>
+        <v>0.437047</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.466779</v>
+        <v>0.468844</v>
       </c>
       <c r="C90" t="n">
-        <v>0.440782</v>
+        <v>0.442415</v>
       </c>
       <c r="D90" t="n">
-        <v>0.431813</v>
+        <v>0.432384</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461601</v>
+        <v>0.46323</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436193</v>
+        <v>0.437579</v>
       </c>
       <c r="D91" t="n">
-        <v>0.428478</v>
+        <v>0.428959</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.456898</v>
+        <v>0.458811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.432492</v>
+        <v>0.433944</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426612</v>
+        <v>0.427049</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.453606</v>
+        <v>0.455159</v>
       </c>
       <c r="C93" t="n">
-        <v>0.430532</v>
+        <v>0.43178</v>
       </c>
       <c r="D93" t="n">
-        <v>0.427254</v>
+        <v>0.427616</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.451638</v>
+        <v>0.453284</v>
       </c>
       <c r="C94" t="n">
-        <v>0.430453</v>
+        <v>0.432141</v>
       </c>
       <c r="D94" t="n">
-        <v>0.54064</v>
+        <v>0.540876</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5601969999999999</v>
+        <v>0.561209</v>
       </c>
       <c r="C95" t="n">
-        <v>0.539806</v>
+        <v>0.5419349999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.542992</v>
+        <v>0.542844</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569311</v>
+        <v>0.570221</v>
       </c>
       <c r="C96" t="n">
-        <v>0.54511</v>
+        <v>0.546724</v>
       </c>
       <c r="D96" t="n">
-        <v>0.542741</v>
+        <v>0.542566</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.572623</v>
+        <v>0.573916</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5460970000000001</v>
+        <v>0.5472129999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.541305</v>
+        <v>0.540747</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.574231</v>
+        <v>0.575291</v>
       </c>
       <c r="C98" t="n">
-        <v>0.545591</v>
+        <v>0.545905</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538731</v>
+        <v>0.537982</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5736599999999999</v>
+        <v>0.574769</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543527</v>
+        <v>0.543835</v>
       </c>
       <c r="D99" t="n">
-        <v>0.535847</v>
+        <v>0.534738</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.572178</v>
+        <v>0.573681</v>
       </c>
       <c r="C100" t="n">
-        <v>0.540992</v>
+        <v>0.5410970000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5327809999999999</v>
+        <v>0.531075</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.570482</v>
+        <v>0.57124</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538645</v>
+        <v>0.538008</v>
       </c>
       <c r="D101" t="n">
-        <v>0.529864</v>
+        <v>0.527875</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.567662</v>
+        <v>0.568993</v>
       </c>
       <c r="C102" t="n">
-        <v>0.536091</v>
+        <v>0.535123</v>
       </c>
       <c r="D102" t="n">
-        <v>0.527217</v>
+        <v>0.524675</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5656330000000001</v>
+        <v>0.5663049999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.533886</v>
+        <v>0.532561</v>
       </c>
       <c r="D103" t="n">
-        <v>0.524823</v>
+        <v>0.522015</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.563265</v>
+        <v>0.564157</v>
       </c>
       <c r="C104" t="n">
-        <v>0.532081</v>
+        <v>0.530473</v>
       </c>
       <c r="D104" t="n">
-        <v>0.523165</v>
+        <v>0.519827</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.560981</v>
+        <v>0.561741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.531156</v>
+        <v>0.528988</v>
       </c>
       <c r="D105" t="n">
-        <v>0.522332</v>
+        <v>0.518581</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.559265</v>
+        <v>0.559907</v>
       </c>
       <c r="C106" t="n">
-        <v>0.530971</v>
+        <v>0.528491</v>
       </c>
       <c r="D106" t="n">
-        <v>0.522696</v>
+        <v>0.518429</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558024</v>
+        <v>0.5584789999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.532119</v>
+        <v>0.529197</v>
       </c>
       <c r="D107" t="n">
-        <v>0.524392</v>
+        <v>0.519962</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.557856</v>
+        <v>0.558212</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534901</v>
+        <v>0.531397</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7011540000000001</v>
+        <v>0.708676</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.557555</v>
+        <v>0.559024</v>
       </c>
       <c r="C109" t="n">
-        <v>0.538423</v>
+        <v>0.5381320000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.706522</v>
+        <v>0.713332</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.707809</v>
+        <v>0.713307</v>
       </c>
       <c r="C110" t="n">
-        <v>0.682239</v>
+        <v>0.686138</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7076</v>
+        <v>0.7153040000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.715198</v>
+        <v>0.7201340000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6834170000000001</v>
+        <v>0.687229</v>
       </c>
       <c r="D111" t="n">
-        <v>0.709027</v>
+        <v>0.71406</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7201419999999999</v>
+        <v>0.725094</v>
       </c>
       <c r="C112" t="n">
-        <v>0.68607</v>
+        <v>0.688545</v>
       </c>
       <c r="D112" t="n">
-        <v>0.710398</v>
+        <v>0.714331</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72455</v>
+        <v>0.729484</v>
       </c>
       <c r="C113" t="n">
-        <v>0.688658</v>
+        <v>0.690408</v>
       </c>
       <c r="D113" t="n">
-        <v>0.712409</v>
+        <v>0.715801</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.730424</v>
+        <v>0.733409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.69076</v>
+        <v>0.690988</v>
       </c>
       <c r="D114" t="n">
-        <v>0.712759</v>
+        <v>0.715171</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.732914</v>
+        <v>0.736986</v>
       </c>
       <c r="C115" t="n">
-        <v>0.69275</v>
+        <v>0.691981</v>
       </c>
       <c r="D115" t="n">
-        <v>0.714405</v>
+        <v>0.716988</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.736148</v>
+        <v>0.741264</v>
       </c>
       <c r="C116" t="n">
-        <v>0.696388</v>
+        <v>0.695376</v>
       </c>
       <c r="D116" t="n">
-        <v>0.718094</v>
+        <v>0.718239</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.741475</v>
+        <v>0.743795</v>
       </c>
       <c r="C117" t="n">
-        <v>0.700803</v>
+        <v>0.698438</v>
       </c>
       <c r="D117" t="n">
-        <v>0.721124</v>
+        <v>0.7206090000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.743909</v>
+        <v>0.748023</v>
       </c>
       <c r="C118" t="n">
-        <v>0.703563</v>
+        <v>0.702927</v>
       </c>
       <c r="D118" t="n">
-        <v>0.724583</v>
+        <v>0.725786</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7472</v>
+        <v>0.750961</v>
       </c>
       <c r="C119" t="n">
-        <v>0.709564</v>
+        <v>0.708866</v>
       </c>
       <c r="D119" t="n">
-        <v>0.727067</v>
+        <v>0.729187</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.749485</v>
+        <v>0.754952</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714529</v>
+        <v>0.714759</v>
       </c>
       <c r="D120" t="n">
-        <v>0.731637</v>
+        <v>0.734544</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.755452</v>
+        <v>0.757787</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7202229999999999</v>
+        <v>0.721162</v>
       </c>
       <c r="D121" t="n">
-        <v>0.737353</v>
+        <v>0.7398130000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.759663</v>
+        <v>0.762145</v>
       </c>
       <c r="C122" t="n">
-        <v>0.729205</v>
+        <v>0.729201</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7453</v>
+        <v>0.747266</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.763659</v>
+        <v>0.766778</v>
       </c>
       <c r="C123" t="n">
-        <v>0.738619</v>
+        <v>0.738105</v>
       </c>
       <c r="D123" t="n">
-        <v>0.890839</v>
+        <v>0.8935340000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9295870000000001</v>
+        <v>0.937376</v>
       </c>
       <c r="C124" t="n">
-        <v>0.886228</v>
+        <v>0.889281</v>
       </c>
       <c r="D124" t="n">
-        <v>0.890167</v>
+        <v>0.8946229999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.938016</v>
+        <v>0.94375</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887828</v>
+        <v>0.887956</v>
       </c>
       <c r="D125" t="n">
-        <v>0.892024</v>
+        <v>0.894728</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.944453</v>
+        <v>0.949977</v>
       </c>
       <c r="C126" t="n">
-        <v>0.886565</v>
+        <v>0.8882060000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.893936</v>
+        <v>0.8950939999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9499840000000001</v>
+        <v>0.95631</v>
       </c>
       <c r="C127" t="n">
-        <v>0.888437</v>
+        <v>0.888755</v>
       </c>
       <c r="D127" t="n">
-        <v>0.894669</v>
+        <v>0.896525</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.956086</v>
+        <v>0.961095</v>
       </c>
       <c r="C128" t="n">
-        <v>0.889196</v>
+        <v>0.890221</v>
       </c>
       <c r="D128" t="n">
-        <v>0.897775</v>
+        <v>0.898541</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.961404</v>
+        <v>0.96698</v>
       </c>
       <c r="C129" t="n">
-        <v>0.89078</v>
+        <v>0.890975</v>
       </c>
       <c r="D129" t="n">
-        <v>0.899351</v>
+        <v>0.900162</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.966395</v>
+        <v>0.9721030000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.893316</v>
+        <v>0.894123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.90306</v>
+        <v>0.903965</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.972298</v>
+        <v>0.977167</v>
       </c>
       <c r="C131" t="n">
-        <v>0.897239</v>
+        <v>0.897448</v>
       </c>
       <c r="D131" t="n">
-        <v>0.907361</v>
+        <v>0.9077460000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.977106</v>
+        <v>0.982558</v>
       </c>
       <c r="C132" t="n">
-        <v>0.901257</v>
+        <v>0.901285</v>
       </c>
       <c r="D132" t="n">
-        <v>0.912205</v>
+        <v>0.912445</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.983466</v>
+        <v>0.987077</v>
       </c>
       <c r="C133" t="n">
-        <v>0.907149</v>
+        <v>0.907276</v>
       </c>
       <c r="D133" t="n">
-        <v>0.918694</v>
+        <v>0.919161</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.988923</v>
+        <v>0.9930330000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.914064</v>
+        <v>0.9144330000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.926738</v>
+        <v>0.926826</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.994236</v>
+        <v>0.997973</v>
       </c>
       <c r="C135" t="n">
-        <v>0.923149</v>
+        <v>0.921486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.936226</v>
+        <v>0.936014</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00043</v>
+        <v>1.00337</v>
       </c>
       <c r="C136" t="n">
-        <v>0.933579</v>
+        <v>0.93404</v>
       </c>
       <c r="D136" t="n">
-        <v>0.947885</v>
+        <v>0.946558</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.00646</v>
+        <v>1.00928</v>
       </c>
       <c r="C137" t="n">
-        <v>0.946373</v>
+        <v>0.945101</v>
       </c>
       <c r="D137" t="n">
-        <v>1.09574</v>
+        <v>1.09481</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16241</v>
+        <v>1.16724</v>
       </c>
       <c r="C138" t="n">
-        <v>1.09435</v>
+        <v>1.0955</v>
       </c>
       <c r="D138" t="n">
-        <v>1.0947</v>
+        <v>1.09341</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1683</v>
+        <v>1.17263</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09297</v>
+        <v>1.09195</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09342</v>
+        <v>1.09271</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17527</v>
+        <v>1.17778</v>
       </c>
       <c r="C140" t="n">
-        <v>1.09055</v>
+        <v>1.09056</v>
       </c>
       <c r="D140" t="n">
-        <v>1.09246</v>
+        <v>1.08991</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18013</v>
+        <v>1.18338</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08995</v>
+        <v>1.08831</v>
       </c>
       <c r="D141" t="n">
-        <v>1.09276</v>
+        <v>1.09029</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.18571</v>
+        <v>1.18883</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08948</v>
+        <v>1.08738</v>
       </c>
       <c r="D142" t="n">
-        <v>1.093</v>
+        <v>1.09099</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19164</v>
+        <v>1.19456</v>
       </c>
       <c r="C143" t="n">
-        <v>1.08877</v>
+        <v>1.08704</v>
       </c>
       <c r="D143" t="n">
-        <v>1.09459</v>
+        <v>1.09161</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.366369</v>
+        <v>0.370219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.373269</v>
+        <v>0.374236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.371159</v>
+        <v>0.371773</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.357857</v>
+        <v>0.362701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.366247</v>
+        <v>0.367162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.364616</v>
+        <v>0.365222</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351791</v>
+        <v>0.356361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.360627</v>
+        <v>0.3614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359444</v>
+        <v>0.359981</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.346431</v>
+        <v>0.350581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.355481</v>
+        <v>0.355894</v>
       </c>
       <c r="D5" t="n">
-        <v>0.355359</v>
+        <v>0.355568</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.341827</v>
+        <v>0.345958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.351977</v>
+        <v>0.352626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352285</v>
+        <v>0.352813</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.338009</v>
+        <v>0.341833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348545</v>
+        <v>0.348739</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35075</v>
+        <v>0.351068</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.335565</v>
+        <v>0.338947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347371</v>
+        <v>0.348132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.351402</v>
+        <v>0.351836</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.335785</v>
+        <v>0.338482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.347607</v>
+        <v>0.348079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.440517</v>
+        <v>0.440999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42037</v>
+        <v>0.426301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.435835</v>
+        <v>0.436055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.430414</v>
+        <v>0.430641</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.411087</v>
+        <v>0.413377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.425975</v>
+        <v>0.426646</v>
       </c>
       <c r="D11" t="n">
-        <v>0.420855</v>
+        <v>0.421158</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.402632</v>
+        <v>0.404623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.416758</v>
+        <v>0.417626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411585</v>
+        <v>0.411916</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.394162</v>
+        <v>0.400337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.40798</v>
+        <v>0.408774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403198</v>
+        <v>0.403203</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.386147</v>
+        <v>0.387903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.399494</v>
+        <v>0.399967</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3947</v>
+        <v>0.395122</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378571</v>
+        <v>0.383821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391402</v>
+        <v>0.391945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387468</v>
+        <v>0.387589</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.376689</v>
+        <v>0.373126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383812</v>
+        <v>0.384445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.380444</v>
+        <v>0.380105</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.370169</v>
+        <v>0.366282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.377183</v>
+        <v>0.376816</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374087</v>
+        <v>0.373745</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.363597</v>
+        <v>0.361028</v>
       </c>
       <c r="C18" t="n">
-        <v>0.370623</v>
+        <v>0.370442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.368038</v>
+        <v>0.367775</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.357676</v>
+        <v>0.354314</v>
       </c>
       <c r="C19" t="n">
-        <v>0.365103</v>
+        <v>0.364684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.363368</v>
+        <v>0.362981</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.352694</v>
+        <v>0.351208</v>
       </c>
       <c r="C20" t="n">
-        <v>0.360169</v>
+        <v>0.36096</v>
       </c>
       <c r="D20" t="n">
-        <v>0.35898</v>
+        <v>0.359173</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.344592</v>
+        <v>0.349978</v>
       </c>
       <c r="C21" t="n">
-        <v>0.356931</v>
+        <v>0.357646</v>
       </c>
       <c r="D21" t="n">
-        <v>0.356563</v>
+        <v>0.356417</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.342427</v>
+        <v>0.347297</v>
       </c>
       <c r="C22" t="n">
-        <v>0.354353</v>
+        <v>0.35454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.355749</v>
+        <v>0.355838</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.341714</v>
+        <v>0.345214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.35391</v>
+        <v>0.354978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448195</v>
+        <v>0.447962</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.432964</v>
+        <v>0.432504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.444517</v>
+        <v>0.452246</v>
       </c>
       <c r="D24" t="n">
-        <v>0.438522</v>
+        <v>0.438622</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.427326</v>
+        <v>0.430266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.434439</v>
+        <v>0.441567</v>
       </c>
       <c r="D25" t="n">
-        <v>0.429246</v>
+        <v>0.428966</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.418412</v>
+        <v>0.415502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.425211</v>
+        <v>0.432133</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420254</v>
+        <v>0.420472</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.410005</v>
+        <v>0.413364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.41618</v>
+        <v>0.423903</v>
       </c>
       <c r="D27" t="n">
-        <v>0.411738</v>
+        <v>0.412411</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.401955</v>
+        <v>0.404695</v>
       </c>
       <c r="C28" t="n">
-        <v>0.40791</v>
+        <v>0.415389</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403639</v>
+        <v>0.404533</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.388457</v>
+        <v>0.39226</v>
       </c>
       <c r="C29" t="n">
-        <v>0.399626</v>
+        <v>0.40735</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395945</v>
+        <v>0.397083</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.387799</v>
+        <v>0.384595</v>
       </c>
       <c r="C30" t="n">
-        <v>0.392343</v>
+        <v>0.398404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.388818</v>
+        <v>0.389693</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380334</v>
+        <v>0.380977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.388009</v>
+        <v>0.391904</v>
       </c>
       <c r="D31" t="n">
-        <v>0.382296</v>
+        <v>0.383889</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.373915</v>
+        <v>0.377325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.379686</v>
+        <v>0.384999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.376363</v>
+        <v>0.378251</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.363458</v>
+        <v>0.366664</v>
       </c>
       <c r="C33" t="n">
-        <v>0.373562</v>
+        <v>0.380012</v>
       </c>
       <c r="D33" t="n">
-        <v>0.371401</v>
+        <v>0.373388</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.35842</v>
+        <v>0.366476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.368597</v>
+        <v>0.374214</v>
       </c>
       <c r="D34" t="n">
-        <v>0.367078</v>
+        <v>0.368858</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.354474</v>
+        <v>0.3572</v>
       </c>
       <c r="C35" t="n">
-        <v>0.364685</v>
+        <v>0.370223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364088</v>
+        <v>0.366188</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.351408</v>
+        <v>0.354815</v>
       </c>
       <c r="C36" t="n">
-        <v>0.362175</v>
+        <v>0.367583</v>
       </c>
       <c r="D36" t="n">
-        <v>0.363185</v>
+        <v>0.365362</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.350274</v>
+        <v>0.353665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.361515</v>
+        <v>0.366959</v>
       </c>
       <c r="D37" t="n">
-        <v>0.457515</v>
+        <v>0.460353</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.440661</v>
+        <v>0.438275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.455275</v>
+        <v>0.463972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.44821</v>
+        <v>0.45108</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.432043</v>
+        <v>0.434101</v>
       </c>
       <c r="C39" t="n">
-        <v>0.44605</v>
+        <v>0.454729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.43898</v>
+        <v>0.441828</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.423574</v>
+        <v>0.428073</v>
       </c>
       <c r="C40" t="n">
-        <v>0.43692</v>
+        <v>0.445058</v>
       </c>
       <c r="D40" t="n">
-        <v>0.430874</v>
+        <v>0.433078</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.418941</v>
+        <v>0.414694</v>
       </c>
       <c r="C41" t="n">
-        <v>0.428237</v>
+        <v>0.436271</v>
       </c>
       <c r="D41" t="n">
-        <v>0.421991</v>
+        <v>0.424006</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.409618</v>
+        <v>0.412509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.420298</v>
+        <v>0.428085</v>
       </c>
       <c r="D42" t="n">
-        <v>0.414316</v>
+        <v>0.416682</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.401828</v>
+        <v>0.404774</v>
       </c>
       <c r="C43" t="n">
-        <v>0.412706</v>
+        <v>0.419551</v>
       </c>
       <c r="D43" t="n">
-        <v>0.40709</v>
+        <v>0.409596</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.397062</v>
+        <v>0.397342</v>
       </c>
       <c r="C44" t="n">
-        <v>0.405622</v>
+        <v>0.411568</v>
       </c>
       <c r="D44" t="n">
-        <v>0.400391</v>
+        <v>0.402576</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.390266</v>
+        <v>0.391784</v>
       </c>
       <c r="C45" t="n">
-        <v>0.399273</v>
+        <v>0.405652</v>
       </c>
       <c r="D45" t="n">
-        <v>0.394152</v>
+        <v>0.396668</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.383676</v>
+        <v>0.385866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.393415</v>
+        <v>0.39875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.388772</v>
+        <v>0.390751</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.377236</v>
+        <v>0.37628</v>
       </c>
       <c r="C47" t="n">
-        <v>0.388047</v>
+        <v>0.392958</v>
       </c>
       <c r="D47" t="n">
-        <v>0.383851</v>
+        <v>0.386287</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.371797</v>
+        <v>0.372974</v>
       </c>
       <c r="C48" t="n">
-        <v>0.383568</v>
+        <v>0.388008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.380058</v>
+        <v>0.381483</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.370051</v>
+        <v>0.371411</v>
       </c>
       <c r="C49" t="n">
-        <v>0.380045</v>
+        <v>0.384468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.377381</v>
+        <v>0.379745</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365635</v>
+        <v>0.368288</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377798</v>
+        <v>0.381829</v>
       </c>
       <c r="D50" t="n">
-        <v>0.376687</v>
+        <v>0.378546</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.365287</v>
+        <v>0.366485</v>
       </c>
       <c r="C51" t="n">
-        <v>0.37709</v>
+        <v>0.380787</v>
       </c>
       <c r="D51" t="n">
-        <v>0.473994</v>
+        <v>0.476229</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363986</v>
+        <v>0.365929</v>
       </c>
       <c r="C52" t="n">
-        <v>0.379065</v>
+        <v>0.382733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.464322</v>
+        <v>0.466176</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.450016</v>
+        <v>0.452585</v>
       </c>
       <c r="C53" t="n">
-        <v>0.464788</v>
+        <v>0.469482</v>
       </c>
       <c r="D53" t="n">
-        <v>0.455035</v>
+        <v>0.45625</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4422</v>
+        <v>0.444146</v>
       </c>
       <c r="C54" t="n">
-        <v>0.455558</v>
+        <v>0.459114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447574</v>
+        <v>0.447384</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.434428</v>
+        <v>0.436572</v>
       </c>
       <c r="C55" t="n">
-        <v>0.447118</v>
+        <v>0.450931</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439232</v>
+        <v>0.439167</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.427106</v>
+        <v>0.429275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.438829</v>
+        <v>0.44272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.430159</v>
+        <v>0.431619</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.420234</v>
+        <v>0.422189</v>
       </c>
       <c r="C57" t="n">
-        <v>0.431032</v>
+        <v>0.434863</v>
       </c>
       <c r="D57" t="n">
-        <v>0.422855</v>
+        <v>0.423925</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.413719</v>
+        <v>0.415509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424118</v>
+        <v>0.427281</v>
       </c>
       <c r="D58" t="n">
-        <v>0.41619</v>
+        <v>0.417252</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408048</v>
+        <v>0.409251</v>
       </c>
       <c r="C59" t="n">
-        <v>0.417491</v>
+        <v>0.420577</v>
       </c>
       <c r="D59" t="n">
-        <v>0.410087</v>
+        <v>0.411023</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.402021</v>
+        <v>0.403497</v>
       </c>
       <c r="C60" t="n">
-        <v>0.41121</v>
+        <v>0.414094</v>
       </c>
       <c r="D60" t="n">
-        <v>0.404494</v>
+        <v>0.406723</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.396956</v>
+        <v>0.398281</v>
       </c>
       <c r="C61" t="n">
-        <v>0.405827</v>
+        <v>0.408315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.400774</v>
+        <v>0.40038</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.392286</v>
+        <v>0.393607</v>
       </c>
       <c r="C62" t="n">
-        <v>0.401447</v>
+        <v>0.403505</v>
       </c>
       <c r="D62" t="n">
-        <v>0.396552</v>
+        <v>0.396849</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388301</v>
+        <v>0.389493</v>
       </c>
       <c r="C63" t="n">
-        <v>0.398047</v>
+        <v>0.401004</v>
       </c>
       <c r="D63" t="n">
-        <v>0.394423</v>
+        <v>0.394382</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.385384</v>
+        <v>0.386339</v>
       </c>
       <c r="C64" t="n">
-        <v>0.395471</v>
+        <v>0.397544</v>
       </c>
       <c r="D64" t="n">
-        <v>0.392761</v>
+        <v>0.393396</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.383621</v>
+        <v>0.384536</v>
       </c>
       <c r="C65" t="n">
-        <v>0.394293</v>
+        <v>0.39636</v>
       </c>
       <c r="D65" t="n">
-        <v>0.394695</v>
+        <v>0.396555</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.383721</v>
+        <v>0.384427</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397257</v>
+        <v>0.397792</v>
       </c>
       <c r="D66" t="n">
-        <v>0.484033</v>
+        <v>0.485464</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.471511</v>
+        <v>0.475061</v>
       </c>
       <c r="C67" t="n">
-        <v>0.487145</v>
+        <v>0.488863</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4737</v>
+        <v>0.474445</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.46343</v>
+        <v>0.467623</v>
       </c>
       <c r="C68" t="n">
-        <v>0.47716</v>
+        <v>0.478653</v>
       </c>
       <c r="D68" t="n">
-        <v>0.464448</v>
+        <v>0.465348</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.455683</v>
+        <v>0.459619</v>
       </c>
       <c r="C69" t="n">
-        <v>0.46806</v>
+        <v>0.470194</v>
       </c>
       <c r="D69" t="n">
-        <v>0.45587</v>
+        <v>0.457765</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.449067</v>
+        <v>0.452278</v>
       </c>
       <c r="C70" t="n">
-        <v>0.459526</v>
+        <v>0.460496</v>
       </c>
       <c r="D70" t="n">
-        <v>0.448059</v>
+        <v>0.448909</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.442396</v>
+        <v>0.445052</v>
       </c>
       <c r="C71" t="n">
-        <v>0.451184</v>
+        <v>0.452461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.44001</v>
+        <v>0.441598</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.436197</v>
+        <v>0.438434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.443585</v>
+        <v>0.445789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.43312</v>
+        <v>0.434622</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.430058</v>
+        <v>0.432198</v>
       </c>
       <c r="C73" t="n">
-        <v>0.437085</v>
+        <v>0.437916</v>
       </c>
       <c r="D73" t="n">
-        <v>0.426649</v>
+        <v>0.427288</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.424198</v>
+        <v>0.42635</v>
       </c>
       <c r="C74" t="n">
-        <v>0.430025</v>
+        <v>0.431081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.420716</v>
+        <v>0.422108</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.419075</v>
+        <v>0.420684</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424153</v>
+        <v>0.426833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.415785</v>
+        <v>0.417136</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.414169</v>
+        <v>0.41607</v>
       </c>
       <c r="C76" t="n">
-        <v>0.419459</v>
+        <v>0.420888</v>
       </c>
       <c r="D76" t="n">
-        <v>0.411804</v>
+        <v>0.413014</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.410121</v>
+        <v>0.411606</v>
       </c>
       <c r="C77" t="n">
-        <v>0.415041</v>
+        <v>0.415148</v>
       </c>
       <c r="D77" t="n">
-        <v>0.408858</v>
+        <v>0.409735</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.406915</v>
+        <v>0.408447</v>
       </c>
       <c r="C78" t="n">
-        <v>0.412809</v>
+        <v>0.412585</v>
       </c>
       <c r="D78" t="n">
-        <v>0.407791</v>
+        <v>0.408752</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.404754</v>
+        <v>0.406573</v>
       </c>
       <c r="C79" t="n">
-        <v>0.410728</v>
+        <v>0.41127</v>
       </c>
       <c r="D79" t="n">
-        <v>0.409314</v>
+        <v>0.410135</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.404632</v>
+        <v>0.406263</v>
       </c>
       <c r="C80" t="n">
-        <v>0.412651</v>
+        <v>0.415437</v>
       </c>
       <c r="D80" t="n">
-        <v>0.505417</v>
+        <v>0.506135</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.515846</v>
+        <v>0.516257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.510045</v>
+        <v>0.5108200000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.496243</v>
+        <v>0.497142</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.512191</v>
+        <v>0.512417</v>
       </c>
       <c r="C82" t="n">
-        <v>0.501183</v>
+        <v>0.501972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.487481</v>
+        <v>0.488406</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.508153</v>
+        <v>0.508432</v>
       </c>
       <c r="C83" t="n">
-        <v>0.492564</v>
+        <v>0.493228</v>
       </c>
       <c r="D83" t="n">
-        <v>0.479189</v>
+        <v>0.480149</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.50391</v>
+        <v>0.504283</v>
       </c>
       <c r="C84" t="n">
-        <v>0.48418</v>
+        <v>0.484844</v>
       </c>
       <c r="D84" t="n">
-        <v>0.470991</v>
+        <v>0.472032</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.498678</v>
+        <v>0.49911</v>
       </c>
       <c r="C85" t="n">
-        <v>0.476149</v>
+        <v>0.476972</v>
       </c>
       <c r="D85" t="n">
-        <v>0.46322</v>
+        <v>0.464321</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.493031</v>
+        <v>0.493233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.46837</v>
+        <v>0.469379</v>
       </c>
       <c r="D86" t="n">
-        <v>0.455775</v>
+        <v>0.456911</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.486993</v>
+        <v>0.487283</v>
       </c>
       <c r="C87" t="n">
-        <v>0.461117</v>
+        <v>0.462368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448938</v>
+        <v>0.45009</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.48079</v>
+        <v>0.481009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.454355</v>
+        <v>0.455358</v>
       </c>
       <c r="D88" t="n">
-        <v>0.442597</v>
+        <v>0.443767</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.474676</v>
+        <v>0.474616</v>
       </c>
       <c r="C89" t="n">
-        <v>0.448105</v>
+        <v>0.448949</v>
       </c>
       <c r="D89" t="n">
-        <v>0.437047</v>
+        <v>0.438362</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.468844</v>
+        <v>0.468732</v>
       </c>
       <c r="C90" t="n">
-        <v>0.442415</v>
+        <v>0.443462</v>
       </c>
       <c r="D90" t="n">
-        <v>0.432384</v>
+        <v>0.433714</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.46323</v>
+        <v>0.463267</v>
       </c>
       <c r="C91" t="n">
-        <v>0.437579</v>
+        <v>0.438601</v>
       </c>
       <c r="D91" t="n">
-        <v>0.428959</v>
+        <v>0.430248</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.458811</v>
+        <v>0.458289</v>
       </c>
       <c r="C92" t="n">
-        <v>0.433944</v>
+        <v>0.434562</v>
       </c>
       <c r="D92" t="n">
-        <v>0.427049</v>
+        <v>0.428447</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.455159</v>
+        <v>0.454716</v>
       </c>
       <c r="C93" t="n">
-        <v>0.43178</v>
+        <v>0.432438</v>
       </c>
       <c r="D93" t="n">
-        <v>0.427616</v>
+        <v>0.428912</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.453284</v>
+        <v>0.452525</v>
       </c>
       <c r="C94" t="n">
-        <v>0.432141</v>
+        <v>0.432917</v>
       </c>
       <c r="D94" t="n">
-        <v>0.540876</v>
+        <v>0.541411</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.561209</v>
+        <v>0.560374</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5419349999999999</v>
+        <v>0.541015</v>
       </c>
       <c r="D95" t="n">
-        <v>0.542844</v>
+        <v>0.543737</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.570221</v>
+        <v>0.569325</v>
       </c>
       <c r="C96" t="n">
-        <v>0.546724</v>
+        <v>0.545817</v>
       </c>
       <c r="D96" t="n">
-        <v>0.542566</v>
+        <v>0.543666</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.573916</v>
+        <v>0.573856</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5472129999999999</v>
+        <v>0.546784</v>
       </c>
       <c r="D97" t="n">
-        <v>0.540747</v>
+        <v>0.542206</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575291</v>
+        <v>0.575252</v>
       </c>
       <c r="C98" t="n">
-        <v>0.545905</v>
+        <v>0.546058</v>
       </c>
       <c r="D98" t="n">
-        <v>0.537982</v>
+        <v>0.539483</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.574769</v>
+        <v>0.575476</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543835</v>
+        <v>0.544123</v>
       </c>
       <c r="D99" t="n">
-        <v>0.534738</v>
+        <v>0.536725</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.573681</v>
+        <v>0.574673</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5410970000000001</v>
+        <v>0.5417380000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.531075</v>
+        <v>0.533524</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.57124</v>
+        <v>0.572677</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538008</v>
+        <v>0.539334</v>
       </c>
       <c r="D101" t="n">
-        <v>0.527875</v>
+        <v>0.530582</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.568993</v>
+        <v>0.570566</v>
       </c>
       <c r="C102" t="n">
-        <v>0.535123</v>
+        <v>0.536685</v>
       </c>
       <c r="D102" t="n">
-        <v>0.524675</v>
+        <v>0.527789</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5663049999999999</v>
+        <v>0.5683550000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.532561</v>
+        <v>0.534489</v>
       </c>
       <c r="D103" t="n">
-        <v>0.522015</v>
+        <v>0.525307</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.564157</v>
+        <v>0.566252</v>
       </c>
       <c r="C104" t="n">
-        <v>0.530473</v>
+        <v>0.532855</v>
       </c>
       <c r="D104" t="n">
-        <v>0.519827</v>
+        <v>0.52346</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.561741</v>
+        <v>0.564312</v>
       </c>
       <c r="C105" t="n">
-        <v>0.528988</v>
+        <v>0.531757</v>
       </c>
       <c r="D105" t="n">
-        <v>0.518581</v>
+        <v>0.5224760000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.559907</v>
+        <v>0.562741</v>
       </c>
       <c r="C106" t="n">
-        <v>0.528491</v>
+        <v>0.531528</v>
       </c>
       <c r="D106" t="n">
-        <v>0.518429</v>
+        <v>0.5226769999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5584789999999999</v>
+        <v>0.561387</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529197</v>
+        <v>0.53269</v>
       </c>
       <c r="D107" t="n">
-        <v>0.519962</v>
+        <v>0.524577</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.558212</v>
+        <v>0.561236</v>
       </c>
       <c r="C108" t="n">
-        <v>0.531397</v>
+        <v>0.53543</v>
       </c>
       <c r="D108" t="n">
-        <v>0.708676</v>
+        <v>0.701813</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.559024</v>
+        <v>0.564082</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5381320000000001</v>
+        <v>0.540193</v>
       </c>
       <c r="D109" t="n">
-        <v>0.713332</v>
+        <v>0.707908</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713307</v>
+        <v>0.713489</v>
       </c>
       <c r="C110" t="n">
-        <v>0.686138</v>
+        <v>0.684137</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7153040000000001</v>
+        <v>0.710136</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7201340000000001</v>
+        <v>0.718096</v>
       </c>
       <c r="C111" t="n">
-        <v>0.687229</v>
+        <v>0.686772</v>
       </c>
       <c r="D111" t="n">
-        <v>0.71406</v>
+        <v>0.712137</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.725094</v>
+        <v>0.725229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.688545</v>
+        <v>0.687541</v>
       </c>
       <c r="D112" t="n">
-        <v>0.714331</v>
+        <v>0.710446</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.729484</v>
+        <v>0.727314</v>
       </c>
       <c r="C113" t="n">
-        <v>0.690408</v>
+        <v>0.688956</v>
       </c>
       <c r="D113" t="n">
-        <v>0.715801</v>
+        <v>0.711645</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.733409</v>
+        <v>0.73217</v>
       </c>
       <c r="C114" t="n">
-        <v>0.690988</v>
+        <v>0.69163</v>
       </c>
       <c r="D114" t="n">
-        <v>0.715171</v>
+        <v>0.713502</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.736986</v>
+        <v>0.734955</v>
       </c>
       <c r="C115" t="n">
-        <v>0.691981</v>
+        <v>0.692428</v>
       </c>
       <c r="D115" t="n">
-        <v>0.716988</v>
+        <v>0.71643</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.741264</v>
+        <v>0.738899</v>
       </c>
       <c r="C116" t="n">
-        <v>0.695376</v>
+        <v>0.695315</v>
       </c>
       <c r="D116" t="n">
-        <v>0.718239</v>
+        <v>0.717092</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.743795</v>
+        <v>0.742602</v>
       </c>
       <c r="C117" t="n">
-        <v>0.698438</v>
+        <v>0.698346</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7206090000000001</v>
+        <v>0.720249</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.748023</v>
+        <v>0.745411</v>
       </c>
       <c r="C118" t="n">
-        <v>0.702927</v>
+        <v>0.702059</v>
       </c>
       <c r="D118" t="n">
-        <v>0.725786</v>
+        <v>0.723651</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.750961</v>
+        <v>0.752068</v>
       </c>
       <c r="C119" t="n">
-        <v>0.708866</v>
+        <v>0.707769</v>
       </c>
       <c r="D119" t="n">
-        <v>0.729187</v>
+        <v>0.726374</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.754952</v>
+        <v>0.755279</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714759</v>
+        <v>0.714608</v>
       </c>
       <c r="D120" t="n">
-        <v>0.734544</v>
+        <v>0.732684</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.757787</v>
+        <v>0.7589590000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.721162</v>
+        <v>0.720452</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7398130000000001</v>
+        <v>0.738452</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.762145</v>
+        <v>0.763378</v>
       </c>
       <c r="C122" t="n">
-        <v>0.729201</v>
+        <v>0.728667</v>
       </c>
       <c r="D122" t="n">
-        <v>0.747266</v>
+        <v>0.745895</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.766778</v>
+        <v>0.768</v>
       </c>
       <c r="C123" t="n">
-        <v>0.738105</v>
+        <v>0.73683</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8935340000000001</v>
+        <v>0.888617</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.937376</v>
+        <v>0.933954</v>
       </c>
       <c r="C124" t="n">
-        <v>0.889281</v>
+        <v>0.883789</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8946229999999999</v>
+        <v>0.890471</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.94375</v>
+        <v>0.940813</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887956</v>
+        <v>0.884534</v>
       </c>
       <c r="D125" t="n">
-        <v>0.894728</v>
+        <v>0.8916770000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.949977</v>
+        <v>0.947564</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8882060000000001</v>
+        <v>0.8859</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8950939999999999</v>
+        <v>0.893391</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.95631</v>
+        <v>0.952923</v>
       </c>
       <c r="C127" t="n">
-        <v>0.888755</v>
+        <v>0.887144</v>
       </c>
       <c r="D127" t="n">
-        <v>0.896525</v>
+        <v>0.895835</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.961095</v>
+        <v>0.9595590000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.890221</v>
+        <v>0.889194</v>
       </c>
       <c r="D128" t="n">
-        <v>0.898541</v>
+        <v>0.897347</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.96698</v>
+        <v>0.965444</v>
       </c>
       <c r="C129" t="n">
-        <v>0.890975</v>
+        <v>0.889769</v>
       </c>
       <c r="D129" t="n">
-        <v>0.900162</v>
+        <v>0.898904</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9721030000000001</v>
+        <v>0.972692</v>
       </c>
       <c r="C130" t="n">
-        <v>0.894123</v>
+        <v>0.892452</v>
       </c>
       <c r="D130" t="n">
-        <v>0.903965</v>
+        <v>0.903031</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.977167</v>
+        <v>0.97844</v>
       </c>
       <c r="C131" t="n">
-        <v>0.897448</v>
+        <v>0.896126</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9077460000000001</v>
+        <v>0.906023</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.982558</v>
+        <v>0.981667</v>
       </c>
       <c r="C132" t="n">
-        <v>0.901285</v>
+        <v>0.901043</v>
       </c>
       <c r="D132" t="n">
-        <v>0.912445</v>
+        <v>0.9114910000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.987077</v>
+        <v>0.98827</v>
       </c>
       <c r="C133" t="n">
-        <v>0.907276</v>
+        <v>0.907007</v>
       </c>
       <c r="D133" t="n">
-        <v>0.919161</v>
+        <v>0.918584</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9930330000000001</v>
+        <v>0.992866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9144330000000001</v>
+        <v>0.91249</v>
       </c>
       <c r="D134" t="n">
-        <v>0.926826</v>
+        <v>0.9261239999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.997973</v>
+        <v>0.998526</v>
       </c>
       <c r="C135" t="n">
-        <v>0.921486</v>
+        <v>0.921551</v>
       </c>
       <c r="D135" t="n">
-        <v>0.936014</v>
+        <v>0.936983</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00337</v>
+        <v>1.00493</v>
       </c>
       <c r="C136" t="n">
-        <v>0.93404</v>
+        <v>0.933485</v>
       </c>
       <c r="D136" t="n">
-        <v>0.946558</v>
+        <v>0.948265</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.00928</v>
+        <v>1.01094</v>
       </c>
       <c r="C137" t="n">
-        <v>0.945101</v>
+        <v>0.945852</v>
       </c>
       <c r="D137" t="n">
-        <v>1.09481</v>
+        <v>1.09525</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16724</v>
+        <v>1.16722</v>
       </c>
       <c r="C138" t="n">
-        <v>1.0955</v>
+        <v>1.09452</v>
       </c>
       <c r="D138" t="n">
-        <v>1.09341</v>
+        <v>1.09396</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17263</v>
+        <v>1.17475</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09195</v>
+        <v>1.09244</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09271</v>
+        <v>1.09314</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17778</v>
+        <v>1.18093</v>
       </c>
       <c r="C140" t="n">
-        <v>1.09056</v>
+        <v>1.09058</v>
       </c>
       <c r="D140" t="n">
-        <v>1.08991</v>
+        <v>1.09226</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18338</v>
+        <v>1.18529</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08831</v>
+        <v>1.08906</v>
       </c>
       <c r="D141" t="n">
-        <v>1.09029</v>
+        <v>1.09194</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.18883</v>
+        <v>1.19089</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08738</v>
+        <v>1.08903</v>
       </c>
       <c r="D142" t="n">
-        <v>1.09099</v>
+        <v>1.0927</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19456</v>
+        <v>1.19637</v>
       </c>
       <c r="C143" t="n">
-        <v>1.08704</v>
+        <v>1.08878</v>
       </c>
       <c r="D143" t="n">
-        <v>1.09161</v>
+        <v>1.09419</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.370219</v>
+        <v>0.283568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.374236</v>
+        <v>0.296711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.371773</v>
+        <v>0.288646</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362701</v>
+        <v>0.275891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.367162</v>
+        <v>0.289877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365222</v>
+        <v>0.282068</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.356361</v>
+        <v>0.27034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3614</v>
+        <v>0.283721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359981</v>
+        <v>0.276896</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.350581</v>
+        <v>0.265069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.355894</v>
+        <v>0.279233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.355568</v>
+        <v>0.273599</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.345958</v>
+        <v>0.260751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.352626</v>
+        <v>0.274598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352813</v>
+        <v>0.27277</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.341833</v>
+        <v>0.257336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348739</v>
+        <v>0.271669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.351068</v>
+        <v>0.268278</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.338947</v>
+        <v>0.256175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348132</v>
+        <v>0.269571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.351836</v>
+        <v>0.268218</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.338482</v>
+        <v>0.257022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.348079</v>
+        <v>0.270295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.440999</v>
+        <v>0.364168</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.426301</v>
+        <v>0.343765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.436055</v>
+        <v>0.359636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.430641</v>
+        <v>0.353778</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.413377</v>
+        <v>0.334777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.426646</v>
+        <v>0.349371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.421158</v>
+        <v>0.343868</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.404623</v>
+        <v>0.325406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417626</v>
+        <v>0.339852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411916</v>
+        <v>0.334487</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.400337</v>
+        <v>0.316712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.408774</v>
+        <v>0.330431</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403203</v>
+        <v>0.325617</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.387903</v>
+        <v>0.308378</v>
       </c>
       <c r="C14" t="n">
-        <v>0.399967</v>
+        <v>0.322216</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395122</v>
+        <v>0.31776</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.383821</v>
+        <v>0.300416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391945</v>
+        <v>0.314546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.387589</v>
+        <v>0.309921</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.373126</v>
+        <v>0.29335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.384445</v>
+        <v>0.306822</v>
       </c>
       <c r="D16" t="n">
-        <v>0.380105</v>
+        <v>0.302201</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.366282</v>
+        <v>0.286378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.376816</v>
+        <v>0.29996</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373745</v>
+        <v>0.29584</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.361028</v>
+        <v>0.279656</v>
       </c>
       <c r="C18" t="n">
-        <v>0.370442</v>
+        <v>0.293918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.367775</v>
+        <v>0.289729</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.354314</v>
+        <v>0.274014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.364684</v>
+        <v>0.288736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.362981</v>
+        <v>0.285042</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.351208</v>
+        <v>0.269377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.36096</v>
+        <v>0.28412</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359173</v>
+        <v>0.281445</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.349978</v>
+        <v>0.265972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.357646</v>
+        <v>0.281139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.356417</v>
+        <v>0.279733</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.347297</v>
+        <v>0.263643</v>
       </c>
       <c r="C22" t="n">
-        <v>0.35454</v>
+        <v>0.279242</v>
       </c>
       <c r="D22" t="n">
-        <v>0.355838</v>
+        <v>0.280092</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.345214</v>
+        <v>0.263027</v>
       </c>
       <c r="C23" t="n">
-        <v>0.354978</v>
+        <v>0.280087</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447962</v>
+        <v>0.371448</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.432504</v>
+        <v>0.350466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.452246</v>
+        <v>0.371267</v>
       </c>
       <c r="D24" t="n">
-        <v>0.438622</v>
+        <v>0.360602</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.430266</v>
+        <v>0.340655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.441567</v>
+        <v>0.361224</v>
       </c>
       <c r="D25" t="n">
-        <v>0.428966</v>
+        <v>0.350171</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.415502</v>
+        <v>0.331639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.432133</v>
+        <v>0.35153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420472</v>
+        <v>0.341568</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.413364</v>
+        <v>0.322526</v>
       </c>
       <c r="C27" t="n">
-        <v>0.423903</v>
+        <v>0.342144</v>
       </c>
       <c r="D27" t="n">
-        <v>0.412411</v>
+        <v>0.331964</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.404695</v>
+        <v>0.314337</v>
       </c>
       <c r="C28" t="n">
-        <v>0.415389</v>
+        <v>0.333505</v>
       </c>
       <c r="D28" t="n">
-        <v>0.404533</v>
+        <v>0.323703</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.39226</v>
+        <v>0.306699</v>
       </c>
       <c r="C29" t="n">
-        <v>0.40735</v>
+        <v>0.325442</v>
       </c>
       <c r="D29" t="n">
-        <v>0.397083</v>
+        <v>0.316641</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.384595</v>
+        <v>0.298882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.398404</v>
+        <v>0.317549</v>
       </c>
       <c r="D30" t="n">
-        <v>0.389693</v>
+        <v>0.308529</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380977</v>
+        <v>0.292023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.391904</v>
+        <v>0.310266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.383889</v>
+        <v>0.301712</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.377325</v>
+        <v>0.285894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.384999</v>
+        <v>0.30364</v>
       </c>
       <c r="D32" t="n">
-        <v>0.378251</v>
+        <v>0.331826</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.366664</v>
+        <v>0.279998</v>
       </c>
       <c r="C33" t="n">
-        <v>0.380012</v>
+        <v>0.297618</v>
       </c>
       <c r="D33" t="n">
-        <v>0.373388</v>
+        <v>0.290673</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.366476</v>
+        <v>0.274624</v>
       </c>
       <c r="C34" t="n">
-        <v>0.374214</v>
+        <v>0.292549</v>
       </c>
       <c r="D34" t="n">
-        <v>0.368858</v>
+        <v>0.286491</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3572</v>
+        <v>0.270089</v>
       </c>
       <c r="C35" t="n">
-        <v>0.370223</v>
+        <v>0.288242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366188</v>
+        <v>0.314186</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.354815</v>
+        <v>0.267341</v>
       </c>
       <c r="C36" t="n">
-        <v>0.367583</v>
+        <v>0.286021</v>
       </c>
       <c r="D36" t="n">
-        <v>0.365362</v>
+        <v>0.283319</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353665</v>
+        <v>0.265603</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366959</v>
+        <v>0.285515</v>
       </c>
       <c r="D37" t="n">
-        <v>0.460353</v>
+        <v>0.377356</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.438275</v>
+        <v>0.350433</v>
       </c>
       <c r="C38" t="n">
-        <v>0.463972</v>
+        <v>0.382041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.45108</v>
+        <v>0.367221</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.434101</v>
+        <v>0.34143</v>
       </c>
       <c r="C39" t="n">
-        <v>0.454729</v>
+        <v>0.373781</v>
       </c>
       <c r="D39" t="n">
-        <v>0.441828</v>
+        <v>0.357605</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.428073</v>
+        <v>0.332568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.445058</v>
+        <v>0.364126</v>
       </c>
       <c r="D40" t="n">
-        <v>0.433078</v>
+        <v>0.348392</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.414694</v>
+        <v>0.324341</v>
       </c>
       <c r="C41" t="n">
-        <v>0.436271</v>
+        <v>0.35487</v>
       </c>
       <c r="D41" t="n">
-        <v>0.424006</v>
+        <v>0.339687</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.412509</v>
+        <v>0.315822</v>
       </c>
       <c r="C42" t="n">
-        <v>0.428085</v>
+        <v>0.346446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416682</v>
+        <v>0.331548</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.404774</v>
+        <v>0.308669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.419551</v>
+        <v>0.33832</v>
       </c>
       <c r="D43" t="n">
-        <v>0.409596</v>
+        <v>0.324266</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.397342</v>
+        <v>0.301413</v>
       </c>
       <c r="C44" t="n">
-        <v>0.411568</v>
+        <v>0.330766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.402576</v>
+        <v>0.316828</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.391784</v>
+        <v>0.294301</v>
       </c>
       <c r="C45" t="n">
-        <v>0.405652</v>
+        <v>0.324503</v>
       </c>
       <c r="D45" t="n">
-        <v>0.396668</v>
+        <v>0.310268</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.385866</v>
+        <v>0.288397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.39875</v>
+        <v>0.317215</v>
       </c>
       <c r="D46" t="n">
-        <v>0.390751</v>
+        <v>0.304477</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.37628</v>
+        <v>0.282857</v>
       </c>
       <c r="C47" t="n">
-        <v>0.392958</v>
+        <v>0.31217</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386287</v>
+        <v>0.299681</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.372974</v>
+        <v>0.277663</v>
       </c>
       <c r="C48" t="n">
-        <v>0.388008</v>
+        <v>0.306706</v>
       </c>
       <c r="D48" t="n">
-        <v>0.381483</v>
+        <v>0.295802</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.371411</v>
+        <v>0.273442</v>
       </c>
       <c r="C49" t="n">
-        <v>0.384468</v>
+        <v>0.303543</v>
       </c>
       <c r="D49" t="n">
-        <v>0.379745</v>
+        <v>0.293313</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.368288</v>
+        <v>0.270206</v>
       </c>
       <c r="C50" t="n">
-        <v>0.381829</v>
+        <v>0.301971</v>
       </c>
       <c r="D50" t="n">
-        <v>0.378546</v>
+        <v>0.293547</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.366485</v>
+        <v>0.268579</v>
       </c>
       <c r="C51" t="n">
-        <v>0.380787</v>
+        <v>0.300017</v>
       </c>
       <c r="D51" t="n">
-        <v>0.476229</v>
+        <v>0.391248</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.365929</v>
+        <v>0.269286</v>
       </c>
       <c r="C52" t="n">
-        <v>0.382733</v>
+        <v>0.302041</v>
       </c>
       <c r="D52" t="n">
-        <v>0.466176</v>
+        <v>0.380163</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.452585</v>
+        <v>0.348746</v>
       </c>
       <c r="C53" t="n">
-        <v>0.469482</v>
+        <v>0.386732</v>
       </c>
       <c r="D53" t="n">
-        <v>0.45625</v>
+        <v>0.371381</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.444146</v>
+        <v>0.339989</v>
       </c>
       <c r="C54" t="n">
-        <v>0.459114</v>
+        <v>0.378466</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447384</v>
+        <v>0.361375</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.436572</v>
+        <v>0.331899</v>
       </c>
       <c r="C55" t="n">
-        <v>0.450931</v>
+        <v>0.368976</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439167</v>
+        <v>0.352741</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.429275</v>
+        <v>0.323953</v>
       </c>
       <c r="C56" t="n">
-        <v>0.44272</v>
+        <v>0.360879</v>
       </c>
       <c r="D56" t="n">
-        <v>0.431619</v>
+        <v>0.344633</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.422189</v>
+        <v>0.316565</v>
       </c>
       <c r="C57" t="n">
-        <v>0.434863</v>
+        <v>0.353246</v>
       </c>
       <c r="D57" t="n">
-        <v>0.423925</v>
+        <v>0.337118</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.415509</v>
+        <v>0.309611</v>
       </c>
       <c r="C58" t="n">
-        <v>0.427281</v>
+        <v>0.346078</v>
       </c>
       <c r="D58" t="n">
-        <v>0.417252</v>
+        <v>0.32997</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.409251</v>
+        <v>0.303124</v>
       </c>
       <c r="C59" t="n">
-        <v>0.420577</v>
+        <v>0.339593</v>
       </c>
       <c r="D59" t="n">
-        <v>0.411023</v>
+        <v>0.323488</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.403497</v>
+        <v>0.297133</v>
       </c>
       <c r="C60" t="n">
-        <v>0.414094</v>
+        <v>0.333469</v>
       </c>
       <c r="D60" t="n">
-        <v>0.406723</v>
+        <v>0.317848</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.398281</v>
+        <v>0.291615</v>
       </c>
       <c r="C61" t="n">
-        <v>0.408315</v>
+        <v>0.328161</v>
       </c>
       <c r="D61" t="n">
-        <v>0.40038</v>
+        <v>0.31296</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.393607</v>
+        <v>0.286685</v>
       </c>
       <c r="C62" t="n">
-        <v>0.403505</v>
+        <v>0.323485</v>
       </c>
       <c r="D62" t="n">
-        <v>0.396849</v>
+        <v>0.308931</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.389493</v>
+        <v>0.282523</v>
       </c>
       <c r="C63" t="n">
-        <v>0.401004</v>
+        <v>0.319546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.394382</v>
+        <v>0.306105</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386339</v>
+        <v>0.2793</v>
       </c>
       <c r="C64" t="n">
-        <v>0.397544</v>
+        <v>0.316696</v>
       </c>
       <c r="D64" t="n">
-        <v>0.393396</v>
+        <v>0.305008</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.384536</v>
+        <v>0.277455</v>
       </c>
       <c r="C65" t="n">
-        <v>0.39636</v>
+        <v>0.315631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.396555</v>
+        <v>0.306802</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.384427</v>
+        <v>0.277645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397792</v>
+        <v>0.317098</v>
       </c>
       <c r="D66" t="n">
-        <v>0.485464</v>
+        <v>0.395348</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.475061</v>
+        <v>0.363383</v>
       </c>
       <c r="C67" t="n">
-        <v>0.488863</v>
+        <v>0.406626</v>
       </c>
       <c r="D67" t="n">
-        <v>0.474445</v>
+        <v>0.385549</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.467623</v>
+        <v>0.354781</v>
       </c>
       <c r="C68" t="n">
-        <v>0.478653</v>
+        <v>0.396929</v>
       </c>
       <c r="D68" t="n">
-        <v>0.465348</v>
+        <v>0.376133</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.459619</v>
+        <v>0.346559</v>
       </c>
       <c r="C69" t="n">
-        <v>0.470194</v>
+        <v>0.388386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.457765</v>
+        <v>0.367378</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.452278</v>
+        <v>0.33888</v>
       </c>
       <c r="C70" t="n">
-        <v>0.460496</v>
+        <v>0.379989</v>
       </c>
       <c r="D70" t="n">
-        <v>0.448909</v>
+        <v>0.35895</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.445052</v>
+        <v>0.331255</v>
       </c>
       <c r="C71" t="n">
-        <v>0.452461</v>
+        <v>0.372313</v>
       </c>
       <c r="D71" t="n">
-        <v>0.441598</v>
+        <v>0.351149</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.438434</v>
+        <v>0.324249</v>
       </c>
       <c r="C72" t="n">
-        <v>0.445789</v>
+        <v>0.364986</v>
       </c>
       <c r="D72" t="n">
-        <v>0.434622</v>
+        <v>0.343913</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.432198</v>
+        <v>0.31797</v>
       </c>
       <c r="C73" t="n">
-        <v>0.437916</v>
+        <v>0.35817</v>
       </c>
       <c r="D73" t="n">
-        <v>0.427288</v>
+        <v>0.337182</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.42635</v>
+        <v>0.311562</v>
       </c>
       <c r="C74" t="n">
-        <v>0.431081</v>
+        <v>0.351998</v>
       </c>
       <c r="D74" t="n">
-        <v>0.422108</v>
+        <v>0.331222</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.420684</v>
+        <v>0.306046</v>
       </c>
       <c r="C75" t="n">
-        <v>0.426833</v>
+        <v>0.34634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.417136</v>
+        <v>0.325859</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.41607</v>
+        <v>0.300795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.420888</v>
+        <v>0.341331</v>
       </c>
       <c r="D76" t="n">
-        <v>0.413014</v>
+        <v>0.32157</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411606</v>
+        <v>0.296496</v>
       </c>
       <c r="C77" t="n">
-        <v>0.415148</v>
+        <v>0.33692</v>
       </c>
       <c r="D77" t="n">
-        <v>0.409735</v>
+        <v>0.318249</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.408447</v>
+        <v>0.293334</v>
       </c>
       <c r="C78" t="n">
-        <v>0.412585</v>
+        <v>0.33461</v>
       </c>
       <c r="D78" t="n">
-        <v>0.408752</v>
+        <v>0.316674</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.406573</v>
+        <v>0.291393</v>
       </c>
       <c r="C79" t="n">
-        <v>0.41127</v>
+        <v>0.332781</v>
       </c>
       <c r="D79" t="n">
-        <v>0.410135</v>
+        <v>0.317401</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.406263</v>
+        <v>0.291154</v>
       </c>
       <c r="C80" t="n">
-        <v>0.415437</v>
+        <v>0.333295</v>
       </c>
       <c r="D80" t="n">
-        <v>0.506135</v>
+        <v>0.413985</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.516257</v>
+        <v>0.398811</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5108200000000001</v>
+        <v>0.428954</v>
       </c>
       <c r="D81" t="n">
-        <v>0.497142</v>
+        <v>0.404481</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.512417</v>
+        <v>0.393534</v>
       </c>
       <c r="C82" t="n">
-        <v>0.501972</v>
+        <v>0.420414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.488406</v>
+        <v>0.39558</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.508432</v>
+        <v>0.387632</v>
       </c>
       <c r="C83" t="n">
-        <v>0.493228</v>
+        <v>0.411915</v>
       </c>
       <c r="D83" t="n">
-        <v>0.480149</v>
+        <v>0.387095</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.504283</v>
+        <v>0.38142</v>
       </c>
       <c r="C84" t="n">
-        <v>0.484844</v>
+        <v>0.403737</v>
       </c>
       <c r="D84" t="n">
-        <v>0.472032</v>
+        <v>0.378803</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.49911</v>
+        <v>0.374894</v>
       </c>
       <c r="C85" t="n">
-        <v>0.476972</v>
+        <v>0.396001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.464321</v>
+        <v>0.370915</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.493233</v>
+        <v>0.368168</v>
       </c>
       <c r="C86" t="n">
-        <v>0.469379</v>
+        <v>0.388433</v>
       </c>
       <c r="D86" t="n">
-        <v>0.456911</v>
+        <v>0.363404</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.487283</v>
+        <v>0.36138</v>
       </c>
       <c r="C87" t="n">
-        <v>0.462368</v>
+        <v>0.381269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.45009</v>
+        <v>0.356408</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.481009</v>
+        <v>0.354595</v>
       </c>
       <c r="C88" t="n">
-        <v>0.455358</v>
+        <v>0.374555</v>
       </c>
       <c r="D88" t="n">
-        <v>0.443767</v>
+        <v>0.349978</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.474616</v>
+        <v>0.348173</v>
       </c>
       <c r="C89" t="n">
-        <v>0.448949</v>
+        <v>0.368387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438362</v>
+        <v>0.344246</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.468732</v>
+        <v>0.342</v>
       </c>
       <c r="C90" t="n">
-        <v>0.443462</v>
+        <v>0.36276</v>
       </c>
       <c r="D90" t="n">
-        <v>0.433714</v>
+        <v>0.33931</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.463267</v>
+        <v>0.336592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.438601</v>
+        <v>0.357891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.430248</v>
+        <v>0.335529</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.458289</v>
+        <v>0.331918</v>
       </c>
       <c r="C92" t="n">
-        <v>0.434562</v>
+        <v>0.353929</v>
       </c>
       <c r="D92" t="n">
-        <v>0.428447</v>
+        <v>0.333253</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.454716</v>
+        <v>0.32819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.432438</v>
+        <v>0.351462</v>
       </c>
       <c r="D93" t="n">
-        <v>0.428912</v>
+        <v>0.333168</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.452525</v>
+        <v>0.326779</v>
       </c>
       <c r="C94" t="n">
-        <v>0.432917</v>
+        <v>0.350906</v>
       </c>
       <c r="D94" t="n">
-        <v>0.541411</v>
+        <v>0.44315</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.560374</v>
+        <v>0.432731</v>
       </c>
       <c r="C95" t="n">
-        <v>0.541015</v>
+        <v>0.458696</v>
       </c>
       <c r="D95" t="n">
-        <v>0.543737</v>
+        <v>0.441286</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569325</v>
+        <v>0.431719</v>
       </c>
       <c r="C96" t="n">
-        <v>0.545817</v>
+        <v>0.459783</v>
       </c>
       <c r="D96" t="n">
-        <v>0.543666</v>
+        <v>0.437701</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.573856</v>
+        <v>0.42685</v>
       </c>
       <c r="C97" t="n">
-        <v>0.546784</v>
+        <v>0.456839</v>
       </c>
       <c r="D97" t="n">
-        <v>0.542206</v>
+        <v>0.433387</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575252</v>
+        <v>0.421422</v>
       </c>
       <c r="C98" t="n">
-        <v>0.546058</v>
+        <v>0.45285</v>
       </c>
       <c r="D98" t="n">
-        <v>0.539483</v>
+        <v>0.428699</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.575476</v>
+        <v>0.415472</v>
       </c>
       <c r="C99" t="n">
-        <v>0.544123</v>
+        <v>0.448598</v>
       </c>
       <c r="D99" t="n">
-        <v>0.536725</v>
+        <v>0.423598</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.574673</v>
+        <v>0.409786</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5417380000000001</v>
+        <v>0.444013</v>
       </c>
       <c r="D100" t="n">
-        <v>0.533524</v>
+        <v>0.418808</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.572677</v>
+        <v>0.404271</v>
       </c>
       <c r="C101" t="n">
-        <v>0.539334</v>
+        <v>0.439339</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530582</v>
+        <v>0.413951</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.570566</v>
+        <v>0.398663</v>
       </c>
       <c r="C102" t="n">
-        <v>0.536685</v>
+        <v>0.435022</v>
       </c>
       <c r="D102" t="n">
-        <v>0.527789</v>
+        <v>0.409625</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5683550000000001</v>
+        <v>0.393458</v>
       </c>
       <c r="C103" t="n">
-        <v>0.534489</v>
+        <v>0.430993</v>
       </c>
       <c r="D103" t="n">
-        <v>0.525307</v>
+        <v>0.405722</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.566252</v>
+        <v>0.388505</v>
       </c>
       <c r="C104" t="n">
-        <v>0.532855</v>
+        <v>0.427689</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52346</v>
+        <v>0.402378</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.564312</v>
+        <v>0.384328</v>
       </c>
       <c r="C105" t="n">
-        <v>0.531757</v>
+        <v>0.425003</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5224760000000001</v>
+        <v>0.399934</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.562741</v>
+        <v>0.38058</v>
       </c>
       <c r="C106" t="n">
-        <v>0.531528</v>
+        <v>0.422966</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5226769999999999</v>
+        <v>0.398435</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.561387</v>
+        <v>0.377438</v>
       </c>
       <c r="C107" t="n">
-        <v>0.53269</v>
+        <v>0.422194</v>
       </c>
       <c r="D107" t="n">
-        <v>0.524577</v>
+        <v>0.398524</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.561236</v>
+        <v>0.375965</v>
       </c>
       <c r="C108" t="n">
-        <v>0.53543</v>
+        <v>0.422747</v>
       </c>
       <c r="D108" t="n">
-        <v>0.701813</v>
+        <v>0.575439</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564082</v>
+        <v>0.376146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.540193</v>
+        <v>0.423623</v>
       </c>
       <c r="D109" t="n">
-        <v>0.707908</v>
+        <v>0.573468</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713489</v>
+        <v>0.515644</v>
       </c>
       <c r="C110" t="n">
-        <v>0.684137</v>
+        <v>0.563187</v>
       </c>
       <c r="D110" t="n">
-        <v>0.710136</v>
+        <v>0.569438</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.718096</v>
+        <v>0.509387</v>
       </c>
       <c r="C111" t="n">
-        <v>0.686772</v>
+        <v>0.558797</v>
       </c>
       <c r="D111" t="n">
-        <v>0.712137</v>
+        <v>0.565956</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.725229</v>
+        <v>0.503567</v>
       </c>
       <c r="C112" t="n">
-        <v>0.687541</v>
+        <v>0.557332</v>
       </c>
       <c r="D112" t="n">
-        <v>0.710446</v>
+        <v>0.56166</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.727314</v>
+        <v>0.498664</v>
       </c>
       <c r="C113" t="n">
-        <v>0.688956</v>
+        <v>0.552257</v>
       </c>
       <c r="D113" t="n">
-        <v>0.711645</v>
+        <v>0.557794</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.73217</v>
+        <v>0.492033</v>
       </c>
       <c r="C114" t="n">
-        <v>0.69163</v>
+        <v>0.549214</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713502</v>
+        <v>0.554755</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.734955</v>
+        <v>0.486846</v>
       </c>
       <c r="C115" t="n">
-        <v>0.692428</v>
+        <v>0.548289</v>
       </c>
       <c r="D115" t="n">
-        <v>0.71643</v>
+        <v>0.551627</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.738899</v>
+        <v>0.481117</v>
       </c>
       <c r="C116" t="n">
-        <v>0.695315</v>
+        <v>0.545865</v>
       </c>
       <c r="D116" t="n">
-        <v>0.717092</v>
+        <v>0.549769</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.742602</v>
+        <v>0.477038</v>
       </c>
       <c r="C117" t="n">
-        <v>0.698346</v>
+        <v>0.543367</v>
       </c>
       <c r="D117" t="n">
-        <v>0.720249</v>
+        <v>0.548602</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.745411</v>
+        <v>0.473326</v>
       </c>
       <c r="C118" t="n">
-        <v>0.702059</v>
+        <v>0.544647</v>
       </c>
       <c r="D118" t="n">
-        <v>0.723651</v>
+        <v>0.548663</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.752068</v>
+        <v>0.469894</v>
       </c>
       <c r="C119" t="n">
-        <v>0.707769</v>
+        <v>0.545513</v>
       </c>
       <c r="D119" t="n">
-        <v>0.726374</v>
+        <v>0.548112</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.755279</v>
+        <v>0.466681</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714608</v>
+        <v>0.547423</v>
       </c>
       <c r="D120" t="n">
-        <v>0.732684</v>
+        <v>0.549218</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7589590000000001</v>
+        <v>0.464899</v>
       </c>
       <c r="C121" t="n">
-        <v>0.720452</v>
+        <v>0.550799</v>
       </c>
       <c r="D121" t="n">
-        <v>0.738452</v>
+        <v>0.5525330000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.763378</v>
+        <v>0.464568</v>
       </c>
       <c r="C122" t="n">
-        <v>0.728667</v>
+        <v>0.555327</v>
       </c>
       <c r="D122" t="n">
-        <v>0.745895</v>
+        <v>0.555369</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.768</v>
+        <v>0.46557</v>
       </c>
       <c r="C123" t="n">
-        <v>0.73683</v>
+        <v>0.559499</v>
       </c>
       <c r="D123" t="n">
-        <v>0.888617</v>
+        <v>0.6939419999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.933954</v>
+        <v>0.620731</v>
       </c>
       <c r="C124" t="n">
-        <v>0.883789</v>
+        <v>0.702485</v>
       </c>
       <c r="D124" t="n">
-        <v>0.890471</v>
+        <v>0.688042</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.940813</v>
+        <v>0.617043</v>
       </c>
       <c r="C125" t="n">
-        <v>0.884534</v>
+        <v>0.699428</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8916770000000001</v>
+        <v>0.683459</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.947564</v>
+        <v>0.613922</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8859</v>
+        <v>0.696303</v>
       </c>
       <c r="D126" t="n">
-        <v>0.893391</v>
+        <v>0.68057</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.952923</v>
+        <v>0.609442</v>
       </c>
       <c r="C127" t="n">
-        <v>0.887144</v>
+        <v>0.693008</v>
       </c>
       <c r="D127" t="n">
-        <v>0.895835</v>
+        <v>0.675951</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9595590000000001</v>
+        <v>0.60594</v>
       </c>
       <c r="C128" t="n">
-        <v>0.889194</v>
+        <v>0.692018</v>
       </c>
       <c r="D128" t="n">
-        <v>0.897347</v>
+        <v>0.6746220000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.965444</v>
+        <v>0.6027979999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.889769</v>
+        <v>0.69029</v>
       </c>
       <c r="D129" t="n">
-        <v>0.898904</v>
+        <v>0.672806</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.972692</v>
+        <v>0.599933</v>
       </c>
       <c r="C130" t="n">
-        <v>0.892452</v>
+        <v>0.689236</v>
       </c>
       <c r="D130" t="n">
-        <v>0.903031</v>
+        <v>0.670798</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.97844</v>
+        <v>0.598077</v>
       </c>
       <c r="C131" t="n">
-        <v>0.896126</v>
+        <v>0.689616</v>
       </c>
       <c r="D131" t="n">
-        <v>0.906023</v>
+        <v>0.669915</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.981667</v>
+        <v>0.596122</v>
       </c>
       <c r="C132" t="n">
-        <v>0.901043</v>
+        <v>0.6916949999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9114910000000001</v>
+        <v>0.670247</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.98827</v>
+        <v>0.594172</v>
       </c>
       <c r="C133" t="n">
-        <v>0.907007</v>
+        <v>0.694535</v>
       </c>
       <c r="D133" t="n">
-        <v>0.918584</v>
+        <v>0.67196</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.992866</v>
+        <v>0.592876</v>
       </c>
       <c r="C134" t="n">
-        <v>0.91249</v>
+        <v>0.698333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9261239999999999</v>
+        <v>0.673735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.998526</v>
+        <v>0.591932</v>
       </c>
       <c r="C135" t="n">
-        <v>0.921551</v>
+        <v>0.702516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.936983</v>
+        <v>0.679239</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00493</v>
+        <v>0.59213</v>
       </c>
       <c r="C136" t="n">
-        <v>0.933485</v>
+        <v>0.7085320000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.948265</v>
+        <v>0.684963</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01094</v>
+        <v>0.593466</v>
       </c>
       <c r="C137" t="n">
-        <v>0.945852</v>
+        <v>0.714125</v>
       </c>
       <c r="D137" t="n">
-        <v>1.09525</v>
+        <v>0.824628</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16722</v>
+        <v>0.7414849999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>1.09452</v>
+        <v>0.856953</v>
       </c>
       <c r="D138" t="n">
-        <v>1.09396</v>
+        <v>0.817527</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17475</v>
+        <v>0.739187</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09244</v>
+        <v>0.853693</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09314</v>
+        <v>0.811079</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18093</v>
+        <v>0.73727</v>
       </c>
       <c r="C140" t="n">
-        <v>1.09058</v>
+        <v>0.850328</v>
       </c>
       <c r="D140" t="n">
-        <v>1.09226</v>
+        <v>0.80558</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18529</v>
+        <v>0.734591</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08906</v>
+        <v>0.847885</v>
       </c>
       <c r="D141" t="n">
-        <v>1.09194</v>
+        <v>0.799841</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19089</v>
+        <v>0.7321</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08903</v>
+        <v>0.84578</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0927</v>
+        <v>0.795538</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19637</v>
+        <v>0.730556</v>
       </c>
       <c r="C143" t="n">
-        <v>1.08878</v>
+        <v>0.84404</v>
       </c>
       <c r="D143" t="n">
-        <v>1.09419</v>
+        <v>0.791517</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283568</v>
+        <v>0.280864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.296711</v>
+        <v>0.29696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.288646</v>
+        <v>0.286901</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.275891</v>
+        <v>0.274316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289877</v>
+        <v>0.289636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.282068</v>
+        <v>0.280755</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27034</v>
+        <v>0.268395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283721</v>
+        <v>0.284053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.276896</v>
+        <v>0.276193</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.265069</v>
+        <v>0.263654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279233</v>
+        <v>0.279293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273599</v>
+        <v>0.272145</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.260751</v>
+        <v>0.25896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.274598</v>
+        <v>0.274845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27277</v>
+        <v>0.268515</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.257336</v>
+        <v>0.255894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.271669</v>
+        <v>0.271855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268278</v>
+        <v>0.266846</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.256175</v>
+        <v>0.254681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.269571</v>
+        <v>0.269579</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268218</v>
+        <v>0.267663</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257022</v>
+        <v>0.255058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270295</v>
+        <v>0.270493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.364168</v>
+        <v>0.356896</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343765</v>
+        <v>0.350172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.359636</v>
+        <v>0.359098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.353778</v>
+        <v>0.346751</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334777</v>
+        <v>0.339504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349371</v>
+        <v>0.349191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.343868</v>
+        <v>0.337405</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.325406</v>
+        <v>0.329426</v>
       </c>
       <c r="C12" t="n">
-        <v>0.339852</v>
+        <v>0.33979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.334487</v>
+        <v>0.328068</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.316712</v>
+        <v>0.31975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.330431</v>
+        <v>0.330899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325617</v>
+        <v>0.319473</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308378</v>
+        <v>0.311009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.322216</v>
+        <v>0.32254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.31776</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.300416</v>
+        <v>0.30362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.314546</v>
+        <v>0.31472</v>
       </c>
       <c r="D15" t="n">
-        <v>0.309921</v>
+        <v>0.303761</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29335</v>
+        <v>0.295981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.306822</v>
+        <v>0.307107</v>
       </c>
       <c r="D16" t="n">
-        <v>0.302201</v>
+        <v>0.296846</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286378</v>
+        <v>0.288455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.29996</v>
+        <v>0.300411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29584</v>
+        <v>0.29089</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.279656</v>
+        <v>0.281918</v>
       </c>
       <c r="C18" t="n">
-        <v>0.293918</v>
+        <v>0.294633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289729</v>
+        <v>0.285454</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274014</v>
+        <v>0.276183</v>
       </c>
       <c r="C19" t="n">
-        <v>0.288736</v>
+        <v>0.289199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.285042</v>
+        <v>0.281039</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269377</v>
+        <v>0.271217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28412</v>
+        <v>0.284726</v>
       </c>
       <c r="D20" t="n">
-        <v>0.281445</v>
+        <v>0.277309</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.265972</v>
+        <v>0.267865</v>
       </c>
       <c r="C21" t="n">
-        <v>0.281139</v>
+        <v>0.281761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.279733</v>
+        <v>0.276052</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.263643</v>
+        <v>0.265479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.279242</v>
+        <v>0.279747</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280092</v>
+        <v>0.27676</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263027</v>
+        <v>0.264547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280087</v>
+        <v>0.280476</v>
       </c>
       <c r="D23" t="n">
-        <v>0.371448</v>
+        <v>0.368146</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350466</v>
+        <v>0.351795</v>
       </c>
       <c r="C24" t="n">
-        <v>0.371267</v>
+        <v>0.371953</v>
       </c>
       <c r="D24" t="n">
-        <v>0.360602</v>
+        <v>0.358279</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340655</v>
+        <v>0.341859</v>
       </c>
       <c r="C25" t="n">
-        <v>0.361224</v>
+        <v>0.362327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.350171</v>
+        <v>0.348547</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.331639</v>
+        <v>0.332574</v>
       </c>
       <c r="C26" t="n">
-        <v>0.35153</v>
+        <v>0.352949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.341568</v>
+        <v>0.339295</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.322526</v>
+        <v>0.323635</v>
       </c>
       <c r="C27" t="n">
-        <v>0.342144</v>
+        <v>0.343753</v>
       </c>
       <c r="D27" t="n">
-        <v>0.331964</v>
+        <v>0.330633</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314337</v>
+        <v>0.315415</v>
       </c>
       <c r="C28" t="n">
-        <v>0.333505</v>
+        <v>0.335618</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323703</v>
+        <v>0.322763</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306699</v>
+        <v>0.307578</v>
       </c>
       <c r="C29" t="n">
-        <v>0.325442</v>
+        <v>0.327764</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316641</v>
+        <v>0.31513</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298882</v>
+        <v>0.299886</v>
       </c>
       <c r="C30" t="n">
-        <v>0.317549</v>
+        <v>0.320204</v>
       </c>
       <c r="D30" t="n">
-        <v>0.308529</v>
+        <v>0.308166</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.292023</v>
+        <v>0.292865</v>
       </c>
       <c r="C31" t="n">
-        <v>0.310266</v>
+        <v>0.313412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.301712</v>
+        <v>0.301757</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285894</v>
+        <v>0.286417</v>
       </c>
       <c r="C32" t="n">
-        <v>0.30364</v>
+        <v>0.306897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331826</v>
+        <v>0.295741</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279998</v>
+        <v>0.280427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.297618</v>
+        <v>0.301103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.290673</v>
+        <v>0.290723</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.274624</v>
+        <v>0.275622</v>
       </c>
       <c r="C34" t="n">
-        <v>0.292549</v>
+        <v>0.296102</v>
       </c>
       <c r="D34" t="n">
-        <v>0.286491</v>
+        <v>0.286737</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.270089</v>
+        <v>0.270811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.288242</v>
+        <v>0.291952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.314186</v>
+        <v>0.284357</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.267341</v>
+        <v>0.267428</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286021</v>
+        <v>0.289561</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283319</v>
+        <v>0.284117</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.265603</v>
+        <v>0.265765</v>
       </c>
       <c r="C37" t="n">
-        <v>0.285515</v>
+        <v>0.288979</v>
       </c>
       <c r="D37" t="n">
-        <v>0.377356</v>
+        <v>0.378143</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350433</v>
+        <v>0.354286</v>
       </c>
       <c r="C38" t="n">
-        <v>0.382041</v>
+        <v>0.382712</v>
       </c>
       <c r="D38" t="n">
-        <v>0.367221</v>
+        <v>0.3683</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34143</v>
+        <v>0.345388</v>
       </c>
       <c r="C39" t="n">
-        <v>0.373781</v>
+        <v>0.373498</v>
       </c>
       <c r="D39" t="n">
-        <v>0.357605</v>
+        <v>0.358743</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.332568</v>
+        <v>0.336594</v>
       </c>
       <c r="C40" t="n">
-        <v>0.364126</v>
+        <v>0.364486</v>
       </c>
       <c r="D40" t="n">
-        <v>0.348392</v>
+        <v>0.349676</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.324341</v>
+        <v>0.327751</v>
       </c>
       <c r="C41" t="n">
-        <v>0.35487</v>
+        <v>0.355341</v>
       </c>
       <c r="D41" t="n">
-        <v>0.339687</v>
+        <v>0.341033</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.315822</v>
+        <v>0.319639</v>
       </c>
       <c r="C42" t="n">
-        <v>0.346446</v>
+        <v>0.34706</v>
       </c>
       <c r="D42" t="n">
-        <v>0.331548</v>
+        <v>0.333406</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.308669</v>
+        <v>0.311707</v>
       </c>
       <c r="C43" t="n">
-        <v>0.33832</v>
+        <v>0.339099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.324266</v>
+        <v>0.325277</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.301413</v>
+        <v>0.304686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330766</v>
+        <v>0.331712</v>
       </c>
       <c r="D44" t="n">
-        <v>0.316828</v>
+        <v>0.318086</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.294301</v>
+        <v>0.297884</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324503</v>
+        <v>0.324935</v>
       </c>
       <c r="D45" t="n">
-        <v>0.310268</v>
+        <v>0.311639</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.288397</v>
+        <v>0.291431</v>
       </c>
       <c r="C46" t="n">
-        <v>0.317215</v>
+        <v>0.318671</v>
       </c>
       <c r="D46" t="n">
-        <v>0.304477</v>
+        <v>0.305904</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282857</v>
+        <v>0.286073</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31217</v>
+        <v>0.31343</v>
       </c>
       <c r="D47" t="n">
-        <v>0.299681</v>
+        <v>0.300939</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.277663</v>
+        <v>0.280392</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306706</v>
+        <v>0.307959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295802</v>
+        <v>0.296716</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.273442</v>
+        <v>0.276023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303543</v>
+        <v>0.303939</v>
       </c>
       <c r="D49" t="n">
-        <v>0.293313</v>
+        <v>0.29404</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.270206</v>
+        <v>0.273096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301971</v>
+        <v>0.300991</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293547</v>
+        <v>0.293017</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268579</v>
+        <v>0.271528</v>
       </c>
       <c r="C51" t="n">
-        <v>0.300017</v>
+        <v>0.299684</v>
       </c>
       <c r="D51" t="n">
-        <v>0.391248</v>
+        <v>0.390276</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.269286</v>
+        <v>0.271991</v>
       </c>
       <c r="C52" t="n">
-        <v>0.302041</v>
+        <v>0.301052</v>
       </c>
       <c r="D52" t="n">
-        <v>0.380163</v>
+        <v>0.38071</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.348746</v>
+        <v>0.351211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.386732</v>
+        <v>0.387985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.371381</v>
+        <v>0.371408</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339989</v>
+        <v>0.342786</v>
       </c>
       <c r="C54" t="n">
-        <v>0.378466</v>
+        <v>0.379512</v>
       </c>
       <c r="D54" t="n">
-        <v>0.361375</v>
+        <v>0.362598</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331899</v>
+        <v>0.333907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.368976</v>
+        <v>0.370504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.352741</v>
+        <v>0.354615</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323953</v>
+        <v>0.326336</v>
       </c>
       <c r="C56" t="n">
-        <v>0.360879</v>
+        <v>0.36238</v>
       </c>
       <c r="D56" t="n">
-        <v>0.344633</v>
+        <v>0.346689</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.316565</v>
+        <v>0.318787</v>
       </c>
       <c r="C57" t="n">
-        <v>0.353246</v>
+        <v>0.354886</v>
       </c>
       <c r="D57" t="n">
-        <v>0.337118</v>
+        <v>0.339043</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.309611</v>
+        <v>0.311837</v>
       </c>
       <c r="C58" t="n">
-        <v>0.346078</v>
+        <v>0.347491</v>
       </c>
       <c r="D58" t="n">
-        <v>0.32997</v>
+        <v>0.33206</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303124</v>
+        <v>0.305243</v>
       </c>
       <c r="C59" t="n">
-        <v>0.339593</v>
+        <v>0.340959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.323488</v>
+        <v>0.325701</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297133</v>
+        <v>0.299049</v>
       </c>
       <c r="C60" t="n">
-        <v>0.333469</v>
+        <v>0.334731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.317848</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.291615</v>
+        <v>0.293495</v>
       </c>
       <c r="C61" t="n">
-        <v>0.328161</v>
+        <v>0.329254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.31296</v>
+        <v>0.315135</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.286685</v>
+        <v>0.288402</v>
       </c>
       <c r="C62" t="n">
-        <v>0.323485</v>
+        <v>0.324299</v>
       </c>
       <c r="D62" t="n">
-        <v>0.308931</v>
+        <v>0.310977</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282523</v>
+        <v>0.284284</v>
       </c>
       <c r="C63" t="n">
-        <v>0.319546</v>
+        <v>0.320136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306105</v>
+        <v>0.307957</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2793</v>
+        <v>0.281135</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316696</v>
+        <v>0.316986</v>
       </c>
       <c r="D64" t="n">
-        <v>0.305008</v>
+        <v>0.306576</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.277455</v>
+        <v>0.27913</v>
       </c>
       <c r="C65" t="n">
-        <v>0.315631</v>
+        <v>0.315284</v>
       </c>
       <c r="D65" t="n">
-        <v>0.306802</v>
+        <v>0.307707</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.277645</v>
+        <v>0.27947</v>
       </c>
       <c r="C66" t="n">
-        <v>0.317098</v>
+        <v>0.31616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.395348</v>
+        <v>0.397062</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363383</v>
+        <v>0.36583</v>
       </c>
       <c r="C67" t="n">
-        <v>0.406626</v>
+        <v>0.406032</v>
       </c>
       <c r="D67" t="n">
-        <v>0.385549</v>
+        <v>0.388016</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.354781</v>
+        <v>0.356769</v>
       </c>
       <c r="C68" t="n">
-        <v>0.396929</v>
+        <v>0.397023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.376133</v>
+        <v>0.379397</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.346559</v>
+        <v>0.348534</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388386</v>
+        <v>0.388513</v>
       </c>
       <c r="D69" t="n">
-        <v>0.367378</v>
+        <v>0.371257</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33888</v>
+        <v>0.340821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.379989</v>
+        <v>0.380376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.35895</v>
+        <v>0.363535</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.331255</v>
+        <v>0.333182</v>
       </c>
       <c r="C71" t="n">
-        <v>0.372313</v>
+        <v>0.372939</v>
       </c>
       <c r="D71" t="n">
-        <v>0.351149</v>
+        <v>0.356399</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.324249</v>
+        <v>0.326061</v>
       </c>
       <c r="C72" t="n">
-        <v>0.364986</v>
+        <v>0.365781</v>
       </c>
       <c r="D72" t="n">
-        <v>0.343913</v>
+        <v>0.349637</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31797</v>
+        <v>0.319624</v>
       </c>
       <c r="C73" t="n">
-        <v>0.35817</v>
+        <v>0.359153</v>
       </c>
       <c r="D73" t="n">
-        <v>0.337182</v>
+        <v>0.343487</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311562</v>
+        <v>0.313469</v>
       </c>
       <c r="C74" t="n">
-        <v>0.351998</v>
+        <v>0.352763</v>
       </c>
       <c r="D74" t="n">
-        <v>0.331222</v>
+        <v>0.337665</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.306046</v>
+        <v>0.307652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.34634</v>
+        <v>0.347179</v>
       </c>
       <c r="D75" t="n">
-        <v>0.325859</v>
+        <v>0.332826</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.300795</v>
+        <v>0.302441</v>
       </c>
       <c r="C76" t="n">
-        <v>0.341331</v>
+        <v>0.342163</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32157</v>
+        <v>0.328749</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.296496</v>
+        <v>0.297961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.33692</v>
+        <v>0.337805</v>
       </c>
       <c r="D77" t="n">
-        <v>0.318249</v>
+        <v>0.325512</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293334</v>
+        <v>0.294432</v>
       </c>
       <c r="C78" t="n">
-        <v>0.33461</v>
+        <v>0.334629</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316674</v>
+        <v>0.323655</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.291393</v>
+        <v>0.292256</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332781</v>
+        <v>0.332741</v>
       </c>
       <c r="D79" t="n">
-        <v>0.317401</v>
+        <v>0.324207</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.291154</v>
+        <v>0.29204</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333295</v>
+        <v>0.333286</v>
       </c>
       <c r="D80" t="n">
-        <v>0.413985</v>
+        <v>0.419614</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.398811</v>
+        <v>0.39992</v>
       </c>
       <c r="C81" t="n">
-        <v>0.428954</v>
+        <v>0.429358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.404481</v>
+        <v>0.411412</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.393534</v>
+        <v>0.393921</v>
       </c>
       <c r="C82" t="n">
-        <v>0.420414</v>
+        <v>0.421968</v>
       </c>
       <c r="D82" t="n">
-        <v>0.39558</v>
+        <v>0.403331</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.387632</v>
+        <v>0.387985</v>
       </c>
       <c r="C83" t="n">
-        <v>0.411915</v>
+        <v>0.413967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.387095</v>
+        <v>0.395553</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.38142</v>
+        <v>0.381551</v>
       </c>
       <c r="C84" t="n">
-        <v>0.403737</v>
+        <v>0.40628</v>
       </c>
       <c r="D84" t="n">
-        <v>0.378803</v>
+        <v>0.388156</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374894</v>
+        <v>0.375042</v>
       </c>
       <c r="C85" t="n">
-        <v>0.396001</v>
+        <v>0.398867</v>
       </c>
       <c r="D85" t="n">
-        <v>0.370915</v>
+        <v>0.381037</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.368168</v>
+        <v>0.368151</v>
       </c>
       <c r="C86" t="n">
-        <v>0.388433</v>
+        <v>0.391837</v>
       </c>
       <c r="D86" t="n">
-        <v>0.363404</v>
+        <v>0.374201</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36138</v>
+        <v>0.361354</v>
       </c>
       <c r="C87" t="n">
-        <v>0.381269</v>
+        <v>0.385003</v>
       </c>
       <c r="D87" t="n">
-        <v>0.356408</v>
+        <v>0.367726</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.354595</v>
+        <v>0.354856</v>
       </c>
       <c r="C88" t="n">
-        <v>0.374555</v>
+        <v>0.378661</v>
       </c>
       <c r="D88" t="n">
-        <v>0.349978</v>
+        <v>0.361757</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348173</v>
+        <v>0.348075</v>
       </c>
       <c r="C89" t="n">
-        <v>0.368387</v>
+        <v>0.372912</v>
       </c>
       <c r="D89" t="n">
-        <v>0.344246</v>
+        <v>0.356453</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.342</v>
+        <v>0.341866</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36276</v>
+        <v>0.367553</v>
       </c>
       <c r="D90" t="n">
-        <v>0.33931</v>
+        <v>0.351854</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.336592</v>
+        <v>0.336547</v>
       </c>
       <c r="C91" t="n">
-        <v>0.357891</v>
+        <v>0.362748</v>
       </c>
       <c r="D91" t="n">
-        <v>0.335529</v>
+        <v>0.348159</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.331918</v>
+        <v>0.33202</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353929</v>
+        <v>0.359042</v>
       </c>
       <c r="D92" t="n">
-        <v>0.333253</v>
+        <v>0.345902</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.32819</v>
+        <v>0.328291</v>
       </c>
       <c r="C93" t="n">
-        <v>0.351462</v>
+        <v>0.356535</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333168</v>
+        <v>0.345746</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.326779</v>
+        <v>0.326517</v>
       </c>
       <c r="C94" t="n">
-        <v>0.350906</v>
+        <v>0.355893</v>
       </c>
       <c r="D94" t="n">
-        <v>0.44315</v>
+        <v>0.456844</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.432731</v>
+        <v>0.432769</v>
       </c>
       <c r="C95" t="n">
-        <v>0.458696</v>
+        <v>0.462876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.441286</v>
+        <v>0.458002</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.431719</v>
+        <v>0.431994</v>
       </c>
       <c r="C96" t="n">
-        <v>0.459783</v>
+        <v>0.467975</v>
       </c>
       <c r="D96" t="n">
-        <v>0.437701</v>
+        <v>0.455972</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.42685</v>
+        <v>0.426819</v>
       </c>
       <c r="C97" t="n">
-        <v>0.456839</v>
+        <v>0.466679</v>
       </c>
       <c r="D97" t="n">
-        <v>0.433387</v>
+        <v>0.452852</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.421422</v>
+        <v>0.421296</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45285</v>
+        <v>0.464128</v>
       </c>
       <c r="D98" t="n">
-        <v>0.428699</v>
+        <v>0.449047</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.415472</v>
+        <v>0.415757</v>
       </c>
       <c r="C99" t="n">
-        <v>0.448598</v>
+        <v>0.460873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.423598</v>
+        <v>0.444881</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.409786</v>
+        <v>0.41017</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444013</v>
+        <v>0.457624</v>
       </c>
       <c r="D100" t="n">
-        <v>0.418808</v>
+        <v>0.440676</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.404271</v>
+        <v>0.404447</v>
       </c>
       <c r="C101" t="n">
-        <v>0.439339</v>
+        <v>0.453598</v>
       </c>
       <c r="D101" t="n">
-        <v>0.413951</v>
+        <v>0.436421</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.398663</v>
+        <v>0.399248</v>
       </c>
       <c r="C102" t="n">
-        <v>0.435022</v>
+        <v>0.450142</v>
       </c>
       <c r="D102" t="n">
-        <v>0.409625</v>
+        <v>0.432333</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.393458</v>
+        <v>0.393763</v>
       </c>
       <c r="C103" t="n">
-        <v>0.430993</v>
+        <v>0.446614</v>
       </c>
       <c r="D103" t="n">
-        <v>0.405722</v>
+        <v>0.428457</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.388505</v>
+        <v>0.388726</v>
       </c>
       <c r="C104" t="n">
-        <v>0.427689</v>
+        <v>0.443442</v>
       </c>
       <c r="D104" t="n">
-        <v>0.402378</v>
+        <v>0.425196</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384328</v>
+        <v>0.384403</v>
       </c>
       <c r="C105" t="n">
-        <v>0.425003</v>
+        <v>0.440747</v>
       </c>
       <c r="D105" t="n">
-        <v>0.399934</v>
+        <v>0.422523</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.38058</v>
+        <v>0.380681</v>
       </c>
       <c r="C106" t="n">
-        <v>0.422966</v>
+        <v>0.438514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.398435</v>
+        <v>0.420817</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.377438</v>
+        <v>0.377717</v>
       </c>
       <c r="C107" t="n">
-        <v>0.422194</v>
+        <v>0.437186</v>
       </c>
       <c r="D107" t="n">
-        <v>0.398524</v>
+        <v>0.420567</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.375965</v>
+        <v>0.376225</v>
       </c>
       <c r="C108" t="n">
-        <v>0.422747</v>
+        <v>0.437088</v>
       </c>
       <c r="D108" t="n">
-        <v>0.575439</v>
+        <v>0.594709</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.376146</v>
+        <v>0.376833</v>
       </c>
       <c r="C109" t="n">
-        <v>0.423623</v>
+        <v>0.437352</v>
       </c>
       <c r="D109" t="n">
-        <v>0.573468</v>
+        <v>0.597921</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.515644</v>
+        <v>0.513947</v>
       </c>
       <c r="C110" t="n">
-        <v>0.563187</v>
+        <v>0.579285</v>
       </c>
       <c r="D110" t="n">
-        <v>0.569438</v>
+        <v>0.595496</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.509387</v>
+        <v>0.508231</v>
       </c>
       <c r="C111" t="n">
-        <v>0.558797</v>
+        <v>0.578575</v>
       </c>
       <c r="D111" t="n">
-        <v>0.565956</v>
+        <v>0.593297</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.503567</v>
+        <v>0.501909</v>
       </c>
       <c r="C112" t="n">
-        <v>0.557332</v>
+        <v>0.578308</v>
       </c>
       <c r="D112" t="n">
-        <v>0.56166</v>
+        <v>0.591118</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.498664</v>
+        <v>0.497098</v>
       </c>
       <c r="C113" t="n">
-        <v>0.552257</v>
+        <v>0.577912</v>
       </c>
       <c r="D113" t="n">
-        <v>0.557794</v>
+        <v>0.588182</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.492033</v>
+        <v>0.491362</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549214</v>
+        <v>0.576119</v>
       </c>
       <c r="D114" t="n">
-        <v>0.554755</v>
+        <v>0.584802</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.486846</v>
+        <v>0.486345</v>
       </c>
       <c r="C115" t="n">
-        <v>0.548289</v>
+        <v>0.57415</v>
       </c>
       <c r="D115" t="n">
-        <v>0.551627</v>
+        <v>0.582437</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.481117</v>
+        <v>0.481972</v>
       </c>
       <c r="C116" t="n">
-        <v>0.545865</v>
+        <v>0.572209</v>
       </c>
       <c r="D116" t="n">
-        <v>0.549769</v>
+        <v>0.579725</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.477038</v>
+        <v>0.477187</v>
       </c>
       <c r="C117" t="n">
-        <v>0.543367</v>
+        <v>0.571398</v>
       </c>
       <c r="D117" t="n">
-        <v>0.548602</v>
+        <v>0.578098</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.473326</v>
+        <v>0.473235</v>
       </c>
       <c r="C118" t="n">
-        <v>0.544647</v>
+        <v>0.571446</v>
       </c>
       <c r="D118" t="n">
-        <v>0.548663</v>
+        <v>0.576596</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.469894</v>
+        <v>0.469415</v>
       </c>
       <c r="C119" t="n">
-        <v>0.545513</v>
+        <v>0.571277</v>
       </c>
       <c r="D119" t="n">
-        <v>0.548112</v>
+        <v>0.576471</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.466681</v>
+        <v>0.467238</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547423</v>
+        <v>0.57284</v>
       </c>
       <c r="D120" t="n">
-        <v>0.549218</v>
+        <v>0.575437</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.464899</v>
+        <v>0.464921</v>
       </c>
       <c r="C121" t="n">
-        <v>0.550799</v>
+        <v>0.571927</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5525330000000001</v>
+        <v>0.575559</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.464568</v>
+        <v>0.463542</v>
       </c>
       <c r="C122" t="n">
-        <v>0.555327</v>
+        <v>0.572855</v>
       </c>
       <c r="D122" t="n">
-        <v>0.555369</v>
+        <v>0.575713</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.46557</v>
+        <v>0.464689</v>
       </c>
       <c r="C123" t="n">
-        <v>0.559499</v>
+        <v>0.575035</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6939419999999999</v>
+        <v>0.7201</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.620731</v>
+        <v>0.618949</v>
       </c>
       <c r="C124" t="n">
-        <v>0.702485</v>
+        <v>0.7221880000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.688042</v>
+        <v>0.7203000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.617043</v>
+        <v>0.617046</v>
       </c>
       <c r="C125" t="n">
-        <v>0.699428</v>
+        <v>0.722176</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683459</v>
+        <v>0.720198</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.613922</v>
+        <v>0.6118710000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.696303</v>
+        <v>0.7226939999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.68057</v>
+        <v>0.72104</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.609442</v>
+        <v>0.60827</v>
       </c>
       <c r="C127" t="n">
-        <v>0.693008</v>
+        <v>0.723985</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675951</v>
+        <v>0.720375</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.60594</v>
+        <v>0.605253</v>
       </c>
       <c r="C128" t="n">
-        <v>0.692018</v>
+        <v>0.723372</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6746220000000001</v>
+        <v>0.7204390000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6027979999999999</v>
+        <v>0.602629</v>
       </c>
       <c r="C129" t="n">
-        <v>0.69029</v>
+        <v>0.72506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.672806</v>
+        <v>0.720035</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.599933</v>
+        <v>0.600313</v>
       </c>
       <c r="C130" t="n">
-        <v>0.689236</v>
+        <v>0.7254350000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.670798</v>
+        <v>0.721849</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.598077</v>
+        <v>0.598444</v>
       </c>
       <c r="C131" t="n">
-        <v>0.689616</v>
+        <v>0.727459</v>
       </c>
       <c r="D131" t="n">
-        <v>0.669915</v>
+        <v>0.721672</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.596122</v>
+        <v>0.59676</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6916949999999999</v>
+        <v>0.728031</v>
       </c>
       <c r="D132" t="n">
-        <v>0.670247</v>
+        <v>0.723376</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.594172</v>
+        <v>0.593608</v>
       </c>
       <c r="C133" t="n">
-        <v>0.694535</v>
+        <v>0.729793</v>
       </c>
       <c r="D133" t="n">
-        <v>0.67196</v>
+        <v>0.723918</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.592876</v>
+        <v>0.593145</v>
       </c>
       <c r="C134" t="n">
-        <v>0.698333</v>
+        <v>0.731407</v>
       </c>
       <c r="D134" t="n">
-        <v>0.673735</v>
+        <v>0.726027</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.591932</v>
+        <v>0.591809</v>
       </c>
       <c r="C135" t="n">
-        <v>0.702516</v>
+        <v>0.734075</v>
       </c>
       <c r="D135" t="n">
-        <v>0.679239</v>
+        <v>0.726999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.59213</v>
+        <v>0.591997</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7085320000000001</v>
+        <v>0.735797</v>
       </c>
       <c r="D136" t="n">
-        <v>0.684963</v>
+        <v>0.727469</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.593466</v>
+        <v>0.59244</v>
       </c>
       <c r="C137" t="n">
-        <v>0.714125</v>
+        <v>0.73793</v>
       </c>
       <c r="D137" t="n">
-        <v>0.824628</v>
+        <v>0.873685</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7414849999999999</v>
+        <v>0.7405659999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.856953</v>
+        <v>0.8817</v>
       </c>
       <c r="D138" t="n">
-        <v>0.817527</v>
+        <v>0.874225</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.739187</v>
+        <v>0.738161</v>
       </c>
       <c r="C139" t="n">
-        <v>0.853693</v>
+        <v>0.8831830000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.811079</v>
+        <v>0.875317</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.73727</v>
+        <v>0.736716</v>
       </c>
       <c r="C140" t="n">
-        <v>0.850328</v>
+        <v>0.884711</v>
       </c>
       <c r="D140" t="n">
-        <v>0.80558</v>
+        <v>0.876663</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.734591</v>
+        <v>0.733616</v>
       </c>
       <c r="C141" t="n">
-        <v>0.847885</v>
+        <v>0.886231</v>
       </c>
       <c r="D141" t="n">
-        <v>0.799841</v>
+        <v>0.876831</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7321</v>
+        <v>0.732176</v>
       </c>
       <c r="C142" t="n">
-        <v>0.84578</v>
+        <v>0.887041</v>
       </c>
       <c r="D142" t="n">
-        <v>0.795538</v>
+        <v>0.87843</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.730556</v>
+        <v>0.730417</v>
       </c>
       <c r="C143" t="n">
-        <v>0.84404</v>
+        <v>0.888184</v>
       </c>
       <c r="D143" t="n">
-        <v>0.791517</v>
+        <v>0.87984</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280864</v>
+        <v>0.251172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29696</v>
+        <v>0.238018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.286901</v>
+        <v>0.229723</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.274316</v>
+        <v>0.235992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289636</v>
+        <v>0.231449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.280755</v>
+        <v>0.224047</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.268395</v>
+        <v>0.232694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.284053</v>
+        <v>0.225675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.276193</v>
+        <v>0.218914</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.263654</v>
+        <v>0.234428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279293</v>
+        <v>0.221477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.272145</v>
+        <v>0.215653</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25896</v>
+        <v>0.230128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.274845</v>
+        <v>0.217063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268515</v>
+        <v>0.212329</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.255894</v>
+        <v>0.225217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.271855</v>
+        <v>0.213862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266846</v>
+        <v>0.210453</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.254681</v>
+        <v>0.222466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.269579</v>
+        <v>0.21151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267663</v>
+        <v>0.211187</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.255058</v>
+        <v>0.223229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270493</v>
+        <v>0.212308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.356896</v>
+        <v>0.299642</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.350172</v>
+        <v>0.313973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.359098</v>
+        <v>0.302024</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346751</v>
+        <v>0.289655</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339504</v>
+        <v>0.302372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349191</v>
+        <v>0.292059</v>
       </c>
       <c r="D11" t="n">
-        <v>0.337405</v>
+        <v>0.280426</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329426</v>
+        <v>0.290339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.33979</v>
+        <v>0.283079</v>
       </c>
       <c r="D12" t="n">
-        <v>0.328068</v>
+        <v>0.271599</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31975</v>
+        <v>0.280862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.330899</v>
+        <v>0.273859</v>
       </c>
       <c r="D13" t="n">
-        <v>0.319473</v>
+        <v>0.263213</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311009</v>
+        <v>0.273286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.32254</v>
+        <v>0.265522</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3114</v>
+        <v>0.255671</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30362</v>
+        <v>0.268877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.31472</v>
+        <v>0.257851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.303761</v>
+        <v>0.248273</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.295981</v>
+        <v>0.262668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307107</v>
+        <v>0.250325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.296846</v>
+        <v>0.24153</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.288455</v>
+        <v>0.25745</v>
       </c>
       <c r="C17" t="n">
-        <v>0.300411</v>
+        <v>0.243581</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29089</v>
+        <v>0.235972</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.281918</v>
+        <v>0.251996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.294633</v>
+        <v>0.237418</v>
       </c>
       <c r="D18" t="n">
-        <v>0.285454</v>
+        <v>0.230702</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276183</v>
+        <v>0.248972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.289199</v>
+        <v>0.2324</v>
       </c>
       <c r="D19" t="n">
-        <v>0.281039</v>
+        <v>0.226413</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271217</v>
+        <v>0.246489</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284726</v>
+        <v>0.22808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.277309</v>
+        <v>0.223273</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.267865</v>
+        <v>0.242232</v>
       </c>
       <c r="C21" t="n">
-        <v>0.281761</v>
+        <v>0.224997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.276052</v>
+        <v>0.221325</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.265479</v>
+        <v>0.239585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.279747</v>
+        <v>0.223368</v>
       </c>
       <c r="D22" t="n">
-        <v>0.27676</v>
+        <v>0.221821</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264547</v>
+        <v>0.238083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280476</v>
+        <v>0.224151</v>
       </c>
       <c r="D23" t="n">
-        <v>0.368146</v>
+        <v>0.313019</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.351795</v>
+        <v>0.322875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.371953</v>
+        <v>0.314719</v>
       </c>
       <c r="D24" t="n">
-        <v>0.358279</v>
+        <v>0.303267</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341859</v>
+        <v>0.313095</v>
       </c>
       <c r="C25" t="n">
-        <v>0.362327</v>
+        <v>0.304802</v>
       </c>
       <c r="D25" t="n">
-        <v>0.348547</v>
+        <v>0.293669</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.332574</v>
+        <v>0.30371</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352949</v>
+        <v>0.295137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.339295</v>
+        <v>0.284175</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.323635</v>
+        <v>0.2949</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343753</v>
+        <v>0.286058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.330633</v>
+        <v>0.275907</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.315415</v>
+        <v>0.285867</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335618</v>
+        <v>0.277622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.322763</v>
+        <v>0.267865</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.307578</v>
+        <v>0.278391</v>
       </c>
       <c r="C29" t="n">
-        <v>0.327764</v>
+        <v>0.269689</v>
       </c>
       <c r="D29" t="n">
-        <v>0.31513</v>
+        <v>0.260124</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.299886</v>
+        <v>0.269966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.320204</v>
+        <v>0.261989</v>
       </c>
       <c r="D30" t="n">
-        <v>0.308166</v>
+        <v>0.252808</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.292865</v>
+        <v>0.26317</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313412</v>
+        <v>0.255095</v>
       </c>
       <c r="D31" t="n">
-        <v>0.301757</v>
+        <v>0.246335</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.286417</v>
+        <v>0.256096</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306897</v>
+        <v>0.248405</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295741</v>
+        <v>0.240573</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280427</v>
+        <v>0.250194</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301103</v>
+        <v>0.242502</v>
       </c>
       <c r="D33" t="n">
-        <v>0.290723</v>
+        <v>0.235136</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275622</v>
+        <v>0.244593</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296102</v>
+        <v>0.237479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.286737</v>
+        <v>0.230977</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.270811</v>
+        <v>0.240118</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291952</v>
+        <v>0.233136</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284357</v>
+        <v>0.228188</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.267428</v>
+        <v>0.236902</v>
       </c>
       <c r="C36" t="n">
-        <v>0.289561</v>
+        <v>0.230595</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284117</v>
+        <v>0.227589</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.265765</v>
+        <v>0.234891</v>
       </c>
       <c r="C37" t="n">
-        <v>0.288979</v>
+        <v>0.23017</v>
       </c>
       <c r="D37" t="n">
-        <v>0.378143</v>
+        <v>0.321545</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354286</v>
+        <v>0.320508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.382712</v>
+        <v>0.327039</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3683</v>
+        <v>0.311601</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345388</v>
+        <v>0.311963</v>
       </c>
       <c r="C39" t="n">
-        <v>0.373498</v>
+        <v>0.317356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.358743</v>
+        <v>0.302239</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336594</v>
+        <v>0.300409</v>
       </c>
       <c r="C40" t="n">
-        <v>0.364486</v>
+        <v>0.307573</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349676</v>
+        <v>0.293412</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327751</v>
+        <v>0.292338</v>
       </c>
       <c r="C41" t="n">
-        <v>0.355341</v>
+        <v>0.298607</v>
       </c>
       <c r="D41" t="n">
-        <v>0.341033</v>
+        <v>0.284175</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.319639</v>
+        <v>0.285854</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34706</v>
+        <v>0.290056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333406</v>
+        <v>0.276506</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311707</v>
+        <v>0.276005</v>
       </c>
       <c r="C43" t="n">
-        <v>0.339099</v>
+        <v>0.28121</v>
       </c>
       <c r="D43" t="n">
-        <v>0.325277</v>
+        <v>0.268736</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304686</v>
+        <v>0.269196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.331712</v>
+        <v>0.273716</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318086</v>
+        <v>0.261483</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.297884</v>
+        <v>0.261935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324935</v>
+        <v>0.266217</v>
       </c>
       <c r="D45" t="n">
-        <v>0.311639</v>
+        <v>0.254936</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291431</v>
+        <v>0.255844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.318671</v>
+        <v>0.259601</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305904</v>
+        <v>0.249037</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.286073</v>
+        <v>0.249854</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31343</v>
+        <v>0.25387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.300939</v>
+        <v>0.244049</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.280392</v>
+        <v>0.244519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307959</v>
+        <v>0.248834</v>
       </c>
       <c r="D48" t="n">
-        <v>0.296716</v>
+        <v>0.240002</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.276023</v>
+        <v>0.241423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303939</v>
+        <v>0.244761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29404</v>
+        <v>0.237217</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.273096</v>
+        <v>0.238229</v>
       </c>
       <c r="C50" t="n">
-        <v>0.300991</v>
+        <v>0.24176</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293017</v>
+        <v>0.236251</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.271528</v>
+        <v>0.237234</v>
       </c>
       <c r="C51" t="n">
-        <v>0.299684</v>
+        <v>0.240878</v>
       </c>
       <c r="D51" t="n">
-        <v>0.390276</v>
+        <v>0.33462</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.271991</v>
+        <v>0.237268</v>
       </c>
       <c r="C52" t="n">
-        <v>0.301052</v>
+        <v>0.24275</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38071</v>
+        <v>0.324458</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.351211</v>
+        <v>0.31665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.387985</v>
+        <v>0.330477</v>
       </c>
       <c r="D53" t="n">
-        <v>0.371408</v>
+        <v>0.314829</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.342786</v>
+        <v>0.307881</v>
       </c>
       <c r="C54" t="n">
-        <v>0.379512</v>
+        <v>0.320521</v>
       </c>
       <c r="D54" t="n">
-        <v>0.362598</v>
+        <v>0.30569</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333907</v>
+        <v>0.299779</v>
       </c>
       <c r="C55" t="n">
-        <v>0.370504</v>
+        <v>0.311383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.354615</v>
+        <v>0.29677</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326336</v>
+        <v>0.291858</v>
       </c>
       <c r="C56" t="n">
-        <v>0.36238</v>
+        <v>0.303067</v>
       </c>
       <c r="D56" t="n">
-        <v>0.346689</v>
+        <v>0.288599</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.318787</v>
+        <v>0.284557</v>
       </c>
       <c r="C57" t="n">
-        <v>0.354886</v>
+        <v>0.295068</v>
       </c>
       <c r="D57" t="n">
-        <v>0.339043</v>
+        <v>0.280999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311837</v>
+        <v>0.277554</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347491</v>
+        <v>0.287593</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33206</v>
+        <v>0.273824</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305243</v>
+        <v>0.271199</v>
       </c>
       <c r="C59" t="n">
-        <v>0.340959</v>
+        <v>0.28066</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325701</v>
+        <v>0.26716</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.299049</v>
+        <v>0.264962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.334731</v>
+        <v>0.274348</v>
       </c>
       <c r="D60" t="n">
-        <v>0.32</v>
+        <v>0.261544</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293495</v>
+        <v>0.259524</v>
       </c>
       <c r="C61" t="n">
-        <v>0.329254</v>
+        <v>0.268749</v>
       </c>
       <c r="D61" t="n">
-        <v>0.315135</v>
+        <v>0.256315</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.288402</v>
+        <v>0.25439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.324299</v>
+        <v>0.263833</v>
       </c>
       <c r="D62" t="n">
-        <v>0.310977</v>
+        <v>0.252038</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.284284</v>
+        <v>0.250249</v>
       </c>
       <c r="C63" t="n">
-        <v>0.320136</v>
+        <v>0.259583</v>
       </c>
       <c r="D63" t="n">
-        <v>0.307957</v>
+        <v>0.248859</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.281135</v>
+        <v>0.246487</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316986</v>
+        <v>0.256566</v>
       </c>
       <c r="D64" t="n">
-        <v>0.306576</v>
+        <v>0.247611</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.27913</v>
+        <v>0.244847</v>
       </c>
       <c r="C65" t="n">
-        <v>0.315284</v>
+        <v>0.255225</v>
       </c>
       <c r="D65" t="n">
-        <v>0.307707</v>
+        <v>0.248563</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27947</v>
+        <v>0.244691</v>
       </c>
       <c r="C66" t="n">
-        <v>0.31616</v>
+        <v>0.256459</v>
       </c>
       <c r="D66" t="n">
-        <v>0.397062</v>
+        <v>0.337882</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.36583</v>
+        <v>0.330867</v>
       </c>
       <c r="C67" t="n">
-        <v>0.406032</v>
+        <v>0.345626</v>
       </c>
       <c r="D67" t="n">
-        <v>0.388016</v>
+        <v>0.327863</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.356769</v>
+        <v>0.322683</v>
       </c>
       <c r="C68" t="n">
-        <v>0.397023</v>
+        <v>0.335748</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379397</v>
+        <v>0.31829</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348534</v>
+        <v>0.314655</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388513</v>
+        <v>0.326363</v>
       </c>
       <c r="D69" t="n">
-        <v>0.371257</v>
+        <v>0.309382</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.340821</v>
+        <v>0.306754</v>
       </c>
       <c r="C70" t="n">
-        <v>0.380376</v>
+        <v>0.317661</v>
       </c>
       <c r="D70" t="n">
-        <v>0.363535</v>
+        <v>0.300773</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.333182</v>
+        <v>0.299084</v>
       </c>
       <c r="C71" t="n">
-        <v>0.372939</v>
+        <v>0.309377</v>
       </c>
       <c r="D71" t="n">
-        <v>0.356399</v>
+        <v>0.292623</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.326061</v>
+        <v>0.292119</v>
       </c>
       <c r="C72" t="n">
-        <v>0.365781</v>
+        <v>0.301648</v>
       </c>
       <c r="D72" t="n">
-        <v>0.349637</v>
+        <v>0.285381</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.319624</v>
+        <v>0.285483</v>
       </c>
       <c r="C73" t="n">
-        <v>0.359153</v>
+        <v>0.29444</v>
       </c>
       <c r="D73" t="n">
-        <v>0.343487</v>
+        <v>0.278279</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.313469</v>
+        <v>0.279539</v>
       </c>
       <c r="C74" t="n">
-        <v>0.352763</v>
+        <v>0.287932</v>
       </c>
       <c r="D74" t="n">
-        <v>0.337665</v>
+        <v>0.272267</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.307652</v>
+        <v>0.273638</v>
       </c>
       <c r="C75" t="n">
-        <v>0.347179</v>
+        <v>0.282003</v>
       </c>
       <c r="D75" t="n">
-        <v>0.332826</v>
+        <v>0.266898</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.302441</v>
+        <v>0.268888</v>
       </c>
       <c r="C76" t="n">
-        <v>0.342163</v>
+        <v>0.276495</v>
       </c>
       <c r="D76" t="n">
-        <v>0.328749</v>
+        <v>0.262233</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.297961</v>
+        <v>0.26491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.337805</v>
+        <v>0.272063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.325512</v>
+        <v>0.258797</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.294432</v>
+        <v>0.261021</v>
       </c>
       <c r="C78" t="n">
-        <v>0.334629</v>
+        <v>0.268741</v>
       </c>
       <c r="D78" t="n">
-        <v>0.323655</v>
+        <v>0.256803</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.292256</v>
+        <v>0.258471</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332741</v>
+        <v>0.266918</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324207</v>
+        <v>0.25735</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.29204</v>
+        <v>0.257728</v>
       </c>
       <c r="C80" t="n">
-        <v>0.333286</v>
+        <v>0.267408</v>
       </c>
       <c r="D80" t="n">
-        <v>0.419614</v>
+        <v>0.353814</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.39992</v>
+        <v>0.375504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.429358</v>
+        <v>0.367327</v>
       </c>
       <c r="D81" t="n">
-        <v>0.411412</v>
+        <v>0.344284</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.393921</v>
+        <v>0.370329</v>
       </c>
       <c r="C82" t="n">
-        <v>0.421968</v>
+        <v>0.358644</v>
       </c>
       <c r="D82" t="n">
-        <v>0.403331</v>
+        <v>0.335086</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.387985</v>
+        <v>0.364558</v>
       </c>
       <c r="C83" t="n">
-        <v>0.413967</v>
+        <v>0.349986</v>
       </c>
       <c r="D83" t="n">
-        <v>0.395553</v>
+        <v>0.326404</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.381551</v>
+        <v>0.358262</v>
       </c>
       <c r="C84" t="n">
-        <v>0.40628</v>
+        <v>0.341785</v>
       </c>
       <c r="D84" t="n">
-        <v>0.388156</v>
+        <v>0.317921</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.375042</v>
+        <v>0.351487</v>
       </c>
       <c r="C85" t="n">
-        <v>0.398867</v>
+        <v>0.333721</v>
       </c>
       <c r="D85" t="n">
-        <v>0.381037</v>
+        <v>0.309768</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.368151</v>
+        <v>0.344621</v>
       </c>
       <c r="C86" t="n">
-        <v>0.391837</v>
+        <v>0.325765</v>
       </c>
       <c r="D86" t="n">
-        <v>0.374201</v>
+        <v>0.302023</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.361354</v>
+        <v>0.337821</v>
       </c>
       <c r="C87" t="n">
-        <v>0.385003</v>
+        <v>0.318214</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367726</v>
+        <v>0.294863</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.354856</v>
+        <v>0.330843</v>
       </c>
       <c r="C88" t="n">
-        <v>0.378661</v>
+        <v>0.311282</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361757</v>
+        <v>0.288171</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348075</v>
+        <v>0.324269</v>
       </c>
       <c r="C89" t="n">
-        <v>0.372912</v>
+        <v>0.304745</v>
       </c>
       <c r="D89" t="n">
-        <v>0.356453</v>
+        <v>0.282204</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.341866</v>
+        <v>0.31786</v>
       </c>
       <c r="C90" t="n">
-        <v>0.367553</v>
+        <v>0.29903</v>
       </c>
       <c r="D90" t="n">
-        <v>0.351854</v>
+        <v>0.277163</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.336547</v>
+        <v>0.31243</v>
       </c>
       <c r="C91" t="n">
-        <v>0.362748</v>
+        <v>0.293995</v>
       </c>
       <c r="D91" t="n">
-        <v>0.348159</v>
+        <v>0.273084</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.33202</v>
+        <v>0.307452</v>
       </c>
       <c r="C92" t="n">
-        <v>0.359042</v>
+        <v>0.289963</v>
       </c>
       <c r="D92" t="n">
-        <v>0.345902</v>
+        <v>0.270524</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.328291</v>
+        <v>0.303495</v>
       </c>
       <c r="C93" t="n">
-        <v>0.356535</v>
+        <v>0.287432</v>
       </c>
       <c r="D93" t="n">
-        <v>0.345746</v>
+        <v>0.270079</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.326517</v>
+        <v>0.301179</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355893</v>
+        <v>0.286953</v>
       </c>
       <c r="D94" t="n">
-        <v>0.456844</v>
+        <v>0.377517</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.432769</v>
+        <v>0.400268</v>
       </c>
       <c r="C95" t="n">
-        <v>0.462876</v>
+        <v>0.392118</v>
       </c>
       <c r="D95" t="n">
-        <v>0.458002</v>
+        <v>0.375623</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.431994</v>
+        <v>0.398671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.467975</v>
+        <v>0.391663</v>
       </c>
       <c r="D96" t="n">
-        <v>0.455972</v>
+        <v>0.371741</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.426819</v>
+        <v>0.39341</v>
       </c>
       <c r="C97" t="n">
-        <v>0.466679</v>
+        <v>0.387913</v>
       </c>
       <c r="D97" t="n">
-        <v>0.452852</v>
+        <v>0.367387</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.421296</v>
+        <v>0.387218</v>
       </c>
       <c r="C98" t="n">
-        <v>0.464128</v>
+        <v>0.383515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.449047</v>
+        <v>0.362959</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.415757</v>
+        <v>0.381132</v>
       </c>
       <c r="C99" t="n">
-        <v>0.460873</v>
+        <v>0.378809</v>
       </c>
       <c r="D99" t="n">
-        <v>0.444881</v>
+        <v>0.358408</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.41017</v>
+        <v>0.375106</v>
       </c>
       <c r="C100" t="n">
-        <v>0.457624</v>
+        <v>0.374164</v>
       </c>
       <c r="D100" t="n">
-        <v>0.440676</v>
+        <v>0.354124</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.404447</v>
+        <v>0.36967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.453598</v>
+        <v>0.369666</v>
       </c>
       <c r="D101" t="n">
-        <v>0.436421</v>
+        <v>0.350081</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.399248</v>
+        <v>0.364042</v>
       </c>
       <c r="C102" t="n">
-        <v>0.450142</v>
+        <v>0.365334</v>
       </c>
       <c r="D102" t="n">
-        <v>0.432333</v>
+        <v>0.346502</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.393763</v>
+        <v>0.359027</v>
       </c>
       <c r="C103" t="n">
-        <v>0.446614</v>
+        <v>0.361505</v>
       </c>
       <c r="D103" t="n">
-        <v>0.428457</v>
+        <v>0.342751</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.388726</v>
+        <v>0.354295</v>
       </c>
       <c r="C104" t="n">
-        <v>0.443442</v>
+        <v>0.358046</v>
       </c>
       <c r="D104" t="n">
-        <v>0.425196</v>
+        <v>0.340283</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384403</v>
+        <v>0.349961</v>
       </c>
       <c r="C105" t="n">
-        <v>0.440747</v>
+        <v>0.355433</v>
       </c>
       <c r="D105" t="n">
-        <v>0.422523</v>
+        <v>0.338299</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.380681</v>
+        <v>0.346212</v>
       </c>
       <c r="C106" t="n">
-        <v>0.438514</v>
+        <v>0.353443</v>
       </c>
       <c r="D106" t="n">
-        <v>0.420817</v>
+        <v>0.337065</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.377717</v>
+        <v>0.343119</v>
       </c>
       <c r="C107" t="n">
-        <v>0.437186</v>
+        <v>0.352575</v>
       </c>
       <c r="D107" t="n">
-        <v>0.420567</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.376225</v>
+        <v>0.341476</v>
       </c>
       <c r="C108" t="n">
-        <v>0.437088</v>
+        <v>0.353267</v>
       </c>
       <c r="D108" t="n">
-        <v>0.594709</v>
+        <v>0.511094</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.376833</v>
+        <v>0.34121</v>
       </c>
       <c r="C109" t="n">
-        <v>0.437352</v>
+        <v>0.353667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597921</v>
+        <v>0.507526</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.513947</v>
+        <v>0.487131</v>
       </c>
       <c r="C110" t="n">
-        <v>0.579285</v>
+        <v>0.490299</v>
       </c>
       <c r="D110" t="n">
-        <v>0.595496</v>
+        <v>0.502277</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.508231</v>
+        <v>0.481201</v>
       </c>
       <c r="C111" t="n">
-        <v>0.578575</v>
+        <v>0.486231</v>
       </c>
       <c r="D111" t="n">
-        <v>0.593297</v>
+        <v>0.496943</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.501909</v>
+        <v>0.473857</v>
       </c>
       <c r="C112" t="n">
-        <v>0.578308</v>
+        <v>0.481351</v>
       </c>
       <c r="D112" t="n">
-        <v>0.591118</v>
+        <v>0.491134</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.497098</v>
+        <v>0.467498</v>
       </c>
       <c r="C113" t="n">
-        <v>0.577912</v>
+        <v>0.477427</v>
       </c>
       <c r="D113" t="n">
-        <v>0.588182</v>
+        <v>0.486844</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.491362</v>
+        <v>0.460944</v>
       </c>
       <c r="C114" t="n">
-        <v>0.576119</v>
+        <v>0.472032</v>
       </c>
       <c r="D114" t="n">
-        <v>0.584802</v>
+        <v>0.482663</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.486345</v>
+        <v>0.454188</v>
       </c>
       <c r="C115" t="n">
-        <v>0.57415</v>
+        <v>0.468817</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582437</v>
+        <v>0.479436</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.481972</v>
+        <v>0.448976</v>
       </c>
       <c r="C116" t="n">
-        <v>0.572209</v>
+        <v>0.467259</v>
       </c>
       <c r="D116" t="n">
-        <v>0.579725</v>
+        <v>0.476823</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.477187</v>
+        <v>0.444139</v>
       </c>
       <c r="C117" t="n">
-        <v>0.571398</v>
+        <v>0.466213</v>
       </c>
       <c r="D117" t="n">
-        <v>0.578098</v>
+        <v>0.474223</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.473235</v>
+        <v>0.439027</v>
       </c>
       <c r="C118" t="n">
-        <v>0.571446</v>
+        <v>0.465347</v>
       </c>
       <c r="D118" t="n">
-        <v>0.576596</v>
+        <v>0.472995</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.469415</v>
+        <v>0.434639</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571277</v>
+        <v>0.464197</v>
       </c>
       <c r="D119" t="n">
-        <v>0.576471</v>
+        <v>0.471763</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.467238</v>
+        <v>0.430686</v>
       </c>
       <c r="C120" t="n">
-        <v>0.57284</v>
+        <v>0.465653</v>
       </c>
       <c r="D120" t="n">
-        <v>0.575437</v>
+        <v>0.471324</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.464921</v>
+        <v>0.427827</v>
       </c>
       <c r="C121" t="n">
-        <v>0.571927</v>
+        <v>0.467162</v>
       </c>
       <c r="D121" t="n">
-        <v>0.575559</v>
+        <v>0.472858</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.463542</v>
+        <v>0.425454</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572855</v>
+        <v>0.470529</v>
       </c>
       <c r="D122" t="n">
-        <v>0.575713</v>
+        <v>0.47461</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.464689</v>
+        <v>0.425184</v>
       </c>
       <c r="C123" t="n">
-        <v>0.575035</v>
+        <v>0.473213</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7201</v>
+        <v>0.609861</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.618949</v>
+        <v>0.58034</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7221880000000001</v>
+        <v>0.614609</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7203000000000001</v>
+        <v>0.604762</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.617046</v>
+        <v>0.5768</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722176</v>
+        <v>0.610049</v>
       </c>
       <c r="D125" t="n">
-        <v>0.720198</v>
+        <v>0.598212</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6118710000000001</v>
+        <v>0.572183</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7226939999999999</v>
+        <v>0.604366</v>
       </c>
       <c r="D126" t="n">
-        <v>0.72104</v>
+        <v>0.593234</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.60827</v>
+        <v>0.568144</v>
       </c>
       <c r="C127" t="n">
-        <v>0.723985</v>
+        <v>0.600588</v>
       </c>
       <c r="D127" t="n">
-        <v>0.720375</v>
+        <v>0.588686</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.605253</v>
+        <v>0.563873</v>
       </c>
       <c r="C128" t="n">
-        <v>0.723372</v>
+        <v>0.5967789999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7204390000000001</v>
+        <v>0.58448</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.602629</v>
+        <v>0.560531</v>
       </c>
       <c r="C129" t="n">
-        <v>0.72506</v>
+        <v>0.594027</v>
       </c>
       <c r="D129" t="n">
-        <v>0.720035</v>
+        <v>0.58111</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.600313</v>
+        <v>0.556969</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7254350000000001</v>
+        <v>0.591584</v>
       </c>
       <c r="D130" t="n">
-        <v>0.721849</v>
+        <v>0.578071</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.598444</v>
+        <v>0.55452</v>
       </c>
       <c r="C131" t="n">
-        <v>0.727459</v>
+        <v>0.590706</v>
       </c>
       <c r="D131" t="n">
-        <v>0.721672</v>
+        <v>0.5757139999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.59676</v>
+        <v>0.550983</v>
       </c>
       <c r="C132" t="n">
-        <v>0.728031</v>
+        <v>0.589565</v>
       </c>
       <c r="D132" t="n">
-        <v>0.723376</v>
+        <v>0.574176</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.593608</v>
+        <v>0.549127</v>
       </c>
       <c r="C133" t="n">
-        <v>0.729793</v>
+        <v>0.590168</v>
       </c>
       <c r="D133" t="n">
-        <v>0.723918</v>
+        <v>0.573665</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.593145</v>
+        <v>0.547865</v>
       </c>
       <c r="C134" t="n">
-        <v>0.731407</v>
+        <v>0.592516</v>
       </c>
       <c r="D134" t="n">
-        <v>0.726027</v>
+        <v>0.5750769999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.591809</v>
+        <v>0.547218</v>
       </c>
       <c r="C135" t="n">
-        <v>0.734075</v>
+        <v>0.594985</v>
       </c>
       <c r="D135" t="n">
-        <v>0.726999</v>
+        <v>0.577408</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.591997</v>
+        <v>0.545638</v>
       </c>
       <c r="C136" t="n">
-        <v>0.735797</v>
+        <v>0.599458</v>
       </c>
       <c r="D136" t="n">
-        <v>0.727469</v>
+        <v>0.580488</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.59244</v>
+        <v>0.544888</v>
       </c>
       <c r="C137" t="n">
-        <v>0.73793</v>
+        <v>0.605217</v>
       </c>
       <c r="D137" t="n">
-        <v>0.873685</v>
+        <v>0.719394</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7405659999999999</v>
+        <v>0.691545</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8817</v>
+        <v>0.74549</v>
       </c>
       <c r="D138" t="n">
-        <v>0.874225</v>
+        <v>0.710217</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.738161</v>
+        <v>0.689893</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8831830000000001</v>
+        <v>0.738665</v>
       </c>
       <c r="D139" t="n">
-        <v>0.875317</v>
+        <v>0.702487</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.736716</v>
+        <v>0.687348</v>
       </c>
       <c r="C140" t="n">
-        <v>0.884711</v>
+        <v>0.732548</v>
       </c>
       <c r="D140" t="n">
-        <v>0.876663</v>
+        <v>0.695316</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.733616</v>
+        <v>0.685227</v>
       </c>
       <c r="C141" t="n">
-        <v>0.886231</v>
+        <v>0.7270489999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.876831</v>
+        <v>0.687941</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.732176</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.887041</v>
+        <v>0.722002</v>
       </c>
       <c r="D142" t="n">
-        <v>0.87843</v>
+        <v>0.681732</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.730417</v>
+        <v>0.681775</v>
       </c>
       <c r="C143" t="n">
-        <v>0.888184</v>
+        <v>0.718377</v>
       </c>
       <c r="D143" t="n">
-        <v>0.87984</v>
+        <v>0.676434</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251172</v>
+        <v>0.247224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238018</v>
+        <v>0.266412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.229723</v>
+        <v>0.257001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.235992</v>
+        <v>0.239857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231449</v>
+        <v>0.25937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224047</v>
+        <v>0.250164</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232694</v>
+        <v>0.233363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225675</v>
+        <v>0.253406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.218914</v>
+        <v>0.245372</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.234428</v>
+        <v>0.227836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221477</v>
+        <v>0.249044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215653</v>
+        <v>0.241602</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230128</v>
+        <v>0.223705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217063</v>
+        <v>0.244264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212329</v>
+        <v>0.23744</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225217</v>
+        <v>0.221066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213862</v>
+        <v>0.241128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210453</v>
+        <v>0.235474</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222466</v>
+        <v>0.218942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21151</v>
+        <v>0.238883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.211187</v>
+        <v>0.235083</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223229</v>
+        <v>0.219114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.212308</v>
+        <v>0.239711</v>
       </c>
       <c r="D9" t="n">
-        <v>0.299642</v>
+        <v>0.327426</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.313973</v>
+        <v>0.309784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.302024</v>
+        <v>0.332061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.289655</v>
+        <v>0.317981</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302372</v>
+        <v>0.300267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292059</v>
+        <v>0.322184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.280426</v>
+        <v>0.308566</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290339</v>
+        <v>0.290827</v>
       </c>
       <c r="C12" t="n">
-        <v>0.283079</v>
+        <v>0.312838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271599</v>
+        <v>0.300153</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280862</v>
+        <v>0.282189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.273859</v>
+        <v>0.304034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263213</v>
+        <v>0.291462</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273286</v>
+        <v>0.273989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.265522</v>
+        <v>0.295676</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255671</v>
+        <v>0.282665</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268877</v>
+        <v>0.265661</v>
       </c>
       <c r="C15" t="n">
-        <v>0.257851</v>
+        <v>0.287608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248273</v>
+        <v>0.276128</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262668</v>
+        <v>0.258283</v>
       </c>
       <c r="C16" t="n">
-        <v>0.250325</v>
+        <v>0.280245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24153</v>
+        <v>0.269107</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25745</v>
+        <v>0.251402</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243581</v>
+        <v>0.273328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.235972</v>
+        <v>0.263103</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251996</v>
+        <v>0.245503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237418</v>
+        <v>0.266972</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230702</v>
+        <v>0.257369</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248972</v>
+        <v>0.239728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2324</v>
+        <v>0.261719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.226413</v>
+        <v>0.252992</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246489</v>
+        <v>0.234541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22808</v>
+        <v>0.257023</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223273</v>
+        <v>0.249275</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242232</v>
+        <v>0.230802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.224997</v>
+        <v>0.25387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221325</v>
+        <v>0.247293</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239585</v>
+        <v>0.228478</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223368</v>
+        <v>0.251774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221821</v>
+        <v>0.247878</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238083</v>
+        <v>0.227123</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224151</v>
+        <v>0.252079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313019</v>
+        <v>0.340707</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.322875</v>
+        <v>0.316802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.314719</v>
+        <v>0.345655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.303267</v>
+        <v>0.330799</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313095</v>
+        <v>0.307413</v>
       </c>
       <c r="C25" t="n">
-        <v>0.304802</v>
+        <v>0.335589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.293669</v>
+        <v>0.321001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.30371</v>
+        <v>0.297123</v>
       </c>
       <c r="C26" t="n">
-        <v>0.295137</v>
+        <v>0.325751</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284175</v>
+        <v>0.312089</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2949</v>
+        <v>0.288611</v>
       </c>
       <c r="C27" t="n">
-        <v>0.286058</v>
+        <v>0.316414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.275907</v>
+        <v>0.303502</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.285867</v>
+        <v>0.280661</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277622</v>
+        <v>0.307742</v>
       </c>
       <c r="D28" t="n">
-        <v>0.267865</v>
+        <v>0.295618</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.278391</v>
+        <v>0.271618</v>
       </c>
       <c r="C29" t="n">
-        <v>0.269689</v>
+        <v>0.299499</v>
       </c>
       <c r="D29" t="n">
-        <v>0.260124</v>
+        <v>0.288026</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269966</v>
+        <v>0.264642</v>
       </c>
       <c r="C30" t="n">
-        <v>0.261989</v>
+        <v>0.291772</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252808</v>
+        <v>0.280876</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26317</v>
+        <v>0.257559</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255095</v>
+        <v>0.284698</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246335</v>
+        <v>0.274518</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.256096</v>
+        <v>0.250612</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248405</v>
+        <v>0.277931</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240573</v>
+        <v>0.268231</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.250194</v>
+        <v>0.245235</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242502</v>
+        <v>0.272015</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235136</v>
+        <v>0.263248</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.244593</v>
+        <v>0.23957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237479</v>
+        <v>0.26679</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230977</v>
+        <v>0.259272</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240118</v>
+        <v>0.235443</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233136</v>
+        <v>0.262298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.228188</v>
+        <v>0.25652</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236902</v>
+        <v>0.232231</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230595</v>
+        <v>0.25983</v>
       </c>
       <c r="D36" t="n">
-        <v>0.227589</v>
+        <v>0.255693</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.234891</v>
+        <v>0.231256</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23017</v>
+        <v>0.259021</v>
       </c>
       <c r="D37" t="n">
-        <v>0.321545</v>
+        <v>0.351417</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320508</v>
+        <v>0.320385</v>
       </c>
       <c r="C38" t="n">
-        <v>0.327039</v>
+        <v>0.356878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.311601</v>
+        <v>0.341486</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.311963</v>
+        <v>0.31117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.317356</v>
+        <v>0.34695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.302239</v>
+        <v>0.331782</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300409</v>
+        <v>0.301607</v>
       </c>
       <c r="C40" t="n">
-        <v>0.307573</v>
+        <v>0.336605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293412</v>
+        <v>0.322897</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292338</v>
+        <v>0.292838</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298607</v>
+        <v>0.32761</v>
       </c>
       <c r="D41" t="n">
-        <v>0.284175</v>
+        <v>0.313262</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.285854</v>
+        <v>0.284203</v>
       </c>
       <c r="C42" t="n">
-        <v>0.290056</v>
+        <v>0.318944</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276506</v>
+        <v>0.305271</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276005</v>
+        <v>0.276222</v>
       </c>
       <c r="C43" t="n">
-        <v>0.28121</v>
+        <v>0.310276</v>
       </c>
       <c r="D43" t="n">
-        <v>0.268736</v>
+        <v>0.298529</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269196</v>
+        <v>0.268772</v>
       </c>
       <c r="C44" t="n">
-        <v>0.273716</v>
+        <v>0.302891</v>
       </c>
       <c r="D44" t="n">
-        <v>0.261483</v>
+        <v>0.291151</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261935</v>
+        <v>0.261711</v>
       </c>
       <c r="C45" t="n">
-        <v>0.266217</v>
+        <v>0.295453</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254936</v>
+        <v>0.284765</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255844</v>
+        <v>0.25529</v>
       </c>
       <c r="C46" t="n">
-        <v>0.259601</v>
+        <v>0.289042</v>
       </c>
       <c r="D46" t="n">
-        <v>0.249037</v>
+        <v>0.279067</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249854</v>
+        <v>0.249303</v>
       </c>
       <c r="C47" t="n">
-        <v>0.25387</v>
+        <v>0.283049</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244049</v>
+        <v>0.274104</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244519</v>
+        <v>0.244215</v>
       </c>
       <c r="C48" t="n">
-        <v>0.248834</v>
+        <v>0.277719</v>
       </c>
       <c r="D48" t="n">
-        <v>0.240002</v>
+        <v>0.269625</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.241423</v>
+        <v>0.239532</v>
       </c>
       <c r="C49" t="n">
-        <v>0.244761</v>
+        <v>0.273872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237217</v>
+        <v>0.267293</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238229</v>
+        <v>0.236294</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24176</v>
+        <v>0.270798</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236251</v>
+        <v>0.265941</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.237234</v>
+        <v>0.234753</v>
       </c>
       <c r="C51" t="n">
-        <v>0.240878</v>
+        <v>0.269333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.33462</v>
+        <v>0.365924</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.237268</v>
+        <v>0.235224</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24275</v>
+        <v>0.271427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324458</v>
+        <v>0.355671</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.31665</v>
+        <v>0.320696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.330477</v>
+        <v>0.360304</v>
       </c>
       <c r="D53" t="n">
-        <v>0.314829</v>
+        <v>0.345506</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.307881</v>
+        <v>0.311713</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320521</v>
+        <v>0.349881</v>
       </c>
       <c r="D54" t="n">
-        <v>0.30569</v>
+        <v>0.336303</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.299779</v>
+        <v>0.303342</v>
       </c>
       <c r="C55" t="n">
-        <v>0.311383</v>
+        <v>0.339779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29677</v>
+        <v>0.326539</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.291858</v>
+        <v>0.295651</v>
       </c>
       <c r="C56" t="n">
-        <v>0.303067</v>
+        <v>0.330784</v>
       </c>
       <c r="D56" t="n">
-        <v>0.288599</v>
+        <v>0.318404</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284557</v>
+        <v>0.287971</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295068</v>
+        <v>0.322383</v>
       </c>
       <c r="D57" t="n">
-        <v>0.280999</v>
+        <v>0.310599</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277554</v>
+        <v>0.280393</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287593</v>
+        <v>0.314461</v>
       </c>
       <c r="D58" t="n">
-        <v>0.273824</v>
+        <v>0.303396</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271199</v>
+        <v>0.273572</v>
       </c>
       <c r="C59" t="n">
-        <v>0.28066</v>
+        <v>0.307445</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26716</v>
+        <v>0.296772</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264962</v>
+        <v>0.267527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274348</v>
+        <v>0.300663</v>
       </c>
       <c r="D60" t="n">
-        <v>0.261544</v>
+        <v>0.290858</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259524</v>
+        <v>0.261305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.268749</v>
+        <v>0.294018</v>
       </c>
       <c r="D61" t="n">
-        <v>0.256315</v>
+        <v>0.28562</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25439</v>
+        <v>0.256409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.263833</v>
+        <v>0.289293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252038</v>
+        <v>0.281252</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250249</v>
+        <v>0.252134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.259583</v>
+        <v>0.285024</v>
       </c>
       <c r="D63" t="n">
-        <v>0.248859</v>
+        <v>0.278266</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246487</v>
+        <v>0.248963</v>
       </c>
       <c r="C64" t="n">
-        <v>0.256566</v>
+        <v>0.281694</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247611</v>
+        <v>0.276765</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244847</v>
+        <v>0.246972</v>
       </c>
       <c r="C65" t="n">
-        <v>0.255225</v>
+        <v>0.28006</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248563</v>
+        <v>0.278022</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244691</v>
+        <v>0.247312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256459</v>
+        <v>0.281235</v>
       </c>
       <c r="D66" t="n">
-        <v>0.337882</v>
+        <v>0.388366</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330867</v>
+        <v>0.390823</v>
       </c>
       <c r="C67" t="n">
-        <v>0.345626</v>
+        <v>0.397702</v>
       </c>
       <c r="D67" t="n">
-        <v>0.327863</v>
+        <v>0.377796</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.322683</v>
+        <v>0.382182</v>
       </c>
       <c r="C68" t="n">
-        <v>0.335748</v>
+        <v>0.387447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.31829</v>
+        <v>0.368164</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.314655</v>
+        <v>0.373738</v>
       </c>
       <c r="C69" t="n">
-        <v>0.326363</v>
+        <v>0.377037</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309382</v>
+        <v>0.358393</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.306754</v>
+        <v>0.365444</v>
       </c>
       <c r="C70" t="n">
-        <v>0.317661</v>
+        <v>0.36749</v>
       </c>
       <c r="D70" t="n">
-        <v>0.300773</v>
+        <v>0.349313</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.299084</v>
+        <v>0.358057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309377</v>
+        <v>0.358655</v>
       </c>
       <c r="D71" t="n">
-        <v>0.292623</v>
+        <v>0.340586</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.292119</v>
+        <v>0.35067</v>
       </c>
       <c r="C72" t="n">
-        <v>0.301648</v>
+        <v>0.349952</v>
       </c>
       <c r="D72" t="n">
-        <v>0.285381</v>
+        <v>0.332592</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.285483</v>
+        <v>0.343233</v>
       </c>
       <c r="C73" t="n">
-        <v>0.29444</v>
+        <v>0.341889</v>
       </c>
       <c r="D73" t="n">
-        <v>0.278279</v>
+        <v>0.325038</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279539</v>
+        <v>0.336555</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287932</v>
+        <v>0.334028</v>
       </c>
       <c r="D74" t="n">
-        <v>0.272267</v>
+        <v>0.318095</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.273638</v>
+        <v>0.32985</v>
       </c>
       <c r="C75" t="n">
-        <v>0.282003</v>
+        <v>0.3274</v>
       </c>
       <c r="D75" t="n">
-        <v>0.266898</v>
+        <v>0.311875</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.268888</v>
+        <v>0.323425</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276495</v>
+        <v>0.321095</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262233</v>
+        <v>0.306964</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26491</v>
+        <v>0.31719</v>
       </c>
       <c r="C77" t="n">
-        <v>0.272063</v>
+        <v>0.3158</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258797</v>
+        <v>0.303187</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.261021</v>
+        <v>0.312434</v>
       </c>
       <c r="C78" t="n">
-        <v>0.268741</v>
+        <v>0.311751</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256803</v>
+        <v>0.301059</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.258471</v>
+        <v>0.307967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.266918</v>
+        <v>0.309408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25735</v>
+        <v>0.301169</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.257728</v>
+        <v>0.30566</v>
       </c>
       <c r="C80" t="n">
-        <v>0.267408</v>
+        <v>0.3092</v>
       </c>
       <c r="D80" t="n">
-        <v>0.353814</v>
+        <v>0.430224</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.375504</v>
+        <v>0.436699</v>
       </c>
       <c r="C81" t="n">
-        <v>0.367327</v>
+        <v>0.436809</v>
       </c>
       <c r="D81" t="n">
-        <v>0.344284</v>
+        <v>0.427415</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370329</v>
+        <v>0.431612</v>
       </c>
       <c r="C82" t="n">
-        <v>0.358644</v>
+        <v>0.435723</v>
       </c>
       <c r="D82" t="n">
-        <v>0.335086</v>
+        <v>0.422119</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364558</v>
+        <v>0.425078</v>
       </c>
       <c r="C83" t="n">
-        <v>0.349986</v>
+        <v>0.431165</v>
       </c>
       <c r="D83" t="n">
-        <v>0.326404</v>
+        <v>0.415881</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.358262</v>
+        <v>0.418345</v>
       </c>
       <c r="C84" t="n">
-        <v>0.341785</v>
+        <v>0.425434</v>
       </c>
       <c r="D84" t="n">
-        <v>0.317921</v>
+        <v>0.409867</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.351487</v>
+        <v>0.411821</v>
       </c>
       <c r="C85" t="n">
-        <v>0.333721</v>
+        <v>0.419685</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309768</v>
+        <v>0.404017</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.344621</v>
+        <v>0.405236</v>
       </c>
       <c r="C86" t="n">
-        <v>0.325765</v>
+        <v>0.413956</v>
       </c>
       <c r="D86" t="n">
-        <v>0.302023</v>
+        <v>0.398495</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.337821</v>
+        <v>0.398721</v>
       </c>
       <c r="C87" t="n">
-        <v>0.318214</v>
+        <v>0.408624</v>
       </c>
       <c r="D87" t="n">
-        <v>0.294863</v>
+        <v>0.393218</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.330843</v>
+        <v>0.391992</v>
       </c>
       <c r="C88" t="n">
-        <v>0.311282</v>
+        <v>0.403655</v>
       </c>
       <c r="D88" t="n">
-        <v>0.288171</v>
+        <v>0.388531</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.324269</v>
+        <v>0.386138</v>
       </c>
       <c r="C89" t="n">
-        <v>0.304745</v>
+        <v>0.39917</v>
       </c>
       <c r="D89" t="n">
-        <v>0.282204</v>
+        <v>0.384647</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.31786</v>
+        <v>0.380184</v>
       </c>
       <c r="C90" t="n">
-        <v>0.29903</v>
+        <v>0.39552</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277163</v>
+        <v>0.381184</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.31243</v>
+        <v>0.374538</v>
       </c>
       <c r="C91" t="n">
-        <v>0.293995</v>
+        <v>0.392341</v>
       </c>
       <c r="D91" t="n">
-        <v>0.273084</v>
+        <v>0.378542</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.307452</v>
+        <v>0.3697</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289963</v>
+        <v>0.390005</v>
       </c>
       <c r="D92" t="n">
-        <v>0.270524</v>
+        <v>0.37694</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.303495</v>
+        <v>0.365562</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287432</v>
+        <v>0.388554</v>
       </c>
       <c r="D93" t="n">
-        <v>0.270079</v>
+        <v>0.377075</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.301179</v>
+        <v>0.362781</v>
       </c>
       <c r="C94" t="n">
-        <v>0.286953</v>
+        <v>0.388888</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377517</v>
+        <v>0.619929</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.400268</v>
+        <v>0.549064</v>
       </c>
       <c r="C95" t="n">
-        <v>0.392118</v>
+        <v>0.567052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.375623</v>
+        <v>0.615143</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.398671</v>
+        <v>0.544523</v>
       </c>
       <c r="C96" t="n">
-        <v>0.391663</v>
+        <v>0.563866</v>
       </c>
       <c r="D96" t="n">
-        <v>0.371741</v>
+        <v>0.607518</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.39341</v>
+        <v>0.535461</v>
       </c>
       <c r="C97" t="n">
-        <v>0.387913</v>
+        <v>0.562902</v>
       </c>
       <c r="D97" t="n">
-        <v>0.367387</v>
+        <v>0.601244</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.387218</v>
+        <v>0.5252599999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.383515</v>
+        <v>0.558497</v>
       </c>
       <c r="D98" t="n">
-        <v>0.362959</v>
+        <v>0.595549</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.381132</v>
+        <v>0.515314</v>
       </c>
       <c r="C99" t="n">
-        <v>0.378809</v>
+        <v>0.554573</v>
       </c>
       <c r="D99" t="n">
-        <v>0.358408</v>
+        <v>0.589741</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.375106</v>
+        <v>0.506228</v>
       </c>
       <c r="C100" t="n">
-        <v>0.374164</v>
+        <v>0.55018</v>
       </c>
       <c r="D100" t="n">
-        <v>0.354124</v>
+        <v>0.585609</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.36967</v>
+        <v>0.496577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.369666</v>
+        <v>0.548218</v>
       </c>
       <c r="D101" t="n">
-        <v>0.350081</v>
+        <v>0.582762</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.364042</v>
+        <v>0.488922</v>
       </c>
       <c r="C102" t="n">
-        <v>0.365334</v>
+        <v>0.544561</v>
       </c>
       <c r="D102" t="n">
-        <v>0.346502</v>
+        <v>0.578916</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.359027</v>
+        <v>0.481946</v>
       </c>
       <c r="C103" t="n">
-        <v>0.361505</v>
+        <v>0.544452</v>
       </c>
       <c r="D103" t="n">
-        <v>0.342751</v>
+        <v>0.575832</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.354295</v>
+        <v>0.473488</v>
       </c>
       <c r="C104" t="n">
-        <v>0.358046</v>
+        <v>0.541842</v>
       </c>
       <c r="D104" t="n">
-        <v>0.340283</v>
+        <v>0.570562</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.349961</v>
+        <v>0.466969</v>
       </c>
       <c r="C105" t="n">
-        <v>0.355433</v>
+        <v>0.540265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.338299</v>
+        <v>0.566057</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.346212</v>
+        <v>0.461459</v>
       </c>
       <c r="C106" t="n">
-        <v>0.353443</v>
+        <v>0.539943</v>
       </c>
       <c r="D106" t="n">
-        <v>0.337065</v>
+        <v>0.565578</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.343119</v>
+        <v>0.456731</v>
       </c>
       <c r="C107" t="n">
-        <v>0.352575</v>
+        <v>0.540768</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3372</v>
+        <v>0.566237</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.341476</v>
+        <v>0.452729</v>
       </c>
       <c r="C108" t="n">
-        <v>0.353267</v>
+        <v>0.542293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.511094</v>
+        <v>0.7488050000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.34121</v>
+        <v>0.45138</v>
       </c>
       <c r="C109" t="n">
-        <v>0.353667</v>
+        <v>0.546112</v>
       </c>
       <c r="D109" t="n">
-        <v>0.507526</v>
+        <v>0.742357</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.487131</v>
+        <v>0.650415</v>
       </c>
       <c r="C110" t="n">
-        <v>0.490299</v>
+        <v>0.73085</v>
       </c>
       <c r="D110" t="n">
-        <v>0.502277</v>
+        <v>0.735271</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.481201</v>
+        <v>0.63786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.486231</v>
+        <v>0.7243039999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.496943</v>
+        <v>0.7286280000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.473857</v>
+        <v>0.6256080000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.481351</v>
+        <v>0.717292</v>
       </c>
       <c r="D112" t="n">
-        <v>0.491134</v>
+        <v>0.721559</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.467498</v>
+        <v>0.614036</v>
       </c>
       <c r="C113" t="n">
-        <v>0.477427</v>
+        <v>0.711472</v>
       </c>
       <c r="D113" t="n">
-        <v>0.486844</v>
+        <v>0.716605</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.460944</v>
+        <v>0.602931</v>
       </c>
       <c r="C114" t="n">
-        <v>0.472032</v>
+        <v>0.708338</v>
       </c>
       <c r="D114" t="n">
-        <v>0.482663</v>
+        <v>0.71093</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.454188</v>
+        <v>0.592892</v>
       </c>
       <c r="C115" t="n">
-        <v>0.468817</v>
+        <v>0.702254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.479436</v>
+        <v>0.706375</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.448976</v>
+        <v>0.582851</v>
       </c>
       <c r="C116" t="n">
-        <v>0.467259</v>
+        <v>0.698685</v>
       </c>
       <c r="D116" t="n">
-        <v>0.476823</v>
+        <v>0.70181</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.444139</v>
+        <v>0.573218</v>
       </c>
       <c r="C117" t="n">
-        <v>0.466213</v>
+        <v>0.696089</v>
       </c>
       <c r="D117" t="n">
-        <v>0.474223</v>
+        <v>0.698918</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.439027</v>
+        <v>0.564853</v>
       </c>
       <c r="C118" t="n">
-        <v>0.465347</v>
+        <v>0.69452</v>
       </c>
       <c r="D118" t="n">
-        <v>0.472995</v>
+        <v>0.695962</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.434639</v>
+        <v>0.556953</v>
       </c>
       <c r="C119" t="n">
-        <v>0.464197</v>
+        <v>0.691794</v>
       </c>
       <c r="D119" t="n">
-        <v>0.471763</v>
+        <v>0.694278</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.430686</v>
+        <v>0.549084</v>
       </c>
       <c r="C120" t="n">
-        <v>0.465653</v>
+        <v>0.690223</v>
       </c>
       <c r="D120" t="n">
-        <v>0.471324</v>
+        <v>0.6941619999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.427827</v>
+        <v>0.542389</v>
       </c>
       <c r="C121" t="n">
-        <v>0.467162</v>
+        <v>0.690371</v>
       </c>
       <c r="D121" t="n">
-        <v>0.472858</v>
+        <v>0.695483</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.425454</v>
+        <v>0.537119</v>
       </c>
       <c r="C122" t="n">
-        <v>0.470529</v>
+        <v>0.691653</v>
       </c>
       <c r="D122" t="n">
-        <v>0.47461</v>
+        <v>0.6967100000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.425184</v>
+        <v>0.533787</v>
       </c>
       <c r="C123" t="n">
-        <v>0.473213</v>
+        <v>0.695232</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609861</v>
+        <v>0.876968</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.58034</v>
+        <v>0.727434</v>
       </c>
       <c r="C124" t="n">
-        <v>0.614609</v>
+        <v>0.877136</v>
       </c>
       <c r="D124" t="n">
-        <v>0.604762</v>
+        <v>0.865999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5768</v>
+        <v>0.717361</v>
       </c>
       <c r="C125" t="n">
-        <v>0.610049</v>
+        <v>0.867042</v>
       </c>
       <c r="D125" t="n">
-        <v>0.598212</v>
+        <v>0.855931</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.572183</v>
+        <v>0.707325</v>
       </c>
       <c r="C126" t="n">
-        <v>0.604366</v>
+        <v>0.857665</v>
       </c>
       <c r="D126" t="n">
-        <v>0.593234</v>
+        <v>0.8471109999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.568144</v>
+        <v>0.69747</v>
       </c>
       <c r="C127" t="n">
-        <v>0.600588</v>
+        <v>0.848786</v>
       </c>
       <c r="D127" t="n">
-        <v>0.588686</v>
+        <v>0.837795</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.563873</v>
+        <v>0.687908</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5967789999999999</v>
+        <v>0.840433</v>
       </c>
       <c r="D128" t="n">
-        <v>0.58448</v>
+        <v>0.830412</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.560531</v>
+        <v>0.679578</v>
       </c>
       <c r="C129" t="n">
-        <v>0.594027</v>
+        <v>0.833635</v>
       </c>
       <c r="D129" t="n">
-        <v>0.58111</v>
+        <v>0.823044</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.556969</v>
+        <v>0.671838</v>
       </c>
       <c r="C130" t="n">
-        <v>0.591584</v>
+        <v>0.827062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.578071</v>
+        <v>0.816252</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.55452</v>
+        <v>0.664427</v>
       </c>
       <c r="C131" t="n">
-        <v>0.590706</v>
+        <v>0.820824</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5757139999999999</v>
+        <v>0.811199</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.550983</v>
+        <v>0.657518</v>
       </c>
       <c r="C132" t="n">
-        <v>0.589565</v>
+        <v>0.816148</v>
       </c>
       <c r="D132" t="n">
-        <v>0.574176</v>
+        <v>0.8062589999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.549127</v>
+        <v>0.651106</v>
       </c>
       <c r="C133" t="n">
-        <v>0.590168</v>
+        <v>0.811548</v>
       </c>
       <c r="D133" t="n">
-        <v>0.573665</v>
+        <v>0.802828</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.547865</v>
+        <v>0.64483</v>
       </c>
       <c r="C134" t="n">
-        <v>0.592516</v>
+        <v>0.808632</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5750769999999999</v>
+        <v>0.801329</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.547218</v>
+        <v>0.640022</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594985</v>
+        <v>0.806895</v>
       </c>
       <c r="D135" t="n">
-        <v>0.577408</v>
+        <v>0.802743</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.545638</v>
+        <v>0.635756</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599458</v>
+        <v>0.8078340000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.580488</v>
+        <v>0.805715</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.544888</v>
+        <v>0.631928</v>
       </c>
       <c r="C137" t="n">
-        <v>0.605217</v>
+        <v>0.810939</v>
       </c>
       <c r="D137" t="n">
-        <v>0.719394</v>
+        <v>0.9866549999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.691545</v>
+        <v>0.823431</v>
       </c>
       <c r="C138" t="n">
-        <v>0.74549</v>
+        <v>0.996435</v>
       </c>
       <c r="D138" t="n">
-        <v>0.710217</v>
+        <v>0.973323</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.689893</v>
+        <v>0.81423</v>
       </c>
       <c r="C139" t="n">
-        <v>0.738665</v>
+        <v>0.982774</v>
       </c>
       <c r="D139" t="n">
-        <v>0.702487</v>
+        <v>0.959948</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.687348</v>
+        <v>0.805607</v>
       </c>
       <c r="C140" t="n">
-        <v>0.732548</v>
+        <v>0.970733</v>
       </c>
       <c r="D140" t="n">
-        <v>0.695316</v>
+        <v>0.947001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.685227</v>
+        <v>0.796482</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7270489999999999</v>
+        <v>0.957807</v>
       </c>
       <c r="D141" t="n">
-        <v>0.687941</v>
+        <v>0.935399</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.788918</v>
       </c>
       <c r="C142" t="n">
-        <v>0.722002</v>
+        <v>0.946728</v>
       </c>
       <c r="D142" t="n">
-        <v>0.681732</v>
+        <v>0.924823</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.681775</v>
+        <v>0.781902</v>
       </c>
       <c r="C143" t="n">
-        <v>0.718377</v>
+        <v>0.936638</v>
       </c>
       <c r="D143" t="n">
-        <v>0.676434</v>
+        <v>0.915627</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247224</v>
+        <v>0.246421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266412</v>
+        <v>0.265959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.257001</v>
+        <v>0.256666</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239857</v>
+        <v>0.239323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25937</v>
+        <v>0.25945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250164</v>
+        <v>0.251105</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233363</v>
+        <v>0.233029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253406</v>
+        <v>0.253177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245372</v>
+        <v>0.245582</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227836</v>
+        <v>0.227793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249044</v>
+        <v>0.248589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241602</v>
+        <v>0.242056</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223705</v>
+        <v>0.223272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244264</v>
+        <v>0.244013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23744</v>
+        <v>0.237905</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221066</v>
+        <v>0.220726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241128</v>
+        <v>0.240449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.235474</v>
+        <v>0.236282</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218942</v>
+        <v>0.21894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238883</v>
+        <v>0.238566</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235083</v>
+        <v>0.234984</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219114</v>
+        <v>0.218801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239711</v>
+        <v>0.238931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.327426</v>
+        <v>0.327846</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309784</v>
+        <v>0.3096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.332061</v>
+        <v>0.331476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.317981</v>
+        <v>0.318018</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300267</v>
+        <v>0.300012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322184</v>
+        <v>0.322288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.308566</v>
+        <v>0.309351</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290827</v>
+        <v>0.290676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312838</v>
+        <v>0.31241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.300153</v>
+        <v>0.300267</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.282189</v>
+        <v>0.281608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.304034</v>
+        <v>0.303471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.291462</v>
+        <v>0.291596</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273989</v>
+        <v>0.273612</v>
       </c>
       <c r="C14" t="n">
-        <v>0.295676</v>
+        <v>0.295329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282665</v>
+        <v>0.283902</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265661</v>
+        <v>0.265573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.287608</v>
+        <v>0.286958</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276128</v>
+        <v>0.275883</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258283</v>
+        <v>0.258115</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280245</v>
+        <v>0.279941</v>
       </c>
       <c r="D16" t="n">
-        <v>0.269107</v>
+        <v>0.269212</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251402</v>
+        <v>0.25129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.273328</v>
+        <v>0.27294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.263103</v>
+        <v>0.26321</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245503</v>
+        <v>0.245155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.266972</v>
+        <v>0.266731</v>
       </c>
       <c r="D18" t="n">
-        <v>0.257369</v>
+        <v>0.257537</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239728</v>
+        <v>0.239807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261719</v>
+        <v>0.261238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252992</v>
+        <v>0.252571</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.234541</v>
+        <v>0.234561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.257023</v>
+        <v>0.256569</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249275</v>
+        <v>0.24874</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230802</v>
+        <v>0.230605</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25387</v>
+        <v>0.253358</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247293</v>
+        <v>0.247127</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228478</v>
+        <v>0.22802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251774</v>
+        <v>0.251098</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247878</v>
+        <v>0.247593</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227123</v>
+        <v>0.226316</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252079</v>
+        <v>0.251443</v>
       </c>
       <c r="D23" t="n">
-        <v>0.340707</v>
+        <v>0.340398</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.316802</v>
+        <v>0.315896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345655</v>
+        <v>0.345009</v>
       </c>
       <c r="D24" t="n">
-        <v>0.330799</v>
+        <v>0.330572</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.307413</v>
+        <v>0.306448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335589</v>
+        <v>0.334855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.321001</v>
+        <v>0.320824</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297123</v>
+        <v>0.29705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325751</v>
+        <v>0.325104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.312089</v>
+        <v>0.311747</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288611</v>
+        <v>0.288177</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316414</v>
+        <v>0.315581</v>
       </c>
       <c r="D27" t="n">
-        <v>0.303502</v>
+        <v>0.303044</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280661</v>
+        <v>0.279932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.307742</v>
+        <v>0.306993</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295618</v>
+        <v>0.295163</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271618</v>
+        <v>0.271799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.299499</v>
+        <v>0.298857</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288026</v>
+        <v>0.287444</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264642</v>
+        <v>0.264499</v>
       </c>
       <c r="C30" t="n">
-        <v>0.291772</v>
+        <v>0.290998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280876</v>
+        <v>0.280333</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257559</v>
+        <v>0.256961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284698</v>
+        <v>0.284007</v>
       </c>
       <c r="D31" t="n">
-        <v>0.274518</v>
+        <v>0.273999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250612</v>
+        <v>0.251338</v>
       </c>
       <c r="C32" t="n">
-        <v>0.277931</v>
+        <v>0.27722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.268231</v>
+        <v>0.267933</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245235</v>
+        <v>0.244903</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272015</v>
+        <v>0.271142</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263248</v>
+        <v>0.262839</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23957</v>
+        <v>0.239652</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26679</v>
+        <v>0.265905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259272</v>
+        <v>0.25836</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235443</v>
+        <v>0.235283</v>
       </c>
       <c r="C35" t="n">
-        <v>0.262298</v>
+        <v>0.261647</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25652</v>
+        <v>0.255822</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232231</v>
+        <v>0.232401</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25983</v>
+        <v>0.25895</v>
       </c>
       <c r="D36" t="n">
-        <v>0.255693</v>
+        <v>0.255351</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231256</v>
+        <v>0.23089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.259021</v>
+        <v>0.258223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.351417</v>
+        <v>0.350429</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320385</v>
+        <v>0.320044</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356878</v>
+        <v>0.354238</v>
       </c>
       <c r="D38" t="n">
-        <v>0.341486</v>
+        <v>0.340365</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31117</v>
+        <v>0.310504</v>
       </c>
       <c r="C39" t="n">
-        <v>0.34695</v>
+        <v>0.344445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.331782</v>
+        <v>0.33068</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.301607</v>
+        <v>0.301054</v>
       </c>
       <c r="C40" t="n">
-        <v>0.336605</v>
+        <v>0.334645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.322897</v>
+        <v>0.321024</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292838</v>
+        <v>0.29234</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32761</v>
+        <v>0.325107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.313262</v>
+        <v>0.312263</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284203</v>
+        <v>0.283993</v>
       </c>
       <c r="C42" t="n">
-        <v>0.318944</v>
+        <v>0.316528</v>
       </c>
       <c r="D42" t="n">
-        <v>0.305271</v>
+        <v>0.304673</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276222</v>
+        <v>0.276492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.310276</v>
+        <v>0.308235</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298529</v>
+        <v>0.297321</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.268772</v>
+        <v>0.269105</v>
       </c>
       <c r="C44" t="n">
-        <v>0.302891</v>
+        <v>0.300702</v>
       </c>
       <c r="D44" t="n">
-        <v>0.291151</v>
+        <v>0.289637</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261711</v>
+        <v>0.262046</v>
       </c>
       <c r="C45" t="n">
-        <v>0.295453</v>
+        <v>0.293784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284765</v>
+        <v>0.283674</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25529</v>
+        <v>0.255306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.289042</v>
+        <v>0.286987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.279067</v>
+        <v>0.277964</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249303</v>
+        <v>0.249706</v>
       </c>
       <c r="C47" t="n">
-        <v>0.283049</v>
+        <v>0.281416</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274104</v>
+        <v>0.27283</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244215</v>
+        <v>0.244446</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277719</v>
+        <v>0.276327</v>
       </c>
       <c r="D48" t="n">
-        <v>0.269625</v>
+        <v>0.268587</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.239532</v>
+        <v>0.240311</v>
       </c>
       <c r="C49" t="n">
-        <v>0.273872</v>
+        <v>0.272239</v>
       </c>
       <c r="D49" t="n">
-        <v>0.267293</v>
+        <v>0.265404</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236294</v>
+        <v>0.236482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270798</v>
+        <v>0.269131</v>
       </c>
       <c r="D50" t="n">
-        <v>0.265941</v>
+        <v>0.26473</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234753</v>
+        <v>0.234766</v>
       </c>
       <c r="C51" t="n">
-        <v>0.269333</v>
+        <v>0.26793</v>
       </c>
       <c r="D51" t="n">
-        <v>0.365924</v>
+        <v>0.364618</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.235224</v>
+        <v>0.235395</v>
       </c>
       <c r="C52" t="n">
-        <v>0.271427</v>
+        <v>0.2695</v>
       </c>
       <c r="D52" t="n">
-        <v>0.355671</v>
+        <v>0.354337</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.320696</v>
+        <v>0.319957</v>
       </c>
       <c r="C53" t="n">
-        <v>0.360304</v>
+        <v>0.358905</v>
       </c>
       <c r="D53" t="n">
-        <v>0.345506</v>
+        <v>0.344237</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311713</v>
+        <v>0.310828</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349881</v>
+        <v>0.349404</v>
       </c>
       <c r="D54" t="n">
-        <v>0.336303</v>
+        <v>0.335106</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.303342</v>
+        <v>0.302239</v>
       </c>
       <c r="C55" t="n">
-        <v>0.339779</v>
+        <v>0.34013</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326539</v>
+        <v>0.326438</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295651</v>
+        <v>0.294029</v>
       </c>
       <c r="C56" t="n">
-        <v>0.330784</v>
+        <v>0.331296</v>
       </c>
       <c r="D56" t="n">
-        <v>0.318404</v>
+        <v>0.318024</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287971</v>
+        <v>0.286443</v>
       </c>
       <c r="C57" t="n">
-        <v>0.322383</v>
+        <v>0.321704</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310599</v>
+        <v>0.309557</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280393</v>
+        <v>0.280243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.314461</v>
+        <v>0.313825</v>
       </c>
       <c r="D58" t="n">
-        <v>0.303396</v>
+        <v>0.302379</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273572</v>
+        <v>0.27349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.307445</v>
+        <v>0.306549</v>
       </c>
       <c r="D59" t="n">
-        <v>0.296772</v>
+        <v>0.295951</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267527</v>
+        <v>0.26735</v>
       </c>
       <c r="C60" t="n">
-        <v>0.300663</v>
+        <v>0.299731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.290858</v>
+        <v>0.289847</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261305</v>
+        <v>0.261404</v>
       </c>
       <c r="C61" t="n">
-        <v>0.294018</v>
+        <v>0.293451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.28562</v>
+        <v>0.284544</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256409</v>
+        <v>0.256232</v>
       </c>
       <c r="C62" t="n">
-        <v>0.289293</v>
+        <v>0.288277</v>
       </c>
       <c r="D62" t="n">
-        <v>0.281252</v>
+        <v>0.280245</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252134</v>
+        <v>0.25183</v>
       </c>
       <c r="C63" t="n">
-        <v>0.285024</v>
+        <v>0.283723</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278266</v>
+        <v>0.277044</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248963</v>
+        <v>0.248572</v>
       </c>
       <c r="C64" t="n">
-        <v>0.281694</v>
+        <v>0.280613</v>
       </c>
       <c r="D64" t="n">
-        <v>0.276765</v>
+        <v>0.275783</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246972</v>
+        <v>0.246411</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28006</v>
+        <v>0.278663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278022</v>
+        <v>0.277265</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.247312</v>
+        <v>0.246206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.281235</v>
+        <v>0.280055</v>
       </c>
       <c r="D66" t="n">
-        <v>0.388366</v>
+        <v>0.385758</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.390823</v>
+        <v>0.386485</v>
       </c>
       <c r="C67" t="n">
-        <v>0.397702</v>
+        <v>0.396045</v>
       </c>
       <c r="D67" t="n">
-        <v>0.377796</v>
+        <v>0.375603</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382182</v>
+        <v>0.378069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.387447</v>
+        <v>0.386563</v>
       </c>
       <c r="D68" t="n">
-        <v>0.368164</v>
+        <v>0.365782</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373738</v>
+        <v>0.369744</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377037</v>
+        <v>0.376317</v>
       </c>
       <c r="D69" t="n">
-        <v>0.358393</v>
+        <v>0.35622</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365444</v>
+        <v>0.361793</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36749</v>
+        <v>0.366835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.349313</v>
+        <v>0.347758</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358057</v>
+        <v>0.354206</v>
       </c>
       <c r="C71" t="n">
-        <v>0.358655</v>
+        <v>0.35759</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340586</v>
+        <v>0.339305</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35067</v>
+        <v>0.347127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.349952</v>
+        <v>0.348946</v>
       </c>
       <c r="D72" t="n">
-        <v>0.332592</v>
+        <v>0.331398</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.343233</v>
+        <v>0.340003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.341889</v>
+        <v>0.340923</v>
       </c>
       <c r="D73" t="n">
-        <v>0.325038</v>
+        <v>0.323933</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.336555</v>
+        <v>0.33346</v>
       </c>
       <c r="C74" t="n">
-        <v>0.334028</v>
+        <v>0.333167</v>
       </c>
       <c r="D74" t="n">
-        <v>0.318095</v>
+        <v>0.31724</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32985</v>
+        <v>0.326864</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3274</v>
+        <v>0.3263</v>
       </c>
       <c r="D75" t="n">
-        <v>0.311875</v>
+        <v>0.311149</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.323425</v>
+        <v>0.320351</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321095</v>
+        <v>0.319681</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306964</v>
+        <v>0.306144</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.31719</v>
+        <v>0.314864</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3158</v>
+        <v>0.314763</v>
       </c>
       <c r="D77" t="n">
-        <v>0.303187</v>
+        <v>0.302324</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.312434</v>
+        <v>0.309293</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311751</v>
+        <v>0.310917</v>
       </c>
       <c r="D78" t="n">
-        <v>0.301059</v>
+        <v>0.300018</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.307967</v>
+        <v>0.305552</v>
       </c>
       <c r="C79" t="n">
-        <v>0.309408</v>
+        <v>0.308314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.301169</v>
+        <v>0.30027</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30566</v>
+        <v>0.303036</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3092</v>
+        <v>0.308296</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430224</v>
+        <v>0.430178</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.436699</v>
+        <v>0.435515</v>
       </c>
       <c r="C81" t="n">
-        <v>0.436809</v>
+        <v>0.435975</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427415</v>
+        <v>0.427242</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.431612</v>
+        <v>0.430631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435723</v>
+        <v>0.434552</v>
       </c>
       <c r="D82" t="n">
-        <v>0.422119</v>
+        <v>0.421817</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.425078</v>
+        <v>0.424054</v>
       </c>
       <c r="C83" t="n">
-        <v>0.431165</v>
+        <v>0.429845</v>
       </c>
       <c r="D83" t="n">
-        <v>0.415881</v>
+        <v>0.41556</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.418345</v>
+        <v>0.417511</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425434</v>
+        <v>0.424272</v>
       </c>
       <c r="D84" t="n">
-        <v>0.409867</v>
+        <v>0.409211</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.411821</v>
+        <v>0.41089</v>
       </c>
       <c r="C85" t="n">
-        <v>0.419685</v>
+        <v>0.418259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404017</v>
+        <v>0.403201</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.405236</v>
+        <v>0.404404</v>
       </c>
       <c r="C86" t="n">
-        <v>0.413956</v>
+        <v>0.412546</v>
       </c>
       <c r="D86" t="n">
-        <v>0.398495</v>
+        <v>0.397316</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.398721</v>
+        <v>0.397971</v>
       </c>
       <c r="C87" t="n">
-        <v>0.408624</v>
+        <v>0.406931</v>
       </c>
       <c r="D87" t="n">
-        <v>0.393218</v>
+        <v>0.391898</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391992</v>
+        <v>0.391473</v>
       </c>
       <c r="C88" t="n">
-        <v>0.403655</v>
+        <v>0.401932</v>
       </c>
       <c r="D88" t="n">
-        <v>0.388531</v>
+        <v>0.387065</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.386138</v>
+        <v>0.385235</v>
       </c>
       <c r="C89" t="n">
-        <v>0.39917</v>
+        <v>0.397258</v>
       </c>
       <c r="D89" t="n">
-        <v>0.384647</v>
+        <v>0.382772</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.380184</v>
+        <v>0.379323</v>
       </c>
       <c r="C90" t="n">
-        <v>0.39552</v>
+        <v>0.392934</v>
       </c>
       <c r="D90" t="n">
-        <v>0.381184</v>
+        <v>0.378769</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374538</v>
+        <v>0.373773</v>
       </c>
       <c r="C91" t="n">
-        <v>0.392341</v>
+        <v>0.389806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.378542</v>
+        <v>0.376276</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3697</v>
+        <v>0.368824</v>
       </c>
       <c r="C92" t="n">
-        <v>0.390005</v>
+        <v>0.387342</v>
       </c>
       <c r="D92" t="n">
-        <v>0.37694</v>
+        <v>0.374553</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.365562</v>
+        <v>0.364679</v>
       </c>
       <c r="C93" t="n">
-        <v>0.388554</v>
+        <v>0.385863</v>
       </c>
       <c r="D93" t="n">
-        <v>0.377075</v>
+        <v>0.374502</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362781</v>
+        <v>0.362128</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388888</v>
+        <v>0.385973</v>
       </c>
       <c r="D94" t="n">
-        <v>0.619929</v>
+        <v>0.618841</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.549064</v>
+        <v>0.547978</v>
       </c>
       <c r="C95" t="n">
-        <v>0.567052</v>
+        <v>0.563736</v>
       </c>
       <c r="D95" t="n">
-        <v>0.615143</v>
+        <v>0.613215</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.544523</v>
+        <v>0.54344</v>
       </c>
       <c r="C96" t="n">
-        <v>0.563866</v>
+        <v>0.562657</v>
       </c>
       <c r="D96" t="n">
-        <v>0.607518</v>
+        <v>0.606396</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.535461</v>
+        <v>0.533554</v>
       </c>
       <c r="C97" t="n">
-        <v>0.562902</v>
+        <v>0.556179</v>
       </c>
       <c r="D97" t="n">
-        <v>0.601244</v>
+        <v>0.599096</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5252599999999999</v>
+        <v>0.523049</v>
       </c>
       <c r="C98" t="n">
-        <v>0.558497</v>
+        <v>0.553882</v>
       </c>
       <c r="D98" t="n">
-        <v>0.595549</v>
+        <v>0.593756</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.515314</v>
+        <v>0.514055</v>
       </c>
       <c r="C99" t="n">
-        <v>0.554573</v>
+        <v>0.54984</v>
       </c>
       <c r="D99" t="n">
-        <v>0.589741</v>
+        <v>0.587849</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506228</v>
+        <v>0.504861</v>
       </c>
       <c r="C100" t="n">
-        <v>0.55018</v>
+        <v>0.546926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585609</v>
+        <v>0.585391</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496577</v>
+        <v>0.495786</v>
       </c>
       <c r="C101" t="n">
-        <v>0.548218</v>
+        <v>0.546557</v>
       </c>
       <c r="D101" t="n">
-        <v>0.582762</v>
+        <v>0.582487</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488922</v>
+        <v>0.488182</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544561</v>
+        <v>0.545173</v>
       </c>
       <c r="D102" t="n">
-        <v>0.578916</v>
+        <v>0.577928</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.481946</v>
+        <v>0.479865</v>
       </c>
       <c r="C103" t="n">
-        <v>0.544452</v>
+        <v>0.541869</v>
       </c>
       <c r="D103" t="n">
-        <v>0.575832</v>
+        <v>0.573562</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473488</v>
+        <v>0.473383</v>
       </c>
       <c r="C104" t="n">
-        <v>0.541842</v>
+        <v>0.540907</v>
       </c>
       <c r="D104" t="n">
-        <v>0.570562</v>
+        <v>0.570139</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.466969</v>
+        <v>0.466947</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540265</v>
+        <v>0.538442</v>
       </c>
       <c r="D105" t="n">
-        <v>0.566057</v>
+        <v>0.565358</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.461459</v>
+        <v>0.460662</v>
       </c>
       <c r="C106" t="n">
-        <v>0.539943</v>
+        <v>0.537861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.565578</v>
+        <v>0.5651389999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.456731</v>
+        <v>0.455256</v>
       </c>
       <c r="C107" t="n">
-        <v>0.540768</v>
+        <v>0.539188</v>
       </c>
       <c r="D107" t="n">
-        <v>0.566237</v>
+        <v>0.565639</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.452729</v>
+        <v>0.452302</v>
       </c>
       <c r="C108" t="n">
-        <v>0.542293</v>
+        <v>0.542237</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7488050000000001</v>
+        <v>0.749063</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.45138</v>
+        <v>0.450783</v>
       </c>
       <c r="C109" t="n">
-        <v>0.546112</v>
+        <v>0.545035</v>
       </c>
       <c r="D109" t="n">
-        <v>0.742357</v>
+        <v>0.742514</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.650415</v>
+        <v>0.649787</v>
       </c>
       <c r="C110" t="n">
-        <v>0.73085</v>
+        <v>0.730358</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735271</v>
+        <v>0.734245</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.63786</v>
+        <v>0.63854</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7243039999999999</v>
+        <v>0.72315</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7286280000000001</v>
+        <v>0.727456</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6256080000000001</v>
+        <v>0.625831</v>
       </c>
       <c r="C112" t="n">
-        <v>0.717292</v>
+        <v>0.717499</v>
       </c>
       <c r="D112" t="n">
-        <v>0.721559</v>
+        <v>0.7218020000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614036</v>
+        <v>0.613885</v>
       </c>
       <c r="C113" t="n">
-        <v>0.711472</v>
+        <v>0.711863</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716605</v>
+        <v>0.7153929999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602931</v>
+        <v>0.602785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.708338</v>
+        <v>0.708166</v>
       </c>
       <c r="D114" t="n">
-        <v>0.71093</v>
+        <v>0.710718</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592892</v>
+        <v>0.591648</v>
       </c>
       <c r="C115" t="n">
-        <v>0.702254</v>
+        <v>0.702627</v>
       </c>
       <c r="D115" t="n">
-        <v>0.706375</v>
+        <v>0.70531</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582851</v>
+        <v>0.582203</v>
       </c>
       <c r="C116" t="n">
-        <v>0.698685</v>
+        <v>0.699375</v>
       </c>
       <c r="D116" t="n">
-        <v>0.70181</v>
+        <v>0.701286</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.573218</v>
+        <v>0.572976</v>
       </c>
       <c r="C117" t="n">
-        <v>0.696089</v>
+        <v>0.6955789999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.698918</v>
+        <v>0.697661</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.564853</v>
+        <v>0.564091</v>
       </c>
       <c r="C118" t="n">
-        <v>0.69452</v>
+        <v>0.692702</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695962</v>
+        <v>0.695269</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.556953</v>
+        <v>0.556432</v>
       </c>
       <c r="C119" t="n">
-        <v>0.691794</v>
+        <v>0.69074</v>
       </c>
       <c r="D119" t="n">
-        <v>0.694278</v>
+        <v>0.6932160000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.549084</v>
+        <v>0.548297</v>
       </c>
       <c r="C120" t="n">
-        <v>0.690223</v>
+        <v>0.689424</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6941619999999999</v>
+        <v>0.693031</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.542389</v>
+        <v>0.541709</v>
       </c>
       <c r="C121" t="n">
-        <v>0.690371</v>
+        <v>0.68902</v>
       </c>
       <c r="D121" t="n">
-        <v>0.695483</v>
+        <v>0.693461</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.537119</v>
+        <v>0.5366570000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.691653</v>
+        <v>0.689874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6967100000000001</v>
+        <v>0.694932</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.533787</v>
+        <v>0.533084</v>
       </c>
       <c r="C123" t="n">
-        <v>0.695232</v>
+        <v>0.69229</v>
       </c>
       <c r="D123" t="n">
-        <v>0.876968</v>
+        <v>0.8750599999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727434</v>
+        <v>0.727683</v>
       </c>
       <c r="C124" t="n">
-        <v>0.877136</v>
+        <v>0.876479</v>
       </c>
       <c r="D124" t="n">
-        <v>0.865999</v>
+        <v>0.8648940000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.717361</v>
+        <v>0.716739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.867042</v>
+        <v>0.866248</v>
       </c>
       <c r="D125" t="n">
-        <v>0.855931</v>
+        <v>0.856046</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.707325</v>
+        <v>0.7063970000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.857665</v>
+        <v>0.857161</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8471109999999999</v>
+        <v>0.846527</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.69747</v>
+        <v>0.697622</v>
       </c>
       <c r="C127" t="n">
-        <v>0.848786</v>
+        <v>0.848813</v>
       </c>
       <c r="D127" t="n">
-        <v>0.837795</v>
+        <v>0.838037</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687908</v>
+        <v>0.687931</v>
       </c>
       <c r="C128" t="n">
-        <v>0.840433</v>
+        <v>0.840709</v>
       </c>
       <c r="D128" t="n">
-        <v>0.830412</v>
+        <v>0.830089</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.679578</v>
+        <v>0.679601</v>
       </c>
       <c r="C129" t="n">
-        <v>0.833635</v>
+        <v>0.832974</v>
       </c>
       <c r="D129" t="n">
-        <v>0.823044</v>
+        <v>0.823062</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.671838</v>
+        <v>0.670785</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827062</v>
+        <v>0.8262389999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816252</v>
+        <v>0.815741</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.664427</v>
+        <v>0.663895</v>
       </c>
       <c r="C131" t="n">
-        <v>0.820824</v>
+        <v>0.820765</v>
       </c>
       <c r="D131" t="n">
-        <v>0.811199</v>
+        <v>0.810523</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.657518</v>
+        <v>0.6567460000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.816148</v>
+        <v>0.815371</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8062589999999999</v>
+        <v>0.805665</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.651106</v>
+        <v>0.64993</v>
       </c>
       <c r="C133" t="n">
-        <v>0.811548</v>
+        <v>0.811237</v>
       </c>
       <c r="D133" t="n">
-        <v>0.802828</v>
+        <v>0.802243</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.64483</v>
+        <v>0.644235</v>
       </c>
       <c r="C134" t="n">
-        <v>0.808632</v>
+        <v>0.808156</v>
       </c>
       <c r="D134" t="n">
-        <v>0.801329</v>
+        <v>0.8006450000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.640022</v>
+        <v>0.639205</v>
       </c>
       <c r="C135" t="n">
-        <v>0.806895</v>
+        <v>0.806478</v>
       </c>
       <c r="D135" t="n">
-        <v>0.802743</v>
+        <v>0.801773</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.635756</v>
+        <v>0.634325</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8078340000000001</v>
+        <v>0.807029</v>
       </c>
       <c r="D136" t="n">
-        <v>0.805715</v>
+        <v>0.804331</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.631928</v>
+        <v>0.630692</v>
       </c>
       <c r="C137" t="n">
-        <v>0.810939</v>
+        <v>0.809978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9866549999999999</v>
+        <v>0.9868749999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.823431</v>
+        <v>0.823064</v>
       </c>
       <c r="C138" t="n">
-        <v>0.996435</v>
+        <v>0.995884</v>
       </c>
       <c r="D138" t="n">
-        <v>0.973323</v>
+        <v>0.972701</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.81423</v>
+        <v>0.813205</v>
       </c>
       <c r="C139" t="n">
-        <v>0.982774</v>
+        <v>0.982438</v>
       </c>
       <c r="D139" t="n">
-        <v>0.959948</v>
+        <v>0.959205</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.805607</v>
+        <v>0.804411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.970733</v>
+        <v>0.970274</v>
       </c>
       <c r="D140" t="n">
-        <v>0.947001</v>
+        <v>0.9467100000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796482</v>
+        <v>0.796132</v>
       </c>
       <c r="C141" t="n">
-        <v>0.957807</v>
+        <v>0.958441</v>
       </c>
       <c r="D141" t="n">
-        <v>0.935399</v>
+        <v>0.934809</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788918</v>
+        <v>0.788474</v>
       </c>
       <c r="C142" t="n">
-        <v>0.946728</v>
+        <v>0.947201</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924823</v>
+        <v>0.924752</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.781902</v>
+        <v>0.781162</v>
       </c>
       <c r="C143" t="n">
-        <v>0.936638</v>
+        <v>0.937365</v>
       </c>
       <c r="D143" t="n">
-        <v>0.915627</v>
+        <v>0.914747</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246421</v>
+        <v>0.246224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.265959</v>
+        <v>0.266514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256666</v>
+        <v>0.259792</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239323</v>
+        <v>0.239377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25945</v>
+        <v>0.260177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251105</v>
+        <v>0.254176</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233029</v>
+        <v>0.232817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253177</v>
+        <v>0.254516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245582</v>
+        <v>0.24947</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227793</v>
+        <v>0.227577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248589</v>
+        <v>0.249684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242056</v>
+        <v>0.244853</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223272</v>
+        <v>0.222995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244013</v>
+        <v>0.244917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237905</v>
+        <v>0.240315</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220726</v>
+        <v>0.220306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.240449</v>
+        <v>0.241498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236282</v>
+        <v>0.238846</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21894</v>
+        <v>0.218219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238566</v>
+        <v>0.239602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234984</v>
+        <v>0.237912</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218801</v>
+        <v>0.218463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.238931</v>
+        <v>0.24005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.327846</v>
+        <v>0.329092</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3096</v>
+        <v>0.309691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.331476</v>
+        <v>0.332382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318018</v>
+        <v>0.318929</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300012</v>
+        <v>0.300178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322288</v>
+        <v>0.322581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.309351</v>
+        <v>0.309726</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290676</v>
+        <v>0.290373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31241</v>
+        <v>0.31286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.300267</v>
+        <v>0.300129</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.281608</v>
+        <v>0.281359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.303471</v>
+        <v>0.304351</v>
       </c>
       <c r="D13" t="n">
-        <v>0.291596</v>
+        <v>0.291797</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273612</v>
+        <v>0.2735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.295329</v>
+        <v>0.295651</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283902</v>
+        <v>0.284082</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265573</v>
+        <v>0.265576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.286958</v>
+        <v>0.287775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275883</v>
+        <v>0.276743</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258115</v>
+        <v>0.257999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279941</v>
+        <v>0.280434</v>
       </c>
       <c r="D16" t="n">
-        <v>0.269212</v>
+        <v>0.26956</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25129</v>
+        <v>0.251134</v>
       </c>
       <c r="C17" t="n">
-        <v>0.27294</v>
+        <v>0.273328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.26321</v>
+        <v>0.263332</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245155</v>
+        <v>0.245217</v>
       </c>
       <c r="C18" t="n">
-        <v>0.266731</v>
+        <v>0.266859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.257537</v>
+        <v>0.257646</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239807</v>
+        <v>0.239599</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261238</v>
+        <v>0.261429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252571</v>
+        <v>0.253152</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.234561</v>
+        <v>0.234272</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256569</v>
+        <v>0.255936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24874</v>
+        <v>0.249679</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230605</v>
+        <v>0.230545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253358</v>
+        <v>0.253422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247127</v>
+        <v>0.24728</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22802</v>
+        <v>0.228111</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251098</v>
+        <v>0.250741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247593</v>
+        <v>0.247787</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226316</v>
+        <v>0.227207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251443</v>
+        <v>0.251466</v>
       </c>
       <c r="D23" t="n">
-        <v>0.340398</v>
+        <v>0.340754</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.315896</v>
+        <v>0.316096</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345009</v>
+        <v>0.344827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.330572</v>
+        <v>0.330914</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306448</v>
+        <v>0.306625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.334855</v>
+        <v>0.334696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.320824</v>
+        <v>0.32115</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29705</v>
+        <v>0.296926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325104</v>
+        <v>0.325284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311747</v>
+        <v>0.311982</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288177</v>
+        <v>0.28863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.315581</v>
+        <v>0.315929</v>
       </c>
       <c r="D27" t="n">
-        <v>0.303044</v>
+        <v>0.303387</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279932</v>
+        <v>0.28007</v>
       </c>
       <c r="C28" t="n">
-        <v>0.306993</v>
+        <v>0.30704</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295163</v>
+        <v>0.29611</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271799</v>
+        <v>0.272046</v>
       </c>
       <c r="C29" t="n">
-        <v>0.298857</v>
+        <v>0.298907</v>
       </c>
       <c r="D29" t="n">
-        <v>0.287444</v>
+        <v>0.288948</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264499</v>
+        <v>0.263956</v>
       </c>
       <c r="C30" t="n">
-        <v>0.290998</v>
+        <v>0.291237</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280333</v>
+        <v>0.281892</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256961</v>
+        <v>0.256935</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284007</v>
+        <v>0.284027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.273999</v>
+        <v>0.274641</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251338</v>
+        <v>0.250621</v>
       </c>
       <c r="C32" t="n">
-        <v>0.27722</v>
+        <v>0.277376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.267933</v>
+        <v>0.269328</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244903</v>
+        <v>0.244894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.271142</v>
+        <v>0.27142</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262839</v>
+        <v>0.264191</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239652</v>
+        <v>0.239484</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265905</v>
+        <v>0.266223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25836</v>
+        <v>0.259505</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235283</v>
+        <v>0.235411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261647</v>
+        <v>0.261831</v>
       </c>
       <c r="D35" t="n">
-        <v>0.255822</v>
+        <v>0.256053</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232401</v>
+        <v>0.232061</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25895</v>
+        <v>0.259398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.255351</v>
+        <v>0.2557</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23089</v>
+        <v>0.230923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258223</v>
+        <v>0.258584</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350429</v>
+        <v>0.350697</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320044</v>
+        <v>0.324625</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354238</v>
+        <v>0.355032</v>
       </c>
       <c r="D38" t="n">
-        <v>0.340365</v>
+        <v>0.340303</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.310504</v>
+        <v>0.315602</v>
       </c>
       <c r="C39" t="n">
-        <v>0.344445</v>
+        <v>0.344603</v>
       </c>
       <c r="D39" t="n">
-        <v>0.33068</v>
+        <v>0.330909</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.301054</v>
+        <v>0.305935</v>
       </c>
       <c r="C40" t="n">
-        <v>0.334645</v>
+        <v>0.335039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321024</v>
+        <v>0.321476</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29234</v>
+        <v>0.29724</v>
       </c>
       <c r="C41" t="n">
-        <v>0.325107</v>
+        <v>0.325866</v>
       </c>
       <c r="D41" t="n">
-        <v>0.312263</v>
+        <v>0.31309</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283993</v>
+        <v>0.288715</v>
       </c>
       <c r="C42" t="n">
-        <v>0.316528</v>
+        <v>0.316897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304673</v>
+        <v>0.304736</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276492</v>
+        <v>0.280626</v>
       </c>
       <c r="C43" t="n">
-        <v>0.308235</v>
+        <v>0.308284</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297321</v>
+        <v>0.297769</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269105</v>
+        <v>0.272677</v>
       </c>
       <c r="C44" t="n">
-        <v>0.300702</v>
+        <v>0.300685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.289637</v>
+        <v>0.290111</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.262046</v>
+        <v>0.26608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.293784</v>
+        <v>0.294146</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283674</v>
+        <v>0.283579</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255306</v>
+        <v>0.259104</v>
       </c>
       <c r="C46" t="n">
-        <v>0.286987</v>
+        <v>0.287374</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277964</v>
+        <v>0.277997</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249706</v>
+        <v>0.253147</v>
       </c>
       <c r="C47" t="n">
-        <v>0.281416</v>
+        <v>0.281985</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27283</v>
+        <v>0.272864</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244446</v>
+        <v>0.247614</v>
       </c>
       <c r="C48" t="n">
-        <v>0.276327</v>
+        <v>0.27686</v>
       </c>
       <c r="D48" t="n">
-        <v>0.268587</v>
+        <v>0.269066</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240311</v>
+        <v>0.242659</v>
       </c>
       <c r="C49" t="n">
-        <v>0.272239</v>
+        <v>0.272701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.265404</v>
+        <v>0.266245</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236482</v>
+        <v>0.239747</v>
       </c>
       <c r="C50" t="n">
-        <v>0.269131</v>
+        <v>0.268986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26473</v>
+        <v>0.265232</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234766</v>
+        <v>0.237745</v>
       </c>
       <c r="C51" t="n">
-        <v>0.26793</v>
+        <v>0.268777</v>
       </c>
       <c r="D51" t="n">
-        <v>0.364618</v>
+        <v>0.364648</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.235395</v>
+        <v>0.239435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2695</v>
+        <v>0.27082</v>
       </c>
       <c r="D52" t="n">
-        <v>0.354337</v>
+        <v>0.353641</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319957</v>
+        <v>0.324033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358905</v>
+        <v>0.358715</v>
       </c>
       <c r="D53" t="n">
-        <v>0.344237</v>
+        <v>0.343722</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310828</v>
+        <v>0.314205</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349404</v>
+        <v>0.348087</v>
       </c>
       <c r="D54" t="n">
-        <v>0.335106</v>
+        <v>0.334396</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302239</v>
+        <v>0.305746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34013</v>
+        <v>0.338346</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326438</v>
+        <v>0.325578</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294029</v>
+        <v>0.297054</v>
       </c>
       <c r="C56" t="n">
-        <v>0.331296</v>
+        <v>0.329358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.318024</v>
+        <v>0.317179</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286443</v>
+        <v>0.289496</v>
       </c>
       <c r="C57" t="n">
-        <v>0.321704</v>
+        <v>0.321058</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309557</v>
+        <v>0.309447</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280243</v>
+        <v>0.282327</v>
       </c>
       <c r="C58" t="n">
-        <v>0.313825</v>
+        <v>0.313325</v>
       </c>
       <c r="D58" t="n">
-        <v>0.302379</v>
+        <v>0.302321</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27349</v>
+        <v>0.275378</v>
       </c>
       <c r="C59" t="n">
-        <v>0.306549</v>
+        <v>0.307154</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295951</v>
+        <v>0.295632</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26735</v>
+        <v>0.269347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.299731</v>
+        <v>0.300387</v>
       </c>
       <c r="D60" t="n">
-        <v>0.289847</v>
+        <v>0.289857</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261404</v>
+        <v>0.263297</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293451</v>
+        <v>0.294537</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284544</v>
+        <v>0.284666</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256232</v>
+        <v>0.257837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.288277</v>
+        <v>0.289476</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280245</v>
+        <v>0.28043</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25183</v>
+        <v>0.253275</v>
       </c>
       <c r="C63" t="n">
-        <v>0.283723</v>
+        <v>0.285176</v>
       </c>
       <c r="D63" t="n">
-        <v>0.277044</v>
+        <v>0.277168</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248572</v>
+        <v>0.250013</v>
       </c>
       <c r="C64" t="n">
-        <v>0.280613</v>
+        <v>0.281764</v>
       </c>
       <c r="D64" t="n">
-        <v>0.275783</v>
+        <v>0.275735</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246411</v>
+        <v>0.247853</v>
       </c>
       <c r="C65" t="n">
-        <v>0.278663</v>
+        <v>0.27951</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277265</v>
+        <v>0.277281</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.246206</v>
+        <v>0.24772</v>
       </c>
       <c r="C66" t="n">
-        <v>0.280055</v>
+        <v>0.280421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.385758</v>
+        <v>0.385894</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386485</v>
+        <v>0.386966</v>
       </c>
       <c r="C67" t="n">
-        <v>0.396045</v>
+        <v>0.396603</v>
       </c>
       <c r="D67" t="n">
-        <v>0.375603</v>
+        <v>0.37533</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.378069</v>
+        <v>0.378178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.386563</v>
+        <v>0.386013</v>
       </c>
       <c r="D68" t="n">
-        <v>0.365782</v>
+        <v>0.365222</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369744</v>
+        <v>0.369947</v>
       </c>
       <c r="C69" t="n">
-        <v>0.376317</v>
+        <v>0.376295</v>
       </c>
       <c r="D69" t="n">
-        <v>0.35622</v>
+        <v>0.355531</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361793</v>
+        <v>0.361828</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366835</v>
+        <v>0.367278</v>
       </c>
       <c r="D70" t="n">
-        <v>0.347758</v>
+        <v>0.346959</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.354206</v>
+        <v>0.354382</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35759</v>
+        <v>0.358313</v>
       </c>
       <c r="D71" t="n">
-        <v>0.339305</v>
+        <v>0.338314</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347127</v>
+        <v>0.34709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.348946</v>
+        <v>0.349633</v>
       </c>
       <c r="D72" t="n">
-        <v>0.331398</v>
+        <v>0.330583</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.340003</v>
+        <v>0.339678</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340923</v>
+        <v>0.341416</v>
       </c>
       <c r="D73" t="n">
-        <v>0.323933</v>
+        <v>0.323073</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.33346</v>
+        <v>0.332838</v>
       </c>
       <c r="C74" t="n">
-        <v>0.333167</v>
+        <v>0.333601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31724</v>
+        <v>0.316285</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.326864</v>
+        <v>0.326057</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3263</v>
+        <v>0.32655</v>
       </c>
       <c r="D75" t="n">
-        <v>0.311149</v>
+        <v>0.310268</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320351</v>
+        <v>0.319764</v>
       </c>
       <c r="C76" t="n">
-        <v>0.319681</v>
+        <v>0.32032</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306144</v>
+        <v>0.305385</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314864</v>
+        <v>0.314129</v>
       </c>
       <c r="C77" t="n">
-        <v>0.314763</v>
+        <v>0.314994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.302324</v>
+        <v>0.301497</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.309293</v>
+        <v>0.308844</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310917</v>
+        <v>0.310932</v>
       </c>
       <c r="D78" t="n">
-        <v>0.300018</v>
+        <v>0.299437</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305552</v>
+        <v>0.304909</v>
       </c>
       <c r="C79" t="n">
-        <v>0.308314</v>
+        <v>0.308611</v>
       </c>
       <c r="D79" t="n">
-        <v>0.30027</v>
+        <v>0.299699</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.303036</v>
+        <v>0.302663</v>
       </c>
       <c r="C80" t="n">
-        <v>0.308296</v>
+        <v>0.308373</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430178</v>
+        <v>0.430799</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.435515</v>
+        <v>0.434825</v>
       </c>
       <c r="C81" t="n">
-        <v>0.435975</v>
+        <v>0.437672</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427242</v>
+        <v>0.427771</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.430631</v>
+        <v>0.42984</v>
       </c>
       <c r="C82" t="n">
-        <v>0.434552</v>
+        <v>0.435983</v>
       </c>
       <c r="D82" t="n">
-        <v>0.421817</v>
+        <v>0.422136</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.424054</v>
+        <v>0.423329</v>
       </c>
       <c r="C83" t="n">
-        <v>0.429845</v>
+        <v>0.431274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.41556</v>
+        <v>0.415956</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.417511</v>
+        <v>0.41677</v>
       </c>
       <c r="C84" t="n">
-        <v>0.424272</v>
+        <v>0.425344</v>
       </c>
       <c r="D84" t="n">
-        <v>0.409211</v>
+        <v>0.409371</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.41089</v>
+        <v>0.410222</v>
       </c>
       <c r="C85" t="n">
-        <v>0.418259</v>
+        <v>0.419255</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403201</v>
+        <v>0.403035</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.404404</v>
+        <v>0.403439</v>
       </c>
       <c r="C86" t="n">
-        <v>0.412546</v>
+        <v>0.413272</v>
       </c>
       <c r="D86" t="n">
-        <v>0.397316</v>
+        <v>0.397089</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.397971</v>
+        <v>0.396927</v>
       </c>
       <c r="C87" t="n">
-        <v>0.406931</v>
+        <v>0.407623</v>
       </c>
       <c r="D87" t="n">
-        <v>0.391898</v>
+        <v>0.391535</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391473</v>
+        <v>0.390765</v>
       </c>
       <c r="C88" t="n">
-        <v>0.401932</v>
+        <v>0.40227</v>
       </c>
       <c r="D88" t="n">
-        <v>0.387065</v>
+        <v>0.386515</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.385235</v>
+        <v>0.384552</v>
       </c>
       <c r="C89" t="n">
-        <v>0.397258</v>
+        <v>0.397442</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382772</v>
+        <v>0.382334</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.379323</v>
+        <v>0.378601</v>
       </c>
       <c r="C90" t="n">
-        <v>0.392934</v>
+        <v>0.393324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.378769</v>
+        <v>0.378376</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373773</v>
+        <v>0.373055</v>
       </c>
       <c r="C91" t="n">
-        <v>0.389806</v>
+        <v>0.389747</v>
       </c>
       <c r="D91" t="n">
-        <v>0.376276</v>
+        <v>0.375402</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.368824</v>
+        <v>0.368167</v>
       </c>
       <c r="C92" t="n">
-        <v>0.387342</v>
+        <v>0.387168</v>
       </c>
       <c r="D92" t="n">
-        <v>0.374553</v>
+        <v>0.373551</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.364679</v>
+        <v>0.363931</v>
       </c>
       <c r="C93" t="n">
-        <v>0.385863</v>
+        <v>0.385734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374502</v>
+        <v>0.37331</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362128</v>
+        <v>0.361439</v>
       </c>
       <c r="C94" t="n">
-        <v>0.385973</v>
+        <v>0.385793</v>
       </c>
       <c r="D94" t="n">
-        <v>0.618841</v>
+        <v>0.618882</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.547978</v>
+        <v>0.548141</v>
       </c>
       <c r="C95" t="n">
-        <v>0.563736</v>
+        <v>0.564589</v>
       </c>
       <c r="D95" t="n">
-        <v>0.613215</v>
+        <v>0.61421</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.54344</v>
+        <v>0.5425219999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.562657</v>
+        <v>0.565524</v>
       </c>
       <c r="D96" t="n">
-        <v>0.606396</v>
+        <v>0.607212</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533554</v>
+        <v>0.5337150000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.556179</v>
+        <v>0.55969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.599096</v>
+        <v>0.600747</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.523049</v>
+        <v>0.523241</v>
       </c>
       <c r="C98" t="n">
-        <v>0.553882</v>
+        <v>0.555243</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593756</v>
+        <v>0.594079</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.514055</v>
+        <v>0.513767</v>
       </c>
       <c r="C99" t="n">
-        <v>0.54984</v>
+        <v>0.5538</v>
       </c>
       <c r="D99" t="n">
-        <v>0.587849</v>
+        <v>0.589079</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.504861</v>
+        <v>0.505033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.546926</v>
+        <v>0.549625</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585391</v>
+        <v>0.585709</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.495786</v>
+        <v>0.496652</v>
       </c>
       <c r="C101" t="n">
-        <v>0.546557</v>
+        <v>0.548135</v>
       </c>
       <c r="D101" t="n">
-        <v>0.582487</v>
+        <v>0.582607</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488182</v>
+        <v>0.488765</v>
       </c>
       <c r="C102" t="n">
-        <v>0.545173</v>
+        <v>0.54466</v>
       </c>
       <c r="D102" t="n">
-        <v>0.577928</v>
+        <v>0.57921</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479865</v>
+        <v>0.480514</v>
       </c>
       <c r="C103" t="n">
-        <v>0.541869</v>
+        <v>0.542811</v>
       </c>
       <c r="D103" t="n">
-        <v>0.573562</v>
+        <v>0.5744590000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473383</v>
+        <v>0.47447</v>
       </c>
       <c r="C104" t="n">
-        <v>0.540907</v>
+        <v>0.542443</v>
       </c>
       <c r="D104" t="n">
-        <v>0.570139</v>
+        <v>0.570707</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.466947</v>
+        <v>0.467554</v>
       </c>
       <c r="C105" t="n">
-        <v>0.538442</v>
+        <v>0.540035</v>
       </c>
       <c r="D105" t="n">
-        <v>0.565358</v>
+        <v>0.566982</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.460662</v>
+        <v>0.46133</v>
       </c>
       <c r="C106" t="n">
-        <v>0.537861</v>
+        <v>0.539115</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5651389999999999</v>
+        <v>0.566152</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.455256</v>
+        <v>0.456062</v>
       </c>
       <c r="C107" t="n">
-        <v>0.539188</v>
+        <v>0.539667</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565639</v>
+        <v>0.565921</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.452302</v>
+        <v>0.45293</v>
       </c>
       <c r="C108" t="n">
-        <v>0.542237</v>
+        <v>0.542829</v>
       </c>
       <c r="D108" t="n">
-        <v>0.749063</v>
+        <v>0.750668</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450783</v>
+        <v>0.451199</v>
       </c>
       <c r="C109" t="n">
-        <v>0.545035</v>
+        <v>0.546377</v>
       </c>
       <c r="D109" t="n">
-        <v>0.742514</v>
+        <v>0.7428439999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.649787</v>
+        <v>0.6498080000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.730358</v>
+        <v>0.730278</v>
       </c>
       <c r="D110" t="n">
-        <v>0.734245</v>
+        <v>0.735754</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.63854</v>
+        <v>0.637938</v>
       </c>
       <c r="C111" t="n">
-        <v>0.72315</v>
+        <v>0.722858</v>
       </c>
       <c r="D111" t="n">
-        <v>0.727456</v>
+        <v>0.728765</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.625831</v>
+        <v>0.626049</v>
       </c>
       <c r="C112" t="n">
-        <v>0.717499</v>
+        <v>0.7176360000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7218020000000001</v>
+        <v>0.7221</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.613885</v>
+        <v>0.614038</v>
       </c>
       <c r="C113" t="n">
-        <v>0.711863</v>
+        <v>0.712035</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7153929999999999</v>
+        <v>0.715727</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602785</v>
+        <v>0.602587</v>
       </c>
       <c r="C114" t="n">
-        <v>0.708166</v>
+        <v>0.707983</v>
       </c>
       <c r="D114" t="n">
-        <v>0.710718</v>
+        <v>0.711334</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591648</v>
+        <v>0.591626</v>
       </c>
       <c r="C115" t="n">
-        <v>0.702627</v>
+        <v>0.703456</v>
       </c>
       <c r="D115" t="n">
-        <v>0.70531</v>
+        <v>0.706171</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582203</v>
+        <v>0.582587</v>
       </c>
       <c r="C116" t="n">
-        <v>0.699375</v>
+        <v>0.699721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.701286</v>
+        <v>0.702465</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.572976</v>
+        <v>0.572788</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6955789999999999</v>
+        <v>0.697226</v>
       </c>
       <c r="D117" t="n">
-        <v>0.697661</v>
+        <v>0.6991810000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.564091</v>
+        <v>0.564148</v>
       </c>
       <c r="C118" t="n">
-        <v>0.692702</v>
+        <v>0.693751</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695269</v>
+        <v>0.69661</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.556432</v>
+        <v>0.556177</v>
       </c>
       <c r="C119" t="n">
-        <v>0.69074</v>
+        <v>0.692106</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6932160000000001</v>
+        <v>0.69478</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.548297</v>
+        <v>0.549052</v>
       </c>
       <c r="C120" t="n">
-        <v>0.689424</v>
+        <v>0.689984</v>
       </c>
       <c r="D120" t="n">
-        <v>0.693031</v>
+        <v>0.693906</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541709</v>
+        <v>0.541808</v>
       </c>
       <c r="C121" t="n">
-        <v>0.68902</v>
+        <v>0.690523</v>
       </c>
       <c r="D121" t="n">
-        <v>0.693461</v>
+        <v>0.694699</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5366570000000001</v>
+        <v>0.536862</v>
       </c>
       <c r="C122" t="n">
-        <v>0.689874</v>
+        <v>0.691065</v>
       </c>
       <c r="D122" t="n">
-        <v>0.694932</v>
+        <v>0.695187</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.533084</v>
+        <v>0.533065</v>
       </c>
       <c r="C123" t="n">
-        <v>0.69229</v>
+        <v>0.693006</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8750599999999999</v>
+        <v>0.876726</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727683</v>
+        <v>0.727225</v>
       </c>
       <c r="C124" t="n">
-        <v>0.876479</v>
+        <v>0.87657</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8648940000000001</v>
+        <v>0.866357</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.716739</v>
+        <v>0.716788</v>
       </c>
       <c r="C125" t="n">
-        <v>0.866248</v>
+        <v>0.86663</v>
       </c>
       <c r="D125" t="n">
-        <v>0.856046</v>
+        <v>0.8568480000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7063970000000001</v>
+        <v>0.707089</v>
       </c>
       <c r="C126" t="n">
-        <v>0.857161</v>
+        <v>0.857389</v>
       </c>
       <c r="D126" t="n">
-        <v>0.846527</v>
+        <v>0.84749</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697622</v>
+        <v>0.697568</v>
       </c>
       <c r="C127" t="n">
-        <v>0.848813</v>
+        <v>0.848901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.838037</v>
+        <v>0.838403</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687931</v>
+        <v>0.6888570000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.840709</v>
+        <v>0.841275</v>
       </c>
       <c r="D128" t="n">
-        <v>0.830089</v>
+        <v>0.830361</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.679601</v>
+        <v>0.679833</v>
       </c>
       <c r="C129" t="n">
-        <v>0.832974</v>
+        <v>0.833408</v>
       </c>
       <c r="D129" t="n">
-        <v>0.823062</v>
+        <v>0.823061</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.670785</v>
+        <v>0.672087</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8262389999999999</v>
+        <v>0.8276</v>
       </c>
       <c r="D130" t="n">
-        <v>0.815741</v>
+        <v>0.817293</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.663895</v>
+        <v>0.66412</v>
       </c>
       <c r="C131" t="n">
-        <v>0.820765</v>
+        <v>0.820858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.810523</v>
+        <v>0.811154</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6567460000000001</v>
+        <v>0.657066</v>
       </c>
       <c r="C132" t="n">
-        <v>0.815371</v>
+        <v>0.815634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.805665</v>
+        <v>0.806104</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.64993</v>
+        <v>0.6510280000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.811237</v>
+        <v>0.811642</v>
       </c>
       <c r="D133" t="n">
-        <v>0.802243</v>
+        <v>0.803339</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.644235</v>
+        <v>0.645154</v>
       </c>
       <c r="C134" t="n">
-        <v>0.808156</v>
+        <v>0.808569</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8006450000000001</v>
+        <v>0.801597</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.639205</v>
+        <v>0.63953</v>
       </c>
       <c r="C135" t="n">
-        <v>0.806478</v>
+        <v>0.807221</v>
       </c>
       <c r="D135" t="n">
-        <v>0.801773</v>
+        <v>0.802435</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.634325</v>
+        <v>0.63528</v>
       </c>
       <c r="C136" t="n">
-        <v>0.807029</v>
+        <v>0.8078959999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.804331</v>
+        <v>0.806269</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.630692</v>
+        <v>0.631227</v>
       </c>
       <c r="C137" t="n">
-        <v>0.809978</v>
+        <v>0.810651</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9868749999999999</v>
+        <v>0.988008</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.823064</v>
+        <v>0.823434</v>
       </c>
       <c r="C138" t="n">
-        <v>0.995884</v>
+        <v>0.996713</v>
       </c>
       <c r="D138" t="n">
-        <v>0.972701</v>
+        <v>0.974451</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.813205</v>
+        <v>0.813805</v>
       </c>
       <c r="C139" t="n">
-        <v>0.982438</v>
+        <v>0.98333</v>
       </c>
       <c r="D139" t="n">
-        <v>0.959205</v>
+        <v>0.960988</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.804411</v>
+        <v>0.804986</v>
       </c>
       <c r="C140" t="n">
-        <v>0.970274</v>
+        <v>0.970642</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9467100000000001</v>
+        <v>0.948337</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796132</v>
+        <v>0.796481</v>
       </c>
       <c r="C141" t="n">
-        <v>0.958441</v>
+        <v>0.958946</v>
       </c>
       <c r="D141" t="n">
-        <v>0.934809</v>
+        <v>0.936781</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788474</v>
+        <v>0.789199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.947201</v>
+        <v>0.947879</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924752</v>
+        <v>0.926051</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.781162</v>
+        <v>0.782003</v>
       </c>
       <c r="C143" t="n">
-        <v>0.937365</v>
+        <v>0.937482</v>
       </c>
       <c r="D143" t="n">
-        <v>0.914747</v>
+        <v>0.916444</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246224</v>
+        <v>0.246007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266514</v>
+        <v>0.27526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.259792</v>
+        <v>0.261938</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239377</v>
+        <v>0.23896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.260177</v>
+        <v>0.267797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254176</v>
+        <v>0.255508</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232817</v>
+        <v>0.232822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.254516</v>
+        <v>0.261338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24947</v>
+        <v>0.249855</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227577</v>
+        <v>0.227449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.249684</v>
+        <v>0.255961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244853</v>
+        <v>0.245413</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222995</v>
+        <v>0.223195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244917</v>
+        <v>0.250907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240315</v>
+        <v>0.241017</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220306</v>
+        <v>0.220853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241498</v>
+        <v>0.24413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238846</v>
+        <v>0.238388</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218219</v>
+        <v>0.218614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.239602</v>
+        <v>0.244272</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237912</v>
+        <v>0.238139</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218463</v>
+        <v>0.2184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24005</v>
+        <v>0.244239</v>
       </c>
       <c r="D9" t="n">
-        <v>0.329092</v>
+        <v>0.33219</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309691</v>
+        <v>0.308394</v>
       </c>
       <c r="C10" t="n">
-        <v>0.332382</v>
+        <v>0.339977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318929</v>
+        <v>0.32268</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300178</v>
+        <v>0.298847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322581</v>
+        <v>0.32954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.309726</v>
+        <v>0.312915</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290373</v>
+        <v>0.289511</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31286</v>
+        <v>0.320118</v>
       </c>
       <c r="D12" t="n">
-        <v>0.300129</v>
+        <v>0.30367</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.281359</v>
+        <v>0.280971</v>
       </c>
       <c r="C13" t="n">
-        <v>0.304351</v>
+        <v>0.30971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.291797</v>
+        <v>0.294818</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2735</v>
+        <v>0.272671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.295651</v>
+        <v>0.300922</v>
       </c>
       <c r="D14" t="n">
-        <v>0.284082</v>
+        <v>0.28672</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265576</v>
+        <v>0.264719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.287775</v>
+        <v>0.292128</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276743</v>
+        <v>0.279134</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257999</v>
+        <v>0.257216</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280434</v>
+        <v>0.284516</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26956</v>
+        <v>0.271737</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251134</v>
+        <v>0.250554</v>
       </c>
       <c r="C17" t="n">
-        <v>0.273328</v>
+        <v>0.277697</v>
       </c>
       <c r="D17" t="n">
-        <v>0.263332</v>
+        <v>0.265098</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245217</v>
+        <v>0.244482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.266859</v>
+        <v>0.270345</v>
       </c>
       <c r="D18" t="n">
-        <v>0.257646</v>
+        <v>0.25936</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239599</v>
+        <v>0.238713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261429</v>
+        <v>0.26491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253152</v>
+        <v>0.25416</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.234272</v>
+        <v>0.233305</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255936</v>
+        <v>0.260241</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249679</v>
+        <v>0.250459</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230545</v>
+        <v>0.229686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253422</v>
+        <v>0.256298</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24728</v>
+        <v>0.247983</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228111</v>
+        <v>0.226999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.250741</v>
+        <v>0.253703</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247787</v>
+        <v>0.248053</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227207</v>
+        <v>0.225864</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251466</v>
+        <v>0.25374</v>
       </c>
       <c r="D23" t="n">
-        <v>0.340754</v>
+        <v>0.344004</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.316096</v>
+        <v>0.314844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344827</v>
+        <v>0.352127</v>
       </c>
       <c r="D24" t="n">
-        <v>0.330914</v>
+        <v>0.333637</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306625</v>
+        <v>0.305396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.334696</v>
+        <v>0.341312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.32115</v>
+        <v>0.323918</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296926</v>
+        <v>0.296088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325284</v>
+        <v>0.330828</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311982</v>
+        <v>0.314465</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28863</v>
+        <v>0.287106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.315929</v>
+        <v>0.32322</v>
       </c>
       <c r="D27" t="n">
-        <v>0.303387</v>
+        <v>0.30569</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28007</v>
+        <v>0.27862</v>
       </c>
       <c r="C28" t="n">
-        <v>0.30704</v>
+        <v>0.313526</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29611</v>
+        <v>0.297451</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272046</v>
+        <v>0.270471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.298907</v>
+        <v>0.304427</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288948</v>
+        <v>0.2895</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263956</v>
+        <v>0.263363</v>
       </c>
       <c r="C30" t="n">
-        <v>0.291237</v>
+        <v>0.296125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.281892</v>
+        <v>0.281878</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256935</v>
+        <v>0.256317</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284027</v>
+        <v>0.288942</v>
       </c>
       <c r="D31" t="n">
-        <v>0.274641</v>
+        <v>0.275059</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250621</v>
+        <v>0.249945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.277376</v>
+        <v>0.282946</v>
       </c>
       <c r="D32" t="n">
-        <v>0.269328</v>
+        <v>0.268602</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244894</v>
+        <v>0.244379</v>
       </c>
       <c r="C33" t="n">
-        <v>0.27142</v>
+        <v>0.276613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264191</v>
+        <v>0.263161</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239484</v>
+        <v>0.23898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.266223</v>
+        <v>0.27084</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259505</v>
+        <v>0.258558</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235411</v>
+        <v>0.234801</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261831</v>
+        <v>0.265686</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256053</v>
+        <v>0.255359</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232061</v>
+        <v>0.231837</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259398</v>
+        <v>0.263098</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2557</v>
+        <v>0.254294</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230923</v>
+        <v>0.230273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258584</v>
+        <v>0.261202</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350697</v>
+        <v>0.352416</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.324625</v>
+        <v>0.321375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355032</v>
+        <v>0.361104</v>
       </c>
       <c r="D38" t="n">
-        <v>0.340303</v>
+        <v>0.342358</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.315602</v>
+        <v>0.312776</v>
       </c>
       <c r="C39" t="n">
-        <v>0.344603</v>
+        <v>0.351413</v>
       </c>
       <c r="D39" t="n">
-        <v>0.330909</v>
+        <v>0.332579</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305935</v>
+        <v>0.302861</v>
       </c>
       <c r="C40" t="n">
-        <v>0.335039</v>
+        <v>0.341381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321476</v>
+        <v>0.323352</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29724</v>
+        <v>0.29456</v>
       </c>
       <c r="C41" t="n">
-        <v>0.325866</v>
+        <v>0.331743</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31309</v>
+        <v>0.314532</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288715</v>
+        <v>0.28549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.316897</v>
+        <v>0.322976</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304736</v>
+        <v>0.306061</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280626</v>
+        <v>0.277264</v>
       </c>
       <c r="C43" t="n">
-        <v>0.308284</v>
+        <v>0.314749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297769</v>
+        <v>0.298285</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272677</v>
+        <v>0.269829</v>
       </c>
       <c r="C44" t="n">
-        <v>0.300685</v>
+        <v>0.306792</v>
       </c>
       <c r="D44" t="n">
-        <v>0.290111</v>
+        <v>0.290832</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.26608</v>
+        <v>0.262684</v>
       </c>
       <c r="C45" t="n">
-        <v>0.294146</v>
+        <v>0.299508</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283579</v>
+        <v>0.284115</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.259104</v>
+        <v>0.256854</v>
       </c>
       <c r="C46" t="n">
-        <v>0.287374</v>
+        <v>0.292785</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277997</v>
+        <v>0.278077</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.253147</v>
+        <v>0.25038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.281985</v>
+        <v>0.286206</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272864</v>
+        <v>0.272675</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.247614</v>
+        <v>0.245055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27686</v>
+        <v>0.28113</v>
       </c>
       <c r="D48" t="n">
-        <v>0.269066</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.242659</v>
+        <v>0.240266</v>
       </c>
       <c r="C49" t="n">
-        <v>0.272701</v>
+        <v>0.276171</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266245</v>
+        <v>0.264563</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239747</v>
+        <v>0.236994</v>
       </c>
       <c r="C50" t="n">
-        <v>0.268986</v>
+        <v>0.272459</v>
       </c>
       <c r="D50" t="n">
-        <v>0.265232</v>
+        <v>0.262865</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.237745</v>
+        <v>0.235319</v>
       </c>
       <c r="C51" t="n">
-        <v>0.268777</v>
+        <v>0.271196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.364648</v>
+        <v>0.36491</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.239435</v>
+        <v>0.23675</v>
       </c>
       <c r="C52" t="n">
-        <v>0.27082</v>
+        <v>0.27195</v>
       </c>
       <c r="D52" t="n">
-        <v>0.353641</v>
+        <v>0.354829</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.324033</v>
+        <v>0.320318</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358715</v>
+        <v>0.365309</v>
       </c>
       <c r="D53" t="n">
-        <v>0.343722</v>
+        <v>0.34514</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.314205</v>
+        <v>0.311056</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348087</v>
+        <v>0.35535</v>
       </c>
       <c r="D54" t="n">
-        <v>0.334396</v>
+        <v>0.336133</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.305746</v>
+        <v>0.302628</v>
       </c>
       <c r="C55" t="n">
-        <v>0.338346</v>
+        <v>0.346033</v>
       </c>
       <c r="D55" t="n">
-        <v>0.325578</v>
+        <v>0.327339</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297054</v>
+        <v>0.294581</v>
       </c>
       <c r="C56" t="n">
-        <v>0.329358</v>
+        <v>0.337208</v>
       </c>
       <c r="D56" t="n">
-        <v>0.317179</v>
+        <v>0.318938</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.289496</v>
+        <v>0.286759</v>
       </c>
       <c r="C57" t="n">
-        <v>0.321058</v>
+        <v>0.328812</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309447</v>
+        <v>0.311245</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282327</v>
+        <v>0.279566</v>
       </c>
       <c r="C58" t="n">
-        <v>0.313325</v>
+        <v>0.320837</v>
       </c>
       <c r="D58" t="n">
-        <v>0.302321</v>
+        <v>0.303832</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.275378</v>
+        <v>0.272923</v>
       </c>
       <c r="C59" t="n">
-        <v>0.307154</v>
+        <v>0.313512</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295632</v>
+        <v>0.297052</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.269347</v>
+        <v>0.266645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.300387</v>
+        <v>0.306692</v>
       </c>
       <c r="D60" t="n">
-        <v>0.289857</v>
+        <v>0.290006</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263297</v>
+        <v>0.260741</v>
       </c>
       <c r="C61" t="n">
-        <v>0.294537</v>
+        <v>0.300401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284666</v>
+        <v>0.284395</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257837</v>
+        <v>0.255455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.289476</v>
+        <v>0.294781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.28043</v>
+        <v>0.280079</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253275</v>
+        <v>0.250888</v>
       </c>
       <c r="C63" t="n">
-        <v>0.285176</v>
+        <v>0.289446</v>
       </c>
       <c r="D63" t="n">
-        <v>0.277168</v>
+        <v>0.275547</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250013</v>
+        <v>0.247476</v>
       </c>
       <c r="C64" t="n">
-        <v>0.281764</v>
+        <v>0.286144</v>
       </c>
       <c r="D64" t="n">
-        <v>0.275735</v>
+        <v>0.274025</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247853</v>
+        <v>0.24571</v>
       </c>
       <c r="C65" t="n">
-        <v>0.27951</v>
+        <v>0.284119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277281</v>
+        <v>0.274753</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.24772</v>
+        <v>0.245474</v>
       </c>
       <c r="C66" t="n">
-        <v>0.280421</v>
+        <v>0.284533</v>
       </c>
       <c r="D66" t="n">
-        <v>0.385894</v>
+        <v>0.38823</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386966</v>
+        <v>0.387829</v>
       </c>
       <c r="C67" t="n">
-        <v>0.396603</v>
+        <v>0.402736</v>
       </c>
       <c r="D67" t="n">
-        <v>0.37533</v>
+        <v>0.378327</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.378178</v>
+        <v>0.379102</v>
       </c>
       <c r="C68" t="n">
-        <v>0.386013</v>
+        <v>0.392813</v>
       </c>
       <c r="D68" t="n">
-        <v>0.365222</v>
+        <v>0.369115</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369947</v>
+        <v>0.370643</v>
       </c>
       <c r="C69" t="n">
-        <v>0.376295</v>
+        <v>0.383549</v>
       </c>
       <c r="D69" t="n">
-        <v>0.355531</v>
+        <v>0.360437</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361828</v>
+        <v>0.362785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.367278</v>
+        <v>0.374685</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346959</v>
+        <v>0.351935</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.354382</v>
+        <v>0.355175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.358313</v>
+        <v>0.365934</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338314</v>
+        <v>0.343781</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.34709</v>
+        <v>0.347582</v>
       </c>
       <c r="C72" t="n">
-        <v>0.349633</v>
+        <v>0.357702</v>
       </c>
       <c r="D72" t="n">
-        <v>0.330583</v>
+        <v>0.336046</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.339678</v>
+        <v>0.340329</v>
       </c>
       <c r="C73" t="n">
-        <v>0.341416</v>
+        <v>0.349862</v>
       </c>
       <c r="D73" t="n">
-        <v>0.323073</v>
+        <v>0.329061</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332838</v>
+        <v>0.333078</v>
       </c>
       <c r="C74" t="n">
-        <v>0.333601</v>
+        <v>0.3424</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316285</v>
+        <v>0.322373</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.326057</v>
+        <v>0.326259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.32655</v>
+        <v>0.335473</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310268</v>
+        <v>0.316317</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319764</v>
+        <v>0.319865</v>
       </c>
       <c r="C76" t="n">
-        <v>0.32032</v>
+        <v>0.329139</v>
       </c>
       <c r="D76" t="n">
-        <v>0.305385</v>
+        <v>0.31112</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314129</v>
+        <v>0.314246</v>
       </c>
       <c r="C77" t="n">
-        <v>0.314994</v>
+        <v>0.323615</v>
       </c>
       <c r="D77" t="n">
-        <v>0.301497</v>
+        <v>0.30685</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308844</v>
+        <v>0.309122</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310932</v>
+        <v>0.318981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.299437</v>
+        <v>0.303945</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304909</v>
+        <v>0.305183</v>
       </c>
       <c r="C79" t="n">
-        <v>0.308611</v>
+        <v>0.31583</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299699</v>
+        <v>0.303274</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302663</v>
+        <v>0.302766</v>
       </c>
       <c r="C80" t="n">
-        <v>0.308373</v>
+        <v>0.315056</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430799</v>
+        <v>0.451294</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.434825</v>
+        <v>0.433554</v>
       </c>
       <c r="C81" t="n">
-        <v>0.437672</v>
+        <v>0.473675</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427771</v>
+        <v>0.449066</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.42984</v>
+        <v>0.428768</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435983</v>
+        <v>0.473226</v>
       </c>
       <c r="D82" t="n">
-        <v>0.422136</v>
+        <v>0.444192</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.423329</v>
+        <v>0.422317</v>
       </c>
       <c r="C83" t="n">
-        <v>0.431274</v>
+        <v>0.468945</v>
       </c>
       <c r="D83" t="n">
-        <v>0.415956</v>
+        <v>0.438156</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.41677</v>
+        <v>0.415704</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425344</v>
+        <v>0.463551</v>
       </c>
       <c r="D84" t="n">
-        <v>0.409371</v>
+        <v>0.431722</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.410222</v>
+        <v>0.409164</v>
       </c>
       <c r="C85" t="n">
-        <v>0.419255</v>
+        <v>0.457267</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403035</v>
+        <v>0.424281</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.403439</v>
+        <v>0.402793</v>
       </c>
       <c r="C86" t="n">
-        <v>0.413272</v>
+        <v>0.450229</v>
       </c>
       <c r="D86" t="n">
-        <v>0.397089</v>
+        <v>0.416494</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.396927</v>
+        <v>0.396313</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407623</v>
+        <v>0.443512</v>
       </c>
       <c r="D87" t="n">
-        <v>0.391535</v>
+        <v>0.409145</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.390765</v>
+        <v>0.389891</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40227</v>
+        <v>0.436452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.386515</v>
+        <v>0.401406</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.384552</v>
+        <v>0.383673</v>
       </c>
       <c r="C89" t="n">
-        <v>0.397442</v>
+        <v>0.429862</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382334</v>
+        <v>0.394575</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378601</v>
+        <v>0.37777</v>
       </c>
       <c r="C90" t="n">
-        <v>0.393324</v>
+        <v>0.423743</v>
       </c>
       <c r="D90" t="n">
-        <v>0.378376</v>
+        <v>0.388199</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373055</v>
+        <v>0.372248</v>
       </c>
       <c r="C91" t="n">
-        <v>0.389747</v>
+        <v>0.418038</v>
       </c>
       <c r="D91" t="n">
-        <v>0.375402</v>
+        <v>0.382594</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.368167</v>
+        <v>0.367216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.387168</v>
+        <v>0.412927</v>
       </c>
       <c r="D92" t="n">
-        <v>0.373551</v>
+        <v>0.378368</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.363931</v>
+        <v>0.363051</v>
       </c>
       <c r="C93" t="n">
-        <v>0.385734</v>
+        <v>0.40945</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37331</v>
+        <v>0.376053</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361439</v>
+        <v>0.36027</v>
       </c>
       <c r="C94" t="n">
-        <v>0.385793</v>
+        <v>0.407343</v>
       </c>
       <c r="D94" t="n">
-        <v>0.618882</v>
+        <v>0.655887</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.548141</v>
+        <v>0.54699</v>
       </c>
       <c r="C95" t="n">
-        <v>0.564589</v>
+        <v>0.645585</v>
       </c>
       <c r="D95" t="n">
-        <v>0.61421</v>
+        <v>0.651214</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5425219999999999</v>
+        <v>0.54228</v>
       </c>
       <c r="C96" t="n">
-        <v>0.565524</v>
+        <v>0.645914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.607212</v>
+        <v>0.642463</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5337150000000001</v>
+        <v>0.532519</v>
       </c>
       <c r="C97" t="n">
-        <v>0.55969</v>
+        <v>0.638405</v>
       </c>
       <c r="D97" t="n">
-        <v>0.600747</v>
+        <v>0.633404</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.523241</v>
+        <v>0.522274</v>
       </c>
       <c r="C98" t="n">
-        <v>0.555243</v>
+        <v>0.630508</v>
       </c>
       <c r="D98" t="n">
-        <v>0.594079</v>
+        <v>0.623285</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.513767</v>
+        <v>0.513583</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5538</v>
+        <v>0.622265</v>
       </c>
       <c r="D99" t="n">
-        <v>0.589079</v>
+        <v>0.613115</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505033</v>
+        <v>0.503487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.549625</v>
+        <v>0.615089</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585709</v>
+        <v>0.603579</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496652</v>
+        <v>0.495518</v>
       </c>
       <c r="C101" t="n">
-        <v>0.548135</v>
+        <v>0.608165</v>
       </c>
       <c r="D101" t="n">
-        <v>0.582607</v>
+        <v>0.5947210000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488765</v>
+        <v>0.487285</v>
       </c>
       <c r="C102" t="n">
-        <v>0.54466</v>
+        <v>0.600877</v>
       </c>
       <c r="D102" t="n">
-        <v>0.57921</v>
+        <v>0.585408</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.480514</v>
+        <v>0.480183</v>
       </c>
       <c r="C103" t="n">
-        <v>0.542811</v>
+        <v>0.5935859999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5744590000000001</v>
+        <v>0.577209</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.47447</v>
+        <v>0.472787</v>
       </c>
       <c r="C104" t="n">
-        <v>0.542443</v>
+        <v>0.58865</v>
       </c>
       <c r="D104" t="n">
-        <v>0.570707</v>
+        <v>0.569791</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.467554</v>
+        <v>0.465834</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540035</v>
+        <v>0.582719</v>
       </c>
       <c r="D105" t="n">
-        <v>0.566982</v>
+        <v>0.563175</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46133</v>
+        <v>0.459785</v>
       </c>
       <c r="C106" t="n">
-        <v>0.539115</v>
+        <v>0.578176</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566152</v>
+        <v>0.557535</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.456062</v>
+        <v>0.455233</v>
       </c>
       <c r="C107" t="n">
-        <v>0.539667</v>
+        <v>0.574946</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565921</v>
+        <v>0.553025</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.45293</v>
+        <v>0.451402</v>
       </c>
       <c r="C108" t="n">
-        <v>0.542829</v>
+        <v>0.572186</v>
       </c>
       <c r="D108" t="n">
-        <v>0.750668</v>
+        <v>0.76394</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.451199</v>
+        <v>0.449714</v>
       </c>
       <c r="C109" t="n">
-        <v>0.546377</v>
+        <v>0.572103</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7428439999999999</v>
+        <v>0.758898</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6498080000000001</v>
+        <v>0.649349</v>
       </c>
       <c r="C110" t="n">
-        <v>0.730278</v>
+        <v>0.814588</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735754</v>
+        <v>0.748696</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.637938</v>
+        <v>0.636648</v>
       </c>
       <c r="C111" t="n">
-        <v>0.722858</v>
+        <v>0.804768</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728765</v>
+        <v>0.739093</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626049</v>
+        <v>0.62541</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7176360000000001</v>
+        <v>0.794426</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7221</v>
+        <v>0.7295469999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614038</v>
+        <v>0.613187</v>
       </c>
       <c r="C113" t="n">
-        <v>0.712035</v>
+        <v>0.782847</v>
       </c>
       <c r="D113" t="n">
-        <v>0.715727</v>
+        <v>0.720665</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602587</v>
+        <v>0.601872</v>
       </c>
       <c r="C114" t="n">
-        <v>0.707983</v>
+        <v>0.773585</v>
       </c>
       <c r="D114" t="n">
-        <v>0.711334</v>
+        <v>0.713031</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591626</v>
+        <v>0.591258</v>
       </c>
       <c r="C115" t="n">
-        <v>0.703456</v>
+        <v>0.76488</v>
       </c>
       <c r="D115" t="n">
-        <v>0.706171</v>
+        <v>0.705677</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582587</v>
+        <v>0.580952</v>
       </c>
       <c r="C116" t="n">
-        <v>0.699721</v>
+        <v>0.755752</v>
       </c>
       <c r="D116" t="n">
-        <v>0.702465</v>
+        <v>0.696506</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.572788</v>
+        <v>0.57192</v>
       </c>
       <c r="C117" t="n">
-        <v>0.697226</v>
+        <v>0.746949</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6991810000000001</v>
+        <v>0.68947</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.564148</v>
+        <v>0.56316</v>
       </c>
       <c r="C118" t="n">
-        <v>0.693751</v>
+        <v>0.740742</v>
       </c>
       <c r="D118" t="n">
-        <v>0.69661</v>
+        <v>0.683559</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.556177</v>
+        <v>0.554806</v>
       </c>
       <c r="C119" t="n">
-        <v>0.692106</v>
+        <v>0.734595</v>
       </c>
       <c r="D119" t="n">
-        <v>0.69478</v>
+        <v>0.677077</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.549052</v>
+        <v>0.547637</v>
       </c>
       <c r="C120" t="n">
-        <v>0.689984</v>
+        <v>0.728999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.693906</v>
+        <v>0.670575</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541808</v>
+        <v>0.541138</v>
       </c>
       <c r="C121" t="n">
-        <v>0.690523</v>
+        <v>0.724395</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694699</v>
+        <v>0.666461</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.536862</v>
+        <v>0.53576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.691065</v>
+        <v>0.7201070000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.695187</v>
+        <v>0.663596</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.533065</v>
+        <v>0.532188</v>
       </c>
       <c r="C123" t="n">
-        <v>0.693006</v>
+        <v>0.717194</v>
       </c>
       <c r="D123" t="n">
-        <v>0.876726</v>
+        <v>0.88027</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727225</v>
+        <v>0.726645</v>
       </c>
       <c r="C124" t="n">
-        <v>0.87657</v>
+        <v>0.956071</v>
       </c>
       <c r="D124" t="n">
-        <v>0.866357</v>
+        <v>0.871541</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.716788</v>
+        <v>0.716441</v>
       </c>
       <c r="C125" t="n">
-        <v>0.86663</v>
+        <v>0.944501</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8568480000000001</v>
+        <v>0.862359</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.707089</v>
+        <v>0.705968</v>
       </c>
       <c r="C126" t="n">
-        <v>0.857389</v>
+        <v>0.934466</v>
       </c>
       <c r="D126" t="n">
-        <v>0.84749</v>
+        <v>0.856011</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697568</v>
+        <v>0.696322</v>
       </c>
       <c r="C127" t="n">
-        <v>0.848901</v>
+        <v>0.924081</v>
       </c>
       <c r="D127" t="n">
-        <v>0.838403</v>
+        <v>0.848692</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6888570000000001</v>
+        <v>0.687178</v>
       </c>
       <c r="C128" t="n">
-        <v>0.841275</v>
+        <v>0.916396</v>
       </c>
       <c r="D128" t="n">
-        <v>0.830361</v>
+        <v>0.844763</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.679833</v>
+        <v>0.678656</v>
       </c>
       <c r="C129" t="n">
-        <v>0.833408</v>
+        <v>0.9081129999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.823061</v>
+        <v>0.837313</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672087</v>
+        <v>0.670392</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8276</v>
+        <v>0.901387</v>
       </c>
       <c r="D130" t="n">
-        <v>0.817293</v>
+        <v>0.83257</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.66412</v>
+        <v>0.662767</v>
       </c>
       <c r="C131" t="n">
-        <v>0.820858</v>
+        <v>0.893573</v>
       </c>
       <c r="D131" t="n">
-        <v>0.811154</v>
+        <v>0.8272040000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.657066</v>
+        <v>0.656196</v>
       </c>
       <c r="C132" t="n">
-        <v>0.815634</v>
+        <v>0.887561</v>
       </c>
       <c r="D132" t="n">
-        <v>0.806104</v>
+        <v>0.824642</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6510280000000001</v>
+        <v>0.649276</v>
       </c>
       <c r="C133" t="n">
-        <v>0.811642</v>
+        <v>0.882274</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803339</v>
+        <v>0.819648</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.645154</v>
+        <v>0.64345</v>
       </c>
       <c r="C134" t="n">
-        <v>0.808569</v>
+        <v>0.877539</v>
       </c>
       <c r="D134" t="n">
-        <v>0.801597</v>
+        <v>0.815886</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.63953</v>
+        <v>0.63825</v>
       </c>
       <c r="C135" t="n">
-        <v>0.807221</v>
+        <v>0.873202</v>
       </c>
       <c r="D135" t="n">
-        <v>0.802435</v>
+        <v>0.812574</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.63528</v>
+        <v>0.633934</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8078959999999999</v>
+        <v>0.869646</v>
       </c>
       <c r="D136" t="n">
-        <v>0.806269</v>
+        <v>0.809501</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.631227</v>
+        <v>0.629966</v>
       </c>
       <c r="C137" t="n">
-        <v>0.810651</v>
+        <v>0.866476</v>
       </c>
       <c r="D137" t="n">
-        <v>0.988008</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.823434</v>
+        <v>0.822663</v>
       </c>
       <c r="C138" t="n">
-        <v>0.996713</v>
+        <v>1.11022</v>
       </c>
       <c r="D138" t="n">
-        <v>0.974451</v>
+        <v>1.01781</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.813805</v>
+        <v>0.813507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.98333</v>
+        <v>1.09976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.960988</v>
+        <v>1.00964</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.804986</v>
+        <v>0.80387</v>
       </c>
       <c r="C140" t="n">
-        <v>0.970642</v>
+        <v>1.08914</v>
       </c>
       <c r="D140" t="n">
-        <v>0.948337</v>
+        <v>1.00222</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796481</v>
+        <v>0.79567</v>
       </c>
       <c r="C141" t="n">
-        <v>0.958946</v>
+        <v>1.07901</v>
       </c>
       <c r="D141" t="n">
-        <v>0.936781</v>
+        <v>0.99552</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.789199</v>
+        <v>0.788402</v>
       </c>
       <c r="C142" t="n">
-        <v>0.947879</v>
+        <v>1.07039</v>
       </c>
       <c r="D142" t="n">
-        <v>0.926051</v>
+        <v>0.988805</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.782003</v>
+        <v>0.780602</v>
       </c>
       <c r="C143" t="n">
-        <v>0.937482</v>
+        <v>1.06138</v>
       </c>
       <c r="D143" t="n">
-        <v>0.916444</v>
+        <v>0.982406</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246007</v>
+        <v>0.245772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27526</v>
+        <v>0.270552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.261938</v>
+        <v>0.259045</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23896</v>
+        <v>0.239042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.267797</v>
+        <v>0.262809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255508</v>
+        <v>0.253044</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232822</v>
+        <v>0.232998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261338</v>
+        <v>0.256845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249855</v>
+        <v>0.247715</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227449</v>
+        <v>0.227043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.255961</v>
+        <v>0.251516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245413</v>
+        <v>0.243256</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223195</v>
+        <v>0.222802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.250907</v>
+        <v>0.246809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241017</v>
+        <v>0.23927</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220853</v>
+        <v>0.220555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.24413</v>
+        <v>0.243086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238388</v>
+        <v>0.237179</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218614</v>
+        <v>0.218449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244272</v>
+        <v>0.240935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238139</v>
+        <v>0.23685</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184</v>
+        <v>0.218226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244239</v>
+        <v>0.24076</v>
       </c>
       <c r="D9" t="n">
-        <v>0.33219</v>
+        <v>0.331223</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308394</v>
+        <v>0.309211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.339977</v>
+        <v>0.336224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.32268</v>
+        <v>0.321604</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298847</v>
+        <v>0.299591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32954</v>
+        <v>0.325932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.312915</v>
+        <v>0.312067</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.289511</v>
+        <v>0.290231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.320118</v>
+        <v>0.316076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30367</v>
+        <v>0.303088</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280971</v>
+        <v>0.281327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.30971</v>
+        <v>0.306897</v>
       </c>
       <c r="D13" t="n">
-        <v>0.294818</v>
+        <v>0.294562</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272671</v>
+        <v>0.273173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.300922</v>
+        <v>0.298546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.28672</v>
+        <v>0.286211</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264719</v>
+        <v>0.26514</v>
       </c>
       <c r="C15" t="n">
-        <v>0.292128</v>
+        <v>0.290222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279134</v>
+        <v>0.278721</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257216</v>
+        <v>0.257782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284516</v>
+        <v>0.282365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.271737</v>
+        <v>0.271784</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250554</v>
+        <v>0.250908</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277697</v>
+        <v>0.277049</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265098</v>
+        <v>0.265501</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244482</v>
+        <v>0.24481</v>
       </c>
       <c r="C18" t="n">
-        <v>0.270345</v>
+        <v>0.268996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25936</v>
+        <v>0.259829</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238713</v>
+        <v>0.239298</v>
       </c>
       <c r="C19" t="n">
-        <v>0.26491</v>
+        <v>0.263395</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25416</v>
+        <v>0.254728</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233305</v>
+        <v>0.233887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260241</v>
+        <v>0.258432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250459</v>
+        <v>0.250938</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229686</v>
+        <v>0.23016</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256298</v>
+        <v>0.254992</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247983</v>
+        <v>0.248659</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226999</v>
+        <v>0.227376</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253703</v>
+        <v>0.252847</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248053</v>
+        <v>0.249136</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225864</v>
+        <v>0.226313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25374</v>
+        <v>0.253013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.344004</v>
+        <v>0.345518</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314844</v>
+        <v>0.315485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.352127</v>
+        <v>0.353098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.333637</v>
+        <v>0.333481</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305396</v>
+        <v>0.305537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.341312</v>
+        <v>0.342936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323918</v>
+        <v>0.325746</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296088</v>
+        <v>0.29628</v>
       </c>
       <c r="C26" t="n">
-        <v>0.330828</v>
+        <v>0.331907</v>
       </c>
       <c r="D26" t="n">
-        <v>0.314465</v>
+        <v>0.315734</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287106</v>
+        <v>0.287233</v>
       </c>
       <c r="C27" t="n">
-        <v>0.32322</v>
+        <v>0.322832</v>
       </c>
       <c r="D27" t="n">
-        <v>0.30569</v>
+        <v>0.307721</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27862</v>
+        <v>0.279072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.313526</v>
+        <v>0.313558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297451</v>
+        <v>0.297597</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270471</v>
+        <v>0.271522</v>
       </c>
       <c r="C29" t="n">
-        <v>0.304427</v>
+        <v>0.306043</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2895</v>
+        <v>0.292077</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263363</v>
+        <v>0.263453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296125</v>
+        <v>0.296931</v>
       </c>
       <c r="D30" t="n">
-        <v>0.281878</v>
+        <v>0.284756</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256317</v>
+        <v>0.256955</v>
       </c>
       <c r="C31" t="n">
-        <v>0.288942</v>
+        <v>0.289472</v>
       </c>
       <c r="D31" t="n">
-        <v>0.275059</v>
+        <v>0.278075</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249945</v>
+        <v>0.250444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.282946</v>
+        <v>0.283828</v>
       </c>
       <c r="D32" t="n">
-        <v>0.268602</v>
+        <v>0.270228</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244379</v>
+        <v>0.244211</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276613</v>
+        <v>0.276267</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263161</v>
+        <v>0.266463</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23898</v>
+        <v>0.239101</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27084</v>
+        <v>0.270743</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258558</v>
+        <v>0.260264</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234801</v>
+        <v>0.235406</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265686</v>
+        <v>0.266239</v>
       </c>
       <c r="D35" t="n">
-        <v>0.255359</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231837</v>
+        <v>0.23214</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263098</v>
+        <v>0.263108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254294</v>
+        <v>0.257888</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230273</v>
+        <v>0.23099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261202</v>
+        <v>0.26233</v>
       </c>
       <c r="D37" t="n">
-        <v>0.352416</v>
+        <v>0.355981</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321375</v>
+        <v>0.31995</v>
       </c>
       <c r="C38" t="n">
-        <v>0.361104</v>
+        <v>0.362753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342358</v>
+        <v>0.346205</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312776</v>
+        <v>0.310206</v>
       </c>
       <c r="C39" t="n">
-        <v>0.351413</v>
+        <v>0.35195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.332579</v>
+        <v>0.334222</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302861</v>
+        <v>0.300973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.341381</v>
+        <v>0.341752</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323352</v>
+        <v>0.327233</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29456</v>
+        <v>0.292511</v>
       </c>
       <c r="C41" t="n">
-        <v>0.331743</v>
+        <v>0.332505</v>
       </c>
       <c r="D41" t="n">
-        <v>0.314532</v>
+        <v>0.317533</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28549</v>
+        <v>0.284486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322976</v>
+        <v>0.324221</v>
       </c>
       <c r="D42" t="n">
-        <v>0.306061</v>
+        <v>0.310116</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.277264</v>
+        <v>0.276897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.314749</v>
+        <v>0.31494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298285</v>
+        <v>0.301097</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269829</v>
+        <v>0.268486</v>
       </c>
       <c r="C44" t="n">
-        <v>0.306792</v>
+        <v>0.30768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.290832</v>
+        <v>0.292962</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.262684</v>
+        <v>0.262752</v>
       </c>
       <c r="C45" t="n">
-        <v>0.299508</v>
+        <v>0.299053</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284115</v>
+        <v>0.288545</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256854</v>
+        <v>0.255754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.292785</v>
+        <v>0.292253</v>
       </c>
       <c r="D46" t="n">
-        <v>0.278077</v>
+        <v>0.282648</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.25038</v>
+        <v>0.249315</v>
       </c>
       <c r="C47" t="n">
-        <v>0.286206</v>
+        <v>0.286183</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272675</v>
+        <v>0.275621</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.245055</v>
+        <v>0.244159</v>
       </c>
       <c r="C48" t="n">
-        <v>0.28113</v>
+        <v>0.280764</v>
       </c>
       <c r="D48" t="n">
-        <v>0.26797</v>
+        <v>0.270384</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240266</v>
+        <v>0.239814</v>
       </c>
       <c r="C49" t="n">
-        <v>0.276171</v>
+        <v>0.277032</v>
       </c>
       <c r="D49" t="n">
-        <v>0.264563</v>
+        <v>0.269634</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236994</v>
+        <v>0.236695</v>
       </c>
       <c r="C50" t="n">
-        <v>0.272459</v>
+        <v>0.273281</v>
       </c>
       <c r="D50" t="n">
-        <v>0.262865</v>
+        <v>0.268169</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235319</v>
+        <v>0.235081</v>
       </c>
       <c r="C51" t="n">
-        <v>0.271196</v>
+        <v>0.272147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.36491</v>
+        <v>0.368631</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23675</v>
+        <v>0.237607</v>
       </c>
       <c r="C52" t="n">
-        <v>0.27195</v>
+        <v>0.274772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.354829</v>
+        <v>0.359053</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.320318</v>
+        <v>0.317725</v>
       </c>
       <c r="C53" t="n">
-        <v>0.365309</v>
+        <v>0.365761</v>
       </c>
       <c r="D53" t="n">
-        <v>0.34514</v>
+        <v>0.349064</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311056</v>
+        <v>0.308886</v>
       </c>
       <c r="C54" t="n">
-        <v>0.35535</v>
+        <v>0.354938</v>
       </c>
       <c r="D54" t="n">
-        <v>0.336133</v>
+        <v>0.338112</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302628</v>
+        <v>0.300505</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346033</v>
+        <v>0.345778</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327339</v>
+        <v>0.327253</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294581</v>
+        <v>0.292276</v>
       </c>
       <c r="C56" t="n">
-        <v>0.337208</v>
+        <v>0.334864</v>
       </c>
       <c r="D56" t="n">
-        <v>0.318938</v>
+        <v>0.322141</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286759</v>
+        <v>0.284282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328812</v>
+        <v>0.326574</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311245</v>
+        <v>0.312029</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279566</v>
+        <v>0.278754</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320837</v>
+        <v>0.319986</v>
       </c>
       <c r="D58" t="n">
-        <v>0.303832</v>
+        <v>0.306673</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272923</v>
+        <v>0.271767</v>
       </c>
       <c r="C59" t="n">
-        <v>0.313512</v>
+        <v>0.312612</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297052</v>
+        <v>0.299615</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266645</v>
+        <v>0.265366</v>
       </c>
       <c r="C60" t="n">
-        <v>0.306692</v>
+        <v>0.305629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.290006</v>
+        <v>0.293661</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260741</v>
+        <v>0.259685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300401</v>
+        <v>0.299045</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284395</v>
+        <v>0.288137</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255455</v>
+        <v>0.253771</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294781</v>
+        <v>0.292803</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280079</v>
+        <v>0.282469</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250888</v>
+        <v>0.249211</v>
       </c>
       <c r="C63" t="n">
-        <v>0.289446</v>
+        <v>0.287631</v>
       </c>
       <c r="D63" t="n">
-        <v>0.275547</v>
+        <v>0.278897</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247476</v>
+        <v>0.245924</v>
       </c>
       <c r="C64" t="n">
-        <v>0.286144</v>
+        <v>0.284249</v>
       </c>
       <c r="D64" t="n">
-        <v>0.274025</v>
+        <v>0.276881</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24571</v>
+        <v>0.243901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.284119</v>
+        <v>0.281577</v>
       </c>
       <c r="D65" t="n">
-        <v>0.274753</v>
+        <v>0.277677</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245474</v>
+        <v>0.245273</v>
       </c>
       <c r="C66" t="n">
-        <v>0.284533</v>
+        <v>0.28303</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38823</v>
+        <v>0.391477</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387829</v>
+        <v>0.390326</v>
       </c>
       <c r="C67" t="n">
-        <v>0.402736</v>
+        <v>0.407517</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378327</v>
+        <v>0.381211</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.379102</v>
+        <v>0.380698</v>
       </c>
       <c r="C68" t="n">
-        <v>0.392813</v>
+        <v>0.396692</v>
       </c>
       <c r="D68" t="n">
-        <v>0.369115</v>
+        <v>0.371277</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370643</v>
+        <v>0.372752</v>
       </c>
       <c r="C69" t="n">
-        <v>0.383549</v>
+        <v>0.386945</v>
       </c>
       <c r="D69" t="n">
-        <v>0.360437</v>
+        <v>0.362134</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362785</v>
+        <v>0.364393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.374685</v>
+        <v>0.376978</v>
       </c>
       <c r="D70" t="n">
-        <v>0.351935</v>
+        <v>0.353524</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.355175</v>
+        <v>0.356717</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365934</v>
+        <v>0.367532</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343781</v>
+        <v>0.344826</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347582</v>
+        <v>0.348667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.357702</v>
+        <v>0.358248</v>
       </c>
       <c r="D72" t="n">
-        <v>0.336046</v>
+        <v>0.336498</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.340329</v>
+        <v>0.341384</v>
       </c>
       <c r="C73" t="n">
-        <v>0.349862</v>
+        <v>0.34962</v>
       </c>
       <c r="D73" t="n">
-        <v>0.329061</v>
+        <v>0.329253</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.333078</v>
+        <v>0.334327</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3424</v>
+        <v>0.34141</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322373</v>
+        <v>0.322078</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.326259</v>
+        <v>0.326815</v>
       </c>
       <c r="C75" t="n">
-        <v>0.335473</v>
+        <v>0.333812</v>
       </c>
       <c r="D75" t="n">
-        <v>0.316317</v>
+        <v>0.315952</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319865</v>
+        <v>0.320457</v>
       </c>
       <c r="C76" t="n">
-        <v>0.329139</v>
+        <v>0.327212</v>
       </c>
       <c r="D76" t="n">
-        <v>0.31112</v>
+        <v>0.310536</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314246</v>
+        <v>0.314263</v>
       </c>
       <c r="C77" t="n">
-        <v>0.323615</v>
+        <v>0.32128</v>
       </c>
       <c r="D77" t="n">
-        <v>0.30685</v>
+        <v>0.306038</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.309122</v>
+        <v>0.309267</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318981</v>
+        <v>0.316785</v>
       </c>
       <c r="D78" t="n">
-        <v>0.303945</v>
+        <v>0.30356</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305183</v>
+        <v>0.305247</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31583</v>
+        <v>0.313843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303274</v>
+        <v>0.303055</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302766</v>
+        <v>0.302663</v>
       </c>
       <c r="C80" t="n">
-        <v>0.315056</v>
+        <v>0.312879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.451294</v>
+        <v>0.466548</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.433554</v>
+        <v>0.437011</v>
       </c>
       <c r="C81" t="n">
-        <v>0.473675</v>
+        <v>0.484543</v>
       </c>
       <c r="D81" t="n">
-        <v>0.449066</v>
+        <v>0.462463</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.428768</v>
+        <v>0.432934</v>
       </c>
       <c r="C82" t="n">
-        <v>0.473226</v>
+        <v>0.480713</v>
       </c>
       <c r="D82" t="n">
-        <v>0.444192</v>
+        <v>0.456207</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.422317</v>
+        <v>0.426614</v>
       </c>
       <c r="C83" t="n">
-        <v>0.468945</v>
+        <v>0.474972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.438156</v>
+        <v>0.448893</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.415704</v>
+        <v>0.420094</v>
       </c>
       <c r="C84" t="n">
-        <v>0.463551</v>
+        <v>0.467845</v>
       </c>
       <c r="D84" t="n">
-        <v>0.431722</v>
+        <v>0.441967</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.409164</v>
+        <v>0.413572</v>
       </c>
       <c r="C85" t="n">
-        <v>0.457267</v>
+        <v>0.460552</v>
       </c>
       <c r="D85" t="n">
-        <v>0.424281</v>
+        <v>0.43421</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.402793</v>
+        <v>0.406961</v>
       </c>
       <c r="C86" t="n">
-        <v>0.450229</v>
+        <v>0.452756</v>
       </c>
       <c r="D86" t="n">
-        <v>0.416494</v>
+        <v>0.426613</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.396313</v>
+        <v>0.4007</v>
       </c>
       <c r="C87" t="n">
-        <v>0.443512</v>
+        <v>0.445017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.409145</v>
+        <v>0.419422</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.389891</v>
+        <v>0.394627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.436452</v>
+        <v>0.438041</v>
       </c>
       <c r="D88" t="n">
-        <v>0.401406</v>
+        <v>0.413108</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.383673</v>
+        <v>0.388422</v>
       </c>
       <c r="C89" t="n">
-        <v>0.429862</v>
+        <v>0.431459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.394575</v>
+        <v>0.406809</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.37777</v>
+        <v>0.382394</v>
       </c>
       <c r="C90" t="n">
-        <v>0.423743</v>
+        <v>0.425278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.388199</v>
+        <v>0.401908</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372248</v>
+        <v>0.376837</v>
       </c>
       <c r="C91" t="n">
-        <v>0.418038</v>
+        <v>0.420248</v>
       </c>
       <c r="D91" t="n">
-        <v>0.382594</v>
+        <v>0.397569</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.367216</v>
+        <v>0.372021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.412927</v>
+        <v>0.415664</v>
       </c>
       <c r="D92" t="n">
-        <v>0.378368</v>
+        <v>0.394417</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.363051</v>
+        <v>0.367717</v>
       </c>
       <c r="C93" t="n">
-        <v>0.40945</v>
+        <v>0.412508</v>
       </c>
       <c r="D93" t="n">
-        <v>0.376053</v>
+        <v>0.392714</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.36027</v>
+        <v>0.36494</v>
       </c>
       <c r="C94" t="n">
-        <v>0.407343</v>
+        <v>0.411366</v>
       </c>
       <c r="D94" t="n">
-        <v>0.655887</v>
+        <v>0.669771</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54699</v>
+        <v>0.552391</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645585</v>
+        <v>0.650572</v>
       </c>
       <c r="D95" t="n">
-        <v>0.651214</v>
+        <v>0.655213</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.54228</v>
+        <v>0.548736</v>
       </c>
       <c r="C96" t="n">
-        <v>0.645914</v>
+        <v>0.6451750000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.642463</v>
+        <v>0.653352</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532519</v>
+        <v>0.539166</v>
       </c>
       <c r="C97" t="n">
-        <v>0.638405</v>
+        <v>0.6399319999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.633404</v>
+        <v>0.644396</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.522274</v>
+        <v>0.530541</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630508</v>
+        <v>0.628891</v>
       </c>
       <c r="D98" t="n">
-        <v>0.623285</v>
+        <v>0.634998</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.513583</v>
+        <v>0.520392</v>
       </c>
       <c r="C99" t="n">
-        <v>0.622265</v>
+        <v>0.622631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.613115</v>
+        <v>0.628315</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503487</v>
+        <v>0.5116039999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615089</v>
+        <v>0.613029</v>
       </c>
       <c r="D100" t="n">
-        <v>0.603579</v>
+        <v>0.620763</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.495518</v>
+        <v>0.502796</v>
       </c>
       <c r="C101" t="n">
-        <v>0.608165</v>
+        <v>0.6103499999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5947210000000001</v>
+        <v>0.616368</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.487285</v>
+        <v>0.495487</v>
       </c>
       <c r="C102" t="n">
-        <v>0.600877</v>
+        <v>0.603598</v>
       </c>
       <c r="D102" t="n">
-        <v>0.585408</v>
+        <v>0.607961</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.480183</v>
+        <v>0.487953</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5935859999999999</v>
+        <v>0.598866</v>
       </c>
       <c r="D103" t="n">
-        <v>0.577209</v>
+        <v>0.597951</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472787</v>
+        <v>0.480454</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58865</v>
+        <v>0.5892230000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.569791</v>
+        <v>0.588684</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465834</v>
+        <v>0.474463</v>
       </c>
       <c r="C105" t="n">
-        <v>0.582719</v>
+        <v>0.587772</v>
       </c>
       <c r="D105" t="n">
-        <v>0.563175</v>
+        <v>0.5933310000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459785</v>
+        <v>0.469082</v>
       </c>
       <c r="C106" t="n">
-        <v>0.578176</v>
+        <v>0.586576</v>
       </c>
       <c r="D106" t="n">
-        <v>0.557535</v>
+        <v>0.588773</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.455233</v>
+        <v>0.463445</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574946</v>
+        <v>0.585266</v>
       </c>
       <c r="D107" t="n">
-        <v>0.553025</v>
+        <v>0.581882</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.451402</v>
+        <v>0.459815</v>
       </c>
       <c r="C108" t="n">
-        <v>0.572186</v>
+        <v>0.583749</v>
       </c>
       <c r="D108" t="n">
-        <v>0.76394</v>
+        <v>0.801393</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449714</v>
+        <v>0.458271</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572103</v>
+        <v>0.580501</v>
       </c>
       <c r="D109" t="n">
-        <v>0.758898</v>
+        <v>0.792757</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.649349</v>
+        <v>0.653464</v>
       </c>
       <c r="C110" t="n">
-        <v>0.814588</v>
+        <v>0.821825</v>
       </c>
       <c r="D110" t="n">
-        <v>0.748696</v>
+        <v>0.785594</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.636648</v>
+        <v>0.6427850000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.804768</v>
+        <v>0.809916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.739093</v>
+        <v>0.772257</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.62541</v>
+        <v>0.630271</v>
       </c>
       <c r="C112" t="n">
-        <v>0.794426</v>
+        <v>0.7983789999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7295469999999999</v>
+        <v>0.763535</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.613187</v>
+        <v>0.619282</v>
       </c>
       <c r="C113" t="n">
-        <v>0.782847</v>
+        <v>0.785996</v>
       </c>
       <c r="D113" t="n">
-        <v>0.720665</v>
+        <v>0.754673</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601872</v>
+        <v>0.607602</v>
       </c>
       <c r="C114" t="n">
-        <v>0.773585</v>
+        <v>0.777892</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713031</v>
+        <v>0.748234</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591258</v>
+        <v>0.596916</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76488</v>
+        <v>0.767786</v>
       </c>
       <c r="D115" t="n">
-        <v>0.705677</v>
+        <v>0.737385</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.580952</v>
+        <v>0.587202</v>
       </c>
       <c r="C116" t="n">
-        <v>0.755752</v>
+        <v>0.764336</v>
       </c>
       <c r="D116" t="n">
-        <v>0.696506</v>
+        <v>0.738104</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.57192</v>
+        <v>0.578168</v>
       </c>
       <c r="C117" t="n">
-        <v>0.746949</v>
+        <v>0.755147</v>
       </c>
       <c r="D117" t="n">
-        <v>0.68947</v>
+        <v>0.727542</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.56316</v>
+        <v>0.571174</v>
       </c>
       <c r="C118" t="n">
-        <v>0.740742</v>
+        <v>0.747255</v>
       </c>
       <c r="D118" t="n">
-        <v>0.683559</v>
+        <v>0.722445</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554806</v>
+        <v>0.561799</v>
       </c>
       <c r="C119" t="n">
-        <v>0.734595</v>
+        <v>0.746494</v>
       </c>
       <c r="D119" t="n">
-        <v>0.677077</v>
+        <v>0.722685</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.547637</v>
+        <v>0.555822</v>
       </c>
       <c r="C120" t="n">
-        <v>0.728999</v>
+        <v>0.7437510000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.670575</v>
+        <v>0.720069</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541138</v>
+        <v>0.549607</v>
       </c>
       <c r="C121" t="n">
-        <v>0.724395</v>
+        <v>0.729949</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666461</v>
+        <v>0.711848</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.53576</v>
+        <v>0.544893</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7201070000000001</v>
+        <v>0.731622</v>
       </c>
       <c r="D122" t="n">
-        <v>0.663596</v>
+        <v>0.712523</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.532188</v>
+        <v>0.54189</v>
       </c>
       <c r="C123" t="n">
-        <v>0.717194</v>
+        <v>0.731321</v>
       </c>
       <c r="D123" t="n">
-        <v>0.88027</v>
+        <v>0.92136</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.726645</v>
+        <v>0.733849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.956071</v>
+        <v>0.966797</v>
       </c>
       <c r="D124" t="n">
-        <v>0.871541</v>
+        <v>0.908165</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.716441</v>
+        <v>0.722737</v>
       </c>
       <c r="C125" t="n">
-        <v>0.944501</v>
+        <v>0.957629</v>
       </c>
       <c r="D125" t="n">
-        <v>0.862359</v>
+        <v>0.894198</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.705968</v>
+        <v>0.713775</v>
       </c>
       <c r="C126" t="n">
-        <v>0.934466</v>
+        <v>0.944513</v>
       </c>
       <c r="D126" t="n">
-        <v>0.856011</v>
+        <v>0.881906</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.696322</v>
+        <v>0.703512</v>
       </c>
       <c r="C127" t="n">
-        <v>0.924081</v>
+        <v>0.929054</v>
       </c>
       <c r="D127" t="n">
-        <v>0.848692</v>
+        <v>0.8739479999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687178</v>
+        <v>0.694891</v>
       </c>
       <c r="C128" t="n">
-        <v>0.916396</v>
+        <v>0.913876</v>
       </c>
       <c r="D128" t="n">
-        <v>0.844763</v>
+        <v>0.866076</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678656</v>
+        <v>0.6866640000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9081129999999999</v>
+        <v>0.907952</v>
       </c>
       <c r="D129" t="n">
-        <v>0.837313</v>
+        <v>0.856562</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.670392</v>
+        <v>0.679572</v>
       </c>
       <c r="C130" t="n">
-        <v>0.901387</v>
+        <v>0.899898</v>
       </c>
       <c r="D130" t="n">
-        <v>0.83257</v>
+        <v>0.85075</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.662767</v>
+        <v>0.67086</v>
       </c>
       <c r="C131" t="n">
-        <v>0.893573</v>
+        <v>0.893849</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8272040000000001</v>
+        <v>0.844402</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.656196</v>
+        <v>0.667009</v>
       </c>
       <c r="C132" t="n">
-        <v>0.887561</v>
+        <v>0.883791</v>
       </c>
       <c r="D132" t="n">
-        <v>0.824642</v>
+        <v>0.8386209999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649276</v>
+        <v>0.661585</v>
       </c>
       <c r="C133" t="n">
-        <v>0.882274</v>
+        <v>0.880661</v>
       </c>
       <c r="D133" t="n">
-        <v>0.819648</v>
+        <v>0.836073</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.64345</v>
+        <v>0.655277</v>
       </c>
       <c r="C134" t="n">
-        <v>0.877539</v>
+        <v>0.87483</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815886</v>
+        <v>0.831484</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.63825</v>
+        <v>0.650938</v>
       </c>
       <c r="C135" t="n">
-        <v>0.873202</v>
+        <v>0.871489</v>
       </c>
       <c r="D135" t="n">
-        <v>0.812574</v>
+        <v>0.829823</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.633934</v>
+        <v>0.641786</v>
       </c>
       <c r="C136" t="n">
-        <v>0.869646</v>
+        <v>0.870021</v>
       </c>
       <c r="D136" t="n">
-        <v>0.809501</v>
+        <v>0.828102</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.629966</v>
+        <v>0.64157</v>
       </c>
       <c r="C137" t="n">
-        <v>0.866476</v>
+        <v>0.869652</v>
       </c>
       <c r="D137" t="n">
-        <v>1.025</v>
+        <v>1.0381</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.822663</v>
+        <v>0.829665</v>
       </c>
       <c r="C138" t="n">
-        <v>1.11022</v>
+        <v>1.11109</v>
       </c>
       <c r="D138" t="n">
-        <v>1.01781</v>
+        <v>1.02281</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.813507</v>
+        <v>0.815289</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09976</v>
+        <v>1.09701</v>
       </c>
       <c r="D139" t="n">
-        <v>1.00964</v>
+        <v>1.00833</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.80387</v>
+        <v>0.808104</v>
       </c>
       <c r="C140" t="n">
-        <v>1.08914</v>
+        <v>1.08027</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00222</v>
+        <v>0.994656</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.79567</v>
+        <v>0.804115</v>
       </c>
       <c r="C141" t="n">
-        <v>1.07901</v>
+        <v>1.06104</v>
       </c>
       <c r="D141" t="n">
-        <v>0.99552</v>
+        <v>0.981831</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788402</v>
+        <v>0.793777</v>
       </c>
       <c r="C142" t="n">
-        <v>1.07039</v>
+        <v>1.04993</v>
       </c>
       <c r="D142" t="n">
-        <v>0.988805</v>
+        <v>0.970018</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.780602</v>
+        <v>0.787257</v>
       </c>
       <c r="C143" t="n">
-        <v>1.06138</v>
+        <v>1.03566</v>
       </c>
       <c r="D143" t="n">
-        <v>0.982406</v>
+        <v>0.957582</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245772</v>
+        <v>0.246778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.270552</v>
+        <v>0.271035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.259045</v>
+        <v>0.25618</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239042</v>
+        <v>0.240252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262809</v>
+        <v>0.264086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253044</v>
+        <v>0.250235</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232998</v>
+        <v>0.234229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.256845</v>
+        <v>0.257517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247715</v>
+        <v>0.245232</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227043</v>
+        <v>0.228832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.251516</v>
+        <v>0.252588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.243256</v>
+        <v>0.241411</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222802</v>
+        <v>0.224287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246809</v>
+        <v>0.247776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23927</v>
+        <v>0.237595</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220555</v>
+        <v>0.220753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.243086</v>
+        <v>0.244562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237179</v>
+        <v>0.235685</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218449</v>
+        <v>0.21899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.240935</v>
+        <v>0.241995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23685</v>
+        <v>0.235929</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218226</v>
+        <v>0.21806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24076</v>
+        <v>0.241968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.331223</v>
+        <v>0.332347</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309211</v>
+        <v>0.306327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.336224</v>
+        <v>0.338795</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321604</v>
+        <v>0.323173</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299591</v>
+        <v>0.296807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.325932</v>
+        <v>0.328808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.312067</v>
+        <v>0.312859</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290231</v>
+        <v>0.287584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.316076</v>
+        <v>0.318981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.303088</v>
+        <v>0.304097</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.281327</v>
+        <v>0.278749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.306897</v>
+        <v>0.30953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.294562</v>
+        <v>0.295063</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273173</v>
+        <v>0.270401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.298546</v>
+        <v>0.300875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286211</v>
+        <v>0.287362</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26514</v>
+        <v>0.262465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.290222</v>
+        <v>0.292355</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278721</v>
+        <v>0.279009</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257782</v>
+        <v>0.255424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282365</v>
+        <v>0.283962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.271784</v>
+        <v>0.271732</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.250908</v>
+        <v>0.248453</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277049</v>
+        <v>0.277138</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265501</v>
+        <v>0.265975</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24481</v>
+        <v>0.242626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.268996</v>
+        <v>0.269497</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259829</v>
+        <v>0.259869</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239298</v>
+        <v>0.236993</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263395</v>
+        <v>0.265208</v>
       </c>
       <c r="D19" t="n">
-        <v>0.254728</v>
+        <v>0.255089</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233887</v>
+        <v>0.231928</v>
       </c>
       <c r="C20" t="n">
-        <v>0.258432</v>
+        <v>0.259208</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250938</v>
+        <v>0.25127</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23016</v>
+        <v>0.22776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.254992</v>
+        <v>0.255529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248659</v>
+        <v>0.249228</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227376</v>
+        <v>0.225303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252847</v>
+        <v>0.253082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249136</v>
+        <v>0.249385</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226313</v>
+        <v>0.224379</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253013</v>
+        <v>0.253441</v>
       </c>
       <c r="D23" t="n">
-        <v>0.345518</v>
+        <v>0.344626</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.315485</v>
+        <v>0.311723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.353098</v>
+        <v>0.352675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.333481</v>
+        <v>0.334237</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305537</v>
+        <v>0.302213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.342936</v>
+        <v>0.341101</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325746</v>
+        <v>0.324788</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29628</v>
+        <v>0.293037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.331907</v>
+        <v>0.330527</v>
       </c>
       <c r="D26" t="n">
-        <v>0.315734</v>
+        <v>0.315435</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287233</v>
+        <v>0.28429</v>
       </c>
       <c r="C27" t="n">
-        <v>0.322832</v>
+        <v>0.320777</v>
       </c>
       <c r="D27" t="n">
-        <v>0.307721</v>
+        <v>0.306859</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279072</v>
+        <v>0.276171</v>
       </c>
       <c r="C28" t="n">
-        <v>0.313558</v>
+        <v>0.313624</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297597</v>
+        <v>0.298687</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271522</v>
+        <v>0.267785</v>
       </c>
       <c r="C29" t="n">
-        <v>0.306043</v>
+        <v>0.305237</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292077</v>
+        <v>0.291116</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263453</v>
+        <v>0.260242</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296931</v>
+        <v>0.296969</v>
       </c>
       <c r="D30" t="n">
-        <v>0.284756</v>
+        <v>0.283774</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256955</v>
+        <v>0.253912</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289472</v>
+        <v>0.289181</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278075</v>
+        <v>0.277155</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250444</v>
+        <v>0.247296</v>
       </c>
       <c r="C32" t="n">
-        <v>0.283828</v>
+        <v>0.282554</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270228</v>
+        <v>0.271022</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.244211</v>
+        <v>0.241467</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276267</v>
+        <v>0.277821</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266463</v>
+        <v>0.265545</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239101</v>
+        <v>0.236532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270743</v>
+        <v>0.272086</v>
       </c>
       <c r="D34" t="n">
-        <v>0.260264</v>
+        <v>0.261327</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235406</v>
+        <v>0.232305</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266239</v>
+        <v>0.266103</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25902</v>
+        <v>0.258084</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23214</v>
+        <v>0.229205</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263108</v>
+        <v>0.263917</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257888</v>
+        <v>0.257243</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23099</v>
+        <v>0.227558</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26233</v>
+        <v>0.263428</v>
       </c>
       <c r="D37" t="n">
-        <v>0.355981</v>
+        <v>0.355919</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31995</v>
+        <v>0.315585</v>
       </c>
       <c r="C38" t="n">
-        <v>0.362753</v>
+        <v>0.363937</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346205</v>
+        <v>0.34524</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.310206</v>
+        <v>0.305496</v>
       </c>
       <c r="C39" t="n">
-        <v>0.35195</v>
+        <v>0.353729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.334222</v>
+        <v>0.335598</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300973</v>
+        <v>0.296728</v>
       </c>
       <c r="C40" t="n">
-        <v>0.341752</v>
+        <v>0.343204</v>
       </c>
       <c r="D40" t="n">
-        <v>0.327233</v>
+        <v>0.326392</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292511</v>
+        <v>0.288076</v>
       </c>
       <c r="C41" t="n">
-        <v>0.332505</v>
+        <v>0.334459</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317533</v>
+        <v>0.317785</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284486</v>
+        <v>0.27983</v>
       </c>
       <c r="C42" t="n">
-        <v>0.324221</v>
+        <v>0.325074</v>
       </c>
       <c r="D42" t="n">
-        <v>0.310116</v>
+        <v>0.309496</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276897</v>
+        <v>0.272665</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31494</v>
+        <v>0.316818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301097</v>
+        <v>0.301944</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.268486</v>
+        <v>0.264664</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30768</v>
+        <v>0.30842</v>
       </c>
       <c r="D44" t="n">
-        <v>0.292962</v>
+        <v>0.294586</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.262752</v>
+        <v>0.257938</v>
       </c>
       <c r="C45" t="n">
-        <v>0.299053</v>
+        <v>0.301195</v>
       </c>
       <c r="D45" t="n">
-        <v>0.288545</v>
+        <v>0.287976</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255754</v>
+        <v>0.251507</v>
       </c>
       <c r="C46" t="n">
-        <v>0.292253</v>
+        <v>0.294509</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282648</v>
+        <v>0.281983</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249315</v>
+        <v>0.246506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.286183</v>
+        <v>0.287735</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275621</v>
+        <v>0.276727</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244159</v>
+        <v>0.240691</v>
       </c>
       <c r="C48" t="n">
-        <v>0.280764</v>
+        <v>0.282942</v>
       </c>
       <c r="D48" t="n">
-        <v>0.270384</v>
+        <v>0.272305</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.239814</v>
+        <v>0.237067</v>
       </c>
       <c r="C49" t="n">
-        <v>0.277032</v>
+        <v>0.278486</v>
       </c>
       <c r="D49" t="n">
-        <v>0.269634</v>
+        <v>0.269144</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236695</v>
+        <v>0.232906</v>
       </c>
       <c r="C50" t="n">
-        <v>0.273281</v>
+        <v>0.274947</v>
       </c>
       <c r="D50" t="n">
-        <v>0.268169</v>
+        <v>0.267539</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235081</v>
+        <v>0.231163</v>
       </c>
       <c r="C51" t="n">
-        <v>0.272147</v>
+        <v>0.273201</v>
       </c>
       <c r="D51" t="n">
-        <v>0.368631</v>
+        <v>0.369097</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.237607</v>
+        <v>0.232807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.274772</v>
+        <v>0.274149</v>
       </c>
       <c r="D52" t="n">
-        <v>0.359053</v>
+        <v>0.358536</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317725</v>
+        <v>0.320043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.365761</v>
+        <v>0.367734</v>
       </c>
       <c r="D53" t="n">
-        <v>0.349064</v>
+        <v>0.348799</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308886</v>
+        <v>0.311008</v>
       </c>
       <c r="C54" t="n">
-        <v>0.354938</v>
+        <v>0.357376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.338112</v>
+        <v>0.339316</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300505</v>
+        <v>0.302338</v>
       </c>
       <c r="C55" t="n">
-        <v>0.345778</v>
+        <v>0.347673</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327253</v>
+        <v>0.330473</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292276</v>
+        <v>0.294269</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334864</v>
+        <v>0.338356</v>
       </c>
       <c r="D56" t="n">
-        <v>0.322141</v>
+        <v>0.322362</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284282</v>
+        <v>0.286627</v>
       </c>
       <c r="C57" t="n">
-        <v>0.326574</v>
+        <v>0.329962</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312029</v>
+        <v>0.31461</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278754</v>
+        <v>0.279323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.319986</v>
+        <v>0.321643</v>
       </c>
       <c r="D58" t="n">
-        <v>0.306673</v>
+        <v>0.307004</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271767</v>
+        <v>0.272493</v>
       </c>
       <c r="C59" t="n">
-        <v>0.312612</v>
+        <v>0.313893</v>
       </c>
       <c r="D59" t="n">
-        <v>0.299615</v>
+        <v>0.300135</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265366</v>
+        <v>0.266199</v>
       </c>
       <c r="C60" t="n">
-        <v>0.305629</v>
+        <v>0.307121</v>
       </c>
       <c r="D60" t="n">
-        <v>0.293661</v>
+        <v>0.294075</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259685</v>
+        <v>0.260346</v>
       </c>
       <c r="C61" t="n">
-        <v>0.299045</v>
+        <v>0.300573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.288137</v>
+        <v>0.288673</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253771</v>
+        <v>0.255194</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292803</v>
+        <v>0.294267</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282469</v>
+        <v>0.28423</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249211</v>
+        <v>0.25061</v>
       </c>
       <c r="C63" t="n">
-        <v>0.287631</v>
+        <v>0.289767</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278897</v>
+        <v>0.28059</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245924</v>
+        <v>0.247291</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284249</v>
+        <v>0.286615</v>
       </c>
       <c r="D64" t="n">
-        <v>0.276881</v>
+        <v>0.278978</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243901</v>
+        <v>0.245027</v>
       </c>
       <c r="C65" t="n">
-        <v>0.281577</v>
+        <v>0.284408</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277677</v>
+        <v>0.279604</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245273</v>
+        <v>0.244928</v>
       </c>
       <c r="C66" t="n">
-        <v>0.28303</v>
+        <v>0.28518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.391477</v>
+        <v>0.394387</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.390326</v>
+        <v>0.378235</v>
       </c>
       <c r="C67" t="n">
-        <v>0.407517</v>
+        <v>0.405147</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381211</v>
+        <v>0.384183</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380698</v>
+        <v>0.370693</v>
       </c>
       <c r="C68" t="n">
-        <v>0.396692</v>
+        <v>0.395063</v>
       </c>
       <c r="D68" t="n">
-        <v>0.371277</v>
+        <v>0.37462</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372752</v>
+        <v>0.363952</v>
       </c>
       <c r="C69" t="n">
-        <v>0.386945</v>
+        <v>0.385307</v>
       </c>
       <c r="D69" t="n">
-        <v>0.362134</v>
+        <v>0.365322</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364393</v>
+        <v>0.35759</v>
       </c>
       <c r="C70" t="n">
-        <v>0.376978</v>
+        <v>0.375469</v>
       </c>
       <c r="D70" t="n">
-        <v>0.353524</v>
+        <v>0.356329</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356717</v>
+        <v>0.350974</v>
       </c>
       <c r="C71" t="n">
-        <v>0.367532</v>
+        <v>0.366118</v>
       </c>
       <c r="D71" t="n">
-        <v>0.344826</v>
+        <v>0.347664</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.348667</v>
+        <v>0.34485</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358248</v>
+        <v>0.357084</v>
       </c>
       <c r="D72" t="n">
-        <v>0.336498</v>
+        <v>0.33937</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341384</v>
+        <v>0.338117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.34962</v>
+        <v>0.34857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.329253</v>
+        <v>0.331555</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.334327</v>
+        <v>0.331695</v>
       </c>
       <c r="C74" t="n">
-        <v>0.34141</v>
+        <v>0.340426</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322078</v>
+        <v>0.324345</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.326815</v>
+        <v>0.325374</v>
       </c>
       <c r="C75" t="n">
-        <v>0.333812</v>
+        <v>0.332939</v>
       </c>
       <c r="D75" t="n">
-        <v>0.315952</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320457</v>
+        <v>0.319264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.327212</v>
+        <v>0.326264</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310536</v>
+        <v>0.312134</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314263</v>
+        <v>0.313586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.32128</v>
+        <v>0.320408</v>
       </c>
       <c r="D77" t="n">
-        <v>0.306038</v>
+        <v>0.307826</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.309267</v>
+        <v>0.308405</v>
       </c>
       <c r="C78" t="n">
-        <v>0.316785</v>
+        <v>0.315629</v>
       </c>
       <c r="D78" t="n">
-        <v>0.30356</v>
+        <v>0.304822</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305247</v>
+        <v>0.304385</v>
       </c>
       <c r="C79" t="n">
-        <v>0.313843</v>
+        <v>0.312724</v>
       </c>
       <c r="D79" t="n">
-        <v>0.303055</v>
+        <v>0.304449</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302663</v>
+        <v>0.302039</v>
       </c>
       <c r="C80" t="n">
-        <v>0.312879</v>
+        <v>0.311895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.466548</v>
+        <v>0.451295</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.437011</v>
+        <v>0.530718</v>
       </c>
       <c r="C81" t="n">
-        <v>0.484543</v>
+        <v>0.470664</v>
       </c>
       <c r="D81" t="n">
-        <v>0.462463</v>
+        <v>0.446258</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.432934</v>
+        <v>0.523251</v>
       </c>
       <c r="C82" t="n">
-        <v>0.480713</v>
+        <v>0.468517</v>
       </c>
       <c r="D82" t="n">
-        <v>0.456207</v>
+        <v>0.443166</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.426614</v>
+        <v>0.511486</v>
       </c>
       <c r="C83" t="n">
-        <v>0.474972</v>
+        <v>0.462801</v>
       </c>
       <c r="D83" t="n">
-        <v>0.448893</v>
+        <v>0.435252</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.420094</v>
+        <v>0.501178</v>
       </c>
       <c r="C84" t="n">
-        <v>0.467845</v>
+        <v>0.454414</v>
       </c>
       <c r="D84" t="n">
-        <v>0.441967</v>
+        <v>0.430751</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413572</v>
+        <v>0.490017</v>
       </c>
       <c r="C85" t="n">
-        <v>0.460552</v>
+        <v>0.447619</v>
       </c>
       <c r="D85" t="n">
-        <v>0.43421</v>
+        <v>0.42108</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.406961</v>
+        <v>0.479615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.452756</v>
+        <v>0.439747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.426613</v>
+        <v>0.413458</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4007</v>
+        <v>0.469914</v>
       </c>
       <c r="C87" t="n">
-        <v>0.445017</v>
+        <v>0.432897</v>
       </c>
       <c r="D87" t="n">
-        <v>0.419422</v>
+        <v>0.408825</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.394627</v>
+        <v>0.460301</v>
       </c>
       <c r="C88" t="n">
-        <v>0.438041</v>
+        <v>0.426574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.413108</v>
+        <v>0.401984</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.388422</v>
+        <v>0.451183</v>
       </c>
       <c r="C89" t="n">
-        <v>0.431459</v>
+        <v>0.419636</v>
       </c>
       <c r="D89" t="n">
-        <v>0.406809</v>
+        <v>0.398505</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.382394</v>
+        <v>0.442233</v>
       </c>
       <c r="C90" t="n">
-        <v>0.425278</v>
+        <v>0.416696</v>
       </c>
       <c r="D90" t="n">
-        <v>0.401908</v>
+        <v>0.394481</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376837</v>
+        <v>0.433837</v>
       </c>
       <c r="C91" t="n">
-        <v>0.420248</v>
+        <v>0.409958</v>
       </c>
       <c r="D91" t="n">
-        <v>0.397569</v>
+        <v>0.387437</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372021</v>
+        <v>0.425753</v>
       </c>
       <c r="C92" t="n">
-        <v>0.415664</v>
+        <v>0.405026</v>
       </c>
       <c r="D92" t="n">
-        <v>0.394417</v>
+        <v>0.386296</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.367717</v>
+        <v>0.418901</v>
       </c>
       <c r="C93" t="n">
-        <v>0.412508</v>
+        <v>0.401635</v>
       </c>
       <c r="D93" t="n">
-        <v>0.392714</v>
+        <v>0.383736</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.36494</v>
+        <v>0.413431</v>
       </c>
       <c r="C94" t="n">
-        <v>0.411366</v>
+        <v>0.399443</v>
       </c>
       <c r="D94" t="n">
-        <v>0.669771</v>
+        <v>0.660895</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.552391</v>
+        <v>0.546704</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650572</v>
+        <v>0.6374880000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.655213</v>
+        <v>0.6542519999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.548736</v>
+        <v>0.542585</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6451750000000001</v>
+        <v>0.632779</v>
       </c>
       <c r="D96" t="n">
-        <v>0.653352</v>
+        <v>0.6443</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.539166</v>
+        <v>0.53278</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6399319999999999</v>
+        <v>0.624096</v>
       </c>
       <c r="D97" t="n">
-        <v>0.644396</v>
+        <v>0.634737</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.530541</v>
+        <v>0.521656</v>
       </c>
       <c r="C98" t="n">
-        <v>0.628891</v>
+        <v>0.614775</v>
       </c>
       <c r="D98" t="n">
-        <v>0.634998</v>
+        <v>0.626822</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.520392</v>
+        <v>0.512446</v>
       </c>
       <c r="C99" t="n">
-        <v>0.622631</v>
+        <v>0.607787</v>
       </c>
       <c r="D99" t="n">
-        <v>0.628315</v>
+        <v>0.619371</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5116039999999999</v>
+        <v>0.5030210000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.613029</v>
+        <v>0.601707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.620763</v>
+        <v>0.61102</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502796</v>
+        <v>0.494237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6103499999999999</v>
+        <v>0.593367</v>
       </c>
       <c r="D101" t="n">
-        <v>0.616368</v>
+        <v>0.603636</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.495487</v>
+        <v>0.486067</v>
       </c>
       <c r="C102" t="n">
-        <v>0.603598</v>
+        <v>0.588372</v>
       </c>
       <c r="D102" t="n">
-        <v>0.607961</v>
+        <v>0.5976</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.487953</v>
+        <v>0.479069</v>
       </c>
       <c r="C103" t="n">
-        <v>0.598866</v>
+        <v>0.583618</v>
       </c>
       <c r="D103" t="n">
-        <v>0.597951</v>
+        <v>0.591592</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.480454</v>
+        <v>0.472278</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5892230000000001</v>
+        <v>0.578141</v>
       </c>
       <c r="D104" t="n">
-        <v>0.588684</v>
+        <v>0.585769</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.474463</v>
+        <v>0.465856</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587772</v>
+        <v>0.57491</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5933310000000001</v>
+        <v>0.580619</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469082</v>
+        <v>0.459819</v>
       </c>
       <c r="C106" t="n">
-        <v>0.586576</v>
+        <v>0.570475</v>
       </c>
       <c r="D106" t="n">
-        <v>0.588773</v>
+        <v>0.5763740000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.463445</v>
+        <v>0.454565</v>
       </c>
       <c r="C107" t="n">
-        <v>0.585266</v>
+        <v>0.568264</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581882</v>
+        <v>0.572972</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.459815</v>
+        <v>0.450816</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583749</v>
+        <v>0.566951</v>
       </c>
       <c r="D108" t="n">
-        <v>0.801393</v>
+        <v>0.78112</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.458271</v>
+        <v>0.449681</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580501</v>
+        <v>0.567892</v>
       </c>
       <c r="D109" t="n">
-        <v>0.792757</v>
+        <v>0.77247</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.653464</v>
+        <v>0.647792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.821825</v>
+        <v>0.803323</v>
       </c>
       <c r="D110" t="n">
-        <v>0.785594</v>
+        <v>0.761886</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6427850000000001</v>
+        <v>0.6372640000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.809916</v>
+        <v>0.791707</v>
       </c>
       <c r="D111" t="n">
-        <v>0.772257</v>
+        <v>0.753686</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.630271</v>
+        <v>0.625074</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7983789999999999</v>
+        <v>0.781832</v>
       </c>
       <c r="D112" t="n">
-        <v>0.763535</v>
+        <v>0.7446660000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.619282</v>
+        <v>0.613623</v>
       </c>
       <c r="C113" t="n">
-        <v>0.785996</v>
+        <v>0.77246</v>
       </c>
       <c r="D113" t="n">
-        <v>0.754673</v>
+        <v>0.736279</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.607602</v>
+        <v>0.60324</v>
       </c>
       <c r="C114" t="n">
-        <v>0.777892</v>
+        <v>0.763391</v>
       </c>
       <c r="D114" t="n">
-        <v>0.748234</v>
+        <v>0.729459</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.596916</v>
+        <v>0.592405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.767786</v>
+        <v>0.7545269999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.737385</v>
+        <v>0.721853</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587202</v>
+        <v>0.582651</v>
       </c>
       <c r="C116" t="n">
-        <v>0.764336</v>
+        <v>0.745774</v>
       </c>
       <c r="D116" t="n">
-        <v>0.738104</v>
+        <v>0.714839</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.578168</v>
+        <v>0.573292</v>
       </c>
       <c r="C117" t="n">
-        <v>0.755147</v>
+        <v>0.738446</v>
       </c>
       <c r="D117" t="n">
-        <v>0.727542</v>
+        <v>0.707935</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.571174</v>
+        <v>0.565757</v>
       </c>
       <c r="C118" t="n">
-        <v>0.747255</v>
+        <v>0.732343</v>
       </c>
       <c r="D118" t="n">
-        <v>0.722445</v>
+        <v>0.703535</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.561799</v>
+        <v>0.557788</v>
       </c>
       <c r="C119" t="n">
-        <v>0.746494</v>
+        <v>0.726333</v>
       </c>
       <c r="D119" t="n">
-        <v>0.722685</v>
+        <v>0.698569</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.555822</v>
+        <v>0.550017</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7437510000000001</v>
+        <v>0.722171</v>
       </c>
       <c r="D120" t="n">
-        <v>0.720069</v>
+        <v>0.693724</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.549607</v>
+        <v>0.543516</v>
       </c>
       <c r="C121" t="n">
-        <v>0.729949</v>
+        <v>0.7184</v>
       </c>
       <c r="D121" t="n">
-        <v>0.711848</v>
+        <v>0.6916679999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.544893</v>
+        <v>0.538568</v>
       </c>
       <c r="C122" t="n">
-        <v>0.731622</v>
+        <v>0.717669</v>
       </c>
       <c r="D122" t="n">
-        <v>0.712523</v>
+        <v>0.689122</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.54189</v>
+        <v>0.53501</v>
       </c>
       <c r="C123" t="n">
-        <v>0.731321</v>
+        <v>0.718664</v>
       </c>
       <c r="D123" t="n">
-        <v>0.92136</v>
+        <v>0.89744</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.733849</v>
+        <v>0.728063</v>
       </c>
       <c r="C124" t="n">
-        <v>0.966797</v>
+        <v>0.955924</v>
       </c>
       <c r="D124" t="n">
-        <v>0.908165</v>
+        <v>0.885472</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.722737</v>
+        <v>0.718503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.957629</v>
+        <v>0.94243</v>
       </c>
       <c r="D125" t="n">
-        <v>0.894198</v>
+        <v>0.871866</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.713775</v>
+        <v>0.708209</v>
       </c>
       <c r="C126" t="n">
-        <v>0.944513</v>
+        <v>0.928745</v>
       </c>
       <c r="D126" t="n">
-        <v>0.881906</v>
+        <v>0.8623459999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.703512</v>
+        <v>0.6984359999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.929054</v>
+        <v>0.916311</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8739479999999999</v>
+        <v>0.851971</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.694891</v>
+        <v>0.690194</v>
       </c>
       <c r="C128" t="n">
-        <v>0.913876</v>
+        <v>0.904664</v>
       </c>
       <c r="D128" t="n">
-        <v>0.866076</v>
+        <v>0.8434160000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6866640000000001</v>
+        <v>0.681338</v>
       </c>
       <c r="C129" t="n">
-        <v>0.907952</v>
+        <v>0.893851</v>
       </c>
       <c r="D129" t="n">
-        <v>0.856562</v>
+        <v>0.8344549999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.679572</v>
+        <v>0.672859</v>
       </c>
       <c r="C130" t="n">
-        <v>0.899898</v>
+        <v>0.883787</v>
       </c>
       <c r="D130" t="n">
-        <v>0.85075</v>
+        <v>0.827636</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.67086</v>
+        <v>0.665512</v>
       </c>
       <c r="C131" t="n">
-        <v>0.893849</v>
+        <v>0.874102</v>
       </c>
       <c r="D131" t="n">
-        <v>0.844402</v>
+        <v>0.821828</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.667009</v>
+        <v>0.659448</v>
       </c>
       <c r="C132" t="n">
-        <v>0.883791</v>
+        <v>0.867245</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8386209999999999</v>
+        <v>0.81637</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.661585</v>
+        <v>0.65244</v>
       </c>
       <c r="C133" t="n">
-        <v>0.880661</v>
+        <v>0.860924</v>
       </c>
       <c r="D133" t="n">
-        <v>0.836073</v>
+        <v>0.8132</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.655277</v>
+        <v>0.646981</v>
       </c>
       <c r="C134" t="n">
-        <v>0.87483</v>
+        <v>0.856026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.831484</v>
+        <v>0.809741</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.650938</v>
+        <v>0.641808</v>
       </c>
       <c r="C135" t="n">
-        <v>0.871489</v>
+        <v>0.851841</v>
       </c>
       <c r="D135" t="n">
-        <v>0.829823</v>
+        <v>0.809032</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.641786</v>
+        <v>0.636829</v>
       </c>
       <c r="C136" t="n">
-        <v>0.870021</v>
+        <v>0.84997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.828102</v>
+        <v>0.807493</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.64157</v>
+        <v>0.634768</v>
       </c>
       <c r="C137" t="n">
-        <v>0.869652</v>
+        <v>0.849463</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0381</v>
+        <v>1.01435</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.829665</v>
+        <v>0.821759</v>
       </c>
       <c r="C138" t="n">
-        <v>1.11109</v>
+        <v>1.0939</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02281</v>
+        <v>0.999021</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.815289</v>
+        <v>0.812901</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09701</v>
+        <v>1.07304</v>
       </c>
       <c r="D139" t="n">
-        <v>1.00833</v>
+        <v>0.98385</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.808104</v>
+        <v>0.804262</v>
       </c>
       <c r="C140" t="n">
-        <v>1.08027</v>
+        <v>1.05815</v>
       </c>
       <c r="D140" t="n">
-        <v>0.994656</v>
+        <v>0.97092</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.804115</v>
+        <v>0.796392</v>
       </c>
       <c r="C141" t="n">
-        <v>1.06104</v>
+        <v>1.04155</v>
       </c>
       <c r="D141" t="n">
-        <v>0.981831</v>
+        <v>0.958812</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.793777</v>
+        <v>0.788953</v>
       </c>
       <c r="C142" t="n">
-        <v>1.04993</v>
+        <v>1.02826</v>
       </c>
       <c r="D142" t="n">
-        <v>0.970018</v>
+        <v>0.946448</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.787257</v>
+        <v>0.782155</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03566</v>
+        <v>1.01332</v>
       </c>
       <c r="D143" t="n">
-        <v>0.957582</v>
+        <v>0.935688</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246778</v>
+        <v>0.246848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271035</v>
+        <v>0.27082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25618</v>
+        <v>0.256459</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240252</v>
+        <v>0.240645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264086</v>
+        <v>0.263901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250235</v>
+        <v>0.250239</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234229</v>
+        <v>0.234463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.257517</v>
+        <v>0.257529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245232</v>
+        <v>0.245226</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228832</v>
+        <v>0.229325</v>
       </c>
       <c r="C5" t="n">
-        <v>0.252588</v>
+        <v>0.252242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241411</v>
+        <v>0.241497</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224287</v>
+        <v>0.224451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247776</v>
+        <v>0.246952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237595</v>
+        <v>0.237579</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220753</v>
+        <v>0.220969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.244562</v>
+        <v>0.243438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.235685</v>
+        <v>0.235398</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21899</v>
+        <v>0.21918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241995</v>
+        <v>0.241696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235929</v>
+        <v>0.235588</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21806</v>
+        <v>0.218272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241968</v>
+        <v>0.241279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.332347</v>
+        <v>0.328679</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306327</v>
+        <v>0.307255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338795</v>
+        <v>0.338584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.323173</v>
+        <v>0.319275</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296807</v>
+        <v>0.297022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.328808</v>
+        <v>0.328556</v>
       </c>
       <c r="D11" t="n">
-        <v>0.312859</v>
+        <v>0.3098</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287584</v>
+        <v>0.287949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318981</v>
+        <v>0.318865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304097</v>
+        <v>0.30089</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278749</v>
+        <v>0.279789</v>
       </c>
       <c r="C13" t="n">
-        <v>0.30953</v>
+        <v>0.309411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.295063</v>
+        <v>0.292334</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270401</v>
+        <v>0.271317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.300875</v>
+        <v>0.300737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287362</v>
+        <v>0.286116</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262465</v>
+        <v>0.263247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.292355</v>
+        <v>0.292308</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279009</v>
+        <v>0.276902</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255424</v>
+        <v>0.256051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283962</v>
+        <v>0.284356</v>
       </c>
       <c r="D16" t="n">
-        <v>0.271732</v>
+        <v>0.270629</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248453</v>
+        <v>0.249007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277138</v>
+        <v>0.277504</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265975</v>
+        <v>0.263439</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242626</v>
+        <v>0.242907</v>
       </c>
       <c r="C18" t="n">
-        <v>0.269497</v>
+        <v>0.270813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259869</v>
+        <v>0.25789</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236993</v>
+        <v>0.237283</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265208</v>
+        <v>0.265438</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255089</v>
+        <v>0.253072</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231928</v>
+        <v>0.232364</v>
       </c>
       <c r="C20" t="n">
-        <v>0.259208</v>
+        <v>0.260489</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25127</v>
+        <v>0.249129</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22776</v>
+        <v>0.228729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.255529</v>
+        <v>0.256861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249228</v>
+        <v>0.247063</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225303</v>
+        <v>0.225755</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253082</v>
+        <v>0.25456</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249385</v>
+        <v>0.248517</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224379</v>
+        <v>0.224916</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253441</v>
+        <v>0.254803</v>
       </c>
       <c r="D23" t="n">
-        <v>0.344626</v>
+        <v>0.343659</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311723</v>
+        <v>0.312037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.352675</v>
+        <v>0.35262</v>
       </c>
       <c r="D24" t="n">
-        <v>0.334237</v>
+        <v>0.333678</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302213</v>
+        <v>0.302719</v>
       </c>
       <c r="C25" t="n">
-        <v>0.341101</v>
+        <v>0.342386</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324788</v>
+        <v>0.324276</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293037</v>
+        <v>0.293469</v>
       </c>
       <c r="C26" t="n">
-        <v>0.330527</v>
+        <v>0.332209</v>
       </c>
       <c r="D26" t="n">
-        <v>0.315435</v>
+        <v>0.314858</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28429</v>
+        <v>0.284608</v>
       </c>
       <c r="C27" t="n">
-        <v>0.320777</v>
+        <v>0.322739</v>
       </c>
       <c r="D27" t="n">
-        <v>0.306859</v>
+        <v>0.306031</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276171</v>
+        <v>0.276284</v>
       </c>
       <c r="C28" t="n">
-        <v>0.313624</v>
+        <v>0.31382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.298687</v>
+        <v>0.298016</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.267785</v>
+        <v>0.268331</v>
       </c>
       <c r="C29" t="n">
-        <v>0.305237</v>
+        <v>0.305641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291116</v>
+        <v>0.290312</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260242</v>
+        <v>0.261127</v>
       </c>
       <c r="C30" t="n">
-        <v>0.296969</v>
+        <v>0.297434</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283774</v>
+        <v>0.282667</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253912</v>
+        <v>0.253952</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289181</v>
+        <v>0.290314</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277155</v>
+        <v>0.276032</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247296</v>
+        <v>0.247451</v>
       </c>
       <c r="C32" t="n">
-        <v>0.282554</v>
+        <v>0.282835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271022</v>
+        <v>0.270065</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241467</v>
+        <v>0.241736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277821</v>
+        <v>0.277121</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265545</v>
+        <v>0.264551</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236532</v>
+        <v>0.236548</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272086</v>
+        <v>0.27112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.261327</v>
+        <v>0.259787</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232305</v>
+        <v>0.232412</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266103</v>
+        <v>0.266768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258084</v>
+        <v>0.256722</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229205</v>
+        <v>0.229537</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263917</v>
+        <v>0.263532</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257243</v>
+        <v>0.255894</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227558</v>
+        <v>0.227591</v>
       </c>
       <c r="C37" t="n">
-        <v>0.263428</v>
+        <v>0.262225</v>
       </c>
       <c r="D37" t="n">
-        <v>0.355919</v>
+        <v>0.353351</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315585</v>
+        <v>0.315386</v>
       </c>
       <c r="C38" t="n">
-        <v>0.363937</v>
+        <v>0.362134</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34524</v>
+        <v>0.343274</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305496</v>
+        <v>0.30644</v>
       </c>
       <c r="C39" t="n">
-        <v>0.353729</v>
+        <v>0.351953</v>
       </c>
       <c r="D39" t="n">
-        <v>0.335598</v>
+        <v>0.333568</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296728</v>
+        <v>0.297463</v>
       </c>
       <c r="C40" t="n">
-        <v>0.343204</v>
+        <v>0.341988</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326392</v>
+        <v>0.324458</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288076</v>
+        <v>0.288777</v>
       </c>
       <c r="C41" t="n">
-        <v>0.334459</v>
+        <v>0.332641</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317785</v>
+        <v>0.315909</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.27983</v>
+        <v>0.280676</v>
       </c>
       <c r="C42" t="n">
-        <v>0.325074</v>
+        <v>0.323504</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309496</v>
+        <v>0.307819</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272665</v>
+        <v>0.272977</v>
       </c>
       <c r="C43" t="n">
-        <v>0.316818</v>
+        <v>0.315145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301944</v>
+        <v>0.299829</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264664</v>
+        <v>0.265546</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30842</v>
+        <v>0.307174</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294586</v>
+        <v>0.292486</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257938</v>
+        <v>0.258828</v>
       </c>
       <c r="C45" t="n">
-        <v>0.301195</v>
+        <v>0.30013</v>
       </c>
       <c r="D45" t="n">
-        <v>0.287976</v>
+        <v>0.285871</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251507</v>
+        <v>0.25236</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294509</v>
+        <v>0.293297</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281983</v>
+        <v>0.279951</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246506</v>
+        <v>0.246564</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287735</v>
+        <v>0.287005</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276727</v>
+        <v>0.274697</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240691</v>
+        <v>0.241398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282942</v>
+        <v>0.281202</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272305</v>
+        <v>0.27007</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237067</v>
+        <v>0.237062</v>
       </c>
       <c r="C49" t="n">
-        <v>0.278486</v>
+        <v>0.276753</v>
       </c>
       <c r="D49" t="n">
-        <v>0.269144</v>
+        <v>0.266806</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.232906</v>
+        <v>0.233802</v>
       </c>
       <c r="C50" t="n">
-        <v>0.274947</v>
+        <v>0.273255</v>
       </c>
       <c r="D50" t="n">
-        <v>0.267539</v>
+        <v>0.265199</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231163</v>
+        <v>0.231757</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273201</v>
+        <v>0.271996</v>
       </c>
       <c r="D51" t="n">
-        <v>0.369097</v>
+        <v>0.366494</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232807</v>
+        <v>0.232053</v>
       </c>
       <c r="C52" t="n">
-        <v>0.274149</v>
+        <v>0.272553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.358536</v>
+        <v>0.356145</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.320043</v>
+        <v>0.315857</v>
       </c>
       <c r="C53" t="n">
-        <v>0.367734</v>
+        <v>0.365191</v>
       </c>
       <c r="D53" t="n">
-        <v>0.348799</v>
+        <v>0.346324</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311008</v>
+        <v>0.307133</v>
       </c>
       <c r="C54" t="n">
-        <v>0.357376</v>
+        <v>0.355228</v>
       </c>
       <c r="D54" t="n">
-        <v>0.339316</v>
+        <v>0.337165</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302338</v>
+        <v>0.298855</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347673</v>
+        <v>0.345677</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330473</v>
+        <v>0.328386</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294269</v>
+        <v>0.290813</v>
       </c>
       <c r="C56" t="n">
-        <v>0.338356</v>
+        <v>0.336645</v>
       </c>
       <c r="D56" t="n">
-        <v>0.322362</v>
+        <v>0.32015</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286627</v>
+        <v>0.283923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.329962</v>
+        <v>0.328093</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31461</v>
+        <v>0.312372</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279323</v>
+        <v>0.276697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.321643</v>
+        <v>0.320004</v>
       </c>
       <c r="D58" t="n">
-        <v>0.307004</v>
+        <v>0.305176</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272493</v>
+        <v>0.269889</v>
       </c>
       <c r="C59" t="n">
-        <v>0.313893</v>
+        <v>0.312428</v>
       </c>
       <c r="D59" t="n">
-        <v>0.300135</v>
+        <v>0.29845</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266199</v>
+        <v>0.263462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.307121</v>
+        <v>0.305474</v>
       </c>
       <c r="D60" t="n">
-        <v>0.294075</v>
+        <v>0.292271</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260346</v>
+        <v>0.257416</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300573</v>
+        <v>0.299143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.288673</v>
+        <v>0.286942</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255194</v>
+        <v>0.25246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294267</v>
+        <v>0.293487</v>
       </c>
       <c r="D62" t="n">
-        <v>0.28423</v>
+        <v>0.282502</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25061</v>
+        <v>0.247823</v>
       </c>
       <c r="C63" t="n">
-        <v>0.289767</v>
+        <v>0.288503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28059</v>
+        <v>0.278868</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247291</v>
+        <v>0.244184</v>
       </c>
       <c r="C64" t="n">
-        <v>0.286615</v>
+        <v>0.284765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.278978</v>
+        <v>0.277158</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245027</v>
+        <v>0.242189</v>
       </c>
       <c r="C65" t="n">
-        <v>0.284408</v>
+        <v>0.282612</v>
       </c>
       <c r="D65" t="n">
-        <v>0.279604</v>
+        <v>0.277856</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244928</v>
+        <v>0.242186</v>
       </c>
       <c r="C66" t="n">
-        <v>0.28518</v>
+        <v>0.283422</v>
       </c>
       <c r="D66" t="n">
-        <v>0.394387</v>
+        <v>0.393184</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378235</v>
+        <v>0.39004</v>
       </c>
       <c r="C67" t="n">
-        <v>0.405147</v>
+        <v>0.409175</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384183</v>
+        <v>0.38212</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.370693</v>
+        <v>0.381583</v>
       </c>
       <c r="C68" t="n">
-        <v>0.395063</v>
+        <v>0.398264</v>
       </c>
       <c r="D68" t="n">
-        <v>0.37462</v>
+        <v>0.372295</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363952</v>
+        <v>0.374686</v>
       </c>
       <c r="C69" t="n">
-        <v>0.385307</v>
+        <v>0.388193</v>
       </c>
       <c r="D69" t="n">
-        <v>0.365322</v>
+        <v>0.363064</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.35759</v>
+        <v>0.36794</v>
       </c>
       <c r="C70" t="n">
-        <v>0.375469</v>
+        <v>0.37844</v>
       </c>
       <c r="D70" t="n">
-        <v>0.356329</v>
+        <v>0.354307</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350974</v>
+        <v>0.361412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366118</v>
+        <v>0.369081</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347664</v>
+        <v>0.345908</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.34485</v>
+        <v>0.355335</v>
       </c>
       <c r="C72" t="n">
-        <v>0.357084</v>
+        <v>0.36021</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33937</v>
+        <v>0.338474</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338117</v>
+        <v>0.349583</v>
       </c>
       <c r="C73" t="n">
-        <v>0.34857</v>
+        <v>0.351819</v>
       </c>
       <c r="D73" t="n">
-        <v>0.331555</v>
+        <v>0.330644</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331695</v>
+        <v>0.343237</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340426</v>
+        <v>0.343624</v>
       </c>
       <c r="D74" t="n">
-        <v>0.324345</v>
+        <v>0.324152</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325374</v>
+        <v>0.336733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.332939</v>
+        <v>0.335934</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3194</v>
+        <v>0.317426</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319264</v>
+        <v>0.331209</v>
       </c>
       <c r="C76" t="n">
-        <v>0.326264</v>
+        <v>0.329327</v>
       </c>
       <c r="D76" t="n">
-        <v>0.312134</v>
+        <v>0.312466</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313586</v>
+        <v>0.325268</v>
       </c>
       <c r="C77" t="n">
-        <v>0.320408</v>
+        <v>0.323404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.307826</v>
+        <v>0.308082</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308405</v>
+        <v>0.319772</v>
       </c>
       <c r="C78" t="n">
-        <v>0.315629</v>
+        <v>0.318602</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304822</v>
+        <v>0.304968</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304385</v>
+        <v>0.315488</v>
       </c>
       <c r="C79" t="n">
-        <v>0.312724</v>
+        <v>0.315538</v>
       </c>
       <c r="D79" t="n">
-        <v>0.304449</v>
+        <v>0.304628</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302039</v>
+        <v>0.312767</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311895</v>
+        <v>0.31469</v>
       </c>
       <c r="D80" t="n">
-        <v>0.451295</v>
+        <v>0.473152</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.530718</v>
+        <v>0.548062</v>
       </c>
       <c r="C81" t="n">
-        <v>0.470664</v>
+        <v>0.498068</v>
       </c>
       <c r="D81" t="n">
-        <v>0.446258</v>
+        <v>0.469961</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523251</v>
+        <v>0.540628</v>
       </c>
       <c r="C82" t="n">
-        <v>0.468517</v>
+        <v>0.496024</v>
       </c>
       <c r="D82" t="n">
-        <v>0.443166</v>
+        <v>0.463626</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.511486</v>
+        <v>0.530241</v>
       </c>
       <c r="C83" t="n">
-        <v>0.462801</v>
+        <v>0.49021</v>
       </c>
       <c r="D83" t="n">
-        <v>0.435252</v>
+        <v>0.457112</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501178</v>
+        <v>0.520389</v>
       </c>
       <c r="C84" t="n">
-        <v>0.454414</v>
+        <v>0.485637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.430751</v>
+        <v>0.451394</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.490017</v>
+        <v>0.509752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.447619</v>
+        <v>0.478191</v>
       </c>
       <c r="D85" t="n">
-        <v>0.42108</v>
+        <v>0.446761</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.479615</v>
+        <v>0.499856</v>
       </c>
       <c r="C86" t="n">
-        <v>0.439747</v>
+        <v>0.470133</v>
       </c>
       <c r="D86" t="n">
-        <v>0.413458</v>
+        <v>0.437532</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.469914</v>
+        <v>0.490465</v>
       </c>
       <c r="C87" t="n">
-        <v>0.432897</v>
+        <v>0.464838</v>
       </c>
       <c r="D87" t="n">
-        <v>0.408825</v>
+        <v>0.433094</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.460301</v>
+        <v>0.480533</v>
       </c>
       <c r="C88" t="n">
-        <v>0.426574</v>
+        <v>0.45487</v>
       </c>
       <c r="D88" t="n">
-        <v>0.401984</v>
+        <v>0.425441</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.451183</v>
+        <v>0.470982</v>
       </c>
       <c r="C89" t="n">
-        <v>0.419636</v>
+        <v>0.448844</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398505</v>
+        <v>0.419006</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.442233</v>
+        <v>0.461797</v>
       </c>
       <c r="C90" t="n">
-        <v>0.416696</v>
+        <v>0.441542</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394481</v>
+        <v>0.413099</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.433837</v>
+        <v>0.453331</v>
       </c>
       <c r="C91" t="n">
-        <v>0.409958</v>
+        <v>0.435981</v>
       </c>
       <c r="D91" t="n">
-        <v>0.387437</v>
+        <v>0.40829</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.425753</v>
+        <v>0.445445</v>
       </c>
       <c r="C92" t="n">
-        <v>0.405026</v>
+        <v>0.432902</v>
       </c>
       <c r="D92" t="n">
-        <v>0.386296</v>
+        <v>0.40615</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.418901</v>
+        <v>0.43754</v>
       </c>
       <c r="C93" t="n">
-        <v>0.401635</v>
+        <v>0.426155</v>
       </c>
       <c r="D93" t="n">
-        <v>0.383736</v>
+        <v>0.402112</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413431</v>
+        <v>0.432295</v>
       </c>
       <c r="C94" t="n">
-        <v>0.399443</v>
+        <v>0.427044</v>
       </c>
       <c r="D94" t="n">
-        <v>0.660895</v>
+        <v>0.706537</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.546704</v>
+        <v>0.57173</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6374880000000001</v>
+        <v>0.6747339999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6542519999999999</v>
+        <v>0.700335</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.542585</v>
+        <v>0.566774</v>
       </c>
       <c r="C96" t="n">
-        <v>0.632779</v>
+        <v>0.67141</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6443</v>
+        <v>0.69012</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.53278</v>
+        <v>0.55766</v>
       </c>
       <c r="C97" t="n">
-        <v>0.624096</v>
+        <v>0.664444</v>
       </c>
       <c r="D97" t="n">
-        <v>0.634737</v>
+        <v>0.680287</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521656</v>
+        <v>0.5478420000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.614775</v>
+        <v>0.655242</v>
       </c>
       <c r="D98" t="n">
-        <v>0.626822</v>
+        <v>0.671142</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.512446</v>
+        <v>0.53865</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607787</v>
+        <v>0.647543</v>
       </c>
       <c r="D99" t="n">
-        <v>0.619371</v>
+        <v>0.6648810000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5030210000000001</v>
+        <v>0.52973</v>
       </c>
       <c r="C100" t="n">
-        <v>0.601707</v>
+        <v>0.6417659999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.61102</v>
+        <v>0.656673</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.494237</v>
+        <v>0.521791</v>
       </c>
       <c r="C101" t="n">
-        <v>0.593367</v>
+        <v>0.635728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.603636</v>
+        <v>0.648869</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486067</v>
+        <v>0.51349</v>
       </c>
       <c r="C102" t="n">
-        <v>0.588372</v>
+        <v>0.628942</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5976</v>
+        <v>0.642805</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479069</v>
+        <v>0.50644</v>
       </c>
       <c r="C103" t="n">
-        <v>0.583618</v>
+        <v>0.624571</v>
       </c>
       <c r="D103" t="n">
-        <v>0.591592</v>
+        <v>0.6366889999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472278</v>
+        <v>0.499186</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578141</v>
+        <v>0.619831</v>
       </c>
       <c r="D104" t="n">
-        <v>0.585769</v>
+        <v>0.630938</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465856</v>
+        <v>0.49271</v>
       </c>
       <c r="C105" t="n">
-        <v>0.57491</v>
+        <v>0.615017</v>
       </c>
       <c r="D105" t="n">
-        <v>0.580619</v>
+        <v>0.6260019999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459819</v>
+        <v>0.487458</v>
       </c>
       <c r="C106" t="n">
-        <v>0.570475</v>
+        <v>0.611167</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5763740000000001</v>
+        <v>0.620296</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.454565</v>
+        <v>0.480983</v>
       </c>
       <c r="C107" t="n">
-        <v>0.568264</v>
+        <v>0.607538</v>
       </c>
       <c r="D107" t="n">
-        <v>0.572972</v>
+        <v>0.6165310000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.450816</v>
+        <v>0.476667</v>
       </c>
       <c r="C108" t="n">
-        <v>0.566951</v>
+        <v>0.605164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.78112</v>
+        <v>0.848745</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449681</v>
+        <v>0.475289</v>
       </c>
       <c r="C109" t="n">
-        <v>0.567892</v>
+        <v>0.605617</v>
       </c>
       <c r="D109" t="n">
-        <v>0.77247</v>
+        <v>0.840706</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.647792</v>
+        <v>0.676413</v>
       </c>
       <c r="C110" t="n">
-        <v>0.803323</v>
+        <v>0.85992</v>
       </c>
       <c r="D110" t="n">
-        <v>0.761886</v>
+        <v>0.830534</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6372640000000001</v>
+        <v>0.665011</v>
       </c>
       <c r="C111" t="n">
-        <v>0.791707</v>
+        <v>0.848463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.753686</v>
+        <v>0.8201000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.625074</v>
+        <v>0.652756</v>
       </c>
       <c r="C112" t="n">
-        <v>0.781832</v>
+        <v>0.837771</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7446660000000001</v>
+        <v>0.810001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.613623</v>
+        <v>0.641478</v>
       </c>
       <c r="C113" t="n">
-        <v>0.77246</v>
+        <v>0.82834</v>
       </c>
       <c r="D113" t="n">
-        <v>0.736279</v>
+        <v>0.802665</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.60324</v>
+        <v>0.630541</v>
       </c>
       <c r="C114" t="n">
-        <v>0.763391</v>
+        <v>0.819756</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729459</v>
+        <v>0.795089</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592405</v>
+        <v>0.620218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7545269999999999</v>
+        <v>0.810495</v>
       </c>
       <c r="D115" t="n">
-        <v>0.721853</v>
+        <v>0.7888540000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582651</v>
+        <v>0.610361</v>
       </c>
       <c r="C116" t="n">
-        <v>0.745774</v>
+        <v>0.803391</v>
       </c>
       <c r="D116" t="n">
-        <v>0.714839</v>
+        <v>0.782112</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.573292</v>
+        <v>0.601004</v>
       </c>
       <c r="C117" t="n">
-        <v>0.738446</v>
+        <v>0.796399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.707935</v>
+        <v>0.777359</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.565757</v>
+        <v>0.5927750000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.732343</v>
+        <v>0.790824</v>
       </c>
       <c r="D118" t="n">
-        <v>0.703535</v>
+        <v>0.771522</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.557788</v>
+        <v>0.585114</v>
       </c>
       <c r="C119" t="n">
-        <v>0.726333</v>
+        <v>0.786158</v>
       </c>
       <c r="D119" t="n">
-        <v>0.698569</v>
+        <v>0.7669589999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.550017</v>
+        <v>0.578078</v>
       </c>
       <c r="C120" t="n">
-        <v>0.722171</v>
+        <v>0.782717</v>
       </c>
       <c r="D120" t="n">
-        <v>0.693724</v>
+        <v>0.762218</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.543516</v>
+        <v>0.570894</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7184</v>
+        <v>0.777856</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6916679999999999</v>
+        <v>0.757902</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.538568</v>
+        <v>0.566098</v>
       </c>
       <c r="C122" t="n">
-        <v>0.717669</v>
+        <v>0.7765030000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.689122</v>
+        <v>0.752858</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.53501</v>
+        <v>0.5622</v>
       </c>
       <c r="C123" t="n">
-        <v>0.718664</v>
+        <v>0.775965</v>
       </c>
       <c r="D123" t="n">
-        <v>0.89744</v>
+        <v>0.968062</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.728063</v>
+        <v>0.763173</v>
       </c>
       <c r="C124" t="n">
-        <v>0.955924</v>
+        <v>1.02081</v>
       </c>
       <c r="D124" t="n">
-        <v>0.885472</v>
+        <v>0.9539339999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.718503</v>
+        <v>0.753947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.94243</v>
+        <v>1.00406</v>
       </c>
       <c r="D125" t="n">
-        <v>0.871866</v>
+        <v>0.939535</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.708209</v>
+        <v>0.744052</v>
       </c>
       <c r="C126" t="n">
-        <v>0.928745</v>
+        <v>0.990013</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8623459999999999</v>
+        <v>0.931203</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6984359999999999</v>
+        <v>0.734416</v>
       </c>
       <c r="C127" t="n">
-        <v>0.916311</v>
+        <v>0.979585</v>
       </c>
       <c r="D127" t="n">
-        <v>0.851971</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.690194</v>
+        <v>0.726208</v>
       </c>
       <c r="C128" t="n">
-        <v>0.904664</v>
+        <v>0.96878</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8434160000000001</v>
+        <v>0.913678</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.681338</v>
+        <v>0.717737</v>
       </c>
       <c r="C129" t="n">
-        <v>0.893851</v>
+        <v>0.9587599999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8344549999999999</v>
+        <v>0.907326</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672859</v>
+        <v>0.710414</v>
       </c>
       <c r="C130" t="n">
-        <v>0.883787</v>
+        <v>0.949646</v>
       </c>
       <c r="D130" t="n">
-        <v>0.827636</v>
+        <v>0.900654</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665512</v>
+        <v>0.702548</v>
       </c>
       <c r="C131" t="n">
-        <v>0.874102</v>
+        <v>0.942902</v>
       </c>
       <c r="D131" t="n">
-        <v>0.821828</v>
+        <v>0.895355</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.659448</v>
+        <v>0.695789</v>
       </c>
       <c r="C132" t="n">
-        <v>0.867245</v>
+        <v>0.936024</v>
       </c>
       <c r="D132" t="n">
-        <v>0.81637</v>
+        <v>0.890477</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.65244</v>
+        <v>0.689676</v>
       </c>
       <c r="C133" t="n">
-        <v>0.860924</v>
+        <v>0.930471</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8132</v>
+        <v>0.886732</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.646981</v>
+        <v>0.68394</v>
       </c>
       <c r="C134" t="n">
-        <v>0.856026</v>
+        <v>0.926373</v>
       </c>
       <c r="D134" t="n">
-        <v>0.809741</v>
+        <v>0.885103</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.641808</v>
+        <v>0.679544</v>
       </c>
       <c r="C135" t="n">
-        <v>0.851841</v>
+        <v>0.922492</v>
       </c>
       <c r="D135" t="n">
-        <v>0.809032</v>
+        <v>0.883352</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.636829</v>
+        <v>0.674523</v>
       </c>
       <c r="C136" t="n">
-        <v>0.84997</v>
+        <v>0.921884</v>
       </c>
       <c r="D136" t="n">
-        <v>0.807493</v>
+        <v>0.882919</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.634768</v>
+        <v>0.671544</v>
       </c>
       <c r="C137" t="n">
-        <v>0.849463</v>
+        <v>0.923014</v>
       </c>
       <c r="D137" t="n">
-        <v>1.01435</v>
+        <v>1.1014</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.821759</v>
+        <v>0.860576</v>
       </c>
       <c r="C138" t="n">
-        <v>1.0939</v>
+        <v>1.1731</v>
       </c>
       <c r="D138" t="n">
-        <v>0.999021</v>
+        <v>1.08553</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.812901</v>
+        <v>0.851859</v>
       </c>
       <c r="C139" t="n">
-        <v>1.07304</v>
+        <v>1.15356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.98385</v>
+        <v>1.07073</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.804262</v>
+        <v>0.843997</v>
       </c>
       <c r="C140" t="n">
-        <v>1.05815</v>
+        <v>1.13818</v>
       </c>
       <c r="D140" t="n">
-        <v>0.97092</v>
+        <v>1.05724</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796392</v>
+        <v>0.83657</v>
       </c>
       <c r="C141" t="n">
-        <v>1.04155</v>
+        <v>1.12259</v>
       </c>
       <c r="D141" t="n">
-        <v>0.958812</v>
+        <v>1.04502</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788953</v>
+        <v>0.829723</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02826</v>
+        <v>1.10755</v>
       </c>
       <c r="D142" t="n">
-        <v>0.946448</v>
+        <v>1.03425</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.782155</v>
+        <v>0.822838</v>
       </c>
       <c r="C143" t="n">
-        <v>1.01332</v>
+        <v>1.09346</v>
       </c>
       <c r="D143" t="n">
-        <v>0.935688</v>
+        <v>1.02553</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246848</v>
+        <v>0.246743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27082</v>
+        <v>0.286576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256459</v>
+        <v>0.250689</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240645</v>
+        <v>0.239911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.263901</v>
+        <v>0.278799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250239</v>
+        <v>0.244934</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234463</v>
+        <v>0.233728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.257529</v>
+        <v>0.272389</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245226</v>
+        <v>0.239447</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229325</v>
+        <v>0.22883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.252242</v>
+        <v>0.266811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241497</v>
+        <v>0.235742</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224451</v>
+        <v>0.223983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246952</v>
+        <v>0.26108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237579</v>
+        <v>0.232241</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220969</v>
+        <v>0.220337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.243438</v>
+        <v>0.256805</v>
       </c>
       <c r="D7" t="n">
-        <v>0.235398</v>
+        <v>0.230123</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21918</v>
+        <v>0.218455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241696</v>
+        <v>0.253579</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235588</v>
+        <v>0.23022</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218272</v>
+        <v>0.217922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241279</v>
+        <v>0.252672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.328679</v>
+        <v>0.321828</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307255</v>
+        <v>0.306093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338584</v>
+        <v>0.362187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.319275</v>
+        <v>0.312403</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.297022</v>
+        <v>0.296618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.328556</v>
+        <v>0.350877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3098</v>
+        <v>0.303186</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287949</v>
+        <v>0.287303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318865</v>
+        <v>0.339627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30089</v>
+        <v>0.294566</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279789</v>
+        <v>0.27841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.309411</v>
+        <v>0.329413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.292334</v>
+        <v>0.286146</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271317</v>
+        <v>0.270137</v>
       </c>
       <c r="C14" t="n">
-        <v>0.300737</v>
+        <v>0.31986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286116</v>
+        <v>0.278482</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263247</v>
+        <v>0.262373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.292308</v>
+        <v>0.310305</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276902</v>
+        <v>0.271381</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256051</v>
+        <v>0.255269</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284356</v>
+        <v>0.30164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.270629</v>
+        <v>0.26418</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.249007</v>
+        <v>0.248439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277504</v>
+        <v>0.293709</v>
       </c>
       <c r="D17" t="n">
-        <v>0.263439</v>
+        <v>0.258345</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242907</v>
+        <v>0.242473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.270813</v>
+        <v>0.286393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25789</v>
+        <v>0.252651</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237283</v>
+        <v>0.236805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265438</v>
+        <v>0.279854</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253072</v>
+        <v>0.248273</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232364</v>
+        <v>0.231979</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260489</v>
+        <v>0.274038</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249129</v>
+        <v>0.244599</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228729</v>
+        <v>0.227972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256861</v>
+        <v>0.269583</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247063</v>
+        <v>0.242487</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225755</v>
+        <v>0.225534</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25456</v>
+        <v>0.266587</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248517</v>
+        <v>0.242533</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224916</v>
+        <v>0.224704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254803</v>
+        <v>0.266185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.343659</v>
+        <v>0.335479</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312037</v>
+        <v>0.311967</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35262</v>
+        <v>0.376581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.333678</v>
+        <v>0.325413</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302719</v>
+        <v>0.303218</v>
       </c>
       <c r="C25" t="n">
-        <v>0.342386</v>
+        <v>0.365115</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324276</v>
+        <v>0.316572</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293469</v>
+        <v>0.293512</v>
       </c>
       <c r="C26" t="n">
-        <v>0.332209</v>
+        <v>0.353918</v>
       </c>
       <c r="D26" t="n">
-        <v>0.314858</v>
+        <v>0.307196</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284608</v>
+        <v>0.284657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.322739</v>
+        <v>0.342997</v>
       </c>
       <c r="D27" t="n">
-        <v>0.306031</v>
+        <v>0.298642</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276284</v>
+        <v>0.276267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.31382</v>
+        <v>0.332946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.298016</v>
+        <v>0.290823</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268331</v>
+        <v>0.268492</v>
       </c>
       <c r="C29" t="n">
-        <v>0.305641</v>
+        <v>0.322717</v>
       </c>
       <c r="D29" t="n">
-        <v>0.290312</v>
+        <v>0.283236</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261127</v>
+        <v>0.261039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.297434</v>
+        <v>0.31363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.282667</v>
+        <v>0.276029</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253952</v>
+        <v>0.254059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.290314</v>
+        <v>0.305977</v>
       </c>
       <c r="D31" t="n">
-        <v>0.276032</v>
+        <v>0.269757</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247451</v>
+        <v>0.247677</v>
       </c>
       <c r="C32" t="n">
-        <v>0.282835</v>
+        <v>0.298128</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270065</v>
+        <v>0.263728</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241736</v>
+        <v>0.241851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277121</v>
+        <v>0.290784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264551</v>
+        <v>0.258303</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236548</v>
+        <v>0.236822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27112</v>
+        <v>0.284465</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259787</v>
+        <v>0.253957</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232412</v>
+        <v>0.232659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266768</v>
+        <v>0.278869</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256722</v>
+        <v>0.251151</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229537</v>
+        <v>0.229808</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263532</v>
+        <v>0.274962</v>
       </c>
       <c r="D36" t="n">
-        <v>0.255894</v>
+        <v>0.250589</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227591</v>
+        <v>0.227681</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262225</v>
+        <v>0.273108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.353351</v>
+        <v>0.345271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315386</v>
+        <v>0.314967</v>
       </c>
       <c r="C38" t="n">
-        <v>0.362134</v>
+        <v>0.385778</v>
       </c>
       <c r="D38" t="n">
-        <v>0.343274</v>
+        <v>0.335622</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30644</v>
+        <v>0.305934</v>
       </c>
       <c r="C39" t="n">
-        <v>0.351953</v>
+        <v>0.374496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.333568</v>
+        <v>0.326349</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297463</v>
+        <v>0.297537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.341988</v>
+        <v>0.363376</v>
       </c>
       <c r="D40" t="n">
-        <v>0.324458</v>
+        <v>0.317388</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288777</v>
+        <v>0.288413</v>
       </c>
       <c r="C41" t="n">
-        <v>0.332641</v>
+        <v>0.352566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315909</v>
+        <v>0.308891</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280676</v>
+        <v>0.281066</v>
       </c>
       <c r="C42" t="n">
-        <v>0.323504</v>
+        <v>0.34228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.307819</v>
+        <v>0.300982</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272977</v>
+        <v>0.272358</v>
       </c>
       <c r="C43" t="n">
-        <v>0.315145</v>
+        <v>0.332879</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299829</v>
+        <v>0.293397</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265546</v>
+        <v>0.26547</v>
       </c>
       <c r="C44" t="n">
-        <v>0.307174</v>
+        <v>0.323705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.292486</v>
+        <v>0.286443</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258828</v>
+        <v>0.25897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30013</v>
+        <v>0.315646</v>
       </c>
       <c r="D45" t="n">
-        <v>0.285871</v>
+        <v>0.280048</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25236</v>
+        <v>0.252016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293297</v>
+        <v>0.307822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.279951</v>
+        <v>0.27417</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246564</v>
+        <v>0.247159</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287005</v>
+        <v>0.300876</v>
       </c>
       <c r="D47" t="n">
-        <v>0.274697</v>
+        <v>0.26909</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241398</v>
+        <v>0.241278</v>
       </c>
       <c r="C48" t="n">
-        <v>0.281202</v>
+        <v>0.294541</v>
       </c>
       <c r="D48" t="n">
-        <v>0.27007</v>
+        <v>0.264803</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237062</v>
+        <v>0.237844</v>
       </c>
       <c r="C49" t="n">
-        <v>0.276753</v>
+        <v>0.28897</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266806</v>
+        <v>0.261787</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233802</v>
+        <v>0.233566</v>
       </c>
       <c r="C50" t="n">
-        <v>0.273255</v>
+        <v>0.285134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.265199</v>
+        <v>0.260384</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231757</v>
+        <v>0.231716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.271996</v>
+        <v>0.282611</v>
       </c>
       <c r="D51" t="n">
-        <v>0.366494</v>
+        <v>0.357813</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232053</v>
+        <v>0.233015</v>
       </c>
       <c r="C52" t="n">
-        <v>0.272553</v>
+        <v>0.282933</v>
       </c>
       <c r="D52" t="n">
-        <v>0.356145</v>
+        <v>0.348953</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315857</v>
+        <v>0.319531</v>
       </c>
       <c r="C53" t="n">
-        <v>0.365191</v>
+        <v>0.388633</v>
       </c>
       <c r="D53" t="n">
-        <v>0.346324</v>
+        <v>0.340012</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.307133</v>
+        <v>0.310395</v>
       </c>
       <c r="C54" t="n">
-        <v>0.355228</v>
+        <v>0.377327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.337165</v>
+        <v>0.330998</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.298855</v>
+        <v>0.301714</v>
       </c>
       <c r="C55" t="n">
-        <v>0.345677</v>
+        <v>0.36629</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328386</v>
+        <v>0.322445</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290813</v>
+        <v>0.293509</v>
       </c>
       <c r="C56" t="n">
-        <v>0.336645</v>
+        <v>0.356346</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32015</v>
+        <v>0.31448</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283923</v>
+        <v>0.285904</v>
       </c>
       <c r="C57" t="n">
-        <v>0.328093</v>
+        <v>0.346778</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312372</v>
+        <v>0.307074</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.276697</v>
+        <v>0.278813</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320004</v>
+        <v>0.337637</v>
       </c>
       <c r="D58" t="n">
-        <v>0.305176</v>
+        <v>0.300085</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.269889</v>
+        <v>0.272009</v>
       </c>
       <c r="C59" t="n">
-        <v>0.312428</v>
+        <v>0.329052</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29845</v>
+        <v>0.293448</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263462</v>
+        <v>0.265708</v>
       </c>
       <c r="C60" t="n">
-        <v>0.305474</v>
+        <v>0.321231</v>
       </c>
       <c r="D60" t="n">
-        <v>0.292271</v>
+        <v>0.287606</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257416</v>
+        <v>0.260097</v>
       </c>
       <c r="C61" t="n">
-        <v>0.299143</v>
+        <v>0.313868</v>
       </c>
       <c r="D61" t="n">
-        <v>0.286942</v>
+        <v>0.282014</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25246</v>
+        <v>0.254865</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293487</v>
+        <v>0.307432</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282502</v>
+        <v>0.27778</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.247823</v>
+        <v>0.250622</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288503</v>
+        <v>0.301807</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278868</v>
+        <v>0.274471</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244184</v>
+        <v>0.247251</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284765</v>
+        <v>0.29749</v>
       </c>
       <c r="D64" t="n">
-        <v>0.277158</v>
+        <v>0.272947</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242189</v>
+        <v>0.245185</v>
       </c>
       <c r="C65" t="n">
-        <v>0.282612</v>
+        <v>0.294609</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277856</v>
+        <v>0.27379</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.242186</v>
+        <v>0.24491</v>
       </c>
       <c r="C66" t="n">
-        <v>0.283422</v>
+        <v>0.294566</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393184</v>
+        <v>0.383013</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.39004</v>
+        <v>0.378243</v>
       </c>
       <c r="C67" t="n">
-        <v>0.409175</v>
+        <v>0.426594</v>
       </c>
       <c r="D67" t="n">
-        <v>0.38212</v>
+        <v>0.372172</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.381583</v>
+        <v>0.369482</v>
       </c>
       <c r="C68" t="n">
-        <v>0.398264</v>
+        <v>0.414467</v>
       </c>
       <c r="D68" t="n">
-        <v>0.372295</v>
+        <v>0.3629</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.374686</v>
+        <v>0.361723</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388193</v>
+        <v>0.403712</v>
       </c>
       <c r="D69" t="n">
-        <v>0.363064</v>
+        <v>0.354372</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36794</v>
+        <v>0.354813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.37844</v>
+        <v>0.393209</v>
       </c>
       <c r="D70" t="n">
-        <v>0.354307</v>
+        <v>0.346095</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.361412</v>
+        <v>0.348088</v>
       </c>
       <c r="C71" t="n">
-        <v>0.369081</v>
+        <v>0.383427</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345908</v>
+        <v>0.338298</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.355335</v>
+        <v>0.341828</v>
       </c>
       <c r="C72" t="n">
-        <v>0.36021</v>
+        <v>0.374074</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338474</v>
+        <v>0.33093</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349583</v>
+        <v>0.335648</v>
       </c>
       <c r="C73" t="n">
-        <v>0.351819</v>
+        <v>0.365113</v>
       </c>
       <c r="D73" t="n">
-        <v>0.330644</v>
+        <v>0.32397</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.343237</v>
+        <v>0.32929</v>
       </c>
       <c r="C74" t="n">
-        <v>0.343624</v>
+        <v>0.356647</v>
       </c>
       <c r="D74" t="n">
-        <v>0.324152</v>
+        <v>0.317521</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.336733</v>
+        <v>0.323257</v>
       </c>
       <c r="C75" t="n">
-        <v>0.335934</v>
+        <v>0.348896</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317426</v>
+        <v>0.311664</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.331209</v>
+        <v>0.317435</v>
       </c>
       <c r="C76" t="n">
-        <v>0.329327</v>
+        <v>0.341908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.312466</v>
+        <v>0.306719</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325268</v>
+        <v>0.312028</v>
       </c>
       <c r="C77" t="n">
-        <v>0.323404</v>
+        <v>0.33525</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308082</v>
+        <v>0.302616</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319772</v>
+        <v>0.306998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318602</v>
+        <v>0.330039</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304968</v>
+        <v>0.300024</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315488</v>
+        <v>0.30308</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315538</v>
+        <v>0.326485</v>
       </c>
       <c r="D79" t="n">
-        <v>0.304628</v>
+        <v>0.299674</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.312767</v>
+        <v>0.300909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31469</v>
+        <v>0.324864</v>
       </c>
       <c r="D80" t="n">
-        <v>0.473152</v>
+        <v>0.449527</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.548062</v>
+        <v>0.5327</v>
       </c>
       <c r="C81" t="n">
-        <v>0.498068</v>
+        <v>0.495086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.469961</v>
+        <v>0.447859</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.540628</v>
+        <v>0.523339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.496024</v>
+        <v>0.492722</v>
       </c>
       <c r="D82" t="n">
-        <v>0.463626</v>
+        <v>0.44375</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.530241</v>
+        <v>0.512951</v>
       </c>
       <c r="C83" t="n">
-        <v>0.49021</v>
+        <v>0.485289</v>
       </c>
       <c r="D83" t="n">
-        <v>0.457112</v>
+        <v>0.437567</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.520389</v>
+        <v>0.5018820000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.485637</v>
+        <v>0.47808</v>
       </c>
       <c r="D84" t="n">
-        <v>0.451394</v>
+        <v>0.43106</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.509752</v>
+        <v>0.491103</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478191</v>
+        <v>0.470047</v>
       </c>
       <c r="D85" t="n">
-        <v>0.446761</v>
+        <v>0.423048</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.499856</v>
+        <v>0.480969</v>
       </c>
       <c r="C86" t="n">
-        <v>0.470133</v>
+        <v>0.463324</v>
       </c>
       <c r="D86" t="n">
-        <v>0.437532</v>
+        <v>0.416156</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.490465</v>
+        <v>0.470897</v>
       </c>
       <c r="C87" t="n">
-        <v>0.464838</v>
+        <v>0.453855</v>
       </c>
       <c r="D87" t="n">
-        <v>0.433094</v>
+        <v>0.408206</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.480533</v>
+        <v>0.461158</v>
       </c>
       <c r="C88" t="n">
-        <v>0.45487</v>
+        <v>0.447281</v>
       </c>
       <c r="D88" t="n">
-        <v>0.425441</v>
+        <v>0.401886</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.470982</v>
+        <v>0.451662</v>
       </c>
       <c r="C89" t="n">
-        <v>0.448844</v>
+        <v>0.438763</v>
       </c>
       <c r="D89" t="n">
-        <v>0.419006</v>
+        <v>0.393987</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.461797</v>
+        <v>0.4428</v>
       </c>
       <c r="C90" t="n">
-        <v>0.441542</v>
+        <v>0.430729</v>
       </c>
       <c r="D90" t="n">
-        <v>0.413099</v>
+        <v>0.387083</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.453331</v>
+        <v>0.433825</v>
       </c>
       <c r="C91" t="n">
-        <v>0.435981</v>
+        <v>0.42465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40829</v>
+        <v>0.38253</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.445445</v>
+        <v>0.425892</v>
       </c>
       <c r="C92" t="n">
-        <v>0.432902</v>
+        <v>0.418879</v>
       </c>
       <c r="D92" t="n">
-        <v>0.40615</v>
+        <v>0.377732</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.43754</v>
+        <v>0.419057</v>
       </c>
       <c r="C93" t="n">
-        <v>0.426155</v>
+        <v>0.413991</v>
       </c>
       <c r="D93" t="n">
-        <v>0.402112</v>
+        <v>0.376226</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.432295</v>
+        <v>0.413792</v>
       </c>
       <c r="C94" t="n">
-        <v>0.427044</v>
+        <v>0.413273</v>
       </c>
       <c r="D94" t="n">
-        <v>0.706537</v>
+        <v>0.657153</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57173</v>
+        <v>0.54555</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6747339999999999</v>
+        <v>0.663837</v>
       </c>
       <c r="D95" t="n">
-        <v>0.700335</v>
+        <v>0.652485</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.566774</v>
+        <v>0.540083</v>
       </c>
       <c r="C96" t="n">
-        <v>0.67141</v>
+        <v>0.6592</v>
       </c>
       <c r="D96" t="n">
-        <v>0.69012</v>
+        <v>0.643242</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.55766</v>
+        <v>0.532425</v>
       </c>
       <c r="C97" t="n">
-        <v>0.664444</v>
+        <v>0.650155</v>
       </c>
       <c r="D97" t="n">
-        <v>0.680287</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5478420000000001</v>
+        <v>0.522031</v>
       </c>
       <c r="C98" t="n">
-        <v>0.655242</v>
+        <v>0.639832</v>
       </c>
       <c r="D98" t="n">
-        <v>0.671142</v>
+        <v>0.623458</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.53865</v>
+        <v>0.512554</v>
       </c>
       <c r="C99" t="n">
-        <v>0.647543</v>
+        <v>0.630138</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6648810000000001</v>
+        <v>0.613097</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.52973</v>
+        <v>0.502617</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6417659999999999</v>
+        <v>0.619151</v>
       </c>
       <c r="D100" t="n">
-        <v>0.656673</v>
+        <v>0.603804</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.521791</v>
+        <v>0.494312</v>
       </c>
       <c r="C101" t="n">
-        <v>0.635728</v>
+        <v>0.611117</v>
       </c>
       <c r="D101" t="n">
-        <v>0.648869</v>
+        <v>0.594569</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.51349</v>
+        <v>0.486905</v>
       </c>
       <c r="C102" t="n">
-        <v>0.628942</v>
+        <v>0.6024119999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.642805</v>
+        <v>0.58657</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50644</v>
+        <v>0.47949</v>
       </c>
       <c r="C103" t="n">
-        <v>0.624571</v>
+        <v>0.594483</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6366889999999999</v>
+        <v>0.578877</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.499186</v>
+        <v>0.471248</v>
       </c>
       <c r="C104" t="n">
-        <v>0.619831</v>
+        <v>0.586854</v>
       </c>
       <c r="D104" t="n">
-        <v>0.630938</v>
+        <v>0.57082</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.49271</v>
+        <v>0.464932</v>
       </c>
       <c r="C105" t="n">
-        <v>0.615017</v>
+        <v>0.578526</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6260019999999999</v>
+        <v>0.563794</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487458</v>
+        <v>0.459096</v>
       </c>
       <c r="C106" t="n">
-        <v>0.611167</v>
+        <v>0.57194</v>
       </c>
       <c r="D106" t="n">
-        <v>0.620296</v>
+        <v>0.558466</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.480983</v>
+        <v>0.453798</v>
       </c>
       <c r="C107" t="n">
-        <v>0.607538</v>
+        <v>0.567546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6165310000000001</v>
+        <v>0.553349</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.476667</v>
+        <v>0.449928</v>
       </c>
       <c r="C108" t="n">
-        <v>0.605164</v>
+        <v>0.564553</v>
       </c>
       <c r="D108" t="n">
-        <v>0.848745</v>
+        <v>0.768141</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.475289</v>
+        <v>0.449509</v>
       </c>
       <c r="C109" t="n">
-        <v>0.605617</v>
+        <v>0.563422</v>
       </c>
       <c r="D109" t="n">
-        <v>0.840706</v>
+        <v>0.7639280000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.676413</v>
+        <v>0.647941</v>
       </c>
       <c r="C110" t="n">
-        <v>0.85992</v>
+        <v>0.823366</v>
       </c>
       <c r="D110" t="n">
-        <v>0.830534</v>
+        <v>0.752514</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.665011</v>
+        <v>0.635944</v>
       </c>
       <c r="C111" t="n">
-        <v>0.848463</v>
+        <v>0.809671</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8201000000000001</v>
+        <v>0.742743</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.652756</v>
+        <v>0.6238590000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.837771</v>
+        <v>0.7964869999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.810001</v>
+        <v>0.735092</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.641478</v>
+        <v>0.612477</v>
       </c>
       <c r="C113" t="n">
-        <v>0.82834</v>
+        <v>0.7837229999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.802665</v>
+        <v>0.722811</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.630541</v>
+        <v>0.601206</v>
       </c>
       <c r="C114" t="n">
-        <v>0.819756</v>
+        <v>0.771209</v>
       </c>
       <c r="D114" t="n">
-        <v>0.795089</v>
+        <v>0.717247</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.620218</v>
+        <v>0.590641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.810495</v>
+        <v>0.759334</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7888540000000001</v>
+        <v>0.709793</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610361</v>
+        <v>0.581559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.803391</v>
+        <v>0.748982</v>
       </c>
       <c r="D116" t="n">
-        <v>0.782112</v>
+        <v>0.699809</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.601004</v>
+        <v>0.573078</v>
       </c>
       <c r="C117" t="n">
-        <v>0.796399</v>
+        <v>0.739274</v>
       </c>
       <c r="D117" t="n">
-        <v>0.777359</v>
+        <v>0.692699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5927750000000001</v>
+        <v>0.563653</v>
       </c>
       <c r="C118" t="n">
-        <v>0.790824</v>
+        <v>0.7305739999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.771522</v>
+        <v>0.686959</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.585114</v>
+        <v>0.556167</v>
       </c>
       <c r="C119" t="n">
-        <v>0.786158</v>
+        <v>0.7219370000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7669589999999999</v>
+        <v>0.6820040000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.578078</v>
+        <v>0.548808</v>
       </c>
       <c r="C120" t="n">
-        <v>0.782717</v>
+        <v>0.714738</v>
       </c>
       <c r="D120" t="n">
-        <v>0.762218</v>
+        <v>0.675373</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.570894</v>
+        <v>0.542968</v>
       </c>
       <c r="C121" t="n">
-        <v>0.777856</v>
+        <v>0.707198</v>
       </c>
       <c r="D121" t="n">
-        <v>0.757902</v>
+        <v>0.67133</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566098</v>
+        <v>0.537315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7765030000000001</v>
+        <v>0.700975</v>
       </c>
       <c r="D122" t="n">
-        <v>0.752858</v>
+        <v>0.668049</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5622</v>
+        <v>0.534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.775965</v>
+        <v>0.696369</v>
       </c>
       <c r="D123" t="n">
-        <v>0.968062</v>
+        <v>0.887335</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.763173</v>
+        <v>0.727586</v>
       </c>
       <c r="C124" t="n">
-        <v>1.02081</v>
+        <v>0.9509880000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9539339999999999</v>
+        <v>0.879355</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.753947</v>
+        <v>0.7174</v>
       </c>
       <c r="C125" t="n">
-        <v>1.00406</v>
+        <v>0.935111</v>
       </c>
       <c r="D125" t="n">
-        <v>0.939535</v>
+        <v>0.868662</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744052</v>
+        <v>0.7067290000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.990013</v>
+        <v>0.922355</v>
       </c>
       <c r="D126" t="n">
-        <v>0.931203</v>
+        <v>0.861659</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.734416</v>
+        <v>0.697088</v>
       </c>
       <c r="C127" t="n">
-        <v>0.979585</v>
+        <v>0.910476</v>
       </c>
       <c r="D127" t="n">
-        <v>0.922</v>
+        <v>0.855447</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.726208</v>
+        <v>0.688029</v>
       </c>
       <c r="C128" t="n">
-        <v>0.96878</v>
+        <v>0.897482</v>
       </c>
       <c r="D128" t="n">
-        <v>0.913678</v>
+        <v>0.851592</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717737</v>
+        <v>0.67984</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9587599999999999</v>
+        <v>0.887266</v>
       </c>
       <c r="D129" t="n">
-        <v>0.907326</v>
+        <v>0.845889</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.710414</v>
+        <v>0.6714059999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.949646</v>
+        <v>0.876544</v>
       </c>
       <c r="D130" t="n">
-        <v>0.900654</v>
+        <v>0.84253</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.702548</v>
+        <v>0.664257</v>
       </c>
       <c r="C131" t="n">
-        <v>0.942902</v>
+        <v>0.866969</v>
       </c>
       <c r="D131" t="n">
-        <v>0.895355</v>
+        <v>0.836087</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.695789</v>
+        <v>0.657893</v>
       </c>
       <c r="C132" t="n">
-        <v>0.936024</v>
+        <v>0.858815</v>
       </c>
       <c r="D132" t="n">
-        <v>0.890477</v>
+        <v>0.83072</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.689676</v>
+        <v>0.651752</v>
       </c>
       <c r="C133" t="n">
-        <v>0.930471</v>
+        <v>0.851389</v>
       </c>
       <c r="D133" t="n">
-        <v>0.886732</v>
+        <v>0.828954</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.68394</v>
+        <v>0.645136</v>
       </c>
       <c r="C134" t="n">
-        <v>0.926373</v>
+        <v>0.8433310000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.885103</v>
+        <v>0.8277330000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.679544</v>
+        <v>0.639745</v>
       </c>
       <c r="C135" t="n">
-        <v>0.922492</v>
+        <v>0.838344</v>
       </c>
       <c r="D135" t="n">
-        <v>0.883352</v>
+        <v>0.819736</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.674523</v>
+        <v>0.6355690000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.921884</v>
+        <v>0.832681</v>
       </c>
       <c r="D136" t="n">
-        <v>0.882919</v>
+        <v>0.817698</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.671544</v>
+        <v>0.631948</v>
       </c>
       <c r="C137" t="n">
-        <v>0.923014</v>
+        <v>0.829326</v>
       </c>
       <c r="D137" t="n">
-        <v>1.1014</v>
+        <v>1.03106</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860576</v>
+        <v>0.820752</v>
       </c>
       <c r="C138" t="n">
-        <v>1.1731</v>
+        <v>1.08565</v>
       </c>
       <c r="D138" t="n">
-        <v>1.08553</v>
+        <v>1.0252</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.851859</v>
+        <v>0.8116950000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>1.15356</v>
+        <v>1.07125</v>
       </c>
       <c r="D139" t="n">
-        <v>1.07073</v>
+        <v>1.01607</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.843997</v>
+        <v>0.8041</v>
       </c>
       <c r="C140" t="n">
-        <v>1.13818</v>
+        <v>1.05598</v>
       </c>
       <c r="D140" t="n">
-        <v>1.05724</v>
+        <v>1.00991</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.83657</v>
+        <v>0.796446</v>
       </c>
       <c r="C141" t="n">
-        <v>1.12259</v>
+        <v>1.0423</v>
       </c>
       <c r="D141" t="n">
-        <v>1.04502</v>
+        <v>1.00285</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.829723</v>
+        <v>0.789616</v>
       </c>
       <c r="C142" t="n">
-        <v>1.10755</v>
+        <v>1.03044</v>
       </c>
       <c r="D142" t="n">
-        <v>1.03425</v>
+        <v>0.996618</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.822838</v>
+        <v>0.782612</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09346</v>
+        <v>1.0181</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02553</v>
+        <v>0.990472</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246743</v>
+        <v>0.247133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286576</v>
+        <v>0.286432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250689</v>
+        <v>0.251042</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239911</v>
+        <v>0.240222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278799</v>
+        <v>0.278585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244934</v>
+        <v>0.245218</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233728</v>
+        <v>0.234108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.272389</v>
+        <v>0.271747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239447</v>
+        <v>0.239679</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22883</v>
+        <v>0.22876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.266811</v>
+        <v>0.266042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235742</v>
+        <v>0.23657</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223983</v>
+        <v>0.224223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26108</v>
+        <v>0.260502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232241</v>
+        <v>0.232977</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220337</v>
+        <v>0.220216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.256805</v>
+        <v>0.256323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230123</v>
+        <v>0.230553</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218455</v>
+        <v>0.218542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253579</v>
+        <v>0.253326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23022</v>
+        <v>0.230264</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217922</v>
+        <v>0.21787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.252672</v>
+        <v>0.251989</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321828</v>
+        <v>0.322703</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306093</v>
+        <v>0.306124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.362187</v>
+        <v>0.361721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.312403</v>
+        <v>0.313198</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296618</v>
+        <v>0.296032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.350877</v>
+        <v>0.348796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.303186</v>
+        <v>0.30377</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287303</v>
+        <v>0.28694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.339627</v>
+        <v>0.337785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294566</v>
+        <v>0.295019</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27841</v>
+        <v>0.278326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.329413</v>
+        <v>0.328485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286146</v>
+        <v>0.286887</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270137</v>
+        <v>0.270335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.31986</v>
+        <v>0.318302</v>
       </c>
       <c r="D14" t="n">
-        <v>0.278482</v>
+        <v>0.279193</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262373</v>
+        <v>0.262074</v>
       </c>
       <c r="C15" t="n">
-        <v>0.310305</v>
+        <v>0.308643</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271381</v>
+        <v>0.271744</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255269</v>
+        <v>0.255187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.30164</v>
+        <v>0.300074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26418</v>
+        <v>0.264653</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248439</v>
+        <v>0.248544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.293709</v>
+        <v>0.29336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.258345</v>
+        <v>0.258776</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242473</v>
+        <v>0.242503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.286393</v>
+        <v>0.286035</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252651</v>
+        <v>0.253286</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236805</v>
+        <v>0.236786</v>
       </c>
       <c r="C19" t="n">
-        <v>0.279854</v>
+        <v>0.27962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.248273</v>
+        <v>0.248527</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231979</v>
+        <v>0.232068</v>
       </c>
       <c r="C20" t="n">
-        <v>0.274038</v>
+        <v>0.27369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244599</v>
+        <v>0.245197</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227972</v>
+        <v>0.227889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.269583</v>
+        <v>0.269405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242487</v>
+        <v>0.243176</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225534</v>
+        <v>0.225435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.266587</v>
+        <v>0.266445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242533</v>
+        <v>0.24335</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224704</v>
+        <v>0.224688</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266185</v>
+        <v>0.266014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.335479</v>
+        <v>0.336022</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311967</v>
+        <v>0.311859</v>
       </c>
       <c r="C24" t="n">
-        <v>0.376581</v>
+        <v>0.376538</v>
       </c>
       <c r="D24" t="n">
-        <v>0.325413</v>
+        <v>0.326229</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303218</v>
+        <v>0.302651</v>
       </c>
       <c r="C25" t="n">
-        <v>0.365115</v>
+        <v>0.365027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.316572</v>
+        <v>0.316918</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293512</v>
+        <v>0.293404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.353918</v>
+        <v>0.353892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.307196</v>
+        <v>0.307792</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284657</v>
+        <v>0.284618</v>
       </c>
       <c r="C27" t="n">
-        <v>0.342997</v>
+        <v>0.343211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.298642</v>
+        <v>0.29959</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276267</v>
+        <v>0.276301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.332946</v>
+        <v>0.332569</v>
       </c>
       <c r="D28" t="n">
-        <v>0.290823</v>
+        <v>0.291563</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268492</v>
+        <v>0.268482</v>
       </c>
       <c r="C29" t="n">
-        <v>0.322717</v>
+        <v>0.323663</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283236</v>
+        <v>0.283873</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261039</v>
+        <v>0.261244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.31363</v>
+        <v>0.314411</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276029</v>
+        <v>0.276317</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254059</v>
+        <v>0.254279</v>
       </c>
       <c r="C31" t="n">
-        <v>0.305977</v>
+        <v>0.305552</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269757</v>
+        <v>0.269977</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247677</v>
+        <v>0.247989</v>
       </c>
       <c r="C32" t="n">
-        <v>0.298128</v>
+        <v>0.298105</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263728</v>
+        <v>0.263936</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241851</v>
+        <v>0.242054</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290784</v>
+        <v>0.290817</v>
       </c>
       <c r="D33" t="n">
-        <v>0.258303</v>
+        <v>0.258807</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236822</v>
+        <v>0.237106</v>
       </c>
       <c r="C34" t="n">
-        <v>0.284465</v>
+        <v>0.284631</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253957</v>
+        <v>0.254454</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232659</v>
+        <v>0.232896</v>
       </c>
       <c r="C35" t="n">
-        <v>0.278869</v>
+        <v>0.278909</v>
       </c>
       <c r="D35" t="n">
-        <v>0.251151</v>
+        <v>0.251518</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229808</v>
+        <v>0.229719</v>
       </c>
       <c r="C36" t="n">
-        <v>0.274962</v>
+        <v>0.275024</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250589</v>
+        <v>0.250728</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227681</v>
+        <v>0.228112</v>
       </c>
       <c r="C37" t="n">
-        <v>0.273108</v>
+        <v>0.272869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345271</v>
+        <v>0.345735</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.314967</v>
+        <v>0.315747</v>
       </c>
       <c r="C38" t="n">
-        <v>0.385778</v>
+        <v>0.38616</v>
       </c>
       <c r="D38" t="n">
-        <v>0.335622</v>
+        <v>0.336084</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305934</v>
+        <v>0.305894</v>
       </c>
       <c r="C39" t="n">
-        <v>0.374496</v>
+        <v>0.374735</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326349</v>
+        <v>0.326726</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297537</v>
+        <v>0.297022</v>
       </c>
       <c r="C40" t="n">
-        <v>0.363376</v>
+        <v>0.363522</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317388</v>
+        <v>0.317399</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288413</v>
+        <v>0.289103</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352566</v>
+        <v>0.352745</v>
       </c>
       <c r="D41" t="n">
-        <v>0.308891</v>
+        <v>0.309038</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281066</v>
+        <v>0.280718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34228</v>
+        <v>0.342552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.300982</v>
+        <v>0.300848</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272358</v>
+        <v>0.273266</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332879</v>
+        <v>0.332893</v>
       </c>
       <c r="D43" t="n">
-        <v>0.293397</v>
+        <v>0.293378</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26547</v>
+        <v>0.265287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.323705</v>
+        <v>0.323933</v>
       </c>
       <c r="D44" t="n">
-        <v>0.286443</v>
+        <v>0.286315</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25897</v>
+        <v>0.258455</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315646</v>
+        <v>0.315256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.280048</v>
+        <v>0.279777</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252016</v>
+        <v>0.253093</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307822</v>
+        <v>0.307629</v>
       </c>
       <c r="D46" t="n">
-        <v>0.27417</v>
+        <v>0.274024</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.247159</v>
+        <v>0.246584</v>
       </c>
       <c r="C47" t="n">
-        <v>0.300876</v>
+        <v>0.300534</v>
       </c>
       <c r="D47" t="n">
-        <v>0.26909</v>
+        <v>0.26901</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241278</v>
+        <v>0.242169</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294541</v>
+        <v>0.294097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.264803</v>
+        <v>0.264615</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237844</v>
+        <v>0.23794</v>
       </c>
       <c r="C49" t="n">
-        <v>0.28897</v>
+        <v>0.28893</v>
       </c>
       <c r="D49" t="n">
-        <v>0.261787</v>
+        <v>0.261578</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233566</v>
+        <v>0.23342</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285134</v>
+        <v>0.284592</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260384</v>
+        <v>0.260166</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231716</v>
+        <v>0.232502</v>
       </c>
       <c r="C51" t="n">
-        <v>0.282611</v>
+        <v>0.282204</v>
       </c>
       <c r="D51" t="n">
-        <v>0.357813</v>
+        <v>0.359171</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.233015</v>
+        <v>0.23249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282933</v>
+        <v>0.282597</v>
       </c>
       <c r="D52" t="n">
-        <v>0.348953</v>
+        <v>0.34953</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319531</v>
+        <v>0.320441</v>
       </c>
       <c r="C53" t="n">
-        <v>0.388633</v>
+        <v>0.388689</v>
       </c>
       <c r="D53" t="n">
-        <v>0.340012</v>
+        <v>0.340171</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310395</v>
+        <v>0.311198</v>
       </c>
       <c r="C54" t="n">
-        <v>0.377327</v>
+        <v>0.377358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.330998</v>
+        <v>0.331309</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301714</v>
+        <v>0.302832</v>
       </c>
       <c r="C55" t="n">
-        <v>0.36629</v>
+        <v>0.366325</v>
       </c>
       <c r="D55" t="n">
-        <v>0.322445</v>
+        <v>0.322803</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293509</v>
+        <v>0.294801</v>
       </c>
       <c r="C56" t="n">
-        <v>0.356346</v>
+        <v>0.356502</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31448</v>
+        <v>0.315034</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285904</v>
+        <v>0.287089</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346778</v>
+        <v>0.346987</v>
       </c>
       <c r="D57" t="n">
-        <v>0.307074</v>
+        <v>0.307539</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278813</v>
+        <v>0.279963</v>
       </c>
       <c r="C58" t="n">
-        <v>0.337637</v>
+        <v>0.337822</v>
       </c>
       <c r="D58" t="n">
-        <v>0.300085</v>
+        <v>0.300371</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272009</v>
+        <v>0.273302</v>
       </c>
       <c r="C59" t="n">
-        <v>0.329052</v>
+        <v>0.32935</v>
       </c>
       <c r="D59" t="n">
-        <v>0.293448</v>
+        <v>0.293924</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265708</v>
+        <v>0.266924</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321231</v>
+        <v>0.321626</v>
       </c>
       <c r="D60" t="n">
-        <v>0.287606</v>
+        <v>0.288014</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260097</v>
+        <v>0.26127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.313868</v>
+        <v>0.314453</v>
       </c>
       <c r="D61" t="n">
-        <v>0.282014</v>
+        <v>0.282987</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254865</v>
+        <v>0.256158</v>
       </c>
       <c r="C62" t="n">
-        <v>0.307432</v>
+        <v>0.308067</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27778</v>
+        <v>0.278505</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250622</v>
+        <v>0.251387</v>
       </c>
       <c r="C63" t="n">
-        <v>0.301807</v>
+        <v>0.30233</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274471</v>
+        <v>0.275208</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247251</v>
+        <v>0.247899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.29749</v>
+        <v>0.297842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.272947</v>
+        <v>0.273387</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245185</v>
+        <v>0.245694</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294609</v>
+        <v>0.294959</v>
       </c>
       <c r="D65" t="n">
-        <v>0.27379</v>
+        <v>0.274273</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.24491</v>
+        <v>0.245647</v>
       </c>
       <c r="C66" t="n">
-        <v>0.294566</v>
+        <v>0.294942</v>
       </c>
       <c r="D66" t="n">
-        <v>0.383013</v>
+        <v>0.3839</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378243</v>
+        <v>0.377588</v>
       </c>
       <c r="C67" t="n">
-        <v>0.426594</v>
+        <v>0.426734</v>
       </c>
       <c r="D67" t="n">
-        <v>0.372172</v>
+        <v>0.374296</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.369482</v>
+        <v>0.370085</v>
       </c>
       <c r="C68" t="n">
-        <v>0.414467</v>
+        <v>0.415762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3629</v>
+        <v>0.365442</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.361723</v>
+        <v>0.362841</v>
       </c>
       <c r="C69" t="n">
-        <v>0.403712</v>
+        <v>0.40521</v>
       </c>
       <c r="D69" t="n">
-        <v>0.354372</v>
+        <v>0.357073</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.354813</v>
+        <v>0.356356</v>
       </c>
       <c r="C70" t="n">
-        <v>0.393209</v>
+        <v>0.395054</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346095</v>
+        <v>0.348712</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348088</v>
+        <v>0.349738</v>
       </c>
       <c r="C71" t="n">
-        <v>0.383427</v>
+        <v>0.385082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338298</v>
+        <v>0.340956</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.341828</v>
+        <v>0.34365</v>
       </c>
       <c r="C72" t="n">
-        <v>0.374074</v>
+        <v>0.37563</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33093</v>
+        <v>0.33358</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.335648</v>
+        <v>0.337295</v>
       </c>
       <c r="C73" t="n">
-        <v>0.365113</v>
+        <v>0.36655</v>
       </c>
       <c r="D73" t="n">
-        <v>0.32397</v>
+        <v>0.32665</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.32929</v>
+        <v>0.330841</v>
       </c>
       <c r="C74" t="n">
-        <v>0.356647</v>
+        <v>0.358178</v>
       </c>
       <c r="D74" t="n">
-        <v>0.317521</v>
+        <v>0.319926</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.323257</v>
+        <v>0.324728</v>
       </c>
       <c r="C75" t="n">
-        <v>0.348896</v>
+        <v>0.350299</v>
       </c>
       <c r="D75" t="n">
-        <v>0.311664</v>
+        <v>0.314057</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317435</v>
+        <v>0.318584</v>
       </c>
       <c r="C76" t="n">
-        <v>0.341908</v>
+        <v>0.343067</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306719</v>
+        <v>0.30887</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312028</v>
+        <v>0.312994</v>
       </c>
       <c r="C77" t="n">
-        <v>0.33525</v>
+        <v>0.336574</v>
       </c>
       <c r="D77" t="n">
-        <v>0.302616</v>
+        <v>0.304723</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306998</v>
+        <v>0.307883</v>
       </c>
       <c r="C78" t="n">
-        <v>0.330039</v>
+        <v>0.331487</v>
       </c>
       <c r="D78" t="n">
-        <v>0.300024</v>
+        <v>0.301998</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.30308</v>
+        <v>0.304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326485</v>
+        <v>0.327784</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299674</v>
+        <v>0.301536</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300909</v>
+        <v>0.301844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.324864</v>
+        <v>0.326376</v>
       </c>
       <c r="D80" t="n">
-        <v>0.449527</v>
+        <v>0.45061</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5327</v>
+        <v>0.534477</v>
       </c>
       <c r="C81" t="n">
-        <v>0.495086</v>
+        <v>0.495187</v>
       </c>
       <c r="D81" t="n">
-        <v>0.447859</v>
+        <v>0.447658</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523339</v>
+        <v>0.526297</v>
       </c>
       <c r="C82" t="n">
-        <v>0.492722</v>
+        <v>0.492607</v>
       </c>
       <c r="D82" t="n">
-        <v>0.44375</v>
+        <v>0.443916</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512951</v>
+        <v>0.515004</v>
       </c>
       <c r="C83" t="n">
-        <v>0.485289</v>
+        <v>0.486243</v>
       </c>
       <c r="D83" t="n">
-        <v>0.437567</v>
+        <v>0.437241</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5018820000000001</v>
+        <v>0.504203</v>
       </c>
       <c r="C84" t="n">
-        <v>0.47808</v>
+        <v>0.478556</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43106</v>
+        <v>0.43123</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491103</v>
+        <v>0.494139</v>
       </c>
       <c r="C85" t="n">
-        <v>0.470047</v>
+        <v>0.471108</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423048</v>
+        <v>0.424558</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.480969</v>
+        <v>0.483476</v>
       </c>
       <c r="C86" t="n">
-        <v>0.463324</v>
+        <v>0.461826</v>
       </c>
       <c r="D86" t="n">
-        <v>0.416156</v>
+        <v>0.415257</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.470897</v>
+        <v>0.473206</v>
       </c>
       <c r="C87" t="n">
-        <v>0.453855</v>
+        <v>0.453407</v>
       </c>
       <c r="D87" t="n">
-        <v>0.408206</v>
+        <v>0.407665</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461158</v>
+        <v>0.463344</v>
       </c>
       <c r="C88" t="n">
-        <v>0.447281</v>
+        <v>0.445548</v>
       </c>
       <c r="D88" t="n">
-        <v>0.401886</v>
+        <v>0.400939</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.451662</v>
+        <v>0.454038</v>
       </c>
       <c r="C89" t="n">
-        <v>0.438763</v>
+        <v>0.438637</v>
       </c>
       <c r="D89" t="n">
-        <v>0.393987</v>
+        <v>0.394248</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4428</v>
+        <v>0.444821</v>
       </c>
       <c r="C90" t="n">
-        <v>0.430729</v>
+        <v>0.430915</v>
       </c>
       <c r="D90" t="n">
-        <v>0.387083</v>
+        <v>0.387315</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.433825</v>
+        <v>0.43609</v>
       </c>
       <c r="C91" t="n">
-        <v>0.42465</v>
+        <v>0.425147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38253</v>
+        <v>0.381948</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.425892</v>
+        <v>0.428212</v>
       </c>
       <c r="C92" t="n">
-        <v>0.418879</v>
+        <v>0.419583</v>
       </c>
       <c r="D92" t="n">
-        <v>0.377732</v>
+        <v>0.378053</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419057</v>
+        <v>0.421426</v>
       </c>
       <c r="C93" t="n">
-        <v>0.413991</v>
+        <v>0.415005</v>
       </c>
       <c r="D93" t="n">
-        <v>0.376226</v>
+        <v>0.376425</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413792</v>
+        <v>0.416079</v>
       </c>
       <c r="C94" t="n">
-        <v>0.413273</v>
+        <v>0.411871</v>
       </c>
       <c r="D94" t="n">
-        <v>0.657153</v>
+        <v>0.657956</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54555</v>
+        <v>0.545661</v>
       </c>
       <c r="C95" t="n">
-        <v>0.663837</v>
+        <v>0.664592</v>
       </c>
       <c r="D95" t="n">
-        <v>0.652485</v>
+        <v>0.654067</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.540083</v>
+        <v>0.540628</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6592</v>
+        <v>0.6596959999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.643242</v>
+        <v>0.645041</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532425</v>
+        <v>0.532246</v>
       </c>
       <c r="C97" t="n">
-        <v>0.650155</v>
+        <v>0.650718</v>
       </c>
       <c r="D97" t="n">
-        <v>0.634</v>
+        <v>0.635341</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.522031</v>
+        <v>0.521763</v>
       </c>
       <c r="C98" t="n">
-        <v>0.639832</v>
+        <v>0.639548</v>
       </c>
       <c r="D98" t="n">
-        <v>0.623458</v>
+        <v>0.624893</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.512554</v>
+        <v>0.512628</v>
       </c>
       <c r="C99" t="n">
-        <v>0.630138</v>
+        <v>0.62942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.613097</v>
+        <v>0.614997</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502617</v>
+        <v>0.503428</v>
       </c>
       <c r="C100" t="n">
-        <v>0.619151</v>
+        <v>0.618743</v>
       </c>
       <c r="D100" t="n">
-        <v>0.603804</v>
+        <v>0.60527</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.494312</v>
+        <v>0.494509</v>
       </c>
       <c r="C101" t="n">
-        <v>0.611117</v>
+        <v>0.610253</v>
       </c>
       <c r="D101" t="n">
-        <v>0.594569</v>
+        <v>0.595913</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486905</v>
+        <v>0.486559</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6024119999999999</v>
+        <v>0.60145</v>
       </c>
       <c r="D102" t="n">
-        <v>0.58657</v>
+        <v>0.587968</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.47949</v>
+        <v>0.478948</v>
       </c>
       <c r="C103" t="n">
-        <v>0.594483</v>
+        <v>0.592684</v>
       </c>
       <c r="D103" t="n">
-        <v>0.578877</v>
+        <v>0.578949</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.471248</v>
+        <v>0.471834</v>
       </c>
       <c r="C104" t="n">
-        <v>0.586854</v>
+        <v>0.586243</v>
       </c>
       <c r="D104" t="n">
-        <v>0.57082</v>
+        <v>0.572139</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.464932</v>
+        <v>0.465838</v>
       </c>
       <c r="C105" t="n">
-        <v>0.578526</v>
+        <v>0.579369</v>
       </c>
       <c r="D105" t="n">
-        <v>0.563794</v>
+        <v>0.565597</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459096</v>
+        <v>0.459411</v>
       </c>
       <c r="C106" t="n">
-        <v>0.57194</v>
+        <v>0.572941</v>
       </c>
       <c r="D106" t="n">
-        <v>0.558466</v>
+        <v>0.5595250000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.453798</v>
+        <v>0.454577</v>
       </c>
       <c r="C107" t="n">
-        <v>0.567546</v>
+        <v>0.567304</v>
       </c>
       <c r="D107" t="n">
-        <v>0.553349</v>
+        <v>0.555417</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.449928</v>
+        <v>0.450973</v>
       </c>
       <c r="C108" t="n">
-        <v>0.564553</v>
+        <v>0.563975</v>
       </c>
       <c r="D108" t="n">
-        <v>0.768141</v>
+        <v>0.764699</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449509</v>
+        <v>0.449974</v>
       </c>
       <c r="C109" t="n">
-        <v>0.563422</v>
+        <v>0.562963</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7639280000000001</v>
+        <v>0.760938</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.647941</v>
+        <v>0.649045</v>
       </c>
       <c r="C110" t="n">
-        <v>0.823366</v>
+        <v>0.822383</v>
       </c>
       <c r="D110" t="n">
-        <v>0.752514</v>
+        <v>0.750288</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.635944</v>
+        <v>0.636304</v>
       </c>
       <c r="C111" t="n">
-        <v>0.809671</v>
+        <v>0.808709</v>
       </c>
       <c r="D111" t="n">
-        <v>0.742743</v>
+        <v>0.741212</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6238590000000001</v>
+        <v>0.624302</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7964869999999999</v>
+        <v>0.795056</v>
       </c>
       <c r="D112" t="n">
-        <v>0.735092</v>
+        <v>0.731553</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612477</v>
+        <v>0.612199</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7837229999999999</v>
+        <v>0.781372</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722811</v>
+        <v>0.722386</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601206</v>
+        <v>0.601701</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771209</v>
+        <v>0.769941</v>
       </c>
       <c r="D114" t="n">
-        <v>0.717247</v>
+        <v>0.713877</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590641</v>
+        <v>0.590733</v>
       </c>
       <c r="C115" t="n">
-        <v>0.759334</v>
+        <v>0.758034</v>
       </c>
       <c r="D115" t="n">
-        <v>0.709793</v>
+        <v>0.706283</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.581559</v>
+        <v>0.580741</v>
       </c>
       <c r="C116" t="n">
-        <v>0.748982</v>
+        <v>0.7470830000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.699809</v>
+        <v>0.6987100000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.573078</v>
+        <v>0.571859</v>
       </c>
       <c r="C117" t="n">
-        <v>0.739274</v>
+        <v>0.737587</v>
       </c>
       <c r="D117" t="n">
-        <v>0.692699</v>
+        <v>0.6909110000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.563653</v>
+        <v>0.5626060000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7305739999999999</v>
+        <v>0.727683</v>
       </c>
       <c r="D118" t="n">
-        <v>0.686959</v>
+        <v>0.684747</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.556167</v>
+        <v>0.554906</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7219370000000001</v>
+        <v>0.718925</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6820040000000001</v>
+        <v>0.67802</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.548808</v>
+        <v>0.547659</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714738</v>
+        <v>0.711106</v>
       </c>
       <c r="D120" t="n">
-        <v>0.675373</v>
+        <v>0.672275</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.542968</v>
+        <v>0.541009</v>
       </c>
       <c r="C121" t="n">
-        <v>0.707198</v>
+        <v>0.704584</v>
       </c>
       <c r="D121" t="n">
-        <v>0.67133</v>
+        <v>0.668171</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.537315</v>
+        <v>0.53552</v>
       </c>
       <c r="C122" t="n">
-        <v>0.700975</v>
+        <v>0.698847</v>
       </c>
       <c r="D122" t="n">
-        <v>0.668049</v>
+        <v>0.6656840000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.534</v>
+        <v>0.532421</v>
       </c>
       <c r="C123" t="n">
-        <v>0.696369</v>
+        <v>0.695721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.887335</v>
+        <v>0.880726</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727586</v>
+        <v>0.72484</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9509880000000001</v>
+        <v>0.948953</v>
       </c>
       <c r="D124" t="n">
-        <v>0.879355</v>
+        <v>0.87462</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7174</v>
+        <v>0.714947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.935111</v>
+        <v>0.9337299999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.868662</v>
+        <v>0.865812</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7067290000000001</v>
+        <v>0.70513</v>
       </c>
       <c r="C126" t="n">
-        <v>0.922355</v>
+        <v>0.92057</v>
       </c>
       <c r="D126" t="n">
-        <v>0.861659</v>
+        <v>0.860506</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697088</v>
+        <v>0.6952469999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.910476</v>
+        <v>0.908218</v>
       </c>
       <c r="D127" t="n">
-        <v>0.855447</v>
+        <v>0.853444</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688029</v>
+        <v>0.686625</v>
       </c>
       <c r="C128" t="n">
-        <v>0.897482</v>
+        <v>0.896146</v>
       </c>
       <c r="D128" t="n">
-        <v>0.851592</v>
+        <v>0.847921</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.67984</v>
+        <v>0.678469</v>
       </c>
       <c r="C129" t="n">
-        <v>0.887266</v>
+        <v>0.886309</v>
       </c>
       <c r="D129" t="n">
-        <v>0.845889</v>
+        <v>0.842426</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6714059999999999</v>
+        <v>0.6702630000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.876544</v>
+        <v>0.875454</v>
       </c>
       <c r="D130" t="n">
-        <v>0.84253</v>
+        <v>0.835761</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.664257</v>
+        <v>0.66278</v>
       </c>
       <c r="C131" t="n">
-        <v>0.866969</v>
+        <v>0.866753</v>
       </c>
       <c r="D131" t="n">
-        <v>0.836087</v>
+        <v>0.83321</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.657893</v>
+        <v>0.656273</v>
       </c>
       <c r="C132" t="n">
-        <v>0.858815</v>
+        <v>0.856992</v>
       </c>
       <c r="D132" t="n">
-        <v>0.83072</v>
+        <v>0.829575</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.651752</v>
+        <v>0.6495919999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.851389</v>
+        <v>0.849526</v>
       </c>
       <c r="D133" t="n">
-        <v>0.828954</v>
+        <v>0.826389</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.645136</v>
+        <v>0.643871</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8433310000000001</v>
+        <v>0.842412</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8277330000000001</v>
+        <v>0.823089</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.639745</v>
+        <v>0.6394300000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.838344</v>
+        <v>0.837377</v>
       </c>
       <c r="D135" t="n">
-        <v>0.819736</v>
+        <v>0.819448</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6355690000000001</v>
+        <v>0.634722</v>
       </c>
       <c r="C136" t="n">
-        <v>0.832681</v>
+        <v>0.831859</v>
       </c>
       <c r="D136" t="n">
-        <v>0.817698</v>
+        <v>0.815021</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.631948</v>
+        <v>0.631301</v>
       </c>
       <c r="C137" t="n">
-        <v>0.829326</v>
+        <v>0.827842</v>
       </c>
       <c r="D137" t="n">
-        <v>1.03106</v>
+        <v>1.03003</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.820752</v>
+        <v>0.819295</v>
       </c>
       <c r="C138" t="n">
-        <v>1.08565</v>
+        <v>1.08428</v>
       </c>
       <c r="D138" t="n">
-        <v>1.0252</v>
+        <v>1.02206</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8116950000000001</v>
+        <v>0.811113</v>
       </c>
       <c r="C139" t="n">
-        <v>1.07125</v>
+        <v>1.06818</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01607</v>
+        <v>1.01586</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8041</v>
+        <v>0.8025330000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>1.05598</v>
+        <v>1.05544</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00991</v>
+        <v>1.00787</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796446</v>
+        <v>0.794948</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0423</v>
+        <v>1.04193</v>
       </c>
       <c r="D141" t="n">
-        <v>1.00285</v>
+        <v>1.00124</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.789616</v>
+        <v>0.7878230000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03044</v>
+        <v>1.02817</v>
       </c>
       <c r="D142" t="n">
-        <v>0.996618</v>
+        <v>0.994779</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.782612</v>
+        <v>0.779022</v>
       </c>
       <c r="C143" t="n">
-        <v>1.0181</v>
+        <v>1.01606</v>
       </c>
       <c r="D143" t="n">
-        <v>0.990472</v>
+        <v>0.98905</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247133</v>
+        <v>0.246823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286432</v>
+        <v>0.250532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251042</v>
+        <v>0.220431</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240222</v>
+        <v>0.239894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278585</v>
+        <v>0.242952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245218</v>
+        <v>0.214585</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234108</v>
+        <v>0.233995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.271747</v>
+        <v>0.236496</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239679</v>
+        <v>0.209726</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22876</v>
+        <v>0.228851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.266042</v>
+        <v>0.230556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23657</v>
+        <v>0.206223</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224223</v>
+        <v>0.224059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260502</v>
+        <v>0.225265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232977</v>
+        <v>0.202977</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220216</v>
+        <v>0.220468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.256323</v>
+        <v>0.221638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230553</v>
+        <v>0.201222</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218542</v>
+        <v>0.218435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253326</v>
+        <v>0.219139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230264</v>
+        <v>0.201673</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21787</v>
+        <v>0.217741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.251989</v>
+        <v>0.219044</v>
       </c>
       <c r="D9" t="n">
-        <v>0.322703</v>
+        <v>0.293881</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306124</v>
+        <v>0.305892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.361721</v>
+        <v>0.3295</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313198</v>
+        <v>0.284296</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296032</v>
+        <v>0.296241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.348796</v>
+        <v>0.318211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.30377</v>
+        <v>0.274609</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28694</v>
+        <v>0.287248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.337785</v>
+        <v>0.30717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.295019</v>
+        <v>0.266031</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278326</v>
+        <v>0.278366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.328485</v>
+        <v>0.296743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286887</v>
+        <v>0.257435</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270335</v>
+        <v>0.27007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.318302</v>
+        <v>0.287258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279193</v>
+        <v>0.249927</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262074</v>
+        <v>0.262158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.308643</v>
+        <v>0.27829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271744</v>
+        <v>0.24322</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255187</v>
+        <v>0.255106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.300074</v>
+        <v>0.268927</v>
       </c>
       <c r="D16" t="n">
-        <v>0.264653</v>
+        <v>0.236278</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248544</v>
+        <v>0.248356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.29336</v>
+        <v>0.261208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.258776</v>
+        <v>0.230312</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242503</v>
+        <v>0.242319</v>
       </c>
       <c r="C18" t="n">
-        <v>0.286035</v>
+        <v>0.253863</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253286</v>
+        <v>0.224982</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236786</v>
+        <v>0.236722</v>
       </c>
       <c r="C19" t="n">
-        <v>0.27962</v>
+        <v>0.247556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.248527</v>
+        <v>0.220856</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232068</v>
+        <v>0.231936</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27369</v>
+        <v>0.242035</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245197</v>
+        <v>0.21744</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227889</v>
+        <v>0.227885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.269405</v>
+        <v>0.237967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243176</v>
+        <v>0.215671</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225435</v>
+        <v>0.225391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.266445</v>
+        <v>0.235097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24335</v>
+        <v>0.215929</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224688</v>
+        <v>0.224537</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266014</v>
+        <v>0.234614</v>
       </c>
       <c r="D23" t="n">
-        <v>0.336022</v>
+        <v>0.307915</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311859</v>
+        <v>0.311596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.376538</v>
+        <v>0.344578</v>
       </c>
       <c r="D24" t="n">
-        <v>0.326229</v>
+        <v>0.298005</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302651</v>
+        <v>0.302277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.365027</v>
+        <v>0.333091</v>
       </c>
       <c r="D25" t="n">
-        <v>0.316918</v>
+        <v>0.288408</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293404</v>
+        <v>0.293078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.353892</v>
+        <v>0.321916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.307792</v>
+        <v>0.27935</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284618</v>
+        <v>0.284352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343211</v>
+        <v>0.311215</v>
       </c>
       <c r="D27" t="n">
-        <v>0.29959</v>
+        <v>0.270936</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276301</v>
+        <v>0.275983</v>
       </c>
       <c r="C28" t="n">
-        <v>0.332569</v>
+        <v>0.301258</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291563</v>
+        <v>0.263194</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268482</v>
+        <v>0.268152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.323663</v>
+        <v>0.290557</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283873</v>
+        <v>0.255361</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261244</v>
+        <v>0.2608</v>
       </c>
       <c r="C30" t="n">
-        <v>0.314411</v>
+        <v>0.282688</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276317</v>
+        <v>0.248462</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254279</v>
+        <v>0.253805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.305552</v>
+        <v>0.273248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269977</v>
+        <v>0.241968</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247989</v>
+        <v>0.247413</v>
       </c>
       <c r="C32" t="n">
-        <v>0.298105</v>
+        <v>0.266484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263936</v>
+        <v>0.235672</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242054</v>
+        <v>0.241586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290817</v>
+        <v>0.259298</v>
       </c>
       <c r="D33" t="n">
-        <v>0.258807</v>
+        <v>0.230602</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237106</v>
+        <v>0.236463</v>
       </c>
       <c r="C34" t="n">
-        <v>0.284631</v>
+        <v>0.253044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254454</v>
+        <v>0.22649</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232896</v>
+        <v>0.23238</v>
       </c>
       <c r="C35" t="n">
-        <v>0.278909</v>
+        <v>0.246426</v>
       </c>
       <c r="D35" t="n">
-        <v>0.251518</v>
+        <v>0.223214</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229719</v>
+        <v>0.229558</v>
       </c>
       <c r="C36" t="n">
-        <v>0.275024</v>
+        <v>0.243596</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250728</v>
+        <v>0.222263</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228112</v>
+        <v>0.227665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272869</v>
+        <v>0.240745</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345735</v>
+        <v>0.31686</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315747</v>
+        <v>0.316</v>
       </c>
       <c r="C38" t="n">
-        <v>0.38616</v>
+        <v>0.353991</v>
       </c>
       <c r="D38" t="n">
-        <v>0.336084</v>
+        <v>0.306969</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305894</v>
+        <v>0.306017</v>
       </c>
       <c r="C39" t="n">
-        <v>0.374735</v>
+        <v>0.342537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326726</v>
+        <v>0.297409</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297022</v>
+        <v>0.297328</v>
       </c>
       <c r="C40" t="n">
-        <v>0.363522</v>
+        <v>0.331407</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317399</v>
+        <v>0.288407</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289103</v>
+        <v>0.288282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352745</v>
+        <v>0.320487</v>
       </c>
       <c r="D41" t="n">
-        <v>0.309038</v>
+        <v>0.279747</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280718</v>
+        <v>0.280835</v>
       </c>
       <c r="C42" t="n">
-        <v>0.342552</v>
+        <v>0.310132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.300848</v>
+        <v>0.271783</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273266</v>
+        <v>0.272375</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332893</v>
+        <v>0.301103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.293378</v>
+        <v>0.263847</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265287</v>
+        <v>0.265311</v>
       </c>
       <c r="C44" t="n">
-        <v>0.323933</v>
+        <v>0.291932</v>
       </c>
       <c r="D44" t="n">
-        <v>0.286315</v>
+        <v>0.256605</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258455</v>
+        <v>0.257895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315256</v>
+        <v>0.283522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.279777</v>
+        <v>0.25037</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253093</v>
+        <v>0.252217</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307629</v>
+        <v>0.27603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.274024</v>
+        <v>0.244187</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246584</v>
+        <v>0.245885</v>
       </c>
       <c r="C47" t="n">
-        <v>0.300534</v>
+        <v>0.26882</v>
       </c>
       <c r="D47" t="n">
-        <v>0.26901</v>
+        <v>0.23894</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242169</v>
+        <v>0.241244</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294097</v>
+        <v>0.262467</v>
       </c>
       <c r="D48" t="n">
-        <v>0.264615</v>
+        <v>0.23446</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23794</v>
+        <v>0.236522</v>
       </c>
       <c r="C49" t="n">
-        <v>0.28893</v>
+        <v>0.257159</v>
       </c>
       <c r="D49" t="n">
-        <v>0.261578</v>
+        <v>0.231436</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23342</v>
+        <v>0.233208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.284592</v>
+        <v>0.25286</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260166</v>
+        <v>0.229875</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232502</v>
+        <v>0.231761</v>
       </c>
       <c r="C51" t="n">
-        <v>0.282204</v>
+        <v>0.249576</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359171</v>
+        <v>0.328519</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23249</v>
+        <v>0.231547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282597</v>
+        <v>0.24971</v>
       </c>
       <c r="D52" t="n">
-        <v>0.34953</v>
+        <v>0.318467</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.320441</v>
+        <v>0.317695</v>
       </c>
       <c r="C53" t="n">
-        <v>0.388689</v>
+        <v>0.355716</v>
       </c>
       <c r="D53" t="n">
-        <v>0.340171</v>
+        <v>0.308859</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311198</v>
+        <v>0.308907</v>
       </c>
       <c r="C54" t="n">
-        <v>0.377358</v>
+        <v>0.344333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.331309</v>
+        <v>0.299861</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302832</v>
+        <v>0.300558</v>
       </c>
       <c r="C55" t="n">
-        <v>0.366325</v>
+        <v>0.333804</v>
       </c>
       <c r="D55" t="n">
-        <v>0.322803</v>
+        <v>0.29125</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294801</v>
+        <v>0.293143</v>
       </c>
       <c r="C56" t="n">
-        <v>0.356502</v>
+        <v>0.323695</v>
       </c>
       <c r="D56" t="n">
-        <v>0.315034</v>
+        <v>0.283123</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.287089</v>
+        <v>0.285516</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346987</v>
+        <v>0.314219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.307539</v>
+        <v>0.275406</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279963</v>
+        <v>0.277961</v>
       </c>
       <c r="C58" t="n">
-        <v>0.337822</v>
+        <v>0.305167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.300371</v>
+        <v>0.268176</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273302</v>
+        <v>0.271595</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32935</v>
+        <v>0.296922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.293924</v>
+        <v>0.261529</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266924</v>
+        <v>0.265588</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321626</v>
+        <v>0.289071</v>
       </c>
       <c r="D60" t="n">
-        <v>0.288014</v>
+        <v>0.25556</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26127</v>
+        <v>0.259834</v>
       </c>
       <c r="C61" t="n">
-        <v>0.314453</v>
+        <v>0.281857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.282987</v>
+        <v>0.250258</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256158</v>
+        <v>0.254477</v>
       </c>
       <c r="C62" t="n">
-        <v>0.308067</v>
+        <v>0.275424</v>
       </c>
       <c r="D62" t="n">
-        <v>0.278505</v>
+        <v>0.245564</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251387</v>
+        <v>0.250122</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30233</v>
+        <v>0.269626</v>
       </c>
       <c r="D63" t="n">
-        <v>0.275208</v>
+        <v>0.242049</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247899</v>
+        <v>0.246448</v>
       </c>
       <c r="C64" t="n">
-        <v>0.297842</v>
+        <v>0.265037</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273387</v>
+        <v>0.240137</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245694</v>
+        <v>0.244411</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294959</v>
+        <v>0.261836</v>
       </c>
       <c r="D65" t="n">
-        <v>0.274273</v>
+        <v>0.240723</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245647</v>
+        <v>0.244054</v>
       </c>
       <c r="C66" t="n">
-        <v>0.294942</v>
+        <v>0.261198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3839</v>
+        <v>0.350031</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.377588</v>
+        <v>0.378535</v>
       </c>
       <c r="C67" t="n">
-        <v>0.426734</v>
+        <v>0.392269</v>
       </c>
       <c r="D67" t="n">
-        <v>0.374296</v>
+        <v>0.340303</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.370085</v>
+        <v>0.370649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.415762</v>
+        <v>0.380806</v>
       </c>
       <c r="D68" t="n">
-        <v>0.365442</v>
+        <v>0.330924</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362841</v>
+        <v>0.36348</v>
       </c>
       <c r="C69" t="n">
-        <v>0.40521</v>
+        <v>0.369828</v>
       </c>
       <c r="D69" t="n">
-        <v>0.357073</v>
+        <v>0.322249</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.356356</v>
+        <v>0.356712</v>
       </c>
       <c r="C70" t="n">
-        <v>0.395054</v>
+        <v>0.35922</v>
       </c>
       <c r="D70" t="n">
-        <v>0.348712</v>
+        <v>0.313844</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349738</v>
+        <v>0.3504</v>
       </c>
       <c r="C71" t="n">
-        <v>0.385082</v>
+        <v>0.34915</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340956</v>
+        <v>0.3059</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.34365</v>
+        <v>0.344004</v>
       </c>
       <c r="C72" t="n">
-        <v>0.37563</v>
+        <v>0.339593</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33358</v>
+        <v>0.298087</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337295</v>
+        <v>0.337671</v>
       </c>
       <c r="C73" t="n">
-        <v>0.36655</v>
+        <v>0.330385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.32665</v>
+        <v>0.29096</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.330841</v>
+        <v>0.331468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.358178</v>
+        <v>0.321844</v>
       </c>
       <c r="D74" t="n">
-        <v>0.319926</v>
+        <v>0.284257</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324728</v>
+        <v>0.324887</v>
       </c>
       <c r="C75" t="n">
-        <v>0.350299</v>
+        <v>0.31392</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314057</v>
+        <v>0.278258</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318584</v>
+        <v>0.318835</v>
       </c>
       <c r="C76" t="n">
-        <v>0.343067</v>
+        <v>0.306475</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30887</v>
+        <v>0.273029</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312994</v>
+        <v>0.313223</v>
       </c>
       <c r="C77" t="n">
-        <v>0.336574</v>
+        <v>0.299851</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304723</v>
+        <v>0.268617</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307883</v>
+        <v>0.308087</v>
       </c>
       <c r="C78" t="n">
-        <v>0.331487</v>
+        <v>0.294222</v>
       </c>
       <c r="D78" t="n">
-        <v>0.301998</v>
+        <v>0.265582</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304</v>
+        <v>0.304316</v>
       </c>
       <c r="C79" t="n">
-        <v>0.327784</v>
+        <v>0.29021</v>
       </c>
       <c r="D79" t="n">
-        <v>0.301536</v>
+        <v>0.264981</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301844</v>
+        <v>0.301901</v>
       </c>
       <c r="C80" t="n">
-        <v>0.326376</v>
+        <v>0.288061</v>
       </c>
       <c r="D80" t="n">
-        <v>0.45061</v>
+        <v>0.412362</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.534477</v>
+        <v>0.53612</v>
       </c>
       <c r="C81" t="n">
-        <v>0.495187</v>
+        <v>0.456647</v>
       </c>
       <c r="D81" t="n">
-        <v>0.447658</v>
+        <v>0.404215</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.526297</v>
+        <v>0.527303</v>
       </c>
       <c r="C82" t="n">
-        <v>0.492607</v>
+        <v>0.448799</v>
       </c>
       <c r="D82" t="n">
-        <v>0.443916</v>
+        <v>0.394464</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.515004</v>
+        <v>0.516804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.486243</v>
+        <v>0.43748</v>
       </c>
       <c r="D83" t="n">
-        <v>0.437241</v>
+        <v>0.38495</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.504203</v>
+        <v>0.505789</v>
       </c>
       <c r="C84" t="n">
-        <v>0.478556</v>
+        <v>0.426175</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43123</v>
+        <v>0.375959</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.494139</v>
+        <v>0.495659</v>
       </c>
       <c r="C85" t="n">
-        <v>0.471108</v>
+        <v>0.415084</v>
       </c>
       <c r="D85" t="n">
-        <v>0.424558</v>
+        <v>0.366548</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.483476</v>
+        <v>0.485444</v>
       </c>
       <c r="C86" t="n">
-        <v>0.461826</v>
+        <v>0.404114</v>
       </c>
       <c r="D86" t="n">
-        <v>0.415257</v>
+        <v>0.358395</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.473206</v>
+        <v>0.47529</v>
       </c>
       <c r="C87" t="n">
-        <v>0.453407</v>
+        <v>0.395168</v>
       </c>
       <c r="D87" t="n">
-        <v>0.407665</v>
+        <v>0.350501</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.463344</v>
+        <v>0.46532</v>
       </c>
       <c r="C88" t="n">
-        <v>0.445548</v>
+        <v>0.385513</v>
       </c>
       <c r="D88" t="n">
-        <v>0.400939</v>
+        <v>0.343388</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.454038</v>
+        <v>0.455642</v>
       </c>
       <c r="C89" t="n">
-        <v>0.438637</v>
+        <v>0.376648</v>
       </c>
       <c r="D89" t="n">
-        <v>0.394248</v>
+        <v>0.336093</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.444821</v>
+        <v>0.446628</v>
       </c>
       <c r="C90" t="n">
-        <v>0.430915</v>
+        <v>0.368745</v>
       </c>
       <c r="D90" t="n">
-        <v>0.387315</v>
+        <v>0.329864</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.43609</v>
+        <v>0.437704</v>
       </c>
       <c r="C91" t="n">
-        <v>0.425147</v>
+        <v>0.360768</v>
       </c>
       <c r="D91" t="n">
-        <v>0.381948</v>
+        <v>0.323473</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.428212</v>
+        <v>0.429897</v>
       </c>
       <c r="C92" t="n">
-        <v>0.419583</v>
+        <v>0.355015</v>
       </c>
       <c r="D92" t="n">
-        <v>0.378053</v>
+        <v>0.319782</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421426</v>
+        <v>0.422598</v>
       </c>
       <c r="C93" t="n">
-        <v>0.415005</v>
+        <v>0.349496</v>
       </c>
       <c r="D93" t="n">
-        <v>0.376425</v>
+        <v>0.317061</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416079</v>
+        <v>0.416997</v>
       </c>
       <c r="C94" t="n">
-        <v>0.411871</v>
+        <v>0.3465</v>
       </c>
       <c r="D94" t="n">
-        <v>0.657956</v>
+        <v>0.599649</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.545661</v>
+        <v>0.546108</v>
       </c>
       <c r="C95" t="n">
-        <v>0.664592</v>
+        <v>0.59919</v>
       </c>
       <c r="D95" t="n">
-        <v>0.654067</v>
+        <v>0.587991</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.540628</v>
+        <v>0.540925</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6596959999999999</v>
+        <v>0.589357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.645041</v>
+        <v>0.571858</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532246</v>
+        <v>0.531961</v>
       </c>
       <c r="C97" t="n">
-        <v>0.650718</v>
+        <v>0.575037</v>
       </c>
       <c r="D97" t="n">
-        <v>0.635341</v>
+        <v>0.55635</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521763</v>
+        <v>0.521306</v>
       </c>
       <c r="C98" t="n">
-        <v>0.639548</v>
+        <v>0.559214</v>
       </c>
       <c r="D98" t="n">
-        <v>0.624893</v>
+        <v>0.54089</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.512628</v>
+        <v>0.511924</v>
       </c>
       <c r="C99" t="n">
-        <v>0.62942</v>
+        <v>0.543744</v>
       </c>
       <c r="D99" t="n">
-        <v>0.614997</v>
+        <v>0.526572</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503428</v>
+        <v>0.502999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.618743</v>
+        <v>0.5292249999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.60527</v>
+        <v>0.513117</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.494509</v>
+        <v>0.49471</v>
       </c>
       <c r="C101" t="n">
-        <v>0.610253</v>
+        <v>0.516096</v>
       </c>
       <c r="D101" t="n">
-        <v>0.595913</v>
+        <v>0.499771</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486559</v>
+        <v>0.486155</v>
       </c>
       <c r="C102" t="n">
-        <v>0.60145</v>
+        <v>0.503022</v>
       </c>
       <c r="D102" t="n">
-        <v>0.587968</v>
+        <v>0.487323</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.478948</v>
+        <v>0.479835</v>
       </c>
       <c r="C103" t="n">
-        <v>0.592684</v>
+        <v>0.49118</v>
       </c>
       <c r="D103" t="n">
-        <v>0.578949</v>
+        <v>0.476197</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.471834</v>
+        <v>0.47141</v>
       </c>
       <c r="C104" t="n">
-        <v>0.586243</v>
+        <v>0.480437</v>
       </c>
       <c r="D104" t="n">
-        <v>0.572139</v>
+        <v>0.465604</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465838</v>
+        <v>0.465605</v>
       </c>
       <c r="C105" t="n">
-        <v>0.579369</v>
+        <v>0.470512</v>
       </c>
       <c r="D105" t="n">
-        <v>0.565597</v>
+        <v>0.456393</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459411</v>
+        <v>0.459867</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572941</v>
+        <v>0.461951</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5595250000000001</v>
+        <v>0.448123</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.454577</v>
+        <v>0.454629</v>
       </c>
       <c r="C107" t="n">
-        <v>0.567304</v>
+        <v>0.454682</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555417</v>
+        <v>0.442274</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.450973</v>
+        <v>0.450329</v>
       </c>
       <c r="C108" t="n">
-        <v>0.563975</v>
+        <v>0.449158</v>
       </c>
       <c r="D108" t="n">
-        <v>0.764699</v>
+        <v>0.651015</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449974</v>
+        <v>0.449216</v>
       </c>
       <c r="C109" t="n">
-        <v>0.562963</v>
+        <v>0.447519</v>
       </c>
       <c r="D109" t="n">
-        <v>0.760938</v>
+        <v>0.641351</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.649045</v>
+        <v>0.6483409999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.822383</v>
+        <v>0.703312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.750288</v>
+        <v>0.626099</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.636304</v>
+        <v>0.636798</v>
       </c>
       <c r="C111" t="n">
-        <v>0.808709</v>
+        <v>0.687242</v>
       </c>
       <c r="D111" t="n">
-        <v>0.741212</v>
+        <v>0.610834</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.624302</v>
+        <v>0.6243570000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.795056</v>
+        <v>0.669337</v>
       </c>
       <c r="D112" t="n">
-        <v>0.731553</v>
+        <v>0.596146</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612199</v>
+        <v>0.612833</v>
       </c>
       <c r="C113" t="n">
-        <v>0.781372</v>
+        <v>0.652519</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722386</v>
+        <v>0.582711</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601701</v>
+        <v>0.601606</v>
       </c>
       <c r="C114" t="n">
-        <v>0.769941</v>
+        <v>0.6371830000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713877</v>
+        <v>0.5696909999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590733</v>
+        <v>0.590919</v>
       </c>
       <c r="C115" t="n">
-        <v>0.758034</v>
+        <v>0.622139</v>
       </c>
       <c r="D115" t="n">
-        <v>0.706283</v>
+        <v>0.556839</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.580741</v>
+        <v>0.580609</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7470830000000001</v>
+        <v>0.608203</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6987100000000001</v>
+        <v>0.54557</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.571859</v>
+        <v>0.571539</v>
       </c>
       <c r="C117" t="n">
-        <v>0.737587</v>
+        <v>0.595224</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6909110000000001</v>
+        <v>0.534869</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5626060000000001</v>
+        <v>0.5628649999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.727683</v>
+        <v>0.583441</v>
       </c>
       <c r="D118" t="n">
-        <v>0.684747</v>
+        <v>0.5243139999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554906</v>
+        <v>0.554694</v>
       </c>
       <c r="C119" t="n">
-        <v>0.718925</v>
+        <v>0.57234</v>
       </c>
       <c r="D119" t="n">
-        <v>0.67802</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.547659</v>
+        <v>0.5475139999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.711106</v>
+        <v>0.5633</v>
       </c>
       <c r="D120" t="n">
-        <v>0.672275</v>
+        <v>0.506637</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541009</v>
+        <v>0.540957</v>
       </c>
       <c r="C121" t="n">
-        <v>0.704584</v>
+        <v>0.553015</v>
       </c>
       <c r="D121" t="n">
-        <v>0.668171</v>
+        <v>0.499445</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.53552</v>
+        <v>0.535327</v>
       </c>
       <c r="C122" t="n">
-        <v>0.698847</v>
+        <v>0.546748</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6656840000000001</v>
+        <v>0.494731</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.532421</v>
+        <v>0.532272</v>
       </c>
       <c r="C123" t="n">
-        <v>0.695721</v>
+        <v>0.5414949999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.880726</v>
+        <v>0.705918</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72484</v>
+        <v>0.724821</v>
       </c>
       <c r="C124" t="n">
-        <v>0.948953</v>
+        <v>0.794053</v>
       </c>
       <c r="D124" t="n">
-        <v>0.87462</v>
+        <v>0.6935829999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.714947</v>
+        <v>0.714836</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9337299999999999</v>
+        <v>0.778533</v>
       </c>
       <c r="D125" t="n">
-        <v>0.865812</v>
+        <v>0.683086</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.70513</v>
+        <v>0.704987</v>
       </c>
       <c r="C126" t="n">
-        <v>0.92057</v>
+        <v>0.762974</v>
       </c>
       <c r="D126" t="n">
-        <v>0.860506</v>
+        <v>0.67208</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.695369</v>
       </c>
       <c r="C127" t="n">
-        <v>0.908218</v>
+        <v>0.750026</v>
       </c>
       <c r="D127" t="n">
-        <v>0.853444</v>
+        <v>0.659931</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.686625</v>
+        <v>0.686456</v>
       </c>
       <c r="C128" t="n">
-        <v>0.896146</v>
+        <v>0.7370910000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.847921</v>
+        <v>0.651277</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678469</v>
+        <v>0.678092</v>
       </c>
       <c r="C129" t="n">
-        <v>0.886309</v>
+        <v>0.725059</v>
       </c>
       <c r="D129" t="n">
-        <v>0.842426</v>
+        <v>0.643906</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6702630000000001</v>
+        <v>0.670447</v>
       </c>
       <c r="C130" t="n">
-        <v>0.875454</v>
+        <v>0.713535</v>
       </c>
       <c r="D130" t="n">
-        <v>0.835761</v>
+        <v>0.635736</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.66278</v>
+        <v>0.663521</v>
       </c>
       <c r="C131" t="n">
-        <v>0.866753</v>
+        <v>0.703483</v>
       </c>
       <c r="D131" t="n">
-        <v>0.83321</v>
+        <v>0.628623</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.656273</v>
+        <v>0.655987</v>
       </c>
       <c r="C132" t="n">
-        <v>0.856992</v>
+        <v>0.693026</v>
       </c>
       <c r="D132" t="n">
-        <v>0.829575</v>
+        <v>0.621661</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6495919999999999</v>
+        <v>0.649375</v>
       </c>
       <c r="C133" t="n">
-        <v>0.849526</v>
+        <v>0.684151</v>
       </c>
       <c r="D133" t="n">
-        <v>0.826389</v>
+        <v>0.615582</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.643871</v>
+        <v>0.644137</v>
       </c>
       <c r="C134" t="n">
-        <v>0.842412</v>
+        <v>0.676865</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823089</v>
+        <v>0.610178</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6394300000000001</v>
+        <v>0.638491</v>
       </c>
       <c r="C135" t="n">
-        <v>0.837377</v>
+        <v>0.669799</v>
       </c>
       <c r="D135" t="n">
-        <v>0.819448</v>
+        <v>0.6043500000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.634722</v>
+        <v>0.633826</v>
       </c>
       <c r="C136" t="n">
-        <v>0.831859</v>
+        <v>0.664071</v>
       </c>
       <c r="D136" t="n">
-        <v>0.815021</v>
+        <v>0.597958</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.631301</v>
+        <v>0.630751</v>
       </c>
       <c r="C137" t="n">
-        <v>0.827842</v>
+        <v>0.65934</v>
       </c>
       <c r="D137" t="n">
-        <v>1.03003</v>
+        <v>0.8125520000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.819295</v>
+        <v>0.818815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.08428</v>
+        <v>0.915874</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02206</v>
+        <v>0.801352</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.811113</v>
+        <v>0.809881</v>
       </c>
       <c r="C139" t="n">
-        <v>1.06818</v>
+        <v>0.900915</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01586</v>
+        <v>0.792461</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8025330000000001</v>
+        <v>0.801603</v>
       </c>
       <c r="C140" t="n">
-        <v>1.05544</v>
+        <v>0.887162</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00787</v>
+        <v>0.783064</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.794948</v>
+        <v>0.792278</v>
       </c>
       <c r="C141" t="n">
-        <v>1.04193</v>
+        <v>0.872333</v>
       </c>
       <c r="D141" t="n">
-        <v>1.00124</v>
+        <v>0.7754259999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7878230000000001</v>
+        <v>0.785149</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02817</v>
+        <v>0.8595930000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.994779</v>
+        <v>0.766974</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.779022</v>
+        <v>0.778054</v>
       </c>
       <c r="C143" t="n">
-        <v>1.01606</v>
+        <v>0.848526</v>
       </c>
       <c r="D143" t="n">
-        <v>0.98905</v>
+        <v>0.75945</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246823</v>
+        <v>0.244658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.250532</v>
+        <v>0.376202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220431</v>
+        <v>0.216867</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239894</v>
+        <v>0.236513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242952</v>
+        <v>0.372054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214585</v>
+        <v>0.211576</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233995</v>
+        <v>0.230376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236496</v>
+        <v>0.3683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209726</v>
+        <v>0.206439</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228851</v>
+        <v>0.226123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230556</v>
+        <v>0.367902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206223</v>
+        <v>0.202054</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224059</v>
+        <v>0.221456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225265</v>
+        <v>0.368071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202977</v>
+        <v>0.198454</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220468</v>
+        <v>0.217556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221638</v>
+        <v>0.368955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201222</v>
+        <v>0.196512</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218435</v>
+        <v>0.216108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219139</v>
+        <v>0.437635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201673</v>
+        <v>0.197301</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217741</v>
+        <v>0.215645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219044</v>
+        <v>0.426667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293881</v>
+        <v>0.288814</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305892</v>
+        <v>0.304058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3295</v>
+        <v>0.41696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.284296</v>
+        <v>0.279519</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296241</v>
+        <v>0.294438</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318211</v>
+        <v>0.40739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274609</v>
+        <v>0.271102</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287248</v>
+        <v>0.285478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30717</v>
+        <v>0.398088</v>
       </c>
       <c r="D12" t="n">
-        <v>0.266031</v>
+        <v>0.262712</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278366</v>
+        <v>0.276835</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296743</v>
+        <v>0.398025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257435</v>
+        <v>0.254244</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27007</v>
+        <v>0.268829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287258</v>
+        <v>0.391414</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249927</v>
+        <v>0.246448</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262158</v>
+        <v>0.261623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.27829</v>
+        <v>0.385975</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24322</v>
+        <v>0.239739</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255106</v>
+        <v>0.254266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.268927</v>
+        <v>0.382229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236278</v>
+        <v>0.233035</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248356</v>
+        <v>0.247888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261208</v>
+        <v>0.377464</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230312</v>
+        <v>0.227131</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242319</v>
+        <v>0.242022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253863</v>
+        <v>0.376509</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224982</v>
+        <v>0.221886</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236722</v>
+        <v>0.235871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247556</v>
+        <v>0.374272</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220856</v>
+        <v>0.217586</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231936</v>
+        <v>0.231134</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242035</v>
+        <v>0.373834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21744</v>
+        <v>0.214237</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227885</v>
+        <v>0.227096</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237967</v>
+        <v>0.375742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215671</v>
+        <v>0.212434</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225391</v>
+        <v>0.224341</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235097</v>
+        <v>0.451711</v>
       </c>
       <c r="D22" t="n">
-        <v>0.215929</v>
+        <v>0.212806</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224537</v>
+        <v>0.223434</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234614</v>
+        <v>0.440489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307915</v>
+        <v>0.304003</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311596</v>
+        <v>0.31132</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344578</v>
+        <v>0.430778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.298005</v>
+        <v>0.293694</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302277</v>
+        <v>0.301408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333091</v>
+        <v>0.421447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288408</v>
+        <v>0.28432</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293078</v>
+        <v>0.292225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321916</v>
+        <v>0.412446</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27935</v>
+        <v>0.275664</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284352</v>
+        <v>0.283344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311215</v>
+        <v>0.412039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270936</v>
+        <v>0.267125</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275983</v>
+        <v>0.275625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301258</v>
+        <v>0.405716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263194</v>
+        <v>0.25924</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268152</v>
+        <v>0.267237</v>
       </c>
       <c r="C29" t="n">
-        <v>0.290557</v>
+        <v>0.400522</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255361</v>
+        <v>0.251137</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2608</v>
+        <v>0.259775</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282688</v>
+        <v>0.395273</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248462</v>
+        <v>0.244949</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253805</v>
+        <v>0.253012</v>
       </c>
       <c r="C31" t="n">
-        <v>0.273248</v>
+        <v>0.392202</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241968</v>
+        <v>0.239185</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247413</v>
+        <v>0.24643</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266484</v>
+        <v>0.389789</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235672</v>
+        <v>0.23263</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241586</v>
+        <v>0.24039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259298</v>
+        <v>0.388904</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230602</v>
+        <v>0.227963</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236463</v>
+        <v>0.235902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253044</v>
+        <v>0.389035</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22649</v>
+        <v>0.224515</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23238</v>
+        <v>0.230819</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246426</v>
+        <v>0.390214</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223214</v>
+        <v>0.221134</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229558</v>
+        <v>0.227996</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243596</v>
+        <v>0.393392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222263</v>
+        <v>0.221008</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227665</v>
+        <v>0.22633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240745</v>
+        <v>0.465354</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31686</v>
+        <v>0.314635</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316</v>
+        <v>0.314763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353991</v>
+        <v>0.45412</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306969</v>
+        <v>0.304801</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306017</v>
+        <v>0.304922</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342537</v>
+        <v>0.443521</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297409</v>
+        <v>0.29573</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297328</v>
+        <v>0.296551</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331407</v>
+        <v>0.434437</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288407</v>
+        <v>0.286395</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288282</v>
+        <v>0.287574</v>
       </c>
       <c r="C41" t="n">
-        <v>0.320487</v>
+        <v>0.434134</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279747</v>
+        <v>0.278248</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280835</v>
+        <v>0.278765</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310132</v>
+        <v>0.425877</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271783</v>
+        <v>0.269186</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272375</v>
+        <v>0.27135</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301103</v>
+        <v>0.419109</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263847</v>
+        <v>0.262362</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265311</v>
+        <v>0.264306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291932</v>
+        <v>0.414667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256605</v>
+        <v>0.255591</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257895</v>
+        <v>0.257745</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283522</v>
+        <v>0.410231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25037</v>
+        <v>0.248848</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252217</v>
+        <v>0.250734</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27603</v>
+        <v>0.406956</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244187</v>
+        <v>0.242359</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245885</v>
+        <v>0.245915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26882</v>
+        <v>0.405317</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23894</v>
+        <v>0.237456</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241244</v>
+        <v>0.240719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262467</v>
+        <v>0.40597</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23446</v>
+        <v>0.233086</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236522</v>
+        <v>0.23521</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257159</v>
+        <v>0.407055</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231436</v>
+        <v>0.230063</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233208</v>
+        <v>0.232186</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25286</v>
+        <v>0.410227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229875</v>
+        <v>0.228012</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231761</v>
+        <v>0.230753</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249576</v>
+        <v>0.486794</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328519</v>
+        <v>0.325236</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231547</v>
+        <v>0.231435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24971</v>
+        <v>0.475574</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318467</v>
+        <v>0.315316</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317695</v>
+        <v>0.316059</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355716</v>
+        <v>0.467305</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308859</v>
+        <v>0.306049</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308907</v>
+        <v>0.307315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344333</v>
+        <v>0.45548</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299861</v>
+        <v>0.296898</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300558</v>
+        <v>0.298806</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333804</v>
+        <v>0.448044</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29125</v>
+        <v>0.288423</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293143</v>
+        <v>0.290816</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323695</v>
+        <v>0.445114</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283123</v>
+        <v>0.280502</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285516</v>
+        <v>0.283381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314219</v>
+        <v>0.438895</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275406</v>
+        <v>0.272968</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277961</v>
+        <v>0.276621</v>
       </c>
       <c r="C58" t="n">
-        <v>0.305167</v>
+        <v>0.433211</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268176</v>
+        <v>0.265982</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271595</v>
+        <v>0.269843</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296922</v>
+        <v>0.427961</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261529</v>
+        <v>0.259347</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265588</v>
+        <v>0.263554</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289071</v>
+        <v>0.424516</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25556</v>
+        <v>0.253352</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259834</v>
+        <v>0.257802</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281857</v>
+        <v>0.425148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250258</v>
+        <v>0.248036</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254477</v>
+        <v>0.252528</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275424</v>
+        <v>0.424004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245564</v>
+        <v>0.243799</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250122</v>
+        <v>0.24816</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269626</v>
+        <v>0.425553</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242049</v>
+        <v>0.240371</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246448</v>
+        <v>0.244992</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265037</v>
+        <v>0.428999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240137</v>
+        <v>0.238178</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244411</v>
+        <v>0.242805</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261836</v>
+        <v>0.511771</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240723</v>
+        <v>0.238652</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244054</v>
+        <v>0.242871</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261198</v>
+        <v>0.4956</v>
       </c>
       <c r="D66" t="n">
-        <v>0.350031</v>
+        <v>0.349369</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378535</v>
+        <v>0.381036</v>
       </c>
       <c r="C67" t="n">
-        <v>0.392269</v>
+        <v>0.484628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.340303</v>
+        <v>0.338726</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.370649</v>
+        <v>0.37238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380806</v>
+        <v>0.472857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330924</v>
+        <v>0.328855</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36348</v>
+        <v>0.36447</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369828</v>
+        <v>0.463097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322249</v>
+        <v>0.319997</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.356712</v>
+        <v>0.357028</v>
       </c>
       <c r="C70" t="n">
-        <v>0.35922</v>
+        <v>0.464346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.313844</v>
+        <v>0.311081</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3504</v>
+        <v>0.349733</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34915</v>
+        <v>0.457691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3059</v>
+        <v>0.302805</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344004</v>
+        <v>0.343041</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339593</v>
+        <v>0.450973</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298087</v>
+        <v>0.294885</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337671</v>
+        <v>0.33647</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330385</v>
+        <v>0.44614</v>
       </c>
       <c r="D73" t="n">
-        <v>0.29096</v>
+        <v>0.287569</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331468</v>
+        <v>0.330051</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321844</v>
+        <v>0.441913</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284257</v>
+        <v>0.281011</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324887</v>
+        <v>0.323754</v>
       </c>
       <c r="C75" t="n">
-        <v>0.31392</v>
+        <v>0.440044</v>
       </c>
       <c r="D75" t="n">
-        <v>0.278258</v>
+        <v>0.275204</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318835</v>
+        <v>0.317772</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306475</v>
+        <v>0.438525</v>
       </c>
       <c r="D76" t="n">
-        <v>0.273029</v>
+        <v>0.269546</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313223</v>
+        <v>0.31222</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299851</v>
+        <v>0.439343</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268617</v>
+        <v>0.265509</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308087</v>
+        <v>0.306998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294222</v>
+        <v>0.442175</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265582</v>
+        <v>0.26283</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304316</v>
+        <v>0.302596</v>
       </c>
       <c r="C79" t="n">
-        <v>0.29021</v>
+        <v>0.532666</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264981</v>
+        <v>0.262001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301901</v>
+        <v>0.300131</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288061</v>
+        <v>0.518214</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412362</v>
+        <v>0.417192</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.53612</v>
+        <v>0.525466</v>
       </c>
       <c r="C81" t="n">
-        <v>0.456647</v>
+        <v>0.510622</v>
       </c>
       <c r="D81" t="n">
-        <v>0.404215</v>
+        <v>0.410841</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.527303</v>
+        <v>0.517687</v>
       </c>
       <c r="C82" t="n">
-        <v>0.448799</v>
+        <v>0.494729</v>
       </c>
       <c r="D82" t="n">
-        <v>0.394464</v>
+        <v>0.402682</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.516804</v>
+        <v>0.5079</v>
       </c>
       <c r="C83" t="n">
-        <v>0.43748</v>
+        <v>0.485878</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38495</v>
+        <v>0.391795</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.505789</v>
+        <v>0.497513</v>
       </c>
       <c r="C84" t="n">
-        <v>0.426175</v>
+        <v>0.51145</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375959</v>
+        <v>0.382563</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.495659</v>
+        <v>0.485745</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415084</v>
+        <v>0.509779</v>
       </c>
       <c r="D85" t="n">
-        <v>0.366548</v>
+        <v>0.368648</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.485444</v>
+        <v>0.475535</v>
       </c>
       <c r="C86" t="n">
-        <v>0.404114</v>
+        <v>0.506586</v>
       </c>
       <c r="D86" t="n">
-        <v>0.358395</v>
+        <v>0.356448</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.47529</v>
+        <v>0.467977</v>
       </c>
       <c r="C87" t="n">
-        <v>0.395168</v>
+        <v>0.505506</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350501</v>
+        <v>0.355899</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.46532</v>
+        <v>0.458481</v>
       </c>
       <c r="C88" t="n">
-        <v>0.385513</v>
+        <v>0.497618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.343388</v>
+        <v>0.347997</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.455642</v>
+        <v>0.449623</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376648</v>
+        <v>0.496215</v>
       </c>
       <c r="D89" t="n">
-        <v>0.336093</v>
+        <v>0.340588</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446628</v>
+        <v>0.440524</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368745</v>
+        <v>0.492901</v>
       </c>
       <c r="D90" t="n">
-        <v>0.329864</v>
+        <v>0.334093</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437704</v>
+        <v>0.432002</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360768</v>
+        <v>0.488975</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323473</v>
+        <v>0.324742</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429897</v>
+        <v>0.424542</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355015</v>
+        <v>0.491464</v>
       </c>
       <c r="D92" t="n">
-        <v>0.319782</v>
+        <v>0.323192</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422598</v>
+        <v>0.417438</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349496</v>
+        <v>0.490267</v>
       </c>
       <c r="D93" t="n">
-        <v>0.317061</v>
+        <v>0.320491</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416997</v>
+        <v>0.412338</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3465</v>
+        <v>0.647792</v>
       </c>
       <c r="D94" t="n">
-        <v>0.599649</v>
+        <v>0.590307</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.546108</v>
+        <v>0.547383</v>
       </c>
       <c r="C95" t="n">
-        <v>0.59919</v>
+        <v>0.640008</v>
       </c>
       <c r="D95" t="n">
-        <v>0.587991</v>
+        <v>0.576084</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.540925</v>
+        <v>0.541728</v>
       </c>
       <c r="C96" t="n">
-        <v>0.589357</v>
+        <v>0.626281</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571858</v>
+        <v>0.563893</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531961</v>
+        <v>0.532883</v>
       </c>
       <c r="C97" t="n">
-        <v>0.575037</v>
+        <v>0.616048</v>
       </c>
       <c r="D97" t="n">
-        <v>0.55635</v>
+        <v>0.547909</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521306</v>
+        <v>0.523927</v>
       </c>
       <c r="C98" t="n">
-        <v>0.559214</v>
+        <v>0.656546</v>
       </c>
       <c r="D98" t="n">
-        <v>0.54089</v>
+        <v>0.531054</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.511924</v>
+        <v>0.51257</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543744</v>
+        <v>0.6567499999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.526572</v>
+        <v>0.504373</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502999</v>
+        <v>0.505485</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5292249999999999</v>
+        <v>0.653272</v>
       </c>
       <c r="D100" t="n">
-        <v>0.513117</v>
+        <v>0.490011</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.49471</v>
+        <v>0.496414</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516096</v>
+        <v>0.649477</v>
       </c>
       <c r="D101" t="n">
-        <v>0.499771</v>
+        <v>0.489746</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486155</v>
+        <v>0.487743</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503022</v>
+        <v>0.64668</v>
       </c>
       <c r="D102" t="n">
-        <v>0.487323</v>
+        <v>0.479512</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479835</v>
+        <v>0.481602</v>
       </c>
       <c r="C103" t="n">
-        <v>0.49118</v>
+        <v>0.640362</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476197</v>
+        <v>0.467562</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.47141</v>
+        <v>0.474689</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480437</v>
+        <v>0.638001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.465604</v>
+        <v>0.442991</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465605</v>
+        <v>0.46682</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470512</v>
+        <v>0.640768</v>
       </c>
       <c r="D105" t="n">
-        <v>0.456393</v>
+        <v>0.448506</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459867</v>
+        <v>0.461078</v>
       </c>
       <c r="C106" t="n">
-        <v>0.461951</v>
+        <v>0.643774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.448123</v>
+        <v>0.440272</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.454629</v>
+        <v>0.456424</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454682</v>
+        <v>0.64774</v>
       </c>
       <c r="D107" t="n">
-        <v>0.442274</v>
+        <v>0.419609</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.450329</v>
+        <v>0.453485</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449158</v>
+        <v>0.8775849999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.651015</v>
+        <v>0.639491</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449216</v>
+        <v>0.451572</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447519</v>
+        <v>0.861413</v>
       </c>
       <c r="D109" t="n">
-        <v>0.641351</v>
+        <v>0.633143</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6483409999999999</v>
+        <v>0.648912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703312</v>
+        <v>0.845583</v>
       </c>
       <c r="D110" t="n">
-        <v>0.626099</v>
+        <v>0.615626</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.636798</v>
+        <v>0.638458</v>
       </c>
       <c r="C111" t="n">
-        <v>0.687242</v>
+        <v>0.832502</v>
       </c>
       <c r="D111" t="n">
-        <v>0.610834</v>
+        <v>0.603504</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6243570000000001</v>
+        <v>0.625443</v>
       </c>
       <c r="C112" t="n">
-        <v>0.669337</v>
+        <v>0.869202</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596146</v>
+        <v>0.588643</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612833</v>
+        <v>0.614228</v>
       </c>
       <c r="C113" t="n">
-        <v>0.652519</v>
+        <v>0.859405</v>
       </c>
       <c r="D113" t="n">
-        <v>0.582711</v>
+        <v>0.56824</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601606</v>
+        <v>0.601975</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6371830000000001</v>
+        <v>0.846631</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5696909999999999</v>
+        <v>0.551439</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590919</v>
+        <v>0.591405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.622139</v>
+        <v>0.839661</v>
       </c>
       <c r="D115" t="n">
-        <v>0.556839</v>
+        <v>0.54778</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.580609</v>
+        <v>0.584104</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608203</v>
+        <v>0.832983</v>
       </c>
       <c r="D116" t="n">
-        <v>0.54557</v>
+        <v>0.536361</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.571539</v>
+        <v>0.572713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.595224</v>
+        <v>0.828858</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534869</v>
+        <v>0.529721</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5628649999999999</v>
+        <v>0.566787</v>
       </c>
       <c r="C118" t="n">
-        <v>0.583441</v>
+        <v>0.833297</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5243139999999999</v>
+        <v>0.515116</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554694</v>
+        <v>0.55868</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57234</v>
+        <v>0.837202</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5154</v>
+        <v>0.506656</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5475139999999999</v>
+        <v>0.551596</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5633</v>
+        <v>0.846573</v>
       </c>
       <c r="D120" t="n">
-        <v>0.506637</v>
+        <v>0.501739</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.540957</v>
+        <v>0.5454830000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.553015</v>
+        <v>0.861921</v>
       </c>
       <c r="D121" t="n">
-        <v>0.499445</v>
+        <v>0.494879</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.535327</v>
+        <v>0.537924</v>
       </c>
       <c r="C122" t="n">
-        <v>0.546748</v>
+        <v>1.15095</v>
       </c>
       <c r="D122" t="n">
-        <v>0.494731</v>
+        <v>0.482589</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.532272</v>
+        <v>0.535189</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5414949999999999</v>
+        <v>1.12085</v>
       </c>
       <c r="D123" t="n">
-        <v>0.705918</v>
+        <v>0.700665</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.724821</v>
+        <v>0.728849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.794053</v>
+        <v>1.09559</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6935829999999999</v>
+        <v>0.685148</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.714836</v>
+        <v>0.718413</v>
       </c>
       <c r="C125" t="n">
-        <v>0.778533</v>
+        <v>1.0736</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683086</v>
+        <v>0.670069</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.704987</v>
+        <v>0.70664</v>
       </c>
       <c r="C126" t="n">
-        <v>0.762974</v>
+        <v>1.05564</v>
       </c>
       <c r="D126" t="n">
-        <v>0.67208</v>
+        <v>0.667594</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.695369</v>
+        <v>0.699888</v>
       </c>
       <c r="C127" t="n">
-        <v>0.750026</v>
+        <v>1.08375</v>
       </c>
       <c r="D127" t="n">
-        <v>0.659931</v>
+        <v>0.657409</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.686456</v>
+        <v>0.691926</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7370910000000001</v>
+        <v>1.06228</v>
       </c>
       <c r="D128" t="n">
-        <v>0.651277</v>
+        <v>0.645947</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678092</v>
+        <v>0.681429</v>
       </c>
       <c r="C129" t="n">
-        <v>0.725059</v>
+        <v>1.04764</v>
       </c>
       <c r="D129" t="n">
-        <v>0.643906</v>
+        <v>0.640352</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.670447</v>
+        <v>0.674607</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713535</v>
+        <v>1.03762</v>
       </c>
       <c r="D130" t="n">
-        <v>0.635736</v>
+        <v>0.632131</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.663521</v>
+        <v>0.668713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.703483</v>
+        <v>1.02794</v>
       </c>
       <c r="D131" t="n">
-        <v>0.628623</v>
+        <v>0.625613</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.655987</v>
+        <v>0.660161</v>
       </c>
       <c r="C132" t="n">
-        <v>0.693026</v>
+        <v>1.02099</v>
       </c>
       <c r="D132" t="n">
-        <v>0.621661</v>
+        <v>0.614329</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649375</v>
+        <v>0.653284</v>
       </c>
       <c r="C133" t="n">
-        <v>0.684151</v>
+        <v>1.02596</v>
       </c>
       <c r="D133" t="n">
-        <v>0.615582</v>
+        <v>0.606214</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.644137</v>
+        <v>0.6466769999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.676865</v>
+        <v>1.03708</v>
       </c>
       <c r="D134" t="n">
-        <v>0.610178</v>
+        <v>0.601363</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.638491</v>
+        <v>0.64231</v>
       </c>
       <c r="C135" t="n">
-        <v>0.669799</v>
+        <v>1.05034</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6043500000000001</v>
+        <v>0.5997169999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.633826</v>
+        <v>0.635975</v>
       </c>
       <c r="C136" t="n">
-        <v>0.664071</v>
+        <v>1.35475</v>
       </c>
       <c r="D136" t="n">
-        <v>0.597958</v>
+        <v>0.595984</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.630751</v>
+        <v>0.634223</v>
       </c>
       <c r="C137" t="n">
-        <v>0.65934</v>
+        <v>1.32038</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8125520000000001</v>
+        <v>0.807177</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.818815</v>
+        <v>0.821747</v>
       </c>
       <c r="C138" t="n">
-        <v>0.915874</v>
+        <v>1.2775</v>
       </c>
       <c r="D138" t="n">
-        <v>0.801352</v>
+        <v>0.79327</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.809881</v>
+        <v>0.815248</v>
       </c>
       <c r="C139" t="n">
-        <v>0.900915</v>
+        <v>1.25784</v>
       </c>
       <c r="D139" t="n">
-        <v>0.792461</v>
+        <v>0.784323</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.801603</v>
+        <v>0.806149</v>
       </c>
       <c r="C140" t="n">
-        <v>0.887162</v>
+        <v>1.22816</v>
       </c>
       <c r="D140" t="n">
-        <v>0.783064</v>
+        <v>0.776999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.792278</v>
+        <v>0.796019</v>
       </c>
       <c r="C141" t="n">
-        <v>0.872333</v>
+        <v>1.2498</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7754259999999999</v>
+        <v>0.7692329999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.785149</v>
+        <v>0.791678</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8595930000000001</v>
+        <v>1.22686</v>
       </c>
       <c r="D142" t="n">
-        <v>0.766974</v>
+        <v>0.762723</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.778054</v>
+        <v>0.7826689999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848526</v>
+        <v>1.20299</v>
       </c>
       <c r="D143" t="n">
-        <v>0.75945</v>
+        <v>0.755273</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246823</v>
+        <v>0.246979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.250532</v>
+        <v>0.251171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220431</v>
+        <v>0.21913</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239894</v>
+        <v>0.240595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242952</v>
+        <v>0.243269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214585</v>
+        <v>0.213418</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233995</v>
+        <v>0.234378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236496</v>
+        <v>0.236624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209726</v>
+        <v>0.20878</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228851</v>
+        <v>0.229172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230556</v>
+        <v>0.230547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206223</v>
+        <v>0.20426</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224059</v>
+        <v>0.224411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225265</v>
+        <v>0.225241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202977</v>
+        <v>0.200253</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220468</v>
+        <v>0.220695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221638</v>
+        <v>0.221547</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201222</v>
+        <v>0.198984</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218435</v>
+        <v>0.218622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219139</v>
+        <v>0.21862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201673</v>
+        <v>0.199787</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217741</v>
+        <v>0.218097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219044</v>
+        <v>0.218951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293881</v>
+        <v>0.294975</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305892</v>
+        <v>0.306021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3295</v>
+        <v>0.329902</v>
       </c>
       <c r="D10" t="n">
-        <v>0.284296</v>
+        <v>0.284605</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296241</v>
+        <v>0.296521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318211</v>
+        <v>0.318688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274609</v>
+        <v>0.275566</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287248</v>
+        <v>0.287384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30717</v>
+        <v>0.307537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.266031</v>
+        <v>0.266558</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278366</v>
+        <v>0.278541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296743</v>
+        <v>0.296873</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257435</v>
+        <v>0.258519</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27007</v>
+        <v>0.270236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287258</v>
+        <v>0.287482</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249927</v>
+        <v>0.250506</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262158</v>
+        <v>0.262337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.27829</v>
+        <v>0.278161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24322</v>
+        <v>0.243418</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255106</v>
+        <v>0.255293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.268927</v>
+        <v>0.269456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236278</v>
+        <v>0.236294</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248356</v>
+        <v>0.248477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261208</v>
+        <v>0.261424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230312</v>
+        <v>0.230228</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242319</v>
+        <v>0.242493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253863</v>
+        <v>0.254199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224982</v>
+        <v>0.225043</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236722</v>
+        <v>0.236867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247556</v>
+        <v>0.24781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220856</v>
+        <v>0.220214</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231936</v>
+        <v>0.232184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242035</v>
+        <v>0.241018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21744</v>
+        <v>0.21671</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227885</v>
+        <v>0.228039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237967</v>
+        <v>0.238051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215671</v>
+        <v>0.214587</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225391</v>
+        <v>0.225479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235097</v>
+        <v>0.235157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.215929</v>
+        <v>0.214756</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224537</v>
+        <v>0.224706</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234614</v>
+        <v>0.234468</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307915</v>
+        <v>0.307834</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311596</v>
+        <v>0.311986</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344578</v>
+        <v>0.344254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.298005</v>
+        <v>0.298319</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302277</v>
+        <v>0.302642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333091</v>
+        <v>0.333149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288408</v>
+        <v>0.288529</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293078</v>
+        <v>0.293217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321916</v>
+        <v>0.321928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27935</v>
+        <v>0.279323</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284352</v>
+        <v>0.284379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311215</v>
+        <v>0.311116</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270936</v>
+        <v>0.270597</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275983</v>
+        <v>0.275907</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301258</v>
+        <v>0.300102</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263194</v>
+        <v>0.262602</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268152</v>
+        <v>0.268383</v>
       </c>
       <c r="C29" t="n">
-        <v>0.290557</v>
+        <v>0.291915</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255361</v>
+        <v>0.255064</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2608</v>
+        <v>0.261031</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282688</v>
+        <v>0.282006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248462</v>
+        <v>0.247784</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253805</v>
+        <v>0.253456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.273248</v>
+        <v>0.274047</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241968</v>
+        <v>0.241418</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247413</v>
+        <v>0.247751</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266484</v>
+        <v>0.266398</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235672</v>
+        <v>0.235263</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241586</v>
+        <v>0.241968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259298</v>
+        <v>0.25884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230602</v>
+        <v>0.229653</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236463</v>
+        <v>0.236928</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253044</v>
+        <v>0.252547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22649</v>
+        <v>0.225017</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23238</v>
+        <v>0.232577</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246426</v>
+        <v>0.247528</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223214</v>
+        <v>0.221947</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229558</v>
+        <v>0.229875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243596</v>
+        <v>0.243543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222263</v>
+        <v>0.221169</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227665</v>
+        <v>0.228005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240745</v>
+        <v>0.24127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31686</v>
+        <v>0.316666</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316</v>
+        <v>0.316255</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353991</v>
+        <v>0.353714</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306969</v>
+        <v>0.306742</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306017</v>
+        <v>0.306199</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342537</v>
+        <v>0.34235</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297409</v>
+        <v>0.297181</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297328</v>
+        <v>0.29722</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331407</v>
+        <v>0.331346</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288407</v>
+        <v>0.28813</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288282</v>
+        <v>0.288983</v>
       </c>
       <c r="C41" t="n">
-        <v>0.320487</v>
+        <v>0.320574</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279747</v>
+        <v>0.279657</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280835</v>
+        <v>0.280706</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310132</v>
+        <v>0.310546</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271783</v>
+        <v>0.271944</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272375</v>
+        <v>0.272383</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301103</v>
+        <v>0.301192</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263847</v>
+        <v>0.263632</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265311</v>
+        <v>0.265767</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291932</v>
+        <v>0.291955</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256605</v>
+        <v>0.256902</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257895</v>
+        <v>0.258782</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283522</v>
+        <v>0.283623</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25037</v>
+        <v>0.250192</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252217</v>
+        <v>0.252452</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27603</v>
+        <v>0.275914</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244187</v>
+        <v>0.244465</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245885</v>
+        <v>0.246544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26882</v>
+        <v>0.269169</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23894</v>
+        <v>0.239198</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241244</v>
+        <v>0.241031</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262467</v>
+        <v>0.262836</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23446</v>
+        <v>0.234787</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236522</v>
+        <v>0.236581</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257159</v>
+        <v>0.257319</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231436</v>
+        <v>0.231586</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233208</v>
+        <v>0.233607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25286</v>
+        <v>0.253081</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229875</v>
+        <v>0.229825</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231761</v>
+        <v>0.232161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249576</v>
+        <v>0.250358</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328519</v>
+        <v>0.329206</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231547</v>
+        <v>0.232901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24971</v>
+        <v>0.250094</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318467</v>
+        <v>0.319074</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317695</v>
+        <v>0.319348</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355716</v>
+        <v>0.355614</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308859</v>
+        <v>0.309454</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308907</v>
+        <v>0.310283</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344333</v>
+        <v>0.344274</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299861</v>
+        <v>0.300405</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300558</v>
+        <v>0.301666</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333804</v>
+        <v>0.333607</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29125</v>
+        <v>0.29164</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293143</v>
+        <v>0.293654</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323695</v>
+        <v>0.323717</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283123</v>
+        <v>0.283514</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285516</v>
+        <v>0.286416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314219</v>
+        <v>0.314513</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275406</v>
+        <v>0.275783</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277961</v>
+        <v>0.279197</v>
       </c>
       <c r="C58" t="n">
-        <v>0.305167</v>
+        <v>0.305494</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268176</v>
+        <v>0.268822</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271595</v>
+        <v>0.272399</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296922</v>
+        <v>0.297115</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261529</v>
+        <v>0.261897</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265588</v>
+        <v>0.26608</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289071</v>
+        <v>0.289171</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25556</v>
+        <v>0.255943</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259834</v>
+        <v>0.260364</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281857</v>
+        <v>0.282052</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250258</v>
+        <v>0.250936</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254477</v>
+        <v>0.255259</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275424</v>
+        <v>0.275497</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245564</v>
+        <v>0.246322</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250122</v>
+        <v>0.250799</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269626</v>
+        <v>0.269773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242049</v>
+        <v>0.242613</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246448</v>
+        <v>0.247281</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265037</v>
+        <v>0.264979</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240137</v>
+        <v>0.24069</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244411</v>
+        <v>0.245256</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261836</v>
+        <v>0.261935</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240723</v>
+        <v>0.241221</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244054</v>
+        <v>0.245061</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261198</v>
+        <v>0.261365</v>
       </c>
       <c r="D66" t="n">
-        <v>0.350031</v>
+        <v>0.350665</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378535</v>
+        <v>0.37937</v>
       </c>
       <c r="C67" t="n">
-        <v>0.392269</v>
+        <v>0.393157</v>
       </c>
       <c r="D67" t="n">
-        <v>0.340303</v>
+        <v>0.340104</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.370649</v>
+        <v>0.371603</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380806</v>
+        <v>0.38123</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330924</v>
+        <v>0.330918</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36348</v>
+        <v>0.364406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369828</v>
+        <v>0.369998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322249</v>
+        <v>0.321956</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.356712</v>
+        <v>0.357394</v>
       </c>
       <c r="C70" t="n">
-        <v>0.35922</v>
+        <v>0.359119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.313844</v>
+        <v>0.313268</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3504</v>
+        <v>0.35056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34915</v>
+        <v>0.348993</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3059</v>
+        <v>0.305232</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344004</v>
+        <v>0.344113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339593</v>
+        <v>0.339319</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298087</v>
+        <v>0.297134</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337671</v>
+        <v>0.33747</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330385</v>
+        <v>0.330035</v>
       </c>
       <c r="D73" t="n">
-        <v>0.29096</v>
+        <v>0.290042</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331468</v>
+        <v>0.331439</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321844</v>
+        <v>0.321479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284257</v>
+        <v>0.283358</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324887</v>
+        <v>0.325144</v>
       </c>
       <c r="C75" t="n">
-        <v>0.31392</v>
+        <v>0.3134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.278258</v>
+        <v>0.277345</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318835</v>
+        <v>0.318898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306475</v>
+        <v>0.306227</v>
       </c>
       <c r="D76" t="n">
-        <v>0.273029</v>
+        <v>0.272212</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313223</v>
+        <v>0.313311</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299851</v>
+        <v>0.299597</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268617</v>
+        <v>0.267932</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308087</v>
+        <v>0.308269</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294222</v>
+        <v>0.294065</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265582</v>
+        <v>0.265069</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304316</v>
+        <v>0.304159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.29021</v>
+        <v>0.290045</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264981</v>
+        <v>0.264404</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301901</v>
+        <v>0.301752</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288061</v>
+        <v>0.287848</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412362</v>
+        <v>0.40494</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.53612</v>
+        <v>0.533012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.456647</v>
+        <v>0.455864</v>
       </c>
       <c r="D81" t="n">
-        <v>0.404215</v>
+        <v>0.398603</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.527303</v>
+        <v>0.524589</v>
       </c>
       <c r="C82" t="n">
-        <v>0.448799</v>
+        <v>0.448162</v>
       </c>
       <c r="D82" t="n">
-        <v>0.394464</v>
+        <v>0.388932</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.516804</v>
+        <v>0.513529</v>
       </c>
       <c r="C83" t="n">
-        <v>0.43748</v>
+        <v>0.437415</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38495</v>
+        <v>0.381299</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.505789</v>
+        <v>0.502701</v>
       </c>
       <c r="C84" t="n">
-        <v>0.426175</v>
+        <v>0.425829</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375959</v>
+        <v>0.37203</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.495659</v>
+        <v>0.491953</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415084</v>
+        <v>0.41616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.366548</v>
+        <v>0.363048</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.485444</v>
+        <v>0.481711</v>
       </c>
       <c r="C86" t="n">
-        <v>0.404114</v>
+        <v>0.405218</v>
       </c>
       <c r="D86" t="n">
-        <v>0.358395</v>
+        <v>0.354845</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.47529</v>
+        <v>0.471632</v>
       </c>
       <c r="C87" t="n">
-        <v>0.395168</v>
+        <v>0.395466</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350501</v>
+        <v>0.347866</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.46532</v>
+        <v>0.46188</v>
       </c>
       <c r="C88" t="n">
-        <v>0.385513</v>
+        <v>0.385662</v>
       </c>
       <c r="D88" t="n">
-        <v>0.343388</v>
+        <v>0.339601</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.455642</v>
+        <v>0.452703</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376648</v>
+        <v>0.376664</v>
       </c>
       <c r="D89" t="n">
-        <v>0.336093</v>
+        <v>0.333369</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446628</v>
+        <v>0.443554</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368745</v>
+        <v>0.36887</v>
       </c>
       <c r="D90" t="n">
-        <v>0.329864</v>
+        <v>0.326528</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437704</v>
+        <v>0.434919</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360768</v>
+        <v>0.360838</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323473</v>
+        <v>0.32112</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429897</v>
+        <v>0.426904</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355015</v>
+        <v>0.355689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.319782</v>
+        <v>0.317713</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422598</v>
+        <v>0.420271</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349496</v>
+        <v>0.349824</v>
       </c>
       <c r="D93" t="n">
-        <v>0.317061</v>
+        <v>0.315547</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416997</v>
+        <v>0.414258</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3465</v>
+        <v>0.346825</v>
       </c>
       <c r="D94" t="n">
-        <v>0.599649</v>
+        <v>0.583507</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.546108</v>
+        <v>0.543929</v>
       </c>
       <c r="C95" t="n">
-        <v>0.59919</v>
+        <v>0.5962809999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.587991</v>
+        <v>0.572976</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.540925</v>
+        <v>0.540026</v>
       </c>
       <c r="C96" t="n">
-        <v>0.589357</v>
+        <v>0.588192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571858</v>
+        <v>0.559415</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531961</v>
+        <v>0.530342</v>
       </c>
       <c r="C97" t="n">
-        <v>0.575037</v>
+        <v>0.573654</v>
       </c>
       <c r="D97" t="n">
-        <v>0.55635</v>
+        <v>0.545656</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521306</v>
+        <v>0.521038</v>
       </c>
       <c r="C98" t="n">
-        <v>0.559214</v>
+        <v>0.558378</v>
       </c>
       <c r="D98" t="n">
-        <v>0.54089</v>
+        <v>0.531201</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.511924</v>
+        <v>0.51187</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543744</v>
+        <v>0.54272</v>
       </c>
       <c r="D99" t="n">
-        <v>0.526572</v>
+        <v>0.517103</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502999</v>
+        <v>0.502365</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5292249999999999</v>
+        <v>0.528857</v>
       </c>
       <c r="D100" t="n">
-        <v>0.513117</v>
+        <v>0.503983</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.49471</v>
+        <v>0.49473</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516096</v>
+        <v>0.515363</v>
       </c>
       <c r="D101" t="n">
-        <v>0.499771</v>
+        <v>0.49015</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486155</v>
+        <v>0.486249</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503022</v>
+        <v>0.502849</v>
       </c>
       <c r="D102" t="n">
-        <v>0.487323</v>
+        <v>0.479874</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479835</v>
+        <v>0.479436</v>
       </c>
       <c r="C103" t="n">
-        <v>0.49118</v>
+        <v>0.490906</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476197</v>
+        <v>0.468829</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.47141</v>
+        <v>0.472669</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480437</v>
+        <v>0.480366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.465604</v>
+        <v>0.458023</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465605</v>
+        <v>0.465465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470512</v>
+        <v>0.470174</v>
       </c>
       <c r="D105" t="n">
-        <v>0.456393</v>
+        <v>0.450171</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.459867</v>
+        <v>0.460517</v>
       </c>
       <c r="C106" t="n">
-        <v>0.461951</v>
+        <v>0.46184</v>
       </c>
       <c r="D106" t="n">
-        <v>0.448123</v>
+        <v>0.442694</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.454629</v>
+        <v>0.455759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454682</v>
+        <v>0.454084</v>
       </c>
       <c r="D107" t="n">
-        <v>0.442274</v>
+        <v>0.433583</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.450329</v>
+        <v>0.45171</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449158</v>
+        <v>0.449107</v>
       </c>
       <c r="D108" t="n">
-        <v>0.651015</v>
+        <v>0.637422</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449216</v>
+        <v>0.449678</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447519</v>
+        <v>0.446699</v>
       </c>
       <c r="D109" t="n">
-        <v>0.641351</v>
+        <v>0.6281</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6483409999999999</v>
+        <v>0.646216</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703312</v>
+        <v>0.699678</v>
       </c>
       <c r="D110" t="n">
-        <v>0.626099</v>
+        <v>0.613199</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.636798</v>
+        <v>0.634423</v>
       </c>
       <c r="C111" t="n">
-        <v>0.687242</v>
+        <v>0.68518</v>
       </c>
       <c r="D111" t="n">
-        <v>0.610834</v>
+        <v>0.599214</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6243570000000001</v>
+        <v>0.6228320000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.669337</v>
+        <v>0.667146</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596146</v>
+        <v>0.5848100000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612833</v>
+        <v>0.61127</v>
       </c>
       <c r="C113" t="n">
-        <v>0.652519</v>
+        <v>0.650918</v>
       </c>
       <c r="D113" t="n">
-        <v>0.582711</v>
+        <v>0.571759</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.601606</v>
+        <v>0.600732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6371830000000001</v>
+        <v>0.636839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5696909999999999</v>
+        <v>0.559975</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590919</v>
+        <v>0.59056</v>
       </c>
       <c r="C115" t="n">
-        <v>0.622139</v>
+        <v>0.619719</v>
       </c>
       <c r="D115" t="n">
-        <v>0.556839</v>
+        <v>0.548339</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.580609</v>
+        <v>0.581508</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608203</v>
+        <v>0.608173</v>
       </c>
       <c r="D116" t="n">
-        <v>0.54557</v>
+        <v>0.53794</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.571539</v>
+        <v>0.572661</v>
       </c>
       <c r="C117" t="n">
-        <v>0.595224</v>
+        <v>0.593382</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534869</v>
+        <v>0.526909</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5628649999999999</v>
+        <v>0.56111</v>
       </c>
       <c r="C118" t="n">
-        <v>0.583441</v>
+        <v>0.581569</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5243139999999999</v>
+        <v>0.51708</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.554694</v>
+        <v>0.555992</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57234</v>
+        <v>0.570818</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5154</v>
+        <v>0.50843</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5475139999999999</v>
+        <v>0.549027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5633</v>
+        <v>0.560354</v>
       </c>
       <c r="D120" t="n">
-        <v>0.506637</v>
+        <v>0.499392</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.540957</v>
+        <v>0.542061</v>
       </c>
       <c r="C121" t="n">
-        <v>0.553015</v>
+        <v>0.554005</v>
       </c>
       <c r="D121" t="n">
-        <v>0.499445</v>
+        <v>0.494609</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.535327</v>
+        <v>0.5369660000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.546748</v>
+        <v>0.547351</v>
       </c>
       <c r="D122" t="n">
-        <v>0.494731</v>
+        <v>0.491727</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.532272</v>
+        <v>0.534745</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5414949999999999</v>
+        <v>0.542404</v>
       </c>
       <c r="D123" t="n">
-        <v>0.705918</v>
+        <v>0.696059</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.724821</v>
+        <v>0.72434</v>
       </c>
       <c r="C124" t="n">
-        <v>0.794053</v>
+        <v>0.792134</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6935829999999999</v>
+        <v>0.681522</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.714836</v>
+        <v>0.715661</v>
       </c>
       <c r="C125" t="n">
-        <v>0.778533</v>
+        <v>0.777349</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683086</v>
+        <v>0.674493</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.704987</v>
+        <v>0.70594</v>
       </c>
       <c r="C126" t="n">
-        <v>0.762974</v>
+        <v>0.763522</v>
       </c>
       <c r="D126" t="n">
-        <v>0.67208</v>
+        <v>0.6650509999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.695369</v>
+        <v>0.696302</v>
       </c>
       <c r="C127" t="n">
-        <v>0.750026</v>
+        <v>0.749951</v>
       </c>
       <c r="D127" t="n">
-        <v>0.659931</v>
+        <v>0.655816</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.686456</v>
+        <v>0.687605</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7370910000000001</v>
+        <v>0.735965</v>
       </c>
       <c r="D128" t="n">
-        <v>0.651277</v>
+        <v>0.646916</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.678092</v>
+        <v>0.679449</v>
       </c>
       <c r="C129" t="n">
-        <v>0.725059</v>
+        <v>0.725197</v>
       </c>
       <c r="D129" t="n">
-        <v>0.643906</v>
+        <v>0.639251</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.670447</v>
+        <v>0.671269</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713535</v>
+        <v>0.713342</v>
       </c>
       <c r="D130" t="n">
-        <v>0.635736</v>
+        <v>0.6325190000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.663521</v>
+        <v>0.664812</v>
       </c>
       <c r="C131" t="n">
-        <v>0.703483</v>
+        <v>0.701892</v>
       </c>
       <c r="D131" t="n">
-        <v>0.628623</v>
+        <v>0.620319</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.655987</v>
+        <v>0.656731</v>
       </c>
       <c r="C132" t="n">
-        <v>0.693026</v>
+        <v>0.694198</v>
       </c>
       <c r="D132" t="n">
-        <v>0.621661</v>
+        <v>0.614957</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.649375</v>
+        <v>0.648631</v>
       </c>
       <c r="C133" t="n">
-        <v>0.684151</v>
+        <v>0.685898</v>
       </c>
       <c r="D133" t="n">
-        <v>0.615582</v>
+        <v>0.611242</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.644137</v>
+        <v>0.64507</v>
       </c>
       <c r="C134" t="n">
-        <v>0.676865</v>
+        <v>0.6787609999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.610178</v>
+        <v>0.608378</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.638491</v>
+        <v>0.639625</v>
       </c>
       <c r="C135" t="n">
-        <v>0.669799</v>
+        <v>0.671563</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6043500000000001</v>
+        <v>0.6009910000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.633826</v>
+        <v>0.634593</v>
       </c>
       <c r="C136" t="n">
-        <v>0.664071</v>
+        <v>0.665479</v>
       </c>
       <c r="D136" t="n">
-        <v>0.597958</v>
+        <v>0.598627</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.630751</v>
+        <v>0.631177</v>
       </c>
       <c r="C137" t="n">
-        <v>0.65934</v>
+        <v>0.661208</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8125520000000001</v>
+        <v>0.804986</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.818815</v>
+        <v>0.818929</v>
       </c>
       <c r="C138" t="n">
-        <v>0.915874</v>
+        <v>0.916918</v>
       </c>
       <c r="D138" t="n">
-        <v>0.801352</v>
+        <v>0.795029</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.809881</v>
+        <v>0.811034</v>
       </c>
       <c r="C139" t="n">
-        <v>0.900915</v>
+        <v>0.900044</v>
       </c>
       <c r="D139" t="n">
-        <v>0.792461</v>
+        <v>0.787188</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.801603</v>
+        <v>0.803177</v>
       </c>
       <c r="C140" t="n">
-        <v>0.887162</v>
+        <v>0.886978</v>
       </c>
       <c r="D140" t="n">
-        <v>0.783064</v>
+        <v>0.777397</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.792278</v>
+        <v>0.794007</v>
       </c>
       <c r="C141" t="n">
-        <v>0.872333</v>
+        <v>0.873376</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7754259999999999</v>
+        <v>0.770225</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.785149</v>
+        <v>0.788014</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8595930000000001</v>
+        <v>0.861303</v>
       </c>
       <c r="D142" t="n">
-        <v>0.766974</v>
+        <v>0.760738</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.778054</v>
+        <v>0.780852</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848526</v>
+        <v>0.849335</v>
       </c>
       <c r="D143" t="n">
-        <v>0.75945</v>
+        <v>0.754712</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246979</v>
+        <v>0.246696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251171</v>
+        <v>0.251161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21913</v>
+        <v>0.220471</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240595</v>
+        <v>0.240556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243269</v>
+        <v>0.243746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213418</v>
+        <v>0.214552</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234378</v>
+        <v>0.234502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236624</v>
+        <v>0.236627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20878</v>
+        <v>0.209485</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229172</v>
+        <v>0.229261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230547</v>
+        <v>0.230495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20426</v>
+        <v>0.205758</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224411</v>
+        <v>0.224499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225241</v>
+        <v>0.225243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200253</v>
+        <v>0.201845</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220695</v>
+        <v>0.220923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221547</v>
+        <v>0.221914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198984</v>
+        <v>0.200588</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218622</v>
+        <v>0.219004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21862</v>
+        <v>0.21914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199787</v>
+        <v>0.200509</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218097</v>
+        <v>0.21831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218951</v>
+        <v>0.219122</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294975</v>
+        <v>0.292804</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306021</v>
+        <v>0.306191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.329902</v>
+        <v>0.329722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.284605</v>
+        <v>0.283096</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296521</v>
+        <v>0.296545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318688</v>
+        <v>0.318495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.275566</v>
+        <v>0.273761</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287384</v>
+        <v>0.287324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307537</v>
+        <v>0.307716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.266558</v>
+        <v>0.265093</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278541</v>
+        <v>0.2791</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296873</v>
+        <v>0.297411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258519</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270236</v>
+        <v>0.270103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287482</v>
+        <v>0.287439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250506</v>
+        <v>0.249241</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262337</v>
+        <v>0.262421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278161</v>
+        <v>0.278275</v>
       </c>
       <c r="D15" t="n">
-        <v>0.243418</v>
+        <v>0.241842</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255293</v>
+        <v>0.255238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269456</v>
+        <v>0.269447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236294</v>
+        <v>0.235092</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248477</v>
+        <v>0.248657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261424</v>
+        <v>0.261533</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230228</v>
+        <v>0.229196</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242493</v>
+        <v>0.242617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254199</v>
+        <v>0.254454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.225043</v>
+        <v>0.22382</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236867</v>
+        <v>0.236921</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24781</v>
+        <v>0.247001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220214</v>
+        <v>0.219469</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232184</v>
+        <v>0.231972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.241018</v>
+        <v>0.242302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21671</v>
+        <v>0.216482</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228039</v>
+        <v>0.227971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238051</v>
+        <v>0.23826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214587</v>
+        <v>0.214595</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225479</v>
+        <v>0.225548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235157</v>
+        <v>0.235245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214756</v>
+        <v>0.215342</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224706</v>
+        <v>0.224614</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234468</v>
+        <v>0.233666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307834</v>
+        <v>0.307519</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311986</v>
+        <v>0.311932</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344254</v>
+        <v>0.344939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.298319</v>
+        <v>0.297671</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302642</v>
+        <v>0.302626</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333149</v>
+        <v>0.333003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288529</v>
+        <v>0.288006</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293217</v>
+        <v>0.293705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321928</v>
+        <v>0.322324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279323</v>
+        <v>0.279078</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284379</v>
+        <v>0.2846</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311116</v>
+        <v>0.31107</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270597</v>
+        <v>0.270301</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275907</v>
+        <v>0.276393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.300102</v>
+        <v>0.301166</v>
       </c>
       <c r="D28" t="n">
-        <v>0.262602</v>
+        <v>0.262269</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268383</v>
+        <v>0.268613</v>
       </c>
       <c r="C29" t="n">
-        <v>0.291915</v>
+        <v>0.292242</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255064</v>
+        <v>0.254638</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261031</v>
+        <v>0.261265</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282006</v>
+        <v>0.282765</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247784</v>
+        <v>0.247397</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253456</v>
+        <v>0.253973</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274047</v>
+        <v>0.27411</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241418</v>
+        <v>0.240903</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247751</v>
+        <v>0.247714</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266398</v>
+        <v>0.266682</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235263</v>
+        <v>0.234787</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241968</v>
+        <v>0.242016</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25884</v>
+        <v>0.25913</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229653</v>
+        <v>0.229563</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236928</v>
+        <v>0.236893</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252547</v>
+        <v>0.252928</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225017</v>
+        <v>0.225379</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232577</v>
+        <v>0.232476</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247528</v>
+        <v>0.247317</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221947</v>
+        <v>0.222351</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229875</v>
+        <v>0.230011</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243543</v>
+        <v>0.243971</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221169</v>
+        <v>0.221577</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228005</v>
+        <v>0.227921</v>
       </c>
       <c r="C37" t="n">
-        <v>0.24127</v>
+        <v>0.241871</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316666</v>
+        <v>0.316168</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316255</v>
+        <v>0.316292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353714</v>
+        <v>0.35412</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306742</v>
+        <v>0.306065</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306199</v>
+        <v>0.305743</v>
       </c>
       <c r="C39" t="n">
-        <v>0.34235</v>
+        <v>0.342704</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297181</v>
+        <v>0.296556</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.29722</v>
+        <v>0.296791</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331346</v>
+        <v>0.331597</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28813</v>
+        <v>0.28763</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288983</v>
+        <v>0.288305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.320574</v>
+        <v>0.320963</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279657</v>
+        <v>0.279042</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280706</v>
+        <v>0.280067</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310546</v>
+        <v>0.310897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271944</v>
+        <v>0.270961</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272383</v>
+        <v>0.272362</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301192</v>
+        <v>0.301214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263632</v>
+        <v>0.263203</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265767</v>
+        <v>0.265233</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291955</v>
+        <v>0.292122</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256902</v>
+        <v>0.255996</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258782</v>
+        <v>0.258152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283623</v>
+        <v>0.283847</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250192</v>
+        <v>0.249537</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252452</v>
+        <v>0.251942</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275914</v>
+        <v>0.276056</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244465</v>
+        <v>0.243565</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246544</v>
+        <v>0.24671</v>
       </c>
       <c r="C47" t="n">
-        <v>0.269169</v>
+        <v>0.268974</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239198</v>
+        <v>0.238476</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241031</v>
+        <v>0.241196</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262836</v>
+        <v>0.262587</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234787</v>
+        <v>0.233957</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236581</v>
+        <v>0.236713</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257319</v>
+        <v>0.257088</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231586</v>
+        <v>0.230765</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233607</v>
+        <v>0.233254</v>
       </c>
       <c r="C50" t="n">
-        <v>0.253081</v>
+        <v>0.252348</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229825</v>
+        <v>0.229408</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232161</v>
+        <v>0.231883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.250358</v>
+        <v>0.250038</v>
       </c>
       <c r="D51" t="n">
-        <v>0.329206</v>
+        <v>0.328024</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232901</v>
+        <v>0.232708</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250094</v>
+        <v>0.249777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319074</v>
+        <v>0.318145</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319348</v>
+        <v>0.317463</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355614</v>
+        <v>0.354353</v>
       </c>
       <c r="D53" t="n">
-        <v>0.309454</v>
+        <v>0.308731</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310283</v>
+        <v>0.308256</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344274</v>
+        <v>0.343434</v>
       </c>
       <c r="D54" t="n">
-        <v>0.300405</v>
+        <v>0.29949</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301666</v>
+        <v>0.299768</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333607</v>
+        <v>0.332822</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29164</v>
+        <v>0.291086</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293654</v>
+        <v>0.291558</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323717</v>
+        <v>0.322767</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283514</v>
+        <v>0.283008</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286416</v>
+        <v>0.284565</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314513</v>
+        <v>0.313655</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275783</v>
+        <v>0.275316</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279197</v>
+        <v>0.277475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.305494</v>
+        <v>0.304743</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268822</v>
+        <v>0.268373</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272399</v>
+        <v>0.270635</v>
       </c>
       <c r="C59" t="n">
-        <v>0.297115</v>
+        <v>0.296321</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261897</v>
+        <v>0.261759</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26608</v>
+        <v>0.264624</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289171</v>
+        <v>0.288802</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255943</v>
+        <v>0.255825</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260364</v>
+        <v>0.258874</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282052</v>
+        <v>0.28169</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250936</v>
+        <v>0.250419</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255259</v>
+        <v>0.253747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275497</v>
+        <v>0.275094</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246322</v>
+        <v>0.245871</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250799</v>
+        <v>0.249183</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269773</v>
+        <v>0.269437</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242613</v>
+        <v>0.242501</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247281</v>
+        <v>0.246042</v>
       </c>
       <c r="C64" t="n">
-        <v>0.264979</v>
+        <v>0.2648</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24069</v>
+        <v>0.240586</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245256</v>
+        <v>0.243904</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261935</v>
+        <v>0.26161</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241221</v>
+        <v>0.241021</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245061</v>
+        <v>0.243897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261365</v>
+        <v>0.260946</v>
       </c>
       <c r="D66" t="n">
-        <v>0.350665</v>
+        <v>0.351379</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37937</v>
+        <v>0.377029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.393157</v>
+        <v>0.392497</v>
       </c>
       <c r="D67" t="n">
-        <v>0.340104</v>
+        <v>0.339977</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.371603</v>
+        <v>0.368945</v>
       </c>
       <c r="C68" t="n">
-        <v>0.38123</v>
+        <v>0.380665</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330918</v>
+        <v>0.331008</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364406</v>
+        <v>0.361661</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369998</v>
+        <v>0.369458</v>
       </c>
       <c r="D69" t="n">
-        <v>0.321956</v>
+        <v>0.322168</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357394</v>
+        <v>0.354997</v>
       </c>
       <c r="C70" t="n">
-        <v>0.359119</v>
+        <v>0.358802</v>
       </c>
       <c r="D70" t="n">
-        <v>0.313268</v>
+        <v>0.31369</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35056</v>
+        <v>0.348407</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348993</v>
+        <v>0.348709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.305232</v>
+        <v>0.305779</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344113</v>
+        <v>0.341788</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339319</v>
+        <v>0.339261</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297134</v>
+        <v>0.298199</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33747</v>
+        <v>0.33521</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330035</v>
+        <v>0.330333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290042</v>
+        <v>0.290997</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331439</v>
+        <v>0.328948</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321479</v>
+        <v>0.321731</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283358</v>
+        <v>0.284423</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325144</v>
+        <v>0.322573</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3134</v>
+        <v>0.313782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277345</v>
+        <v>0.278604</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318898</v>
+        <v>0.31641</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306227</v>
+        <v>0.306432</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272212</v>
+        <v>0.273447</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313311</v>
+        <v>0.311208</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299597</v>
+        <v>0.299907</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267932</v>
+        <v>0.269387</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308269</v>
+        <v>0.306352</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294065</v>
+        <v>0.294387</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265069</v>
+        <v>0.266471</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304159</v>
+        <v>0.302134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290045</v>
+        <v>0.290196</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264404</v>
+        <v>0.265717</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301752</v>
+        <v>0.299917</v>
       </c>
       <c r="C80" t="n">
-        <v>0.287848</v>
+        <v>0.288078</v>
       </c>
       <c r="D80" t="n">
-        <v>0.40494</v>
+        <v>0.409412</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.533012</v>
+        <v>0.5318079999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.455864</v>
+        <v>0.455654</v>
       </c>
       <c r="D81" t="n">
-        <v>0.398603</v>
+        <v>0.401263</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.524589</v>
+        <v>0.523407</v>
       </c>
       <c r="C82" t="n">
-        <v>0.448162</v>
+        <v>0.44741</v>
       </c>
       <c r="D82" t="n">
-        <v>0.388932</v>
+        <v>0.389658</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.513529</v>
+        <v>0.512653</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437415</v>
+        <v>0.437102</v>
       </c>
       <c r="D83" t="n">
-        <v>0.381299</v>
+        <v>0.383822</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.502701</v>
+        <v>0.501772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425829</v>
+        <v>0.426184</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37203</v>
+        <v>0.375397</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491953</v>
+        <v>0.491716</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41616</v>
+        <v>0.41481</v>
       </c>
       <c r="D85" t="n">
-        <v>0.363048</v>
+        <v>0.363771</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.481711</v>
+        <v>0.480646</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405218</v>
+        <v>0.404408</v>
       </c>
       <c r="D86" t="n">
-        <v>0.354845</v>
+        <v>0.355546</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.471632</v>
+        <v>0.470955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.395466</v>
+        <v>0.394938</v>
       </c>
       <c r="D87" t="n">
-        <v>0.347866</v>
+        <v>0.349889</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.46188</v>
+        <v>0.461121</v>
       </c>
       <c r="C88" t="n">
-        <v>0.385662</v>
+        <v>0.385177</v>
       </c>
       <c r="D88" t="n">
-        <v>0.339601</v>
+        <v>0.342451</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.452703</v>
+        <v>0.451749</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376664</v>
+        <v>0.376074</v>
       </c>
       <c r="D89" t="n">
-        <v>0.333369</v>
+        <v>0.333635</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.443554</v>
+        <v>0.442606</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36887</v>
+        <v>0.368954</v>
       </c>
       <c r="D90" t="n">
-        <v>0.326528</v>
+        <v>0.329154</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.434919</v>
+        <v>0.433767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360838</v>
+        <v>0.361042</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32112</v>
+        <v>0.322238</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.426904</v>
+        <v>0.426288</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355689</v>
+        <v>0.354735</v>
       </c>
       <c r="D92" t="n">
-        <v>0.317713</v>
+        <v>0.31793</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.420271</v>
+        <v>0.419238</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349824</v>
+        <v>0.349993</v>
       </c>
       <c r="D93" t="n">
-        <v>0.315547</v>
+        <v>0.316974</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.414258</v>
+        <v>0.413727</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346825</v>
+        <v>0.347048</v>
       </c>
       <c r="D94" t="n">
-        <v>0.583507</v>
+        <v>0.585798</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.543929</v>
+        <v>0.54432</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5962809999999999</v>
+        <v>0.596974</v>
       </c>
       <c r="D95" t="n">
-        <v>0.572976</v>
+        <v>0.574166</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.540026</v>
+        <v>0.539865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.588192</v>
+        <v>0.589216</v>
       </c>
       <c r="D96" t="n">
-        <v>0.559415</v>
+        <v>0.558734</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.530342</v>
+        <v>0.531506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.573654</v>
+        <v>0.574088</v>
       </c>
       <c r="D97" t="n">
-        <v>0.545656</v>
+        <v>0.543722</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521038</v>
+        <v>0.521824</v>
       </c>
       <c r="C98" t="n">
-        <v>0.558378</v>
+        <v>0.5582510000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531201</v>
+        <v>0.528836</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.51187</v>
+        <v>0.512387</v>
       </c>
       <c r="C99" t="n">
-        <v>0.54272</v>
+        <v>0.543636</v>
       </c>
       <c r="D99" t="n">
-        <v>0.517103</v>
+        <v>0.516806</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502365</v>
+        <v>0.503926</v>
       </c>
       <c r="C100" t="n">
-        <v>0.528857</v>
+        <v>0.526652</v>
       </c>
       <c r="D100" t="n">
-        <v>0.503983</v>
+        <v>0.502872</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.49473</v>
+        <v>0.494266</v>
       </c>
       <c r="C101" t="n">
-        <v>0.515363</v>
+        <v>0.515382</v>
       </c>
       <c r="D101" t="n">
-        <v>0.49015</v>
+        <v>0.491804</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486249</v>
+        <v>0.487416</v>
       </c>
       <c r="C102" t="n">
-        <v>0.502849</v>
+        <v>0.503444</v>
       </c>
       <c r="D102" t="n">
-        <v>0.479874</v>
+        <v>0.479817</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479436</v>
+        <v>0.48054</v>
       </c>
       <c r="C103" t="n">
-        <v>0.490906</v>
+        <v>0.491692</v>
       </c>
       <c r="D103" t="n">
-        <v>0.468829</v>
+        <v>0.468924</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472669</v>
+        <v>0.473115</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480366</v>
+        <v>0.48008</v>
       </c>
       <c r="D104" t="n">
-        <v>0.458023</v>
+        <v>0.457835</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465465</v>
+        <v>0.466182</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470174</v>
+        <v>0.471203</v>
       </c>
       <c r="D105" t="n">
-        <v>0.450171</v>
+        <v>0.449882</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.460517</v>
+        <v>0.460208</v>
       </c>
       <c r="C106" t="n">
-        <v>0.46184</v>
+        <v>0.461633</v>
       </c>
       <c r="D106" t="n">
-        <v>0.442694</v>
+        <v>0.441681</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.455759</v>
+        <v>0.456274</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454084</v>
+        <v>0.455165</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433583</v>
+        <v>0.436798</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.45171</v>
+        <v>0.452109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449107</v>
+        <v>0.450373</v>
       </c>
       <c r="D108" t="n">
-        <v>0.637422</v>
+        <v>0.640031</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449678</v>
+        <v>0.451139</v>
       </c>
       <c r="C109" t="n">
-        <v>0.446699</v>
+        <v>0.447308</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6281</v>
+        <v>0.630914</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.646216</v>
+        <v>0.647595</v>
       </c>
       <c r="C110" t="n">
-        <v>0.699678</v>
+        <v>0.7041809999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.613199</v>
+        <v>0.6153419999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.634423</v>
+        <v>0.636113</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68518</v>
+        <v>0.686045</v>
       </c>
       <c r="D111" t="n">
-        <v>0.599214</v>
+        <v>0.6007479999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6228320000000001</v>
+        <v>0.6243649999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.667146</v>
+        <v>0.669526</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5848100000000001</v>
+        <v>0.5866400000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61127</v>
+        <v>0.612724</v>
       </c>
       <c r="C113" t="n">
-        <v>0.650918</v>
+        <v>0.652378</v>
       </c>
       <c r="D113" t="n">
-        <v>0.571759</v>
+        <v>0.573025</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.600732</v>
+        <v>0.600839</v>
       </c>
       <c r="C114" t="n">
-        <v>0.636839</v>
+        <v>0.637602</v>
       </c>
       <c r="D114" t="n">
-        <v>0.559975</v>
+        <v>0.563739</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.59056</v>
+        <v>0.592902</v>
       </c>
       <c r="C115" t="n">
-        <v>0.619719</v>
+        <v>0.621942</v>
       </c>
       <c r="D115" t="n">
-        <v>0.548339</v>
+        <v>0.549315</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.581508</v>
+        <v>0.582657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608173</v>
+        <v>0.608443</v>
       </c>
       <c r="D116" t="n">
-        <v>0.53794</v>
+        <v>0.53939</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.572661</v>
+        <v>0.5737409999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.593382</v>
+        <v>0.595819</v>
       </c>
       <c r="D117" t="n">
-        <v>0.526909</v>
+        <v>0.529571</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.56111</v>
+        <v>0.565204</v>
       </c>
       <c r="C118" t="n">
-        <v>0.581569</v>
+        <v>0.583048</v>
       </c>
       <c r="D118" t="n">
-        <v>0.51708</v>
+        <v>0.519679</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.555992</v>
+        <v>0.557132</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570818</v>
+        <v>0.573465</v>
       </c>
       <c r="D119" t="n">
-        <v>0.50843</v>
+        <v>0.510283</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.549027</v>
+        <v>0.550445</v>
       </c>
       <c r="C120" t="n">
-        <v>0.560354</v>
+        <v>0.564324</v>
       </c>
       <c r="D120" t="n">
-        <v>0.499392</v>
+        <v>0.502472</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.542061</v>
+        <v>0.543037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.554005</v>
+        <v>0.555125</v>
       </c>
       <c r="D121" t="n">
-        <v>0.494609</v>
+        <v>0.494956</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5369660000000001</v>
+        <v>0.534003</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547351</v>
+        <v>0.547027</v>
       </c>
       <c r="D122" t="n">
-        <v>0.491727</v>
+        <v>0.490065</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.534745</v>
+        <v>0.531224</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542404</v>
+        <v>0.544112</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696059</v>
+        <v>0.6975170000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72434</v>
+        <v>0.72702</v>
       </c>
       <c r="C124" t="n">
-        <v>0.792134</v>
+        <v>0.79242</v>
       </c>
       <c r="D124" t="n">
-        <v>0.681522</v>
+        <v>0.686621</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.715661</v>
+        <v>0.71602</v>
       </c>
       <c r="C125" t="n">
-        <v>0.777349</v>
+        <v>0.7775260000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.674493</v>
+        <v>0.675998</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.70594</v>
+        <v>0.7069839999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.763522</v>
+        <v>0.764776</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6650509999999999</v>
+        <v>0.666032</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.696302</v>
+        <v>0.697134</v>
       </c>
       <c r="C127" t="n">
-        <v>0.749951</v>
+        <v>0.751638</v>
       </c>
       <c r="D127" t="n">
-        <v>0.655816</v>
+        <v>0.6567809999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687605</v>
+        <v>0.688499</v>
       </c>
       <c r="C128" t="n">
-        <v>0.735965</v>
+        <v>0.736975</v>
       </c>
       <c r="D128" t="n">
-        <v>0.646916</v>
+        <v>0.648085</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.679449</v>
+        <v>0.68004</v>
       </c>
       <c r="C129" t="n">
-        <v>0.725197</v>
+        <v>0.72653</v>
       </c>
       <c r="D129" t="n">
-        <v>0.639251</v>
+        <v>0.635939</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.671269</v>
+        <v>0.6722089999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713342</v>
+        <v>0.715943</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6325190000000001</v>
+        <v>0.633324</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.664812</v>
+        <v>0.665226</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701892</v>
+        <v>0.7055169999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.620319</v>
+        <v>0.625562</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.656731</v>
+        <v>0.659174</v>
       </c>
       <c r="C132" t="n">
-        <v>0.694198</v>
+        <v>0.696233</v>
       </c>
       <c r="D132" t="n">
-        <v>0.614957</v>
+        <v>0.6211719999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.648631</v>
+        <v>0.652405</v>
       </c>
       <c r="C133" t="n">
         <v>0.685898</v>
       </c>
       <c r="D133" t="n">
-        <v>0.611242</v>
+        <v>0.610973</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.64507</v>
+        <v>0.646126</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6787609999999999</v>
+        <v>0.678999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.608378</v>
+        <v>0.610182</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.639625</v>
+        <v>0.64197</v>
       </c>
       <c r="C135" t="n">
-        <v>0.671563</v>
+        <v>0.673314</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6009910000000001</v>
+        <v>0.604467</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.634593</v>
+        <v>0.636978</v>
       </c>
       <c r="C136" t="n">
-        <v>0.665479</v>
+        <v>0.666574</v>
       </c>
       <c r="D136" t="n">
-        <v>0.598627</v>
+        <v>0.60041</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.631177</v>
+        <v>0.633346</v>
       </c>
       <c r="C137" t="n">
-        <v>0.661208</v>
+        <v>0.661384</v>
       </c>
       <c r="D137" t="n">
-        <v>0.804986</v>
+        <v>0.806106</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.818929</v>
+        <v>0.82072</v>
       </c>
       <c r="C138" t="n">
-        <v>0.916918</v>
+        <v>0.916601</v>
       </c>
       <c r="D138" t="n">
-        <v>0.795029</v>
+        <v>0.794836</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.811034</v>
+        <v>0.811113</v>
       </c>
       <c r="C139" t="n">
-        <v>0.900044</v>
+        <v>0.902842</v>
       </c>
       <c r="D139" t="n">
-        <v>0.787188</v>
+        <v>0.788384</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.803177</v>
+        <v>0.803196</v>
       </c>
       <c r="C140" t="n">
-        <v>0.886978</v>
+        <v>0.887921</v>
       </c>
       <c r="D140" t="n">
-        <v>0.777397</v>
+        <v>0.777338</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.794007</v>
+        <v>0.793651</v>
       </c>
       <c r="C141" t="n">
-        <v>0.873376</v>
+        <v>0.874928</v>
       </c>
       <c r="D141" t="n">
-        <v>0.770225</v>
+        <v>0.7719279999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788014</v>
+        <v>0.787789</v>
       </c>
       <c r="C142" t="n">
-        <v>0.861303</v>
+        <v>0.862111</v>
       </c>
       <c r="D142" t="n">
-        <v>0.760738</v>
+        <v>0.765436</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.780852</v>
+        <v>0.780289</v>
       </c>
       <c r="C143" t="n">
-        <v>0.849335</v>
+        <v>0.850118</v>
       </c>
       <c r="D143" t="n">
-        <v>0.754712</v>
+        <v>0.756</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246696</v>
+        <v>0.243979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251161</v>
+        <v>0.251708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220471</v>
+        <v>0.221591</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240556</v>
+        <v>0.238471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243746</v>
+        <v>0.243877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214552</v>
+        <v>0.215361</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234502</v>
+        <v>0.232773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236627</v>
+        <v>0.236913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209485</v>
+        <v>0.210073</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229261</v>
+        <v>0.227327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230495</v>
+        <v>0.231092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205758</v>
+        <v>0.206658</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224499</v>
+        <v>0.223253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225243</v>
+        <v>0.225745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201845</v>
+        <v>0.202818</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220923</v>
+        <v>0.22002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221914</v>
+        <v>0.221799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200588</v>
+        <v>0.20191</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219004</v>
+        <v>0.217647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21914</v>
+        <v>0.219315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200509</v>
+        <v>0.202747</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21831</v>
+        <v>0.217792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219122</v>
+        <v>0.219369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292804</v>
+        <v>0.296903</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306191</v>
+        <v>0.306568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.329722</v>
+        <v>0.32965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.283096</v>
+        <v>0.287254</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296545</v>
+        <v>0.29617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318495</v>
+        <v>0.318549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273761</v>
+        <v>0.277682</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287324</v>
+        <v>0.286892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307716</v>
+        <v>0.307665</v>
       </c>
       <c r="D12" t="n">
-        <v>0.265093</v>
+        <v>0.269169</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2791</v>
+        <v>0.278292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.297411</v>
+        <v>0.297115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2572</v>
+        <v>0.261016</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270103</v>
+        <v>0.269902</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287439</v>
+        <v>0.287359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249241</v>
+        <v>0.253132</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262421</v>
+        <v>0.262109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278275</v>
+        <v>0.278195</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241842</v>
+        <v>0.246096</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255238</v>
+        <v>0.254898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269447</v>
+        <v>0.269407</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235092</v>
+        <v>0.238891</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248657</v>
+        <v>0.248147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261533</v>
+        <v>0.26147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229196</v>
+        <v>0.23317</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242617</v>
+        <v>0.242329</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254454</v>
+        <v>0.254278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22382</v>
+        <v>0.228009</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236921</v>
+        <v>0.236284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247001</v>
+        <v>0.247885</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219469</v>
+        <v>0.223252</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231972</v>
+        <v>0.231685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242302</v>
+        <v>0.242247</v>
       </c>
       <c r="D20" t="n">
-        <v>0.216482</v>
+        <v>0.220097</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227971</v>
+        <v>0.227795</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23826</v>
+        <v>0.238241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214595</v>
+        <v>0.218423</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225548</v>
+        <v>0.225182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235245</v>
+        <v>0.235322</v>
       </c>
       <c r="D22" t="n">
-        <v>0.215342</v>
+        <v>0.219269</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224614</v>
+        <v>0.224529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233666</v>
+        <v>0.234637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307519</v>
+        <v>0.312033</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311932</v>
+        <v>0.312017</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344939</v>
+        <v>0.344955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.297671</v>
+        <v>0.302108</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302626</v>
+        <v>0.302657</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333003</v>
+        <v>0.333147</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288006</v>
+        <v>0.29262</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293705</v>
+        <v>0.293373</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322324</v>
+        <v>0.321884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279078</v>
+        <v>0.283101</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2846</v>
+        <v>0.284634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.31107</v>
+        <v>0.311728</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270301</v>
+        <v>0.274393</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276393</v>
+        <v>0.276252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301166</v>
+        <v>0.301574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.262269</v>
+        <v>0.266306</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268613</v>
+        <v>0.268235</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292242</v>
+        <v>0.292113</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254638</v>
+        <v>0.258506</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261265</v>
+        <v>0.261079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282765</v>
+        <v>0.282572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247397</v>
+        <v>0.251451</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253973</v>
+        <v>0.254199</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27411</v>
+        <v>0.274523</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240903</v>
+        <v>0.244818</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247714</v>
+        <v>0.247883</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266682</v>
+        <v>0.266303</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234787</v>
+        <v>0.238751</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242016</v>
+        <v>0.241843</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25913</v>
+        <v>0.259604</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229563</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236893</v>
+        <v>0.236994</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252928</v>
+        <v>0.252892</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225379</v>
+        <v>0.229153</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232476</v>
+        <v>0.232627</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247317</v>
+        <v>0.247786</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222351</v>
+        <v>0.226329</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230011</v>
+        <v>0.229746</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243971</v>
+        <v>0.243339</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221577</v>
+        <v>0.225553</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227921</v>
+        <v>0.227839</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241871</v>
+        <v>0.241798</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316168</v>
+        <v>0.320365</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316292</v>
+        <v>0.315781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35412</v>
+        <v>0.354226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306065</v>
+        <v>0.310314</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305743</v>
+        <v>0.305822</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342704</v>
+        <v>0.342774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296556</v>
+        <v>0.300693</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296791</v>
+        <v>0.296889</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331597</v>
+        <v>0.331374</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28763</v>
+        <v>0.291677</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288305</v>
+        <v>0.288138</v>
       </c>
       <c r="C41" t="n">
-        <v>0.320963</v>
+        <v>0.321035</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279042</v>
+        <v>0.283042</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280067</v>
+        <v>0.280367</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310897</v>
+        <v>0.310902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.270961</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272362</v>
+        <v>0.27233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301214</v>
+        <v>0.301141</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263203</v>
+        <v>0.267068</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265233</v>
+        <v>0.265035</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292122</v>
+        <v>0.292038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255996</v>
+        <v>0.259776</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258152</v>
+        <v>0.258328</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283847</v>
+        <v>0.283912</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249537</v>
+        <v>0.253271</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251942</v>
+        <v>0.251582</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276056</v>
+        <v>0.27623</v>
       </c>
       <c r="D46" t="n">
-        <v>0.243565</v>
+        <v>0.247354</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.24671</v>
+        <v>0.246254</v>
       </c>
       <c r="C47" t="n">
-        <v>0.268974</v>
+        <v>0.269107</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238476</v>
+        <v>0.24217</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241196</v>
+        <v>0.241017</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262587</v>
+        <v>0.262771</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233957</v>
+        <v>0.237732</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236713</v>
+        <v>0.236989</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257088</v>
+        <v>0.257089</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230765</v>
+        <v>0.234702</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233254</v>
+        <v>0.233117</v>
       </c>
       <c r="C50" t="n">
-        <v>0.252348</v>
+        <v>0.252974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229408</v>
+        <v>0.233069</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231883</v>
+        <v>0.231045</v>
       </c>
       <c r="C51" t="n">
-        <v>0.250038</v>
+        <v>0.25029</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328024</v>
+        <v>0.332275</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232708</v>
+        <v>0.231973</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249777</v>
+        <v>0.249641</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318145</v>
+        <v>0.322513</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317463</v>
+        <v>0.317805</v>
       </c>
       <c r="C53" t="n">
-        <v>0.354353</v>
+        <v>0.355463</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308731</v>
+        <v>0.313117</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308256</v>
+        <v>0.308631</v>
       </c>
       <c r="C54" t="n">
-        <v>0.343434</v>
+        <v>0.344357</v>
       </c>
       <c r="D54" t="n">
-        <v>0.29949</v>
+        <v>0.303845</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.299768</v>
+        <v>0.300085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.332822</v>
+        <v>0.333854</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291086</v>
+        <v>0.295206</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.291558</v>
+        <v>0.29197</v>
       </c>
       <c r="C56" t="n">
-        <v>0.322767</v>
+        <v>0.323783</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283008</v>
+        <v>0.287107</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284565</v>
+        <v>0.284406</v>
       </c>
       <c r="C57" t="n">
-        <v>0.313655</v>
+        <v>0.314359</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275316</v>
+        <v>0.279408</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277475</v>
+        <v>0.277413</v>
       </c>
       <c r="C58" t="n">
-        <v>0.304743</v>
+        <v>0.30516</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268373</v>
+        <v>0.272103</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270635</v>
+        <v>0.270689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296321</v>
+        <v>0.296887</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261759</v>
+        <v>0.265271</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264624</v>
+        <v>0.264747</v>
       </c>
       <c r="C60" t="n">
-        <v>0.288802</v>
+        <v>0.289215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255825</v>
+        <v>0.259607</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258874</v>
+        <v>0.259195</v>
       </c>
       <c r="C61" t="n">
-        <v>0.28169</v>
+        <v>0.282126</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250419</v>
+        <v>0.254322</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253747</v>
+        <v>0.254256</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275094</v>
+        <v>0.275501</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245871</v>
+        <v>0.249687</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249183</v>
+        <v>0.249819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269437</v>
+        <v>0.269865</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242501</v>
+        <v>0.246248</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246042</v>
+        <v>0.246473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2648</v>
+        <v>0.265176</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240586</v>
+        <v>0.244368</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243904</v>
+        <v>0.244317</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26161</v>
+        <v>0.261917</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241021</v>
+        <v>0.245082</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.243897</v>
+        <v>0.243918</v>
       </c>
       <c r="C66" t="n">
-        <v>0.260946</v>
+        <v>0.26137</v>
       </c>
       <c r="D66" t="n">
-        <v>0.351379</v>
+        <v>0.356573</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.377029</v>
+        <v>0.379668</v>
       </c>
       <c r="C67" t="n">
-        <v>0.392497</v>
+        <v>0.393849</v>
       </c>
       <c r="D67" t="n">
-        <v>0.339977</v>
+        <v>0.345383</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.368945</v>
+        <v>0.372023</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380665</v>
+        <v>0.382116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.331008</v>
+        <v>0.335893</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.361661</v>
+        <v>0.36486</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369458</v>
+        <v>0.370748</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322168</v>
+        <v>0.326777</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.354997</v>
+        <v>0.358235</v>
       </c>
       <c r="C70" t="n">
-        <v>0.358802</v>
+        <v>0.359993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.31369</v>
+        <v>0.317976</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348407</v>
+        <v>0.351711</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348709</v>
+        <v>0.349638</v>
       </c>
       <c r="D71" t="n">
-        <v>0.305779</v>
+        <v>0.309925</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.341788</v>
+        <v>0.344889</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339261</v>
+        <v>0.340237</v>
       </c>
       <c r="D72" t="n">
-        <v>0.298199</v>
+        <v>0.302024</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33521</v>
+        <v>0.338473</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330333</v>
+        <v>0.330888</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290997</v>
+        <v>0.294723</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.328948</v>
+        <v>0.332064</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321731</v>
+        <v>0.322348</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284423</v>
+        <v>0.288225</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.322573</v>
+        <v>0.32582</v>
       </c>
       <c r="C75" t="n">
-        <v>0.313782</v>
+        <v>0.314403</v>
       </c>
       <c r="D75" t="n">
-        <v>0.278604</v>
+        <v>0.282206</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.31641</v>
+        <v>0.319691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306432</v>
+        <v>0.307084</v>
       </c>
       <c r="D76" t="n">
-        <v>0.273447</v>
+        <v>0.277051</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.311208</v>
+        <v>0.314053</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299907</v>
+        <v>0.300408</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269387</v>
+        <v>0.272927</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306352</v>
+        <v>0.308737</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294387</v>
+        <v>0.294965</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266471</v>
+        <v>0.269936</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.302134</v>
+        <v>0.304486</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290196</v>
+        <v>0.290681</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265717</v>
+        <v>0.269474</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.299917</v>
+        <v>0.302302</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288078</v>
+        <v>0.288607</v>
       </c>
       <c r="D80" t="n">
-        <v>0.409412</v>
+        <v>0.409183</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5318079999999999</v>
+        <v>0.532118</v>
       </c>
       <c r="C81" t="n">
-        <v>0.455654</v>
+        <v>0.456741</v>
       </c>
       <c r="D81" t="n">
-        <v>0.401263</v>
+        <v>0.403311</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523407</v>
+        <v>0.523153</v>
       </c>
       <c r="C82" t="n">
-        <v>0.44741</v>
+        <v>0.448094</v>
       </c>
       <c r="D82" t="n">
-        <v>0.389658</v>
+        <v>0.39296</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512653</v>
+        <v>0.512029</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437102</v>
+        <v>0.437157</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383822</v>
+        <v>0.383859</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501772</v>
+        <v>0.501085</v>
       </c>
       <c r="C84" t="n">
-        <v>0.426184</v>
+        <v>0.425418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375397</v>
+        <v>0.375631</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491716</v>
+        <v>0.490615</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41481</v>
+        <v>0.415487</v>
       </c>
       <c r="D85" t="n">
-        <v>0.363771</v>
+        <v>0.367739</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.480646</v>
+        <v>0.478649</v>
       </c>
       <c r="C86" t="n">
-        <v>0.404408</v>
+        <v>0.407524</v>
       </c>
       <c r="D86" t="n">
-        <v>0.355546</v>
+        <v>0.361623</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.470955</v>
+        <v>0.470743</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394938</v>
+        <v>0.394634</v>
       </c>
       <c r="D87" t="n">
-        <v>0.349889</v>
+        <v>0.351727</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461121</v>
+        <v>0.460792</v>
       </c>
       <c r="C88" t="n">
-        <v>0.385177</v>
+        <v>0.385245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.342451</v>
+        <v>0.343293</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.451749</v>
+        <v>0.451509</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376074</v>
+        <v>0.37673</v>
       </c>
       <c r="D89" t="n">
-        <v>0.333635</v>
+        <v>0.336018</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.442606</v>
+        <v>0.442359</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368954</v>
+        <v>0.368677</v>
       </c>
       <c r="D90" t="n">
-        <v>0.329154</v>
+        <v>0.330595</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.433767</v>
+        <v>0.433809</v>
       </c>
       <c r="C91" t="n">
-        <v>0.361042</v>
+        <v>0.361372</v>
       </c>
       <c r="D91" t="n">
-        <v>0.322238</v>
+        <v>0.325497</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.426288</v>
+        <v>0.425657</v>
       </c>
       <c r="C92" t="n">
-        <v>0.354735</v>
+        <v>0.355303</v>
       </c>
       <c r="D92" t="n">
-        <v>0.31793</v>
+        <v>0.322725</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419238</v>
+        <v>0.418819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349993</v>
+        <v>0.350167</v>
       </c>
       <c r="D93" t="n">
-        <v>0.316974</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413727</v>
+        <v>0.41351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.347048</v>
+        <v>0.346719</v>
       </c>
       <c r="D94" t="n">
-        <v>0.585798</v>
+        <v>0.590155</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54432</v>
+        <v>0.54855</v>
       </c>
       <c r="C95" t="n">
-        <v>0.596974</v>
+        <v>0.596853</v>
       </c>
       <c r="D95" t="n">
-        <v>0.574166</v>
+        <v>0.57868</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.539865</v>
+        <v>0.545067</v>
       </c>
       <c r="C96" t="n">
-        <v>0.589216</v>
+        <v>0.589645</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558734</v>
+        <v>0.565152</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531506</v>
+        <v>0.534034</v>
       </c>
       <c r="C97" t="n">
-        <v>0.574088</v>
+        <v>0.574711</v>
       </c>
       <c r="D97" t="n">
-        <v>0.543722</v>
+        <v>0.550158</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521824</v>
+        <v>0.524938</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5582510000000001</v>
+        <v>0.558015</v>
       </c>
       <c r="D98" t="n">
-        <v>0.528836</v>
+        <v>0.535684</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.512387</v>
+        <v>0.515288</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543636</v>
+        <v>0.542808</v>
       </c>
       <c r="D99" t="n">
-        <v>0.516806</v>
+        <v>0.521249</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503926</v>
+        <v>0.507421</v>
       </c>
       <c r="C100" t="n">
-        <v>0.526652</v>
+        <v>0.529926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.502872</v>
+        <v>0.506704</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.494266</v>
+        <v>0.498469</v>
       </c>
       <c r="C101" t="n">
-        <v>0.515382</v>
+        <v>0.51609</v>
       </c>
       <c r="D101" t="n">
-        <v>0.491804</v>
+        <v>0.495834</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.487416</v>
+        <v>0.490941</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503444</v>
+        <v>0.50284</v>
       </c>
       <c r="D102" t="n">
-        <v>0.479817</v>
+        <v>0.482304</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.48054</v>
+        <v>0.482512</v>
       </c>
       <c r="C103" t="n">
-        <v>0.491692</v>
+        <v>0.490597</v>
       </c>
       <c r="D103" t="n">
-        <v>0.468924</v>
+        <v>0.473276</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473115</v>
+        <v>0.475207</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48008</v>
+        <v>0.480318</v>
       </c>
       <c r="D104" t="n">
-        <v>0.457835</v>
+        <v>0.46339</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.466182</v>
+        <v>0.469179</v>
       </c>
       <c r="C105" t="n">
-        <v>0.471203</v>
+        <v>0.470316</v>
       </c>
       <c r="D105" t="n">
-        <v>0.449882</v>
+        <v>0.454779</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.460208</v>
+        <v>0.46303</v>
       </c>
       <c r="C106" t="n">
-        <v>0.461633</v>
+        <v>0.462794</v>
       </c>
       <c r="D106" t="n">
-        <v>0.441681</v>
+        <v>0.447363</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.456274</v>
+        <v>0.458517</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455165</v>
+        <v>0.455035</v>
       </c>
       <c r="D107" t="n">
-        <v>0.436798</v>
+        <v>0.438927</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.452109</v>
+        <v>0.454832</v>
       </c>
       <c r="C108" t="n">
-        <v>0.450373</v>
+        <v>0.450475</v>
       </c>
       <c r="D108" t="n">
-        <v>0.640031</v>
+        <v>0.642655</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.451139</v>
+        <v>0.453093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447308</v>
+        <v>0.444059</v>
       </c>
       <c r="D109" t="n">
-        <v>0.630914</v>
+        <v>0.634594</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.647595</v>
+        <v>0.649107</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7041809999999999</v>
+        <v>0.701713</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6153419999999999</v>
+        <v>0.620584</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.636113</v>
+        <v>0.638046</v>
       </c>
       <c r="C111" t="n">
-        <v>0.686045</v>
+        <v>0.6853939999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6007479999999999</v>
+        <v>0.6054580000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6243649999999999</v>
+        <v>0.626333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.669526</v>
+        <v>0.66966</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5866400000000001</v>
+        <v>0.591832</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612724</v>
+        <v>0.614715</v>
       </c>
       <c r="C113" t="n">
-        <v>0.652378</v>
+        <v>0.651048</v>
       </c>
       <c r="D113" t="n">
-        <v>0.573025</v>
+        <v>0.58063</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.600839</v>
+        <v>0.602216</v>
       </c>
       <c r="C114" t="n">
-        <v>0.637602</v>
+        <v>0.637124</v>
       </c>
       <c r="D114" t="n">
-        <v>0.563739</v>
+        <v>0.566781</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592902</v>
+        <v>0.593523</v>
       </c>
       <c r="C115" t="n">
-        <v>0.621942</v>
+        <v>0.620424</v>
       </c>
       <c r="D115" t="n">
-        <v>0.549315</v>
+        <v>0.555524</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582657</v>
+        <v>0.583524</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608443</v>
+        <v>0.607572</v>
       </c>
       <c r="D116" t="n">
-        <v>0.53939</v>
+        <v>0.544355</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5737409999999999</v>
+        <v>0.575062</v>
       </c>
       <c r="C117" t="n">
-        <v>0.595819</v>
+        <v>0.595153</v>
       </c>
       <c r="D117" t="n">
-        <v>0.529571</v>
+        <v>0.535336</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.565204</v>
+        <v>0.565773</v>
       </c>
       <c r="C118" t="n">
-        <v>0.583048</v>
+        <v>0.5848950000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.519679</v>
+        <v>0.525315</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.557132</v>
+        <v>0.557831</v>
       </c>
       <c r="C119" t="n">
-        <v>0.573465</v>
+        <v>0.57439</v>
       </c>
       <c r="D119" t="n">
-        <v>0.510283</v>
+        <v>0.517479</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.550445</v>
+        <v>0.551172</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564324</v>
+        <v>0.562211</v>
       </c>
       <c r="D120" t="n">
-        <v>0.502472</v>
+        <v>0.509092</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.543037</v>
+        <v>0.541114</v>
       </c>
       <c r="C121" t="n">
-        <v>0.555125</v>
+        <v>0.553349</v>
       </c>
       <c r="D121" t="n">
-        <v>0.494956</v>
+        <v>0.502295</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.534003</v>
+        <v>0.536874</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547027</v>
+        <v>0.548001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.490065</v>
+        <v>0.498448</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.531224</v>
+        <v>0.535299</v>
       </c>
       <c r="C123" t="n">
-        <v>0.544112</v>
+        <v>0.544853</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6975170000000001</v>
+        <v>0.702337</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72702</v>
+        <v>0.7271030000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.79242</v>
+        <v>0.795922</v>
       </c>
       <c r="D124" t="n">
-        <v>0.686621</v>
+        <v>0.695268</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.71602</v>
+        <v>0.716646</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7775260000000001</v>
+        <v>0.779431</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675998</v>
+        <v>0.683828</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7069839999999999</v>
+        <v>0.705369</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764776</v>
+        <v>0.765279</v>
       </c>
       <c r="D126" t="n">
-        <v>0.666032</v>
+        <v>0.675239</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697134</v>
+        <v>0.698313</v>
       </c>
       <c r="C127" t="n">
-        <v>0.751638</v>
+        <v>0.749522</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6567809999999999</v>
+        <v>0.663046</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688499</v>
+        <v>0.687049</v>
       </c>
       <c r="C128" t="n">
-        <v>0.736975</v>
+        <v>0.737866</v>
       </c>
       <c r="D128" t="n">
-        <v>0.648085</v>
+        <v>0.653318</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.68004</v>
+        <v>0.680117</v>
       </c>
       <c r="C129" t="n">
-        <v>0.72653</v>
+        <v>0.7253810000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.635939</v>
+        <v>0.645558</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6722089999999999</v>
+        <v>0.672312</v>
       </c>
       <c r="C130" t="n">
-        <v>0.715943</v>
+        <v>0.714521</v>
       </c>
       <c r="D130" t="n">
-        <v>0.633324</v>
+        <v>0.638301</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665226</v>
+        <v>0.665311</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7055169999999999</v>
+        <v>0.7054510000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.625562</v>
+        <v>0.636632</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.659174</v>
+        <v>0.658223</v>
       </c>
       <c r="C132" t="n">
-        <v>0.696233</v>
+        <v>0.6959959999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6211719999999999</v>
+        <v>0.631107</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.652405</v>
+        <v>0.652273</v>
       </c>
       <c r="C133" t="n">
-        <v>0.685898</v>
+        <v>0.686729</v>
       </c>
       <c r="D133" t="n">
-        <v>0.610973</v>
+        <v>0.626291</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.646126</v>
+        <v>0.646701</v>
       </c>
       <c r="C134" t="n">
-        <v>0.678999</v>
+        <v>0.677737</v>
       </c>
       <c r="D134" t="n">
-        <v>0.610182</v>
+        <v>0.620208</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.64197</v>
+        <v>0.639314</v>
       </c>
       <c r="C135" t="n">
-        <v>0.673314</v>
+        <v>0.670922</v>
       </c>
       <c r="D135" t="n">
-        <v>0.604467</v>
+        <v>0.616069</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.636978</v>
+        <v>0.6346619999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.666574</v>
+        <v>0.6675759999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.60041</v>
+        <v>0.612225</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.633346</v>
+        <v>0.63368</v>
       </c>
       <c r="C137" t="n">
-        <v>0.661384</v>
+        <v>0.662812</v>
       </c>
       <c r="D137" t="n">
-        <v>0.806106</v>
+        <v>0.813593</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.82072</v>
+        <v>0.821331</v>
       </c>
       <c r="C138" t="n">
-        <v>0.916601</v>
+        <v>0.916814</v>
       </c>
       <c r="D138" t="n">
-        <v>0.794836</v>
+        <v>0.809684</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.811113</v>
+        <v>0.811993</v>
       </c>
       <c r="C139" t="n">
-        <v>0.902842</v>
+        <v>0.901657</v>
       </c>
       <c r="D139" t="n">
-        <v>0.788384</v>
+        <v>0.801471</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.803196</v>
+        <v>0.803044</v>
       </c>
       <c r="C140" t="n">
-        <v>0.887921</v>
+        <v>0.887805</v>
       </c>
       <c r="D140" t="n">
-        <v>0.777338</v>
+        <v>0.798365</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.793651</v>
+        <v>0.796065</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874928</v>
+        <v>0.873848</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7719279999999999</v>
+        <v>0.790484</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.787789</v>
+        <v>0.788936</v>
       </c>
       <c r="C142" t="n">
-        <v>0.862111</v>
+        <v>0.8624810000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.765436</v>
+        <v>0.78288</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.780289</v>
+        <v>0.782709</v>
       </c>
       <c r="C143" t="n">
-        <v>0.850118</v>
+        <v>0.850635</v>
       </c>
       <c r="D143" t="n">
-        <v>0.756</v>
+        <v>0.7805879999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243979</v>
+        <v>0.24432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251708</v>
+        <v>0.25126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221591</v>
+        <v>0.220048</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238471</v>
+        <v>0.238051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243877</v>
+        <v>0.243588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.215361</v>
+        <v>0.213865</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232773</v>
+        <v>0.23182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236913</v>
+        <v>0.237151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210073</v>
+        <v>0.209058</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227327</v>
+        <v>0.226672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231092</v>
+        <v>0.230908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206658</v>
+        <v>0.205365</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223253</v>
+        <v>0.222637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225745</v>
+        <v>0.225588</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202818</v>
+        <v>0.201278</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22002</v>
+        <v>0.220021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221799</v>
+        <v>0.221395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20191</v>
+        <v>0.199443</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217647</v>
+        <v>0.217847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219315</v>
+        <v>0.219494</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202747</v>
+        <v>0.200081</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217792</v>
+        <v>0.217709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219369</v>
+        <v>0.21933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296903</v>
+        <v>0.292599</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306568</v>
+        <v>0.305544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.32965</v>
+        <v>0.328502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.287254</v>
+        <v>0.282853</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.29617</v>
+        <v>0.296028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318549</v>
+        <v>0.316997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.277682</v>
+        <v>0.273819</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286892</v>
+        <v>0.286596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307665</v>
+        <v>0.306271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269169</v>
+        <v>0.26501</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278292</v>
+        <v>0.278335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.297115</v>
+        <v>0.295766</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261016</v>
+        <v>0.256696</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269902</v>
+        <v>0.269735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287359</v>
+        <v>0.285882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253132</v>
+        <v>0.249166</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262109</v>
+        <v>0.262229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278195</v>
+        <v>0.277042</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246096</v>
+        <v>0.241686</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254898</v>
+        <v>0.255114</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269407</v>
+        <v>0.268924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238891</v>
+        <v>0.234673</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248147</v>
+        <v>0.248265</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26147</v>
+        <v>0.260161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23317</v>
+        <v>0.229131</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242329</v>
+        <v>0.241933</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254278</v>
+        <v>0.253133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.228009</v>
+        <v>0.223386</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236284</v>
+        <v>0.236408</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247885</v>
+        <v>0.247581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223252</v>
+        <v>0.219288</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231685</v>
+        <v>0.231668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242247</v>
+        <v>0.241731</v>
       </c>
       <c r="D20" t="n">
-        <v>0.220097</v>
+        <v>0.215313</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227795</v>
+        <v>0.22752</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238241</v>
+        <v>0.237788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218423</v>
+        <v>0.213997</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225182</v>
+        <v>0.22474</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235322</v>
+        <v>0.234386</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219269</v>
+        <v>0.214199</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224529</v>
+        <v>0.224494</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234637</v>
+        <v>0.234846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312033</v>
+        <v>0.307575</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312017</v>
+        <v>0.312628</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344955</v>
+        <v>0.345203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.302108</v>
+        <v>0.297789</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302657</v>
+        <v>0.302555</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333147</v>
+        <v>0.333657</v>
       </c>
       <c r="D25" t="n">
-        <v>0.29262</v>
+        <v>0.288279</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293373</v>
+        <v>0.293378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321884</v>
+        <v>0.32245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283101</v>
+        <v>0.279055</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284634</v>
+        <v>0.284539</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311728</v>
+        <v>0.311744</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274393</v>
+        <v>0.270425</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276252</v>
+        <v>0.276249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301574</v>
+        <v>0.30176</v>
       </c>
       <c r="D28" t="n">
-        <v>0.266306</v>
+        <v>0.262305</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268235</v>
+        <v>0.268299</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292113</v>
+        <v>0.292066</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258506</v>
+        <v>0.25475</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261079</v>
+        <v>0.261152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282572</v>
+        <v>0.282519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251451</v>
+        <v>0.247524</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254199</v>
+        <v>0.254221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274523</v>
+        <v>0.274908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244818</v>
+        <v>0.241036</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247883</v>
+        <v>0.247439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266303</v>
+        <v>0.267046</v>
       </c>
       <c r="D32" t="n">
-        <v>0.238751</v>
+        <v>0.235076</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241843</v>
+        <v>0.24196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259604</v>
+        <v>0.259463</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2335</v>
+        <v>0.229886</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236994</v>
+        <v>0.236915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252892</v>
+        <v>0.253509</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229153</v>
+        <v>0.225632</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232627</v>
+        <v>0.232682</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247786</v>
+        <v>0.247528</v>
       </c>
       <c r="D35" t="n">
-        <v>0.226329</v>
+        <v>0.222755</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229746</v>
+        <v>0.229596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243339</v>
+        <v>0.243645</v>
       </c>
       <c r="D36" t="n">
-        <v>0.225553</v>
+        <v>0.221936</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227839</v>
+        <v>0.22775</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241798</v>
+        <v>0.241956</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320365</v>
+        <v>0.316281</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315781</v>
+        <v>0.315558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354226</v>
+        <v>0.354203</v>
       </c>
       <c r="D38" t="n">
-        <v>0.310314</v>
+        <v>0.306598</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305822</v>
+        <v>0.306558</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342774</v>
+        <v>0.342947</v>
       </c>
       <c r="D39" t="n">
-        <v>0.300693</v>
+        <v>0.296999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296889</v>
+        <v>0.297602</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331374</v>
+        <v>0.331831</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291677</v>
+        <v>0.288121</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288138</v>
+        <v>0.288073</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321035</v>
+        <v>0.321212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.283042</v>
+        <v>0.279608</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280367</v>
+        <v>0.280324</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310902</v>
+        <v>0.311156</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2748</v>
+        <v>0.271378</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.27233</v>
+        <v>0.273255</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301141</v>
+        <v>0.301485</v>
       </c>
       <c r="D43" t="n">
-        <v>0.267068</v>
+        <v>0.263786</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265035</v>
+        <v>0.265005</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292038</v>
+        <v>0.292519</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259776</v>
+        <v>0.256674</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258328</v>
+        <v>0.258981</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283912</v>
+        <v>0.284215</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253271</v>
+        <v>0.250179</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251582</v>
+        <v>0.252362</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27623</v>
+        <v>0.276486</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247354</v>
+        <v>0.24426</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246254</v>
+        <v>0.24726</v>
       </c>
       <c r="C47" t="n">
-        <v>0.269107</v>
+        <v>0.26955</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24217</v>
+        <v>0.239044</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241017</v>
+        <v>0.242182</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262771</v>
+        <v>0.263112</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237732</v>
+        <v>0.234629</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236989</v>
+        <v>0.237312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257089</v>
+        <v>0.257625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234702</v>
+        <v>0.231635</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233117</v>
+        <v>0.234355</v>
       </c>
       <c r="C50" t="n">
-        <v>0.252974</v>
+        <v>0.253287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.233069</v>
+        <v>0.230108</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231045</v>
+        <v>0.23214</v>
       </c>
       <c r="C51" t="n">
-        <v>0.25029</v>
+        <v>0.250613</v>
       </c>
       <c r="D51" t="n">
-        <v>0.332275</v>
+        <v>0.328499</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231973</v>
+        <v>0.233398</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249641</v>
+        <v>0.250247</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322513</v>
+        <v>0.318227</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317805</v>
+        <v>0.317745</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355463</v>
+        <v>0.35484</v>
       </c>
       <c r="D53" t="n">
-        <v>0.313117</v>
+        <v>0.308765</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308631</v>
+        <v>0.308875</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344357</v>
+        <v>0.343952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303845</v>
+        <v>0.299787</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300085</v>
+        <v>0.30026</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333854</v>
+        <v>0.33354</v>
       </c>
       <c r="D55" t="n">
-        <v>0.295206</v>
+        <v>0.291291</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29197</v>
+        <v>0.292384</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323783</v>
+        <v>0.323594</v>
       </c>
       <c r="D56" t="n">
-        <v>0.287107</v>
+        <v>0.283297</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284406</v>
+        <v>0.284869</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314359</v>
+        <v>0.313912</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279408</v>
+        <v>0.275746</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277413</v>
+        <v>0.278064</v>
       </c>
       <c r="C58" t="n">
-        <v>0.30516</v>
+        <v>0.304777</v>
       </c>
       <c r="D58" t="n">
-        <v>0.272103</v>
+        <v>0.268549</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270689</v>
+        <v>0.271269</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296887</v>
+        <v>0.296356</v>
       </c>
       <c r="D59" t="n">
-        <v>0.265271</v>
+        <v>0.261944</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264747</v>
+        <v>0.265054</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289215</v>
+        <v>0.288823</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259607</v>
+        <v>0.255998</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259195</v>
+        <v>0.259338</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282126</v>
+        <v>0.281416</v>
       </c>
       <c r="D61" t="n">
-        <v>0.254322</v>
+        <v>0.250722</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254256</v>
+        <v>0.254167</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275501</v>
+        <v>0.27512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249687</v>
+        <v>0.246292</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249819</v>
+        <v>0.249536</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269865</v>
+        <v>0.269393</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246248</v>
+        <v>0.24282</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246473</v>
+        <v>0.246202</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265176</v>
+        <v>0.26475</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244368</v>
+        <v>0.240796</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244317</v>
+        <v>0.244341</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261917</v>
+        <v>0.26157</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245082</v>
+        <v>0.241415</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.243918</v>
+        <v>0.244409</v>
       </c>
       <c r="C66" t="n">
-        <v>0.26137</v>
+        <v>0.261084</v>
       </c>
       <c r="D66" t="n">
-        <v>0.356573</v>
+        <v>0.35252</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379668</v>
+        <v>0.378327</v>
       </c>
       <c r="C67" t="n">
-        <v>0.393849</v>
+        <v>0.393789</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345383</v>
+        <v>0.342087</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.372023</v>
+        <v>0.371139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.382116</v>
+        <v>0.382152</v>
       </c>
       <c r="D68" t="n">
-        <v>0.335893</v>
+        <v>0.33286</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36486</v>
+        <v>0.364291</v>
       </c>
       <c r="C69" t="n">
-        <v>0.370748</v>
+        <v>0.371057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.326777</v>
+        <v>0.323616</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358235</v>
+        <v>0.357914</v>
       </c>
       <c r="C70" t="n">
-        <v>0.359993</v>
+        <v>0.360406</v>
       </c>
       <c r="D70" t="n">
-        <v>0.317976</v>
+        <v>0.314853</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.351711</v>
+        <v>0.351502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.349638</v>
+        <v>0.350166</v>
       </c>
       <c r="D71" t="n">
-        <v>0.309925</v>
+        <v>0.306956</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344889</v>
+        <v>0.345382</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340237</v>
+        <v>0.340508</v>
       </c>
       <c r="D72" t="n">
-        <v>0.302024</v>
+        <v>0.299312</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338473</v>
+        <v>0.338753</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330888</v>
+        <v>0.331242</v>
       </c>
       <c r="D73" t="n">
-        <v>0.294723</v>
+        <v>0.292082</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332064</v>
+        <v>0.332633</v>
       </c>
       <c r="C74" t="n">
-        <v>0.322348</v>
+        <v>0.32264</v>
       </c>
       <c r="D74" t="n">
-        <v>0.288225</v>
+        <v>0.285885</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32582</v>
+        <v>0.326143</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314403</v>
+        <v>0.314567</v>
       </c>
       <c r="D75" t="n">
-        <v>0.282206</v>
+        <v>0.279568</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319691</v>
+        <v>0.320178</v>
       </c>
       <c r="C76" t="n">
-        <v>0.307084</v>
+        <v>0.307111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.277051</v>
+        <v>0.274496</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314053</v>
+        <v>0.314759</v>
       </c>
       <c r="C77" t="n">
-        <v>0.300408</v>
+        <v>0.30061</v>
       </c>
       <c r="D77" t="n">
-        <v>0.272927</v>
+        <v>0.27025</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308737</v>
+        <v>0.30982</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294965</v>
+        <v>0.295059</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269936</v>
+        <v>0.267261</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304486</v>
+        <v>0.305795</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290681</v>
+        <v>0.291124</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269474</v>
+        <v>0.266592</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302302</v>
+        <v>0.30361</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288607</v>
+        <v>0.289062</v>
       </c>
       <c r="D80" t="n">
-        <v>0.409183</v>
+        <v>0.402577</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.532118</v>
+        <v>0.537089</v>
       </c>
       <c r="C81" t="n">
-        <v>0.456741</v>
+        <v>0.455576</v>
       </c>
       <c r="D81" t="n">
-        <v>0.403311</v>
+        <v>0.39413</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523153</v>
+        <v>0.528832</v>
       </c>
       <c r="C82" t="n">
-        <v>0.448094</v>
+        <v>0.448124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.39296</v>
+        <v>0.386401</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512029</v>
+        <v>0.518268</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437157</v>
+        <v>0.436925</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383859</v>
+        <v>0.378333</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501085</v>
+        <v>0.5073839999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425418</v>
+        <v>0.425914</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375631</v>
+        <v>0.369532</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.490615</v>
+        <v>0.496525</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415487</v>
+        <v>0.415104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.367739</v>
+        <v>0.360833</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.478649</v>
+        <v>0.486098</v>
       </c>
       <c r="C86" t="n">
-        <v>0.407524</v>
+        <v>0.405372</v>
       </c>
       <c r="D86" t="n">
-        <v>0.361623</v>
+        <v>0.352942</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.470743</v>
+        <v>0.47563</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394634</v>
+        <v>0.395391</v>
       </c>
       <c r="D87" t="n">
-        <v>0.351727</v>
+        <v>0.345703</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.460792</v>
+        <v>0.465275</v>
       </c>
       <c r="C88" t="n">
-        <v>0.385245</v>
+        <v>0.384765</v>
       </c>
       <c r="D88" t="n">
-        <v>0.343293</v>
+        <v>0.33684</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.451509</v>
+        <v>0.45565</v>
       </c>
       <c r="C89" t="n">
-        <v>0.37673</v>
+        <v>0.377289</v>
       </c>
       <c r="D89" t="n">
-        <v>0.336018</v>
+        <v>0.331509</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.442359</v>
+        <v>0.44676</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368677</v>
+        <v>0.369555</v>
       </c>
       <c r="D90" t="n">
-        <v>0.330595</v>
+        <v>0.326192</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.433809</v>
+        <v>0.437931</v>
       </c>
       <c r="C91" t="n">
-        <v>0.361372</v>
+        <v>0.360709</v>
       </c>
       <c r="D91" t="n">
-        <v>0.325497</v>
+        <v>0.319505</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.425657</v>
+        <v>0.429711</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355303</v>
+        <v>0.355302</v>
       </c>
       <c r="D92" t="n">
-        <v>0.322725</v>
+        <v>0.31634</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.418819</v>
+        <v>0.423032</v>
       </c>
       <c r="C93" t="n">
-        <v>0.350167</v>
+        <v>0.349921</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3199</v>
+        <v>0.314204</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41351</v>
+        <v>0.417422</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346719</v>
+        <v>0.346435</v>
       </c>
       <c r="D94" t="n">
-        <v>0.590155</v>
+        <v>0.584264</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54855</v>
+        <v>0.551382</v>
       </c>
       <c r="C95" t="n">
-        <v>0.596853</v>
+        <v>0.59817</v>
       </c>
       <c r="D95" t="n">
-        <v>0.57868</v>
+        <v>0.573241</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.545067</v>
+        <v>0.547112</v>
       </c>
       <c r="C96" t="n">
-        <v>0.589645</v>
+        <v>0.589737</v>
       </c>
       <c r="D96" t="n">
-        <v>0.565152</v>
+        <v>0.558643</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.534034</v>
+        <v>0.53728</v>
       </c>
       <c r="C97" t="n">
-        <v>0.574711</v>
+        <v>0.574927</v>
       </c>
       <c r="D97" t="n">
-        <v>0.550158</v>
+        <v>0.543562</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.524938</v>
+        <v>0.526939</v>
       </c>
       <c r="C98" t="n">
-        <v>0.558015</v>
+        <v>0.559176</v>
       </c>
       <c r="D98" t="n">
-        <v>0.535684</v>
+        <v>0.529255</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.515288</v>
+        <v>0.517864</v>
       </c>
       <c r="C99" t="n">
-        <v>0.542808</v>
+        <v>0.54458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.521249</v>
+        <v>0.515985</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507421</v>
+        <v>0.507772</v>
       </c>
       <c r="C100" t="n">
-        <v>0.529926</v>
+        <v>0.529769</v>
       </c>
       <c r="D100" t="n">
-        <v>0.506704</v>
+        <v>0.5028049999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498469</v>
+        <v>0.498376</v>
       </c>
       <c r="C101" t="n">
-        <v>0.51609</v>
+        <v>0.515621</v>
       </c>
       <c r="D101" t="n">
-        <v>0.495834</v>
+        <v>0.490364</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.490941</v>
+        <v>0.490718</v>
       </c>
       <c r="C102" t="n">
-        <v>0.50284</v>
+        <v>0.503881</v>
       </c>
       <c r="D102" t="n">
-        <v>0.482304</v>
+        <v>0.478636</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482512</v>
+        <v>0.482535</v>
       </c>
       <c r="C103" t="n">
-        <v>0.490597</v>
+        <v>0.490952</v>
       </c>
       <c r="D103" t="n">
-        <v>0.473276</v>
+        <v>0.467271</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.475207</v>
+        <v>0.474994</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480318</v>
+        <v>0.480487</v>
       </c>
       <c r="D104" t="n">
-        <v>0.46339</v>
+        <v>0.457598</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469179</v>
+        <v>0.468456</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470316</v>
+        <v>0.470471</v>
       </c>
       <c r="D105" t="n">
-        <v>0.454779</v>
+        <v>0.448785</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46303</v>
+        <v>0.46351</v>
       </c>
       <c r="C106" t="n">
-        <v>0.462794</v>
+        <v>0.461714</v>
       </c>
       <c r="D106" t="n">
-        <v>0.447363</v>
+        <v>0.441334</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458517</v>
+        <v>0.458185</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455035</v>
+        <v>0.454952</v>
       </c>
       <c r="D107" t="n">
-        <v>0.438927</v>
+        <v>0.43561</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.454832</v>
+        <v>0.454183</v>
       </c>
       <c r="C108" t="n">
-        <v>0.450475</v>
+        <v>0.44975</v>
       </c>
       <c r="D108" t="n">
-        <v>0.642655</v>
+        <v>0.633611</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.453093</v>
+        <v>0.452211</v>
       </c>
       <c r="C109" t="n">
-        <v>0.444059</v>
+        <v>0.447262</v>
       </c>
       <c r="D109" t="n">
-        <v>0.634594</v>
+        <v>0.625394</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.649107</v>
+        <v>0.650535</v>
       </c>
       <c r="C110" t="n">
-        <v>0.701713</v>
+        <v>0.70359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.620584</v>
+        <v>0.611484</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.638046</v>
+        <v>0.639254</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6853939999999999</v>
+        <v>0.6873860000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6054580000000001</v>
+        <v>0.596519</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626333</v>
+        <v>0.626965</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66966</v>
+        <v>0.670888</v>
       </c>
       <c r="D112" t="n">
-        <v>0.591832</v>
+        <v>0.583392</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614715</v>
+        <v>0.615609</v>
       </c>
       <c r="C113" t="n">
-        <v>0.651048</v>
+        <v>0.653619</v>
       </c>
       <c r="D113" t="n">
-        <v>0.58063</v>
+        <v>0.570254</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602216</v>
+        <v>0.604097</v>
       </c>
       <c r="C114" t="n">
-        <v>0.637124</v>
+        <v>0.637652</v>
       </c>
       <c r="D114" t="n">
-        <v>0.566781</v>
+        <v>0.558283</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.593523</v>
+        <v>0.5941340000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.620424</v>
+        <v>0.623175</v>
       </c>
       <c r="D115" t="n">
-        <v>0.555524</v>
+        <v>0.546992</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.583524</v>
+        <v>0.584095</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607572</v>
+        <v>0.609762</v>
       </c>
       <c r="D116" t="n">
-        <v>0.544355</v>
+        <v>0.536829</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575062</v>
+        <v>0.575022</v>
       </c>
       <c r="C117" t="n">
-        <v>0.595153</v>
+        <v>0.596617</v>
       </c>
       <c r="D117" t="n">
-        <v>0.535336</v>
+        <v>0.526685</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.565773</v>
+        <v>0.56618</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5848950000000001</v>
+        <v>0.584495</v>
       </c>
       <c r="D118" t="n">
-        <v>0.525315</v>
+        <v>0.516904</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.557831</v>
+        <v>0.557943</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57439</v>
+        <v>0.57336</v>
       </c>
       <c r="D119" t="n">
-        <v>0.517479</v>
+        <v>0.50875</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.551172</v>
+        <v>0.55104</v>
       </c>
       <c r="C120" t="n">
-        <v>0.562211</v>
+        <v>0.564105</v>
       </c>
       <c r="D120" t="n">
-        <v>0.509092</v>
+        <v>0.500795</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.541114</v>
+        <v>0.544135</v>
       </c>
       <c r="C121" t="n">
-        <v>0.553349</v>
+        <v>0.554947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.502295</v>
+        <v>0.493982</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.536874</v>
+        <v>0.538955</v>
       </c>
       <c r="C122" t="n">
-        <v>0.548001</v>
+        <v>0.547974</v>
       </c>
       <c r="D122" t="n">
-        <v>0.498448</v>
+        <v>0.489514</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.535299</v>
+        <v>0.535534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.544853</v>
+        <v>0.543865</v>
       </c>
       <c r="D123" t="n">
-        <v>0.702337</v>
+        <v>0.691236</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7271030000000001</v>
+        <v>0.727382</v>
       </c>
       <c r="C124" t="n">
-        <v>0.795922</v>
+        <v>0.7953519999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.695268</v>
+        <v>0.680438</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.716646</v>
+        <v>0.7166169999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.779431</v>
+        <v>0.779705</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683828</v>
+        <v>0.670053</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.705369</v>
+        <v>0.706963</v>
       </c>
       <c r="C126" t="n">
-        <v>0.765279</v>
+        <v>0.765778</v>
       </c>
       <c r="D126" t="n">
-        <v>0.675239</v>
+        <v>0.660215</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.698313</v>
+        <v>0.697677</v>
       </c>
       <c r="C127" t="n">
-        <v>0.749522</v>
+        <v>0.7512799999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663046</v>
+        <v>0.651213</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.687049</v>
+        <v>0.688077</v>
       </c>
       <c r="C128" t="n">
-        <v>0.737866</v>
+        <v>0.73832</v>
       </c>
       <c r="D128" t="n">
-        <v>0.653318</v>
+        <v>0.642107</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.680117</v>
+        <v>0.680189</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7253810000000001</v>
+        <v>0.726425</v>
       </c>
       <c r="D129" t="n">
-        <v>0.645558</v>
+        <v>0.635256</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672312</v>
+        <v>0.671716</v>
       </c>
       <c r="C130" t="n">
-        <v>0.714521</v>
+        <v>0.715813</v>
       </c>
       <c r="D130" t="n">
-        <v>0.638301</v>
+        <v>0.62599</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.665311</v>
+        <v>0.664934</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7054510000000001</v>
+        <v>0.705427</v>
       </c>
       <c r="D131" t="n">
-        <v>0.636632</v>
+        <v>0.6185619999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.658223</v>
+        <v>0.657653</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6959959999999999</v>
+        <v>0.695898</v>
       </c>
       <c r="D132" t="n">
-        <v>0.631107</v>
+        <v>0.613015</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.652273</v>
+        <v>0.651855</v>
       </c>
       <c r="C133" t="n">
-        <v>0.686729</v>
+        <v>0.686547</v>
       </c>
       <c r="D133" t="n">
-        <v>0.626291</v>
+        <v>0.609522</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.646701</v>
+        <v>0.646764</v>
       </c>
       <c r="C134" t="n">
-        <v>0.677737</v>
+        <v>0.6798959999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.620208</v>
+        <v>0.60386</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.639314</v>
+        <v>0.640352</v>
       </c>
       <c r="C135" t="n">
-        <v>0.670922</v>
+        <v>0.670876</v>
       </c>
       <c r="D135" t="n">
-        <v>0.616069</v>
+        <v>0.599388</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6346619999999999</v>
+        <v>0.635593</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6675759999999999</v>
+        <v>0.665204</v>
       </c>
       <c r="D136" t="n">
-        <v>0.612225</v>
+        <v>0.595737</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.63368</v>
+        <v>0.632661</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662812</v>
+        <v>0.662292</v>
       </c>
       <c r="D137" t="n">
-        <v>0.813593</v>
+        <v>0.798161</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.821331</v>
+        <v>0.821235</v>
       </c>
       <c r="C138" t="n">
-        <v>0.916814</v>
+        <v>0.917405</v>
       </c>
       <c r="D138" t="n">
-        <v>0.809684</v>
+        <v>0.788094</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.811993</v>
+        <v>0.812075</v>
       </c>
       <c r="C139" t="n">
-        <v>0.901657</v>
+        <v>0.902094</v>
       </c>
       <c r="D139" t="n">
-        <v>0.801471</v>
+        <v>0.781482</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.803044</v>
+        <v>0.80418</v>
       </c>
       <c r="C140" t="n">
-        <v>0.887805</v>
+        <v>0.888293</v>
       </c>
       <c r="D140" t="n">
-        <v>0.798365</v>
+        <v>0.7735</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796065</v>
+        <v>0.796799</v>
       </c>
       <c r="C141" t="n">
-        <v>0.873848</v>
+        <v>0.875273</v>
       </c>
       <c r="D141" t="n">
-        <v>0.790484</v>
+        <v>0.7649820000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.788936</v>
+        <v>0.789444</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8624810000000001</v>
+        <v>0.863699</v>
       </c>
       <c r="D142" t="n">
-        <v>0.78288</v>
+        <v>0.758495</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.782709</v>
+        <v>0.782393</v>
       </c>
       <c r="C143" t="n">
-        <v>0.850635</v>
+        <v>0.851432</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7805879999999999</v>
+        <v>0.7525500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24432</v>
+        <v>0.244484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25126</v>
+        <v>0.251973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220048</v>
+        <v>0.24338</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238051</v>
+        <v>0.23762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243588</v>
+        <v>0.244335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213865</v>
+        <v>0.236806</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23182</v>
+        <v>0.232626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237151</v>
+        <v>0.237095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209058</v>
+        <v>0.230405</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.226672</v>
+        <v>0.22735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230908</v>
+        <v>0.230934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205365</v>
+        <v>0.227038</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222637</v>
+        <v>0.22308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225588</v>
+        <v>0.225812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201278</v>
+        <v>0.222176</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220021</v>
+        <v>0.220176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221395</v>
+        <v>0.222149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199443</v>
+        <v>0.220718</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217847</v>
+        <v>0.217951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219494</v>
+        <v>0.219485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200081</v>
+        <v>0.221993</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217709</v>
+        <v>0.217681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21933</v>
+        <v>0.219403</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292599</v>
+        <v>0.226137</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.305544</v>
+        <v>0.306723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.328502</v>
+        <v>0.329916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.282853</v>
+        <v>0.323856</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296028</v>
+        <v>0.296272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.316997</v>
+        <v>0.318892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273819</v>
+        <v>0.313125</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286596</v>
+        <v>0.287071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306271</v>
+        <v>0.307954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26501</v>
+        <v>0.302917</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278335</v>
+        <v>0.27818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.295766</v>
+        <v>0.29729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256696</v>
+        <v>0.292948</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269735</v>
+        <v>0.270026</v>
       </c>
       <c r="C14" t="n">
-        <v>0.285882</v>
+        <v>0.287589</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249166</v>
+        <v>0.283706</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262229</v>
+        <v>0.262241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.277042</v>
+        <v>0.278595</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241686</v>
+        <v>0.27479</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255114</v>
+        <v>0.255023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.268924</v>
+        <v>0.269782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234673</v>
+        <v>0.266578</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248265</v>
+        <v>0.24829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.260161</v>
+        <v>0.261765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229131</v>
+        <v>0.258994</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241933</v>
+        <v>0.24214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253133</v>
+        <v>0.254732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223386</v>
+        <v>0.252412</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236408</v>
+        <v>0.236429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247581</v>
+        <v>0.248195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219288</v>
+        <v>0.246891</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231668</v>
+        <v>0.231688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.241731</v>
+        <v>0.242534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215313</v>
+        <v>0.242599</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22752</v>
+        <v>0.227788</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237788</v>
+        <v>0.238461</v>
       </c>
       <c r="D21" t="n">
-        <v>0.213997</v>
+        <v>0.23966</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22474</v>
+        <v>0.225443</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234386</v>
+        <v>0.235564</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214199</v>
+        <v>0.239132</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224494</v>
+        <v>0.224824</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234846</v>
+        <v>0.235017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.307575</v>
+        <v>0.241949</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312628</v>
+        <v>0.312532</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345203</v>
+        <v>0.345315</v>
       </c>
       <c r="D24" t="n">
-        <v>0.297789</v>
+        <v>0.339487</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302555</v>
+        <v>0.303054</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333657</v>
+        <v>0.333786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288279</v>
+        <v>0.328184</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293378</v>
+        <v>0.293821</v>
       </c>
       <c r="C26" t="n">
-        <v>0.32245</v>
+        <v>0.321122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279055</v>
+        <v>0.317339</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284539</v>
+        <v>0.285133</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311744</v>
+        <v>0.311823</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270425</v>
+        <v>0.307077</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276249</v>
+        <v>0.276912</v>
       </c>
       <c r="C28" t="n">
-        <v>0.30176</v>
+        <v>0.301818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.262305</v>
+        <v>0.297461</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268299</v>
+        <v>0.269078</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292066</v>
+        <v>0.292318</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25475</v>
+        <v>0.28835</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261152</v>
+        <v>0.261834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282519</v>
+        <v>0.283343</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247524</v>
+        <v>0.279583</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254221</v>
+        <v>0.254924</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274908</v>
+        <v>0.27495</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241036</v>
+        <v>0.271721</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247439</v>
+        <v>0.24866</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267046</v>
+        <v>0.267038</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235076</v>
+        <v>0.264185</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24196</v>
+        <v>0.242895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259463</v>
+        <v>0.259824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229886</v>
+        <v>0.257688</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236915</v>
+        <v>0.23787</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253509</v>
+        <v>0.252708</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225632</v>
+        <v>0.252231</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232682</v>
+        <v>0.23364</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247528</v>
+        <v>0.246834</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222755</v>
+        <v>0.248166</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229596</v>
+        <v>0.230675</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243645</v>
+        <v>0.24309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221936</v>
+        <v>0.246247</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22775</v>
+        <v>0.228949</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241956</v>
+        <v>0.241973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316281</v>
+        <v>0.24685</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315558</v>
+        <v>0.316646</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354203</v>
+        <v>0.354164</v>
       </c>
       <c r="D38" t="n">
-        <v>0.306598</v>
+        <v>0.348076</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306558</v>
+        <v>0.307624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342947</v>
+        <v>0.342592</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296999</v>
+        <v>0.337008</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297602</v>
+        <v>0.298568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331831</v>
+        <v>0.331722</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288121</v>
+        <v>0.326269</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288073</v>
+        <v>0.290174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321212</v>
+        <v>0.321168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279608</v>
+        <v>0.315746</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280324</v>
+        <v>0.281944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.311156</v>
+        <v>0.311153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271378</v>
+        <v>0.306047</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273255</v>
+        <v>0.274218</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301485</v>
+        <v>0.301423</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263786</v>
+        <v>0.296755</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265005</v>
+        <v>0.26679</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292519</v>
+        <v>0.292106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256674</v>
+        <v>0.287842</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258981</v>
+        <v>0.260106</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284215</v>
+        <v>0.284187</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250179</v>
+        <v>0.280051</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252362</v>
+        <v>0.253552</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276486</v>
+        <v>0.276415</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24426</v>
+        <v>0.272881</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.24726</v>
+        <v>0.247603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26955</v>
+        <v>0.269548</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239044</v>
+        <v>0.266538</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242182</v>
+        <v>0.242964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263112</v>
+        <v>0.262993</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234629</v>
+        <v>0.260816</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237312</v>
+        <v>0.237992</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257625</v>
+        <v>0.257154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231635</v>
+        <v>0.256582</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234355</v>
+        <v>0.234888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.253287</v>
+        <v>0.253114</v>
       </c>
       <c r="D50" t="n">
-        <v>0.230108</v>
+        <v>0.253942</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23214</v>
+        <v>0.232664</v>
       </c>
       <c r="C51" t="n">
-        <v>0.250613</v>
+        <v>0.250277</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328499</v>
+        <v>0.253733</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.233398</v>
+        <v>0.232607</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250247</v>
+        <v>0.250135</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318227</v>
+        <v>0.257007</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317745</v>
+        <v>0.316961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.35484</v>
+        <v>0.355119</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308765</v>
+        <v>0.348789</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308875</v>
+        <v>0.308076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.343952</v>
+        <v>0.344072</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299787</v>
+        <v>0.337964</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.30026</v>
+        <v>0.299387</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33354</v>
+        <v>0.333428</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291291</v>
+        <v>0.327494</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292384</v>
+        <v>0.290945</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323594</v>
+        <v>0.32341</v>
       </c>
       <c r="D56" t="n">
-        <v>0.283297</v>
+        <v>0.317703</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284869</v>
+        <v>0.283505</v>
       </c>
       <c r="C57" t="n">
-        <v>0.313912</v>
+        <v>0.313898</v>
       </c>
       <c r="D57" t="n">
-        <v>0.275746</v>
+        <v>0.308466</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278064</v>
+        <v>0.277074</v>
       </c>
       <c r="C58" t="n">
-        <v>0.304777</v>
+        <v>0.304915</v>
       </c>
       <c r="D58" t="n">
-        <v>0.268549</v>
+        <v>0.29977</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271269</v>
+        <v>0.270293</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296356</v>
+        <v>0.295502</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261944</v>
+        <v>0.29136</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265054</v>
+        <v>0.263705</v>
       </c>
       <c r="C60" t="n">
-        <v>0.288823</v>
+        <v>0.287673</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255998</v>
+        <v>0.283805</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259338</v>
+        <v>0.258695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281416</v>
+        <v>0.281414</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250722</v>
+        <v>0.277581</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254167</v>
+        <v>0.253645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27512</v>
+        <v>0.274959</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246292</v>
+        <v>0.27178</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249536</v>
+        <v>0.249106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269393</v>
+        <v>0.269065</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24282</v>
+        <v>0.267106</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246202</v>
+        <v>0.246319</v>
       </c>
       <c r="C64" t="n">
-        <v>0.26475</v>
+        <v>0.264018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.240796</v>
+        <v>0.264086</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244341</v>
+        <v>0.244579</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26157</v>
+        <v>0.260937</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241415</v>
+        <v>0.263603</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244409</v>
+        <v>0.244711</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261084</v>
+        <v>0.261463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.35252</v>
+        <v>0.266606</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378327</v>
+        <v>0.377909</v>
       </c>
       <c r="C67" t="n">
-        <v>0.393789</v>
+        <v>0.392987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.342087</v>
+        <v>0.384506</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.371139</v>
+        <v>0.369902</v>
       </c>
       <c r="C68" t="n">
-        <v>0.382152</v>
+        <v>0.380992</v>
       </c>
       <c r="D68" t="n">
-        <v>0.33286</v>
+        <v>0.373149</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364291</v>
+        <v>0.362988</v>
       </c>
       <c r="C69" t="n">
-        <v>0.371057</v>
+        <v>0.369973</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323616</v>
+        <v>0.362298</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357914</v>
+        <v>0.356299</v>
       </c>
       <c r="C70" t="n">
-        <v>0.360406</v>
+        <v>0.359243</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314853</v>
+        <v>0.35175</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.351502</v>
+        <v>0.349861</v>
       </c>
       <c r="C71" t="n">
-        <v>0.350166</v>
+        <v>0.349129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306956</v>
+        <v>0.341955</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.345382</v>
+        <v>0.343539</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340508</v>
+        <v>0.339505</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299312</v>
+        <v>0.332843</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338753</v>
+        <v>0.336888</v>
       </c>
       <c r="C73" t="n">
-        <v>0.331242</v>
+        <v>0.330494</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292082</v>
+        <v>0.324103</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332633</v>
+        <v>0.33074</v>
       </c>
       <c r="C74" t="n">
-        <v>0.32264</v>
+        <v>0.321873</v>
       </c>
       <c r="D74" t="n">
-        <v>0.285885</v>
+        <v>0.315993</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.326143</v>
+        <v>0.324508</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314567</v>
+        <v>0.31423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.279568</v>
+        <v>0.308652</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320178</v>
+        <v>0.318538</v>
       </c>
       <c r="C76" t="n">
-        <v>0.307111</v>
+        <v>0.306797</v>
       </c>
       <c r="D76" t="n">
-        <v>0.274496</v>
+        <v>0.302057</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314759</v>
+        <v>0.313003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.30061</v>
+        <v>0.299952</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27025</v>
+        <v>0.296534</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.30982</v>
+        <v>0.308203</v>
       </c>
       <c r="C78" t="n">
-        <v>0.295059</v>
+        <v>0.294581</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267261</v>
+        <v>0.292417</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305795</v>
+        <v>0.304185</v>
       </c>
       <c r="C79" t="n">
-        <v>0.291124</v>
+        <v>0.290394</v>
       </c>
       <c r="D79" t="n">
-        <v>0.266592</v>
+        <v>0.290607</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30361</v>
+        <v>0.30166</v>
       </c>
       <c r="C80" t="n">
-        <v>0.289062</v>
+        <v>0.288241</v>
       </c>
       <c r="D80" t="n">
-        <v>0.402577</v>
+        <v>0.291667</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.537089</v>
+        <v>0.535006</v>
       </c>
       <c r="C81" t="n">
-        <v>0.455576</v>
+        <v>0.455498</v>
       </c>
       <c r="D81" t="n">
-        <v>0.39413</v>
+        <v>0.4469</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.528832</v>
+        <v>0.527361</v>
       </c>
       <c r="C82" t="n">
-        <v>0.448124</v>
+        <v>0.447784</v>
       </c>
       <c r="D82" t="n">
-        <v>0.386401</v>
+        <v>0.439133</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.518268</v>
+        <v>0.516464</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436925</v>
+        <v>0.436663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.378333</v>
+        <v>0.428506</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5073839999999999</v>
+        <v>0.505792</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425914</v>
+        <v>0.425479</v>
       </c>
       <c r="D84" t="n">
-        <v>0.369532</v>
+        <v>0.418057</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.496525</v>
+        <v>0.494914</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415104</v>
+        <v>0.414325</v>
       </c>
       <c r="D85" t="n">
-        <v>0.360833</v>
+        <v>0.407642</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.486098</v>
+        <v>0.484425</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405372</v>
+        <v>0.404445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.352942</v>
+        <v>0.398073</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.47563</v>
+        <v>0.474431</v>
       </c>
       <c r="C87" t="n">
-        <v>0.395391</v>
+        <v>0.394031</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345703</v>
+        <v>0.388154</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.465275</v>
+        <v>0.464208</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384765</v>
+        <v>0.384753</v>
       </c>
       <c r="D88" t="n">
-        <v>0.33684</v>
+        <v>0.379034</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.45565</v>
+        <v>0.454856</v>
       </c>
       <c r="C89" t="n">
-        <v>0.377289</v>
+        <v>0.376038</v>
       </c>
       <c r="D89" t="n">
-        <v>0.331509</v>
+        <v>0.371347</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.44676</v>
+        <v>0.445842</v>
       </c>
       <c r="C90" t="n">
-        <v>0.369555</v>
+        <v>0.36808</v>
       </c>
       <c r="D90" t="n">
-        <v>0.326192</v>
+        <v>0.363601</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437931</v>
+        <v>0.437284</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360709</v>
+        <v>0.361132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.319505</v>
+        <v>0.35741</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429711</v>
+        <v>0.429144</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355302</v>
+        <v>0.35452</v>
       </c>
       <c r="D92" t="n">
-        <v>0.31634</v>
+        <v>0.351878</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.423032</v>
+        <v>0.422053</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349921</v>
+        <v>0.349674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.314204</v>
+        <v>0.348528</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.417422</v>
+        <v>0.416529</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346435</v>
+        <v>0.346347</v>
       </c>
       <c r="D94" t="n">
-        <v>0.584264</v>
+        <v>0.34792</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.551382</v>
+        <v>0.623101</v>
       </c>
       <c r="C95" t="n">
-        <v>0.59817</v>
+        <v>0.599635</v>
       </c>
       <c r="D95" t="n">
-        <v>0.573241</v>
+        <v>0.581043</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.547112</v>
+        <v>0.616479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.589737</v>
+        <v>0.590274</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558643</v>
+        <v>0.573091</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.53728</v>
+        <v>0.604461</v>
       </c>
       <c r="C97" t="n">
-        <v>0.574927</v>
+        <v>0.574936</v>
       </c>
       <c r="D97" t="n">
-        <v>0.543562</v>
+        <v>0.558463</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526939</v>
+        <v>0.591643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.559176</v>
+        <v>0.559509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.529255</v>
+        <v>0.543581</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517864</v>
+        <v>0.579368</v>
       </c>
       <c r="C99" t="n">
-        <v>0.54458</v>
+        <v>0.543749</v>
       </c>
       <c r="D99" t="n">
-        <v>0.515985</v>
+        <v>0.529163</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507772</v>
+        <v>0.56725</v>
       </c>
       <c r="C100" t="n">
-        <v>0.529769</v>
+        <v>0.530562</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5028049999999999</v>
+        <v>0.515607</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498376</v>
+        <v>0.555845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.515621</v>
+        <v>0.5162330000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.490364</v>
+        <v>0.50227</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.490718</v>
+        <v>0.544814</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503881</v>
+        <v>0.503847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.478636</v>
+        <v>0.490383</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482535</v>
+        <v>0.53445</v>
       </c>
       <c r="C103" t="n">
-        <v>0.490952</v>
+        <v>0.491991</v>
       </c>
       <c r="D103" t="n">
-        <v>0.467271</v>
+        <v>0.478696</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.474994</v>
+        <v>0.52395</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480487</v>
+        <v>0.480445</v>
       </c>
       <c r="D104" t="n">
-        <v>0.457598</v>
+        <v>0.468466</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.468456</v>
+        <v>0.514675</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470471</v>
+        <v>0.470261</v>
       </c>
       <c r="D105" t="n">
-        <v>0.448785</v>
+        <v>0.45968</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46351</v>
+        <v>0.50681</v>
       </c>
       <c r="C106" t="n">
-        <v>0.461714</v>
+        <v>0.461835</v>
       </c>
       <c r="D106" t="n">
-        <v>0.441334</v>
+        <v>0.451607</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458185</v>
+        <v>0.499166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454952</v>
+        <v>0.454331</v>
       </c>
       <c r="D107" t="n">
-        <v>0.43561</v>
+        <v>0.445395</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.454183</v>
+        <v>0.493534</v>
       </c>
       <c r="C108" t="n">
-        <v>0.44975</v>
+        <v>0.449173</v>
       </c>
       <c r="D108" t="n">
-        <v>0.633611</v>
+        <v>0.442121</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.452211</v>
+        <v>0.489936</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447262</v>
+        <v>0.446846</v>
       </c>
       <c r="D109" t="n">
-        <v>0.625394</v>
+        <v>0.443188</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.650535</v>
+        <v>0.687474</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70359</v>
+        <v>0.70328</v>
       </c>
       <c r="D110" t="n">
-        <v>0.611484</v>
+        <v>0.676634</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.639254</v>
+        <v>0.673936</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6873860000000001</v>
+        <v>0.687434</v>
       </c>
       <c r="D111" t="n">
-        <v>0.596519</v>
+        <v>0.660825</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626965</v>
+        <v>0.659608</v>
       </c>
       <c r="C112" t="n">
-        <v>0.670888</v>
+        <v>0.669351</v>
       </c>
       <c r="D112" t="n">
-        <v>0.583392</v>
+        <v>0.645145</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.615609</v>
+        <v>0.646292</v>
       </c>
       <c r="C113" t="n">
-        <v>0.653619</v>
+        <v>0.652635</v>
       </c>
       <c r="D113" t="n">
-        <v>0.570254</v>
+        <v>0.628599</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.604097</v>
+        <v>0.633697</v>
       </c>
       <c r="C114" t="n">
-        <v>0.637652</v>
+        <v>0.636984</v>
       </c>
       <c r="D114" t="n">
-        <v>0.558283</v>
+        <v>0.613819</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5941340000000001</v>
+        <v>0.621405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.623175</v>
+        <v>0.621855</v>
       </c>
       <c r="D115" t="n">
-        <v>0.546992</v>
+        <v>0.599539</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.584095</v>
+        <v>0.61037</v>
       </c>
       <c r="C116" t="n">
-        <v>0.609762</v>
+        <v>0.608223</v>
       </c>
       <c r="D116" t="n">
-        <v>0.536829</v>
+        <v>0.586398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575022</v>
+        <v>0.599433</v>
       </c>
       <c r="C117" t="n">
-        <v>0.596617</v>
+        <v>0.595167</v>
       </c>
       <c r="D117" t="n">
-        <v>0.526685</v>
+        <v>0.573245</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.56618</v>
+        <v>0.5893929999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584495</v>
+        <v>0.583109</v>
       </c>
       <c r="D118" t="n">
-        <v>0.516904</v>
+        <v>0.561849</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.557943</v>
+        <v>0.580242</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57336</v>
+        <v>0.571954</v>
       </c>
       <c r="D119" t="n">
-        <v>0.50875</v>
+        <v>0.551235</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.55104</v>
+        <v>0.5717100000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564105</v>
+        <v>0.562234</v>
       </c>
       <c r="D120" t="n">
-        <v>0.500795</v>
+        <v>0.542397</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.544135</v>
+        <v>0.56432</v>
       </c>
       <c r="C121" t="n">
-        <v>0.554947</v>
+        <v>0.5535870000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.493982</v>
+        <v>0.533676</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.538955</v>
+        <v>0.557642</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547974</v>
+        <v>0.547336</v>
       </c>
       <c r="D122" t="n">
-        <v>0.489514</v>
+        <v>0.528766</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.535534</v>
+        <v>0.5533090000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.543865</v>
+        <v>0.542245</v>
       </c>
       <c r="D123" t="n">
-        <v>0.691236</v>
+        <v>0.526435</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727382</v>
+        <v>0.745624</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7953519999999999</v>
+        <v>0.793965</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680438</v>
+        <v>0.758377</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7166169999999999</v>
+        <v>0.7347860000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.779705</v>
+        <v>0.779242</v>
       </c>
       <c r="D125" t="n">
-        <v>0.670053</v>
+        <v>0.74466</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.706963</v>
+        <v>0.723603</v>
       </c>
       <c r="C126" t="n">
-        <v>0.765778</v>
+        <v>0.764274</v>
       </c>
       <c r="D126" t="n">
-        <v>0.660215</v>
+        <v>0.730459</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697677</v>
+        <v>0.713628</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7512799999999999</v>
+        <v>0.751102</v>
       </c>
       <c r="D127" t="n">
-        <v>0.651213</v>
+        <v>0.716506</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688077</v>
+        <v>0.703265</v>
       </c>
       <c r="C128" t="n">
-        <v>0.73832</v>
+        <v>0.73697</v>
       </c>
       <c r="D128" t="n">
-        <v>0.642107</v>
+        <v>0.703905</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.680189</v>
+        <v>0.694295</v>
       </c>
       <c r="C129" t="n">
-        <v>0.726425</v>
+        <v>0.725056</v>
       </c>
       <c r="D129" t="n">
-        <v>0.635256</v>
+        <v>0.692422</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.671716</v>
+        <v>0.685538</v>
       </c>
       <c r="C130" t="n">
-        <v>0.715813</v>
+        <v>0.7143080000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.62599</v>
+        <v>0.681422</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.664934</v>
+        <v>0.676988</v>
       </c>
       <c r="C131" t="n">
-        <v>0.705427</v>
+        <v>0.702955</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6185619999999999</v>
+        <v>0.6711240000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.657653</v>
+        <v>0.669505</v>
       </c>
       <c r="C132" t="n">
-        <v>0.695898</v>
+        <v>0.693757</v>
       </c>
       <c r="D132" t="n">
-        <v>0.613015</v>
+        <v>0.662048</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.651855</v>
+        <v>0.662312</v>
       </c>
       <c r="C133" t="n">
-        <v>0.686547</v>
+        <v>0.685218</v>
       </c>
       <c r="D133" t="n">
-        <v>0.609522</v>
+        <v>0.652751</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.646764</v>
+        <v>0.655447</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6798959999999999</v>
+        <v>0.676783</v>
       </c>
       <c r="D134" t="n">
-        <v>0.60386</v>
+        <v>0.644702</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.640352</v>
+        <v>0.649828</v>
       </c>
       <c r="C135" t="n">
-        <v>0.670876</v>
+        <v>0.670231</v>
       </c>
       <c r="D135" t="n">
-        <v>0.599388</v>
+        <v>0.637287</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.635593</v>
+        <v>0.644895</v>
       </c>
       <c r="C136" t="n">
-        <v>0.665204</v>
+        <v>0.664843</v>
       </c>
       <c r="D136" t="n">
-        <v>0.595737</v>
+        <v>0.631111</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.632661</v>
+        <v>0.640528</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662292</v>
+        <v>0.659326</v>
       </c>
       <c r="D137" t="n">
-        <v>0.798161</v>
+        <v>0.625342</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.821235</v>
+        <v>0.830501</v>
       </c>
       <c r="C138" t="n">
-        <v>0.917405</v>
+        <v>0.915716</v>
       </c>
       <c r="D138" t="n">
-        <v>0.788094</v>
+        <v>0.861299</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.812075</v>
+        <v>0.820622</v>
       </c>
       <c r="C139" t="n">
-        <v>0.902094</v>
+        <v>0.900586</v>
       </c>
       <c r="D139" t="n">
-        <v>0.781482</v>
+        <v>0.847185</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.80418</v>
+        <v>0.811534</v>
       </c>
       <c r="C140" t="n">
-        <v>0.888293</v>
+        <v>0.886132</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7735</v>
+        <v>0.8338370000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.796799</v>
+        <v>0.8024289999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875273</v>
+        <v>0.874399</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7649820000000001</v>
+        <v>0.8236250000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.789444</v>
+        <v>0.7949040000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.863699</v>
+        <v>0.861911</v>
       </c>
       <c r="D142" t="n">
-        <v>0.758495</v>
+        <v>0.812206</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.782393</v>
+        <v>0.786918</v>
       </c>
       <c r="C143" t="n">
-        <v>0.851432</v>
+        <v>0.851514</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.802362</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244484</v>
+        <v>0.247036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251973</v>
+        <v>0.250828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24338</v>
+        <v>0.250775</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23762</v>
+        <v>0.240133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244335</v>
+        <v>0.243477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236806</v>
+        <v>0.242904</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232626</v>
+        <v>0.233963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237095</v>
+        <v>0.23657</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230405</v>
+        <v>0.237249</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22735</v>
+        <v>0.228951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230934</v>
+        <v>0.230565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227038</v>
+        <v>0.233016</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22308</v>
+        <v>0.224433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225812</v>
+        <v>0.225371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.222176</v>
+        <v>0.229061</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220176</v>
+        <v>0.220855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222149</v>
+        <v>0.22135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220718</v>
+        <v>0.228731</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217951</v>
+        <v>0.218816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219485</v>
+        <v>0.218542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221993</v>
+        <v>0.230046</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217681</v>
+        <v>0.218411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219403</v>
+        <v>0.218861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.226137</v>
+        <v>0.234357</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306723</v>
+        <v>0.306361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.329916</v>
+        <v>0.328167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.323856</v>
+        <v>0.329354</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296272</v>
+        <v>0.296848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.318892</v>
+        <v>0.316813</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313125</v>
+        <v>0.318853</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287071</v>
+        <v>0.287264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307954</v>
+        <v>0.305821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.302917</v>
+        <v>0.306187</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27818</v>
+        <v>0.278449</v>
       </c>
       <c r="C13" t="n">
-        <v>0.29729</v>
+        <v>0.295233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.292948</v>
+        <v>0.29889</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270026</v>
+        <v>0.270014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287589</v>
+        <v>0.285333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283706</v>
+        <v>0.287551</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262241</v>
+        <v>0.262291</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278595</v>
+        <v>0.27634</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27479</v>
+        <v>0.278879</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255023</v>
+        <v>0.255181</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269782</v>
+        <v>0.268578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.266578</v>
+        <v>0.272519</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24829</v>
+        <v>0.248416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261765</v>
+        <v>0.259923</v>
       </c>
       <c r="D17" t="n">
-        <v>0.258994</v>
+        <v>0.265408</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24214</v>
+        <v>0.242713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254732</v>
+        <v>0.252868</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252412</v>
+        <v>0.259282</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236429</v>
+        <v>0.236951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248195</v>
+        <v>0.246483</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246891</v>
+        <v>0.252804</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231688</v>
+        <v>0.231942</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242534</v>
+        <v>0.240929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242599</v>
+        <v>0.248281</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227788</v>
+        <v>0.2278</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238461</v>
+        <v>0.237149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23966</v>
+        <v>0.245459</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225443</v>
+        <v>0.225274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235564</v>
+        <v>0.234149</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239132</v>
+        <v>0.245677</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224824</v>
+        <v>0.224607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235017</v>
+        <v>0.233512</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241949</v>
+        <v>0.248755</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312532</v>
+        <v>0.312264</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345315</v>
+        <v>0.344764</v>
       </c>
       <c r="D24" t="n">
-        <v>0.339487</v>
+        <v>0.345402</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303054</v>
+        <v>0.302342</v>
       </c>
       <c r="C25" t="n">
-        <v>0.333786</v>
+        <v>0.331944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.328184</v>
+        <v>0.333854</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293821</v>
+        <v>0.293434</v>
       </c>
       <c r="C26" t="n">
-        <v>0.321122</v>
+        <v>0.320588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317339</v>
+        <v>0.322948</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285133</v>
+        <v>0.284725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311823</v>
+        <v>0.309803</v>
       </c>
       <c r="D27" t="n">
-        <v>0.307077</v>
+        <v>0.312783</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276912</v>
+        <v>0.276356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.301818</v>
+        <v>0.300425</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297461</v>
+        <v>0.303303</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269078</v>
+        <v>0.268483</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292318</v>
+        <v>0.290873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.28835</v>
+        <v>0.294332</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261834</v>
+        <v>0.260693</v>
       </c>
       <c r="C30" t="n">
-        <v>0.283343</v>
+        <v>0.281749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.279583</v>
+        <v>0.285654</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254924</v>
+        <v>0.253763</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27495</v>
+        <v>0.272927</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271721</v>
+        <v>0.277926</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24866</v>
+        <v>0.247453</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267038</v>
+        <v>0.266244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.264185</v>
+        <v>0.270492</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242895</v>
+        <v>0.24142</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259824</v>
+        <v>0.259201</v>
       </c>
       <c r="D33" t="n">
-        <v>0.257688</v>
+        <v>0.264205</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23787</v>
+        <v>0.236302</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252708</v>
+        <v>0.252125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.252231</v>
+        <v>0.258824</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23364</v>
+        <v>0.231977</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246834</v>
+        <v>0.246642</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248166</v>
+        <v>0.254797</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230675</v>
+        <v>0.229112</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24309</v>
+        <v>0.242783</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246247</v>
+        <v>0.252935</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228949</v>
+        <v>0.227532</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241973</v>
+        <v>0.240233</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24685</v>
+        <v>0.253588</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316646</v>
+        <v>0.315711</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354164</v>
+        <v>0.353257</v>
       </c>
       <c r="D38" t="n">
-        <v>0.348076</v>
+        <v>0.353137</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307624</v>
+        <v>0.30579</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342592</v>
+        <v>0.342426</v>
       </c>
       <c r="D39" t="n">
-        <v>0.337008</v>
+        <v>0.341929</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298568</v>
+        <v>0.297115</v>
       </c>
       <c r="C40" t="n">
-        <v>0.331722</v>
+        <v>0.330694</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326269</v>
+        <v>0.331269</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.290174</v>
+        <v>0.28825</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321168</v>
+        <v>0.32038</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315746</v>
+        <v>0.321135</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281944</v>
+        <v>0.279492</v>
       </c>
       <c r="C42" t="n">
-        <v>0.311153</v>
+        <v>0.310302</v>
       </c>
       <c r="D42" t="n">
-        <v>0.306047</v>
+        <v>0.311247</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.274218</v>
+        <v>0.272178</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301423</v>
+        <v>0.300923</v>
       </c>
       <c r="D43" t="n">
-        <v>0.296755</v>
+        <v>0.302094</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26679</v>
+        <v>0.264631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292106</v>
+        <v>0.291505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.287842</v>
+        <v>0.293692</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260106</v>
+        <v>0.257771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284187</v>
+        <v>0.283259</v>
       </c>
       <c r="D45" t="n">
-        <v>0.280051</v>
+        <v>0.28574</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253552</v>
+        <v>0.25133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276415</v>
+        <v>0.275705</v>
       </c>
       <c r="D46" t="n">
-        <v>0.272881</v>
+        <v>0.278632</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.247603</v>
+        <v>0.245969</v>
       </c>
       <c r="C47" t="n">
-        <v>0.269548</v>
+        <v>0.26785</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266538</v>
+        <v>0.272399</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242964</v>
+        <v>0.241328</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262993</v>
+        <v>0.262135</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260816</v>
+        <v>0.266937</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237992</v>
+        <v>0.236669</v>
       </c>
       <c r="C49" t="n">
-        <v>0.257154</v>
+        <v>0.256967</v>
       </c>
       <c r="D49" t="n">
-        <v>0.256582</v>
+        <v>0.262942</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234888</v>
+        <v>0.233303</v>
       </c>
       <c r="C50" t="n">
-        <v>0.253114</v>
+        <v>0.252618</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253942</v>
+        <v>0.260486</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232664</v>
+        <v>0.232203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.250277</v>
+        <v>0.249116</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253733</v>
+        <v>0.260676</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232607</v>
+        <v>0.231144</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250135</v>
+        <v>0.249577</v>
       </c>
       <c r="D52" t="n">
-        <v>0.257007</v>
+        <v>0.264122</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.316961</v>
+        <v>0.318694</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355119</v>
+        <v>0.355897</v>
       </c>
       <c r="D53" t="n">
-        <v>0.348789</v>
+        <v>0.355371</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308076</v>
+        <v>0.309616</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344072</v>
+        <v>0.344737</v>
       </c>
       <c r="D54" t="n">
-        <v>0.337964</v>
+        <v>0.344493</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.299387</v>
+        <v>0.300991</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333428</v>
+        <v>0.334097</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327494</v>
+        <v>0.334064</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290945</v>
+        <v>0.293055</v>
       </c>
       <c r="C56" t="n">
-        <v>0.32341</v>
+        <v>0.324114</v>
       </c>
       <c r="D56" t="n">
-        <v>0.317703</v>
+        <v>0.32426</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283505</v>
+        <v>0.285821</v>
       </c>
       <c r="C57" t="n">
-        <v>0.313898</v>
+        <v>0.314786</v>
       </c>
       <c r="D57" t="n">
-        <v>0.308466</v>
+        <v>0.315215</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277074</v>
+        <v>0.278591</v>
       </c>
       <c r="C58" t="n">
-        <v>0.304915</v>
+        <v>0.305771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29977</v>
+        <v>0.306388</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270293</v>
+        <v>0.271926</v>
       </c>
       <c r="C59" t="n">
-        <v>0.295502</v>
+        <v>0.297281</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29136</v>
+        <v>0.298573</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263705</v>
+        <v>0.265741</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287673</v>
+        <v>0.289529</v>
       </c>
       <c r="D60" t="n">
-        <v>0.283805</v>
+        <v>0.291425</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258695</v>
+        <v>0.260037</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281414</v>
+        <v>0.282441</v>
       </c>
       <c r="D61" t="n">
-        <v>0.277581</v>
+        <v>0.285103</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253645</v>
+        <v>0.255041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.274959</v>
+        <v>0.275907</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27178</v>
+        <v>0.279295</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249106</v>
+        <v>0.25055</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269065</v>
+        <v>0.27028</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267106</v>
+        <v>0.274844</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246319</v>
+        <v>0.246951</v>
       </c>
       <c r="C64" t="n">
-        <v>0.264018</v>
+        <v>0.265637</v>
       </c>
       <c r="D64" t="n">
-        <v>0.264086</v>
+        <v>0.271961</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244579</v>
+        <v>0.24457</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260937</v>
+        <v>0.262471</v>
       </c>
       <c r="D65" t="n">
-        <v>0.263603</v>
+        <v>0.271571</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244711</v>
+        <v>0.244141</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261463</v>
+        <v>0.261847</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266606</v>
+        <v>0.274174</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.377909</v>
+        <v>0.378477</v>
       </c>
       <c r="C67" t="n">
-        <v>0.392987</v>
+        <v>0.393471</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384506</v>
+        <v>0.391425</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.369902</v>
+        <v>0.370692</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380992</v>
+        <v>0.381919</v>
       </c>
       <c r="D68" t="n">
-        <v>0.373149</v>
+        <v>0.380515</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362988</v>
+        <v>0.36389</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369973</v>
+        <v>0.37103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.362298</v>
+        <v>0.3698</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.356299</v>
+        <v>0.357289</v>
       </c>
       <c r="C70" t="n">
-        <v>0.359243</v>
+        <v>0.360183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.35175</v>
+        <v>0.359587</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349861</v>
+        <v>0.350712</v>
       </c>
       <c r="C71" t="n">
-        <v>0.349129</v>
+        <v>0.350157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.341955</v>
+        <v>0.350192</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343539</v>
+        <v>0.344486</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339505</v>
+        <v>0.34059</v>
       </c>
       <c r="D72" t="n">
-        <v>0.332843</v>
+        <v>0.341119</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.336888</v>
+        <v>0.33798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.330494</v>
+        <v>0.331557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.324103</v>
+        <v>0.332409</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.33074</v>
+        <v>0.331464</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321873</v>
+        <v>0.322812</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315993</v>
+        <v>0.324452</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324508</v>
+        <v>0.325024</v>
       </c>
       <c r="C75" t="n">
-        <v>0.31423</v>
+        <v>0.314735</v>
       </c>
       <c r="D75" t="n">
-        <v>0.308652</v>
+        <v>0.317061</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318538</v>
+        <v>0.319092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306797</v>
+        <v>0.307508</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302057</v>
+        <v>0.310502</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313003</v>
+        <v>0.313098</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299952</v>
+        <v>0.300913</v>
       </c>
       <c r="D77" t="n">
-        <v>0.296534</v>
+        <v>0.304906</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308203</v>
+        <v>0.308061</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294581</v>
+        <v>0.295441</v>
       </c>
       <c r="D78" t="n">
-        <v>0.292417</v>
+        <v>0.300971</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304185</v>
+        <v>0.304044</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290394</v>
+        <v>0.291432</v>
       </c>
       <c r="D79" t="n">
-        <v>0.290607</v>
+        <v>0.299393</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30166</v>
+        <v>0.301924</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288241</v>
+        <v>0.289172</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291667</v>
+        <v>0.300404</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.535006</v>
+        <v>0.530765</v>
       </c>
       <c r="C81" t="n">
-        <v>0.455498</v>
+        <v>0.456633</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4469</v>
+        <v>0.456377</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.527361</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.447784</v>
+        <v>0.447536</v>
       </c>
       <c r="D82" t="n">
-        <v>0.439133</v>
+        <v>0.447675</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.516464</v>
+        <v>0.512118</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436663</v>
+        <v>0.436597</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428506</v>
+        <v>0.438807</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.505792</v>
+        <v>0.501119</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425479</v>
+        <v>0.424741</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418057</v>
+        <v>0.427575</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.494914</v>
+        <v>0.491212</v>
       </c>
       <c r="C85" t="n">
-        <v>0.414325</v>
+        <v>0.4152</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407642</v>
+        <v>0.419417</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.484425</v>
+        <v>0.480639</v>
       </c>
       <c r="C86" t="n">
-        <v>0.404445</v>
+        <v>0.405463</v>
       </c>
       <c r="D86" t="n">
-        <v>0.398073</v>
+        <v>0.410274</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.474431</v>
+        <v>0.470751</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394031</v>
+        <v>0.394941</v>
       </c>
       <c r="D87" t="n">
-        <v>0.388154</v>
+        <v>0.400525</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.464208</v>
+        <v>0.461469</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384753</v>
+        <v>0.384657</v>
       </c>
       <c r="D88" t="n">
-        <v>0.379034</v>
+        <v>0.391001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.454856</v>
+        <v>0.451759</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376038</v>
+        <v>0.376523</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371347</v>
+        <v>0.383332</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.445842</v>
+        <v>0.44297</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36808</v>
+        <v>0.368966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.363601</v>
+        <v>0.377258</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437284</v>
+        <v>0.434107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.361132</v>
+        <v>0.361465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.35741</v>
+        <v>0.370761</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429144</v>
+        <v>0.426489</v>
       </c>
       <c r="C92" t="n">
-        <v>0.35452</v>
+        <v>0.354987</v>
       </c>
       <c r="D92" t="n">
-        <v>0.351878</v>
+        <v>0.365143</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422053</v>
+        <v>0.41998</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349674</v>
+        <v>0.349394</v>
       </c>
       <c r="D93" t="n">
-        <v>0.348528</v>
+        <v>0.361717</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416529</v>
+        <v>0.414535</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346347</v>
+        <v>0.34656</v>
       </c>
       <c r="D94" t="n">
-        <v>0.34792</v>
+        <v>0.360902</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.623101</v>
+        <v>0.615845</v>
       </c>
       <c r="C95" t="n">
-        <v>0.599635</v>
+        <v>0.598759</v>
       </c>
       <c r="D95" t="n">
-        <v>0.581043</v>
+        <v>0.603434</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.616479</v>
+        <v>0.609005</v>
       </c>
       <c r="C96" t="n">
-        <v>0.590274</v>
+        <v>0.590242</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573091</v>
+        <v>0.594017</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.604461</v>
+        <v>0.59732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.574936</v>
+        <v>0.575359</v>
       </c>
       <c r="D97" t="n">
-        <v>0.558463</v>
+        <v>0.579799</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.591643</v>
+        <v>0.584932</v>
       </c>
       <c r="C98" t="n">
-        <v>0.559509</v>
+        <v>0.559616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543581</v>
+        <v>0.5657</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.579368</v>
+        <v>0.572608</v>
       </c>
       <c r="C99" t="n">
-        <v>0.543749</v>
+        <v>0.544075</v>
       </c>
       <c r="D99" t="n">
-        <v>0.529163</v>
+        <v>0.551997</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.56725</v>
+        <v>0.5608340000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.530562</v>
+        <v>0.529814</v>
       </c>
       <c r="D100" t="n">
-        <v>0.515607</v>
+        <v>0.538605</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.555845</v>
+        <v>0.549434</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5162330000000001</v>
+        <v>0.516621</v>
       </c>
       <c r="D101" t="n">
-        <v>0.50227</v>
+        <v>0.525666</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.544814</v>
+        <v>0.538875</v>
       </c>
       <c r="C102" t="n">
-        <v>0.503847</v>
+        <v>0.50324</v>
       </c>
       <c r="D102" t="n">
-        <v>0.490383</v>
+        <v>0.514207</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.53445</v>
+        <v>0.528728</v>
       </c>
       <c r="C103" t="n">
-        <v>0.491991</v>
+        <v>0.491381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.478696</v>
+        <v>0.503749</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.52395</v>
+        <v>0.519409</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480445</v>
+        <v>0.48121</v>
       </c>
       <c r="D104" t="n">
-        <v>0.468466</v>
+        <v>0.493944</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514675</v>
+        <v>0.509914</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470261</v>
+        <v>0.471865</v>
       </c>
       <c r="D105" t="n">
-        <v>0.45968</v>
+        <v>0.485927</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.50681</v>
+        <v>0.503194</v>
       </c>
       <c r="C106" t="n">
-        <v>0.461835</v>
+        <v>0.462676</v>
       </c>
       <c r="D106" t="n">
-        <v>0.451607</v>
+        <v>0.477654</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.499166</v>
+        <v>0.496038</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454331</v>
+        <v>0.455342</v>
       </c>
       <c r="D107" t="n">
-        <v>0.445395</v>
+        <v>0.472048</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.493534</v>
+        <v>0.490132</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449173</v>
+        <v>0.449579</v>
       </c>
       <c r="D108" t="n">
-        <v>0.442121</v>
+        <v>0.468729</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489936</v>
+        <v>0.486847</v>
       </c>
       <c r="C109" t="n">
-        <v>0.446846</v>
+        <v>0.447437</v>
       </c>
       <c r="D109" t="n">
-        <v>0.443188</v>
+        <v>0.470277</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.687474</v>
+        <v>0.684088</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70328</v>
+        <v>0.705283</v>
       </c>
       <c r="D110" t="n">
-        <v>0.676634</v>
+        <v>0.713872</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673936</v>
+        <v>0.670739</v>
       </c>
       <c r="C111" t="n">
-        <v>0.687434</v>
+        <v>0.688244</v>
       </c>
       <c r="D111" t="n">
-        <v>0.660825</v>
+        <v>0.6973279999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659608</v>
+        <v>0.656922</v>
       </c>
       <c r="C112" t="n">
-        <v>0.669351</v>
+        <v>0.6696800000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.645145</v>
+        <v>0.679875</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.646292</v>
+        <v>0.643572</v>
       </c>
       <c r="C113" t="n">
-        <v>0.652635</v>
+        <v>0.654658</v>
       </c>
       <c r="D113" t="n">
-        <v>0.628599</v>
+        <v>0.664423</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.633697</v>
+        <v>0.631223</v>
       </c>
       <c r="C114" t="n">
-        <v>0.636984</v>
+        <v>0.63873</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613819</v>
+        <v>0.648568</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621405</v>
+        <v>0.619099</v>
       </c>
       <c r="C115" t="n">
-        <v>0.621855</v>
+        <v>0.623246</v>
       </c>
       <c r="D115" t="n">
-        <v>0.599539</v>
+        <v>0.634444</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.61037</v>
+        <v>0.607727</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608223</v>
+        <v>0.608684</v>
       </c>
       <c r="D116" t="n">
-        <v>0.586398</v>
+        <v>0.621034</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.599433</v>
+        <v>0.597097</v>
       </c>
       <c r="C117" t="n">
-        <v>0.595167</v>
+        <v>0.596702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.573245</v>
+        <v>0.608891</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5893929999999999</v>
+        <v>0.5874549999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.583109</v>
+        <v>0.584858</v>
       </c>
       <c r="D118" t="n">
-        <v>0.561849</v>
+        <v>0.597457</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.580242</v>
+        <v>0.578397</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571954</v>
+        <v>0.573738</v>
       </c>
       <c r="D119" t="n">
-        <v>0.551235</v>
+        <v>0.587175</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5717100000000001</v>
+        <v>0.5696369999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.562234</v>
+        <v>0.5638069999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.542397</v>
+        <v>0.577689</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.56432</v>
+        <v>0.56234</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5535870000000001</v>
+        <v>0.555333</v>
       </c>
       <c r="D121" t="n">
-        <v>0.533676</v>
+        <v>0.569968</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.557642</v>
+        <v>0.556011</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547336</v>
+        <v>0.547743</v>
       </c>
       <c r="D122" t="n">
-        <v>0.528766</v>
+        <v>0.564093</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5533090000000001</v>
+        <v>0.551776</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542245</v>
+        <v>0.543104</v>
       </c>
       <c r="D123" t="n">
-        <v>0.526435</v>
+        <v>0.562503</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.745624</v>
+        <v>0.745066</v>
       </c>
       <c r="C124" t="n">
-        <v>0.793965</v>
+        <v>0.795131</v>
       </c>
       <c r="D124" t="n">
-        <v>0.758377</v>
+        <v>0.803206</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7347860000000001</v>
+        <v>0.734011</v>
       </c>
       <c r="C125" t="n">
-        <v>0.779242</v>
+        <v>0.7799160000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.74466</v>
+        <v>0.787832</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.723603</v>
+        <v>0.723044</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764274</v>
+        <v>0.765578</v>
       </c>
       <c r="D126" t="n">
-        <v>0.730459</v>
+        <v>0.770828</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.713628</v>
+        <v>0.71263</v>
       </c>
       <c r="C127" t="n">
-        <v>0.751102</v>
+        <v>0.7524189999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.716506</v>
+        <v>0.755849</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.703265</v>
+        <v>0.703203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.73697</v>
+        <v>0.738873</v>
       </c>
       <c r="D128" t="n">
-        <v>0.703905</v>
+        <v>0.743417</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.694295</v>
+        <v>0.6938260000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.725056</v>
+        <v>0.728146</v>
       </c>
       <c r="D129" t="n">
-        <v>0.692422</v>
+        <v>0.731203</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.685538</v>
+        <v>0.685589</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7143080000000001</v>
+        <v>0.717578</v>
       </c>
       <c r="D130" t="n">
-        <v>0.681422</v>
+        <v>0.719186</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.676988</v>
+        <v>0.677493</v>
       </c>
       <c r="C131" t="n">
-        <v>0.702955</v>
+        <v>0.705502</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6711240000000001</v>
+        <v>0.708111</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.669505</v>
+        <v>0.669777</v>
       </c>
       <c r="C132" t="n">
-        <v>0.693757</v>
+        <v>0.697207</v>
       </c>
       <c r="D132" t="n">
-        <v>0.662048</v>
+        <v>0.697663</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.662312</v>
+        <v>0.662778</v>
       </c>
       <c r="C133" t="n">
-        <v>0.685218</v>
+        <v>0.687759</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652751</v>
+        <v>0.688621</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.655447</v>
+        <v>0.656566</v>
       </c>
       <c r="C134" t="n">
-        <v>0.676783</v>
+        <v>0.680684</v>
       </c>
       <c r="D134" t="n">
-        <v>0.644702</v>
+        <v>0.680555</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.649828</v>
+        <v>0.650984</v>
       </c>
       <c r="C135" t="n">
-        <v>0.670231</v>
+        <v>0.673489</v>
       </c>
       <c r="D135" t="n">
-        <v>0.637287</v>
+        <v>0.673503</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.644895</v>
+        <v>0.646203</v>
       </c>
       <c r="C136" t="n">
-        <v>0.664843</v>
+        <v>0.667736</v>
       </c>
       <c r="D136" t="n">
-        <v>0.631111</v>
+        <v>0.666515</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.640528</v>
+        <v>0.641881</v>
       </c>
       <c r="C137" t="n">
-        <v>0.659326</v>
+        <v>0.662542</v>
       </c>
       <c r="D137" t="n">
-        <v>0.625342</v>
+        <v>0.663087</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830501</v>
+        <v>0.830947</v>
       </c>
       <c r="C138" t="n">
-        <v>0.915716</v>
+        <v>0.91865</v>
       </c>
       <c r="D138" t="n">
-        <v>0.861299</v>
+        <v>0.906338</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.820622</v>
+        <v>0.8210229999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.900586</v>
+        <v>0.90404</v>
       </c>
       <c r="D139" t="n">
-        <v>0.847185</v>
+        <v>0.8893450000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.811534</v>
+        <v>0.812311</v>
       </c>
       <c r="C140" t="n">
-        <v>0.886132</v>
+        <v>0.8905960000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8338370000000001</v>
+        <v>0.874819</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8024289999999999</v>
+        <v>0.804372</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874399</v>
+        <v>0.876718</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8236250000000001</v>
+        <v>0.859816</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7949040000000001</v>
+        <v>0.795784</v>
       </c>
       <c r="C142" t="n">
-        <v>0.861911</v>
+        <v>0.863824</v>
       </c>
       <c r="D142" t="n">
-        <v>0.812206</v>
+        <v>0.845991</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.786918</v>
+        <v>0.788878</v>
       </c>
       <c r="C143" t="n">
-        <v>0.851514</v>
+        <v>0.854079</v>
       </c>
       <c r="D143" t="n">
-        <v>0.802362</v>
+        <v>0.83339</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247036</v>
+        <v>0.247334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.250828</v>
+        <v>0.254791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250775</v>
+        <v>0.250152</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240133</v>
+        <v>0.240576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243477</v>
+        <v>0.246981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242904</v>
+        <v>0.244175</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233963</v>
+        <v>0.234272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23657</v>
+        <v>0.239933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237249</v>
+        <v>0.238583</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228951</v>
+        <v>0.229562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230565</v>
+        <v>0.234033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233016</v>
+        <v>0.235149</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224433</v>
+        <v>0.224728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225371</v>
+        <v>0.228561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229061</v>
+        <v>0.231627</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220855</v>
+        <v>0.220849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22135</v>
+        <v>0.224854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228731</v>
+        <v>0.230563</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218816</v>
+        <v>0.218809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218542</v>
+        <v>0.222049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230046</v>
+        <v>0.231163</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218411</v>
+        <v>0.218272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218861</v>
+        <v>0.221972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234357</v>
+        <v>0.235145</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306361</v>
+        <v>0.306836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.328167</v>
+        <v>0.332095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.329354</v>
+        <v>0.329812</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296848</v>
+        <v>0.296665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.316813</v>
+        <v>0.320572</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318853</v>
+        <v>0.318864</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287264</v>
+        <v>0.287388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.305821</v>
+        <v>0.309715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.306187</v>
+        <v>0.30851</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278449</v>
+        <v>0.278875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.295233</v>
+        <v>0.299261</v>
       </c>
       <c r="D13" t="n">
-        <v>0.29889</v>
+        <v>0.298647</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270014</v>
+        <v>0.270554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.285333</v>
+        <v>0.289422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287551</v>
+        <v>0.289141</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262291</v>
+        <v>0.262521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.27634</v>
+        <v>0.280378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278879</v>
+        <v>0.280336</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255181</v>
+        <v>0.255519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.268578</v>
+        <v>0.270168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.272519</v>
+        <v>0.272318</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248416</v>
+        <v>0.248753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.259923</v>
+        <v>0.263566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265408</v>
+        <v>0.265012</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242713</v>
+        <v>0.242676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252868</v>
+        <v>0.256423</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259282</v>
+        <v>0.258437</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236951</v>
+        <v>0.23703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246483</v>
+        <v>0.249986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252804</v>
+        <v>0.252989</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231942</v>
+        <v>0.232214</v>
       </c>
       <c r="C20" t="n">
-        <v>0.240929</v>
+        <v>0.244364</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248281</v>
+        <v>0.248646</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2278</v>
+        <v>0.228117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237149</v>
+        <v>0.240148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245459</v>
+        <v>0.245697</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225274</v>
+        <v>0.225619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234149</v>
+        <v>0.237345</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245677</v>
+        <v>0.245189</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224607</v>
+        <v>0.22479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233512</v>
+        <v>0.236818</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248755</v>
+        <v>0.248212</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312264</v>
+        <v>0.312726</v>
       </c>
       <c r="C24" t="n">
-        <v>0.344764</v>
+        <v>0.346847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.345402</v>
+        <v>0.343101</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302342</v>
+        <v>0.303217</v>
       </c>
       <c r="C25" t="n">
-        <v>0.331944</v>
+        <v>0.335062</v>
       </c>
       <c r="D25" t="n">
-        <v>0.333854</v>
+        <v>0.331993</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293434</v>
+        <v>0.294081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.320588</v>
+        <v>0.324146</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322948</v>
+        <v>0.320941</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284725</v>
+        <v>0.285151</v>
       </c>
       <c r="C27" t="n">
-        <v>0.309803</v>
+        <v>0.312993</v>
       </c>
       <c r="D27" t="n">
-        <v>0.312783</v>
+        <v>0.311003</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276356</v>
+        <v>0.277095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.300425</v>
+        <v>0.30316</v>
       </c>
       <c r="D28" t="n">
-        <v>0.303303</v>
+        <v>0.301199</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268483</v>
+        <v>0.269199</v>
       </c>
       <c r="C29" t="n">
-        <v>0.290873</v>
+        <v>0.293317</v>
       </c>
       <c r="D29" t="n">
-        <v>0.294332</v>
+        <v>0.292073</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260693</v>
+        <v>0.261927</v>
       </c>
       <c r="C30" t="n">
-        <v>0.281749</v>
+        <v>0.284998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.285654</v>
+        <v>0.283555</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253763</v>
+        <v>0.254886</v>
       </c>
       <c r="C31" t="n">
-        <v>0.272927</v>
+        <v>0.276363</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277926</v>
+        <v>0.275682</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247453</v>
+        <v>0.248325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266244</v>
+        <v>0.268529</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270492</v>
+        <v>0.268421</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24142</v>
+        <v>0.242333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259201</v>
+        <v>0.261385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264205</v>
+        <v>0.262288</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236302</v>
+        <v>0.2371</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252125</v>
+        <v>0.254532</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258824</v>
+        <v>0.256715</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231977</v>
+        <v>0.23329</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246642</v>
+        <v>0.249541</v>
       </c>
       <c r="D35" t="n">
-        <v>0.254797</v>
+        <v>0.252841</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229112</v>
+        <v>0.230342</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242783</v>
+        <v>0.245787</v>
       </c>
       <c r="D36" t="n">
-        <v>0.252935</v>
+        <v>0.250991</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227532</v>
+        <v>0.228178</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240233</v>
+        <v>0.243599</v>
       </c>
       <c r="D37" t="n">
-        <v>0.253588</v>
+        <v>0.251832</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315711</v>
+        <v>0.315733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353257</v>
+        <v>0.356199</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353137</v>
+        <v>0.350713</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30579</v>
+        <v>0.306379</v>
       </c>
       <c r="C39" t="n">
-        <v>0.342426</v>
+        <v>0.344718</v>
       </c>
       <c r="D39" t="n">
-        <v>0.341929</v>
+        <v>0.339695</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297115</v>
+        <v>0.297719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.330694</v>
+        <v>0.333681</v>
       </c>
       <c r="D40" t="n">
-        <v>0.331269</v>
+        <v>0.328933</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.28825</v>
+        <v>0.288674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32038</v>
+        <v>0.322973</v>
       </c>
       <c r="D41" t="n">
-        <v>0.321135</v>
+        <v>0.318611</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279492</v>
+        <v>0.280781</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310302</v>
+        <v>0.312874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.311247</v>
+        <v>0.308872</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272178</v>
+        <v>0.272696</v>
       </c>
       <c r="C43" t="n">
-        <v>0.300923</v>
+        <v>0.303114</v>
       </c>
       <c r="D43" t="n">
-        <v>0.302094</v>
+        <v>0.29969</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264631</v>
+        <v>0.264855</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291505</v>
+        <v>0.294157</v>
       </c>
       <c r="D44" t="n">
-        <v>0.293692</v>
+        <v>0.291217</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257771</v>
+        <v>0.258494</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283259</v>
+        <v>0.285822</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28574</v>
+        <v>0.283341</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25133</v>
+        <v>0.252917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275705</v>
+        <v>0.278002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.278632</v>
+        <v>0.276148</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245969</v>
+        <v>0.2469</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26785</v>
+        <v>0.270971</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272399</v>
+        <v>0.269869</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241328</v>
+        <v>0.241985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262135</v>
+        <v>0.264563</v>
       </c>
       <c r="D48" t="n">
-        <v>0.266937</v>
+        <v>0.26456</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236669</v>
+        <v>0.236959</v>
       </c>
       <c r="C49" t="n">
-        <v>0.256967</v>
+        <v>0.258922</v>
       </c>
       <c r="D49" t="n">
-        <v>0.262942</v>
+        <v>0.260445</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233303</v>
+        <v>0.233862</v>
       </c>
       <c r="C50" t="n">
-        <v>0.252618</v>
+        <v>0.254862</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260486</v>
+        <v>0.25803</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232203</v>
+        <v>0.232345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249116</v>
+        <v>0.2521</v>
       </c>
       <c r="D51" t="n">
-        <v>0.260676</v>
+        <v>0.258051</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231144</v>
+        <v>0.232762</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249577</v>
+        <v>0.251963</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264122</v>
+        <v>0.261295</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318694</v>
+        <v>0.319389</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355897</v>
+        <v>0.357432</v>
       </c>
       <c r="D53" t="n">
-        <v>0.355371</v>
+        <v>0.351274</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309616</v>
+        <v>0.310248</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344737</v>
+        <v>0.346096</v>
       </c>
       <c r="D54" t="n">
-        <v>0.344493</v>
+        <v>0.340243</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300991</v>
+        <v>0.301675</v>
       </c>
       <c r="C55" t="n">
-        <v>0.334097</v>
+        <v>0.335787</v>
       </c>
       <c r="D55" t="n">
-        <v>0.334064</v>
+        <v>0.330428</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293055</v>
+        <v>0.293701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.324114</v>
+        <v>0.325661</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32426</v>
+        <v>0.320601</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285821</v>
+        <v>0.286056</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314786</v>
+        <v>0.316136</v>
       </c>
       <c r="D57" t="n">
-        <v>0.315215</v>
+        <v>0.311457</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278591</v>
+        <v>0.279118</v>
       </c>
       <c r="C58" t="n">
-        <v>0.305771</v>
+        <v>0.307334</v>
       </c>
       <c r="D58" t="n">
-        <v>0.306388</v>
+        <v>0.303206</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271926</v>
+        <v>0.272285</v>
       </c>
       <c r="C59" t="n">
-        <v>0.297281</v>
+        <v>0.298848</v>
       </c>
       <c r="D59" t="n">
-        <v>0.298573</v>
+        <v>0.295238</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265741</v>
+        <v>0.266033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289529</v>
+        <v>0.291</v>
       </c>
       <c r="D60" t="n">
-        <v>0.291425</v>
+        <v>0.287939</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260037</v>
+        <v>0.260317</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282441</v>
+        <v>0.283756</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285103</v>
+        <v>0.281587</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255041</v>
+        <v>0.255449</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275907</v>
+        <v>0.277455</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279295</v>
+        <v>0.27605</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25055</v>
+        <v>0.250719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.27028</v>
+        <v>0.271735</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274844</v>
+        <v>0.271519</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246951</v>
+        <v>0.247238</v>
       </c>
       <c r="C64" t="n">
-        <v>0.265637</v>
+        <v>0.266914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.271961</v>
+        <v>0.268548</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24457</v>
+        <v>0.245149</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262471</v>
+        <v>0.263854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271571</v>
+        <v>0.268144</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244141</v>
+        <v>0.245022</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261847</v>
+        <v>0.263273</v>
       </c>
       <c r="D66" t="n">
-        <v>0.274174</v>
+        <v>0.270789</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.378477</v>
+        <v>0.379813</v>
       </c>
       <c r="C67" t="n">
-        <v>0.393471</v>
+        <v>0.395268</v>
       </c>
       <c r="D67" t="n">
-        <v>0.391425</v>
+        <v>0.387797</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.370692</v>
+        <v>0.371668</v>
       </c>
       <c r="C68" t="n">
-        <v>0.381919</v>
+        <v>0.383691</v>
       </c>
       <c r="D68" t="n">
-        <v>0.380515</v>
+        <v>0.376974</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36389</v>
+        <v>0.364169</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37103</v>
+        <v>0.372734</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3698</v>
+        <v>0.366324</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357289</v>
+        <v>0.357189</v>
       </c>
       <c r="C70" t="n">
-        <v>0.360183</v>
+        <v>0.361843</v>
       </c>
       <c r="D70" t="n">
-        <v>0.359587</v>
+        <v>0.356207</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350712</v>
+        <v>0.350294</v>
       </c>
       <c r="C71" t="n">
-        <v>0.350157</v>
+        <v>0.351518</v>
       </c>
       <c r="D71" t="n">
-        <v>0.350192</v>
+        <v>0.346489</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344486</v>
+        <v>0.34362</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34059</v>
+        <v>0.341731</v>
       </c>
       <c r="D72" t="n">
-        <v>0.341119</v>
+        <v>0.337219</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33798</v>
+        <v>0.337017</v>
       </c>
       <c r="C73" t="n">
-        <v>0.331557</v>
+        <v>0.332481</v>
       </c>
       <c r="D73" t="n">
-        <v>0.332409</v>
+        <v>0.32838</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331464</v>
+        <v>0.330393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.322812</v>
+        <v>0.323774</v>
       </c>
       <c r="D74" t="n">
-        <v>0.324452</v>
+        <v>0.320387</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325024</v>
+        <v>0.324248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314735</v>
+        <v>0.315888</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317061</v>
+        <v>0.31312</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.319092</v>
+        <v>0.317992</v>
       </c>
       <c r="C76" t="n">
-        <v>0.307508</v>
+        <v>0.308444</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310502</v>
+        <v>0.306624</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313098</v>
+        <v>0.312334</v>
       </c>
       <c r="C77" t="n">
-        <v>0.300913</v>
+        <v>0.301963</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304906</v>
+        <v>0.301272</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308061</v>
+        <v>0.307482</v>
       </c>
       <c r="C78" t="n">
-        <v>0.295441</v>
+        <v>0.296554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.300971</v>
+        <v>0.297538</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304044</v>
+        <v>0.303539</v>
       </c>
       <c r="C79" t="n">
-        <v>0.291432</v>
+        <v>0.292529</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299393</v>
+        <v>0.295772</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301924</v>
+        <v>0.301327</v>
       </c>
       <c r="C80" t="n">
-        <v>0.289172</v>
+        <v>0.290342</v>
       </c>
       <c r="D80" t="n">
-        <v>0.300404</v>
+        <v>0.296938</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.530765</v>
+        <v>0.53198</v>
       </c>
       <c r="C81" t="n">
-        <v>0.456633</v>
+        <v>0.459384</v>
       </c>
       <c r="D81" t="n">
-        <v>0.456377</v>
+        <v>0.455223</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5225340000000001</v>
+        <v>0.523576</v>
       </c>
       <c r="C82" t="n">
-        <v>0.447536</v>
+        <v>0.450963</v>
       </c>
       <c r="D82" t="n">
-        <v>0.447675</v>
+        <v>0.447582</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512118</v>
+        <v>0.512418</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436597</v>
+        <v>0.439368</v>
       </c>
       <c r="D83" t="n">
-        <v>0.438807</v>
+        <v>0.436933</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501119</v>
+        <v>0.501328</v>
       </c>
       <c r="C84" t="n">
-        <v>0.424741</v>
+        <v>0.428087</v>
       </c>
       <c r="D84" t="n">
-        <v>0.427575</v>
+        <v>0.42785</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491212</v>
+        <v>0.491069</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4152</v>
+        <v>0.417213</v>
       </c>
       <c r="D85" t="n">
-        <v>0.419417</v>
+        <v>0.417942</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.480639</v>
+        <v>0.480954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405463</v>
+        <v>0.407808</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410274</v>
+        <v>0.410153</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.470751</v>
+        <v>0.471438</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394941</v>
+        <v>0.397612</v>
       </c>
       <c r="D87" t="n">
-        <v>0.400525</v>
+        <v>0.400844</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461469</v>
+        <v>0.461388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384657</v>
+        <v>0.387587</v>
       </c>
       <c r="D88" t="n">
-        <v>0.391001</v>
+        <v>0.391922</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.451759</v>
+        <v>0.45203</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376523</v>
+        <v>0.378616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383332</v>
+        <v>0.383951</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.44297</v>
+        <v>0.443031</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368966</v>
+        <v>0.371245</v>
       </c>
       <c r="D90" t="n">
-        <v>0.377258</v>
+        <v>0.37778</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.434107</v>
+        <v>0.434719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.361465</v>
+        <v>0.363885</v>
       </c>
       <c r="D91" t="n">
-        <v>0.370761</v>
+        <v>0.371514</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.426489</v>
+        <v>0.427102</v>
       </c>
       <c r="C92" t="n">
-        <v>0.354987</v>
+        <v>0.357472</v>
       </c>
       <c r="D92" t="n">
-        <v>0.365143</v>
+        <v>0.366104</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.41998</v>
+        <v>0.419928</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349394</v>
+        <v>0.352453</v>
       </c>
       <c r="D93" t="n">
-        <v>0.361717</v>
+        <v>0.363122</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.414535</v>
+        <v>0.414573</v>
       </c>
       <c r="C94" t="n">
-        <v>0.34656</v>
+        <v>0.349056</v>
       </c>
       <c r="D94" t="n">
-        <v>0.360902</v>
+        <v>0.362506</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.615845</v>
+        <v>0.616998</v>
       </c>
       <c r="C95" t="n">
-        <v>0.598759</v>
+        <v>0.602297</v>
       </c>
       <c r="D95" t="n">
-        <v>0.603434</v>
+        <v>0.604999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.609005</v>
+        <v>0.6099329999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.590242</v>
+        <v>0.593437</v>
       </c>
       <c r="D96" t="n">
-        <v>0.594017</v>
+        <v>0.59538</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.59732</v>
+        <v>0.597743</v>
       </c>
       <c r="C97" t="n">
-        <v>0.575359</v>
+        <v>0.578837</v>
       </c>
       <c r="D97" t="n">
-        <v>0.579799</v>
+        <v>0.582188</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.584932</v>
+        <v>0.5857250000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.559616</v>
+        <v>0.562987</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5657</v>
+        <v>0.567981</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.572608</v>
+        <v>0.5733819999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.544075</v>
+        <v>0.548833</v>
       </c>
       <c r="D99" t="n">
-        <v>0.551997</v>
+        <v>0.5549809999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5608340000000001</v>
+        <v>0.561391</v>
       </c>
       <c r="C100" t="n">
-        <v>0.529814</v>
+        <v>0.533944</v>
       </c>
       <c r="D100" t="n">
-        <v>0.538605</v>
+        <v>0.542013</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.549434</v>
+        <v>0.55055</v>
       </c>
       <c r="C101" t="n">
-        <v>0.516621</v>
+        <v>0.519313</v>
       </c>
       <c r="D101" t="n">
-        <v>0.525666</v>
+        <v>0.528542</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.538875</v>
+        <v>0.53978</v>
       </c>
       <c r="C102" t="n">
-        <v>0.50324</v>
+        <v>0.506679</v>
       </c>
       <c r="D102" t="n">
-        <v>0.514207</v>
+        <v>0.51855</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.528728</v>
+        <v>0.5298119999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.491381</v>
+        <v>0.494792</v>
       </c>
       <c r="D103" t="n">
-        <v>0.503749</v>
+        <v>0.507612</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.519409</v>
+        <v>0.520217</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48121</v>
+        <v>0.48411</v>
       </c>
       <c r="D104" t="n">
-        <v>0.493944</v>
+        <v>0.498099</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.509914</v>
+        <v>0.511288</v>
       </c>
       <c r="C105" t="n">
-        <v>0.471865</v>
+        <v>0.47415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.485927</v>
+        <v>0.489235</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.503194</v>
+        <v>0.503477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.462676</v>
+        <v>0.464767</v>
       </c>
       <c r="D106" t="n">
-        <v>0.477654</v>
+        <v>0.481944</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.496038</v>
+        <v>0.496921</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455342</v>
+        <v>0.458221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.472048</v>
+        <v>0.476704</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.490132</v>
+        <v>0.491108</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449579</v>
+        <v>0.452745</v>
       </c>
       <c r="D108" t="n">
-        <v>0.468729</v>
+        <v>0.473397</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486847</v>
+        <v>0.488095</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447437</v>
+        <v>0.450238</v>
       </c>
       <c r="D109" t="n">
-        <v>0.470277</v>
+        <v>0.474535</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.684088</v>
+        <v>0.685801</v>
       </c>
       <c r="C110" t="n">
-        <v>0.705283</v>
+        <v>0.708127</v>
       </c>
       <c r="D110" t="n">
-        <v>0.713872</v>
+        <v>0.719313</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.670739</v>
+        <v>0.672713</v>
       </c>
       <c r="C111" t="n">
-        <v>0.688244</v>
+        <v>0.6919650000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6973279999999999</v>
+        <v>0.702973</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.656922</v>
+        <v>0.658668</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6696800000000001</v>
+        <v>0.674889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.679875</v>
+        <v>0.685783</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.643572</v>
+        <v>0.645385</v>
       </c>
       <c r="C113" t="n">
-        <v>0.654658</v>
+        <v>0.658261</v>
       </c>
       <c r="D113" t="n">
-        <v>0.664423</v>
+        <v>0.670029</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.631223</v>
+        <v>0.632737</v>
       </c>
       <c r="C114" t="n">
-        <v>0.63873</v>
+        <v>0.642342</v>
       </c>
       <c r="D114" t="n">
-        <v>0.648568</v>
+        <v>0.6552</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.619099</v>
+        <v>0.621248</v>
       </c>
       <c r="C115" t="n">
-        <v>0.623246</v>
+        <v>0.627327</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634444</v>
+        <v>0.641198</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.607727</v>
+        <v>0.61024</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608684</v>
+        <v>0.613947</v>
       </c>
       <c r="D116" t="n">
-        <v>0.621034</v>
+        <v>0.627768</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.597097</v>
+        <v>0.59931</v>
       </c>
       <c r="C117" t="n">
-        <v>0.596702</v>
+        <v>0.601164</v>
       </c>
       <c r="D117" t="n">
-        <v>0.608891</v>
+        <v>0.615525</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5874549999999999</v>
+        <v>0.589525</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584858</v>
+        <v>0.587866</v>
       </c>
       <c r="D118" t="n">
-        <v>0.597457</v>
+        <v>0.603874</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.578397</v>
+        <v>0.580535</v>
       </c>
       <c r="C119" t="n">
-        <v>0.573738</v>
+        <v>0.577831</v>
       </c>
       <c r="D119" t="n">
-        <v>0.587175</v>
+        <v>0.594253</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5696369999999999</v>
+        <v>0.571624</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5638069999999999</v>
+        <v>0.566855</v>
       </c>
       <c r="D120" t="n">
-        <v>0.577689</v>
+        <v>0.58446</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.56234</v>
+        <v>0.564302</v>
       </c>
       <c r="C121" t="n">
-        <v>0.555333</v>
+        <v>0.559331</v>
       </c>
       <c r="D121" t="n">
-        <v>0.569968</v>
+        <v>0.577228</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.556011</v>
+        <v>0.558198</v>
       </c>
       <c r="C122" t="n">
-        <v>0.547743</v>
+        <v>0.552139</v>
       </c>
       <c r="D122" t="n">
-        <v>0.564093</v>
+        <v>0.572201</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.551776</v>
+        <v>0.553651</v>
       </c>
       <c r="C123" t="n">
-        <v>0.543104</v>
+        <v>0.54771</v>
       </c>
       <c r="D123" t="n">
-        <v>0.562503</v>
+        <v>0.569998</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.745066</v>
+        <v>0.746936</v>
       </c>
       <c r="C124" t="n">
-        <v>0.795131</v>
+        <v>0.8002280000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.803206</v>
+        <v>0.810146</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.734011</v>
+        <v>0.736053</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7799160000000001</v>
+        <v>0.7847</v>
       </c>
       <c r="D125" t="n">
-        <v>0.787832</v>
+        <v>0.793787</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.723044</v>
+        <v>0.724842</v>
       </c>
       <c r="C126" t="n">
-        <v>0.765578</v>
+        <v>0.770076</v>
       </c>
       <c r="D126" t="n">
-        <v>0.770828</v>
+        <v>0.777512</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.71263</v>
+        <v>0.714309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7524189999999999</v>
+        <v>0.7577700000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.755849</v>
+        <v>0.763282</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.703203</v>
+        <v>0.704669</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738873</v>
+        <v>0.743677</v>
       </c>
       <c r="D128" t="n">
-        <v>0.743417</v>
+        <v>0.748088</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6938260000000001</v>
+        <v>0.695296</v>
       </c>
       <c r="C129" t="n">
-        <v>0.728146</v>
+        <v>0.7314079999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.731203</v>
+        <v>0.7372069999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.685589</v>
+        <v>0.686573</v>
       </c>
       <c r="C130" t="n">
-        <v>0.717578</v>
+        <v>0.720062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.719186</v>
+        <v>0.724791</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.677493</v>
+        <v>0.6787339999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.705502</v>
+        <v>0.710692</v>
       </c>
       <c r="D131" t="n">
-        <v>0.708111</v>
+        <v>0.713733</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.669777</v>
+        <v>0.671612</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697207</v>
+        <v>0.699573</v>
       </c>
       <c r="D132" t="n">
-        <v>0.697663</v>
+        <v>0.703016</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.662778</v>
+        <v>0.664694</v>
       </c>
       <c r="C133" t="n">
-        <v>0.687759</v>
+        <v>0.69199</v>
       </c>
       <c r="D133" t="n">
-        <v>0.688621</v>
+        <v>0.694457</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.656566</v>
+        <v>0.658308</v>
       </c>
       <c r="C134" t="n">
-        <v>0.680684</v>
+        <v>0.684153</v>
       </c>
       <c r="D134" t="n">
-        <v>0.680555</v>
+        <v>0.686294</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.650984</v>
+        <v>0.6523409999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.673489</v>
+        <v>0.6774250000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.673503</v>
+        <v>0.679437</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.646203</v>
+        <v>0.6478429999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.667736</v>
+        <v>0.672099</v>
       </c>
       <c r="D136" t="n">
-        <v>0.666515</v>
+        <v>0.672637</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.641881</v>
+        <v>0.642914</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662542</v>
+        <v>0.666959</v>
       </c>
       <c r="D137" t="n">
-        <v>0.663087</v>
+        <v>0.6685449999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.830947</v>
+        <v>0.832604</v>
       </c>
       <c r="C138" t="n">
-        <v>0.91865</v>
+        <v>0.923096</v>
       </c>
       <c r="D138" t="n">
-        <v>0.906338</v>
+        <v>0.910852</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8210229999999999</v>
+        <v>0.82326</v>
       </c>
       <c r="C139" t="n">
-        <v>0.90404</v>
+        <v>0.908251</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8893450000000001</v>
+        <v>0.895498</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.812311</v>
+        <v>0.813836</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8905960000000001</v>
+        <v>0.893779</v>
       </c>
       <c r="D140" t="n">
-        <v>0.874819</v>
+        <v>0.878723</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.804372</v>
+        <v>0.805231</v>
       </c>
       <c r="C141" t="n">
-        <v>0.876718</v>
+        <v>0.881688</v>
       </c>
       <c r="D141" t="n">
-        <v>0.859816</v>
+        <v>0.865939</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.795784</v>
+        <v>0.798234</v>
       </c>
       <c r="C142" t="n">
-        <v>0.863824</v>
+        <v>0.869051</v>
       </c>
       <c r="D142" t="n">
-        <v>0.845991</v>
+        <v>0.850774</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.788878</v>
+        <v>0.790559</v>
       </c>
       <c r="C143" t="n">
-        <v>0.854079</v>
+        <v>0.85623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.83339</v>
+        <v>0.837493</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247334</v>
+        <v>0.247025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254791</v>
+        <v>0.254074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250152</v>
+        <v>0.292057</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240576</v>
+        <v>0.239977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246981</v>
+        <v>0.246763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244175</v>
+        <v>0.282547</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234272</v>
+        <v>0.234061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239933</v>
+        <v>0.2393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238583</v>
+        <v>0.274847</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229562</v>
+        <v>0.228704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234033</v>
+        <v>0.233868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235149</v>
+        <v>0.269378</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224728</v>
+        <v>0.224227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228561</v>
+        <v>0.228301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231627</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220849</v>
+        <v>0.220429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224854</v>
+        <v>0.224581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230563</v>
+        <v>0.261933</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218809</v>
+        <v>0.218564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222049</v>
+        <v>0.221522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231163</v>
+        <v>0.261921</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218272</v>
+        <v>0.218133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221972</v>
+        <v>0.221284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235145</v>
+        <v>0.266067</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306836</v>
+        <v>0.310034</v>
       </c>
       <c r="C10" t="n">
-        <v>0.332095</v>
+        <v>0.331916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.329812</v>
+        <v>0.386674</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296665</v>
+        <v>0.299763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.320572</v>
+        <v>0.319545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318864</v>
+        <v>0.372756</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287388</v>
+        <v>0.290423</v>
       </c>
       <c r="C12" t="n">
-        <v>0.309715</v>
+        <v>0.309827</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30851</v>
+        <v>0.359897</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278875</v>
+        <v>0.281639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.299261</v>
+        <v>0.2995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.298647</v>
+        <v>0.34756</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.270554</v>
+        <v>0.272984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.289422</v>
+        <v>0.289595</v>
       </c>
       <c r="D14" t="n">
-        <v>0.289141</v>
+        <v>0.33585</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262521</v>
+        <v>0.265</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280378</v>
+        <v>0.279541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.280336</v>
+        <v>0.32481</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255519</v>
+        <v>0.257798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.270168</v>
+        <v>0.27156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.272318</v>
+        <v>0.314406</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248753</v>
+        <v>0.25095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.263566</v>
+        <v>0.262893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265012</v>
+        <v>0.305046</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242676</v>
+        <v>0.244864</v>
       </c>
       <c r="C18" t="n">
-        <v>0.256423</v>
+        <v>0.25567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.258437</v>
+        <v>0.296612</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23703</v>
+        <v>0.239178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249986</v>
+        <v>0.249473</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252989</v>
+        <v>0.289167</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232214</v>
+        <v>0.234213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244364</v>
+        <v>0.244015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248646</v>
+        <v>0.283275</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228117</v>
+        <v>0.230067</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240148</v>
+        <v>0.240321</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245697</v>
+        <v>0.278842</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225619</v>
+        <v>0.227496</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237345</v>
+        <v>0.237283</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245189</v>
+        <v>0.276891</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22479</v>
+        <v>0.226568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236818</v>
+        <v>0.236213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248212</v>
+        <v>0.27917</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312726</v>
+        <v>0.313922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.346847</v>
+        <v>0.346907</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343101</v>
+        <v>0.402416</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303217</v>
+        <v>0.304275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335062</v>
+        <v>0.335293</v>
       </c>
       <c r="D25" t="n">
-        <v>0.331993</v>
+        <v>0.388287</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294081</v>
+        <v>0.294704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.324146</v>
+        <v>0.324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.320941</v>
+        <v>0.374757</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285151</v>
+        <v>0.286028</v>
       </c>
       <c r="C27" t="n">
-        <v>0.312993</v>
+        <v>0.313086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311003</v>
+        <v>0.361951</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277095</v>
+        <v>0.277408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.30316</v>
+        <v>0.303348</v>
       </c>
       <c r="D28" t="n">
-        <v>0.301199</v>
+        <v>0.349897</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269199</v>
+        <v>0.269623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.293317</v>
+        <v>0.293383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292073</v>
+        <v>0.338629</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261927</v>
+        <v>0.26184</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284998</v>
+        <v>0.284671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.283555</v>
+        <v>0.327598</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254886</v>
+        <v>0.254907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276363</v>
+        <v>0.276213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.275682</v>
+        <v>0.31779</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248325</v>
+        <v>0.248709</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268529</v>
+        <v>0.268581</v>
       </c>
       <c r="D32" t="n">
-        <v>0.268421</v>
+        <v>0.308319</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242333</v>
+        <v>0.242811</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261385</v>
+        <v>0.261322</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262288</v>
+        <v>0.299934</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2371</v>
+        <v>0.237542</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254532</v>
+        <v>0.254814</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256715</v>
+        <v>0.292774</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23329</v>
+        <v>0.233196</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249541</v>
+        <v>0.249524</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252841</v>
+        <v>0.287168</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230342</v>
+        <v>0.230532</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245787</v>
+        <v>0.245276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250991</v>
+        <v>0.283925</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228178</v>
+        <v>0.228336</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243599</v>
+        <v>0.243572</v>
       </c>
       <c r="D37" t="n">
-        <v>0.251832</v>
+        <v>0.284294</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315733</v>
+        <v>0.315815</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356199</v>
+        <v>0.356001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.350713</v>
+        <v>0.411405</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306379</v>
+        <v>0.306695</v>
       </c>
       <c r="C39" t="n">
-        <v>0.344718</v>
+        <v>0.344523</v>
       </c>
       <c r="D39" t="n">
-        <v>0.339695</v>
+        <v>0.397355</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297719</v>
+        <v>0.297275</v>
       </c>
       <c r="C40" t="n">
-        <v>0.333681</v>
+        <v>0.333388</v>
       </c>
       <c r="D40" t="n">
-        <v>0.328933</v>
+        <v>0.383841</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288674</v>
+        <v>0.288396</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322973</v>
+        <v>0.322786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318611</v>
+        <v>0.371093</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280781</v>
+        <v>0.28056</v>
       </c>
       <c r="C42" t="n">
-        <v>0.312874</v>
+        <v>0.312678</v>
       </c>
       <c r="D42" t="n">
-        <v>0.308872</v>
+        <v>0.358872</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272696</v>
+        <v>0.272481</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303114</v>
+        <v>0.303142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.29969</v>
+        <v>0.34737</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264855</v>
+        <v>0.265017</v>
       </c>
       <c r="C44" t="n">
-        <v>0.294157</v>
+        <v>0.294058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.291217</v>
+        <v>0.336585</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258494</v>
+        <v>0.25889</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285822</v>
+        <v>0.285711</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283341</v>
+        <v>0.326551</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252917</v>
+        <v>0.251866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.278002</v>
+        <v>0.27792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.276148</v>
+        <v>0.317305</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2469</v>
+        <v>0.246715</v>
       </c>
       <c r="C47" t="n">
-        <v>0.270971</v>
+        <v>0.270747</v>
       </c>
       <c r="D47" t="n">
-        <v>0.269869</v>
+        <v>0.309225</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241985</v>
+        <v>0.240921</v>
       </c>
       <c r="C48" t="n">
-        <v>0.264563</v>
+        <v>0.264486</v>
       </c>
       <c r="D48" t="n">
-        <v>0.26456</v>
+        <v>0.301913</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236959</v>
+        <v>0.23654</v>
       </c>
       <c r="C49" t="n">
-        <v>0.258922</v>
+        <v>0.259038</v>
       </c>
       <c r="D49" t="n">
-        <v>0.260445</v>
+        <v>0.29614</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233862</v>
+        <v>0.233135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254862</v>
+        <v>0.254709</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25803</v>
+        <v>0.29209</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232345</v>
+        <v>0.231523</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2521</v>
+        <v>0.251995</v>
       </c>
       <c r="D51" t="n">
-        <v>0.258051</v>
+        <v>0.291089</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.232762</v>
+        <v>0.231914</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251963</v>
+        <v>0.251836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261295</v>
+        <v>0.294612</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319389</v>
+        <v>0.315673</v>
       </c>
       <c r="C53" t="n">
-        <v>0.357432</v>
+        <v>0.356022</v>
       </c>
       <c r="D53" t="n">
-        <v>0.351274</v>
+        <v>0.40923</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310248</v>
+        <v>0.306446</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346096</v>
+        <v>0.344791</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340243</v>
+        <v>0.395571</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.301675</v>
+        <v>0.298068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.335787</v>
+        <v>0.333811</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330428</v>
+        <v>0.382541</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.293701</v>
+        <v>0.290133</v>
       </c>
       <c r="C56" t="n">
-        <v>0.325661</v>
+        <v>0.32423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320601</v>
+        <v>0.370636</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286056</v>
+        <v>0.282521</v>
       </c>
       <c r="C57" t="n">
-        <v>0.316136</v>
+        <v>0.31508</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311457</v>
+        <v>0.359051</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.279118</v>
+        <v>0.275411</v>
       </c>
       <c r="C58" t="n">
-        <v>0.307334</v>
+        <v>0.30593</v>
       </c>
       <c r="D58" t="n">
-        <v>0.303206</v>
+        <v>0.34801</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272285</v>
+        <v>0.268802</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298848</v>
+        <v>0.297778</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295238</v>
+        <v>0.338007</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266033</v>
+        <v>0.26263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.291</v>
+        <v>0.289674</v>
       </c>
       <c r="D60" t="n">
-        <v>0.287939</v>
+        <v>0.329073</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260317</v>
+        <v>0.257117</v>
       </c>
       <c r="C61" t="n">
-        <v>0.283756</v>
+        <v>0.282312</v>
       </c>
       <c r="D61" t="n">
-        <v>0.281587</v>
+        <v>0.319821</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255449</v>
+        <v>0.251998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277455</v>
+        <v>0.275548</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27605</v>
+        <v>0.312538</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250719</v>
+        <v>0.247804</v>
       </c>
       <c r="C63" t="n">
-        <v>0.271735</v>
+        <v>0.269746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.271519</v>
+        <v>0.305961</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247238</v>
+        <v>0.244436</v>
       </c>
       <c r="C64" t="n">
-        <v>0.266914</v>
+        <v>0.264746</v>
       </c>
       <c r="D64" t="n">
-        <v>0.268548</v>
+        <v>0.30128</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245149</v>
+        <v>0.242267</v>
       </c>
       <c r="C65" t="n">
-        <v>0.263854</v>
+        <v>0.261737</v>
       </c>
       <c r="D65" t="n">
-        <v>0.268144</v>
+        <v>0.299524</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.245022</v>
+        <v>0.242058</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263273</v>
+        <v>0.261008</v>
       </c>
       <c r="D66" t="n">
-        <v>0.270789</v>
+        <v>0.301821</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379813</v>
+        <v>0.376635</v>
       </c>
       <c r="C67" t="n">
-        <v>0.395268</v>
+        <v>0.397235</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387797</v>
+        <v>0.450538</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.371668</v>
+        <v>0.368112</v>
       </c>
       <c r="C68" t="n">
-        <v>0.383691</v>
+        <v>0.38527</v>
       </c>
       <c r="D68" t="n">
-        <v>0.376974</v>
+        <v>0.436138</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364169</v>
+        <v>0.360793</v>
       </c>
       <c r="C69" t="n">
-        <v>0.372734</v>
+        <v>0.374108</v>
       </c>
       <c r="D69" t="n">
-        <v>0.366324</v>
+        <v>0.422383</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.357189</v>
+        <v>0.354049</v>
       </c>
       <c r="C70" t="n">
-        <v>0.361843</v>
+        <v>0.363262</v>
       </c>
       <c r="D70" t="n">
-        <v>0.356207</v>
+        <v>0.409288</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350294</v>
+        <v>0.347559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.351518</v>
+        <v>0.352811</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346489</v>
+        <v>0.397142</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.34362</v>
+        <v>0.341235</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341731</v>
+        <v>0.342949</v>
       </c>
       <c r="D72" t="n">
-        <v>0.337219</v>
+        <v>0.385492</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337017</v>
+        <v>0.335078</v>
       </c>
       <c r="C73" t="n">
-        <v>0.332481</v>
+        <v>0.333476</v>
       </c>
       <c r="D73" t="n">
-        <v>0.32838</v>
+        <v>0.374429</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.330393</v>
+        <v>0.329102</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323774</v>
+        <v>0.324722</v>
       </c>
       <c r="D74" t="n">
-        <v>0.320387</v>
+        <v>0.364132</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324248</v>
+        <v>0.322693</v>
       </c>
       <c r="C75" t="n">
-        <v>0.315888</v>
+        <v>0.316631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.31312</v>
+        <v>0.354685</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317992</v>
+        <v>0.316475</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308444</v>
+        <v>0.309276</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306624</v>
+        <v>0.346429</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312334</v>
+        <v>0.311127</v>
       </c>
       <c r="C77" t="n">
-        <v>0.301963</v>
+        <v>0.302726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.301272</v>
+        <v>0.339056</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307482</v>
+        <v>0.306131</v>
       </c>
       <c r="C78" t="n">
-        <v>0.296554</v>
+        <v>0.297346</v>
       </c>
       <c r="D78" t="n">
-        <v>0.297538</v>
+        <v>0.333649</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.303539</v>
+        <v>0.302396</v>
       </c>
       <c r="C79" t="n">
-        <v>0.292529</v>
+        <v>0.293282</v>
       </c>
       <c r="D79" t="n">
-        <v>0.295772</v>
+        <v>0.330759</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301327</v>
+        <v>0.300198</v>
       </c>
       <c r="C80" t="n">
-        <v>0.290342</v>
+        <v>0.291177</v>
       </c>
       <c r="D80" t="n">
-        <v>0.296938</v>
+        <v>0.331538</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.53198</v>
+        <v>0.529438</v>
       </c>
       <c r="C81" t="n">
-        <v>0.459384</v>
+        <v>0.471171</v>
       </c>
       <c r="D81" t="n">
-        <v>0.455223</v>
+        <v>0.525213</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523576</v>
+        <v>0.522046</v>
       </c>
       <c r="C82" t="n">
-        <v>0.450963</v>
+        <v>0.458322</v>
       </c>
       <c r="D82" t="n">
-        <v>0.447582</v>
+        <v>0.50942</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512418</v>
+        <v>0.51247</v>
       </c>
       <c r="C83" t="n">
-        <v>0.439368</v>
+        <v>0.451764</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436933</v>
+        <v>0.50157</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.501328</v>
+        <v>0.502629</v>
       </c>
       <c r="C84" t="n">
-        <v>0.428087</v>
+        <v>0.440749</v>
       </c>
       <c r="D84" t="n">
-        <v>0.42785</v>
+        <v>0.488466</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.491069</v>
+        <v>0.493106</v>
       </c>
       <c r="C85" t="n">
-        <v>0.417213</v>
+        <v>0.4294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417942</v>
+        <v>0.475545</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.480954</v>
+        <v>0.482626</v>
       </c>
       <c r="C86" t="n">
-        <v>0.407808</v>
+        <v>0.419176</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410153</v>
+        <v>0.463712</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.471438</v>
+        <v>0.472743</v>
       </c>
       <c r="C87" t="n">
-        <v>0.397612</v>
+        <v>0.407383</v>
       </c>
       <c r="D87" t="n">
-        <v>0.400844</v>
+        <v>0.450088</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461388</v>
+        <v>0.463633</v>
       </c>
       <c r="C88" t="n">
-        <v>0.387587</v>
+        <v>0.398046</v>
       </c>
       <c r="D88" t="n">
-        <v>0.391922</v>
+        <v>0.439288</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.45203</v>
+        <v>0.454231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.378616</v>
+        <v>0.388704</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383951</v>
+        <v>0.427887</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.443031</v>
+        <v>0.445141</v>
       </c>
       <c r="C90" t="n">
-        <v>0.371245</v>
+        <v>0.380523</v>
       </c>
       <c r="D90" t="n">
-        <v>0.37778</v>
+        <v>0.419116</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.434719</v>
+        <v>0.437354</v>
       </c>
       <c r="C91" t="n">
-        <v>0.363885</v>
+        <v>0.373082</v>
       </c>
       <c r="D91" t="n">
-        <v>0.371514</v>
+        <v>0.411195</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.427102</v>
+        <v>0.429884</v>
       </c>
       <c r="C92" t="n">
-        <v>0.357472</v>
+        <v>0.366164</v>
       </c>
       <c r="D92" t="n">
-        <v>0.366104</v>
+        <v>0.403845</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419928</v>
+        <v>0.422905</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352453</v>
+        <v>0.360967</v>
       </c>
       <c r="D93" t="n">
-        <v>0.363122</v>
+        <v>0.399289</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.414573</v>
+        <v>0.417193</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349056</v>
+        <v>0.348349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.362506</v>
+        <v>0.388836</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.616998</v>
+        <v>0.6171489999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.602297</v>
+        <v>0.5992729999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.604999</v>
+        <v>0.646225</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6099329999999999</v>
+        <v>0.609874</v>
       </c>
       <c r="C96" t="n">
-        <v>0.593437</v>
+        <v>0.600916</v>
       </c>
       <c r="D96" t="n">
-        <v>0.59538</v>
+        <v>0.64477</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.597743</v>
+        <v>0.597816</v>
       </c>
       <c r="C97" t="n">
-        <v>0.578837</v>
+        <v>0.585916</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582188</v>
+        <v>0.6275539999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5857250000000001</v>
+        <v>0.587005</v>
       </c>
       <c r="C98" t="n">
-        <v>0.562987</v>
+        <v>0.569566</v>
       </c>
       <c r="D98" t="n">
-        <v>0.567981</v>
+        <v>0.610803</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5733819999999999</v>
+        <v>0.573655</v>
       </c>
       <c r="C99" t="n">
-        <v>0.548833</v>
+        <v>0.551968</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5549809999999999</v>
+        <v>0.590313</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.561391</v>
+        <v>0.562931</v>
       </c>
       <c r="C100" t="n">
-        <v>0.533944</v>
+        <v>0.538411</v>
       </c>
       <c r="D100" t="n">
-        <v>0.542013</v>
+        <v>0.573367</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.55055</v>
+        <v>0.551546</v>
       </c>
       <c r="C101" t="n">
-        <v>0.519313</v>
+        <v>0.521693</v>
       </c>
       <c r="D101" t="n">
-        <v>0.528542</v>
+        <v>0.557947</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.53978</v>
+        <v>0.540363</v>
       </c>
       <c r="C102" t="n">
-        <v>0.506679</v>
+        <v>0.509128</v>
       </c>
       <c r="D102" t="n">
-        <v>0.51855</v>
+        <v>0.547992</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5298119999999999</v>
+        <v>0.530126</v>
       </c>
       <c r="C103" t="n">
-        <v>0.494792</v>
+        <v>0.49923</v>
       </c>
       <c r="D103" t="n">
-        <v>0.507612</v>
+        <v>0.534874</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.520217</v>
+        <v>0.521159</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48411</v>
+        <v>0.489649</v>
       </c>
       <c r="D104" t="n">
-        <v>0.498099</v>
+        <v>0.522717</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511288</v>
+        <v>0.513738</v>
       </c>
       <c r="C105" t="n">
-        <v>0.47415</v>
+        <v>0.478637</v>
       </c>
       <c r="D105" t="n">
-        <v>0.489235</v>
+        <v>0.506793</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.503477</v>
+        <v>0.505618</v>
       </c>
       <c r="C106" t="n">
-        <v>0.464767</v>
+        <v>0.470275</v>
       </c>
       <c r="D106" t="n">
-        <v>0.481944</v>
+        <v>0.5032219999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.496921</v>
+        <v>0.498887</v>
       </c>
       <c r="C107" t="n">
-        <v>0.458221</v>
+        <v>0.462556</v>
       </c>
       <c r="D107" t="n">
-        <v>0.476704</v>
+        <v>0.496719</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.491108</v>
+        <v>0.492904</v>
       </c>
       <c r="C108" t="n">
-        <v>0.452745</v>
+        <v>0.457737</v>
       </c>
       <c r="D108" t="n">
-        <v>0.473397</v>
+        <v>0.493549</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.488095</v>
+        <v>0.489639</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450238</v>
+        <v>0.455099</v>
       </c>
       <c r="D109" t="n">
-        <v>0.474535</v>
+        <v>0.496787</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.685801</v>
+        <v>0.684499</v>
       </c>
       <c r="C110" t="n">
-        <v>0.708127</v>
+        <v>0.709141</v>
       </c>
       <c r="D110" t="n">
-        <v>0.719313</v>
+        <v>0.754001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.672713</v>
+        <v>0.672503</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6919650000000001</v>
+        <v>0.688725</v>
       </c>
       <c r="D111" t="n">
-        <v>0.702973</v>
+        <v>0.733726</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.658668</v>
+        <v>0.6586419999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.674889</v>
+        <v>0.678176</v>
       </c>
       <c r="D112" t="n">
-        <v>0.685783</v>
+        <v>0.719928</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.645385</v>
+        <v>0.646986</v>
       </c>
       <c r="C113" t="n">
-        <v>0.658261</v>
+        <v>0.661096</v>
       </c>
       <c r="D113" t="n">
-        <v>0.670029</v>
+        <v>0.696501</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.632737</v>
+        <v>0.6344919999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.642342</v>
+        <v>0.642755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6552</v>
+        <v>0.681566</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621248</v>
+        <v>0.622708</v>
       </c>
       <c r="C115" t="n">
-        <v>0.627327</v>
+        <v>0.629792</v>
       </c>
       <c r="D115" t="n">
-        <v>0.641198</v>
+        <v>0.661957</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.61024</v>
+        <v>0.6120139999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.613947</v>
+        <v>0.612874</v>
       </c>
       <c r="D116" t="n">
-        <v>0.627768</v>
+        <v>0.6474839999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.59931</v>
+        <v>0.6014119999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.601164</v>
+        <v>0.603441</v>
       </c>
       <c r="D117" t="n">
-        <v>0.615525</v>
+        <v>0.63602</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.589525</v>
+        <v>0.591965</v>
       </c>
       <c r="C118" t="n">
-        <v>0.587866</v>
+        <v>0.591444</v>
       </c>
       <c r="D118" t="n">
-        <v>0.603874</v>
+        <v>0.6209480000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.580535</v>
+        <v>0.582483</v>
       </c>
       <c r="C119" t="n">
-        <v>0.577831</v>
+        <v>0.578099</v>
       </c>
       <c r="D119" t="n">
-        <v>0.594253</v>
+        <v>0.608359</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.571624</v>
+        <v>0.573956</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566855</v>
+        <v>0.569427</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58446</v>
+        <v>0.599077</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.564302</v>
+        <v>0.565898</v>
       </c>
       <c r="C121" t="n">
-        <v>0.559331</v>
+        <v>0.560509</v>
       </c>
       <c r="D121" t="n">
-        <v>0.577228</v>
+        <v>0.590794</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.558198</v>
+        <v>0.561001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.552139</v>
+        <v>0.553629</v>
       </c>
       <c r="D122" t="n">
-        <v>0.572201</v>
+        <v>0.5846479999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.553651</v>
+        <v>0.556359</v>
       </c>
       <c r="C123" t="n">
-        <v>0.54771</v>
+        <v>0.546144</v>
       </c>
       <c r="D123" t="n">
-        <v>0.569998</v>
+        <v>0.584704</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.746936</v>
+        <v>0.747572</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8002280000000001</v>
+        <v>0.796446</v>
       </c>
       <c r="D124" t="n">
-        <v>0.810146</v>
+        <v>0.84894</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.736053</v>
+        <v>0.735917</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7847</v>
+        <v>0.7836070000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.793787</v>
+        <v>0.833493</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.724842</v>
+        <v>0.726534</v>
       </c>
       <c r="C126" t="n">
-        <v>0.770076</v>
+        <v>0.767066</v>
       </c>
       <c r="D126" t="n">
-        <v>0.777512</v>
+        <v>0.813899</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.714309</v>
+        <v>0.716112</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7577700000000001</v>
+        <v>0.754077</v>
       </c>
       <c r="D127" t="n">
-        <v>0.763282</v>
+        <v>0.798048</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.704669</v>
+        <v>0.706778</v>
       </c>
       <c r="C128" t="n">
-        <v>0.743677</v>
+        <v>0.743403</v>
       </c>
       <c r="D128" t="n">
-        <v>0.748088</v>
+        <v>0.785787</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.695296</v>
+        <v>0.698116</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7314079999999999</v>
+        <v>0.73282</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7372069999999999</v>
+        <v>0.769787</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.686573</v>
+        <v>0.689523</v>
       </c>
       <c r="C130" t="n">
-        <v>0.720062</v>
+        <v>0.722267</v>
       </c>
       <c r="D130" t="n">
-        <v>0.724791</v>
+        <v>0.759693</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6787339999999999</v>
+        <v>0.682126</v>
       </c>
       <c r="C131" t="n">
-        <v>0.710692</v>
+        <v>0.7126710000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.713733</v>
+        <v>0.747043</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.671612</v>
+        <v>0.674766</v>
       </c>
       <c r="C132" t="n">
-        <v>0.699573</v>
+        <v>0.7016289999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.703016</v>
+        <v>0.733654</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.664694</v>
+        <v>0.663936</v>
       </c>
       <c r="C133" t="n">
-        <v>0.69199</v>
+        <v>0.6914709999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.694457</v>
+        <v>0.725005</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.658308</v>
+        <v>0.66012</v>
       </c>
       <c r="C134" t="n">
-        <v>0.684153</v>
+        <v>0.685607</v>
       </c>
       <c r="D134" t="n">
-        <v>0.686294</v>
+        <v>0.7136479999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6523409999999999</v>
+        <v>0.655741</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6774250000000001</v>
+        <v>0.6761740000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.679437</v>
+        <v>0.707891</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6478429999999999</v>
+        <v>0.650452</v>
       </c>
       <c r="C136" t="n">
-        <v>0.672099</v>
+        <v>0.673254</v>
       </c>
       <c r="D136" t="n">
-        <v>0.672637</v>
+        <v>0.701875</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.642914</v>
+        <v>0.647498</v>
       </c>
       <c r="C137" t="n">
-        <v>0.666959</v>
+        <v>0.668817</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6685449999999999</v>
+        <v>0.698637</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.832604</v>
+        <v>0.834575</v>
       </c>
       <c r="C138" t="n">
-        <v>0.923096</v>
+        <v>0.9230429999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.910852</v>
+        <v>0.969584</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.82326</v>
+        <v>0.8259069999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.908251</v>
+        <v>0.907908</v>
       </c>
       <c r="D139" t="n">
-        <v>0.895498</v>
+        <v>0.951623</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.813836</v>
+        <v>0.81575</v>
       </c>
       <c r="C140" t="n">
-        <v>0.893779</v>
+        <v>0.895609</v>
       </c>
       <c r="D140" t="n">
-        <v>0.878723</v>
+        <v>0.9350850000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.805231</v>
+        <v>0.806744</v>
       </c>
       <c r="C141" t="n">
-        <v>0.881688</v>
+        <v>0.882193</v>
       </c>
       <c r="D141" t="n">
-        <v>0.865939</v>
+        <v>0.920366</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.798234</v>
+        <v>0.80067</v>
       </c>
       <c r="C142" t="n">
-        <v>0.869051</v>
+        <v>0.870638</v>
       </c>
       <c r="D142" t="n">
-        <v>0.850774</v>
+        <v>0.90321</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.790559</v>
+        <v>0.789723</v>
       </c>
       <c r="C143" t="n">
-        <v>0.85623</v>
+        <v>0.858781</v>
       </c>
       <c r="D143" t="n">
-        <v>0.837493</v>
+        <v>0.891169</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247025</v>
+        <v>0.244348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254074</v>
+        <v>0.255104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.292057</v>
+        <v>0.203759</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239977</v>
+        <v>0.238581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246763</v>
+        <v>0.246679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.282547</v>
+        <v>0.197853</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234061</v>
+        <v>0.232418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2393</v>
+        <v>0.240142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.274847</v>
+        <v>0.193265</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228704</v>
+        <v>0.227624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233868</v>
+        <v>0.234419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269378</v>
+        <v>0.189569</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224227</v>
+        <v>0.223413</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228301</v>
+        <v>0.228912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2645</v>
+        <v>0.186427</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220429</v>
+        <v>0.220338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224581</v>
+        <v>0.22519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261933</v>
+        <v>0.185607</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218564</v>
+        <v>0.217878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221522</v>
+        <v>0.222803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.261921</v>
+        <v>0.187327</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218133</v>
+        <v>0.21775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221284</v>
+        <v>0.222574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.266067</v>
+        <v>0.28064</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310034</v>
+        <v>0.306365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.331916</v>
+        <v>0.332884</v>
       </c>
       <c r="D10" t="n">
-        <v>0.386674</v>
+        <v>0.270474</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299763</v>
+        <v>0.296094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.319545</v>
+        <v>0.321318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.372756</v>
+        <v>0.260626</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290423</v>
+        <v>0.287337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.309827</v>
+        <v>0.310555</v>
       </c>
       <c r="D12" t="n">
-        <v>0.359897</v>
+        <v>0.251661</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.281639</v>
+        <v>0.278148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2995</v>
+        <v>0.300115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.34756</v>
+        <v>0.243195</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272984</v>
+        <v>0.269781</v>
       </c>
       <c r="C14" t="n">
-        <v>0.289595</v>
+        <v>0.290232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.33585</v>
+        <v>0.235169</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265</v>
+        <v>0.262002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.279541</v>
+        <v>0.280968</v>
       </c>
       <c r="D15" t="n">
-        <v>0.32481</v>
+        <v>0.228237</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257798</v>
+        <v>0.255457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27156</v>
+        <v>0.272024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.314406</v>
+        <v>0.221273</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25095</v>
+        <v>0.248169</v>
       </c>
       <c r="C17" t="n">
-        <v>0.262893</v>
+        <v>0.264205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.305046</v>
+        <v>0.215202</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244864</v>
+        <v>0.242007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25567</v>
+        <v>0.257079</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296612</v>
+        <v>0.210158</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239178</v>
+        <v>0.236719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249473</v>
+        <v>0.250563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.289167</v>
+        <v>0.20546</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.234213</v>
+        <v>0.231513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244015</v>
+        <v>0.244846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.283275</v>
+        <v>0.202567</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230067</v>
+        <v>0.22822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240321</v>
+        <v>0.240681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.278842</v>
+        <v>0.201301</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227496</v>
+        <v>0.225158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237283</v>
+        <v>0.237704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.276891</v>
+        <v>0.202741</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226568</v>
+        <v>0.224554</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236213</v>
+        <v>0.237113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.27917</v>
+        <v>0.294741</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.313922</v>
+        <v>0.311915</v>
       </c>
       <c r="C24" t="n">
-        <v>0.346907</v>
+        <v>0.347241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.402416</v>
+        <v>0.284554</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304275</v>
+        <v>0.302555</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335293</v>
+        <v>0.335372</v>
       </c>
       <c r="D25" t="n">
-        <v>0.388287</v>
+        <v>0.274721</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294704</v>
+        <v>0.293314</v>
       </c>
       <c r="C26" t="n">
-        <v>0.324</v>
+        <v>0.32407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.374757</v>
+        <v>0.265408</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286028</v>
+        <v>0.284194</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313086</v>
+        <v>0.31303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.361951</v>
+        <v>0.256718</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277408</v>
+        <v>0.27628</v>
       </c>
       <c r="C28" t="n">
-        <v>0.303348</v>
+        <v>0.303082</v>
       </c>
       <c r="D28" t="n">
-        <v>0.349897</v>
+        <v>0.248511</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269623</v>
+        <v>0.268338</v>
       </c>
       <c r="C29" t="n">
-        <v>0.293383</v>
+        <v>0.293899</v>
       </c>
       <c r="D29" t="n">
-        <v>0.338629</v>
+        <v>0.240871</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.26184</v>
+        <v>0.261034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284671</v>
+        <v>0.285214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.327598</v>
+        <v>0.233495</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254907</v>
+        <v>0.253813</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276213</v>
+        <v>0.276095</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31779</v>
+        <v>0.22701</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248709</v>
+        <v>0.247759</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268581</v>
+        <v>0.268324</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308319</v>
+        <v>0.220889</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242811</v>
+        <v>0.241376</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261322</v>
+        <v>0.260454</v>
       </c>
       <c r="D33" t="n">
-        <v>0.299934</v>
+        <v>0.21561</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237542</v>
+        <v>0.236374</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254814</v>
+        <v>0.254073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292774</v>
+        <v>0.211488</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233196</v>
+        <v>0.232506</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249524</v>
+        <v>0.248335</v>
       </c>
       <c r="D35" t="n">
-        <v>0.287168</v>
+        <v>0.208837</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230532</v>
+        <v>0.229628</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245276</v>
+        <v>0.24446</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283925</v>
+        <v>0.207812</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228336</v>
+        <v>0.227578</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243572</v>
+        <v>0.242423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284294</v>
+        <v>0.303031</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.315815</v>
+        <v>0.319021</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356001</v>
+        <v>0.355909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.411405</v>
+        <v>0.292997</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306695</v>
+        <v>0.308829</v>
       </c>
       <c r="C39" t="n">
-        <v>0.344523</v>
+        <v>0.343729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.397355</v>
+        <v>0.283339</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297275</v>
+        <v>0.299867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.333388</v>
+        <v>0.333475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.383841</v>
+        <v>0.274175</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288396</v>
+        <v>0.29098</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322786</v>
+        <v>0.322005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.371093</v>
+        <v>0.265439</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28056</v>
+        <v>0.282726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.312678</v>
+        <v>0.31192</v>
       </c>
       <c r="D42" t="n">
-        <v>0.358872</v>
+        <v>0.257207</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272481</v>
+        <v>0.275191</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303142</v>
+        <v>0.303209</v>
       </c>
       <c r="D43" t="n">
-        <v>0.34737</v>
+        <v>0.249426</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265017</v>
+        <v>0.268159</v>
       </c>
       <c r="C44" t="n">
-        <v>0.294058</v>
+        <v>0.293742</v>
       </c>
       <c r="D44" t="n">
-        <v>0.336585</v>
+        <v>0.242211</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25889</v>
+        <v>0.260897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285711</v>
+        <v>0.285467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.326551</v>
+        <v>0.235561</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251866</v>
+        <v>0.25424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27792</v>
+        <v>0.277103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.317305</v>
+        <v>0.229654</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246715</v>
+        <v>0.248151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.270747</v>
+        <v>0.270575</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309225</v>
+        <v>0.224464</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240921</v>
+        <v>0.243323</v>
       </c>
       <c r="C48" t="n">
-        <v>0.264486</v>
+        <v>0.263726</v>
       </c>
       <c r="D48" t="n">
-        <v>0.301913</v>
+        <v>0.22015</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23654</v>
+        <v>0.238889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.259038</v>
+        <v>0.259132</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29614</v>
+        <v>0.217277</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233135</v>
+        <v>0.235943</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254709</v>
+        <v>0.254448</v>
       </c>
       <c r="D50" t="n">
-        <v>0.29209</v>
+        <v>0.216044</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231523</v>
+        <v>0.233195</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251995</v>
+        <v>0.251449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.291089</v>
+        <v>0.314975</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.231914</v>
+        <v>0.234149</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251836</v>
+        <v>0.25126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294612</v>
+        <v>0.304729</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315673</v>
+        <v>0.321357</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356022</v>
+        <v>0.357656</v>
       </c>
       <c r="D53" t="n">
-        <v>0.40923</v>
+        <v>0.29514</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.306446</v>
+        <v>0.31225</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344791</v>
+        <v>0.346399</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395571</v>
+        <v>0.285985</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.298068</v>
+        <v>0.303757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333811</v>
+        <v>0.335816</v>
       </c>
       <c r="D55" t="n">
-        <v>0.382541</v>
+        <v>0.277184</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290133</v>
+        <v>0.295646</v>
       </c>
       <c r="C56" t="n">
-        <v>0.32423</v>
+        <v>0.3259</v>
       </c>
       <c r="D56" t="n">
-        <v>0.370636</v>
+        <v>0.269005</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282521</v>
+        <v>0.288217</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31508</v>
+        <v>0.316381</v>
       </c>
       <c r="D57" t="n">
-        <v>0.359051</v>
+        <v>0.261328</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.275411</v>
+        <v>0.28086</v>
       </c>
       <c r="C58" t="n">
-        <v>0.30593</v>
+        <v>0.307377</v>
       </c>
       <c r="D58" t="n">
-        <v>0.34801</v>
+        <v>0.254038</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268802</v>
+        <v>0.27386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.297778</v>
+        <v>0.298999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.338007</v>
+        <v>0.247322</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26263</v>
+        <v>0.267593</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289674</v>
+        <v>0.291273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329073</v>
+        <v>0.241397</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257117</v>
+        <v>0.26181</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282312</v>
+        <v>0.284101</v>
       </c>
       <c r="D61" t="n">
-        <v>0.319821</v>
+        <v>0.236186</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251998</v>
+        <v>0.256807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.275548</v>
+        <v>0.277696</v>
       </c>
       <c r="D62" t="n">
-        <v>0.312538</v>
+        <v>0.231747</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.247804</v>
+        <v>0.252225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269746</v>
+        <v>0.272023</v>
       </c>
       <c r="D63" t="n">
-        <v>0.305961</v>
+        <v>0.228469</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244436</v>
+        <v>0.248481</v>
       </c>
       <c r="C64" t="n">
-        <v>0.264746</v>
+        <v>0.267313</v>
       </c>
       <c r="D64" t="n">
-        <v>0.30128</v>
+        <v>0.227005</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242267</v>
+        <v>0.246447</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261737</v>
+        <v>0.26418</v>
       </c>
       <c r="D65" t="n">
-        <v>0.299524</v>
+        <v>0.228178</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.242058</v>
+        <v>0.246203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.261008</v>
+        <v>0.263779</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301821</v>
+        <v>0.336994</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.376635</v>
+        <v>0.379976</v>
       </c>
       <c r="C67" t="n">
-        <v>0.397235</v>
+        <v>0.39461</v>
       </c>
       <c r="D67" t="n">
-        <v>0.450538</v>
+        <v>0.325909</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.368112</v>
+        <v>0.372177</v>
       </c>
       <c r="C68" t="n">
-        <v>0.38527</v>
+        <v>0.383194</v>
       </c>
       <c r="D68" t="n">
-        <v>0.436138</v>
+        <v>0.316739</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360793</v>
+        <v>0.364922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.374108</v>
+        <v>0.372414</v>
       </c>
       <c r="D69" t="n">
-        <v>0.422383</v>
+        <v>0.307666</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.354049</v>
+        <v>0.358095</v>
       </c>
       <c r="C70" t="n">
-        <v>0.363262</v>
+        <v>0.361885</v>
       </c>
       <c r="D70" t="n">
-        <v>0.409288</v>
+        <v>0.29885</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.347559</v>
+        <v>0.351338</v>
       </c>
       <c r="C71" t="n">
-        <v>0.352811</v>
+        <v>0.351685</v>
       </c>
       <c r="D71" t="n">
-        <v>0.397142</v>
+        <v>0.290855</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.341235</v>
+        <v>0.344876</v>
       </c>
       <c r="C72" t="n">
-        <v>0.342949</v>
+        <v>0.34206</v>
       </c>
       <c r="D72" t="n">
-        <v>0.385492</v>
+        <v>0.283152</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.335078</v>
+        <v>0.338429</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333476</v>
+        <v>0.332746</v>
       </c>
       <c r="D73" t="n">
-        <v>0.374429</v>
+        <v>0.275975</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.329102</v>
+        <v>0.332279</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324722</v>
+        <v>0.324087</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364132</v>
+        <v>0.269407</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.322693</v>
+        <v>0.32595</v>
       </c>
       <c r="C75" t="n">
-        <v>0.316631</v>
+        <v>0.315998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.354685</v>
+        <v>0.263068</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.316475</v>
+        <v>0.31988</v>
       </c>
       <c r="C76" t="n">
-        <v>0.309276</v>
+        <v>0.308684</v>
       </c>
       <c r="D76" t="n">
-        <v>0.346429</v>
+        <v>0.257951</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.311127</v>
+        <v>0.314041</v>
       </c>
       <c r="C77" t="n">
-        <v>0.302726</v>
+        <v>0.301947</v>
       </c>
       <c r="D77" t="n">
-        <v>0.339056</v>
+        <v>0.253957</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306131</v>
+        <v>0.308933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.297346</v>
+        <v>0.296538</v>
       </c>
       <c r="D78" t="n">
-        <v>0.333649</v>
+        <v>0.251541</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.302396</v>
+        <v>0.305099</v>
       </c>
       <c r="C79" t="n">
-        <v>0.293282</v>
+        <v>0.292599</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330759</v>
+        <v>0.251406</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300198</v>
+        <v>0.302617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.291177</v>
+        <v>0.290653</v>
       </c>
       <c r="D80" t="n">
-        <v>0.331538</v>
+        <v>0.38998</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.529438</v>
+        <v>0.532589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.471171</v>
+        <v>0.459882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.525213</v>
+        <v>0.381987</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.522046</v>
+        <v>0.523523</v>
       </c>
       <c r="C82" t="n">
-        <v>0.458322</v>
+        <v>0.452108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.50942</v>
+        <v>0.372797</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.51247</v>
+        <v>0.513279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.451764</v>
+        <v>0.441484</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50157</v>
+        <v>0.364296</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.502629</v>
+        <v>0.502784</v>
       </c>
       <c r="C84" t="n">
-        <v>0.440749</v>
+        <v>0.430002</v>
       </c>
       <c r="D84" t="n">
-        <v>0.488466</v>
+        <v>0.354636</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.493106</v>
+        <v>0.492181</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4294</v>
+        <v>0.41919</v>
       </c>
       <c r="D85" t="n">
-        <v>0.475545</v>
+        <v>0.346633</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.482626</v>
+        <v>0.482104</v>
       </c>
       <c r="C86" t="n">
-        <v>0.419176</v>
+        <v>0.408444</v>
       </c>
       <c r="D86" t="n">
-        <v>0.463712</v>
+        <v>0.337208</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.472743</v>
+        <v>0.471974</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407383</v>
+        <v>0.398112</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450088</v>
+        <v>0.328718</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.463633</v>
+        <v>0.461869</v>
       </c>
       <c r="C88" t="n">
-        <v>0.398046</v>
+        <v>0.388999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.439288</v>
+        <v>0.321767</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.454231</v>
+        <v>0.452596</v>
       </c>
       <c r="C89" t="n">
-        <v>0.388704</v>
+        <v>0.379859</v>
       </c>
       <c r="D89" t="n">
-        <v>0.427887</v>
+        <v>0.314244</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.445141</v>
+        <v>0.443578</v>
       </c>
       <c r="C90" t="n">
-        <v>0.380523</v>
+        <v>0.371655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.419116</v>
+        <v>0.308273</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.437354</v>
+        <v>0.435115</v>
       </c>
       <c r="C91" t="n">
-        <v>0.373082</v>
+        <v>0.364756</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411195</v>
+        <v>0.303466</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429884</v>
+        <v>0.427298</v>
       </c>
       <c r="C92" t="n">
-        <v>0.366164</v>
+        <v>0.358291</v>
       </c>
       <c r="D92" t="n">
-        <v>0.403845</v>
+        <v>0.29902</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422905</v>
+        <v>0.420182</v>
       </c>
       <c r="C93" t="n">
-        <v>0.360967</v>
+        <v>0.352855</v>
       </c>
       <c r="D93" t="n">
-        <v>0.399289</v>
+        <v>0.297363</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.417193</v>
+        <v>0.41462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.348349</v>
+        <v>0.349459</v>
       </c>
       <c r="D94" t="n">
-        <v>0.388836</v>
+        <v>0.563527</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6171489999999999</v>
+        <v>0.550554</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5992729999999999</v>
+        <v>0.601597</v>
       </c>
       <c r="D95" t="n">
-        <v>0.646225</v>
+        <v>0.5527030000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.609874</v>
+        <v>0.547071</v>
       </c>
       <c r="C96" t="n">
-        <v>0.600916</v>
+        <v>0.594427</v>
       </c>
       <c r="D96" t="n">
-        <v>0.64477</v>
+        <v>0.539276</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.597816</v>
+        <v>0.537181</v>
       </c>
       <c r="C97" t="n">
-        <v>0.585916</v>
+        <v>0.578569</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6275539999999999</v>
+        <v>0.5213950000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.587005</v>
+        <v>0.525733</v>
       </c>
       <c r="C98" t="n">
-        <v>0.569566</v>
+        <v>0.562079</v>
       </c>
       <c r="D98" t="n">
-        <v>0.610803</v>
+        <v>0.50751</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.573655</v>
+        <v>0.517943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.551968</v>
+        <v>0.547005</v>
       </c>
       <c r="D99" t="n">
-        <v>0.590313</v>
+        <v>0.493265</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.562931</v>
+        <v>0.508366</v>
       </c>
       <c r="C100" t="n">
-        <v>0.538411</v>
+        <v>0.532021</v>
       </c>
       <c r="D100" t="n">
-        <v>0.573367</v>
+        <v>0.479009</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.551546</v>
+        <v>0.5000019999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.521693</v>
+        <v>0.5196499999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.557947</v>
+        <v>0.466078</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.540363</v>
+        <v>0.491701</v>
       </c>
       <c r="C102" t="n">
-        <v>0.509128</v>
+        <v>0.506833</v>
       </c>
       <c r="D102" t="n">
-        <v>0.547992</v>
+        <v>0.454008</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530126</v>
+        <v>0.484502</v>
       </c>
       <c r="C103" t="n">
-        <v>0.49923</v>
+        <v>0.495297</v>
       </c>
       <c r="D103" t="n">
-        <v>0.534874</v>
+        <v>0.443602</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.521159</v>
+        <v>0.477425</v>
       </c>
       <c r="C104" t="n">
-        <v>0.489649</v>
+        <v>0.483818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.522717</v>
+        <v>0.432162</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513738</v>
+        <v>0.470474</v>
       </c>
       <c r="C105" t="n">
-        <v>0.478637</v>
+        <v>0.47273</v>
       </c>
       <c r="D105" t="n">
-        <v>0.506793</v>
+        <v>0.424894</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.505618</v>
+        <v>0.46489</v>
       </c>
       <c r="C106" t="n">
-        <v>0.470275</v>
+        <v>0.464098</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5032219999999999</v>
+        <v>0.41546</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.498887</v>
+        <v>0.460155</v>
       </c>
       <c r="C107" t="n">
-        <v>0.462556</v>
+        <v>0.457485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.496719</v>
+        <v>0.410943</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492904</v>
+        <v>0.456562</v>
       </c>
       <c r="C108" t="n">
-        <v>0.457737</v>
+        <v>0.453809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.493549</v>
+        <v>0.609884</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489639</v>
+        <v>0.454734</v>
       </c>
       <c r="C109" t="n">
-        <v>0.455099</v>
+        <v>0.452213</v>
       </c>
       <c r="D109" t="n">
-        <v>0.496787</v>
+        <v>0.600301</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.684499</v>
+        <v>0.651591</v>
       </c>
       <c r="C110" t="n">
-        <v>0.709141</v>
+        <v>0.7089</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754001</v>
+        <v>0.586318</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.672503</v>
+        <v>0.640147</v>
       </c>
       <c r="C111" t="n">
-        <v>0.688725</v>
+        <v>0.691171</v>
       </c>
       <c r="D111" t="n">
-        <v>0.733726</v>
+        <v>0.570412</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6586419999999999</v>
+        <v>0.627221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.678176</v>
+        <v>0.674439</v>
       </c>
       <c r="D112" t="n">
-        <v>0.719928</v>
+        <v>0.556122</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.646986</v>
+        <v>0.616302</v>
       </c>
       <c r="C113" t="n">
-        <v>0.661096</v>
+        <v>0.6567809999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.696501</v>
+        <v>0.542834</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6344919999999999</v>
+        <v>0.60549</v>
       </c>
       <c r="C114" t="n">
-        <v>0.642755</v>
+        <v>0.639737</v>
       </c>
       <c r="D114" t="n">
-        <v>0.681566</v>
+        <v>0.529565</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622708</v>
+        <v>0.595227</v>
       </c>
       <c r="C115" t="n">
-        <v>0.629792</v>
+        <v>0.626283</v>
       </c>
       <c r="D115" t="n">
-        <v>0.661957</v>
+        <v>0.518309</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6120139999999999</v>
+        <v>0.585695</v>
       </c>
       <c r="C116" t="n">
-        <v>0.612874</v>
+        <v>0.612201</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6474839999999999</v>
+        <v>0.50745</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6014119999999999</v>
+        <v>0.576093</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603441</v>
+        <v>0.60112</v>
       </c>
       <c r="D117" t="n">
-        <v>0.63602</v>
+        <v>0.496722</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591965</v>
+        <v>0.567169</v>
       </c>
       <c r="C118" t="n">
-        <v>0.591444</v>
+        <v>0.5869180000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6209480000000001</v>
+        <v>0.487153</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.582483</v>
+        <v>0.55929</v>
       </c>
       <c r="C119" t="n">
-        <v>0.578099</v>
+        <v>0.57564</v>
       </c>
       <c r="D119" t="n">
-        <v>0.608359</v>
+        <v>0.478394</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.573956</v>
+        <v>0.553366</v>
       </c>
       <c r="C120" t="n">
-        <v>0.569427</v>
+        <v>0.568161</v>
       </c>
       <c r="D120" t="n">
-        <v>0.599077</v>
+        <v>0.470914</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.565898</v>
+        <v>0.5460469999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.560509</v>
+        <v>0.558805</v>
       </c>
       <c r="D121" t="n">
-        <v>0.590794</v>
+        <v>0.464333</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.561001</v>
+        <v>0.541513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.553629</v>
+        <v>0.551736</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5846479999999999</v>
+        <v>0.459188</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.556359</v>
+        <v>0.537695</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546144</v>
+        <v>0.545373</v>
       </c>
       <c r="D123" t="n">
-        <v>0.584704</v>
+        <v>0.65894</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.747572</v>
+        <v>0.729818</v>
       </c>
       <c r="C124" t="n">
-        <v>0.796446</v>
+        <v>0.79944</v>
       </c>
       <c r="D124" t="n">
-        <v>0.84894</v>
+        <v>0.646379</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.735917</v>
+        <v>0.718908</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7836070000000001</v>
+        <v>0.783962</v>
       </c>
       <c r="D125" t="n">
-        <v>0.833493</v>
+        <v>0.635821</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726534</v>
+        <v>0.709623</v>
       </c>
       <c r="C126" t="n">
-        <v>0.767066</v>
+        <v>0.769408</v>
       </c>
       <c r="D126" t="n">
-        <v>0.813899</v>
+        <v>0.622908</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.716112</v>
+        <v>0.697342</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754077</v>
+        <v>0.755089</v>
       </c>
       <c r="D127" t="n">
-        <v>0.798048</v>
+        <v>0.61619</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.706778</v>
+        <v>0.690449</v>
       </c>
       <c r="C128" t="n">
-        <v>0.743403</v>
+        <v>0.743095</v>
       </c>
       <c r="D128" t="n">
-        <v>0.785787</v>
+        <v>0.604954</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.698116</v>
+        <v>0.684534</v>
       </c>
       <c r="C129" t="n">
-        <v>0.73282</v>
+        <v>0.732246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.769787</v>
+        <v>0.596737</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.689523</v>
+        <v>0.675742</v>
       </c>
       <c r="C130" t="n">
-        <v>0.722267</v>
+        <v>0.718875</v>
       </c>
       <c r="D130" t="n">
-        <v>0.759693</v>
+        <v>0.585683</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.682126</v>
+        <v>0.667675</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7126710000000001</v>
+        <v>0.709474</v>
       </c>
       <c r="D131" t="n">
-        <v>0.747043</v>
+        <v>0.578964</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.674766</v>
+        <v>0.660722</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7016289999999999</v>
+        <v>0.698218</v>
       </c>
       <c r="D132" t="n">
-        <v>0.733654</v>
+        <v>0.570983</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.663936</v>
+        <v>0.652049</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6914709999999999</v>
+        <v>0.690456</v>
       </c>
       <c r="D133" t="n">
-        <v>0.725005</v>
+        <v>0.564286</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.66012</v>
+        <v>0.648258</v>
       </c>
       <c r="C134" t="n">
-        <v>0.685607</v>
+        <v>0.684608</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7136479999999999</v>
+        <v>0.560049</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.655741</v>
+        <v>0.640987</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6761740000000001</v>
+        <v>0.676484</v>
       </c>
       <c r="D135" t="n">
-        <v>0.707891</v>
+        <v>0.555437</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.650452</v>
+        <v>0.637836</v>
       </c>
       <c r="C136" t="n">
-        <v>0.673254</v>
+        <v>0.67153</v>
       </c>
       <c r="D136" t="n">
-        <v>0.701875</v>
+        <v>0.552435</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.647498</v>
+        <v>0.634152</v>
       </c>
       <c r="C137" t="n">
-        <v>0.668817</v>
+        <v>0.666521</v>
       </c>
       <c r="D137" t="n">
-        <v>0.698637</v>
+        <v>0.752094</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.834575</v>
+        <v>0.82138</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9230429999999999</v>
+        <v>0.920153</v>
       </c>
       <c r="D138" t="n">
-        <v>0.969584</v>
+        <v>0.741242</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8259069999999999</v>
+        <v>0.814435</v>
       </c>
       <c r="C139" t="n">
-        <v>0.907908</v>
+        <v>0.907299</v>
       </c>
       <c r="D139" t="n">
-        <v>0.951623</v>
+        <v>0.732167</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.81575</v>
+        <v>0.8059190000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.895609</v>
+        <v>0.892945</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9350850000000001</v>
+        <v>0.7223579999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.806744</v>
+        <v>0.799278</v>
       </c>
       <c r="C141" t="n">
-        <v>0.882193</v>
+        <v>0.880213</v>
       </c>
       <c r="D141" t="n">
-        <v>0.920366</v>
+        <v>0.713567</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.80067</v>
+        <v>0.79094</v>
       </c>
       <c r="C142" t="n">
-        <v>0.870638</v>
+        <v>0.868077</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90321</v>
+        <v>0.7047099999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.789723</v>
+        <v>0.78559</v>
       </c>
       <c r="C143" t="n">
-        <v>0.858781</v>
+        <v>0.856652</v>
       </c>
       <c r="D143" t="n">
-        <v>0.891169</v>
+        <v>0.698192</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244348</v>
+        <v>0.247523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255104</v>
+        <v>0.255271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203759</v>
+        <v>0.219319</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238581</v>
+        <v>0.241089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246679</v>
+        <v>0.246799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197853</v>
+        <v>0.213891</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232418</v>
+        <v>0.234954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240142</v>
+        <v>0.239622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193265</v>
+        <v>0.209181</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227624</v>
+        <v>0.230034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234419</v>
+        <v>0.233937</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189569</v>
+        <v>0.204619</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223413</v>
+        <v>0.225308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228912</v>
+        <v>0.228396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.186427</v>
+        <v>0.201334</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220338</v>
+        <v>0.221572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22519</v>
+        <v>0.224712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.185607</v>
+        <v>0.199629</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217878</v>
+        <v>0.220289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222803</v>
+        <v>0.222031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187327</v>
+        <v>0.199951</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21775</v>
+        <v>0.220785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222574</v>
+        <v>0.221361</v>
       </c>
       <c r="D9" t="n">
-        <v>0.28064</v>
+        <v>0.291837</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306365</v>
+        <v>0.309633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.332884</v>
+        <v>0.332339</v>
       </c>
       <c r="D10" t="n">
-        <v>0.270474</v>
+        <v>0.282798</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296094</v>
+        <v>0.300116</v>
       </c>
       <c r="C11" t="n">
-        <v>0.321318</v>
+        <v>0.320997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260626</v>
+        <v>0.27317</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287337</v>
+        <v>0.290802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.310555</v>
+        <v>0.3103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251661</v>
+        <v>0.264445</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278148</v>
+        <v>0.282515</v>
       </c>
       <c r="C13" t="n">
-        <v>0.300115</v>
+        <v>0.299722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243195</v>
+        <v>0.256006</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269781</v>
+        <v>0.273632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.290232</v>
+        <v>0.289792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235169</v>
+        <v>0.24878</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262002</v>
+        <v>0.265535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280968</v>
+        <v>0.279706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228237</v>
+        <v>0.241444</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255457</v>
+        <v>0.258165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.272024</v>
+        <v>0.271687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221273</v>
+        <v>0.234718</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248169</v>
+        <v>0.251188</v>
       </c>
       <c r="C17" t="n">
-        <v>0.264205</v>
+        <v>0.263804</v>
       </c>
       <c r="D17" t="n">
-        <v>0.215202</v>
+        <v>0.228956</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242007</v>
+        <v>0.244724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.257079</v>
+        <v>0.25588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210158</v>
+        <v>0.223857</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236719</v>
+        <v>0.239229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250563</v>
+        <v>0.250281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20546</v>
+        <v>0.219335</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231513</v>
+        <v>0.233812</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244846</v>
+        <v>0.244358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202567</v>
+        <v>0.215803</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22822</v>
+        <v>0.230263</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240681</v>
+        <v>0.240374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201301</v>
+        <v>0.214121</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225158</v>
+        <v>0.227638</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237704</v>
+        <v>0.237561</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202741</v>
+        <v>0.214924</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224554</v>
+        <v>0.226353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237113</v>
+        <v>0.236935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.294741</v>
+        <v>0.30716</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311915</v>
+        <v>0.314435</v>
       </c>
       <c r="C24" t="n">
-        <v>0.347241</v>
+        <v>0.34718</v>
       </c>
       <c r="D24" t="n">
-        <v>0.284554</v>
+        <v>0.29687</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302555</v>
+        <v>0.304829</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335372</v>
+        <v>0.335598</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274721</v>
+        <v>0.287314</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293314</v>
+        <v>0.29548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.32407</v>
+        <v>0.324182</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265408</v>
+        <v>0.278226</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284194</v>
+        <v>0.286441</v>
       </c>
       <c r="C27" t="n">
-        <v>0.31303</v>
+        <v>0.313631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.256718</v>
+        <v>0.26997</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27628</v>
+        <v>0.278466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.303082</v>
+        <v>0.303535</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248511</v>
+        <v>0.261732</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268338</v>
+        <v>0.270386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.293899</v>
+        <v>0.293969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240871</v>
+        <v>0.254155</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261034</v>
+        <v>0.262666</v>
       </c>
       <c r="C30" t="n">
-        <v>0.285214</v>
+        <v>0.284704</v>
       </c>
       <c r="D30" t="n">
-        <v>0.233495</v>
+        <v>0.246961</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253813</v>
+        <v>0.256137</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276095</v>
+        <v>0.276546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22701</v>
+        <v>0.240487</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247759</v>
+        <v>0.249556</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268324</v>
+        <v>0.267844</v>
       </c>
       <c r="D32" t="n">
-        <v>0.220889</v>
+        <v>0.234232</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.241376</v>
+        <v>0.24321</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260454</v>
+        <v>0.261272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21561</v>
+        <v>0.228989</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236374</v>
+        <v>0.2382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254073</v>
+        <v>0.254771</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211488</v>
+        <v>0.224927</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232506</v>
+        <v>0.234257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.248335</v>
+        <v>0.249749</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208837</v>
+        <v>0.221962</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229628</v>
+        <v>0.230716</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24446</v>
+        <v>0.245183</v>
       </c>
       <c r="D36" t="n">
-        <v>0.207812</v>
+        <v>0.221093</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227578</v>
+        <v>0.229469</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242423</v>
+        <v>0.243791</v>
       </c>
       <c r="D37" t="n">
-        <v>0.303031</v>
+        <v>0.315734</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319021</v>
+        <v>0.316991</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355909</v>
+        <v>0.355997</v>
       </c>
       <c r="D38" t="n">
-        <v>0.292997</v>
+        <v>0.305656</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308829</v>
+        <v>0.306653</v>
       </c>
       <c r="C39" t="n">
-        <v>0.343729</v>
+        <v>0.344706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.283339</v>
+        <v>0.296187</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299867</v>
+        <v>0.298169</v>
       </c>
       <c r="C40" t="n">
-        <v>0.333475</v>
+        <v>0.333596</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274175</v>
+        <v>0.28718</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29098</v>
+        <v>0.289019</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322005</v>
+        <v>0.323023</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265439</v>
+        <v>0.278628</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282726</v>
+        <v>0.281747</v>
       </c>
       <c r="C42" t="n">
-        <v>0.31192</v>
+        <v>0.312891</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257207</v>
+        <v>0.27037</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275191</v>
+        <v>0.272886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303209</v>
+        <v>0.301558</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249426</v>
+        <v>0.262762</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.268159</v>
+        <v>0.266225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.293742</v>
+        <v>0.293938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.242211</v>
+        <v>0.255549</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260897</v>
+        <v>0.259793</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285467</v>
+        <v>0.284302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235561</v>
+        <v>0.248972</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25424</v>
+        <v>0.253161</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277103</v>
+        <v>0.277955</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229654</v>
+        <v>0.243004</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248151</v>
+        <v>0.247112</v>
       </c>
       <c r="C47" t="n">
-        <v>0.270575</v>
+        <v>0.270187</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224464</v>
+        <v>0.237731</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.243323</v>
+        <v>0.241573</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263726</v>
+        <v>0.2638</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22015</v>
+        <v>0.233297</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.238889</v>
+        <v>0.237758</v>
       </c>
       <c r="C49" t="n">
-        <v>0.259132</v>
+        <v>0.258257</v>
       </c>
       <c r="D49" t="n">
-        <v>0.217277</v>
+        <v>0.230282</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235943</v>
+        <v>0.234603</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254448</v>
+        <v>0.254163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216044</v>
+        <v>0.228792</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233195</v>
+        <v>0.232141</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251449</v>
+        <v>0.251008</v>
       </c>
       <c r="D51" t="n">
-        <v>0.314975</v>
+        <v>0.327587</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.234149</v>
+        <v>0.234252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25126</v>
+        <v>0.251833</v>
       </c>
       <c r="D52" t="n">
-        <v>0.304729</v>
+        <v>0.317643</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.321357</v>
+        <v>0.320484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.357656</v>
+        <v>0.358174</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29514</v>
+        <v>0.308003</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31225</v>
+        <v>0.311437</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346399</v>
+        <v>0.346954</v>
       </c>
       <c r="D54" t="n">
-        <v>0.285985</v>
+        <v>0.299064</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.303757</v>
+        <v>0.302776</v>
       </c>
       <c r="C55" t="n">
-        <v>0.335816</v>
+        <v>0.336376</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277184</v>
+        <v>0.290377</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.295646</v>
+        <v>0.294648</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3259</v>
+        <v>0.326308</v>
       </c>
       <c r="D56" t="n">
-        <v>0.269005</v>
+        <v>0.282389</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.288217</v>
+        <v>0.286087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.316381</v>
+        <v>0.316794</v>
       </c>
       <c r="D57" t="n">
-        <v>0.261328</v>
+        <v>0.274811</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.28086</v>
+        <v>0.278993</v>
       </c>
       <c r="C58" t="n">
-        <v>0.307377</v>
+        <v>0.307742</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254038</v>
+        <v>0.267593</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27386</v>
+        <v>0.272409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298999</v>
+        <v>0.299234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247322</v>
+        <v>0.260818</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267593</v>
+        <v>0.265964</v>
       </c>
       <c r="C60" t="n">
-        <v>0.291273</v>
+        <v>0.291362</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241397</v>
+        <v>0.25482</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26181</v>
+        <v>0.260161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284101</v>
+        <v>0.284108</v>
       </c>
       <c r="D61" t="n">
-        <v>0.236186</v>
+        <v>0.249508</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256807</v>
+        <v>0.255449</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277696</v>
+        <v>0.277742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.231747</v>
+        <v>0.244945</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252225</v>
+        <v>0.251257</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272023</v>
+        <v>0.271929</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228469</v>
+        <v>0.241416</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248481</v>
+        <v>0.247344</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267313</v>
+        <v>0.267233</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227005</v>
+        <v>0.239481</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246447</v>
+        <v>0.245443</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26418</v>
+        <v>0.264186</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228178</v>
+        <v>0.239972</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.246203</v>
+        <v>0.24522</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263779</v>
+        <v>0.263621</v>
       </c>
       <c r="D66" t="n">
-        <v>0.336994</v>
+        <v>0.3492</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379976</v>
+        <v>0.379187</v>
       </c>
       <c r="C67" t="n">
-        <v>0.39461</v>
+        <v>0.394825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.325909</v>
+        <v>0.338762</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.372177</v>
+        <v>0.371137</v>
       </c>
       <c r="C68" t="n">
-        <v>0.383194</v>
+        <v>0.38358</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316739</v>
+        <v>0.329679</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364922</v>
+        <v>0.363882</v>
       </c>
       <c r="C69" t="n">
-        <v>0.372414</v>
+        <v>0.372283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307666</v>
+        <v>0.320848</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358095</v>
+        <v>0.356692</v>
       </c>
       <c r="C70" t="n">
-        <v>0.361885</v>
+        <v>0.361255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.29885</v>
+        <v>0.311967</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.351338</v>
+        <v>0.350354</v>
       </c>
       <c r="C71" t="n">
-        <v>0.351685</v>
+        <v>0.350945</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290855</v>
+        <v>0.304188</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.344876</v>
+        <v>0.343733</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34206</v>
+        <v>0.341274</v>
       </c>
       <c r="D72" t="n">
-        <v>0.283152</v>
+        <v>0.296489</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.338429</v>
+        <v>0.33758</v>
       </c>
       <c r="C73" t="n">
-        <v>0.332746</v>
+        <v>0.332292</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275975</v>
+        <v>0.289526</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332279</v>
+        <v>0.331274</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324087</v>
+        <v>0.323996</v>
       </c>
       <c r="D74" t="n">
-        <v>0.269407</v>
+        <v>0.283025</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32595</v>
+        <v>0.325219</v>
       </c>
       <c r="C75" t="n">
-        <v>0.315998</v>
+        <v>0.316136</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263068</v>
+        <v>0.277162</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.31988</v>
+        <v>0.318926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308684</v>
+        <v>0.308657</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257951</v>
+        <v>0.271808</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314041</v>
+        <v>0.313018</v>
       </c>
       <c r="C77" t="n">
-        <v>0.301947</v>
+        <v>0.301886</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253957</v>
+        <v>0.267755</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308933</v>
+        <v>0.307945</v>
       </c>
       <c r="C78" t="n">
-        <v>0.296538</v>
+        <v>0.296385</v>
       </c>
       <c r="D78" t="n">
-        <v>0.251541</v>
+        <v>0.264897</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305099</v>
+        <v>0.303977</v>
       </c>
       <c r="C79" t="n">
-        <v>0.292599</v>
+        <v>0.29249</v>
       </c>
       <c r="D79" t="n">
-        <v>0.251406</v>
+        <v>0.264362</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302617</v>
+        <v>0.302007</v>
       </c>
       <c r="C80" t="n">
-        <v>0.290653</v>
+        <v>0.290579</v>
       </c>
       <c r="D80" t="n">
-        <v>0.38998</v>
+        <v>0.404859</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.532589</v>
+        <v>0.527593</v>
       </c>
       <c r="C81" t="n">
-        <v>0.459882</v>
+        <v>0.463645</v>
       </c>
       <c r="D81" t="n">
-        <v>0.381987</v>
+        <v>0.39834</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.523523</v>
+        <v>0.519859</v>
       </c>
       <c r="C82" t="n">
-        <v>0.452108</v>
+        <v>0.453476</v>
       </c>
       <c r="D82" t="n">
-        <v>0.372797</v>
+        <v>0.389205</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.513279</v>
+        <v>0.509406</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441484</v>
+        <v>0.441712</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364296</v>
+        <v>0.380003</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.502784</v>
+        <v>0.498734</v>
       </c>
       <c r="C84" t="n">
-        <v>0.430002</v>
+        <v>0.432375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.354636</v>
+        <v>0.372234</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.492181</v>
+        <v>0.488604</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41919</v>
+        <v>0.415656</v>
       </c>
       <c r="D85" t="n">
-        <v>0.346633</v>
+        <v>0.356118</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.482104</v>
+        <v>0.479165</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408444</v>
+        <v>0.404524</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337208</v>
+        <v>0.348472</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.471974</v>
+        <v>0.468921</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398112</v>
+        <v>0.393047</v>
       </c>
       <c r="D87" t="n">
-        <v>0.328718</v>
+        <v>0.338583</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461869</v>
+        <v>0.458934</v>
       </c>
       <c r="C88" t="n">
-        <v>0.388999</v>
+        <v>0.390529</v>
       </c>
       <c r="D88" t="n">
-        <v>0.321767</v>
+        <v>0.340218</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.452596</v>
+        <v>0.450069</v>
       </c>
       <c r="C89" t="n">
-        <v>0.379859</v>
+        <v>0.373458</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314244</v>
+        <v>0.32317</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.443578</v>
+        <v>0.44118</v>
       </c>
       <c r="C90" t="n">
-        <v>0.371655</v>
+        <v>0.36513</v>
       </c>
       <c r="D90" t="n">
-        <v>0.308273</v>
+        <v>0.317525</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435115</v>
+        <v>0.432468</v>
       </c>
       <c r="C91" t="n">
-        <v>0.364756</v>
+        <v>0.366556</v>
       </c>
       <c r="D91" t="n">
-        <v>0.303466</v>
+        <v>0.32091</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.427298</v>
+        <v>0.424875</v>
       </c>
       <c r="C92" t="n">
-        <v>0.358291</v>
+        <v>0.350261</v>
       </c>
       <c r="D92" t="n">
-        <v>0.29902</v>
+        <v>0.306696</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.420182</v>
+        <v>0.418014</v>
       </c>
       <c r="C93" t="n">
-        <v>0.352855</v>
+        <v>0.344312</v>
       </c>
       <c r="D93" t="n">
-        <v>0.297363</v>
+        <v>0.303965</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41462</v>
+        <v>0.41143</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349459</v>
+        <v>0.351346</v>
       </c>
       <c r="D94" t="n">
-        <v>0.563527</v>
+        <v>0.575651</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.550554</v>
+        <v>0.54761</v>
       </c>
       <c r="C95" t="n">
-        <v>0.601597</v>
+        <v>0.600593</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5527030000000001</v>
+        <v>0.567632</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.547071</v>
+        <v>0.545007</v>
       </c>
       <c r="C96" t="n">
-        <v>0.594427</v>
+        <v>0.594108</v>
       </c>
       <c r="D96" t="n">
-        <v>0.539276</v>
+        <v>0.553507</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.537181</v>
+        <v>0.535635</v>
       </c>
       <c r="C97" t="n">
-        <v>0.578569</v>
+        <v>0.578581</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5213950000000001</v>
+        <v>0.538992</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.525733</v>
+        <v>0.526041</v>
       </c>
       <c r="C98" t="n">
-        <v>0.562079</v>
+        <v>0.56274</v>
       </c>
       <c r="D98" t="n">
-        <v>0.50751</v>
+        <v>0.524726</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.517943</v>
+        <v>0.515602</v>
       </c>
       <c r="C99" t="n">
-        <v>0.547005</v>
+        <v>0.545736</v>
       </c>
       <c r="D99" t="n">
-        <v>0.493265</v>
+        <v>0.509995</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.508366</v>
+        <v>0.506937</v>
       </c>
       <c r="C100" t="n">
-        <v>0.532021</v>
+        <v>0.533104</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479009</v>
+        <v>0.497856</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5000019999999999</v>
+        <v>0.497825</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5196499999999999</v>
+        <v>0.515746</v>
       </c>
       <c r="D101" t="n">
-        <v>0.466078</v>
+        <v>0.485439</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.491701</v>
+        <v>0.490535</v>
       </c>
       <c r="C102" t="n">
-        <v>0.506833</v>
+        <v>0.506749</v>
       </c>
       <c r="D102" t="n">
-        <v>0.454008</v>
+        <v>0.474421</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484502</v>
+        <v>0.482233</v>
       </c>
       <c r="C103" t="n">
-        <v>0.495297</v>
+        <v>0.494963</v>
       </c>
       <c r="D103" t="n">
-        <v>0.443602</v>
+        <v>0.452118</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477425</v>
+        <v>0.476199</v>
       </c>
       <c r="C104" t="n">
-        <v>0.483818</v>
+        <v>0.479649</v>
       </c>
       <c r="D104" t="n">
-        <v>0.432162</v>
+        <v>0.453512</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.470474</v>
+        <v>0.468595</v>
       </c>
       <c r="C105" t="n">
-        <v>0.47273</v>
+        <v>0.473793</v>
       </c>
       <c r="D105" t="n">
-        <v>0.424894</v>
+        <v>0.445169</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46489</v>
+        <v>0.462424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.464098</v>
+        <v>0.465838</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41546</v>
+        <v>0.437826</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.460155</v>
+        <v>0.458832</v>
       </c>
       <c r="C107" t="n">
-        <v>0.457485</v>
+        <v>0.458678</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410943</v>
+        <v>0.418731</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.456562</v>
+        <v>0.454262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.453809</v>
+        <v>0.452003</v>
       </c>
       <c r="D108" t="n">
-        <v>0.609884</v>
+        <v>0.627486</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.454734</v>
+        <v>0.453421</v>
       </c>
       <c r="C109" t="n">
-        <v>0.452213</v>
+        <v>0.449897</v>
       </c>
       <c r="D109" t="n">
-        <v>0.600301</v>
+        <v>0.615577</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.651591</v>
+        <v>0.648338</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7089</v>
+        <v>0.702815</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586318</v>
+        <v>0.605005</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.640147</v>
+        <v>0.636335</v>
       </c>
       <c r="C111" t="n">
-        <v>0.691171</v>
+        <v>0.686852</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570412</v>
+        <v>0.591539</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.627221</v>
+        <v>0.6234459999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.674439</v>
+        <v>0.666414</v>
       </c>
       <c r="D112" t="n">
-        <v>0.556122</v>
+        <v>0.572654</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616302</v>
+        <v>0.6134579999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6567809999999999</v>
+        <v>0.6549779999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.542834</v>
+        <v>0.556387</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.60549</v>
+        <v>0.601248</v>
       </c>
       <c r="C114" t="n">
-        <v>0.639737</v>
+        <v>0.6335190000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.529565</v>
+        <v>0.554182</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.595227</v>
+        <v>0.589462</v>
       </c>
       <c r="C115" t="n">
-        <v>0.626283</v>
+        <v>0.61917</v>
       </c>
       <c r="D115" t="n">
-        <v>0.518309</v>
+        <v>0.543108</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585695</v>
+        <v>0.579682</v>
       </c>
       <c r="C116" t="n">
-        <v>0.612201</v>
+        <v>0.6105080000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.50745</v>
+        <v>0.532195</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.576093</v>
+        <v>0.572386</v>
       </c>
       <c r="C117" t="n">
-        <v>0.60112</v>
+        <v>0.597557</v>
       </c>
       <c r="D117" t="n">
-        <v>0.496722</v>
+        <v>0.516941</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.567169</v>
+        <v>0.562376</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5869180000000001</v>
+        <v>0.583907</v>
       </c>
       <c r="D118" t="n">
-        <v>0.487153</v>
+        <v>0.511368</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.55929</v>
+        <v>0.553408</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57564</v>
+        <v>0.574202</v>
       </c>
       <c r="D119" t="n">
-        <v>0.478394</v>
+        <v>0.503139</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.553366</v>
+        <v>0.54653</v>
       </c>
       <c r="C120" t="n">
-        <v>0.568161</v>
+        <v>0.565811</v>
       </c>
       <c r="D120" t="n">
-        <v>0.470914</v>
+        <v>0.497389</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5460469999999999</v>
+        <v>0.543343</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558805</v>
+        <v>0.557127</v>
       </c>
       <c r="D121" t="n">
-        <v>0.464333</v>
+        <v>0.490892</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.541513</v>
+        <v>0.534341</v>
       </c>
       <c r="C122" t="n">
-        <v>0.551736</v>
+        <v>0.547215</v>
       </c>
       <c r="D122" t="n">
-        <v>0.459188</v>
+        <v>0.486309</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.537695</v>
+        <v>0.529915</v>
       </c>
       <c r="C123" t="n">
-        <v>0.545373</v>
+        <v>0.542102</v>
       </c>
       <c r="D123" t="n">
-        <v>0.65894</v>
+        <v>0.6820889999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.729818</v>
+        <v>0.719603</v>
       </c>
       <c r="C124" t="n">
-        <v>0.79944</v>
+        <v>0.792012</v>
       </c>
       <c r="D124" t="n">
-        <v>0.646379</v>
+        <v>0.674283</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.718908</v>
+        <v>0.7140339999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.783962</v>
+        <v>0.779825</v>
       </c>
       <c r="D125" t="n">
-        <v>0.635821</v>
+        <v>0.665501</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.709623</v>
+        <v>0.700566</v>
       </c>
       <c r="C126" t="n">
-        <v>0.769408</v>
+        <v>0.760693</v>
       </c>
       <c r="D126" t="n">
-        <v>0.622908</v>
+        <v>0.655786</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.697342</v>
+        <v>0.6930770000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755089</v>
+        <v>0.751673</v>
       </c>
       <c r="D127" t="n">
-        <v>0.61619</v>
+        <v>0.647423</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.690449</v>
+        <v>0.68414</v>
       </c>
       <c r="C128" t="n">
-        <v>0.743095</v>
+        <v>0.737882</v>
       </c>
       <c r="D128" t="n">
-        <v>0.604954</v>
+        <v>0.634291</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.684534</v>
+        <v>0.676816</v>
       </c>
       <c r="C129" t="n">
-        <v>0.732246</v>
+        <v>0.72373</v>
       </c>
       <c r="D129" t="n">
-        <v>0.596737</v>
+        <v>0.631749</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.675742</v>
+        <v>0.66755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.718875</v>
+        <v>0.713632</v>
       </c>
       <c r="D130" t="n">
-        <v>0.585683</v>
+        <v>0.625047</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.667675</v>
+        <v>0.663307</v>
       </c>
       <c r="C131" t="n">
-        <v>0.709474</v>
+        <v>0.705113</v>
       </c>
       <c r="D131" t="n">
-        <v>0.578964</v>
+        <v>0.614725</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.660722</v>
+        <v>0.652661</v>
       </c>
       <c r="C132" t="n">
-        <v>0.698218</v>
+        <v>0.694272</v>
       </c>
       <c r="D132" t="n">
-        <v>0.570983</v>
+        <v>0.6125389999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.652049</v>
+        <v>0.646932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.690456</v>
+        <v>0.687075</v>
       </c>
       <c r="D133" t="n">
-        <v>0.564286</v>
+        <v>0.60662</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.648258</v>
+        <v>0.641371</v>
       </c>
       <c r="C134" t="n">
-        <v>0.684608</v>
+        <v>0.676854</v>
       </c>
       <c r="D134" t="n">
-        <v>0.560049</v>
+        <v>0.598245</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.640987</v>
+        <v>0.63644</v>
       </c>
       <c r="C135" t="n">
-        <v>0.676484</v>
+        <v>0.672642</v>
       </c>
       <c r="D135" t="n">
-        <v>0.555437</v>
+        <v>0.59285</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.637836</v>
+        <v>0.634809</v>
       </c>
       <c r="C136" t="n">
-        <v>0.67153</v>
+        <v>0.667578</v>
       </c>
       <c r="D136" t="n">
-        <v>0.552435</v>
+        <v>0.592252</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.634152</v>
+        <v>0.627737</v>
       </c>
       <c r="C137" t="n">
-        <v>0.666521</v>
+        <v>0.659825</v>
       </c>
       <c r="D137" t="n">
-        <v>0.752094</v>
+        <v>0.7947610000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.82138</v>
+        <v>0.817388</v>
       </c>
       <c r="C138" t="n">
-        <v>0.920153</v>
+        <v>0.915417</v>
       </c>
       <c r="D138" t="n">
-        <v>0.741242</v>
+        <v>0.7816959999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.814435</v>
+        <v>0.8106100000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.907299</v>
+        <v>0.903384</v>
       </c>
       <c r="D139" t="n">
-        <v>0.732167</v>
+        <v>0.775526</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8059190000000001</v>
+        <v>0.80014</v>
       </c>
       <c r="C140" t="n">
-        <v>0.892945</v>
+        <v>0.889055</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7223579999999999</v>
+        <v>0.768909</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.799278</v>
+        <v>0.792451</v>
       </c>
       <c r="C141" t="n">
-        <v>0.880213</v>
+        <v>0.876317</v>
       </c>
       <c r="D141" t="n">
-        <v>0.713567</v>
+        <v>0.76458</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.79094</v>
+        <v>0.783366</v>
       </c>
       <c r="C142" t="n">
-        <v>0.868077</v>
+        <v>0.863939</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7047099999999999</v>
+        <v>0.75569</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.78559</v>
+        <v>0.7780589999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.856652</v>
+        <v>0.851877</v>
       </c>
       <c r="D143" t="n">
-        <v>0.698192</v>
+        <v>0.752765</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running insertion.xlsx
+++ b/clang-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247523</v>
+        <v>0.246801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255271</v>
+        <v>0.25414</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219319</v>
+        <v>0.257453</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241089</v>
+        <v>0.240757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246799</v>
+        <v>0.246735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213891</v>
+        <v>0.249787</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234954</v>
+        <v>0.235231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239622</v>
+        <v>0.239857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209181</v>
+        <v>0.243228</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230034</v>
+        <v>0.229745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233937</v>
+        <v>0.233722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204619</v>
+        <v>0.237429</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225308</v>
+        <v>0.225364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228396</v>
+        <v>0.227801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201334</v>
+        <v>0.232197</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221572</v>
+        <v>0.221813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224712</v>
+        <v>0.224499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199629</v>
+        <v>0.228789</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220289</v>
+        <v>0.22017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222031</v>
+        <v>0.221993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199951</v>
+        <v>0.227891</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220785</v>
+        <v>0.220939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221361</v>
+        <v>0.221703</v>
       </c>
       <c r="D9" t="n">
-        <v>0.291837</v>
+        <v>0.347593</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309633</v>
+        <v>0.309741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.332339</v>
+        <v>0.332413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.282798</v>
+        <v>0.33504</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300116</v>
+        <v>0.300027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.320997</v>
+        <v>0.321058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.27317</v>
+        <v>0.323599</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290802</v>
+        <v>0.290849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3103</v>
+        <v>0.310159</v>
       </c>
       <c r="D12" t="n">
-        <v>0.264445</v>
+        <v>0.312444</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.282515</v>
+        <v>0.281833</v>
       </c>
       <c r="C13" t="n">
-        <v>0.299722</v>
+        <v>0.29977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256006</v>
+        <v>0.301283</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273632</v>
+        <v>0.273391</v>
       </c>
       <c r="C14" t="n">
-        <v>0.289792</v>
+        <v>0.289936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24878</v>
+        <v>0.291967</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265535</v>
+        <v>0.265593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.279706</v>
+        <v>0.28105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241444</v>
+        <v>0.282651</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258165</v>
+        <v>0.258315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271687</v>
+        <v>0.271853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234718</v>
+        <v>0.273492</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251188</v>
+        <v>0.251364</v>
       </c>
       <c r="C17" t="n">
-        <v>0.263804</v>
+        <v>0.263869</v>
       </c>
       <c r="D17" t="n">
-        <v>0.228956</v>
+        <v>0.26595</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244724</v>
+        <v>0.244829</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25588</v>
+        <v>0.25685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223857</v>
+        <v>0.259096</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239229</v>
+        <v>0.239042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250281</v>
+        <v>0.249379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219335</v>
+        <v>0.252687</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233812</v>
+        <v>0.234327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244358</v>
+        <v>0.244552</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215803</v>
+        <v>0.247836</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230263</v>
+        <v>0.230483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240374</v>
+        <v>0.240447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214121</v>
+        <v>0.244427</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227638</v>
+        <v>0.227511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237561</v>
+        <v>0.23665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214924</v>
+        <v>0.243603</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226353</v>
+        <v>0.226599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236935</v>
+        <v>0.236208</v>
       </c>
       <c r="D23" t="n">
-        <v>0.30716</v>
+        <v>0.363401</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314435</v>
+        <v>0.31466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.34718</v>
+        <v>0.347139</v>
       </c>
       <c r="D24" t="n">
-        <v>0.29687</v>
+        <v>0.350798</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304829</v>
+        <v>0.30489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.335598</v>
+        <v>0.335345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.287314</v>
+        <v>0.338638</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29548</v>
+        <v>0.295603</v>
       </c>
       <c r="C26" t="n">
-        <v>0.324182</v>
+        <v>0.324431</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278226</v>
+        <v>0.32703</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286441</v>
+        <v>0.286598</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313631</v>
+        <v>0.313262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26997</v>
+        <v>0.316283</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278466</v>
+        <v>0.278268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.303535</v>
+        <v>0.303802</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261732</v>
+        <v>0.306195</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270386</v>
+        <v>0.270214</v>
       </c>
       <c r="C29" t="n">
-        <v>0.293969</v>
+        <v>0.29368</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254155</v>
+        <v>0.296526</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262666</v>
+        <v>0.262847</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284704</v>
+        <v>0.285152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246961</v>
+        <v>0.287223</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256137</v>
+        <v>0.255963</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276546</v>
+        <v>0.276482</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240487</v>
+        <v>0.278829</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249556</v>
+        <v>0.249397</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267844</v>
+        <v>0.268424</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234232</v>
+        <v>0.270451</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24321</v>
+        <v>0.243469</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261272</v>
+        <v>0.260952</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228989</v>
+        <v>0.263906</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2382</v>
+        <v>0.238146</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254771</v>
+        <v>0.25513</v>
       </c>
       <c r="D34" t="n">
-        <v>0.224927</v>
+        <v>0.257959</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.234257</v>
+        <v>0.233999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249749</v>
+        <v>0.249215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221962</v>
+        <v>0.253508</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230716</v>
+        <v>0.230731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245183</v>
+        <v>0.24469</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221093</v>
+        <v>0.251336</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229469</v>
+        <v>0.229025</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243791</v>
+        <v>0.242617</v>
       </c>
       <c r="D37" t="n">
-        <v>0.315734</v>
+        <v>0.373608</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316991</v>
+        <v>0.316932</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355997</v>
+        <v>0.355743</v>
       </c>
       <c r="D38" t="n">
-        <v>0.305656</v>
+        <v>0.360917</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306653</v>
+        <v>0.307646</v>
       </c>
       <c r="C39" t="n">
-        <v>0.344706</v>
+        <v>0.344675</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296187</v>
+        <v>0.348801</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298169</v>
+        <v>0.297979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.333596</v>
+        <v>0.333703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.28718</v>
+        <v>0.337162</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289019</v>
+        <v>0.28936</v>
       </c>
       <c r="C41" t="n">
-        <v>0.323023</v>
+        <v>0.322228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.278628</v>
+        <v>0.326148</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281747</v>
+        <v>0.28151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.312891</v>
+        <v>0.312413</v>
       </c>
       <c r="D42" t="n">
-        <v>0.27037</v>
+        <v>0.315758</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272886</v>
+        <v>0.274152</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301558</v>
+        <v>0.303152</v>
       </c>
       <c r="D43" t="n">
-        <v>0.262762</v>
+        <v>0.305891</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266225</v>
+        <v>0.26662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.293938</v>
+        <v>0.293332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255549</v>
+        <v>0.296695</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259793</v>
+        <v>0.259686</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284302</v>
+        <v>0.285135</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248972</v>
+        <v>0.288227</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253161</v>
+        <v>0.254009</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277955</v>
+        <v>0.277957</v>
       </c>
       <c r="D46" t="n">
-        <v>0.243004</v>
+        <v>0.280416</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.247112</v>
+        <v>0.247764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.270187</v>
+        <v>0.270211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237731</v>
+        <v>0.273502</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241573</v>
+        <v>0.243166</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2638</v>
+        <v>0.264619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233297</v>
+        <v>0.267337</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237758</v>
+        <v>0.239023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.258257</v>
+        <v>0.258889</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230282</v>
+        <v>0.262593</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234603</v>
+        <v>0.236458</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254163</v>
+        <v>0.254215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.228792</v>
+        <v>0.259459</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232141</v>
+        <v>0.233772</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251008</v>
+        <v>0.251797</v>
       </c>
       <c r="D51" t="n">
-        <v>0.327587</v>
+        <v>0.387277</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.234252</v>
+        <v>0.235897</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251833</v>
+        <v>0.251558</v>
       </c>
       <c r="D52" t="n">
-        <v>0.317643</v>
+        <v>0.374352</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.320484</v>
+        <v>0.321168</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358174</v>
+        <v>0.357266</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308003</v>
+        <v>0.362091</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311437</v>
+        <v>0.311946</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346954</v>
+        <v>0.345938</v>
       </c>
       <c r="D54" t="n">
-        <v>0.299064</v>
+        <v>0.350284</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302776</v>
+        <v>0.303236</v>
       </c>
       <c r="C55" t="n">
-        <v>0.336376</v>
+        <v>0.335399</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290377</v>
+        <v>0.339026</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.294648</v>
+        <v>0.295095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.326308</v>
+        <v>0.325001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.282389</v>
+        <v>0.328452</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286087</v>
+        <v>0.287468</v>
       </c>
       <c r="C57" t="n">
-        <v>0.316794</v>
+        <v>0.31551</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274811</v>
+        <v>0.318585</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278993</v>
+        <v>0.279984</v>
       </c>
       <c r="C58" t="n">
-        <v>0.307742</v>
+        <v>0.306229</v>
       </c>
       <c r="D58" t="n">
-        <v>0.267593</v>
+        <v>0.309166</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272409</v>
+        <v>0.273325</v>
       </c>
       <c r="C59" t="n">
-        <v>0.299234</v>
+        <v>0.297757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260818</v>
+        <v>0.300225</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265964</v>
+        <v>0.267082</v>
       </c>
       <c r="C60" t="n">
-        <v>0.291362</v>
+        <v>0.28976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25482</v>
+        <v>0.292231</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260161</v>
+        <v>0.261294</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284108</v>
+        <v>0.282592</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249508</v>
+        <v>0.285112</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255449</v>
+        <v>0.255965</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277742</v>
+        <v>0.276016</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244945</v>
+        <v>0.27867</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251257</v>
+        <v>0.251525</v>
       </c>
       <c r="C63" t="n">
-        <v>0.271929</v>
+        <v>0.270278</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241416</v>
+        <v>0.273337</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247344</v>
+        <v>0.248011</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267233</v>
+        <v>0.265627</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239481</v>
+        <v>0.269818</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245443</v>
+        <v>0.24598</v>
       </c>
       <c r="C65" t="n">
-        <v>0.264186</v>
+        <v>0.262588</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239972</v>
+        <v>0.268902</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.24522</v>
+        <v>0.245721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263621</v>
+        <v>0.262165</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3492</v>
+        <v>0.40818</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379187</v>
+        <v>0.382453</v>
       </c>
       <c r="C67" t="n">
-        <v>0.394825</v>
+        <v>0.397904</v>
       </c>
       <c r="D67" t="n">
-        <v>0.338762</v>
+        <v>0.394725</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.371137</v>
+        <v>0.374467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.38358</v>
+        <v>0.386307</v>
       </c>
       <c r="D68" t="n">
-        <v>0.329679</v>
+        <v>0.382973</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363882</v>
+        <v>0.36748</v>
       </c>
       <c r="C69" t="n">
-        <v>0.372283</v>
+        <v>0.375424</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320848</v>
+        <v>0.371004</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.356692</v>
+        <v>0.360942</v>
       </c>
       <c r="C70" t="n">
-        <v>0.361255</v>
+        <v>0.364083</v>
       </c>
       <c r="D70" t="n">
-        <v>0.311967</v>
+        <v>0.35977</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350354</v>
+        <v>0.354314</v>
       </c>
       <c r="C71" t="n">
-        <v>0.350945</v>
+        <v>0.353714</v>
       </c>
       <c r="D71" t="n">
-        <v>0.304188</v>
+        <v>0.349624</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343733</v>
+        <v>0.347761</v>
       </c>
       <c r="C72" t="n">
-        <v>0.341274</v>
+        <v>0.343984</v>
       </c>
       <c r="D72" t="n">
-        <v>0.296489</v>
+        <v>0.339806</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.33758</v>
+        <v>0.340862</v>
       </c>
       <c r="C73" t="n">
-        <v>0.332292</v>
+        <v>0.334585</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289526</v>
+        <v>0.330632</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.331274</v>
+        <v>0.334074</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323996</v>
+        <v>0.325924</v>
       </c>
       <c r="D74" t="n">
-        <v>0.283025</v>
+        <v>0.322104</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325219</v>
+        <v>0.327632</v>
       </c>
       <c r="C75" t="n">
-        <v>0.316136</v>
+        <v>0.317797</v>
       </c>
       <c r="D75" t="n">
-        <v>0.277162</v>
+        <v>0.314343</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318926</v>
+        <v>0.321557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308657</v>
+        <v>0.3103</v>
       </c>
       <c r="D76" t="n">
-        <v>0.271808</v>
+        <v>0.307292</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.313018</v>
+        <v>0.315609</v>
       </c>
       <c r="C77" t="n">
-        <v>0.301886</v>
+        <v>0.303586</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267755</v>
+        <v>0.301316</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307945</v>
+        <v>0.3103</v>
       </c>
       <c r="C78" t="n">
-        <v>0.296385</v>
+        <v>0.298136</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264897</v>
+        <v>0.296808</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.303977</v>
+        <v>0.306222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.29249</v>
+        <v>0.29398</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264362</v>
+        <v>0.294744</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302007</v>
+        <v>0.303807</v>
       </c>
       <c r="C80" t="n">
-        <v>0.290579</v>
+        <v>0.291786</v>
       </c>
       <c r="D80" t="n">
-        <v>0.404859</v>
+        <v>0.459931</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.527593</v>
+        <v>0.53281</v>
       </c>
       <c r="C81" t="n">
-        <v>0.463645</v>
+        <v>0.46228</v>
       </c>
       <c r="D81" t="n">
-        <v>0.39834</v>
+        <v>0.449997</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.519859</v>
+        <v>0.524363</v>
       </c>
       <c r="C82" t="n">
-        <v>0.453476</v>
+        <v>0.452603</v>
       </c>
       <c r="D82" t="n">
-        <v>0.389205</v>
+        <v>0.437838</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.509406</v>
+        <v>0.514526</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441712</v>
+        <v>0.441571</v>
       </c>
       <c r="D83" t="n">
-        <v>0.380003</v>
+        <v>0.42703</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.498734</v>
+        <v>0.503157</v>
       </c>
       <c r="C84" t="n">
-        <v>0.432375</v>
+        <v>0.430582</v>
       </c>
       <c r="D84" t="n">
-        <v>0.372234</v>
+        <v>0.415597</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.488604</v>
+        <v>0.493303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415656</v>
+        <v>0.41958</v>
       </c>
       <c r="D85" t="n">
-        <v>0.356118</v>
+        <v>0.405131</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.479165</v>
+        <v>0.482977</v>
       </c>
       <c r="C86" t="n">
-        <v>0.404524</v>
+        <v>0.408186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348472</v>
+        <v>0.394726</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.468921</v>
+        <v>0.472659</v>
       </c>
       <c r="C87" t="n">
-        <v>0.393047</v>
+        <v>0.399117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338583</v>
+        <v>0.385392</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.458934</v>
+        <v>0.463296</v>
       </c>
       <c r="C88" t="n">
-        <v>0.390529</v>
+        <v>0.389704</v>
       </c>
       <c r="D88" t="n">
-        <v>0.340218</v>
+        <v>0.376224</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.450069</v>
+        <v>0.453709</v>
       </c>
       <c r="C89" t="n">
-        <v>0.373458</v>
+        <v>0.38107</v>
       </c>
       <c r="D89" t="n">
-        <v>0.32317</v>
+        <v>0.367658</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.44118</v>
+        <v>0.444185</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36513</v>
+        <v>0.372618</v>
       </c>
       <c r="D90" t="n">
-        <v>0.317525</v>
+        <v>0.359841</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432468</v>
+        <v>0.435937</v>
       </c>
       <c r="C91" t="n">
-        <v>0.366556</v>
+        <v>0.364962</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32091</v>
+        <v>0.352368</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.424875</v>
+        <v>0.428299</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350261</v>
+        <v>0.358496</v>
       </c>
       <c r="D92" t="n">
-        <v>0.306696</v>
+        <v>0.347008</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.418014</v>
+        <v>0.421312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.344312</v>
+        <v>0.353672</v>
       </c>
       <c r="D93" t="n">
-        <v>0.303965</v>
+        <v>0.343452</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41143</v>
+        <v>0.416006</v>
       </c>
       <c r="C94" t="n">
-        <v>0.351346</v>
+        <v>0.350232</v>
       </c>
       <c r="D94" t="n">
-        <v>0.575651</v>
+        <v>0.633248</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.54761</v>
+        <v>0.551022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.600593</v>
+        <v>0.602038</v>
       </c>
       <c r="D95" t="n">
-        <v>0.567632</v>
+        <v>0.619767</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.545007</v>
+        <v>0.544543</v>
       </c>
       <c r="C96" t="n">
-        <v>0.594108</v>
+        <v>0.592862</v>
       </c>
       <c r="D96" t="n">
-        <v>0.553507</v>
+        <v>0.602234</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.535635</v>
+        <v>0.535471</v>
       </c>
       <c r="C97" t="n">
-        <v>0.578581</v>
+        <v>0.577916</v>
       </c>
       <c r="D97" t="n">
-        <v>0.538992</v>
+        <v>0.586566</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526041</v>
+        <v>0.526923</v>
       </c>
       <c r="C98" t="n">
-        <v>0.56274</v>
+        <v>0.562364</v>
       </c>
       <c r="D98" t="n">
-        <v>0.524726</v>
+        <v>0.568398</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.515602</v>
+        <v>0.516784</v>
       </c>
       <c r="C99" t="n">
-        <v>0.545736</v>
+        <v>0.547044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.509995</v>
+        <v>0.552677</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506937</v>
+        <v>0.508117</v>
       </c>
       <c r="C100" t="n">
-        <v>0.533104</v>
+        <v>0.533454</v>
       </c>
       <c r="D100" t="n">
-        <v>0.497856</v>
+        <v>0.53811</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.497825</v>
+        <v>0.499094</v>
       </c>
       <c r="C101" t="n">
-        <v>0.515746</v>
+        <v>0.518645</v>
       </c>
       <c r="D101" t="n">
-        <v>0.485439</v>
+        <v>0.52552</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.490535</v>
+        <v>0.491308</v>
       </c>
       <c r="C102" t="n">
-        <v>0.506749</v>
+        <v>0.507319</v>
       </c>
       <c r="D102" t="n">
-        <v>0.474421</v>
+        <v>0.512375</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482233</v>
+        <v>0.483752</v>
       </c>
       <c r="C103" t="n">
-        <v>0.494963</v>
+        <v>0.495247</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452118</v>
+        <v>0.499726</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.476199</v>
+        <v>0.476478</v>
       </c>
       <c r="C104" t="n">
-        <v>0.479649</v>
+        <v>0.483259</v>
       </c>
       <c r="D104" t="n">
-        <v>0.453512</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.468595</v>
+        <v>0.470815</v>
       </c>
       <c r="C105" t="n">
-        <v>0.473793</v>
+        <v>0.47476</v>
       </c>
       <c r="D105" t="n">
-        <v>0.445169</v>
+        <v>0.475624</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.462424</v>
+        <v>0.464567</v>
       </c>
       <c r="C106" t="n">
-        <v